--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1833">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,43 +44,43 @@
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2181692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0907926559448</t>
+    <t xml:space="preserve">11.218168258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0907917022705</t>
   </si>
   <si>
     <t xml:space="preserve">11.1453819274902</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2363662719727</t>
+    <t xml:space="preserve">11.236364364624</t>
   </si>
   <si>
     <t xml:space="preserve">11.4274301528931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2280759811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8914403915405</t>
+    <t xml:space="preserve">12.2280769348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8914413452148</t>
   </si>
   <si>
     <t xml:space="preserve">11.7367706298828</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4092321395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8095541000366</t>
+    <t xml:space="preserve">11.4092330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8095569610596</t>
   </si>
   <si>
     <t xml:space="preserve">12.0006198883057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6639833450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0916023254395</t>
+    <t xml:space="preserve">11.6639852523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0916032791138</t>
   </si>
   <si>
     <t xml:space="preserve">12.3918447494507</t>
@@ -89,28 +89,28 @@
     <t xml:space="preserve">12.2735691070557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4009437561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.373649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9915227890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3645505905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2189788818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1643877029419</t>
+    <t xml:space="preserve">12.4009447097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3736505508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9915218353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3645524978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2189798355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1643886566162</t>
   </si>
   <si>
     <t xml:space="preserve">12.0279150009155</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1825857162476</t>
+    <t xml:space="preserve">12.1825866699219</t>
   </si>
   <si>
     <t xml:space="preserve">11.6730823516846</t>
@@ -119,16 +119,16 @@
     <t xml:space="preserve">11.5275106430054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2909545898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.509313583374</t>
+    <t xml:space="preserve">11.2909555435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5093116760254</t>
   </si>
   <si>
     <t xml:space="preserve">11.1908740997314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5548048019409</t>
+    <t xml:space="preserve">11.5548028945923</t>
   </si>
   <si>
     <t xml:space="preserve">11.9369325637817</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">12.6920890808105</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5465154647827</t>
+    <t xml:space="preserve">12.5283193588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.546516418457</t>
   </si>
   <si>
     <t xml:space="preserve">12.6829900741577</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">12.0643081665039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4737310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287256240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2561807632446</t>
+    <t xml:space="preserve">12.4737300872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2561826705933</t>
   </si>
   <si>
     <t xml:space="preserve">13.05601978302</t>
@@ -167,73 +167,73 @@
     <t xml:space="preserve">13.5109338760376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7110958099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7838802337646</t>
+    <t xml:space="preserve">13.7110948562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.783881187439</t>
   </si>
   <si>
     <t xml:space="preserve">14.2842855453491</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7565870285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9294538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0204362869263</t>
+    <t xml:space="preserve">13.7565860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9294548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.020435333252</t>
   </si>
   <si>
     <t xml:space="preserve">13.6383085250854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380670547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3562631607056</t>
+    <t xml:space="preserve">13.3380651473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3562622070312</t>
   </si>
   <si>
     <t xml:space="preserve">13.2834768295288</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1924934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3107709884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2379856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3926553726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.820273399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4199495315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.274377822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2197875976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8740549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0833168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1197071075439</t>
+    <t xml:space="preserve">13.192494392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3107719421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2379875183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3926563262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8202743530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4199504852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2743787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2197885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8740530014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0833148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1197080612183</t>
   </si>
   <si>
     <t xml:space="preserve">13.3289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1651983261108</t>
+    <t xml:space="preserve">13.1651992797852</t>
   </si>
   <si>
     <t xml:space="preserve">13.447244644165</t>
@@ -242,190 +242,190 @@
     <t xml:space="preserve">13.5018358230591</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6928997039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4654417037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9741344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7921714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8831539154053</t>
+    <t xml:space="preserve">13.6928987503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4654426574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9741353988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7921705245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8831520080566</t>
   </si>
   <si>
     <t xml:space="preserve">13.2652788162231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2925758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6201124191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2478933334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3752698898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3115816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2660894393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9476509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8748626708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6656045913696</t>
+    <t xml:space="preserve">13.292573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6201133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2478923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3752689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3115797042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2660903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9476499557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8748636245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6656055450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6474084854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.867823600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7484302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.573935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7759838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9045600891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7667980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8035345077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6657752990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.619854927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9780302047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0423192977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0515031814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.601487159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.013710975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5096483230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1514711380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1249732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9872150421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1708946228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.547438621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2249431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5820646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9861602783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4453601837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2892322540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9035053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1698389053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2616806030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2157592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4729108810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2433109283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0596332550049</t>
   </si>
   <si>
     <t xml:space="preserve">13.6474075317383</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5280141830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8678245544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7484302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5739345550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7759838104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.904559135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7667980194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8035345077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6657752990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6198539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9780311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0423183441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0515031814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.601487159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545431137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.013710975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5096483230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1514720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1249752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9872140884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1708955764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5474376678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2249431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5820636749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9861612319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4453592300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2892322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9035034179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1698398590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.261679649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2157602310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4729118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2433109283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0596332550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.647406578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1433420181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.492335319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3821268081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6943817138672</t>
+    <t xml:space="preserve">14.1433429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4923324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3821258544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6943807601929</t>
   </si>
   <si>
     <t xml:space="preserve">14.4004945755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2719192504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8127193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.913743019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.244366645813</t>
+    <t xml:space="preserve">14.2719173431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8127174377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9137420654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2443675994873</t>
   </si>
   <si>
     <t xml:space="preserve">14.3453903198242</t>
@@ -437,31 +437,31 @@
     <t xml:space="preserve">14.1617107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3637571334839</t>
+    <t xml:space="preserve">14.3637580871582</t>
   </si>
   <si>
     <t xml:space="preserve">14.3086547851562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2351837158203</t>
+    <t xml:space="preserve">14.235182762146</t>
   </si>
   <si>
     <t xml:space="preserve">14.0790548324585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3178386688232</t>
+    <t xml:space="preserve">14.3178396224976</t>
   </si>
   <si>
     <t xml:space="preserve">14.0698709487915</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0055837631226</t>
+    <t xml:space="preserve">14.0055828094482</t>
   </si>
   <si>
     <t xml:space="preserve">13.8953742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8310871124268</t>
+    <t xml:space="preserve">13.8310880661011</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565914154053</t>
@@ -470,70 +470,70 @@
     <t xml:space="preserve">13.7208786010742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8219032287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0331344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8402700424194</t>
+    <t xml:space="preserve">13.8219041824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0331354141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8402709960938</t>
   </si>
   <si>
     <t xml:space="preserve">14.0147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2259979248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9229259490967</t>
+    <t xml:space="preserve">14.2259998321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.922926902771</t>
   </si>
   <si>
     <t xml:space="preserve">14.3270225524902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3913106918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7576141357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.959662437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9504776000977</t>
+    <t xml:space="preserve">14.3913116455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7576150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9596614837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.950478553772</t>
   </si>
   <si>
     <t xml:space="preserve">14.0974225997925</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7851676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1525259017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4188623428345</t>
+    <t xml:space="preserve">13.7851686477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1525268554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4188613891602</t>
   </si>
   <si>
     <t xml:space="preserve">14.2076292037964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.281102180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1892623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1066055297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9321117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7025108337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6933259963989</t>
+    <t xml:space="preserve">14.2811012268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1892614364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1066064834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.932110786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7025098800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6933269500732</t>
   </si>
   <si>
     <t xml:space="preserve">13.7943515777588</t>
@@ -542,34 +542,34 @@
     <t xml:space="preserve">13.6382236480713</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9412956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6290397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0882396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1800775527954</t>
+    <t xml:space="preserve">13.941294670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.62903881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0882387161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.180079460144</t>
   </si>
   <si>
     <t xml:space="preserve">14.3729419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9790849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9699010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2546052932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4382858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3831787109375</t>
+    <t xml:space="preserve">14.9790840148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9699020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2546043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3831825256348</t>
   </si>
   <si>
     <t xml:space="preserve">15.2362384796143</t>
@@ -584,19 +584,19 @@
     <t xml:space="preserve">15.1076622009277</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2086868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1260280609131</t>
+    <t xml:space="preserve">15.2086849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1260271072388</t>
   </si>
   <si>
     <t xml:space="preserve">14.9882688522339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0158214569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0341901779175</t>
+    <t xml:space="preserve">15.0158224105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0341920852661</t>
   </si>
   <si>
     <t xml:space="preserve">15.1811332702637</t>
@@ -605,34 +605,34 @@
     <t xml:space="preserve">15.4291000366211</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3097085952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0433731079102</t>
+    <t xml:space="preserve">15.3097095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0433721542358</t>
   </si>
   <si>
     <t xml:space="preserve">15.0066375732422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913417816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7872762680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.824010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0444278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0811634063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8331985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1362686157227</t>
+    <t xml:space="preserve">15.2913398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.787278175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8240118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0444297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0811653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8331966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136266708374</t>
   </si>
   <si>
     <t xml:space="preserve">16.4577083587646</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">16.5311794281006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5679168701172</t>
+    <t xml:space="preserve">16.5679149627686</t>
   </si>
   <si>
     <t xml:space="preserve">16.5587310791016</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6138362884521</t>
+    <t xml:space="preserve">16.6138343811035</t>
   </si>
   <si>
     <t xml:space="preserve">16.4760761260986</t>
@@ -659,121 +659,121 @@
     <t xml:space="preserve">16.3474979400635</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2740287780762</t>
+    <t xml:space="preserve">16.2740268707275</t>
   </si>
   <si>
     <t xml:space="preserve">15.9893236160278</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2923965454102</t>
+    <t xml:space="preserve">16.2923984527588</t>
   </si>
   <si>
     <t xml:space="preserve">16.3383159637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3199481964111</t>
+    <t xml:space="preserve">16.3199501037598</t>
   </si>
   <si>
     <t xml:space="preserve">16.3015804290771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2464771270752</t>
+    <t xml:space="preserve">16.2464752197266</t>
   </si>
   <si>
     <t xml:space="preserve">16.5403633117676</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4117870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2556591033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3291339874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5495491027832</t>
+    <t xml:space="preserve">16.4668941497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4117889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2556610107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3291320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5495471954346</t>
   </si>
   <si>
     <t xml:space="preserve">17.4863147735596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6516265869141</t>
+    <t xml:space="preserve">17.6516246795654</t>
   </si>
   <si>
     <t xml:space="preserve">17.5506038665771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.688362121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.72509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9087791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9638824462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.055721282959</t>
+    <t xml:space="preserve">17.6883602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7250995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9087772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9638805389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0557231903076</t>
   </si>
   <si>
     <t xml:space="preserve">18.000617980957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2577705383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4138965606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5883941650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2853221893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4689998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4965534210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7353363037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.680233001709</t>
+    <t xml:space="preserve">18.2577667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4139003753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5883922576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2853202819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4689979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4965515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7353382110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6802310943604</t>
   </si>
   <si>
     <t xml:space="preserve">18.8271751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5792102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.689416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8547286987305</t>
+    <t xml:space="preserve">18.5792083740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6894187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8547306060791</t>
   </si>
   <si>
     <t xml:space="preserve">19.0384082794189</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3598480224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6629180908203</t>
+    <t xml:space="preserve">19.3598499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6629199981689</t>
   </si>
   <si>
     <t xml:space="preserve">19.6721038818359</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6353664398193</t>
+    <t xml:space="preserve">19.635368347168</t>
   </si>
   <si>
     <t xml:space="preserve">19.920072555542</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">20.0027275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5435276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.644552230835</t>
+    <t xml:space="preserve">19.543529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6445503234863</t>
   </si>
   <si>
     <t xml:space="preserve">19.7547588348389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9751720428467</t>
+    <t xml:space="preserve">19.9751777648926</t>
   </si>
   <si>
     <t xml:space="preserve">20.1404876708984</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9017028808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0210971832275</t>
+    <t xml:space="preserve">19.9017009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0210914611816</t>
   </si>
   <si>
     <t xml:space="preserve">19.95680809021</t>
@@ -812,52 +812,52 @@
     <t xml:space="preserve">20.8935737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8109188079834</t>
+    <t xml:space="preserve">20.8109169006348</t>
   </si>
   <si>
     <t xml:space="preserve">21.1323585510254</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3068523406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5915565490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9394931793213</t>
+    <t xml:space="preserve">21.3068542480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5915546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9394950866699</t>
   </si>
   <si>
     <t xml:space="preserve">20.2323265075684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4527454376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3425331115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4343738555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3241672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4435596466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8282299041748</t>
+    <t xml:space="preserve">20.4527435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3425369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4343757629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3241653442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4435577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8282318115234</t>
   </si>
   <si>
     <t xml:space="preserve">19.9935455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0954113006592</t>
+    <t xml:space="preserve">20.0954093933105</t>
   </si>
   <si>
     <t xml:space="preserve">20.1694927215576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0491046905518</t>
+    <t xml:space="preserve">20.0491065979004</t>
   </si>
   <si>
     <t xml:space="preserve">19.9287185668945</t>
@@ -875,52 +875,52 @@
     <t xml:space="preserve">20.150972366333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.715726852417</t>
+    <t xml:space="preserve">19.7157287597656</t>
   </si>
   <si>
     <t xml:space="preserve">19.354564666748</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4379081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4008674621582</t>
+    <t xml:space="preserve">19.4379100799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4008655548096</t>
   </si>
   <si>
     <t xml:space="preserve">19.5119934082031</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0026626586914</t>
+    <t xml:space="preserve">19.00266456604</t>
   </si>
   <si>
     <t xml:space="preserve">19.2619571685791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5582981109619</t>
+    <t xml:space="preserve">19.5582962036133</t>
   </si>
   <si>
     <t xml:space="preserve">19.4749526977539</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7805500030518</t>
+    <t xml:space="preserve">19.7805480957031</t>
   </si>
   <si>
     <t xml:space="preserve">19.6601619720459</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0583667755127</t>
+    <t xml:space="preserve">20.0583648681641</t>
   </si>
   <si>
     <t xml:space="preserve">19.6509017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860786437988</t>
+    <t xml:space="preserve">19.5860805511475</t>
   </si>
   <si>
     <t xml:space="preserve">19.5768165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7620277404785</t>
+    <t xml:space="preserve">19.7620296478271</t>
   </si>
   <si>
     <t xml:space="preserve">19.3730869293213</t>
@@ -929,88 +929,88 @@
     <t xml:space="preserve">18.7896709442139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9841423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0582256317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0211849212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2341785430908</t>
+    <t xml:space="preserve">18.9841403961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0582275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.021183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2341766357422</t>
   </si>
   <si>
     <t xml:space="preserve">19.1600952148438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0304431915283</t>
+    <t xml:space="preserve">19.030445098877</t>
   </si>
   <si>
     <t xml:space="preserve">19.5397758483887</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7249851226807</t>
+    <t xml:space="preserve">19.7249870300293</t>
   </si>
   <si>
     <t xml:space="preserve">19.8175926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8453731536865</t>
+    <t xml:space="preserve">19.8453712463379</t>
   </si>
   <si>
     <t xml:space="preserve">19.8916759490967</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8731536865234</t>
+    <t xml:space="preserve">19.8731555938721</t>
   </si>
   <si>
     <t xml:space="preserve">19.7064647674561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.632381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6973457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9288578033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0214653015137</t>
+    <t xml:space="preserve">19.6323776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6973438262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.928861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0214672088623</t>
   </si>
   <si>
     <t xml:space="preserve">20.8177337646484</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7158660888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8547763824463</t>
+    <t xml:space="preserve">20.7158679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8547744750977</t>
   </si>
   <si>
     <t xml:space="preserve">20.7899532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8362522125244</t>
+    <t xml:space="preserve">20.836254119873</t>
   </si>
   <si>
     <t xml:space="preserve">20.86403465271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8084697723389</t>
+    <t xml:space="preserve">20.8084735870361</t>
   </si>
   <si>
     <t xml:space="preserve">21.3178043365479</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6234016418457</t>
+    <t xml:space="preserve">21.6233997344971</t>
   </si>
   <si>
     <t xml:space="preserve">22.0308666229248</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8641757965088</t>
+    <t xml:space="preserve">21.8641777038574</t>
   </si>
   <si>
     <t xml:space="preserve">21.8271331787109</t>
@@ -1019,31 +1019,31 @@
     <t xml:space="preserve">21.9104785919189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8549137115479</t>
+    <t xml:space="preserve">21.8549156188965</t>
   </si>
   <si>
     <t xml:space="preserve">21.7623081207275</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6882247924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3455848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7530479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1049518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3920269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.23459815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2901592254639</t>
+    <t xml:space="preserve">21.6882228851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3455829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7530460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1049537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3920288085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2346000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2901611328125</t>
   </si>
   <si>
     <t xml:space="preserve">22.4938926696777</t>
@@ -1052,25 +1052,25 @@
     <t xml:space="preserve">22.6605834960938</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9384021759033</t>
+    <t xml:space="preserve">22.9384002685547</t>
   </si>
   <si>
     <t xml:space="preserve">22.8735752105713</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1050872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1236114501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0124835968018</t>
+    <t xml:space="preserve">23.1050891876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1236095428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.012487411499</t>
   </si>
   <si>
     <t xml:space="preserve">22.7439289093018</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8920974731445</t>
+    <t xml:space="preserve">22.8920993804932</t>
   </si>
   <si>
     <t xml:space="preserve">22.7346668243408</t>
@@ -1079,28 +1079,28 @@
     <t xml:space="preserve">22.7161483764648</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7531871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4568519592285</t>
+    <t xml:space="preserve">22.7531890869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4568500518799</t>
   </si>
   <si>
     <t xml:space="preserve">22.317943572998</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5679798126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.614278793335</t>
+    <t xml:space="preserve">22.5679759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6142826080322</t>
   </si>
   <si>
     <t xml:space="preserve">22.6420612335205</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3364658355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2438564300537</t>
+    <t xml:space="preserve">22.3364639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2438583374023</t>
   </si>
   <si>
     <t xml:space="preserve">21.9567813873291</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">22.5587177276611</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7902317047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8550567626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9013557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4846363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9476642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0680503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8643169403076</t>
+    <t xml:space="preserve">22.7902336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.855052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9013576507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4846343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.947660446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0680446624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8643188476562</t>
   </si>
   <si>
     <t xml:space="preserve">22.6235427856445</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">22.5772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">22.50315284729</t>
+    <t xml:space="preserve">22.5031547546387</t>
   </si>
   <si>
     <t xml:space="preserve">22.4383296966553</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">21.114070892334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5400543212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4844913482666</t>
+    <t xml:space="preserve">21.5400562286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4844932556152</t>
   </si>
   <si>
     <t xml:space="preserve">21.1418514251709</t>
@@ -1169,55 +1169,55 @@
     <t xml:space="preserve">21.2437171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1233291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5770969390869</t>
+    <t xml:space="preserve">21.1233310699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5771007537842</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678386688232</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6141414642334</t>
+    <t xml:space="preserve">21.6141395568848</t>
   </si>
   <si>
     <t xml:space="preserve">21.2992820739746</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3270606994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2714958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3548412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9197387695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9012184143066</t>
+    <t xml:space="preserve">21.3270645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2714996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3548431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9197368621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9012145996094</t>
   </si>
   <si>
     <t xml:space="preserve">22.4475917816162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9754428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0217437744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4014282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8272743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3458652496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4199485778809</t>
+    <t xml:space="preserve">22.9754409790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0217456817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4014263153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8272724151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3458614349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4199504852295</t>
   </si>
   <si>
     <t xml:space="preserve">23.3273429870605</t>
@@ -1235,34 +1235,34 @@
     <t xml:space="preserve">24.4478702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1515312194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8922367095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7070274353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1700553894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0218830108643</t>
+    <t xml:space="preserve">24.1515350341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8922348022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7070255279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1700534820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0218849182129</t>
   </si>
   <si>
     <t xml:space="preserve">24.0774478912354</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7255458831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3366050720215</t>
+    <t xml:space="preserve">23.7255477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3366012573242</t>
   </si>
   <si>
     <t xml:space="preserve">23.2995624542236</t>
   </si>
   <si>
-    <t xml:space="preserve">23.55885887146</t>
+    <t xml:space="preserve">23.5588569641113</t>
   </si>
   <si>
     <t xml:space="preserve">24.3552627563477</t>
@@ -1271,13 +1271,13 @@
     <t xml:space="preserve">24.8923778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0405464172363</t>
+    <t xml:space="preserve">25.0405502319336</t>
   </si>
   <si>
     <t xml:space="preserve">24.7997722625732</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9294204711914</t>
+    <t xml:space="preserve">24.9294166564941</t>
   </si>
   <si>
     <t xml:space="preserve">25.0590667724609</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">25.0775871276855</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8368148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6608638763428</t>
+    <t xml:space="preserve">24.8368129730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6608619689941</t>
   </si>
   <si>
     <t xml:space="preserve">24.5775203704834</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7627258300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959701538086</t>
+    <t xml:space="preserve">24.7627296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959720611572</t>
   </si>
   <si>
     <t xml:space="preserve">23.9941024780273</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">23.8181533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5867767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2164993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2536811828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3462867736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0036468505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1425533294678</t>
+    <t xml:space="preserve">24.5867786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2164936065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2536792755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.346284866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0036430358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1425514221191</t>
   </si>
   <si>
     <t xml:space="preserve">26.1610736846924</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">26.0406894683838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9666023254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2166366577148</t>
+    <t xml:space="preserve">25.9666042327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2166347503662</t>
   </si>
   <si>
     <t xml:space="preserve">26.7259693145752</t>
@@ -1349,16 +1349,16 @@
     <t xml:space="preserve">25.8925151824951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8369522094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2814598083496</t>
+    <t xml:space="preserve">25.8369541168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.281457901001</t>
   </si>
   <si>
     <t xml:space="preserve">26.1518135070801</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8093128204346</t>
+    <t xml:space="preserve">26.8093109130859</t>
   </si>
   <si>
     <t xml:space="preserve">27.0037841796875</t>
@@ -1376,73 +1376,73 @@
     <t xml:space="preserve">27.4205112457275</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3556880950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5686798095703</t>
+    <t xml:space="preserve">27.3556861877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5686779022217</t>
   </si>
   <si>
     <t xml:space="preserve">28.0872688293457</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5780811309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1983966827393</t>
+    <t xml:space="preserve">28.5780792236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1983985900879</t>
   </si>
   <si>
     <t xml:space="preserve">28.346565246582</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3002624511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5502986907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6151218414307</t>
+    <t xml:space="preserve">28.3002643585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5502967834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6151180267334</t>
   </si>
   <si>
     <t xml:space="preserve">30.4394493103027</t>
   </si>
   <si>
-    <t xml:space="preserve">30.096809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4857540130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8376560211182</t>
+    <t xml:space="preserve">30.0968112945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8376541137695</t>
   </si>
   <si>
     <t xml:space="preserve">30.9210014343262</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5876159667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2543773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5229377746582</t>
+    <t xml:space="preserve">30.5876197814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2543830871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5229358673096</t>
   </si>
   <si>
     <t xml:space="preserve">31.1710376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9118785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6249389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4304695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7453308105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6434669494629</t>
+    <t xml:space="preserve">31.9118766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.624942779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4304733276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7453269958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6434631347656</t>
   </si>
   <si>
     <t xml:space="preserve">33.3565254211426</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">33.4306106567383</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7084274291992</t>
+    <t xml:space="preserve">33.7084312438965</t>
   </si>
   <si>
     <t xml:space="preserve">34.2177619934082</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6715278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1901206970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8010368347168</t>
+    <t xml:space="preserve">34.6715240478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1901168823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8010330200195</t>
   </si>
   <si>
     <t xml:space="preserve">33.0324058532715</t>
@@ -1472,55 +1472,55 @@
     <t xml:space="preserve">33.7825126647949</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8288116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0695877075195</t>
+    <t xml:space="preserve">33.8288154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0695915222168</t>
   </si>
   <si>
     <t xml:space="preserve">34.449275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8474807739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8659934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1715888977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0328254699707</t>
+    <t xml:space="preserve">34.8474769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8659973144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1715965270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.032829284668</t>
   </si>
   <si>
     <t xml:space="preserve">36.4865989685059</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2440986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2554550170898</t>
+    <t xml:space="preserve">36.2440948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2554512023926</t>
   </si>
   <si>
     <t xml:space="preserve">34.490650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2834358215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6171646118164</t>
+    <t xml:space="preserve">35.2834320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6171722412109</t>
   </si>
   <si>
     <t xml:space="preserve">36.8223571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6565093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9549674987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6264991760254</t>
+    <t xml:space="preserve">35.6565055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.954963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6265029907227</t>
   </si>
   <si>
     <t xml:space="preserve">36.6544761657715</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">38.5571556091309</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1374473571777</t>
+    <t xml:space="preserve">38.1374435424805</t>
   </si>
   <si>
     <t xml:space="preserve">37.0741844177246</t>
@@ -1544,34 +1544,34 @@
     <t xml:space="preserve">38.4452323913574</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7623481750488</t>
+    <t xml:space="preserve">38.7623443603516</t>
   </si>
   <si>
     <t xml:space="preserve">39.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2286911010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6784019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4845657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1674537658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1021690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9062995910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2161178588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1974601745605</t>
+    <t xml:space="preserve">39.2286834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6784057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4845695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1674499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.102165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9063034057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.216121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1974678039551</t>
   </si>
   <si>
     <t xml:space="preserve">36.3187103271484</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">36.1508293151855</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3020820617676</t>
+    <t xml:space="preserve">35.3020858764648</t>
   </si>
   <si>
     <t xml:space="preserve">34.7238235473633</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">34.5093078613281</t>
   </si>
   <si>
-    <t xml:space="preserve">35.068920135498</t>
+    <t xml:space="preserve">35.0689163208008</t>
   </si>
   <si>
     <t xml:space="preserve">35.8523712158203</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9569931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6285209655762</t>
+    <t xml:space="preserve">34.9569969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6285247802734</t>
   </si>
   <si>
     <t xml:space="preserve">36.4026489257812</t>
@@ -1616,58 +1616,58 @@
     <t xml:space="preserve">36.4306373596191</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2720794677734</t>
+    <t xml:space="preserve">36.2720756530762</t>
   </si>
   <si>
     <t xml:space="preserve">36.1881332397461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0389060974121</t>
+    <t xml:space="preserve">36.0389099121094</t>
   </si>
   <si>
     <t xml:space="preserve">36.9809188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">35.675163269043</t>
+    <t xml:space="preserve">35.6751556396484</t>
   </si>
   <si>
     <t xml:space="preserve">35.4792976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">34.574592590332</t>
+    <t xml:space="preserve">34.5745887756348</t>
   </si>
   <si>
     <t xml:space="preserve">35.1808395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9756507873535</t>
+    <t xml:space="preserve">34.9756469726562</t>
   </si>
   <si>
     <t xml:space="preserve">34.1735382080078</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0409355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1528587341309</t>
+    <t xml:space="preserve">35.0409317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1528549194336</t>
   </si>
   <si>
     <t xml:space="preserve">35.3207397460938</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5166053771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4046783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7891082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6098747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2647819519043</t>
+    <t xml:space="preserve">35.5166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4046859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7891120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6098709106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.264778137207</t>
   </si>
   <si>
     <t xml:space="preserve">35.5818901062012</t>
@@ -1679,22 +1679,22 @@
     <t xml:space="preserve">37.0368728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9715919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1394729614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3373641967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3093872070312</t>
+    <t xml:space="preserve">36.9715957641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.139476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3373680114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.309383392334</t>
   </si>
   <si>
     <t xml:space="preserve">35.908332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6025657653809</t>
+    <t xml:space="preserve">34.6025733947754</t>
   </si>
   <si>
     <t xml:space="preserve">35.0595893859863</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">35.115550994873</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0782432556152</t>
+    <t xml:space="preserve">35.0782470703125</t>
   </si>
   <si>
     <t xml:space="preserve">35.572566986084</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7518043518066</t>
+    <t xml:space="preserve">34.7517967224121</t>
   </si>
   <si>
     <t xml:space="preserve">35.3953590393066</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">35.3767013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2927627563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8544044494629</t>
+    <t xml:space="preserve">35.2927589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8543968200684</t>
   </si>
   <si>
     <t xml:space="preserve">35.1901664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4513168334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0202484130859</t>
+    <t xml:space="preserve">35.4513130187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0202522277832</t>
   </si>
   <si>
     <t xml:space="preserve">35.7311210632324</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">32.5506744384766</t>
   </si>
   <si>
-    <t xml:space="preserve">33.194221496582</t>
+    <t xml:space="preserve">33.1942176818848</t>
   </si>
   <si>
     <t xml:space="preserve">29.5940608978271</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">28.2789764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9038753509521</t>
+    <t xml:space="preserve">28.9038734436035</t>
   </si>
   <si>
     <t xml:space="preserve">29.0437774658203</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0997409820557</t>
+    <t xml:space="preserve">29.099739074707</t>
   </si>
   <si>
     <t xml:space="preserve">28.3535900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4282073974609</t>
+    <t xml:space="preserve">28.4282035827637</t>
   </si>
   <si>
     <t xml:space="preserve">27.2623500823975</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">27.8872489929199</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5401287078857</t>
+    <t xml:space="preserve">28.5401268005371</t>
   </si>
   <si>
     <t xml:space="preserve">28.1950340270996</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">27.7939796447754</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1670570373535</t>
+    <t xml:space="preserve">28.1670551300049</t>
   </si>
   <si>
     <t xml:space="preserve">28.6333961486816</t>
@@ -1799,10 +1799,10 @@
     <t xml:space="preserve">28.7266654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2189617156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8552112579346</t>
+    <t xml:space="preserve">30.218957901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8552131652832</t>
   </si>
   <si>
     <t xml:space="preserve">29.631368637085</t>
@@ -1814,10 +1814,10 @@
     <t xml:space="preserve">29.3422355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0737857818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6966552734375</t>
+    <t xml:space="preserve">28.073787689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6966571807861</t>
   </si>
   <si>
     <t xml:space="preserve">28.661376953125</t>
@@ -1826,25 +1826,25 @@
     <t xml:space="preserve">28.6707038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">27.97119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8612957000732</t>
+    <t xml:space="preserve">27.9711894989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8612976074219</t>
   </si>
   <si>
     <t xml:space="preserve">27.458215713501</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4209079742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0551338195801</t>
+    <t xml:space="preserve">27.4209098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0551300048828</t>
   </si>
   <si>
     <t xml:space="preserve">27.8219623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3369655609131</t>
+    <t xml:space="preserve">27.3369636535645</t>
   </si>
   <si>
     <t xml:space="preserve">27.5235042572021</t>
@@ -1853,40 +1853,40 @@
     <t xml:space="preserve">26.842643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375305175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3742733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9245548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1131210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4675445556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0591888427734</t>
+    <t xml:space="preserve">28.4375324249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3742752075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9245567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1131191253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4675426483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0591907501221</t>
   </si>
   <si>
     <t xml:space="preserve">25.9006328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5441856384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2457275390625</t>
+    <t xml:space="preserve">26.5441837310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2457256317139</t>
   </si>
   <si>
     <t xml:space="preserve">25.6954441070557</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2011203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7420749664307</t>
+    <t xml:space="preserve">25.2011222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7420768737793</t>
   </si>
   <si>
     <t xml:space="preserve">26.2830333709717</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">25.7140960693359</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9192867279053</t>
+    <t xml:space="preserve">25.9192886352539</t>
   </si>
   <si>
     <t xml:space="preserve">26.1617832183838</t>
@@ -1907,19 +1907,19 @@
     <t xml:space="preserve">27.1970615386963</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9379367828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0664863586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8033084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5681095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2489681243896</t>
+    <t xml:space="preserve">25.9379386901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0664882659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8033065795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5681056976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2489700317383</t>
   </si>
   <si>
     <t xml:space="preserve">28.7826271057129</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">27.6727333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6447505950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9525394439697</t>
+    <t xml:space="preserve">27.6447525024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9525375366211</t>
   </si>
   <si>
     <t xml:space="preserve">28.0271492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2976303100586</t>
+    <t xml:space="preserve">28.2976322174072</t>
   </si>
   <si>
     <t xml:space="preserve">28.5308036804199</t>
@@ -1946,37 +1946,37 @@
     <t xml:space="preserve">27.999174118042</t>
   </si>
   <si>
-    <t xml:space="preserve">28.586763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.512149810791</t>
+    <t xml:space="preserve">28.5867614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5121479034424</t>
   </si>
   <si>
     <t xml:space="preserve">28.8758945465088</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5920333862305</t>
+    <t xml:space="preserve">30.5920352935791</t>
   </si>
   <si>
     <t xml:space="preserve">30.685302734375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2915420532227</t>
+    <t xml:space="preserve">31.2915458679199</t>
   </si>
   <si>
     <t xml:space="preserve">31.4967346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9071140289307</t>
+    <t xml:space="preserve">31.9071178436279</t>
   </si>
   <si>
     <t xml:space="preserve">31.1329917907715</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3381805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6366386413574</t>
+    <t xml:space="preserve">31.3381767272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6366405487061</t>
   </si>
   <si>
     <t xml:space="preserve">32.420093536377</t>
@@ -1985,34 +1985,34 @@
     <t xml:space="preserve">32.6346130371094</t>
   </si>
   <si>
-    <t xml:space="preserve">32.317497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0376930236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5320129394531</t>
+    <t xml:space="preserve">32.3175010681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0376968383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5320167541504</t>
   </si>
   <si>
     <t xml:space="preserve">32.4947090148926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.373462677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3641319274902</t>
+    <t xml:space="preserve">32.3734588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3641357421875</t>
   </si>
   <si>
     <t xml:space="preserve">32.1869201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6905708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6252861022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.450101852417</t>
+    <t xml:space="preserve">32.6905670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6252822875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4500999450684</t>
   </si>
   <si>
     <t xml:space="preserve">34.9290161132812</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">33.6698875427246</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5766258239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4367218017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2501831054688</t>
+    <t xml:space="preserve">33.5766220092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4367141723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2501792907715</t>
   </si>
   <si>
     <t xml:space="preserve">33.3154716491699</t>
@@ -2039,19 +2039,19 @@
     <t xml:space="preserve">33.1662406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6605644226074</t>
+    <t xml:space="preserve">33.6605606079102</t>
   </si>
   <si>
     <t xml:space="preserve">33.7538299560547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2854614257812</t>
+    <t xml:space="preserve">34.285457611084</t>
   </si>
   <si>
     <t xml:space="preserve">33.9496955871582</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9610481262207</t>
+    <t xml:space="preserve">32.961051940918</t>
   </si>
   <si>
     <t xml:space="preserve">32.4574012756348</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">33.5579681396484</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3994178771973</t>
+    <t xml:space="preserve">33.3994140625</t>
   </si>
   <si>
     <t xml:space="preserve">33.9683456420898</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">33.8470993041992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1828651428223</t>
+    <t xml:space="preserve">34.1828689575195</t>
   </si>
   <si>
     <t xml:space="preserve">33.8657569885254</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">34.0616149902344</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6398849487305</t>
+    <t xml:space="preserve">34.6398811340332</t>
   </si>
   <si>
     <t xml:space="preserve">34.4440155029297</t>
@@ -2114,22 +2114,22 @@
     <t xml:space="preserve">34.0989265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1082534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9869995117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6865119934082</t>
+    <t xml:space="preserve">34.1082496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9870071411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6865081787109</t>
   </si>
   <si>
     <t xml:space="preserve">33.9123878479004</t>
   </si>
   <si>
-    <t xml:space="preserve">33.287483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1382598876953</t>
+    <t xml:space="preserve">33.2874870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.138256072998</t>
   </si>
   <si>
     <t xml:space="preserve">34.2015190124512</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">33.4273910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8584518432617</t>
+    <t xml:space="preserve">32.8584480285645</t>
   </si>
   <si>
     <t xml:space="preserve">33.296817779541</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">33.5797882080078</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5799407958984</t>
+    <t xml:space="preserve">32.579948425293</t>
   </si>
   <si>
     <t xml:space="preserve">32.9855461120605</t>
@@ -2174,19 +2174,19 @@
     <t xml:space="preserve">31.3159885406494</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1273365020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2499561309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8253421783447</t>
+    <t xml:space="preserve">31.1273345947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2499580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8253440856934</t>
   </si>
   <si>
     <t xml:space="preserve">32.5422096252441</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7308654785156</t>
+    <t xml:space="preserve">32.7308692932129</t>
   </si>
   <si>
     <t xml:space="preserve">32.3818626403809</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">32.844051361084</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4573173522949</t>
+    <t xml:space="preserve">32.4573211669922</t>
   </si>
   <si>
     <t xml:space="preserve">32.5327835083008</t>
@@ -2204,49 +2204,49 @@
     <t xml:space="preserve">33.0610008239746</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3911437988281</t>
+    <t xml:space="preserve">33.3911476135254</t>
   </si>
   <si>
     <t xml:space="preserve">34.409854888916</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5324783325195</t>
+    <t xml:space="preserve">34.5324745178223</t>
   </si>
   <si>
     <t xml:space="preserve">35.4945945739746</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2870788574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1927604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5513458251953</t>
+    <t xml:space="preserve">35.2870826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1927528381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5513496398926</t>
   </si>
   <si>
     <t xml:space="preserve">34.2777976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0324020385742</t>
+    <t xml:space="preserve">35.032398223877</t>
   </si>
   <si>
     <t xml:space="preserve">35.4662971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8436012268066</t>
+    <t xml:space="preserve">35.8435974121094</t>
   </si>
   <si>
     <t xml:space="preserve">35.768138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3152275085449</t>
+    <t xml:space="preserve">36.3152236938477</t>
   </si>
   <si>
     <t xml:space="preserve">36.4189796447754</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3246536254883</t>
+    <t xml:space="preserve">36.3246574401855</t>
   </si>
   <si>
     <t xml:space="preserve">36.3340873718262</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">36.0794105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1548728942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8907661437988</t>
+    <t xml:space="preserve">36.1548767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8907623291016</t>
   </si>
   <si>
     <t xml:space="preserve">36.2963562011719</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8341674804688</t>
+    <t xml:space="preserve">35.8341636657715</t>
   </si>
   <si>
     <t xml:space="preserve">35.9284934997559</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">36.0228157043457</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0416793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4661445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4472770690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.739688873291</t>
+    <t xml:space="preserve">36.0416831970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4661407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4472808837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7396926879883</t>
   </si>
   <si>
     <t xml:space="preserve">36.8057174682617</t>
@@ -2291,37 +2291,40 @@
     <t xml:space="preserve">36.7774200439453</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4757270812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0606956481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.202335357666</t>
+    <t xml:space="preserve">35.4757308959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0606994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2023391723633</t>
   </si>
   <si>
     <t xml:space="preserve">32.1743469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1460456848145</t>
+    <t xml:space="preserve">32.1460494995117</t>
   </si>
   <si>
     <t xml:space="preserve">32.551643371582</t>
   </si>
   <si>
+    <t xml:space="preserve">33.2968139648438</t>
+  </si>
+  <si>
     <t xml:space="preserve">33.1458930969238</t>
   </si>
   <si>
     <t xml:space="preserve">33.0798683166504</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2120780944824</t>
+    <t xml:space="preserve">32.2120742797852</t>
   </si>
   <si>
     <t xml:space="preserve">31.938533782959</t>
   </si>
   <si>
-    <t xml:space="preserve">32.476188659668</t>
+    <t xml:space="preserve">32.4761848449707</t>
   </si>
   <si>
     <t xml:space="preserve">32.4101600646973</t>
@@ -2330,7 +2333,7 @@
     <t xml:space="preserve">33.4477348327637</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4667510986328</t>
+    <t xml:space="preserve">32.4667549133301</t>
   </si>
   <si>
     <t xml:space="preserve">32.2686729431152</t>
@@ -2339,13 +2342,13 @@
     <t xml:space="preserve">32.0705871582031</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0139961242676</t>
+    <t xml:space="preserve">32.0139923095703</t>
   </si>
   <si>
     <t xml:space="preserve">32.1554794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3629989624023</t>
+    <t xml:space="preserve">32.3629951477051</t>
   </si>
   <si>
     <t xml:space="preserve">33.0704383850098</t>
@@ -2354,7 +2357,7 @@
     <t xml:space="preserve">33.8250389099121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9193649291992</t>
+    <t xml:space="preserve">33.919361114502</t>
   </si>
   <si>
     <t xml:space="preserve">33.4760360717773</t>
@@ -2363,25 +2366,25 @@
     <t xml:space="preserve">33.2779502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3628425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.381706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1081657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3535652160645</t>
+    <t xml:space="preserve">33.3628387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3817100524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1081619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3535614013672</t>
   </si>
   <si>
     <t xml:space="preserve">32.1932067871094</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9388370513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6274127960205</t>
+    <t xml:space="preserve">29.938835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6274147033691</t>
   </si>
   <si>
     <t xml:space="preserve">30.7688961029053</t>
@@ -2390,10 +2393,10 @@
     <t xml:space="preserve">30.2784061431885</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4010314941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3161392211914</t>
+    <t xml:space="preserve">30.401029586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3161373138428</t>
   </si>
   <si>
     <t xml:space="preserve">30.5236530303955</t>
@@ -2414,100 +2417,100 @@
     <t xml:space="preserve">30.287841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6934394836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8820915222168</t>
+    <t xml:space="preserve">30.6934375762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8820934295654</t>
   </si>
   <si>
     <t xml:space="preserve">30.7311706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3065528869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9008026123047</t>
+    <t xml:space="preserve">31.3065509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9008007049561</t>
   </si>
   <si>
     <t xml:space="preserve">32.5233497619629</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2592353820801</t>
+    <t xml:space="preserve">32.2592391967773</t>
   </si>
   <si>
     <t xml:space="preserve">32.1366157531738</t>
   </si>
   <si>
-    <t xml:space="preserve">31.731014251709</t>
+    <t xml:space="preserve">31.7310161590576</t>
   </si>
   <si>
     <t xml:space="preserve">31.4197425842285</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3444347381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6557083129883</t>
+    <t xml:space="preserve">30.3444328308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6557102203369</t>
   </si>
   <si>
     <t xml:space="preserve">30.4481945037842</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3632984161377</t>
+    <t xml:space="preserve">30.3633003234863</t>
   </si>
   <si>
     <t xml:space="preserve">30.646276473999</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1174430847168</t>
+    <t xml:space="preserve">34.1174468994141</t>
   </si>
   <si>
     <t xml:space="preserve">33.485466003418</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7119979858398</t>
+    <t xml:space="preserve">32.7119941711426</t>
   </si>
   <si>
     <t xml:space="preserve">33.1741905212402</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2873878479004</t>
+    <t xml:space="preserve">33.2873840332031</t>
   </si>
   <si>
     <t xml:space="preserve">33.0421371459961</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0041007995605</t>
+    <t xml:space="preserve">35.0041046142578</t>
   </si>
   <si>
     <t xml:space="preserve">35.5040283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0889930725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8626174926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.777717590332</t>
+    <t xml:space="preserve">35.088996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8626136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7777214050293</t>
   </si>
   <si>
     <t xml:space="preserve">34.3721237182617</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4853134155273</t>
+    <t xml:space="preserve">34.4853172302246</t>
   </si>
   <si>
     <t xml:space="preserve">34.7494239807129</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9946708679199</t>
+    <t xml:space="preserve">34.9946670532227</t>
   </si>
   <si>
     <t xml:space="preserve">35.6077842712402</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3059463500977</t>
+    <t xml:space="preserve">35.3059425354004</t>
   </si>
   <si>
     <t xml:space="preserve">36.8623123168945</t>
@@ -2519,16 +2522,13 @@
     <t xml:space="preserve">37.8621597290039</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5131568908691</t>
+    <t xml:space="preserve">37.5131530761719</t>
   </si>
   <si>
     <t xml:space="preserve">36.5887680053711</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4850120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6265029907227</t>
+    <t xml:space="preserve">36.4850082397461</t>
   </si>
   <si>
     <t xml:space="preserve">39.0129280090332</t>
@@ -2540,13 +2540,13 @@
     <t xml:space="preserve">39.4185256958008</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7014999389648</t>
+    <t xml:space="preserve">39.7015037536621</t>
   </si>
   <si>
     <t xml:space="preserve">38.9563293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6733551025391</t>
+    <t xml:space="preserve">38.6733512878418</t>
   </si>
   <si>
     <t xml:space="preserve">38.5790328979492</t>
@@ -2555,40 +2555,40 @@
     <t xml:space="preserve">37.994213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">38.145133972168</t>
+    <t xml:space="preserve">38.1451301574707</t>
   </si>
   <si>
     <t xml:space="preserve">37.8810272216797</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0319404602051</t>
+    <t xml:space="preserve">38.0319442749023</t>
   </si>
   <si>
     <t xml:space="preserve">38.5695991516113</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4752769470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3243522644043</t>
+    <t xml:space="preserve">38.4752731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.324348449707</t>
   </si>
   <si>
     <t xml:space="preserve">37.7961311340332</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2866249084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.814998626709</t>
+    <t xml:space="preserve">38.28662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8149948120117</t>
   </si>
   <si>
     <t xml:space="preserve">37.9847793579102</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8242797851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8054122924805</t>
+    <t xml:space="preserve">38.824275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8054084777832</t>
   </si>
   <si>
     <t xml:space="preserve">38.3998107910156</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">38.4847068786621</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2298736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2957496643066</t>
+    <t xml:space="preserve">39.2298774719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2957458496094</t>
   </si>
   <si>
     <t xml:space="preserve">40.2580184936523</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">38.1357040405273</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1355514526367</t>
+    <t xml:space="preserve">39.1355476379395</t>
   </si>
   <si>
     <t xml:space="preserve">38.0508117675781</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">38.248893737793</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6547966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0791053771973</t>
+    <t xml:space="preserve">36.6547927856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0791091918945</t>
   </si>
   <si>
     <t xml:space="preserve">37.3150749206543</t>
@@ -2651,25 +2651,25 @@
     <t xml:space="preserve">36.5133056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4754295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.456714630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0792579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9379234313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0888404846191</t>
+    <t xml:space="preserve">37.4754257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4567184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0792617797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9379272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0888442993164</t>
   </si>
   <si>
     <t xml:space="preserve">36.8245811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0418357849121</t>
+    <t xml:space="preserve">35.0418319702148</t>
   </si>
   <si>
     <t xml:space="preserve">33.1647605895996</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">33.6741180419922</t>
   </si>
   <si>
-    <t xml:space="preserve">33.259090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2213592529297</t>
+    <t xml:space="preserve">33.2590866088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2213554382324</t>
   </si>
   <si>
     <t xml:space="preserve">31.8064765930176</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7880706787109</t>
+    <t xml:space="preserve">28.7880687713623</t>
   </si>
   <si>
     <t xml:space="preserve">28.429630279541</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">27.6938953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.524564743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0146045684814</t>
+    <t xml:space="preserve">24.5245666503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0146026611328</t>
   </si>
   <si>
     <t xml:space="preserve">25.8356876373291</t>
@@ -2714,19 +2714,19 @@
     <t xml:space="preserve">25.9394454956055</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4866847991943</t>
+    <t xml:space="preserve">25.486686706543</t>
   </si>
   <si>
     <t xml:space="preserve">27.6090030670166</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9770240783691</t>
+    <t xml:space="preserve">26.9770259857178</t>
   </si>
   <si>
     <t xml:space="preserve">30.6085453033447</t>
   </si>
   <si>
-    <t xml:space="preserve">32.164909362793</t>
+    <t xml:space="preserve">32.1649131774902</t>
   </si>
   <si>
     <t xml:space="preserve">32.4478912353516</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">31.4008808135986</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5519485473633</t>
+    <t xml:space="preserve">30.5519504547119</t>
   </si>
   <si>
     <t xml:space="preserve">30.18408203125</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">29.3351554870605</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3631496429443</t>
+    <t xml:space="preserve">31.363151550293</t>
   </si>
   <si>
     <t xml:space="preserve">30.7877635955811</t>
@@ -2753,10 +2753,10 @@
     <t xml:space="preserve">30.9858436584473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7876110076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3254203796387</t>
+    <t xml:space="preserve">31.7876129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3254165649414</t>
   </si>
   <si>
     <t xml:space="preserve">32.5610809326172</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">31.2688236236572</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2215042114258</t>
+    <t xml:space="preserve">32.221508026123</t>
   </si>
   <si>
     <t xml:space="preserve">32.4950485229492</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9575481414795</t>
+    <t xml:space="preserve">30.9575500488281</t>
   </si>
   <si>
     <t xml:space="preserve">31.4669075012207</t>
@@ -2786,25 +2786,25 @@
     <t xml:space="preserve">30.5896816253662</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9198188781738</t>
+    <t xml:space="preserve">30.9198169708252</t>
   </si>
   <si>
     <t xml:space="preserve">30.4576263427734</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9103889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0803260803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3540191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2691287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4104652404785</t>
+    <t xml:space="preserve">30.9103870391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0803241729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3540210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2691268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4104633331299</t>
   </si>
   <si>
     <t xml:space="preserve">30.5425186157227</t>
@@ -2813,16 +2813,16 @@
     <t xml:space="preserve">29.4577789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0331611633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4952049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0801734924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8912124633789</t>
+    <t xml:space="preserve">30.0331630706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4952068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.080171585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8912162780762</t>
   </si>
   <si>
     <t xml:space="preserve">31.5517997741699</t>
@@ -2834,16 +2834,16 @@
     <t xml:space="preserve">32.6176795959473</t>
   </si>
   <si>
-    <t xml:space="preserve">32.759162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7404518127441</t>
+    <t xml:space="preserve">32.7591590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7404499053955</t>
   </si>
   <si>
     <t xml:space="preserve">32.0894546508789</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9479656219482</t>
+    <t xml:space="preserve">31.9479637145996</t>
   </si>
   <si>
     <t xml:space="preserve">32.6931343078613</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">33.230785369873</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5043296813965</t>
+    <t xml:space="preserve">33.5043334960938</t>
   </si>
   <si>
     <t xml:space="preserve">33.8061714172363</t>
@@ -2867,13 +2867,13 @@
     <t xml:space="preserve">32.8534889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1083145141602</t>
+    <t xml:space="preserve">32.1083183288574</t>
   </si>
   <si>
     <t xml:space="preserve">32.3158340454102</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6742706298828</t>
+    <t xml:space="preserve">32.6742668151855</t>
   </si>
   <si>
     <t xml:space="preserve">31.9668312072754</t>
@@ -2885,28 +2885,28 @@
     <t xml:space="preserve">32.2026405334473</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0611572265625</t>
+    <t xml:space="preserve">32.0611534118652</t>
   </si>
   <si>
     <t xml:space="preserve">31.3442840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7687454223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6838550567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7121524810791</t>
+    <t xml:space="preserve">31.7687473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6838531494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7121543884277</t>
   </si>
   <si>
     <t xml:space="preserve">31.2876853942871</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7500343322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7783336639404</t>
+    <t xml:space="preserve">30.7500324249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7783317565918</t>
   </si>
   <si>
     <t xml:space="preserve">30.0897560119629</t>
@@ -2918,31 +2918,31 @@
     <t xml:space="preserve">30.1557846069336</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5800971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0141448974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7594699859619</t>
+    <t xml:space="preserve">31.580099105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0141468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7594680786133</t>
   </si>
   <si>
     <t xml:space="preserve">30.2029476165771</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2218112945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5330848693848</t>
+    <t xml:space="preserve">30.2218151092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5330867767334</t>
   </si>
   <si>
     <t xml:space="preserve">30.6840038299561</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2782554626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5613861083984</t>
+    <t xml:space="preserve">31.2782592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5613842010498</t>
   </si>
   <si>
     <t xml:space="preserve">30.6368446350098</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">31.8536376953125</t>
   </si>
   <si>
-    <t xml:space="preserve">32.513916015625</t>
+    <t xml:space="preserve">32.5139198303223</t>
   </si>
   <si>
     <t xml:space="preserve">32.910083770752</t>
@@ -2963,16 +2963,16 @@
     <t xml:space="preserve">34.655101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7775650024414</t>
+    <t xml:space="preserve">35.7775688171387</t>
   </si>
   <si>
     <t xml:space="preserve">35.1078643798828</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4287185668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2024879455566</t>
+    <t xml:space="preserve">34.4287223815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2024917602539</t>
   </si>
   <si>
     <t xml:space="preserve">32.7685966491699</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">33.1836242675781</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9949760437012</t>
+    <t xml:space="preserve">32.9949722290039</t>
   </si>
   <si>
     <t xml:space="preserve">33.589225769043</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">34.3626899719238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6173706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.975959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3249626159668</t>
+    <t xml:space="preserve">34.6173667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9759559631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3249588012695</t>
   </si>
   <si>
     <t xml:space="preserve">34.702262878418</t>
@@ -3008,25 +3008,25 @@
     <t xml:space="preserve">34.806022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3439788818359</t>
+    <t xml:space="preserve">33.3439750671387</t>
   </si>
   <si>
     <t xml:space="preserve">34.7116928100586</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7398376464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1833229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7302513122559</t>
+    <t xml:space="preserve">35.7398414611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1833190917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7302551269531</t>
   </si>
   <si>
     <t xml:space="preserve">34.9003486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9195175170898</t>
+    <t xml:space="preserve">32.9195213317871</t>
   </si>
   <si>
     <t xml:space="preserve">33.1270294189453</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">35.4191360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4282608032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4565582275391</t>
+    <t xml:space="preserve">37.4282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4565544128418</t>
   </si>
   <si>
     <t xml:space="preserve">38.1922988891602</t>
@@ -3059,19 +3059,19 @@
     <t xml:space="preserve">37.5508880615234</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7488212585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7299499511719</t>
+    <t xml:space="preserve">38.7488174438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7299537658691</t>
   </si>
   <si>
     <t xml:space="preserve">38.4658393859863</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2960510253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3241996765137</t>
+    <t xml:space="preserve">38.2960548400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3241958618164</t>
   </si>
   <si>
     <t xml:space="preserve">39.5883140563965</t>
@@ -3092,19 +3092,19 @@
     <t xml:space="preserve">39.3430633544922</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1731262207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7485122680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5031127929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3520431518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9650039672852</t>
+    <t xml:space="preserve">40.1731224060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7485160827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.503116607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3520469665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9650001525879</t>
   </si>
   <si>
     <t xml:space="preserve">43.8235130310059</t>
@@ -3125,28 +3125,28 @@
     <t xml:space="preserve">46.2193756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7477531433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8610916137695</t>
+    <t xml:space="preserve">45.7477493286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8610992431641</t>
   </si>
   <si>
     <t xml:space="preserve">45.6345596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4742050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9079513549805</t>
+    <t xml:space="preserve">45.4742012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9079475402832</t>
   </si>
   <si>
     <t xml:space="preserve">47.4456062316895</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2946853637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1626281738281</t>
+    <t xml:space="preserve">47.2946815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1626319885254</t>
   </si>
   <si>
     <t xml:space="preserve">45.8609390258789</t>
@@ -3155,13 +3155,13 @@
     <t xml:space="preserve">45.8798065185547</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1063385009766</t>
+    <t xml:space="preserve">45.1063346862793</t>
   </si>
   <si>
     <t xml:space="preserve">45.3327217102051</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2761268615723</t>
+    <t xml:space="preserve">45.276123046875</t>
   </si>
   <si>
     <t xml:space="preserve">44.3706016540527</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">44.945987701416</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9081001281738</t>
+    <t xml:space="preserve">45.9080963134766</t>
   </si>
   <si>
     <t xml:space="preserve">46.7758941650391</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6535758972168</t>
+    <t xml:space="preserve">44.6535720825195</t>
   </si>
   <si>
     <t xml:space="preserve">44.5781135559082</t>
@@ -3200,10 +3200,10 @@
     <t xml:space="preserve">44.7667655944824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2006607055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2100944519043</t>
+    <t xml:space="preserve">45.2006645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2101020812988</t>
   </si>
   <si>
     <t xml:space="preserve">47.1814956665039</t>
@@ -3212,37 +3212,37 @@
     <t xml:space="preserve">47.9549598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6529693603516</t>
+    <t xml:space="preserve">48.6529731750488</t>
   </si>
   <si>
     <t xml:space="preserve">49.1623229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7284240722656</t>
+    <t xml:space="preserve">48.7284278869629</t>
   </si>
   <si>
     <t xml:space="preserve">49.0302696228027</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3322639465332</t>
+    <t xml:space="preserve">48.3322677612305</t>
   </si>
   <si>
     <t xml:space="preserve">49.2377853393555</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8793487548828</t>
+    <t xml:space="preserve">48.8793449401855</t>
   </si>
   <si>
     <t xml:space="preserve">47.7663078308105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7097206115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2942276000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.9548149108887</t>
+    <t xml:space="preserve">47.709716796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2942314147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.9548110961914</t>
   </si>
   <si>
     <t xml:space="preserve">48.3134002685547</t>
@@ -3254,16 +3254,16 @@
     <t xml:space="preserve">48.2379341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3888549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2000541687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5584945678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7661552429199</t>
+    <t xml:space="preserve">48.388858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2000579833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5584907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7661590576172</t>
   </si>
   <si>
     <t xml:space="preserve">47.6719856262207</t>
@@ -3272,52 +3272,52 @@
     <t xml:space="preserve">46.7381629943848</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8985214233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4644660949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7947578430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0868644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4077224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5209159851074</t>
+    <t xml:space="preserve">46.8985176086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.464469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7947616577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0868682861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4077186584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5209121704102</t>
   </si>
   <si>
     <t xml:space="preserve">47.898365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2569541931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6344108581543</t>
+    <t xml:space="preserve">47.256950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
     <t xml:space="preserve">46.4080276489258</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2289581298828</t>
+    <t xml:space="preserve">45.2289619445801</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459075927734</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4930686950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4174575805664</t>
+    <t xml:space="preserve">45.4930763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4174613952637</t>
   </si>
   <si>
     <t xml:space="preserve">46.096752166748</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8796539306641</t>
+    <t xml:space="preserve">46.8796577453613</t>
   </si>
   <si>
     <t xml:space="preserve">46.6910018920898</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">47.5776596069336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.577507019043</t>
+    <t xml:space="preserve">48.5775032043457</t>
   </si>
   <si>
     <t xml:space="preserve">48.426586151123</t>
@@ -3362,25 +3362,25 @@
     <t xml:space="preserve">47.4267349243164</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5020446777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3511238098145</t>
+    <t xml:space="preserve">48.5020484924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3511276245117</t>
   </si>
   <si>
     <t xml:space="preserve">48.8038902282715</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0492858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6718292236328</t>
+    <t xml:space="preserve">48.0492897033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6718330383301</t>
   </si>
   <si>
     <t xml:space="preserve">49.011402130127</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7660064697266</t>
+    <t xml:space="preserve">49.7660026550293</t>
   </si>
   <si>
     <t xml:space="preserve">49.5207633972168</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">54.8485984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3432426452637</t>
+    <t xml:space="preserve">55.3432464599609</t>
   </si>
   <si>
     <t xml:space="preserve">55.4573936462402</t>
@@ -3425,25 +3425,25 @@
     <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0471572875977</t>
+    <t xml:space="preserve">56.0471611022949</t>
   </si>
   <si>
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305290222168</t>
+    <t xml:space="preserve">54.0305328369141</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3349266052246</t>
+    <t xml:space="preserve">54.3349304199219</t>
   </si>
   <si>
     <t xml:space="preserve">55.1149482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4764175415039</t>
+    <t xml:space="preserve">55.4764137268066</t>
   </si>
   <si>
     <t xml:space="preserve">55.7427635192871</t>
@@ -3452,10 +3452,10 @@
     <t xml:space="preserve">55.2671432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">55.400318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4383697509766</t>
+    <t xml:space="preserve">55.4003219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4383659362793</t>
   </si>
   <si>
     <t xml:space="preserve">54.4300498962402</t>
@@ -3476,13 +3476,13 @@
     <t xml:space="preserve">54.5251770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0115051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2398071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5442047119141</t>
+    <t xml:space="preserve">54.0115013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.239803314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5442008972168</t>
   </si>
   <si>
     <t xml:space="preserve">52.641716003418</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">54.9437217712402</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5905685424805</t>
+    <t xml:space="preserve">55.5905647277832</t>
   </si>
   <si>
     <t xml:space="preserve">53.9734573364258</t>
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0174255371094</t>
+    <t xml:space="preserve">57.0174293518066</t>
   </si>
   <si>
     <t xml:space="preserve">56.7510833740234</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">55.1720199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8759422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9330139160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.761791229248</t>
+    <t xml:space="preserve">55.8759384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9330177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7617874145508</t>
   </si>
   <si>
     <t xml:space="preserve">56.8462066650391</t>
@@ -3545,16 +3545,16 @@
     <t xml:space="preserve">58.215991973877</t>
   </si>
   <si>
-    <t xml:space="preserve">58.5964889526367</t>
+    <t xml:space="preserve">58.596492767334</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8628387451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.702320098877</t>
+    <t xml:space="preserve">58.8628349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7023239135742</t>
   </si>
   <si>
     <t xml:space="preserve">57.1315803527832</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">55.6286163330078</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2231750488281</t>
+    <t xml:space="preserve">52.2231712341309</t>
   </si>
   <si>
     <t xml:space="preserve">51.2909545898438</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">51.994873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9187774658203</t>
+    <t xml:space="preserve">51.918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">51.5382804870605</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">52.565616607666</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4895210266113</t>
+    <t xml:space="preserve">52.4895172119141</t>
   </si>
   <si>
     <t xml:space="preserve">51.9758491516113</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">49.2552947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">49.1791954040527</t>
+    <t xml:space="preserve">49.17919921875</t>
   </si>
   <si>
     <t xml:space="preserve">50.4348373413086</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">50.1114158630371</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7094993591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5465965270996</t>
+    <t xml:space="preserve">51.7095031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5465927124023</t>
   </si>
   <si>
     <t xml:space="preserve">52.3182945251465</t>
@@ -3674,10 +3674,10 @@
     <t xml:space="preserve">57.3028030395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0447731018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1208686828613</t>
+    <t xml:space="preserve">58.0447692871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1208648681641</t>
   </si>
   <si>
     <t xml:space="preserve">57.6642723083496</t>
@@ -3689,7 +3689,7 @@
     <t xml:space="preserve">58.2350196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">59.091136932373</t>
+    <t xml:space="preserve">59.0911331176758</t>
   </si>
   <si>
     <t xml:space="preserve">60.7843475341797</t>
@@ -3704,16 +3704,16 @@
     <t xml:space="preserve">63.0482978820801</t>
   </si>
   <si>
-    <t xml:space="preserve">64.3039398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8366317749023</t>
+    <t xml:space="preserve">64.3039474487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8366394042969</t>
   </si>
   <si>
     <t xml:space="preserve">62.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1160888671875</t>
+    <t xml:space="preserve">62.1160926818848</t>
   </si>
   <si>
     <t xml:space="preserve">63.2195281982422</t>
@@ -3722,7 +3722,7 @@
     <t xml:space="preserve">64.3610153198242</t>
   </si>
   <si>
-    <t xml:space="preserve">65.198112487793</t>
+    <t xml:space="preserve">65.1981048583984</t>
   </si>
   <si>
     <t xml:space="preserve">65.7878875732422</t>
@@ -3731,52 +3731,52 @@
     <t xml:space="preserve">65.6737289428711</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0078582763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4941940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4073867797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9341506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3146476745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7331924438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6618804931641</t>
+    <t xml:space="preserve">65.0078659057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4941864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4073791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3146438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7331962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6618843078613</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9555702209473</t>
+    <t xml:space="preserve">60.9555740356445</t>
   </si>
   <si>
     <t xml:space="preserve">62.420482635498</t>
   </si>
   <si>
-    <t xml:space="preserve">62.3253555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0863494873047</t>
+    <t xml:space="preserve">62.3253517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0863571166992</t>
   </si>
   <si>
     <t xml:space="preserve">65.9020233154297</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8853988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5619697570801</t>
+    <t xml:space="preserve">63.8853912353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5619735717773</t>
   </si>
   <si>
     <t xml:space="preserve">62.8390235900879</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043334960938</t>
+    <t xml:space="preserve">60.0043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">59.167236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6428527832031</t>
+    <t xml:space="preserve">59.6428565979004</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
@@ -3821,13 +3821,13 @@
     <t xml:space="preserve">61.1648445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8307113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.306339263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.737979888916</t>
+    <t xml:space="preserve">61.8307151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3063354492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7379760742188</t>
   </si>
   <si>
     <t xml:space="preserve">58.2540435791016</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">54.0876045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">54.9246978759766</t>
+    <t xml:space="preserve">54.9247016906738</t>
   </si>
   <si>
     <t xml:space="preserve">53.8022346496582</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">52.4324417114258</t>
   </si>
   <si>
-    <t xml:space="preserve">53.4978408813477</t>
+    <t xml:space="preserve">53.4978370666504</t>
   </si>
   <si>
     <t xml:space="preserve">53.726131439209</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">52.7368392944336</t>
   </si>
   <si>
-    <t xml:space="preserve">53.592960357666</t>
+    <t xml:space="preserve">53.5929641723633</t>
   </si>
   <si>
     <t xml:space="preserve">56.1422882080078</t>
@@ -3887,10 +3887,10 @@
     <t xml:space="preserve">55.32421875</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8129425048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7855949401855</t>
+    <t xml:space="preserve">52.8129386901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7855987548828</t>
   </si>
   <si>
     <t xml:space="preserve">53.3075866699219</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">52.3943939208984</t>
   </si>
   <si>
-    <t xml:space="preserve">52.128044128418</t>
+    <t xml:space="preserve">52.1280479431152</t>
   </si>
   <si>
     <t xml:space="preserve">52.0709762573242</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">46.7440185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8474578857422</t>
+    <t xml:space="preserve">47.8474617004395</t>
   </si>
   <si>
     <t xml:space="preserve">48.6084518432617</t>
@@ -3956,28 +3956,28 @@
     <t xml:space="preserve">48.1708793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3432998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8581619262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.248176574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3242797851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9782447814941</t>
+    <t xml:space="preserve">47.3433036804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8581657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2481727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.324275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9782409667969</t>
   </si>
   <si>
     <t xml:space="preserve">48.2660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2469825744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0353126525879</t>
+    <t xml:space="preserve">48.2469787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0353088378906</t>
   </si>
   <si>
     <t xml:space="preserve">50.396785736084</t>
@@ -3989,13 +3989,13 @@
     <t xml:space="preserve">47.0293922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5133247375488</t>
+    <t xml:space="preserve">48.5133285522461</t>
   </si>
   <si>
     <t xml:space="preserve">46.1827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0674438476562</t>
+    <t xml:space="preserve">47.067440032959</t>
   </si>
   <si>
     <t xml:space="preserve">47.505012512207</t>
@@ -4004,16 +4004,16 @@
     <t xml:space="preserve">48.094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2291526794434</t>
+    <t xml:space="preserve">47.2291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">48.66552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5811157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3552055358887</t>
+    <t xml:space="preserve">47.581111907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3552093505859</t>
   </si>
   <si>
     <t xml:space="preserve">44.822509765625</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6215553283691</t>
+    <t xml:space="preserve">45.6215515136719</t>
   </si>
   <si>
     <t xml:space="preserve">44.955680847168</t>
@@ -4040,13 +4040,13 @@
     <t xml:space="preserve">42.4253807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6370468139648</t>
+    <t xml:space="preserve">40.6370429992676</t>
   </si>
   <si>
     <t xml:space="preserve">39.7904434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7702217102051</t>
+    <t xml:space="preserve">40.7702178955078</t>
   </si>
   <si>
     <t xml:space="preserve">42.5585556030273</t>
@@ -4061,7 +4061,7 @@
     <t xml:space="preserve">42.2161064147949</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0627174377441</t>
+    <t xml:space="preserve">43.0627136230469</t>
   </si>
   <si>
     <t xml:space="preserve">41.569263458252</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">40.1994743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7977409362793</t>
+    <t xml:space="preserve">40.797737121582</t>
   </si>
   <si>
     <t xml:space="preserve">39.4371719360352</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">40.7205467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5793418884277</t>
+    <t xml:space="preserve">41.579345703125</t>
   </si>
   <si>
     <t xml:space="preserve">43.3162384033203</t>
@@ -4100,19 +4100,19 @@
     <t xml:space="preserve">44.281177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4645233154297</t>
+    <t xml:space="preserve">44.4645195007324</t>
   </si>
   <si>
     <t xml:space="preserve">44.2136344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0653533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1486587524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5240135192871</t>
+    <t xml:space="preserve">43.065357208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1486549377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5240173339844</t>
   </si>
   <si>
     <t xml:space="preserve">38.0573043823242</t>
@@ -4121,7 +4121,7 @@
     <t xml:space="preserve">37.0344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">38.366081237793</t>
+    <t xml:space="preserve">38.3660850524902</t>
   </si>
   <si>
     <t xml:space="preserve">36.1756706237793</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">35.7896919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7221450805664</t>
+    <t xml:space="preserve">35.7221488952637</t>
   </si>
   <si>
     <t xml:space="preserve">36.4844512939453</t>
@@ -4157,7 +4157,7 @@
     <t xml:space="preserve">39.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9257545471191</t>
+    <t xml:space="preserve">38.9257507324219</t>
   </si>
   <si>
     <t xml:space="preserve">38.2213478088379</t>
@@ -4166,10 +4166,10 @@
     <t xml:space="preserve">39.77490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9389419555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0257873535156</t>
+    <t xml:space="preserve">39.9389381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0257835388184</t>
   </si>
   <si>
     <t xml:space="preserve">39.3985748291016</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">41.2609100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6758346557617</t>
+    <t xml:space="preserve">41.675838470459</t>
   </si>
   <si>
     <t xml:space="preserve">42.081111907959</t>
@@ -4211,10 +4211,10 @@
     <t xml:space="preserve">41.6468887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9952354431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9637145996094</t>
+    <t xml:space="preserve">44.9952392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9637184143066</t>
   </si>
   <si>
     <t xml:space="preserve">47.021614074707</t>
@@ -4223,22 +4223,22 @@
     <t xml:space="preserve">46.0663223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3654556274414</t>
+    <t xml:space="preserve">46.3654518127441</t>
   </si>
   <si>
     <t xml:space="preserve">47.5812835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5716285705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5523338317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8961715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7742652893066</t>
+    <t xml:space="preserve">47.5716323852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5523300170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.896167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7742691040039</t>
   </si>
   <si>
     <t xml:space="preserve">48.0155029296875</t>
@@ -4256,10 +4256,10 @@
     <t xml:space="preserve">47.8128662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1760063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0241851806641</t>
+    <t xml:space="preserve">47.1760025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0241813659668</t>
   </si>
   <si>
     <t xml:space="preserve">45.8540344238281</t>
@@ -4274,31 +4274,31 @@
     <t xml:space="preserve">44.0206451416016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1039505004883</t>
+    <t xml:space="preserve">43.103946685791</t>
   </si>
   <si>
     <t xml:space="preserve">43.2679901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0750045776367</t>
+    <t xml:space="preserve">43.0750007629395</t>
   </si>
   <si>
     <t xml:space="preserve">41.974967956543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1811485290527</t>
+    <t xml:space="preserve">43.1811447143555</t>
   </si>
   <si>
     <t xml:space="preserve">42.071460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3319969177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6407737731934</t>
+    <t xml:space="preserve">42.1100616455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3319931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6407775878906</t>
   </si>
   <si>
     <t xml:space="preserve">43.4320297241211</t>
@@ -4307,25 +4307,25 @@
     <t xml:space="preserve">43.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9688568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.682918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5056838989258</t>
+    <t xml:space="preserve">42.9688606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6829147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.505687713623</t>
   </si>
   <si>
     <t xml:space="preserve">41.8495254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4284934997559</t>
+    <t xml:space="preserve">42.4284896850586</t>
   </si>
   <si>
     <t xml:space="preserve">42.7469215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4223785400391</t>
+    <t xml:space="preserve">43.4223823547363</t>
   </si>
   <si>
     <t xml:space="preserve">40.8556365966797</t>
@@ -4343,7 +4343,7 @@
     <t xml:space="preserve">41.9942665100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7108917236328</t>
+    <t xml:space="preserve">40.7108955383301</t>
   </si>
   <si>
     <t xml:space="preserve">40.9038848876953</t>
@@ -4358,7 +4358,7 @@
     <t xml:space="preserve">43.8083610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9206085205078</t>
+    <t xml:space="preserve">42.9206123352051</t>
   </si>
   <si>
     <t xml:space="preserve">42.4574394226074</t>
@@ -4373,10 +4373,10 @@
     <t xml:space="preserve">43.6153717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6925621032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.792594909668</t>
+    <t xml:space="preserve">43.6925659179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7925987243652</t>
   </si>
   <si>
     <t xml:space="preserve">45.0531311035156</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">44.7057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.680347442627</t>
+    <t xml:space="preserve">45.6803436279297</t>
   </si>
   <si>
     <t xml:space="preserve">44.3390769958496</t>
@@ -4397,13 +4397,13 @@
     <t xml:space="preserve">47.2146034240723</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7031860351562</t>
+    <t xml:space="preserve">46.703182220459</t>
   </si>
   <si>
     <t xml:space="preserve">44.7347030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7022132873535</t>
+    <t xml:space="preserve">43.7022171020508</t>
   </si>
   <si>
     <t xml:space="preserve">42.1583061218262</t>
@@ -4418,16 +4418,16 @@
     <t xml:space="preserve">40.7784385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7987060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9145011901855</t>
+    <t xml:space="preserve">43.7987098693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9144973754883</t>
   </si>
   <si>
     <t xml:space="preserve">44.8215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0820808410645</t>
+    <t xml:space="preserve">45.0820846557617</t>
   </si>
   <si>
     <t xml:space="preserve">47.8321647644043</t>
@@ -4439,31 +4439,31 @@
     <t xml:space="preserve">48.6909637451172</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8453559875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2663917541504</t>
+    <t xml:space="preserve">48.8453521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2663879394531</t>
   </si>
   <si>
     <t xml:space="preserve">48.1312980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0830535888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6645851135254</t>
+    <t xml:space="preserve">48.0830497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6645889282227</t>
   </si>
   <si>
     <t xml:space="preserve">46.6356391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5970420837402</t>
+    <t xml:space="preserve">46.597038269043</t>
   </si>
   <si>
     <t xml:space="preserve">46.4426498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3172073364258</t>
+    <t xml:space="preserve">46.3172035217285</t>
   </si>
   <si>
     <t xml:space="preserve">45.8347358703613</t>
@@ -4472,7 +4472,7 @@
     <t xml:space="preserve">47.330394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5777397155762</t>
+    <t xml:space="preserve">46.5777435302734</t>
   </si>
   <si>
     <t xml:space="preserve">46.6259880065918</t>
@@ -4481,7 +4481,7 @@
     <t xml:space="preserve">45.7671890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7803764343262</t>
+    <t xml:space="preserve">46.7803802490234</t>
   </si>
   <si>
     <t xml:space="preserve">47.6391754150391</t>
@@ -4505,10 +4505,10 @@
     <t xml:space="preserve">45.9215812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1953010559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4137001037598</t>
+    <t xml:space="preserve">47.1953048706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4136962890625</t>
   </si>
   <si>
     <t xml:space="preserve">47.7356719970703</t>
@@ -4517,16 +4517,16 @@
     <t xml:space="preserve">48.3821792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7646179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8839492797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6330680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6559066772461</t>
+    <t xml:space="preserve">47.7646217346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8839530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6330718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6559028625488</t>
   </si>
   <si>
     <t xml:space="preserve">50.505054473877</t>
@@ -4535,22 +4535,22 @@
     <t xml:space="preserve">50.8331336975098</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0804786682129</t>
+    <t xml:space="preserve">50.0804824829102</t>
   </si>
   <si>
     <t xml:space="preserve">51.2770080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6243896484375</t>
+    <t xml:space="preserve">51.6243858337402</t>
   </si>
   <si>
     <t xml:space="preserve">53.0525016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">53.534969329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0753364562988</t>
+    <t xml:space="preserve">53.5349731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0753402709961</t>
   </si>
   <si>
     <t xml:space="preserve">54.2876243591309</t>
@@ -4559,13 +4559,13 @@
     <t xml:space="preserve">53.0910987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2490272521973</t>
+    <t xml:space="preserve">54.2490310668945</t>
   </si>
   <si>
     <t xml:space="preserve">54.5385131835938</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3069267272949</t>
+    <t xml:space="preserve">54.3069229125977</t>
   </si>
   <si>
     <t xml:space="preserve">54.4613151550293</t>
@@ -4574,22 +4574,22 @@
     <t xml:space="preserve">55.754337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3104629516602</t>
+    <t xml:space="preserve">55.3104667663574</t>
   </si>
   <si>
     <t xml:space="preserve">55.1946716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0595779418945</t>
+    <t xml:space="preserve">55.0595817565918</t>
   </si>
   <si>
     <t xml:space="preserve">56.4683952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6999778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4262580871582</t>
+    <t xml:space="preserve">56.6999816894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4262542724609</t>
   </si>
   <si>
     <t xml:space="preserve">55.2525672912598</t>
@@ -4604,28 +4604,28 @@
     <t xml:space="preserve">54.2297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">54.7122039794922</t>
+    <t xml:space="preserve">54.7122001647949</t>
   </si>
   <si>
     <t xml:space="preserve">55.1560745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1210136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.638542175293</t>
+    <t xml:space="preserve">56.1210174560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6385459899902</t>
   </si>
   <si>
     <t xml:space="preserve">55.6771430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6034851074219</t>
+    <t xml:space="preserve">56.6034889221191</t>
   </si>
   <si>
     <t xml:space="preserve">56.5648880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2175064086914</t>
+    <t xml:space="preserve">56.2175102233887</t>
   </si>
   <si>
     <t xml:space="preserve">55.6964416503906</t>
@@ -4637,7 +4637,7 @@
     <t xml:space="preserve">55.7736358642578</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6070251464844</t>
+    <t xml:space="preserve">57.6070289611816</t>
   </si>
   <si>
     <t xml:space="preserve">58.2438888549805</t>
@@ -4679,10 +4679,10 @@
     <t xml:space="preserve">57.5684280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8035507202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.2667274475098</t>
+    <t xml:space="preserve">58.8035545349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.2667236328125</t>
   </si>
   <si>
     <t xml:space="preserve">59.4597129821777</t>
@@ -4694,37 +4694,37 @@
     <t xml:space="preserve">58.5719680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.2509689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2316665649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3124008178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3703002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9878578186035</t>
+    <t xml:space="preserve">60.2509651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.2316627502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3124046325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4667930603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3702964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9878616333008</t>
   </si>
   <si>
     <t xml:space="preserve">61.0422172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">61.1966094970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7720336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4738693237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6282615661621</t>
+    <t xml:space="preserve">61.196605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7720375061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4738731384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6282653808594</t>
   </si>
   <si>
     <t xml:space="preserve">62.373836517334</t>
@@ -4739,7 +4739,7 @@
     <t xml:space="preserve">64.5739059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8440933227539</t>
+    <t xml:space="preserve">64.8440856933594</t>
   </si>
   <si>
     <t xml:space="preserve">65.3072662353516</t>
@@ -4760,13 +4760,13 @@
     <t xml:space="preserve">66.1564025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9405822753906</t>
+    <t xml:space="preserve">64.9405899047852</t>
   </si>
   <si>
     <t xml:space="preserve">64.4195175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8791427612305</t>
+    <t xml:space="preserve">63.8791465759277</t>
   </si>
   <si>
     <t xml:space="preserve">63.3001823425293</t>
@@ -4781,13 +4781,13 @@
     <t xml:space="preserve">62.8949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9914016723633</t>
+    <t xml:space="preserve">62.991397857666</t>
   </si>
   <si>
     <t xml:space="preserve">62.2387466430664</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1036567687988</t>
+    <t xml:space="preserve">62.1036529541016</t>
   </si>
   <si>
     <t xml:space="preserve">63.5374183654785</t>
@@ -5504,7 +5504,13 @@
     <t xml:space="preserve">60.3199996948242</t>
   </si>
   <si>
+    <t xml:space="preserve">59.3199996948242</t>
+  </si>
+  <si>
     <t xml:space="preserve">60.0200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.8199996948242</t>
   </si>
 </sst>
 </file>
@@ -29706,7 +29712,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G918" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29732,7 +29738,7 @@
         <v>35.1399993896484</v>
       </c>
       <c r="G919" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29758,7 +29764,7 @@
         <v>35.0699996948242</v>
       </c>
       <c r="G920" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29784,7 +29790,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G921" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29810,7 +29816,7 @@
         <v>33.8600006103516</v>
       </c>
       <c r="G922" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29836,7 +29842,7 @@
         <v>34.4300003051758</v>
       </c>
       <c r="G923" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -29862,7 +29868,7 @@
         <v>34.3600006103516</v>
       </c>
       <c r="G924" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29888,7 +29894,7 @@
         <v>35.4599990844727</v>
       </c>
       <c r="G925" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29940,7 +29946,7 @@
         <v>34.4199981689453</v>
       </c>
       <c r="G927" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29992,7 +29998,7 @@
         <v>34.2099990844727</v>
       </c>
       <c r="G929" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -30018,7 +30024,7 @@
         <v>34</v>
       </c>
       <c r="G930" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -30044,7 +30050,7 @@
         <v>33.939998626709</v>
       </c>
       <c r="G931" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -30070,7 +30076,7 @@
         <v>34.0900001525879</v>
       </c>
       <c r="G932" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -30096,7 +30102,7 @@
         <v>34.310001373291</v>
       </c>
       <c r="G933" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -30148,7 +30154,7 @@
         <v>35.060001373291</v>
       </c>
       <c r="G935" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -30174,7 +30180,7 @@
         <v>35.8600006103516</v>
       </c>
       <c r="G936" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -30200,7 +30206,7 @@
         <v>35.9599990844727</v>
       </c>
       <c r="G937" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -30226,7 +30232,7 @@
         <v>35.4900016784668</v>
       </c>
       <c r="G938" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -30252,7 +30258,7 @@
         <v>35.2799987792969</v>
       </c>
       <c r="G939" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -30278,7 +30284,7 @@
         <v>35.3699989318848</v>
       </c>
       <c r="G940" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -30304,7 +30310,7 @@
         <v>35.3899993896484</v>
       </c>
       <c r="G941" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -30330,7 +30336,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G942" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -30356,7 +30362,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G943" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -30382,7 +30388,7 @@
         <v>34.1300010681152</v>
       </c>
       <c r="G944" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -30408,7 +30414,7 @@
         <v>31.7399997711182</v>
       </c>
       <c r="G945" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30434,7 +30440,7 @@
         <v>32.4700012207031</v>
       </c>
       <c r="G946" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30460,7 +30466,7 @@
         <v>32.6199989318848</v>
       </c>
       <c r="G947" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30486,7 +30492,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G948" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30512,7 +30518,7 @@
         <v>32.2299995422363</v>
       </c>
       <c r="G949" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30538,7 +30544,7 @@
         <v>32.1399993896484</v>
       </c>
       <c r="G950" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30564,7 +30570,7 @@
         <v>32.3600006103516</v>
       </c>
       <c r="G951" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30590,7 +30596,7 @@
         <v>32.8899993896484</v>
       </c>
       <c r="G952" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30616,7 +30622,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G953" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30642,7 +30648,7 @@
         <v>32.3400001525879</v>
       </c>
       <c r="G954" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30668,7 +30674,7 @@
         <v>31.5900001525879</v>
       </c>
       <c r="G955" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30694,7 +30700,7 @@
         <v>32.1100006103516</v>
       </c>
       <c r="G956" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30720,7 +30726,7 @@
         <v>32.5400009155273</v>
       </c>
       <c r="G957" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30746,7 +30752,7 @@
         <v>32.7400016784668</v>
       </c>
       <c r="G958" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30772,7 +30778,7 @@
         <v>32.5800018310547</v>
       </c>
       <c r="G959" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30798,7 +30804,7 @@
         <v>33.189998626709</v>
       </c>
       <c r="G960" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30824,7 +30830,7 @@
         <v>33.8199996948242</v>
       </c>
       <c r="G961" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30850,7 +30856,7 @@
         <v>34.4799995422363</v>
       </c>
       <c r="G962" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30876,7 +30882,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30902,7 +30908,7 @@
         <v>34.0699996948242</v>
       </c>
       <c r="G964" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30928,7 +30934,7 @@
         <v>33.6399993896484</v>
       </c>
       <c r="G965" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30954,7 +30960,7 @@
         <v>33.310001373291</v>
       </c>
       <c r="G966" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30980,7 +30986,7 @@
         <v>32.1699981689453</v>
       </c>
       <c r="G967" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -31006,7 +31012,7 @@
         <v>32.5</v>
       </c>
       <c r="G968" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -31032,7 +31038,7 @@
         <v>32.2799987792969</v>
       </c>
       <c r="G969" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -31058,7 +31064,7 @@
         <v>32.189998626709</v>
       </c>
       <c r="G970" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -31084,7 +31090,7 @@
         <v>32.4900016784668</v>
       </c>
       <c r="G971" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -31110,7 +31116,7 @@
         <v>36.1699981689453</v>
       </c>
       <c r="G972" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -31136,7 +31142,7 @@
         <v>35.5</v>
       </c>
       <c r="G973" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -31162,7 +31168,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G974" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -31188,7 +31194,7 @@
         <v>34.6800003051758</v>
       </c>
       <c r="G975" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -31240,7 +31246,7 @@
         <v>35.1699981689453</v>
       </c>
       <c r="G977" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -31266,7 +31272,7 @@
         <v>35.2900009155273</v>
       </c>
       <c r="G978" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -31292,7 +31298,7 @@
         <v>35.0299987792969</v>
       </c>
       <c r="G979" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -31344,7 +31350,7 @@
         <v>37.1100006103516</v>
       </c>
       <c r="G981" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -31370,7 +31376,7 @@
         <v>37.6399993896484</v>
       </c>
       <c r="G982" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -31396,7 +31402,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31422,7 +31428,7 @@
         <v>36.9599990844727</v>
       </c>
       <c r="G984" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31448,7 +31454,7 @@
         <v>36.8699989318848</v>
       </c>
       <c r="G985" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -31474,7 +31480,7 @@
         <v>36.439998626709</v>
       </c>
       <c r="G986" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31500,7 +31506,7 @@
         <v>36.560001373291</v>
       </c>
       <c r="G987" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -31526,7 +31532,7 @@
         <v>36.8400001525879</v>
       </c>
       <c r="G988" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31552,7 +31558,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G989" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31578,7 +31584,7 @@
         <v>37.75</v>
       </c>
       <c r="G990" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31604,7 +31610,7 @@
         <v>37.4300003051758</v>
       </c>
       <c r="G991" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31682,7 +31688,7 @@
         <v>39.0800018310547</v>
       </c>
       <c r="G994" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31708,7 +31714,7 @@
         <v>39.189998626709</v>
       </c>
       <c r="G995" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31734,7 +31740,7 @@
         <v>40.1399993896484</v>
       </c>
       <c r="G996" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31760,7 +31766,7 @@
         <v>39.7700004577637</v>
       </c>
       <c r="G997" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31786,7 +31792,7 @@
         <v>38.7900009155273</v>
       </c>
       <c r="G998" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31812,7 +31818,7 @@
         <v>38.6800003051758</v>
       </c>
       <c r="G999" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31838,7 +31844,7 @@
         <v>38.8300018310547</v>
       </c>
       <c r="G1000" t="s">
-        <v>838</v>
+        <v>502</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -33112,7 +33118,7 @@
         <v>37.6399993896484</v>
       </c>
       <c r="G1049" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -33346,7 +33352,7 @@
         <v>34.4300003051758</v>
       </c>
       <c r="G1058" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -33866,7 +33872,7 @@
         <v>34</v>
       </c>
       <c r="G1078" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -34230,7 +34236,7 @@
         <v>34</v>
       </c>
       <c r="G1092" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -34308,7 +34314,7 @@
         <v>32.5800018310547</v>
       </c>
       <c r="G1095" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -34386,7 +34392,7 @@
         <v>34.6800003051758</v>
       </c>
       <c r="G1098" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -34412,7 +34418,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1099" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -34698,7 +34704,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -34984,7 +34990,7 @@
         <v>34.6800003051758</v>
       </c>
       <c r="G1121" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -35270,7 +35276,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G1132" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -35296,7 +35302,7 @@
         <v>35.1399993896484</v>
       </c>
       <c r="G1133" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -35452,7 +35458,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1139" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -36024,7 +36030,7 @@
         <v>32.8899993896484</v>
       </c>
       <c r="G1161" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -36232,7 +36238,7 @@
         <v>32.2799987792969</v>
       </c>
       <c r="G1169" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -36284,7 +36290,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -36440,7 +36446,7 @@
         <v>32.2299995422363</v>
       </c>
       <c r="G1177" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -36596,7 +36602,7 @@
         <v>32.6199989318848</v>
       </c>
       <c r="G1183" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -36804,7 +36810,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1191" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -36856,7 +36862,7 @@
         <v>34.310001373291</v>
       </c>
       <c r="G1193" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -37038,7 +37044,7 @@
         <v>35.0699996948242</v>
       </c>
       <c r="G1200" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -37298,7 +37304,7 @@
         <v>36.1699981689453</v>
       </c>
       <c r="G1210" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -37428,7 +37434,7 @@
         <v>36.9599990844727</v>
       </c>
       <c r="G1215" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -37610,7 +37616,7 @@
         <v>37.4300003051758</v>
       </c>
       <c r="G1222" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -37766,7 +37772,7 @@
         <v>34.1300010681152</v>
       </c>
       <c r="G1228" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -37792,7 +37798,7 @@
         <v>34.3600006103516</v>
       </c>
       <c r="G1229" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -61694,27 +61700,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6517824074</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>544417</v>
+        <v>753851</v>
       </c>
       <c r="C2149" t="n">
-        <v>60.0200004577637</v>
+        <v>60.5800018310547</v>
       </c>
       <c r="D2149" t="n">
-        <v>58.5999984741211</v>
+        <v>59.0200004577637</v>
       </c>
       <c r="E2149" t="n">
-        <v>59.3600006103516</v>
+        <v>60.560001373291</v>
       </c>
       <c r="F2149" t="n">
-        <v>60.0200004577637</v>
+        <v>59.3199996948242</v>
       </c>
       <c r="G2149" t="s">
         <v>1830</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>544417</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>60.0200004577637</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>58.5999984741211</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>59.3600006103516</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>60.0200004577637</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6496527778</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>576864</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>60.1599998474121</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>59</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>59.9199981689453</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>59.8199996948242</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1834">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3273487091064</t>
+    <t xml:space="preserve">11.3273477554321</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
@@ -50,25 +50,25 @@
     <t xml:space="preserve">11.0907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1453819274902</t>
+    <t xml:space="preserve">11.1453828811646</t>
   </si>
   <si>
     <t xml:space="preserve">11.2363653182983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4274291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2280769348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8914422988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7367706298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.409234046936</t>
+    <t xml:space="preserve">11.4274301528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2280759811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8914403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7367696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4092321395874</t>
   </si>
   <si>
     <t xml:space="preserve">11.8095560073853</t>
@@ -77,22 +77,22 @@
     <t xml:space="preserve">12.0006198883057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6639823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0916023254395</t>
+    <t xml:space="preserve">11.6639842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0916042327881</t>
   </si>
   <si>
     <t xml:space="preserve">12.391845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2735681533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4009437561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3736505508423</t>
+    <t xml:space="preserve">12.273567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4009456634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3736486434937</t>
   </si>
   <si>
     <t xml:space="preserve">11.9915218353271</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">12.3645515441895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2189798355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1643877029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0279159545898</t>
+    <t xml:space="preserve">12.2189788818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1643886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0279150009155</t>
   </si>
   <si>
     <t xml:space="preserve">12.1825857162476</t>
@@ -119,70 +119,70 @@
     <t xml:space="preserve">11.5275096893311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2909545898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.509313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1908740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5548057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9369325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1461925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6920881271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5465154647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.682991027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0643091201782</t>
+    <t xml:space="preserve">11.2909555435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5093126296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1908750534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5548048019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9369316101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1461935043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6920890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283212661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.546516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6829900741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0643081665039</t>
   </si>
   <si>
     <t xml:space="preserve">12.4737300872803</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0287237167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2561817169189</t>
+    <t xml:space="preserve">13.0287256240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2561807632446</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5109329223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7110948562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7838802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2842845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7565860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9294528961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0204372406006</t>
+    <t xml:space="preserve">13.5109338760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7110958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.783881187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2842864990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7565879821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9294557571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0204362869263</t>
   </si>
   <si>
     <t xml:space="preserve">13.6383094787598</t>
@@ -191,76 +191,76 @@
     <t xml:space="preserve">13.3380661010742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3562622070312</t>
+    <t xml:space="preserve">13.3562631607056</t>
   </si>
   <si>
     <t xml:space="preserve">13.2834768295288</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1924934387207</t>
+    <t xml:space="preserve">13.1924924850464</t>
   </si>
   <si>
     <t xml:space="preserve">13.3107719421387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2379856109619</t>
+    <t xml:space="preserve">13.2379846572876</t>
   </si>
   <si>
     <t xml:space="preserve">13.3926563262939</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8202743530273</t>
+    <t xml:space="preserve">13.820273399353</t>
   </si>
   <si>
     <t xml:space="preserve">13.4199504852295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2743797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2197895050049</t>
+    <t xml:space="preserve">13.2743787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2197885513306</t>
   </si>
   <si>
     <t xml:space="preserve">12.8740530014038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0833158493042</t>
+    <t xml:space="preserve">13.0833148956299</t>
   </si>
   <si>
     <t xml:space="preserve">13.1197071075439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3289661407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1651983261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.447244644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5018348693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6928987503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.465443611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9741353988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7921705245972</t>
+    <t xml:space="preserve">13.3289680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1651992797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4472455978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5018358230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6928997039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4654417037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9741363525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7921714782715</t>
   </si>
   <si>
     <t xml:space="preserve">12.8831520080566</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2652788162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.292573928833</t>
+    <t xml:space="preserve">13.2652797698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2925748825073</t>
   </si>
   <si>
     <t xml:space="preserve">13.6201124191284</t>
@@ -269,43 +269,43 @@
     <t xml:space="preserve">14.2478933334351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3752689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3115797042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2660903930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9476509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8748645782471</t>
+    <t xml:space="preserve">14.3752679824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.311580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2660894393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9476499557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8748636245728</t>
   </si>
   <si>
     <t xml:space="preserve">13.6656036376953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.647406578064</t>
+    <t xml:space="preserve">13.6474075317383</t>
   </si>
   <si>
     <t xml:space="preserve">13.5280151367188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.867823600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7484302520752</t>
+    <t xml:space="preserve">13.8678226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7484312057495</t>
   </si>
   <si>
     <t xml:space="preserve">13.573935508728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7759828567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9045581817627</t>
+    <t xml:space="preserve">13.7759838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.904559135437</t>
   </si>
   <si>
     <t xml:space="preserve">13.7667989730835</t>
@@ -317,22 +317,22 @@
     <t xml:space="preserve">13.6657752990723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6198539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9780321121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0423192977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0515022277832</t>
+    <t xml:space="preserve">13.619854927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9780311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0423183441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0515031814575</t>
   </si>
   <si>
     <t xml:space="preserve">13.6014881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4545421600342</t>
+    <t xml:space="preserve">13.4545431137085</t>
   </si>
   <si>
     <t xml:space="preserve">13.0137119293213</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">13.5096473693848</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1514711380005</t>
+    <t xml:space="preserve">13.1514720916748</t>
   </si>
   <si>
     <t xml:space="preserve">14.1249742507935</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">13.9872140884399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708946228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5474367141724</t>
+    <t xml:space="preserve">14.1708955764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.547438621521</t>
   </si>
   <si>
     <t xml:space="preserve">13.2249441146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5820646286011</t>
+    <t xml:space="preserve">12.5820627212524</t>
   </si>
   <si>
     <t xml:space="preserve">12.9861602783203</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">13.1422882080078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1698398590088</t>
+    <t xml:space="preserve">13.1698389053345</t>
   </si>
   <si>
     <t xml:space="preserve">13.2616786956787</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">13.2157602310181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4729118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.252495765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2433109283447</t>
+    <t xml:space="preserve">13.4729127883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524948120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.243311882019</t>
   </si>
   <si>
     <t xml:space="preserve">13.0596323013306</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">14.4923334121704</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3821268081665</t>
+    <t xml:space="preserve">14.3821258544922</t>
   </si>
   <si>
     <t xml:space="preserve">14.6943817138672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4004945755005</t>
+    <t xml:space="preserve">14.4004936218262</t>
   </si>
   <si>
     <t xml:space="preserve">14.271918296814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8127174377441</t>
+    <t xml:space="preserve">13.8127183914185</t>
   </si>
   <si>
     <t xml:space="preserve">13.9137420654297</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">14.244366645813</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3453903198242</t>
+    <t xml:space="preserve">14.3453893661499</t>
   </si>
   <si>
     <t xml:space="preserve">14.3362064361572</t>
@@ -437,79 +437,79 @@
     <t xml:space="preserve">14.3637580871582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3086538314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.235182762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0790557861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3178386688232</t>
+    <t xml:space="preserve">14.3086557388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2351818084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0790538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3178377151489</t>
   </si>
   <si>
     <t xml:space="preserve">14.0698709487915</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0055818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.89537525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8310880661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6565914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7208795547485</t>
+    <t xml:space="preserve">14.0055828094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8953742980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8310871124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.656590461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7208786010742</t>
   </si>
   <si>
     <t xml:space="preserve">13.8219032287598</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0331335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8402700424194</t>
+    <t xml:space="preserve">14.0331354141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8402709960938</t>
   </si>
   <si>
     <t xml:space="preserve">14.0147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.225998878479</t>
+    <t xml:space="preserve">14.2259979248047</t>
   </si>
   <si>
     <t xml:space="preserve">13.922926902771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3270225524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3913097381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7576141357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9596633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9504795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0974225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7851676940918</t>
+    <t xml:space="preserve">14.3270235061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3913106918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7576150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.959662437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9504776000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0974216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7851667404175</t>
   </si>
   <si>
     <t xml:space="preserve">14.1525259017944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4188613891602</t>
+    <t xml:space="preserve">14.4188623428345</t>
   </si>
   <si>
     <t xml:space="preserve">14.2076320648193</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">14.281102180481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1892614364624</t>
+    <t xml:space="preserve">14.1892623901367</t>
   </si>
   <si>
     <t xml:space="preserve">14.1066064834595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.932110786438</t>
+    <t xml:space="preserve">13.9321098327637</t>
   </si>
   <si>
     <t xml:space="preserve">13.7025108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6933269500732</t>
+    <t xml:space="preserve">13.6933288574219</t>
   </si>
   <si>
     <t xml:space="preserve">13.7943515777588</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">13.6382236480713</t>
   </si>
   <si>
-    <t xml:space="preserve">13.941294670105</t>
+    <t xml:space="preserve">13.9412956237793</t>
   </si>
   <si>
     <t xml:space="preserve">13.62903881073</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">14.0882387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1800775527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3729419708252</t>
+    <t xml:space="preserve">14.1800785064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3729410171509</t>
   </si>
   <si>
     <t xml:space="preserve">14.9790849685669</t>
@@ -563,37 +563,37 @@
     <t xml:space="preserve">15.2546062469482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4382848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3831825256348</t>
+    <t xml:space="preserve">15.4382829666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3831806182861</t>
   </si>
   <si>
     <t xml:space="preserve">15.2362375259399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8780612945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0709247589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1076622009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2086849212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1260290145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9882688522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0158233642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0341892242432</t>
+    <t xml:space="preserve">14.8780603408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0709257125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1076631546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.208685874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1260280609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9882698059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0158224105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0341911315918</t>
   </si>
   <si>
     <t xml:space="preserve">15.1811332702637</t>
@@ -602,76 +602,76 @@
     <t xml:space="preserve">15.4291000366211</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3097105026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0433731079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0066366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2913389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7872753143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.824010848999</t>
+    <t xml:space="preserve">15.3097095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0433712005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0066375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2913408279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.787278175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8240127563477</t>
   </si>
   <si>
     <t xml:space="preserve">16.0444278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0811614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.833197593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1362648010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4577083587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5311794281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5679187774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5587310791016</t>
+    <t xml:space="preserve">16.0811672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8331966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136266708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.457706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5311813354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5679168701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5587329864502</t>
   </si>
   <si>
     <t xml:space="preserve">16.6138362884521</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4760761260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3934173583984</t>
+    <t xml:space="preserve">16.4760780334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3934192657471</t>
   </si>
   <si>
     <t xml:space="preserve">16.3474998474121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2740268707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9893245697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2923965454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3383140563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3199481964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3015785217285</t>
+    <t xml:space="preserve">16.2740287780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9893255233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2923946380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3383197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3199462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3015804290771</t>
   </si>
   <si>
     <t xml:space="preserve">16.2464771270752</t>
@@ -683,112 +683,112 @@
     <t xml:space="preserve">16.4668922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4117908477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2556591033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3291339874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5495491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4863128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6516265869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5506019592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6883640289307</t>
+    <t xml:space="preserve">16.4117870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2556610107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3291301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5495452880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4863147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6516246795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5506038665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.688362121582</t>
   </si>
   <si>
     <t xml:space="preserve">17.72509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9087791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9638824462891</t>
+    <t xml:space="preserve">17.9087772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9638805389404</t>
   </si>
   <si>
     <t xml:space="preserve">18.055721282959</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0006160736084</t>
+    <t xml:space="preserve">18.000617980957</t>
   </si>
   <si>
     <t xml:space="preserve">18.2577667236328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4138965606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5883941650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2853202819824</t>
+    <t xml:space="preserve">18.4138946533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5883922576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2853221893311</t>
   </si>
   <si>
     <t xml:space="preserve">18.4690017700195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4965515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7353343963623</t>
+    <t xml:space="preserve">18.4965534210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7353363037109</t>
   </si>
   <si>
     <t xml:space="preserve">18.680233001709</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8271770477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5792083740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6894187927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8547286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0384101867676</t>
+    <t xml:space="preserve">18.8271789550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5792102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.689416885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8547306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0384063720703</t>
   </si>
   <si>
     <t xml:space="preserve">19.3598480224609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6629180908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6721038818359</t>
+    <t xml:space="preserve">19.6629219055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6721057891846</t>
   </si>
   <si>
     <t xml:space="preserve">19.6353664398193</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9200706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0027275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.543529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.644552230835</t>
+    <t xml:space="preserve">19.920072555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0027294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5435276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6445484161377</t>
   </si>
   <si>
     <t xml:space="preserve">19.7547607421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9751758575439</t>
+    <t xml:space="preserve">19.9751739501953</t>
   </si>
   <si>
     <t xml:space="preserve">20.1404876708984</t>
@@ -797,49 +797,49 @@
     <t xml:space="preserve">19.901704788208</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0210933685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9568061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6456069946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8935737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8109130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1323566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3068523406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5915565490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.939489364624</t>
+    <t xml:space="preserve">20.0210952758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.95680809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6456050872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.893575668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8109169006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.132360458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3068542480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5915584564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9394931793213</t>
   </si>
   <si>
     <t xml:space="preserve">20.2323265075684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4527435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3425331115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4343719482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3241672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4435577392578</t>
+    <t xml:space="preserve">20.4527416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3425350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4343757629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3241653442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4435596466064</t>
   </si>
   <si>
     <t xml:space="preserve">19.8282299041748</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">19.9935436248779</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0954074859619</t>
+    <t xml:space="preserve">20.0954093933105</t>
   </si>
   <si>
     <t xml:space="preserve">20.1694946289062</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">20.0491046905518</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9287185668945</t>
+    <t xml:space="preserve">19.9287204742432</t>
   </si>
   <si>
     <t xml:space="preserve">20.4658317565918</t>
@@ -866,19 +866,19 @@
     <t xml:space="preserve">19.6694240570068</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0768871307373</t>
+    <t xml:space="preserve">20.0768890380859</t>
   </si>
   <si>
     <t xml:space="preserve">20.150972366333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.715726852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3545665740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4379100799561</t>
+    <t xml:space="preserve">19.7157287597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.354564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4379081726074</t>
   </si>
   <si>
     <t xml:space="preserve">19.4008693695068</t>
@@ -887,55 +887,55 @@
     <t xml:space="preserve">19.5119934082031</t>
   </si>
   <si>
-    <t xml:space="preserve">19.00266456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2619590759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5582981109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4749507904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7805500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6601619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0583648681641</t>
+    <t xml:space="preserve">19.0026626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2619571685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5582962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4749526977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7805519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6601600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0583667755127</t>
   </si>
   <si>
     <t xml:space="preserve">19.6509017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860786437988</t>
+    <t xml:space="preserve">19.5860767364502</t>
   </si>
   <si>
     <t xml:space="preserve">19.5768165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7620296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3730850219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7896709442139</t>
+    <t xml:space="preserve">19.7620315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3730869293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7896728515625</t>
   </si>
   <si>
     <t xml:space="preserve">18.9841423034668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0582294464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0211868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2341766357422</t>
+    <t xml:space="preserve">19.0582275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0211849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2341785430908</t>
   </si>
   <si>
     <t xml:space="preserve">19.1600914001465</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">19.5397758483887</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7249870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8175945281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8453769683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8916759490967</t>
+    <t xml:space="preserve">19.7249851226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8175926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8453750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8916778564453</t>
   </si>
   <si>
     <t xml:space="preserve">19.8731555938721</t>
@@ -965,52 +965,52 @@
     <t xml:space="preserve">19.7064666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">19.632381439209</t>
+    <t xml:space="preserve">19.6323795318604</t>
   </si>
   <si>
     <t xml:space="preserve">20.6973457336426</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9288597106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0214672088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8177318572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7158660888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8547744750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7899513244629</t>
+    <t xml:space="preserve">20.9288578033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0214653015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8177337646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7158679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8547763824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7899532318115</t>
   </si>
   <si>
     <t xml:space="preserve">20.8362522125244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.86403465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8084697723389</t>
+    <t xml:space="preserve">20.8640365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8084735870361</t>
   </si>
   <si>
     <t xml:space="preserve">21.3178024291992</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6234016418457</t>
+    <t xml:space="preserve">21.6233997344971</t>
   </si>
   <si>
     <t xml:space="preserve">22.0308666229248</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8641777038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8271331787109</t>
+    <t xml:space="preserve">21.8641757965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8271312713623</t>
   </si>
   <si>
     <t xml:space="preserve">21.9104785919189</t>
@@ -1025,19 +1025,19 @@
     <t xml:space="preserve">21.6882247924805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3455829620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7530498504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1049518585205</t>
+    <t xml:space="preserve">21.3455848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7530479431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1049499511719</t>
   </si>
   <si>
     <t xml:space="preserve">22.3920269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">22.23459815979</t>
+    <t xml:space="preserve">22.2346000671387</t>
   </si>
   <si>
     <t xml:space="preserve">22.2901611328125</t>
@@ -1055,34 +1055,34 @@
     <t xml:space="preserve">22.8735771179199</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1050910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.123607635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.012487411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7439270019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8920974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7346649169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7161464691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7531890869141</t>
+    <t xml:space="preserve">23.1050891876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1236095428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0124835968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7439289093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8920955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7346687316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7161483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7531909942627</t>
   </si>
   <si>
     <t xml:space="preserve">22.4568500518799</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3179397583008</t>
+    <t xml:space="preserve">22.3179416656494</t>
   </si>
   <si>
     <t xml:space="preserve">22.5679779052734</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">22.6142807006836</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6420631408691</t>
+    <t xml:space="preserve">22.6420650482178</t>
   </si>
   <si>
     <t xml:space="preserve">22.3364639282227</t>
@@ -1100,16 +1100,16 @@
     <t xml:space="preserve">22.2438583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9567832946777</t>
+    <t xml:space="preserve">21.9567794799805</t>
   </si>
   <si>
     <t xml:space="preserve">22.6513214111328</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7809715270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5587196350098</t>
+    <t xml:space="preserve">22.7809734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5587158203125</t>
   </si>
   <si>
     <t xml:space="preserve">22.7902317047119</t>
@@ -1121,64 +1121,64 @@
     <t xml:space="preserve">22.9013576507568</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4846363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.947660446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0680484771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.864315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6235427856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5772399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031509399414</t>
+    <t xml:space="preserve">22.4846343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9476623535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0680465698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8643169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6235408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5772380828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.50315284729</t>
   </si>
   <si>
     <t xml:space="preserve">22.4383296966553</t>
   </si>
   <si>
-    <t xml:space="preserve">22.345724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2623825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1140689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5400543212891</t>
+    <t xml:space="preserve">22.3457221984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.262378692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1140670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5400581359863</t>
   </si>
   <si>
     <t xml:space="preserve">21.4844932556152</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1418514251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2437191009521</t>
+    <t xml:space="preserve">21.1418495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2437210083008</t>
   </si>
   <si>
     <t xml:space="preserve">21.1233291625977</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5770969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5678367614746</t>
+    <t xml:space="preserve">21.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5678386688232</t>
   </si>
   <si>
     <t xml:space="preserve">21.6141395568848</t>
   </si>
   <si>
-    <t xml:space="preserve">21.299280166626</t>
+    <t xml:space="preserve">21.2992820739746</t>
   </si>
   <si>
     <t xml:space="preserve">21.3270645141602</t>
@@ -1187,19 +1187,19 @@
     <t xml:space="preserve">21.2714996337891</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3548450469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9197368621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.901216506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4475917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9754428863525</t>
+    <t xml:space="preserve">21.3548469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9197406768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9012184143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4475898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9754447937012</t>
   </si>
   <si>
     <t xml:space="preserve">23.0217475891113</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">23.4014282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8272743225098</t>
+    <t xml:space="preserve">22.8272724151611</t>
   </si>
   <si>
     <t xml:space="preserve">23.3458633422852</t>
@@ -1217,46 +1217,46 @@
     <t xml:space="preserve">23.4199504852295</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3273429870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6144199371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7811145782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1885776519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4478721618652</t>
+    <t xml:space="preserve">23.3273468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6144218444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7811107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1885757446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.447868347168</t>
   </si>
   <si>
     <t xml:space="preserve">24.1515331268311</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8922386169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7070274353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1700553894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0218849182129</t>
+    <t xml:space="preserve">23.8922367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7070236206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1700572967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0218868255615</t>
   </si>
   <si>
     <t xml:space="preserve">24.077449798584</t>
   </si>
   <si>
-    <t xml:space="preserve">23.725549697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3366088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.299560546875</t>
+    <t xml:space="preserve">23.7255458831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3366069793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2995624542236</t>
   </si>
   <si>
     <t xml:space="preserve">23.55885887146</t>
@@ -1268,16 +1268,16 @@
     <t xml:space="preserve">24.8923778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">25.040548324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7997722625732</t>
+    <t xml:space="preserve">25.0405464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7997741699219</t>
   </si>
   <si>
     <t xml:space="preserve">24.9294204711914</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0590667724609</t>
+    <t xml:space="preserve">25.0590648651123</t>
   </si>
   <si>
     <t xml:space="preserve">25.0775871276855</t>
@@ -1289,22 +1289,22 @@
     <t xml:space="preserve">24.6608638763428</t>
   </si>
   <si>
-    <t xml:space="preserve">24.577522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7627277374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.09596824646</t>
+    <t xml:space="preserve">24.5775184631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7627296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959701538086</t>
   </si>
   <si>
     <t xml:space="preserve">23.9941024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9108982086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8181552886963</t>
+    <t xml:space="preserve">24.9109001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.818151473999</t>
   </si>
   <si>
     <t xml:space="preserve">24.5867767333984</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">25.216495513916</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2536792755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.346284866333</t>
+    <t xml:space="preserve">26.2536811828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3462886810303</t>
   </si>
   <si>
     <t xml:space="preserve">26.0036430358887</t>
@@ -1331,10 +1331,10 @@
     <t xml:space="preserve">26.0406875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9666004180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2166385650635</t>
+    <t xml:space="preserve">25.9666023254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2166366577148</t>
   </si>
   <si>
     <t xml:space="preserve">26.7259674072266</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">26.5778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8925189971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8369541168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2814617156982</t>
+    <t xml:space="preserve">25.8925151824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8369560241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2814636230469</t>
   </si>
   <si>
     <t xml:space="preserve">26.1518135070801</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">27.1056499481201</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2723426818848</t>
+    <t xml:space="preserve">27.2723407745361</t>
   </si>
   <si>
     <t xml:space="preserve">27.0871315002441</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4205112457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3556880950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.568675994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0872707366943</t>
+    <t xml:space="preserve">27.4205093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3556842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5686798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0872688293457</t>
   </si>
   <si>
     <t xml:space="preserve">28.5780811309814</t>
@@ -1388,76 +1388,76 @@
     <t xml:space="preserve">28.1983966827393</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3465633392334</t>
+    <t xml:space="preserve">28.3465671539307</t>
   </si>
   <si>
     <t xml:space="preserve">28.3002624511719</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5502967834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6151237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4394512176514</t>
+    <t xml:space="preserve">28.5502986907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6151218414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4394493103027</t>
   </si>
   <si>
     <t xml:space="preserve">30.096809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4857501983643</t>
+    <t xml:space="preserve">30.4857521057129</t>
   </si>
   <si>
     <t xml:space="preserve">30.8376522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9210033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5876197814941</t>
+    <t xml:space="preserve">30.9209995269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5876178741455</t>
   </si>
   <si>
     <t xml:space="preserve">31.2543811798096</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5229396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1710338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9118766784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.624942779541</t>
+    <t xml:space="preserve">31.5229339599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1710319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9118824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6249465942383</t>
   </si>
   <si>
     <t xml:space="preserve">32.4304733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7453269958496</t>
+    <t xml:space="preserve">32.7453308105469</t>
   </si>
   <si>
     <t xml:space="preserve">32.6434631347656</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3565254211426</t>
+    <t xml:space="preserve">33.3565292358398</t>
   </si>
   <si>
     <t xml:space="preserve">33.4306106567383</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7084274291992</t>
+    <t xml:space="preserve">33.7084312438965</t>
   </si>
   <si>
     <t xml:space="preserve">34.2177581787109</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6715240478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1901168823242</t>
+    <t xml:space="preserve">34.6715202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1901206970215</t>
   </si>
   <si>
     <t xml:space="preserve">33.8010330200195</t>
@@ -1478,19 +1478,19 @@
     <t xml:space="preserve">34.4492721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8474731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8659973144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1715965270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0328330993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4865989685059</t>
+    <t xml:space="preserve">34.8474769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8660011291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1715927124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.032829284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4865951538086</t>
   </si>
   <si>
     <t xml:space="preserve">36.2440986633301</t>
@@ -1502,13 +1502,13 @@
     <t xml:space="preserve">34.490650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2834358215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6171722412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8223571777344</t>
+    <t xml:space="preserve">35.2834320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6171684265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8223609924316</t>
   </si>
   <si>
     <t xml:space="preserve">35.6565055847168</t>
@@ -1520,73 +1520,73 @@
     <t xml:space="preserve">36.6264953613281</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6544761657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1581268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5571517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1374397277832</t>
+    <t xml:space="preserve">36.6544799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.158130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5571594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1374435424805</t>
   </si>
   <si>
     <t xml:space="preserve">37.0741844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1187934875488</t>
+    <t xml:space="preserve">38.1187896728516</t>
   </si>
   <si>
     <t xml:space="preserve">38.4452323913574</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7623481750488</t>
+    <t xml:space="preserve">38.7623443603516</t>
   </si>
   <si>
     <t xml:space="preserve">39.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2286834716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6784019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4845657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1674537658691</t>
+    <t xml:space="preserve">39.228687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6784057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.484561920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1674499511719</t>
   </si>
   <si>
     <t xml:space="preserve">37.102165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9063034057617</t>
+    <t xml:space="preserve">36.9062995910645</t>
   </si>
   <si>
     <t xml:space="preserve">36.2161178588867</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1974678039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3187103271484</t>
+    <t xml:space="preserve">36.1974639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3187141418457</t>
   </si>
   <si>
     <t xml:space="preserve">35.8990020751953</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3746719360352</t>
+    <t xml:space="preserve">36.3746681213379</t>
   </si>
   <si>
     <t xml:space="preserve">36.1508293151855</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3020858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7238273620605</t>
+    <t xml:space="preserve">35.3020820617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7238159179688</t>
   </si>
   <si>
     <t xml:space="preserve">34.5093040466309</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">35.0689163208008</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8523712158203</t>
+    <t xml:space="preserve">35.852367401123</t>
   </si>
   <si>
     <t xml:space="preserve">34.9569969177246</t>
@@ -1604,19 +1604,19 @@
     <t xml:space="preserve">35.6285247802734</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4026527404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9176559448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4306411743164</t>
+    <t xml:space="preserve">36.4026489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.917652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4306335449219</t>
   </si>
   <si>
     <t xml:space="preserve">36.2720756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1881294250488</t>
+    <t xml:space="preserve">36.1881370544434</t>
   </si>
   <si>
     <t xml:space="preserve">36.0389060974121</t>
@@ -1625,40 +1625,40 @@
     <t xml:space="preserve">36.9809150695801</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6751556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4792938232422</t>
+    <t xml:space="preserve">35.675163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4792976379395</t>
   </si>
   <si>
     <t xml:space="preserve">34.5745964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1808395385742</t>
+    <t xml:space="preserve">35.1808433532715</t>
   </si>
   <si>
     <t xml:space="preserve">34.9756469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1735382080078</t>
+    <t xml:space="preserve">34.1735343933105</t>
   </si>
   <si>
     <t xml:space="preserve">35.0409355163574</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1528549194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3207397460938</t>
+    <t xml:space="preserve">35.1528625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3207359313965</t>
   </si>
   <si>
     <t xml:space="preserve">35.5166053771973</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4046783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7891120910645</t>
+    <t xml:space="preserve">35.4046745300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7891044616699</t>
   </si>
   <si>
     <t xml:space="preserve">35.6098747253418</t>
@@ -1676,40 +1676,40 @@
     <t xml:space="preserve">37.0368804931641</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9715881347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.139476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3373680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3093872070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.908332824707</t>
+    <t xml:space="preserve">36.9715919494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1394729614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3373641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.309383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9083290100098</t>
   </si>
   <si>
     <t xml:space="preserve">34.6025733947754</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0595893859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.115550994873</t>
+    <t xml:space="preserve">35.0595932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1155548095703</t>
   </si>
   <si>
     <t xml:space="preserve">35.0782432556152</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5725631713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7517967224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3953590393066</t>
+    <t xml:space="preserve">35.572566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7518005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3953552246094</t>
   </si>
   <si>
     <t xml:space="preserve">35.1994895935059</t>
@@ -1718,28 +1718,28 @@
     <t xml:space="preserve">35.3767013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2927551269531</t>
+    <t xml:space="preserve">35.2927589416504</t>
   </si>
   <si>
     <t xml:space="preserve">34.8543968200684</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1901626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4513130187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0202522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7311172485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7258491516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5506744384766</t>
+    <t xml:space="preserve">35.1901664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4513168334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0202560424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7311248779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7258529663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.550666809082</t>
   </si>
   <si>
     <t xml:space="preserve">33.194221496582</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">29.5940608978271</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1743545532227</t>
+    <t xml:space="preserve">29.174352645874</t>
   </si>
   <si>
     <t xml:space="preserve">28.838586807251</t>
@@ -1763,31 +1763,31 @@
     <t xml:space="preserve">29.0437774658203</t>
   </si>
   <si>
-    <t xml:space="preserve">29.099739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3535919189453</t>
+    <t xml:space="preserve">29.0997409820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3535900115967</t>
   </si>
   <si>
     <t xml:space="preserve">28.4282054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2623538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8872509002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5401268005371</t>
+    <t xml:space="preserve">27.2623519897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8872470855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5401287078857</t>
   </si>
   <si>
     <t xml:space="preserve">28.1950340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">27.793981552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1670532226562</t>
+    <t xml:space="preserve">27.7939777374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1670551300049</t>
   </si>
   <si>
     <t xml:space="preserve">28.6333961486816</t>
@@ -1799,10 +1799,10 @@
     <t xml:space="preserve">30.2189598083496</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8552131652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6313705444336</t>
+    <t xml:space="preserve">29.8552112579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.631368637085</t>
   </si>
   <si>
     <t xml:space="preserve">29.789924621582</t>
@@ -1811,25 +1811,25 @@
     <t xml:space="preserve">29.3422336578369</t>
   </si>
   <si>
-    <t xml:space="preserve">28.073787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6966571807861</t>
+    <t xml:space="preserve">28.0737857818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6966590881348</t>
   </si>
   <si>
     <t xml:space="preserve">28.6613750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6707019805908</t>
+    <t xml:space="preserve">28.6707038879395</t>
   </si>
   <si>
     <t xml:space="preserve">27.97119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8612976074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4582138061523</t>
+    <t xml:space="preserve">26.8612995147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.458215713501</t>
   </si>
   <si>
     <t xml:space="preserve">27.4209079742432</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">27.8219623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3369636535645</t>
+    <t xml:space="preserve">27.3369655609131</t>
   </si>
   <si>
     <t xml:space="preserve">27.5235042572021</t>
@@ -1874,22 +1874,22 @@
     <t xml:space="preserve">26.5441837310791</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2457237243652</t>
+    <t xml:space="preserve">26.2457256317139</t>
   </si>
   <si>
     <t xml:space="preserve">25.695442199707</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2011222839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7420768737793</t>
+    <t xml:space="preserve">25.2011184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7420787811279</t>
   </si>
   <si>
     <t xml:space="preserve">26.2830333709717</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7140941619873</t>
+    <t xml:space="preserve">25.7140960693359</t>
   </si>
   <si>
     <t xml:space="preserve">25.9192886352539</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">26.9825458526611</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1970653533936</t>
+    <t xml:space="preserve">27.1970634460449</t>
   </si>
   <si>
     <t xml:space="preserve">25.9379405975342</t>
@@ -1919,31 +1919,31 @@
     <t xml:space="preserve">29.2489681243896</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7826271057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6727313995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6447525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9525375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0271530151367</t>
+    <t xml:space="preserve">28.7826290130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6727333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6447505950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9525356292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0271492004395</t>
   </si>
   <si>
     <t xml:space="preserve">28.2976303100586</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5307998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.999174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5867614746094</t>
+    <t xml:space="preserve">28.5308017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9991722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5867595672607</t>
   </si>
   <si>
     <t xml:space="preserve">28.5121479034424</t>
@@ -1952,40 +1952,40 @@
     <t xml:space="preserve">28.8758926391602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5920314788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6853046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2915477752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9071178436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1329917907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3381767272949</t>
+    <t xml:space="preserve">30.5920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6853065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2915439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967365264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9071140289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1329898834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3381786346436</t>
   </si>
   <si>
     <t xml:space="preserve">31.6366348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">32.420093536377</t>
+    <t xml:space="preserve">32.4200897216797</t>
   </si>
   <si>
     <t xml:space="preserve">32.6346130371094</t>
   </si>
   <si>
-    <t xml:space="preserve">32.317497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0376968383789</t>
+    <t xml:space="preserve">32.3175010681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0376892089844</t>
   </si>
   <si>
     <t xml:space="preserve">32.5320167541504</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">32.4947090148926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3734550476074</t>
+    <t xml:space="preserve">32.373462677002</t>
   </si>
   <si>
     <t xml:space="preserve">32.3641357421875</t>
@@ -2003,10 +2003,10 @@
     <t xml:space="preserve">32.1869201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6905708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6252861022949</t>
+    <t xml:space="preserve">32.6905746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6252822875977</t>
   </si>
   <si>
     <t xml:space="preserve">31.4500999450684</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">34.929012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5559349060059</t>
+    <t xml:space="preserve">34.5559425354004</t>
   </si>
   <si>
     <t xml:space="preserve">33.6698875427246</t>
@@ -2024,25 +2024,25 @@
     <t xml:space="preserve">33.5766181945801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4367141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2501792907715</t>
+    <t xml:space="preserve">33.4367179870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.250186920166</t>
   </si>
   <si>
     <t xml:space="preserve">33.3154716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1662406921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6605606079102</t>
+    <t xml:space="preserve">33.1662445068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6605644226074</t>
   </si>
   <si>
     <t xml:space="preserve">33.7538299560547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.285457611084</t>
+    <t xml:space="preserve">34.2854614257812</t>
   </si>
   <si>
     <t xml:space="preserve">33.9496955871582</t>
@@ -2054,40 +2054,40 @@
     <t xml:space="preserve">32.4574012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1755638122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5020027160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2668113708496</t>
+    <t xml:space="preserve">33.1755676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5020065307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2668075561523</t>
   </si>
   <si>
     <t xml:space="preserve">34.3694000244141</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9010353088379</t>
+    <t xml:space="preserve">34.9010314941406</t>
   </si>
   <si>
     <t xml:space="preserve">34.6958427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6305618286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5579719543457</t>
+    <t xml:space="preserve">34.6305541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5579643249512</t>
   </si>
   <si>
     <t xml:space="preserve">33.3994102478027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9683456420898</t>
+    <t xml:space="preserve">33.9683494567871</t>
   </si>
   <si>
     <t xml:space="preserve">34.0429611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8470993041992</t>
+    <t xml:space="preserve">33.8471031188965</t>
   </si>
   <si>
     <t xml:space="preserve">34.1828689575195</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">33.8657569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0616149902344</t>
+    <t xml:space="preserve">34.0616226196289</t>
   </si>
   <si>
     <t xml:space="preserve">34.6398811340332</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">34.444019317627</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8097953796387</t>
+    <t xml:space="preserve">33.8097915649414</t>
   </si>
   <si>
     <t xml:space="preserve">34.0989265441895</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">33.987003326416</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6865158081055</t>
+    <t xml:space="preserve">34.6865119934082</t>
   </si>
   <si>
     <t xml:space="preserve">33.9123878479004</t>
@@ -2126,28 +2126,28 @@
     <t xml:space="preserve">33.2874908447266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1382598876953</t>
+    <t xml:space="preserve">33.138256072998</t>
   </si>
   <si>
     <t xml:space="preserve">34.2015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6719131469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4273948669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.858455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.296817779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3064041137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6082420349121</t>
+    <t xml:space="preserve">32.6719207763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4273910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8584594726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2968139648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3064002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6082382202148</t>
   </si>
   <si>
     <t xml:space="preserve">33.5797920227051</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">32.579948425293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9855422973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0138397216797</t>
+    <t xml:space="preserve">32.9855461120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0138359069824</t>
   </si>
   <si>
     <t xml:space="preserve">32.5044822692871</t>
@@ -2171,22 +2171,22 @@
     <t xml:space="preserve">31.3159885406494</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1273365020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2499580383301</t>
+    <t xml:space="preserve">31.1273345947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2499599456787</t>
   </si>
   <si>
     <t xml:space="preserve">31.8253440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5422134399414</t>
+    <t xml:space="preserve">32.5422172546387</t>
   </si>
   <si>
     <t xml:space="preserve">32.7308692932129</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3818588256836</t>
+    <t xml:space="preserve">32.3818626403809</t>
   </si>
   <si>
     <t xml:space="preserve">32.8440551757812</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">32.4573211669922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5327835083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0610046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3911476135254</t>
+    <t xml:space="preserve">32.532787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0610008239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3911437988281</t>
   </si>
   <si>
     <t xml:space="preserve">34.409854888916</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5324745178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4945945739746</t>
+    <t xml:space="preserve">34.5324783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4945983886719</t>
   </si>
   <si>
     <t xml:space="preserve">35.2870788574219</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">35.1927528381348</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5513458251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2778015136719</t>
+    <t xml:space="preserve">34.551342010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2777976989746</t>
   </si>
   <si>
     <t xml:space="preserve">35.0324020385742</t>
@@ -2231,28 +2231,28 @@
     <t xml:space="preserve">35.4662971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8435974121094</t>
+    <t xml:space="preserve">35.8436012268066</t>
   </si>
   <si>
     <t xml:space="preserve">35.7681350708008</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3152198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4189834594727</t>
+    <t xml:space="preserve">36.3152236938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4189796447754</t>
   </si>
   <si>
     <t xml:space="preserve">36.3246536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3340911865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0794105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1548728942871</t>
+    <t xml:space="preserve">36.3340873718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0794143676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1548767089844</t>
   </si>
   <si>
     <t xml:space="preserve">35.8907623291016</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">36.2963600158691</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8341674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9284934997559</t>
+    <t xml:space="preserve">35.8341636657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9284896850586</t>
   </si>
   <si>
     <t xml:space="preserve">36.0228157043457</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0416793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4661483764648</t>
+    <t xml:space="preserve">36.0416831970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4661445617676</t>
   </si>
   <si>
     <t xml:space="preserve">36.4472808837891</t>
@@ -2282,16 +2282,16 @@
     <t xml:space="preserve">36.739688873291</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8057174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7774200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4757308959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0606994628906</t>
+    <t xml:space="preserve">36.8057136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.777416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4757347106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0606956481934</t>
   </si>
   <si>
     <t xml:space="preserve">34.202335357666</t>
@@ -2300,28 +2300,28 @@
     <t xml:space="preserve">32.1743469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1460456848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.551643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1458930969238</t>
+    <t xml:space="preserve">32.146053314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5516471862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1458969116211</t>
   </si>
   <si>
     <t xml:space="preserve">33.0798683166504</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2120780944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.938533782959</t>
+    <t xml:space="preserve">32.2120742797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9385356903076</t>
   </si>
   <si>
     <t xml:space="preserve">32.4761848449707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4101600646973</t>
+    <t xml:space="preserve">32.41015625</t>
   </si>
   <si>
     <t xml:space="preserve">33.4477348327637</t>
@@ -2333,55 +2333,55 @@
     <t xml:space="preserve">32.268669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0705909729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0139923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1554794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3629951477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0704383850098</t>
+    <t xml:space="preserve">32.0705871582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.013988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1554832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3629989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0704345703125</t>
   </si>
   <si>
     <t xml:space="preserve">33.8250389099121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9193649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4760360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2779541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3628387451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3817100524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1081657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3535614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1932106018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.938835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6274127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7688999176025</t>
+    <t xml:space="preserve">33.9193572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4760322570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2779502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3628425598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.381706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1081619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3535652160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1932067871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9388370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6274108886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7688980102539</t>
   </si>
   <si>
     <t xml:space="preserve">30.2784061431885</t>
@@ -2393,64 +2393,64 @@
     <t xml:space="preserve">30.3161373138428</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5236549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0235767364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8443603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.504789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7973518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2878437042236</t>
+    <t xml:space="preserve">30.5236530303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0235805511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8443622589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5047874450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7973499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.287841796875</t>
   </si>
   <si>
     <t xml:space="preserve">30.6934394836426</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8820915222168</t>
+    <t xml:space="preserve">30.8820896148682</t>
   </si>
   <si>
     <t xml:space="preserve">30.7311706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3065547943115</t>
+    <t xml:space="preserve">31.3065490722656</t>
   </si>
   <si>
     <t xml:space="preserve">31.9008007049561</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5233459472656</t>
+    <t xml:space="preserve">32.5233497619629</t>
   </si>
   <si>
     <t xml:space="preserve">32.2592391967773</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1366119384766</t>
+    <t xml:space="preserve">32.1366195678711</t>
   </si>
   <si>
     <t xml:space="preserve">31.7310180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4197425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3444328308105</t>
+    <t xml:space="preserve">31.4197463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3444347381592</t>
   </si>
   <si>
     <t xml:space="preserve">30.6557083129883</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4481925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3633003234863</t>
+    <t xml:space="preserve">30.4481945037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3632984161377</t>
   </si>
   <si>
     <t xml:space="preserve">30.6462783813477</t>
@@ -2459,31 +2459,31 @@
     <t xml:space="preserve">34.1174430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4854698181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7119979858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1741905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2873878479004</t>
+    <t xml:space="preserve">33.485466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7120018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1741943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2873840332031</t>
   </si>
   <si>
     <t xml:space="preserve">33.0421371459961</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0041007995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5040245056152</t>
+    <t xml:space="preserve">35.0041046142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5040283203125</t>
   </si>
   <si>
     <t xml:space="preserve">35.088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8626098632812</t>
+    <t xml:space="preserve">34.8626174926758</t>
   </si>
   <si>
     <t xml:space="preserve">34.7777214050293</t>
@@ -2492,22 +2492,22 @@
     <t xml:space="preserve">34.3721237182617</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4853172302246</t>
+    <t xml:space="preserve">34.4853134155273</t>
   </si>
   <si>
     <t xml:space="preserve">34.7494277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9946670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6077842712402</t>
+    <t xml:space="preserve">34.9946708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.607780456543</t>
   </si>
   <si>
     <t xml:space="preserve">35.3059425354004</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8623085021973</t>
+    <t xml:space="preserve">36.8623123168945</t>
   </si>
   <si>
     <t xml:space="preserve">36.966064453125</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">37.8621597290039</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5131530761719</t>
+    <t xml:space="preserve">37.5131568908691</t>
   </si>
   <si>
     <t xml:space="preserve">36.5887680053711</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4850082397461</t>
+    <t xml:space="preserve">36.4850120544434</t>
   </si>
   <si>
     <t xml:space="preserve">36.6264991760254</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">39.8052597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4185256958008</t>
+    <t xml:space="preserve">39.418529510498</t>
   </si>
   <si>
     <t xml:space="preserve">39.7014999389648</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9563293457031</t>
+    <t xml:space="preserve">38.9563331604004</t>
   </si>
   <si>
     <t xml:space="preserve">38.6733551025391</t>
@@ -2555,13 +2555,13 @@
     <t xml:space="preserve">38.1451301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8810272216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0319442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5695953369141</t>
+    <t xml:space="preserve">37.8810234069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0319404602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5695991516113</t>
   </si>
   <si>
     <t xml:space="preserve">38.4752731323242</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">38.3243522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7961311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.28662109375</t>
+    <t xml:space="preserve">37.7961349487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2866249084473</t>
   </si>
   <si>
     <t xml:space="preserve">37.8149948120117</t>
@@ -2585,10 +2585,10 @@
     <t xml:space="preserve">38.824275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8054084777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3998107910156</t>
+    <t xml:space="preserve">38.8054122924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3998146057129</t>
   </si>
   <si>
     <t xml:space="preserve">38.4847030639648</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">39.2298736572266</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2957496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2580184936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2768898010254</t>
+    <t xml:space="preserve">40.2957534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2580223083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2768859863281</t>
   </si>
   <si>
     <t xml:space="preserve">39.0034942626953</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">38.248893737793</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6547966003418</t>
+    <t xml:space="preserve">36.6548004150391</t>
   </si>
   <si>
     <t xml:space="preserve">38.0791053771973</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">37.315071105957</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7868499755859</t>
+    <t xml:space="preserve">36.7868461608887</t>
   </si>
   <si>
     <t xml:space="preserve">37.1924476623535</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">38.1168365478516</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3433685302734</t>
+    <t xml:space="preserve">37.3433723449707</t>
   </si>
   <si>
     <t xml:space="preserve">36.5133056640625</t>
@@ -2660,58 +2660,58 @@
     <t xml:space="preserve">35.9379234313965</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0888404846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8245811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0418319702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1647605895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1364631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6741142272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2590827941895</t>
+    <t xml:space="preserve">36.0888442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.824577331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0418357849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1647644042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1364669799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6741180419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2590866088867</t>
   </si>
   <si>
     <t xml:space="preserve">33.2213554382324</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8064765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7880687713623</t>
+    <t xml:space="preserve">31.8064746856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7880706787109</t>
   </si>
   <si>
     <t xml:space="preserve">28.4296321868896</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6938953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5245685577393</t>
+    <t xml:space="preserve">27.6938972473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5245666503906</t>
   </si>
   <si>
     <t xml:space="preserve">28.0146026611328</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8356895446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4678192138672</t>
+    <t xml:space="preserve">25.8356876373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4678211212158</t>
   </si>
   <si>
     <t xml:space="preserve">25.9394454956055</t>
   </si>
   <si>
-    <t xml:space="preserve">25.486686706543</t>
+    <t xml:space="preserve">25.4866828918457</t>
   </si>
   <si>
     <t xml:space="preserve">27.6090030670166</t>
@@ -2720,22 +2720,22 @@
     <t xml:space="preserve">26.9770240783691</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6085472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1649131774902</t>
+    <t xml:space="preserve">30.6085453033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1649169921875</t>
   </si>
   <si>
     <t xml:space="preserve">32.4478912353516</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4008827209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5519523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.18408203125</t>
+    <t xml:space="preserve">31.4008769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5519504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1840839385986</t>
   </si>
   <si>
     <t xml:space="preserve">29.3351554870605</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">30.9858455657959</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7876129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3254165649414</t>
+    <t xml:space="preserve">31.7876091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.32541847229</t>
   </si>
   <si>
     <t xml:space="preserve">32.5610809326172</t>
@@ -2762,28 +2762,28 @@
     <t xml:space="preserve">33.2496528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5895290374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2688236236572</t>
+    <t xml:space="preserve">31.5895309448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2688255310059</t>
   </si>
   <si>
     <t xml:space="preserve">32.221508026123</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4950561523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9575481414795</t>
+    <t xml:space="preserve">32.4950523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9575519561768</t>
   </si>
   <si>
     <t xml:space="preserve">31.4669075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5896797180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9198188781738</t>
+    <t xml:space="preserve">30.5896816253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9198207855225</t>
   </si>
   <si>
     <t xml:space="preserve">30.4576282501221</t>
@@ -2810,10 +2810,10 @@
     <t xml:space="preserve">29.4577789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0331630706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4952068328857</t>
+    <t xml:space="preserve">30.0331649780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4952030181885</t>
   </si>
   <si>
     <t xml:space="preserve">31.080171585083</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">32.8912162780762</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5518016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7781791687012</t>
+    <t xml:space="preserve">31.5517997741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7781753540039</t>
   </si>
   <si>
     <t xml:space="preserve">32.61767578125</t>
@@ -2834,16 +2834,16 @@
     <t xml:space="preserve">32.759162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7404537200928</t>
+    <t xml:space="preserve">31.7404518127441</t>
   </si>
   <si>
     <t xml:space="preserve">32.0894546508789</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9479675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6931304931641</t>
+    <t xml:space="preserve">31.9479656219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6931343078613</t>
   </si>
   <si>
     <t xml:space="preserve">33.2307891845703</t>
@@ -2852,10 +2852,10 @@
     <t xml:space="preserve">33.5043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8061714172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8157577514648</t>
+    <t xml:space="preserve">33.8061752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8157539367676</t>
   </si>
   <si>
     <t xml:space="preserve">32.4384574890137</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">32.8534889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1083221435547</t>
+    <t xml:space="preserve">32.1083183288574</t>
   </si>
   <si>
     <t xml:space="preserve">32.3158302307129</t>
@@ -2876,85 +2876,85 @@
     <t xml:space="preserve">31.9668312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6837005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2026443481445</t>
+    <t xml:space="preserve">32.6837043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.20263671875</t>
   </si>
   <si>
     <t xml:space="preserve">32.0611572265625</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3442802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7687473297119</t>
+    <t xml:space="preserve">31.3442840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7687454223633</t>
   </si>
   <si>
     <t xml:space="preserve">31.6838531494141</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7121505737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2876873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7500324249268</t>
+    <t xml:space="preserve">31.7121486663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2876853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7500343322754</t>
   </si>
   <si>
     <t xml:space="preserve">30.7783317565918</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0897560119629</t>
+    <t xml:space="preserve">30.0897579193115</t>
   </si>
   <si>
     <t xml:space="preserve">30.2501106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1557846069336</t>
+    <t xml:space="preserve">30.155782699585</t>
   </si>
   <si>
     <t xml:space="preserve">31.5800952911377</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0141468048096</t>
+    <t xml:space="preserve">31.0141487121582</t>
   </si>
   <si>
     <t xml:space="preserve">30.7594680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2029495239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2218151092529</t>
+    <t xml:space="preserve">30.2029476165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2218132019043</t>
   </si>
   <si>
     <t xml:space="preserve">30.5330848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6840038299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2782573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5613861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6368427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8536415100098</t>
+    <t xml:space="preserve">30.6840057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2782554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5613822937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6368446350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8536396026611</t>
   </si>
   <si>
     <t xml:space="preserve">32.513916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">32.910083770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2119216918945</t>
+    <t xml:space="preserve">32.9100799560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2119255065918</t>
   </si>
   <si>
     <t xml:space="preserve">34.655101776123</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">35.7775688171387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1078643798828</t>
+    <t xml:space="preserve">35.1078567504883</t>
   </si>
   <si>
     <t xml:space="preserve">34.4287185668945</t>
@@ -3005,13 +3005,13 @@
     <t xml:space="preserve">34.806022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3439750671387</t>
+    <t xml:space="preserve">33.3439788818359</t>
   </si>
   <si>
     <t xml:space="preserve">34.7116928100586</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7398414611816</t>
+    <t xml:space="preserve">35.7398376464844</t>
   </si>
   <si>
     <t xml:space="preserve">35.1833190917969</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">34.9003448486328</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9195175170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1270294189453</t>
+    <t xml:space="preserve">32.9195137023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1270332336426</t>
   </si>
   <si>
     <t xml:space="preserve">33.9570922851562</t>
@@ -3041,25 +3041,25 @@
     <t xml:space="preserve">35.419132232666</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4282646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4565620422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1922950744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4376945495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5508918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7488212585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7299537658691</t>
+    <t xml:space="preserve">37.4282608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4565582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1922988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4376907348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5508880615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7488174438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7299499511719</t>
   </si>
   <si>
     <t xml:space="preserve">38.4658393859863</t>
@@ -3074,43 +3074,43 @@
     <t xml:space="preserve">39.5883102416992</t>
   </si>
   <si>
-    <t xml:space="preserve">39.522289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1072540283203</t>
+    <t xml:space="preserve">39.5222854614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.107250213623</t>
   </si>
   <si>
     <t xml:space="preserve">38.6827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7582473754883</t>
+    <t xml:space="preserve">38.7582511901855</t>
   </si>
   <si>
     <t xml:space="preserve">39.3430633544922</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1731300354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7485122680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5031127929688</t>
+    <t xml:space="preserve">40.1731262207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7485084533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.503116607666</t>
   </si>
   <si>
     <t xml:space="preserve">42.3520431518555</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9650001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8235130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8799629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1629371643066</t>
+    <t xml:space="preserve">43.9650039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8235168457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.879955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1629333496094</t>
   </si>
   <si>
     <t xml:space="preserve">46.0307235717773</t>
@@ -3119,52 +3119,52 @@
     <t xml:space="preserve">45.9458312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2193756103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.747745513916</t>
+    <t xml:space="preserve">46.2193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7477493286133</t>
   </si>
   <si>
     <t xml:space="preserve">44.8610954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6345596313477</t>
+    <t xml:space="preserve">45.6345634460449</t>
   </si>
   <si>
     <t xml:space="preserve">45.4742050170898</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9079475402832</t>
+    <t xml:space="preserve">46.9079551696777</t>
   </si>
   <si>
     <t xml:space="preserve">47.4456062316895</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2946815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1626319885254</t>
+    <t xml:space="preserve">47.2946853637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1626281738281</t>
   </si>
   <si>
     <t xml:space="preserve">45.8609390258789</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8798065185547</t>
+    <t xml:space="preserve">45.8798027038574</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3327255249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2761192321777</t>
+    <t xml:space="preserve">45.3327178955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.276123046875</t>
   </si>
   <si>
     <t xml:space="preserve">44.3706016540527</t>
   </si>
   <si>
-    <t xml:space="preserve">45.417610168457</t>
+    <t xml:space="preserve">45.4176139831543</t>
   </si>
   <si>
     <t xml:space="preserve">45.0686073303223</t>
@@ -3185,58 +3185,58 @@
     <t xml:space="preserve">46.7758941650391</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6535720825195</t>
+    <t xml:space="preserve">44.6535797119141</t>
   </si>
   <si>
     <t xml:space="preserve">44.5781135559082</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3610191345215</t>
+    <t xml:space="preserve">45.3610153198242</t>
   </si>
   <si>
     <t xml:space="preserve">44.7667655944824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2006607055664</t>
+    <t xml:space="preserve">45.2006645202637</t>
   </si>
   <si>
     <t xml:space="preserve">45.2100982666016</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1814956665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9549598693848</t>
+    <t xml:space="preserve">47.1814918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.954963684082</t>
   </si>
   <si>
     <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">49.1623268127441</t>
+    <t xml:space="preserve">49.1623229980469</t>
   </si>
   <si>
     <t xml:space="preserve">48.7284278869629</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0302658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3322677612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2377853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8793487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7663078308105</t>
+    <t xml:space="preserve">49.0302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3322639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2377891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8793449401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7663116455078</t>
   </si>
   <si>
     <t xml:space="preserve">47.709716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2942276000977</t>
+    <t xml:space="preserve">50.2942237854004</t>
   </si>
   <si>
     <t xml:space="preserve">48.9548110961914</t>
@@ -3245,13 +3245,13 @@
     <t xml:space="preserve">48.3134002685547</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1058807373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2379379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.388858795166</t>
+    <t xml:space="preserve">48.105884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2379341125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3888549804688</t>
   </si>
   <si>
     <t xml:space="preserve">49.2000541687012</t>
@@ -3266,13 +3266,13 @@
     <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7381629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8985214233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4644660949707</t>
+    <t xml:space="preserve">46.738166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8985252380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.464469909668</t>
   </si>
   <si>
     <t xml:space="preserve">46.7947616577148</t>
@@ -3281,79 +3281,79 @@
     <t xml:space="preserve">49.0868644714355</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4077224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5209159851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.898365020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2569541931152</t>
+    <t xml:space="preserve">48.4077262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5209121704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8983688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.256950378418</t>
   </si>
   <si>
     <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4080238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4459114074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4930725097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4174613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.096752166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8796577453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6910057067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5022010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6531219482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5776557922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.577507019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4265899658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3701438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3887062072754</t>
+    <t xml:space="preserve">46.408031463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289657592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4459075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4930763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4174575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0967559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8796539306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6910018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5022048950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6531181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5776596069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5775108337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.426586151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3701477050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3887023925781</t>
   </si>
   <si>
     <t xml:space="preserve">50.4640121459961</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0304183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0681533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1247444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5586395263672</t>
+    <t xml:space="preserve">48.0304222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0681495666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1247482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5586433410645</t>
   </si>
   <si>
     <t xml:space="preserve">47.4267387390137</t>
@@ -3368,22 +3368,22 @@
     <t xml:space="preserve">48.8038940429688</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0492820739746</t>
+    <t xml:space="preserve">48.0492858886719</t>
   </si>
   <si>
     <t xml:space="preserve">48.6718330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">49.011402130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7660026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5207633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2753601074219</t>
+    <t xml:space="preserve">49.0114059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7660064697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5207595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2753639221191</t>
   </si>
   <si>
     <t xml:space="preserve">50.5394744873047</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">51.6333999633789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2802429199219</t>
+    <t xml:space="preserve">52.2802467346191</t>
   </si>
   <si>
     <t xml:space="preserve">52.7939147949219</t>
@@ -3404,10 +3404,10 @@
     <t xml:space="preserve">55.2100715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2861671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.6583518981934</t>
+    <t xml:space="preserve">55.2861709594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.6583480834961</t>
   </si>
   <si>
     <t xml:space="preserve">54.8485984802246</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">55.4573936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3515625</t>
+    <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
     <t xml:space="preserve">56.0471611022949</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305290222168</t>
+    <t xml:space="preserve">54.0305328369141</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
@@ -3437,10 +3437,10 @@
     <t xml:space="preserve">54.3349304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1149444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4764175415039</t>
+    <t xml:space="preserve">55.1149482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4764137268066</t>
   </si>
   <si>
     <t xml:space="preserve">55.7427635192871</t>
@@ -3449,19 +3449,19 @@
     <t xml:space="preserve">55.2671432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">55.400318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4383697509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.4300537109375</t>
+    <t xml:space="preserve">55.4003219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4383659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.4300498962402</t>
   </si>
   <si>
     <t xml:space="preserve">54.9056739807129</t>
   </si>
   <si>
-    <t xml:space="preserve">54.810546875</t>
+    <t xml:space="preserve">54.8105506896973</t>
   </si>
   <si>
     <t xml:space="preserve">54.2778549194336</t>
@@ -3473,10 +3473,10 @@
     <t xml:space="preserve">54.5251770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0115051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2398071289062</t>
+    <t xml:space="preserve">54.0115013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.239803314209</t>
   </si>
   <si>
     <t xml:space="preserve">54.5442008972168</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">55.8569145202637</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6940078735352</t>
+    <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
     <t xml:space="preserve">57.0174293518066</t>
@@ -3524,31 +3524,31 @@
     <t xml:space="preserve">55.0959205627441</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1720161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8759422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9330139160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.761791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.2159957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.5964889526367</t>
+    <t xml:space="preserve">55.1720199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8759384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9330177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7617874145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8462066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.215991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.596492767334</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8628425598145</t>
+    <t xml:space="preserve">58.8628349304199</t>
   </si>
   <si>
     <t xml:space="preserve">57.7023239135742</t>
@@ -3557,37 +3557,37 @@
     <t xml:space="preserve">57.1315803527832</t>
   </si>
   <si>
-    <t xml:space="preserve">55.6286125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2231750488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2909507751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9948692321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9187774658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5382766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6904792785645</t>
+    <t xml:space="preserve">55.6286163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2231712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2909545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.994873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.918773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5382804870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6904754638672</t>
   </si>
   <si>
     <t xml:space="preserve">51.9568214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5573043823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1851196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1470756530762</t>
+    <t xml:space="preserve">51.557300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1851234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1470718383789</t>
   </si>
   <si>
     <t xml:space="preserve">51.3860778808594</t>
@@ -3596,16 +3596,16 @@
     <t xml:space="preserve">52.2612190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8890380859375</t>
+    <t xml:space="preserve">52.8890419006348</t>
   </si>
   <si>
     <t xml:space="preserve">52.565616607666</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4895210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9758453369141</t>
+    <t xml:space="preserve">52.4895172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9758491516113</t>
   </si>
   <si>
     <t xml:space="preserve">51.9377975463867</t>
@@ -3617,16 +3617,16 @@
     <t xml:space="preserve">49.17919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4348335266113</t>
+    <t xml:space="preserve">50.4348373413086</t>
   </si>
   <si>
     <t xml:space="preserve">49.1411476135254</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1114120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7094993591309</t>
+    <t xml:space="preserve">50.1114158630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7095031738281</t>
   </si>
   <si>
     <t xml:space="preserve">52.5465927124023</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">52.3182945251465</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1958274841309</t>
+    <t xml:space="preserve">51.1958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">49.7118911743164</t>
@@ -3647,25 +3647,25 @@
     <t xml:space="preserve">52.9270896911621</t>
   </si>
   <si>
-    <t xml:space="preserve">53.155387878418</t>
+    <t xml:space="preserve">53.1553916931152</t>
   </si>
   <si>
     <t xml:space="preserve">54.1827278137207</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6880836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.650032043457</t>
+    <t xml:space="preserve">53.6880798339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6500358581543</t>
   </si>
   <si>
     <t xml:space="preserve">55.9520378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">55.704719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8271789550781</t>
+    <t xml:space="preserve">55.7047157287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8271827697754</t>
   </si>
   <si>
     <t xml:space="preserve">57.3028030395508</t>
@@ -3674,7 +3674,7 @@
     <t xml:space="preserve">58.0447692871094</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1208686828613</t>
+    <t xml:space="preserve">58.1208648681641</t>
   </si>
   <si>
     <t xml:space="preserve">57.6642723083496</t>
@@ -3686,13 +3686,13 @@
     <t xml:space="preserve">58.2350196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">59.091136932373</t>
+    <t xml:space="preserve">59.0911331176758</t>
   </si>
   <si>
     <t xml:space="preserve">60.7843475341797</t>
   </si>
   <si>
-    <t xml:space="preserve">59.8331031799316</t>
+    <t xml:space="preserve">59.8331069946289</t>
   </si>
   <si>
     <t xml:space="preserve">60.5750732421875</t>
@@ -3701,19 +3701,19 @@
     <t xml:space="preserve">63.0482978820801</t>
   </si>
   <si>
-    <t xml:space="preserve">64.3039398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8366317749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8009719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.1160850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.2195205688477</t>
+    <t xml:space="preserve">64.3039474487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8366394042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8009757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.1160926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.2195281982422</t>
   </si>
   <si>
     <t xml:space="preserve">64.3610153198242</t>
@@ -3722,31 +3722,31 @@
     <t xml:space="preserve">65.1981048583984</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7878799438477</t>
+    <t xml:space="preserve">65.7878875732422</t>
   </si>
   <si>
     <t xml:space="preserve">65.6737289428711</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0078506469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4941940307617</t>
+    <t xml:space="preserve">65.0078659057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4941864013672</t>
   </si>
   <si>
     <t xml:space="preserve">65.4073791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9341583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3146476745605</t>
+    <t xml:space="preserve">62.934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3146438598633</t>
   </si>
   <si>
     <t xml:space="preserve">63.7331962585449</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6618804931641</t>
+    <t xml:space="preserve">59.6618843078613</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
@@ -3755,34 +3755,34 @@
     <t xml:space="preserve">60.9555740356445</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4204902648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3253555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.086353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.9020309448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8853988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5619697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8390274047852</t>
+    <t xml:space="preserve">62.420482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3253517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0863571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.9020233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8853912353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5619735717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8390235900879</t>
   </si>
   <si>
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043334960938</t>
+    <t xml:space="preserve">60.0043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">60.0804290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1375007629395</t>
+    <t xml:space="preserve">60.1375045776367</t>
   </si>
   <si>
     <t xml:space="preserve">59.5477333068848</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">59.167236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6428604125977</t>
+    <t xml:space="preserve">59.6428565979004</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">61.1077690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">61.4311943054199</t>
+    <t xml:space="preserve">61.4311904907227</t>
   </si>
   <si>
     <t xml:space="preserve">60.898494720459</t>
@@ -3818,16 +3818,16 @@
     <t xml:space="preserve">61.1648445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8307113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3063316345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.737979888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.2540473937988</t>
+    <t xml:space="preserve">61.8307151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3063354492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7379760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.2540435791016</t>
   </si>
   <si>
     <t xml:space="preserve">57.435977935791</t>
@@ -3836,19 +3836,19 @@
     <t xml:space="preserve">57.055477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1232643127441</t>
+    <t xml:space="preserve">56.1232604980469</t>
   </si>
   <si>
     <t xml:space="preserve">54.0876045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">54.9246978759766</t>
+    <t xml:space="preserve">54.9247016906738</t>
   </si>
   <si>
     <t xml:space="preserve">53.8022346496582</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5334892272949</t>
+    <t xml:space="preserve">55.5334930419922</t>
   </si>
   <si>
     <t xml:space="preserve">55.5715408325195</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">52.7368392944336</t>
   </si>
   <si>
-    <t xml:space="preserve">53.592960357666</t>
+    <t xml:space="preserve">53.5929641723633</t>
   </si>
   <si>
     <t xml:space="preserve">56.1422882080078</t>
@@ -3881,10 +3881,10 @@
     <t xml:space="preserve">55.0578727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3242225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8129425048828</t>
+    <t xml:space="preserve">55.32421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8129386901855</t>
   </si>
   <si>
     <t xml:space="preserve">51.7855987548828</t>
@@ -3893,16 +3893,16 @@
     <t xml:space="preserve">53.3075866699219</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3943977355957</t>
+    <t xml:space="preserve">52.3943939208984</t>
   </si>
   <si>
     <t xml:space="preserve">52.1280479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">52.070972442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0329246520996</t>
+    <t xml:space="preserve">52.0709762573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0329208374023</t>
   </si>
   <si>
     <t xml:space="preserve">49.5596923828125</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">42.8249015808105</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1007614135742</t>
+    <t xml:space="preserve">43.1007652282715</t>
   </si>
   <si>
     <t xml:space="preserve">42.4348945617676</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">45.6310691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6595993041992</t>
+    <t xml:space="preserve">45.6596031188965</t>
   </si>
   <si>
     <t xml:space="preserve">44.2232284545898</t>
@@ -3953,13 +3953,13 @@
     <t xml:space="preserve">48.1708793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3432998657227</t>
+    <t xml:space="preserve">47.3433036804199</t>
   </si>
   <si>
     <t xml:space="preserve">46.8581657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">47.248176574707</t>
+    <t xml:space="preserve">47.2481727600098</t>
   </si>
   <si>
     <t xml:space="preserve">47.324275970459</t>
@@ -3971,16 +3971,16 @@
     <t xml:space="preserve">48.2660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2469825744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0353164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3967895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0186805725098</t>
+    <t xml:space="preserve">48.2469787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0353088378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.396785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.018684387207</t>
   </si>
   <si>
     <t xml:space="preserve">47.0293922424316</t>
@@ -3995,13 +3995,13 @@
     <t xml:space="preserve">47.067440032959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5050086975098</t>
+    <t xml:space="preserve">47.505012512207</t>
   </si>
   <si>
     <t xml:space="preserve">48.094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2291526794434</t>
+    <t xml:space="preserve">47.2291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">48.66552734375</t>
@@ -4010,25 +4010,25 @@
     <t xml:space="preserve">47.581111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3552055358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8225135803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4586448669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3147621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8284339904785</t>
+    <t xml:space="preserve">45.3552093505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.822509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4586486816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3147659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8284301757812</t>
   </si>
   <si>
     <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6215553283691</t>
+    <t xml:space="preserve">45.6215515136719</t>
   </si>
   <si>
     <t xml:space="preserve">44.955680847168</t>
@@ -4037,13 +4037,13 @@
     <t xml:space="preserve">42.4253807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6370468139648</t>
+    <t xml:space="preserve">40.6370429992676</t>
   </si>
   <si>
     <t xml:space="preserve">39.7904434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7702217102051</t>
+    <t xml:space="preserve">40.7702178955078</t>
   </si>
   <si>
     <t xml:space="preserve">42.5585556030273</t>
@@ -4052,10 +4052,10 @@
     <t xml:space="preserve">41.7309722900391</t>
   </si>
   <si>
-    <t xml:space="preserve">43.148323059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2161102294922</t>
+    <t xml:space="preserve">43.1483268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2161064147949</t>
   </si>
   <si>
     <t xml:space="preserve">43.0627136230469</t>
@@ -5511,6 +5511,9 @@
   </si>
   <si>
     <t xml:space="preserve">58.6399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.1599998474121</t>
   </si>
 </sst>
 </file>
@@ -61778,7 +61781,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6509027778</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>925157</v>
@@ -61799,6 +61802,32 @@
         <v>1832</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495601852</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>776662</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>59.1599998474121</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>58.439998626709</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>58.7599983215332</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>59.1599998474121</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1835">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">11.1453828811646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2363653182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4274301528931</t>
+    <t xml:space="preserve">11.2363662719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4274291992188</t>
   </si>
   <si>
     <t xml:space="preserve">12.2280759811401</t>
@@ -65,22 +65,22 @@
     <t xml:space="preserve">11.8914403915405</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7367696762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4092321395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8095560073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0006198883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6639842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0916042327881</t>
+    <t xml:space="preserve">11.7367706298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4092330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8095569610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0006189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6639833450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0916032791138</t>
   </si>
   <si>
     <t xml:space="preserve">12.391845703125</t>
@@ -89,16 +89,16 @@
     <t xml:space="preserve">12.273567199707</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4009456634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3736486434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9915218353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3645515441895</t>
+    <t xml:space="preserve">12.4009447097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.373649597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9915227890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3645505905151</t>
   </si>
   <si>
     <t xml:space="preserve">12.2189788818359</t>
@@ -107,16 +107,16 @@
     <t xml:space="preserve">12.1643886566162</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0279150009155</t>
+    <t xml:space="preserve">12.0279159545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.1825857162476</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6730833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5275096893311</t>
+    <t xml:space="preserve">11.6730842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5275106430054</t>
   </si>
   <si>
     <t xml:space="preserve">11.2909555435181</t>
@@ -125,49 +125,49 @@
     <t xml:space="preserve">11.5093126296997</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1908750534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5548048019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9369316101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1461935043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6920890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283212661743</t>
+    <t xml:space="preserve">11.1908760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5548057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9369335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1461915969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6920900344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283203125</t>
   </si>
   <si>
     <t xml:space="preserve">12.546516418457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6829900741577</t>
+    <t xml:space="preserve">12.682991027832</t>
   </si>
   <si>
     <t xml:space="preserve">12.0643081665039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4737300872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287256240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2561807632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0560207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5109338760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7110958099365</t>
+    <t xml:space="preserve">12.4737310409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287227630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2561826705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.05601978302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5109329223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7110948562622</t>
   </si>
   <si>
     <t xml:space="preserve">13.783881187439</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">14.2842864990234</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7565879821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9294557571411</t>
+    <t xml:space="preserve">13.7565870285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9294538497925</t>
   </si>
   <si>
     <t xml:space="preserve">14.0204362869263</t>
@@ -188,40 +188,40 @@
     <t xml:space="preserve">13.6383094787598</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380661010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3562631607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2834768295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1924924850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3107719421387</t>
+    <t xml:space="preserve">13.3380670547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3562622070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2834787368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1924934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.310772895813</t>
   </si>
   <si>
     <t xml:space="preserve">13.2379846572876</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3926563262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.820273399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4199504852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2743787765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2197885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8740530014038</t>
+    <t xml:space="preserve">13.3926553726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8202753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4199485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2743797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2197895050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8740539550781</t>
   </si>
   <si>
     <t xml:space="preserve">13.0833148956299</t>
@@ -230,13 +230,13 @@
     <t xml:space="preserve">13.1197071075439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3289680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1651992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4472455978394</t>
+    <t xml:space="preserve">13.3289661407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1652002334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4472436904907</t>
   </si>
   <si>
     <t xml:space="preserve">13.5018358230591</t>
@@ -248,22 +248,22 @@
     <t xml:space="preserve">13.4654417037964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9741363525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7921714782715</t>
+    <t xml:space="preserve">12.9741353988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7921695709229</t>
   </si>
   <si>
     <t xml:space="preserve">12.8831520080566</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2652797698975</t>
+    <t xml:space="preserve">13.2652788162231</t>
   </si>
   <si>
     <t xml:space="preserve">13.2925748825073</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6201124191284</t>
+    <t xml:space="preserve">13.6201133728027</t>
   </si>
   <si>
     <t xml:space="preserve">14.2478933334351</t>
@@ -275,52 +275,52 @@
     <t xml:space="preserve">14.311580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2660894393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9476499557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8748636245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6656036376953</t>
+    <t xml:space="preserve">14.2660903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9476518630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8748645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6656055450439</t>
   </si>
   <si>
     <t xml:space="preserve">13.6474075317383</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5280151367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8678226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7484312057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.573935508728</t>
+    <t xml:space="preserve">13.5280141830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.867823600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7484321594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5739345550537</t>
   </si>
   <si>
     <t xml:space="preserve">13.7759838104248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.904559135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7667989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8035345077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6657752990723</t>
+    <t xml:space="preserve">13.9045581817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7667999267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8035335540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6657743453979</t>
   </si>
   <si>
     <t xml:space="preserve">13.619854927063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9780311584473</t>
+    <t xml:space="preserve">13.9780321121216</t>
   </si>
   <si>
     <t xml:space="preserve">14.0423183441162</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">14.0515031814575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6014881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545431137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0137119293213</t>
+    <t xml:space="preserve">13.601487159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545421600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.013710975647</t>
   </si>
   <si>
     <t xml:space="preserve">13.5096473693848</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1514720916748</t>
+    <t xml:space="preserve">13.1514701843262</t>
   </si>
   <si>
     <t xml:space="preserve">14.1249742507935</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">13.9872140884399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708955764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.547438621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2249441146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5820627212524</t>
+    <t xml:space="preserve">14.1708936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5474376678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2249431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5820646286011</t>
   </si>
   <si>
     <t xml:space="preserve">12.9861602783203</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4453601837158</t>
+    <t xml:space="preserve">13.4453592300415</t>
   </si>
   <si>
     <t xml:space="preserve">13.2892322540283</t>
@@ -374,58 +374,58 @@
     <t xml:space="preserve">12.9035034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1422882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1698389053345</t>
+    <t xml:space="preserve">13.1422872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1698398590088</t>
   </si>
   <si>
     <t xml:space="preserve">13.2616786956787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2157602310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4729127883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.243311882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0596323013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1433429718018</t>
+    <t xml:space="preserve">13.2157592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4729118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.252495765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2433109283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0596313476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1433420181274</t>
   </si>
   <si>
     <t xml:space="preserve">14.4923334121704</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3821258544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6943817138672</t>
+    <t xml:space="preserve">14.3821249008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6943807601929</t>
   </si>
   <si>
     <t xml:space="preserve">14.4004936218262</t>
   </si>
   <si>
-    <t xml:space="preserve">14.271918296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8127183914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9137420654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.244366645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3453893661499</t>
+    <t xml:space="preserve">14.2719173431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8127174377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9137411117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2443656921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3453912734985</t>
   </si>
   <si>
     <t xml:space="preserve">14.3362064361572</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">14.3637580871582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3086557388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2351818084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0790538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3178377151489</t>
+    <t xml:space="preserve">14.3086538314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2351837158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0790548324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3178386688232</t>
   </si>
   <si>
     <t xml:space="preserve">14.0698709487915</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">13.8310871124268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.656590461731</t>
+    <t xml:space="preserve">13.6565914154053</t>
   </si>
   <si>
     <t xml:space="preserve">13.7208786010742</t>
@@ -470,55 +470,55 @@
     <t xml:space="preserve">13.8219032287598</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0331354141235</t>
+    <t xml:space="preserve">14.0331335067749</t>
   </si>
   <si>
     <t xml:space="preserve">13.8402709960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0147676467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2259979248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.922926902771</t>
+    <t xml:space="preserve">14.0147657394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.225998878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9229259490967</t>
   </si>
   <si>
     <t xml:space="preserve">14.3270235061646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3913106918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7576150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.959662437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9504776000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0974216461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7851667404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1525259017944</t>
+    <t xml:space="preserve">14.3913097381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7576141357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9596633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9504795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0974225997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7851657867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1525249481201</t>
   </si>
   <si>
     <t xml:space="preserve">14.4188623428345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2076320648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.281102180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1892623901367</t>
+    <t xml:space="preserve">14.207631111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2811012268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1892614364624</t>
   </si>
   <si>
     <t xml:space="preserve">14.1066064834595</t>
@@ -530,16 +530,16 @@
     <t xml:space="preserve">13.7025108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6933288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7943515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6382236480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9412956237793</t>
+    <t xml:space="preserve">13.6933269500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7943506240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.638222694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.941294670105</t>
   </si>
   <si>
     <t xml:space="preserve">13.62903881073</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">14.0882387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1800785064697</t>
+    <t xml:space="preserve">14.1800775527954</t>
   </si>
   <si>
     <t xml:space="preserve">14.3729410171509</t>
@@ -560,31 +560,31 @@
     <t xml:space="preserve">14.9699010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2546062469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4382829666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3831806182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2362375259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8780603408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0709257125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1076631546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.208685874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1260280609131</t>
+    <t xml:space="preserve">15.2546072006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4382839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3831815719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2362365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.87806224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0709247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1076622009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2086849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1260290145874</t>
   </si>
   <si>
     <t xml:space="preserve">14.9882698059082</t>
@@ -593,49 +593,49 @@
     <t xml:space="preserve">15.0158224105835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0341911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1811332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4291000366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3097095489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0433712005615</t>
+    <t xml:space="preserve">15.0341892242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1811323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4290990829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3097105026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0433740615845</t>
   </si>
   <si>
     <t xml:space="preserve">15.0066375732422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913408279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.787278175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8240127563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0444278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0811672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8331966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.136266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.457706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5311813354492</t>
+    <t xml:space="preserve">15.2913389205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7872762680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.824013710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0444297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0811653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8331956863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4577083587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.531177520752</t>
   </si>
   <si>
     <t xml:space="preserve">16.5679168701172</t>
@@ -647,28 +647,28 @@
     <t xml:space="preserve">16.6138362884521</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4760780334473</t>
+    <t xml:space="preserve">16.4760761260986</t>
   </si>
   <si>
     <t xml:space="preserve">16.3934192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3474998474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2740287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9893255233765</t>
+    <t xml:space="preserve">16.3474979400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2740268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9893245697021</t>
   </si>
   <si>
     <t xml:space="preserve">16.2923946380615</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3383197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3199462890625</t>
+    <t xml:space="preserve">16.3383159637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3199481964111</t>
   </si>
   <si>
     <t xml:space="preserve">16.3015804290771</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">16.5403652191162</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4668922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4117870330811</t>
+    <t xml:space="preserve">16.4668941497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4117908477783</t>
   </si>
   <si>
     <t xml:space="preserve">16.2556610107422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3291301727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5495452880859</t>
+    <t xml:space="preserve">16.3291320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5495471954346</t>
   </si>
   <si>
     <t xml:space="preserve">17.4863147735596</t>
@@ -701,16 +701,16 @@
     <t xml:space="preserve">17.6516246795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5506038665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.688362121582</t>
+    <t xml:space="preserve">17.5506019592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6883602142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.72509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9087772369385</t>
+    <t xml:space="preserve">17.9087791442871</t>
   </si>
   <si>
     <t xml:space="preserve">17.9638805389404</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">18.2577667236328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4138946533203</t>
+    <t xml:space="preserve">18.4138984680176</t>
   </si>
   <si>
     <t xml:space="preserve">18.5883922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2853221893311</t>
+    <t xml:space="preserve">18.2853183746338</t>
   </si>
   <si>
     <t xml:space="preserve">18.4690017700195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4965534210205</t>
+    <t xml:space="preserve">18.4965515136719</t>
   </si>
   <si>
     <t xml:space="preserve">18.7353363037109</t>
@@ -746,25 +746,25 @@
     <t xml:space="preserve">18.680233001709</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8271789550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5792102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.689416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8547306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0384063720703</t>
+    <t xml:space="preserve">18.8271770477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5792083740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6894187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8547286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0384082794189</t>
   </si>
   <si>
     <t xml:space="preserve">19.3598480224609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6629219055176</t>
+    <t xml:space="preserve">19.6629199981689</t>
   </si>
   <si>
     <t xml:space="preserve">19.6721057891846</t>
@@ -773,64 +773,64 @@
     <t xml:space="preserve">19.6353664398193</t>
   </si>
   <si>
-    <t xml:space="preserve">19.920072555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0027294158936</t>
+    <t xml:space="preserve">19.9200706481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0027256011963</t>
   </si>
   <si>
     <t xml:space="preserve">19.5435276031494</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6445484161377</t>
+    <t xml:space="preserve">19.644552230835</t>
   </si>
   <si>
     <t xml:space="preserve">19.7547607421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9751739501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1404876708984</t>
+    <t xml:space="preserve">19.9751758575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1404857635498</t>
   </si>
   <si>
     <t xml:space="preserve">19.901704788208</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0210952758789</t>
+    <t xml:space="preserve">20.0210933685303</t>
   </si>
   <si>
     <t xml:space="preserve">19.95680809021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6456050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.893575668335</t>
+    <t xml:space="preserve">20.6456069946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8935737609863</t>
   </si>
   <si>
     <t xml:space="preserve">20.8109169006348</t>
   </si>
   <si>
-    <t xml:space="preserve">21.132360458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3068542480469</t>
+    <t xml:space="preserve">21.1323585510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3068523406982</t>
   </si>
   <si>
     <t xml:space="preserve">21.5915584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9394931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2323265075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4527416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3425350189209</t>
+    <t xml:space="preserve">20.9394912719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.232328414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4527454376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3425331115723</t>
   </si>
   <si>
     <t xml:space="preserve">20.4343757629395</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">20.3241653442383</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4435596466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8282299041748</t>
+    <t xml:space="preserve">20.4435577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8282337188721</t>
   </si>
   <si>
     <t xml:space="preserve">19.9935436248779</t>
@@ -857,76 +857,76 @@
     <t xml:space="preserve">20.0491046905518</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9287204742432</t>
+    <t xml:space="preserve">19.9287166595459</t>
   </si>
   <si>
     <t xml:space="preserve">20.4658317565918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6694240570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0768890380859</t>
+    <t xml:space="preserve">19.6694259643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0768871307373</t>
   </si>
   <si>
     <t xml:space="preserve">20.150972366333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7157287597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.354564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4379081726074</t>
+    <t xml:space="preserve">19.715726852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3545665740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4379100799561</t>
   </si>
   <si>
     <t xml:space="preserve">19.4008693695068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5119934082031</t>
+    <t xml:space="preserve">19.5119953155518</t>
   </si>
   <si>
     <t xml:space="preserve">19.0026626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2619571685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5582962036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4749526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7805519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6601600646973</t>
+    <t xml:space="preserve">19.2619590759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5582981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4749507904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7805500030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6601638793945</t>
   </si>
   <si>
     <t xml:space="preserve">20.0583667755127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6509017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860767364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5768165588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7620315551758</t>
+    <t xml:space="preserve">19.6509037017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860786437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5768184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7620296478271</t>
   </si>
   <si>
     <t xml:space="preserve">19.3730869293213</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7896728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9841423034668</t>
+    <t xml:space="preserve">18.7896709442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9841403961182</t>
   </si>
   <si>
     <t xml:space="preserve">19.0582275390625</t>
@@ -935,10 +935,10 @@
     <t xml:space="preserve">19.0211849212646</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2341785430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1600914001465</t>
+    <t xml:space="preserve">19.2341766357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1600933074951</t>
   </si>
   <si>
     <t xml:space="preserve">19.030445098877</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">19.5397758483887</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7249851226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8175926208496</t>
+    <t xml:space="preserve">19.7249870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8175945281982</t>
   </si>
   <si>
     <t xml:space="preserve">19.8453750610352</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8916778564453</t>
+    <t xml:space="preserve">19.8916759490967</t>
   </si>
   <si>
     <t xml:space="preserve">19.8731555938721</t>
@@ -968,40 +968,40 @@
     <t xml:space="preserve">19.6323795318604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6973457336426</t>
+    <t xml:space="preserve">20.6973438262939</t>
   </si>
   <si>
     <t xml:space="preserve">20.9288578033447</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0214653015137</t>
+    <t xml:space="preserve">21.021463394165</t>
   </si>
   <si>
     <t xml:space="preserve">20.8177337646484</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7158679962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8547763824463</t>
+    <t xml:space="preserve">20.7158660888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8547744750977</t>
   </si>
   <si>
     <t xml:space="preserve">20.7899532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8362522125244</t>
+    <t xml:space="preserve">20.836254119873</t>
   </si>
   <si>
     <t xml:space="preserve">20.8640365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8084735870361</t>
+    <t xml:space="preserve">20.8084716796875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3178024291992</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6233997344971</t>
+    <t xml:space="preserve">21.6234016418457</t>
   </si>
   <si>
     <t xml:space="preserve">22.0308666229248</t>
@@ -1013,40 +1013,40 @@
     <t xml:space="preserve">21.8271312713623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9104785919189</t>
+    <t xml:space="preserve">21.9104766845703</t>
   </si>
   <si>
     <t xml:space="preserve">21.8549156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7623081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6882247924805</t>
+    <t xml:space="preserve">21.7623100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6882228851318</t>
   </si>
   <si>
     <t xml:space="preserve">21.3455848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7530479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1049499511719</t>
+    <t xml:space="preserve">21.7530460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1049537658691</t>
   </si>
   <si>
     <t xml:space="preserve">22.3920269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2346000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2901611328125</t>
+    <t xml:space="preserve">22.23459815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2901630401611</t>
   </si>
   <si>
     <t xml:space="preserve">22.4938945770264</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6605834960938</t>
+    <t xml:space="preserve">22.6605796813965</t>
   </si>
   <si>
     <t xml:space="preserve">22.9384002685547</t>
@@ -1058,25 +1058,25 @@
     <t xml:space="preserve">23.1050891876221</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1236095428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0124835968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7439289093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8920955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7346687316895</t>
+    <t xml:space="preserve">23.1236114501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.012487411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7439308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8920974731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7346668243408</t>
   </si>
   <si>
     <t xml:space="preserve">22.7161483764648</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7531909942627</t>
+    <t xml:space="preserve">22.7531890869141</t>
   </si>
   <si>
     <t xml:space="preserve">22.4568500518799</t>
@@ -1091,37 +1091,37 @@
     <t xml:space="preserve">22.6142807006836</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6420650482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3364639282227</t>
+    <t xml:space="preserve">22.6420612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3364658355713</t>
   </si>
   <si>
     <t xml:space="preserve">22.2438583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9567794799805</t>
+    <t xml:space="preserve">21.9567813873291</t>
   </si>
   <si>
     <t xml:space="preserve">22.6513214111328</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7809734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5587158203125</t>
+    <t xml:space="preserve">22.7809715270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5587177276611</t>
   </si>
   <si>
     <t xml:space="preserve">22.7902317047119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8550548553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9013576507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4846343994141</t>
+    <t xml:space="preserve">22.8550567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9013595581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4846324920654</t>
   </si>
   <si>
     <t xml:space="preserve">22.9476623535156</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">22.8643169403076</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6235408782959</t>
+    <t xml:space="preserve">22.6235389709473</t>
   </si>
   <si>
     <t xml:space="preserve">22.5772380828857</t>
@@ -1148,79 +1148,79 @@
     <t xml:space="preserve">22.3457221984863</t>
   </si>
   <si>
-    <t xml:space="preserve">22.262378692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1140670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5400581359863</t>
+    <t xml:space="preserve">22.2623805999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1140727996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5400543212891</t>
   </si>
   <si>
     <t xml:space="preserve">21.4844932556152</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1418495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2437210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1233291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5678386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2992820739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3270645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2714996337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3548469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9197406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9012184143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4475898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9754447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0217475891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4014282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8272724151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3458633422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4199504852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3273468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6144218444824</t>
+    <t xml:space="preserve">21.1418533325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2437152862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1233310699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5770969390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5678367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2992839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3270626068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2715015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3548431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9197387695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.901216506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4475917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9754409790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0217437744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4014263153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8272743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3458652496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4199523925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3273448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6144180297852</t>
   </si>
   <si>
     <t xml:space="preserve">23.7811107635498</t>
@@ -1229,55 +1229,55 @@
     <t xml:space="preserve">24.1885757446289</t>
   </si>
   <si>
-    <t xml:space="preserve">24.447868347168</t>
+    <t xml:space="preserve">24.4478721618652</t>
   </si>
   <si>
     <t xml:space="preserve">24.1515331268311</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8922367095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7070236206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1700572967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0218868255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7255458831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3366069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2995624542236</t>
+    <t xml:space="preserve">23.8922386169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7070274353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1700534820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0218849182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0774478912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7255477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3366050720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.299560546875</t>
   </si>
   <si>
     <t xml:space="preserve">23.55885887146</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3552646636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8923778533936</t>
+    <t xml:space="preserve">24.3552627563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8923759460449</t>
   </si>
   <si>
     <t xml:space="preserve">25.0405464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7997741699219</t>
+    <t xml:space="preserve">24.7997722625732</t>
   </si>
   <si>
     <t xml:space="preserve">24.9294204711914</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0590648651123</t>
+    <t xml:space="preserve">25.0590667724609</t>
   </si>
   <si>
     <t xml:space="preserve">25.0775871276855</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">24.8368148803711</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6608638763428</t>
+    <t xml:space="preserve">24.6608619689941</t>
   </si>
   <si>
     <t xml:space="preserve">24.5775184631348</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">24.9109001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">23.818151473999</t>
+    <t xml:space="preserve">23.8181552886963</t>
   </si>
   <si>
     <t xml:space="preserve">24.5867767333984</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">26.2536811828613</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3462886810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0036430358887</t>
+    <t xml:space="preserve">26.3462867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0036449432373</t>
   </si>
   <si>
     <t xml:space="preserve">26.1425514221191</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">26.1610736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0406875610352</t>
+    <t xml:space="preserve">26.0406894683838</t>
   </si>
   <si>
     <t xml:space="preserve">25.9666023254395</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">26.2166366577148</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7259674072266</t>
+    <t xml:space="preserve">26.7259693145752</t>
   </si>
   <si>
     <t xml:space="preserve">26.5778007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8925151824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8369560241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2814636230469</t>
+    <t xml:space="preserve">25.8925170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8369541168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2814598083496</t>
   </si>
   <si>
     <t xml:space="preserve">26.1518135070801</t>
@@ -1358,28 +1358,28 @@
     <t xml:space="preserve">26.8093109130859</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0037860870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1056499481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2723407745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0871315002441</t>
+    <t xml:space="preserve">27.0037841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1056480407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2723426818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0871295928955</t>
   </si>
   <si>
     <t xml:space="preserve">27.4205093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3556842803955</t>
+    <t xml:space="preserve">27.3556861877441</t>
   </si>
   <si>
     <t xml:space="preserve">27.5686798095703</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0872688293457</t>
+    <t xml:space="preserve">28.0872669219971</t>
   </si>
   <si>
     <t xml:space="preserve">28.5780811309814</t>
@@ -1388,28 +1388,28 @@
     <t xml:space="preserve">28.1983966827393</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3465671539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3002624511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5502986907959</t>
+    <t xml:space="preserve">28.346565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3002605438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5502967834473</t>
   </si>
   <si>
     <t xml:space="preserve">28.6151218414307</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4394493103027</t>
+    <t xml:space="preserve">30.4394512176514</t>
   </si>
   <si>
     <t xml:space="preserve">30.096809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8376522064209</t>
+    <t xml:space="preserve">30.4857540130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8376560211182</t>
   </si>
   <si>
     <t xml:space="preserve">30.9209995269775</t>
@@ -1421,49 +1421,49 @@
     <t xml:space="preserve">31.2543811798096</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5229339599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1710319519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9118824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6249465942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4304733276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7453308105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6434631347656</t>
+    <t xml:space="preserve">31.5229377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1710357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9118766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6249389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4304695129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7453269958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6434669494629</t>
   </si>
   <si>
     <t xml:space="preserve">33.3565292358398</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4306106567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7084312438965</t>
+    <t xml:space="preserve">33.4306144714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7084274291992</t>
   </si>
   <si>
     <t xml:space="preserve">34.2177581787109</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6715202331543</t>
+    <t xml:space="preserve">34.6715240478516</t>
   </si>
   <si>
     <t xml:space="preserve">35.1901206970215</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8010330200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0324058532715</t>
+    <t xml:space="preserve">33.8010368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0324096679688</t>
   </si>
   <si>
     <t xml:space="preserve">33.7825126647949</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">33.8288116455078</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0695915222168</t>
+    <t xml:space="preserve">34.0695877075195</t>
   </si>
   <si>
     <t xml:space="preserve">34.4492721557617</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">34.8474769592285</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8660011291504</t>
+    <t xml:space="preserve">34.8659973144531</t>
   </si>
   <si>
     <t xml:space="preserve">35.1715927124023</t>
   </si>
   <si>
-    <t xml:space="preserve">36.032829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4865951538086</t>
+    <t xml:space="preserve">36.0328254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4865989685059</t>
   </si>
   <si>
     <t xml:space="preserve">36.2440986633301</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">35.2554512023926</t>
   </si>
   <si>
-    <t xml:space="preserve">34.490650177002</t>
+    <t xml:space="preserve">34.4906578063965</t>
   </si>
   <si>
     <t xml:space="preserve">35.2834320068359</t>
@@ -1517,46 +1517,46 @@
     <t xml:space="preserve">35.954963684082</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6264953613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6544799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.158130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5571594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1374435424805</t>
+    <t xml:space="preserve">36.6264991760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6544761657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1581268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5571517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1374473571777</t>
   </si>
   <si>
     <t xml:space="preserve">37.0741844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1187896728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4452323913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7623443603516</t>
+    <t xml:space="preserve">38.1187934875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4452362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7623481750488</t>
   </si>
   <si>
     <t xml:space="preserve">39.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">39.228687286377</t>
+    <t xml:space="preserve">39.2286834716797</t>
   </si>
   <si>
     <t xml:space="preserve">38.6784057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">37.484561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1674499511719</t>
+    <t xml:space="preserve">37.4845657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1674537658691</t>
   </si>
   <si>
     <t xml:space="preserve">37.102165222168</t>
@@ -1565,19 +1565,19 @@
     <t xml:space="preserve">36.9062995910645</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2161178588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1974639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3187141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8990020751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3746681213379</t>
+    <t xml:space="preserve">36.216121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1974678039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3187103271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8990058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3746719360352</t>
   </si>
   <si>
     <t xml:space="preserve">36.1508293151855</t>
@@ -1586,94 +1586,94 @@
     <t xml:space="preserve">35.3020820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7238159179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5093040466309</t>
+    <t xml:space="preserve">34.7238235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5093078613281</t>
   </si>
   <si>
     <t xml:space="preserve">35.0689163208008</t>
   </si>
   <si>
-    <t xml:space="preserve">35.852367401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9569969177246</t>
+    <t xml:space="preserve">35.8523712158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9569892883301</t>
   </si>
   <si>
     <t xml:space="preserve">35.6285247802734</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4026489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.917652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4306335449219</t>
+    <t xml:space="preserve">36.4026527404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9176597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4306373596191</t>
   </si>
   <si>
     <t xml:space="preserve">36.2720756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1881370544434</t>
+    <t xml:space="preserve">36.1881332397461</t>
   </si>
   <si>
     <t xml:space="preserve">36.0389060974121</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9809150695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.675163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4792976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5745964050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1808433532715</t>
+    <t xml:space="preserve">36.9809188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6751594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4793014526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.574592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1808395385742</t>
   </si>
   <si>
     <t xml:space="preserve">34.9756469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1735343933105</t>
+    <t xml:space="preserve">34.1735458374023</t>
   </si>
   <si>
     <t xml:space="preserve">35.0409355163574</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1528625488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3207359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5166053771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4046745300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7891044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6098747253418</t>
+    <t xml:space="preserve">35.1528587341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.320743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5166091918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4046783447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7891082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6098709106445</t>
   </si>
   <si>
     <t xml:space="preserve">35.264778137207</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5818939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3839988708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0368804931641</t>
+    <t xml:space="preserve">35.5818901062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3839950561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0368766784668</t>
   </si>
   <si>
     <t xml:space="preserve">36.9715919494629</t>
@@ -1691,16 +1691,16 @@
     <t xml:space="preserve">35.9083290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6025733947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0595932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1155548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0782432556152</t>
+    <t xml:space="preserve">34.6025695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0595893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.115550994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.078239440918</t>
   </si>
   <si>
     <t xml:space="preserve">35.572566986084</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">35.3953552246094</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1994895935059</t>
+    <t xml:space="preserve">35.1994934082031</t>
   </si>
   <si>
     <t xml:space="preserve">35.3767013549805</t>
@@ -1721,28 +1721,28 @@
     <t xml:space="preserve">35.2927589416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8543968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1901664733887</t>
+    <t xml:space="preserve">34.8544006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1901702880859</t>
   </si>
   <si>
     <t xml:space="preserve">35.4513168334961</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0202560424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7311248779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7258529663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.550666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.194221496582</t>
+    <t xml:space="preserve">36.0202522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7311210632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7258491516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5506744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1942253112793</t>
   </si>
   <si>
     <t xml:space="preserve">29.5940608978271</t>
@@ -1760,100 +1760,100 @@
     <t xml:space="preserve">28.9038753509521</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0437774658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0997409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3535900115967</t>
+    <t xml:space="preserve">29.0437793731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.099739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3535919189453</t>
   </si>
   <si>
     <t xml:space="preserve">28.4282054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2623519897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8872470855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5401287078857</t>
+    <t xml:space="preserve">27.2623500823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8872489929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5401268005371</t>
   </si>
   <si>
     <t xml:space="preserve">28.1950340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7939777374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1670551300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6333961486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7266635894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2189598083496</t>
+    <t xml:space="preserve">27.7939796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1670570373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6333999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7266654968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2189617156982</t>
   </si>
   <si>
     <t xml:space="preserve">29.8552112579346</t>
   </si>
   <si>
-    <t xml:space="preserve">29.631368637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.789924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3422336578369</t>
+    <t xml:space="preserve">29.6313705444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7899265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3422374725342</t>
   </si>
   <si>
     <t xml:space="preserve">28.0737857818604</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6966590881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6613750457764</t>
+    <t xml:space="preserve">29.6966571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.661376953125</t>
   </si>
   <si>
     <t xml:space="preserve">28.6707038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">27.97119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8612995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.458215713501</t>
+    <t xml:space="preserve">27.9711894989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8612976074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4582138061523</t>
   </si>
   <si>
     <t xml:space="preserve">27.4209079742432</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0551338195801</t>
+    <t xml:space="preserve">28.0551319122314</t>
   </si>
   <si>
     <t xml:space="preserve">27.8219623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3369655609131</t>
+    <t xml:space="preserve">27.3369674682617</t>
   </si>
   <si>
     <t xml:space="preserve">27.5235042572021</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8426456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4375324249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3742752075195</t>
+    <t xml:space="preserve">26.842643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4375305175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3742733001709</t>
   </si>
   <si>
     <t xml:space="preserve">27.9245567321777</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">27.4675426483154</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0591888427734</t>
+    <t xml:space="preserve">26.0591907501221</t>
   </si>
   <si>
     <t xml:space="preserve">25.9006328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5441837310791</t>
+    <t xml:space="preserve">26.5441856384277</t>
   </si>
   <si>
     <t xml:space="preserve">26.2457256317139</t>
@@ -1880,10 +1880,10 @@
     <t xml:space="preserve">25.695442199707</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2011184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7420787811279</t>
+    <t xml:space="preserve">25.2011222839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7420768737793</t>
   </si>
   <si>
     <t xml:space="preserve">26.2830333709717</t>
@@ -1892,40 +1892,40 @@
     <t xml:space="preserve">25.7140960693359</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9192886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1617832183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9825458526611</t>
+    <t xml:space="preserve">25.9192867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1617813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9825439453125</t>
   </si>
   <si>
     <t xml:space="preserve">27.1970634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9379405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0664863586426</t>
+    <t xml:space="preserve">25.9379386901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0664882659912</t>
   </si>
   <si>
     <t xml:space="preserve">27.8033065795898</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5681076049805</t>
+    <t xml:space="preserve">28.5681095123291</t>
   </si>
   <si>
     <t xml:space="preserve">29.2489681243896</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7826290130615</t>
+    <t xml:space="preserve">28.7826271057129</t>
   </si>
   <si>
     <t xml:space="preserve">27.6727333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6447505950928</t>
+    <t xml:space="preserve">27.6447486877441</t>
   </si>
   <si>
     <t xml:space="preserve">27.9525356292725</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">28.5308017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9991722106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5867595672607</t>
+    <t xml:space="preserve">27.999174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5867614746094</t>
   </si>
   <si>
     <t xml:space="preserve">28.5121479034424</t>
@@ -1955,28 +1955,28 @@
     <t xml:space="preserve">30.5920333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6853065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2915439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967365264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9071140289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1329898834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3381786346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6366348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4200897216797</t>
+    <t xml:space="preserve">30.6853008270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2915458679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9071197509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1329917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3381805419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6366367340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.420093536377</t>
   </si>
   <si>
     <t xml:space="preserve">32.6346130371094</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">32.3175010681152</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0376892089844</t>
+    <t xml:space="preserve">32.0376968383789</t>
   </si>
   <si>
     <t xml:space="preserve">32.5320167541504</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4947090148926</t>
+    <t xml:space="preserve">32.4947052001953</t>
   </si>
   <si>
     <t xml:space="preserve">32.373462677002</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">32.3641357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1869201660156</t>
+    <t xml:space="preserve">32.1869163513184</t>
   </si>
   <si>
     <t xml:space="preserve">32.6905746459961</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6252822875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4500999450684</t>
+    <t xml:space="preserve">32.6252861022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.450101852417</t>
   </si>
   <si>
     <t xml:space="preserve">34.929012298584</t>
@@ -2018,31 +2018,31 @@
     <t xml:space="preserve">34.5559425354004</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6698875427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5766181945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4367179870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.250186920166</t>
+    <t xml:space="preserve">33.6698913574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5766220092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4367141723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2501831054688</t>
   </si>
   <si>
     <t xml:space="preserve">33.3154716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1662445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6605644226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7538299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2854614257812</t>
+    <t xml:space="preserve">33.1662406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6605606079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7538261413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.285457611084</t>
   </si>
   <si>
     <t xml:space="preserve">33.9496955871582</t>
@@ -2051,19 +2051,19 @@
     <t xml:space="preserve">32.9610481262207</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4574012756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1755676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5020065307617</t>
+    <t xml:space="preserve">32.4573974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1755638122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5020027160645</t>
   </si>
   <si>
     <t xml:space="preserve">34.2668075561523</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3694000244141</t>
+    <t xml:space="preserve">34.3694038391113</t>
   </si>
   <si>
     <t xml:space="preserve">34.9010314941406</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">34.6305541992188</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5579643249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3994102478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9683494567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0429611206055</t>
+    <t xml:space="preserve">33.5579681396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9683456420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0429649353027</t>
   </si>
   <si>
     <t xml:space="preserve">33.8471031188965</t>
@@ -2093,28 +2093,28 @@
     <t xml:space="preserve">34.1828689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8657569885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0616226196289</t>
+    <t xml:space="preserve">33.8657608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0616149902344</t>
   </si>
   <si>
     <t xml:space="preserve">34.6398811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">34.444019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8097915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0989265441895</t>
+    <t xml:space="preserve">34.4440155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8097877502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0989227294922</t>
   </si>
   <si>
     <t xml:space="preserve">34.1082458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">33.987003326416</t>
+    <t xml:space="preserve">33.9869995117188</t>
   </si>
   <si>
     <t xml:space="preserve">34.6865119934082</t>
@@ -2123,43 +2123,43 @@
     <t xml:space="preserve">33.9123878479004</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2874908447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.138256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2015151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6719207763672</t>
+    <t xml:space="preserve">33.2874870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1382598876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2015190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6719169616699</t>
   </si>
   <si>
     <t xml:space="preserve">33.4273910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8584594726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2968139648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3064002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6082382202148</t>
+    <t xml:space="preserve">32.8584518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.296817779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3064041137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6082458496094</t>
   </si>
   <si>
     <t xml:space="preserve">33.5797920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.579948425293</t>
+    <t xml:space="preserve">32.5799446105957</t>
   </si>
   <si>
     <t xml:space="preserve">32.9855461120605</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0138359069824</t>
+    <t xml:space="preserve">33.0138397216797</t>
   </si>
   <si>
     <t xml:space="preserve">32.5044822692871</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">31.1273345947266</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2499599456787</t>
+    <t xml:space="preserve">31.2499561309814</t>
   </si>
   <si>
     <t xml:space="preserve">31.8253440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5422172546387</t>
+    <t xml:space="preserve">32.5422096252441</t>
   </si>
   <si>
     <t xml:space="preserve">32.7308692932129</t>
@@ -2189,19 +2189,19 @@
     <t xml:space="preserve">32.3818626403809</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8440551757812</t>
+    <t xml:space="preserve">32.844051361084</t>
   </si>
   <si>
     <t xml:space="preserve">32.4573211669922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.532787322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0610008239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3911437988281</t>
+    <t xml:space="preserve">32.5327835083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0610046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3911476135254</t>
   </si>
   <si>
     <t xml:space="preserve">34.409854888916</t>
@@ -2210,19 +2210,19 @@
     <t xml:space="preserve">34.5324783325195</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4945983886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2870788574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1927528381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.551342010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2777976989746</t>
+    <t xml:space="preserve">35.4945945739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2870826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.192756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5513458251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2778015136719</t>
   </si>
   <si>
     <t xml:space="preserve">35.0324020385742</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">35.8436012268066</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7681350708008</t>
+    <t xml:space="preserve">35.768138885498</t>
   </si>
   <si>
     <t xml:space="preserve">36.3152236938477</t>
@@ -2243,55 +2243,55 @@
     <t xml:space="preserve">36.4189796447754</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3246536254883</t>
+    <t xml:space="preserve">36.3246574401855</t>
   </si>
   <si>
     <t xml:space="preserve">36.3340873718262</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0794143676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1548767089844</t>
+    <t xml:space="preserve">36.0794105529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1548728942871</t>
   </si>
   <si>
     <t xml:space="preserve">35.8907623291016</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2963600158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8341636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9284896850586</t>
+    <t xml:space="preserve">36.2963562011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8341674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9284934997559</t>
   </si>
   <si>
     <t xml:space="preserve">36.0228157043457</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0416831970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4661445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4472808837891</t>
+    <t xml:space="preserve">36.0416793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4661407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4472770690918</t>
   </si>
   <si>
     <t xml:space="preserve">36.739688873291</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8057136535645</t>
+    <t xml:space="preserve">36.8057174682617</t>
   </si>
   <si>
     <t xml:space="preserve">36.777416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4757347106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0606956481934</t>
+    <t xml:space="preserve">35.4757270812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0606994628906</t>
   </si>
   <si>
     <t xml:space="preserve">34.202335357666</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">32.1743469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.146053314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5516471862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1458969116211</t>
+    <t xml:space="preserve">32.1460456848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5516395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1458930969238</t>
   </si>
   <si>
     <t xml:space="preserve">33.0798683166504</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">32.2120742797852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9385356903076</t>
+    <t xml:space="preserve">31.938533782959</t>
   </si>
   <si>
     <t xml:space="preserve">32.4761848449707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.41015625</t>
+    <t xml:space="preserve">32.4101600646973</t>
   </si>
   <si>
     <t xml:space="preserve">33.4477348327637</t>
@@ -2330,31 +2330,31 @@
     <t xml:space="preserve">32.4667510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">32.268669128418</t>
+    <t xml:space="preserve">32.2686729431152</t>
   </si>
   <si>
     <t xml:space="preserve">32.0705871582031</t>
   </si>
   <si>
-    <t xml:space="preserve">32.013988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1554832458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3629989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0704345703125</t>
+    <t xml:space="preserve">32.0139923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1554794311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3629951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0704383850098</t>
   </si>
   <si>
     <t xml:space="preserve">33.8250389099121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9193572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4760322570801</t>
+    <t xml:space="preserve">33.9193649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4760360717773</t>
   </si>
   <si>
     <t xml:space="preserve">33.2779502868652</t>
@@ -2375,19 +2375,19 @@
     <t xml:space="preserve">32.1932067871094</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9388370513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6274108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7688980102539</t>
+    <t xml:space="preserve">29.938835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6274147033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7688961029053</t>
   </si>
   <si>
     <t xml:space="preserve">30.2784061431885</t>
   </si>
   <si>
-    <t xml:space="preserve">30.401029586792</t>
+    <t xml:space="preserve">30.4010314941406</t>
   </si>
   <si>
     <t xml:space="preserve">30.3161373138428</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">30.5236530303955</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0235805511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8443622589111</t>
+    <t xml:space="preserve">31.0235767364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8443603515625</t>
   </si>
   <si>
     <t xml:space="preserve">30.5047874450684</t>
@@ -2411,34 +2411,34 @@
     <t xml:space="preserve">30.287841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6934394836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8820896148682</t>
+    <t xml:space="preserve">30.6934375762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8820915222168</t>
   </si>
   <si>
     <t xml:space="preserve">30.7311706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3065490722656</t>
+    <t xml:space="preserve">31.3065547943115</t>
   </si>
   <si>
     <t xml:space="preserve">31.9008007049561</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5233497619629</t>
+    <t xml:space="preserve">32.5233459472656</t>
   </si>
   <si>
     <t xml:space="preserve">32.2592391967773</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1366195678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7310180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4197463989258</t>
+    <t xml:space="preserve">32.1366157531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7310161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4197425842285</t>
   </si>
   <si>
     <t xml:space="preserve">30.3444347381592</t>
@@ -2450,34 +2450,34 @@
     <t xml:space="preserve">30.4481945037842</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3632984161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6462783813477</t>
+    <t xml:space="preserve">30.3633003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.646276473999</t>
   </si>
   <si>
     <t xml:space="preserve">34.1174430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.485466003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7120018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1741943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2873840332031</t>
+    <t xml:space="preserve">33.4854621887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7119979858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1741905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2873878479004</t>
   </si>
   <si>
     <t xml:space="preserve">33.0421371459961</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0041046142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5040283203125</t>
+    <t xml:space="preserve">35.0041007995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5040245056152</t>
   </si>
   <si>
     <t xml:space="preserve">35.088996887207</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">34.8626174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7777214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3721237182617</t>
+    <t xml:space="preserve">34.777717590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3721199035645</t>
   </si>
   <si>
     <t xml:space="preserve">34.4853134155273</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7494277954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9946708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.607780456543</t>
+    <t xml:space="preserve">34.7494239807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9946670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6077842712402</t>
   </si>
   <si>
     <t xml:space="preserve">35.3059425354004</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">36.8623123168945</t>
   </si>
   <si>
-    <t xml:space="preserve">36.966064453125</t>
+    <t xml:space="preserve">36.9660682678223</t>
   </si>
   <si>
     <t xml:space="preserve">37.8621597290039</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">36.4850120544434</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6264991760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0129280090332</t>
+    <t xml:space="preserve">36.6265029907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0129241943359</t>
   </si>
   <si>
     <t xml:space="preserve">39.8052597045898</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">38.9563331604004</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6733551025391</t>
+    <t xml:space="preserve">38.6733512878418</t>
   </si>
   <si>
     <t xml:space="preserve">38.5790328979492</t>
@@ -2552,34 +2552,34 @@
     <t xml:space="preserve">37.994213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1451301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8810234069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0319404602051</t>
+    <t xml:space="preserve">38.145133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8810272216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0319442749023</t>
   </si>
   <si>
     <t xml:space="preserve">38.5695991516113</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4752731323242</t>
+    <t xml:space="preserve">38.4752769470215</t>
   </si>
   <si>
     <t xml:space="preserve">38.3243522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7961349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2866249084473</t>
+    <t xml:space="preserve">37.7961311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.28662109375</t>
   </si>
   <si>
     <t xml:space="preserve">37.8149948120117</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9847831726074</t>
+    <t xml:space="preserve">37.9847793579102</t>
   </si>
   <si>
     <t xml:space="preserve">38.824275970459</t>
@@ -2588,49 +2588,49 @@
     <t xml:space="preserve">38.8054122924805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3998146057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4847030639648</t>
+    <t xml:space="preserve">38.3998107910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4847068786621</t>
   </si>
   <si>
     <t xml:space="preserve">39.2298736572266</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2957534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2580223083496</t>
+    <t xml:space="preserve">40.2957496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2580184936523</t>
   </si>
   <si>
     <t xml:space="preserve">40.2768859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0034942626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1357002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1355476379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0508079528809</t>
+    <t xml:space="preserve">39.0034866333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1357040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1355514526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0508117675781</t>
   </si>
   <si>
     <t xml:space="preserve">38.248893737793</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6548004150391</t>
+    <t xml:space="preserve">36.6547966003418</t>
   </si>
   <si>
     <t xml:space="preserve">38.0791053771973</t>
   </si>
   <si>
-    <t xml:space="preserve">37.315071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7868461608887</t>
+    <t xml:space="preserve">37.3150749206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7868499755859</t>
   </si>
   <si>
     <t xml:space="preserve">37.1924476623535</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">38.1168365478516</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3433723449707</t>
+    <t xml:space="preserve">37.3433685302734</t>
   </si>
   <si>
     <t xml:space="preserve">36.5133056640625</t>
@@ -2654,22 +2654,22 @@
     <t xml:space="preserve">36.456714630127</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0792617797852</t>
+    <t xml:space="preserve">37.0792579650879</t>
   </si>
   <si>
     <t xml:space="preserve">35.9379234313965</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0888442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.824577331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0418357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1647644042969</t>
+    <t xml:space="preserve">36.0888404846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8245811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0418319702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1647605895996</t>
   </si>
   <si>
     <t xml:space="preserve">33.1364669799805</t>
@@ -2684,19 +2684,19 @@
     <t xml:space="preserve">33.2213554382324</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8064746856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7880706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4296321868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6938972473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5245666503906</t>
+    <t xml:space="preserve">31.8064765930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7880687713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.429630279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6938953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.524564743042</t>
   </si>
   <si>
     <t xml:space="preserve">28.0146026611328</t>
@@ -2705,16 +2705,16 @@
     <t xml:space="preserve">25.8356876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4678211212158</t>
+    <t xml:space="preserve">25.4678192138672</t>
   </si>
   <si>
     <t xml:space="preserve">25.9394454956055</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4866828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6090030670166</t>
+    <t xml:space="preserve">25.486686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.609001159668</t>
   </si>
   <si>
     <t xml:space="preserve">26.9770240783691</t>
@@ -2723,79 +2723,79 @@
     <t xml:space="preserve">30.6085453033447</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1649169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4478912353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4008769989014</t>
+    <t xml:space="preserve">32.164909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4478874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4008808135986</t>
   </si>
   <si>
     <t xml:space="preserve">30.5519504547119</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1840839385986</t>
+    <t xml:space="preserve">30.18408203125</t>
   </si>
   <si>
     <t xml:space="preserve">29.3351554870605</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3631496429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7877635955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9858455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7876091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.32541847229</t>
+    <t xml:space="preserve">31.363151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7877655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9858436584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7876129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3254203796387</t>
   </si>
   <si>
     <t xml:space="preserve">32.5610809326172</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2496528625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5895309448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2688255310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.221508026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4950523376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9575519561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4669075012207</t>
+    <t xml:space="preserve">33.2496566772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.589527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2688236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2215042114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4950485229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9575500488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4669055938721</t>
   </si>
   <si>
     <t xml:space="preserve">30.5896816253662</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9198207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4576282501221</t>
+    <t xml:space="preserve">30.9198188781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4576263427734</t>
   </si>
   <si>
     <t xml:space="preserve">30.9103870391846</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0803241729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3540210723877</t>
+    <t xml:space="preserve">30.0803260803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3540191650391</t>
   </si>
   <si>
     <t xml:space="preserve">29.2691268920898</t>
@@ -2810,67 +2810,67 @@
     <t xml:space="preserve">29.4577789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0331649780273</t>
+    <t xml:space="preserve">30.0331630706787</t>
   </si>
   <si>
     <t xml:space="preserve">31.4952030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">31.080171585083</t>
+    <t xml:space="preserve">31.0801734924316</t>
   </si>
   <si>
     <t xml:space="preserve">32.8912162780762</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5517997741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7781753540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.61767578125</t>
+    <t xml:space="preserve">31.5517978668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7781791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6176795959473</t>
   </si>
   <si>
     <t xml:space="preserve">32.759162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7404518127441</t>
+    <t xml:space="preserve">31.7404499053955</t>
   </si>
   <si>
     <t xml:space="preserve">32.0894546508789</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9479656219482</t>
+    <t xml:space="preserve">31.9479675292969</t>
   </si>
   <si>
     <t xml:space="preserve">32.6931343078613</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2307891845703</t>
+    <t xml:space="preserve">33.230785369873</t>
   </si>
   <si>
     <t xml:space="preserve">33.5043296813965</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8061752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8157539367676</t>
+    <t xml:space="preserve">33.8061714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8157577514648</t>
   </si>
   <si>
     <t xml:space="preserve">32.4384574890137</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8534889221191</t>
+    <t xml:space="preserve">32.8534851074219</t>
   </si>
   <si>
     <t xml:space="preserve">32.1083183288574</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3158302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6742706298828</t>
+    <t xml:space="preserve">32.3158340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6742668151855</t>
   </si>
   <si>
     <t xml:space="preserve">31.9668312072754</t>
@@ -2879,46 +2879,46 @@
     <t xml:space="preserve">32.6837043762207</t>
   </si>
   <si>
-    <t xml:space="preserve">32.20263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0611572265625</t>
+    <t xml:space="preserve">32.2026405334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0611534118652</t>
   </si>
   <si>
     <t xml:space="preserve">31.3442840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7687454223633</t>
+    <t xml:space="preserve">31.7687473297119</t>
   </si>
   <si>
     <t xml:space="preserve">31.6838531494141</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7121486663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2876853942871</t>
+    <t xml:space="preserve">31.7121543884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2876873016357</t>
   </si>
   <si>
     <t xml:space="preserve">30.7500343322754</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7783317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0897579193115</t>
+    <t xml:space="preserve">30.7783336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0897560119629</t>
   </si>
   <si>
     <t xml:space="preserve">30.2501106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.155782699585</t>
+    <t xml:space="preserve">30.1557846069336</t>
   </si>
   <si>
     <t xml:space="preserve">31.5800952911377</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0141487121582</t>
+    <t xml:space="preserve">31.0141448974609</t>
   </si>
   <si>
     <t xml:space="preserve">30.7594680786133</t>
@@ -2933,28 +2933,28 @@
     <t xml:space="preserve">30.5330848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6840057373047</t>
+    <t xml:space="preserve">30.6840019226074</t>
   </si>
   <si>
     <t xml:space="preserve">31.2782554626465</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5613822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6368446350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8536396026611</t>
+    <t xml:space="preserve">30.5613861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6368465423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8536376953125</t>
   </si>
   <si>
     <t xml:space="preserve">32.513916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9100799560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2119255065918</t>
+    <t xml:space="preserve">32.910083770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2119216918945</t>
   </si>
   <si>
     <t xml:space="preserve">34.655101776123</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">35.7775688171387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1078567504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4287185668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2024917602539</t>
+    <t xml:space="preserve">35.1078643798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4287223815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2024879455566</t>
   </si>
   <si>
     <t xml:space="preserve">32.7685966491699</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1836280822754</t>
+    <t xml:space="preserve">33.1836204528809</t>
   </si>
   <si>
     <t xml:space="preserve">32.9949760437012</t>
@@ -2987,19 +2987,19 @@
     <t xml:space="preserve">33.4571685791016</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3626937866211</t>
+    <t xml:space="preserve">34.3626899719238</t>
   </si>
   <si>
     <t xml:space="preserve">34.6173706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9759559631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3249588012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.702262878418</t>
+    <t xml:space="preserve">33.975959777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3249626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7022590637207</t>
   </si>
   <si>
     <t xml:space="preserve">34.806022644043</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">36.7302551269531</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9003448486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9195137023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1270332336426</t>
+    <t xml:space="preserve">34.9003486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9195213317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1270294189453</t>
   </si>
   <si>
     <t xml:space="preserve">33.9570922851562</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">35.6738128662109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.419132232666</t>
+    <t xml:space="preserve">35.4191360473633</t>
   </si>
   <si>
     <t xml:space="preserve">37.4282608032227</t>
@@ -3047,10 +3047,10 @@
     <t xml:space="preserve">37.4565582275391</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1922988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4376907348633</t>
+    <t xml:space="preserve">38.1922950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4376945495605</t>
   </si>
   <si>
     <t xml:space="preserve">37.5508880615234</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">38.7488174438477</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7299499511719</t>
+    <t xml:space="preserve">38.7299537658691</t>
   </si>
   <si>
     <t xml:space="preserve">38.4658393859863</t>
@@ -3071,13 +3071,13 @@
     <t xml:space="preserve">39.3241958618164</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5883102416992</t>
+    <t xml:space="preserve">39.5883140563965</t>
   </si>
   <si>
     <t xml:space="preserve">39.5222854614258</t>
   </si>
   <si>
-    <t xml:space="preserve">39.107250213623</t>
+    <t xml:space="preserve">39.1072540283203</t>
   </si>
   <si>
     <t xml:space="preserve">38.6827850341797</t>
@@ -3092,28 +3092,28 @@
     <t xml:space="preserve">40.1731262207031</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7485084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.503116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3520431518555</t>
+    <t xml:space="preserve">40.7485122680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5031127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3520469665527</t>
   </si>
   <si>
     <t xml:space="preserve">43.9650039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8235168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.879955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1629333496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0307235717773</t>
+    <t xml:space="preserve">43.8235130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8799591064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1629371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0307273864746</t>
   </si>
   <si>
     <t xml:space="preserve">45.9458312988281</t>
@@ -3131,16 +3131,16 @@
     <t xml:space="preserve">45.6345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4742050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9079551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4456062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2946853637695</t>
+    <t xml:space="preserve">45.4742012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9079513549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4456024169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2946815490723</t>
   </si>
   <si>
     <t xml:space="preserve">47.1626281738281</t>
@@ -3149,19 +3149,19 @@
     <t xml:space="preserve">45.8609390258789</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8798027038574</t>
+    <t xml:space="preserve">45.8798065185547</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3327178955078</t>
+    <t xml:space="preserve">45.3327255249023</t>
   </si>
   <si>
     <t xml:space="preserve">45.276123046875</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3706016540527</t>
+    <t xml:space="preserve">44.37060546875</t>
   </si>
   <si>
     <t xml:space="preserve">45.4176139831543</t>
@@ -3176,67 +3176,67 @@
     <t xml:space="preserve">45.6817245483398</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9459838867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9081039428711</t>
+    <t xml:space="preserve">44.945987701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9081001281738</t>
   </si>
   <si>
     <t xml:space="preserve">46.7758941650391</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6535797119141</t>
+    <t xml:space="preserve">44.6535758972168</t>
   </si>
   <si>
     <t xml:space="preserve">44.5781135559082</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3610153198242</t>
+    <t xml:space="preserve">45.3610191345215</t>
   </si>
   <si>
     <t xml:space="preserve">44.7667655944824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2006645202637</t>
+    <t xml:space="preserve">45.2006607055664</t>
   </si>
   <si>
     <t xml:space="preserve">45.2100982666016</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1814918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.954963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6529693603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.1623229980469</t>
+    <t xml:space="preserve">47.1814994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9549598693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6529731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.1623268127441</t>
   </si>
   <si>
     <t xml:space="preserve">48.7284278869629</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0302734375</t>
+    <t xml:space="preserve">49.0302696228027</t>
   </si>
   <si>
     <t xml:space="preserve">48.3322639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2377891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8793449401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7663116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.709716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2942237854004</t>
+    <t xml:space="preserve">49.2377853393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8793487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7663078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7097206115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2942314147949</t>
   </si>
   <si>
     <t xml:space="preserve">48.9548110961914</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">48.3134002685547</t>
   </si>
   <si>
-    <t xml:space="preserve">48.105884552002</t>
+    <t xml:space="preserve">48.1058769226074</t>
   </si>
   <si>
     <t xml:space="preserve">48.2379341125488</t>
@@ -3257,106 +3257,106 @@
     <t xml:space="preserve">49.2000541687012</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5584907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7661590576172</t>
+    <t xml:space="preserve">49.5584945678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7661552429199</t>
   </si>
   <si>
     <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">46.738166809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8985252380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.464469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7947616577148</t>
+    <t xml:space="preserve">46.7381629943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8985176086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4644660949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7947578430176</t>
   </si>
   <si>
     <t xml:space="preserve">49.0868644714355</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4077262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5209121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8983688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.256950378418</t>
+    <t xml:space="preserve">48.4077186584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.898365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2569541931152</t>
   </si>
   <si>
     <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">46.408031463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289657592773</t>
+    <t xml:space="preserve">46.4080276489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289619445801</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459075927734</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4930763244629</t>
+    <t xml:space="preserve">45.4930725097656</t>
   </si>
   <si>
     <t xml:space="preserve">46.4174575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0967559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8796539306641</t>
+    <t xml:space="preserve">46.096752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8796577453613</t>
   </si>
   <si>
     <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5022048950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6531181335449</t>
+    <t xml:space="preserve">47.5022010803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6531219482422</t>
   </si>
   <si>
     <t xml:space="preserve">47.5776596069336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5775108337402</t>
+    <t xml:space="preserve">48.577507019043</t>
   </si>
   <si>
     <t xml:space="preserve">48.426586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3701477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3887023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4640121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0304222106934</t>
+    <t xml:space="preserve">47.3701438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3887062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4640159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0304183959961</t>
   </si>
   <si>
     <t xml:space="preserve">48.0681495666504</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1247482299805</t>
+    <t xml:space="preserve">48.1247444152832</t>
   </si>
   <si>
     <t xml:space="preserve">48.5586433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4267387390137</t>
+    <t xml:space="preserve">47.4267349243164</t>
   </si>
   <si>
     <t xml:space="preserve">48.5020484924316</t>
@@ -3374,16 +3374,16 @@
     <t xml:space="preserve">48.6718330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0114059448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7660064697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5207595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2753639221191</t>
+    <t xml:space="preserve">49.011402130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7660026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5207633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2753601074219</t>
   </si>
   <si>
     <t xml:space="preserve">50.5394744873047</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">54.8485984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3432464599609</t>
+    <t xml:space="preserve">55.3432426452637</t>
   </si>
   <si>
     <t xml:space="preserve">55.4573936462402</t>
@@ -3422,25 +3422,25 @@
     <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0471611022949</t>
+    <t xml:space="preserve">56.0471572875977</t>
   </si>
   <si>
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305328369141</t>
+    <t xml:space="preserve">54.0305290222168</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3349304199219</t>
+    <t xml:space="preserve">54.3349266052246</t>
   </si>
   <si>
     <t xml:space="preserve">55.1149482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4764137268066</t>
+    <t xml:space="preserve">55.4764175415039</t>
   </si>
   <si>
     <t xml:space="preserve">55.7427635192871</t>
@@ -3449,10 +3449,10 @@
     <t xml:space="preserve">55.2671432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4003219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4383659362793</t>
+    <t xml:space="preserve">55.400318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4383697509766</t>
   </si>
   <si>
     <t xml:space="preserve">54.4300498962402</t>
@@ -3473,13 +3473,13 @@
     <t xml:space="preserve">54.5251770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0115013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.239803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5442008972168</t>
+    <t xml:space="preserve">54.0115051269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2398071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">52.641716003418</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">54.9437217712402</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5905647277832</t>
+    <t xml:space="preserve">55.5905685424805</t>
   </si>
   <si>
     <t xml:space="preserve">53.9734573364258</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0174293518066</t>
+    <t xml:space="preserve">57.0174255371094</t>
   </si>
   <si>
     <t xml:space="preserve">56.7510833740234</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">55.1720199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8759384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9330177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7617874145508</t>
+    <t xml:space="preserve">55.8759422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9330139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.761791229248</t>
   </si>
   <si>
     <t xml:space="preserve">56.8462066650391</t>
@@ -3542,16 +3542,16 @@
     <t xml:space="preserve">58.215991973877</t>
   </si>
   <si>
-    <t xml:space="preserve">58.596492767334</t>
+    <t xml:space="preserve">58.5964889526367</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8628349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7023239135742</t>
+    <t xml:space="preserve">58.8628387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.702320098877</t>
   </si>
   <si>
     <t xml:space="preserve">57.1315803527832</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">55.6286163330078</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2231712341309</t>
+    <t xml:space="preserve">52.2231750488281</t>
   </si>
   <si>
     <t xml:space="preserve">51.2909545898438</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">51.994873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">51.918773651123</t>
+    <t xml:space="preserve">51.9187774658203</t>
   </si>
   <si>
     <t xml:space="preserve">51.5382804870605</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">52.565616607666</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4895172119141</t>
+    <t xml:space="preserve">52.4895210266113</t>
   </si>
   <si>
     <t xml:space="preserve">51.9758491516113</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">49.2552947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">49.17919921875</t>
+    <t xml:space="preserve">49.1791954040527</t>
   </si>
   <si>
     <t xml:space="preserve">50.4348373413086</t>
@@ -3626,10 +3626,10 @@
     <t xml:space="preserve">50.1114158630371</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7095031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5465927124023</t>
+    <t xml:space="preserve">51.7094993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5465965270996</t>
   </si>
   <si>
     <t xml:space="preserve">52.3182945251465</t>
@@ -3671,10 +3671,10 @@
     <t xml:space="preserve">57.3028030395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0447692871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1208648681641</t>
+    <t xml:space="preserve">58.0447731018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1208686828613</t>
   </si>
   <si>
     <t xml:space="preserve">57.6642723083496</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">58.2350196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">59.0911331176758</t>
+    <t xml:space="preserve">59.091136932373</t>
   </si>
   <si>
     <t xml:space="preserve">60.7843475341797</t>
@@ -3701,16 +3701,16 @@
     <t xml:space="preserve">63.0482978820801</t>
   </si>
   <si>
-    <t xml:space="preserve">64.3039474487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8366394042969</t>
+    <t xml:space="preserve">64.3039398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8366317749023</t>
   </si>
   <si>
     <t xml:space="preserve">62.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1160926818848</t>
+    <t xml:space="preserve">62.1160888671875</t>
   </si>
   <si>
     <t xml:space="preserve">63.2195281982422</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">64.3610153198242</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1981048583984</t>
+    <t xml:space="preserve">65.198112487793</t>
   </si>
   <si>
     <t xml:space="preserve">65.7878875732422</t>
@@ -3728,52 +3728,52 @@
     <t xml:space="preserve">65.6737289428711</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0078659057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4941864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4073791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3146438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7331962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6618843078613</t>
+    <t xml:space="preserve">65.0078582763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4941940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4073867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9341506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3146476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7331924438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6618804931641</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9555740356445</t>
+    <t xml:space="preserve">60.9555702209473</t>
   </si>
   <si>
     <t xml:space="preserve">62.420482635498</t>
   </si>
   <si>
-    <t xml:space="preserve">62.3253517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0863571166992</t>
+    <t xml:space="preserve">62.3253555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0863494873047</t>
   </si>
   <si>
     <t xml:space="preserve">65.9020233154297</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8853912353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5619735717773</t>
+    <t xml:space="preserve">63.8853988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5619697570801</t>
   </si>
   <si>
     <t xml:space="preserve">62.8390235900879</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043296813965</t>
+    <t xml:space="preserve">60.0043334960938</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">59.167236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6428565979004</t>
+    <t xml:space="preserve">59.6428527832031</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
@@ -3818,13 +3818,13 @@
     <t xml:space="preserve">61.1648445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8307151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3063354492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7379760742188</t>
+    <t xml:space="preserve">61.8307113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.306339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.737979888916</t>
   </si>
   <si>
     <t xml:space="preserve">58.2540435791016</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">54.0876045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">54.9247016906738</t>
+    <t xml:space="preserve">54.9246978759766</t>
   </si>
   <si>
     <t xml:space="preserve">53.8022346496582</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">52.4324417114258</t>
   </si>
   <si>
-    <t xml:space="preserve">53.4978370666504</t>
+    <t xml:space="preserve">53.4978408813477</t>
   </si>
   <si>
     <t xml:space="preserve">53.726131439209</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">52.7368392944336</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5929641723633</t>
+    <t xml:space="preserve">53.592960357666</t>
   </si>
   <si>
     <t xml:space="preserve">56.1422882080078</t>
@@ -3884,10 +3884,10 @@
     <t xml:space="preserve">55.32421875</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8129386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7855987548828</t>
+    <t xml:space="preserve">52.8129425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7855949401855</t>
   </si>
   <si>
     <t xml:space="preserve">53.3075866699219</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">52.3943939208984</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1280479431152</t>
+    <t xml:space="preserve">52.128044128418</t>
   </si>
   <si>
     <t xml:space="preserve">52.0709762573242</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">46.7440185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8474617004395</t>
+    <t xml:space="preserve">47.8474578857422</t>
   </si>
   <si>
     <t xml:space="preserve">48.6084518432617</t>
@@ -3953,28 +3953,28 @@
     <t xml:space="preserve">48.1708793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3433036804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8581657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2481727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9782409667969</t>
+    <t xml:space="preserve">47.3432998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8581619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.248176574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3242797851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9782447814941</t>
   </si>
   <si>
     <t xml:space="preserve">48.2660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2469787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0353088378906</t>
+    <t xml:space="preserve">48.2469825744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0353126525879</t>
   </si>
   <si>
     <t xml:space="preserve">50.396785736084</t>
@@ -3986,13 +3986,13 @@
     <t xml:space="preserve">47.0293922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5133285522461</t>
+    <t xml:space="preserve">48.5133247375488</t>
   </si>
   <si>
     <t xml:space="preserve">46.1827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">47.067440032959</t>
+    <t xml:space="preserve">47.0674438476562</t>
   </si>
   <si>
     <t xml:space="preserve">47.505012512207</t>
@@ -4001,16 +4001,16 @@
     <t xml:space="preserve">48.094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2291564941406</t>
+    <t xml:space="preserve">47.2291526794434</t>
   </si>
   <si>
     <t xml:space="preserve">48.66552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.581111907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3552093505859</t>
+    <t xml:space="preserve">47.5811157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3552055358887</t>
   </si>
   <si>
     <t xml:space="preserve">44.822509765625</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6215515136719</t>
+    <t xml:space="preserve">45.6215553283691</t>
   </si>
   <si>
     <t xml:space="preserve">44.955680847168</t>
@@ -4037,13 +4037,13 @@
     <t xml:space="preserve">42.4253807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6370429992676</t>
+    <t xml:space="preserve">40.6370468139648</t>
   </si>
   <si>
     <t xml:space="preserve">39.7904434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7702178955078</t>
+    <t xml:space="preserve">40.7702217102051</t>
   </si>
   <si>
     <t xml:space="preserve">42.5585556030273</t>
@@ -4058,7 +4058,7 @@
     <t xml:space="preserve">42.2161064147949</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0627136230469</t>
+    <t xml:space="preserve">43.0627174377441</t>
   </si>
   <si>
     <t xml:space="preserve">41.569263458252</t>
@@ -4070,7 +4070,7 @@
     <t xml:space="preserve">40.1994743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">40.797737121582</t>
+    <t xml:space="preserve">40.7977409362793</t>
   </si>
   <si>
     <t xml:space="preserve">39.4371719360352</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">40.7205467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">41.579345703125</t>
+    <t xml:space="preserve">41.5793418884277</t>
   </si>
   <si>
     <t xml:space="preserve">43.3162384033203</t>
@@ -4097,19 +4097,19 @@
     <t xml:space="preserve">44.281177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4645195007324</t>
+    <t xml:space="preserve">44.4645233154297</t>
   </si>
   <si>
     <t xml:space="preserve">44.2136344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">43.065357208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1486549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5240173339844</t>
+    <t xml:space="preserve">43.0653533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1486587524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5240135192871</t>
   </si>
   <si>
     <t xml:space="preserve">38.0573043823242</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">37.0344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3660850524902</t>
+    <t xml:space="preserve">38.366081237793</t>
   </si>
   <si>
     <t xml:space="preserve">36.1756706237793</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">35.7896919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7221488952637</t>
+    <t xml:space="preserve">35.7221450805664</t>
   </si>
   <si>
     <t xml:space="preserve">36.4844512939453</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">39.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9257507324219</t>
+    <t xml:space="preserve">38.9257545471191</t>
   </si>
   <si>
     <t xml:space="preserve">38.2213478088379</t>
@@ -4163,10 +4163,10 @@
     <t xml:space="preserve">39.77490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9389381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0257835388184</t>
+    <t xml:space="preserve">39.9389419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0257873535156</t>
   </si>
   <si>
     <t xml:space="preserve">39.3985748291016</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">41.2609100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">41.675838470459</t>
+    <t xml:space="preserve">41.6758346557617</t>
   </si>
   <si>
     <t xml:space="preserve">42.081111907959</t>
@@ -4208,10 +4208,10 @@
     <t xml:space="preserve">41.6468887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9952392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9637184143066</t>
+    <t xml:space="preserve">44.9952354431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9637145996094</t>
   </si>
   <si>
     <t xml:space="preserve">47.021614074707</t>
@@ -4220,22 +4220,22 @@
     <t xml:space="preserve">46.0663223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3654518127441</t>
+    <t xml:space="preserve">46.3654556274414</t>
   </si>
   <si>
     <t xml:space="preserve">47.5812835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5716323852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5523300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.896167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7742691040039</t>
+    <t xml:space="preserve">47.5716285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5523338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8961715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7742652893066</t>
   </si>
   <si>
     <t xml:space="preserve">48.0155029296875</t>
@@ -4253,10 +4253,10 @@
     <t xml:space="preserve">47.8128662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0241813659668</t>
+    <t xml:space="preserve">47.1760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0241851806641</t>
   </si>
   <si>
     <t xml:space="preserve">45.8540344238281</t>
@@ -4271,31 +4271,31 @@
     <t xml:space="preserve">44.0206451416016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.103946685791</t>
+    <t xml:space="preserve">43.1039505004883</t>
   </si>
   <si>
     <t xml:space="preserve">43.2679901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0750007629395</t>
+    <t xml:space="preserve">43.0750045776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.974967956543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1811447143555</t>
+    <t xml:space="preserve">43.1811485290527</t>
   </si>
   <si>
     <t xml:space="preserve">42.071460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1100616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3319931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6407775878906</t>
+    <t xml:space="preserve">42.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3319969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6407737731934</t>
   </si>
   <si>
     <t xml:space="preserve">43.4320297241211</t>
@@ -4304,25 +4304,25 @@
     <t xml:space="preserve">43.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9688606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6829147338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.505687713623</t>
+    <t xml:space="preserve">42.9688568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.682918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5056838989258</t>
   </si>
   <si>
     <t xml:space="preserve">41.8495254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4284896850586</t>
+    <t xml:space="preserve">42.4284934997559</t>
   </si>
   <si>
     <t xml:space="preserve">42.7469215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4223823547363</t>
+    <t xml:space="preserve">43.4223785400391</t>
   </si>
   <si>
     <t xml:space="preserve">40.8556365966797</t>
@@ -4340,7 +4340,7 @@
     <t xml:space="preserve">41.9942665100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7108955383301</t>
+    <t xml:space="preserve">40.7108917236328</t>
   </si>
   <si>
     <t xml:space="preserve">40.9038848876953</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">43.8083610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9206123352051</t>
+    <t xml:space="preserve">42.9206085205078</t>
   </si>
   <si>
     <t xml:space="preserve">42.4574394226074</t>
@@ -4370,10 +4370,10 @@
     <t xml:space="preserve">43.6153717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6925659179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7925987243652</t>
+    <t xml:space="preserve">43.6925621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.792594909668</t>
   </si>
   <si>
     <t xml:space="preserve">45.0531311035156</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">44.7057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6803436279297</t>
+    <t xml:space="preserve">45.680347442627</t>
   </si>
   <si>
     <t xml:space="preserve">44.3390769958496</t>
@@ -4394,13 +4394,13 @@
     <t xml:space="preserve">47.2146034240723</t>
   </si>
   <si>
-    <t xml:space="preserve">46.703182220459</t>
+    <t xml:space="preserve">46.7031860351562</t>
   </si>
   <si>
     <t xml:space="preserve">44.7347030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7022171020508</t>
+    <t xml:space="preserve">43.7022132873535</t>
   </si>
   <si>
     <t xml:space="preserve">42.1583061218262</t>
@@ -4415,16 +4415,16 @@
     <t xml:space="preserve">40.7784385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7987098693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9144973754883</t>
+    <t xml:space="preserve">43.7987060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9145011901855</t>
   </si>
   <si>
     <t xml:space="preserve">44.8215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0820846557617</t>
+    <t xml:space="preserve">45.0820808410645</t>
   </si>
   <si>
     <t xml:space="preserve">47.8321647644043</t>
@@ -4436,31 +4436,31 @@
     <t xml:space="preserve">48.6909637451172</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8453521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2663879394531</t>
+    <t xml:space="preserve">48.8453559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2663917541504</t>
   </si>
   <si>
     <t xml:space="preserve">48.1312980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0830497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6645889282227</t>
+    <t xml:space="preserve">48.0830535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6645851135254</t>
   </si>
   <si>
     <t xml:space="preserve">46.6356391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.597038269043</t>
+    <t xml:space="preserve">46.5970420837402</t>
   </si>
   <si>
     <t xml:space="preserve">46.4426498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3172035217285</t>
+    <t xml:space="preserve">46.3172073364258</t>
   </si>
   <si>
     <t xml:space="preserve">45.8347358703613</t>
@@ -4469,7 +4469,7 @@
     <t xml:space="preserve">47.330394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5777435302734</t>
+    <t xml:space="preserve">46.5777397155762</t>
   </si>
   <si>
     <t xml:space="preserve">46.6259880065918</t>
@@ -4478,7 +4478,7 @@
     <t xml:space="preserve">45.7671890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7803802490234</t>
+    <t xml:space="preserve">46.7803764343262</t>
   </si>
   <si>
     <t xml:space="preserve">47.6391754150391</t>
@@ -4502,10 +4502,10 @@
     <t xml:space="preserve">45.9215812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1953048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4136962890625</t>
+    <t xml:space="preserve">47.1953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4137001037598</t>
   </si>
   <si>
     <t xml:space="preserve">47.7356719970703</t>
@@ -4514,16 +4514,16 @@
     <t xml:space="preserve">48.3821792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7646217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8839530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6330718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6559028625488</t>
+    <t xml:space="preserve">47.7646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8839492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6330680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">50.505054473877</t>
@@ -4532,22 +4532,22 @@
     <t xml:space="preserve">50.8331336975098</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0804824829102</t>
+    <t xml:space="preserve">50.0804786682129</t>
   </si>
   <si>
     <t xml:space="preserve">51.2770080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6243858337402</t>
+    <t xml:space="preserve">51.6243896484375</t>
   </si>
   <si>
     <t xml:space="preserve">53.0525016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5349731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0753402709961</t>
+    <t xml:space="preserve">53.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0753364562988</t>
   </si>
   <si>
     <t xml:space="preserve">54.2876243591309</t>
@@ -4556,13 +4556,13 @@
     <t xml:space="preserve">53.0910987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2490310668945</t>
+    <t xml:space="preserve">54.2490272521973</t>
   </si>
   <si>
     <t xml:space="preserve">54.5385131835938</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3069229125977</t>
+    <t xml:space="preserve">54.3069267272949</t>
   </si>
   <si>
     <t xml:space="preserve">54.4613151550293</t>
@@ -4571,22 +4571,22 @@
     <t xml:space="preserve">55.754337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3104667663574</t>
+    <t xml:space="preserve">55.3104629516602</t>
   </si>
   <si>
     <t xml:space="preserve">55.1946716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0595817565918</t>
+    <t xml:space="preserve">55.0595779418945</t>
   </si>
   <si>
     <t xml:space="preserve">56.4683952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6999816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4262542724609</t>
+    <t xml:space="preserve">56.6999778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4262580871582</t>
   </si>
   <si>
     <t xml:space="preserve">55.2525672912598</t>
@@ -4601,28 +4601,28 @@
     <t xml:space="preserve">54.2297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">54.7122001647949</t>
+    <t xml:space="preserve">54.7122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">55.1560745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1210174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6385459899902</t>
+    <t xml:space="preserve">56.1210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">55.6771430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6034889221191</t>
+    <t xml:space="preserve">56.6034851074219</t>
   </si>
   <si>
     <t xml:space="preserve">56.5648880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2175102233887</t>
+    <t xml:space="preserve">56.2175064086914</t>
   </si>
   <si>
     <t xml:space="preserve">55.6964416503906</t>
@@ -4634,7 +4634,7 @@
     <t xml:space="preserve">55.7736358642578</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6070289611816</t>
+    <t xml:space="preserve">57.6070251464844</t>
   </si>
   <si>
     <t xml:space="preserve">58.2438888549805</t>
@@ -4676,10 +4676,10 @@
     <t xml:space="preserve">57.5684280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8035545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.2667236328125</t>
+    <t xml:space="preserve">58.8035507202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.2667274475098</t>
   </si>
   <si>
     <t xml:space="preserve">59.4597129821777</t>
@@ -4691,37 +4691,37 @@
     <t xml:space="preserve">58.5719680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.2509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2316627502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3124046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4667930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9878616333008</t>
+    <t xml:space="preserve">60.2509689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.2316665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3124008178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3703002929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9878578186035</t>
   </si>
   <si>
     <t xml:space="preserve">61.0422172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">61.196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7720375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4738731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6282653808594</t>
+    <t xml:space="preserve">61.1966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4738693237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6282615661621</t>
   </si>
   <si>
     <t xml:space="preserve">62.373836517334</t>
@@ -4736,7 +4736,7 @@
     <t xml:space="preserve">64.5739059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8440856933594</t>
+    <t xml:space="preserve">64.8440933227539</t>
   </si>
   <si>
     <t xml:space="preserve">65.3072662353516</t>
@@ -4757,13 +4757,13 @@
     <t xml:space="preserve">66.1564025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9405899047852</t>
+    <t xml:space="preserve">64.9405822753906</t>
   </si>
   <si>
     <t xml:space="preserve">64.4195175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8791465759277</t>
+    <t xml:space="preserve">63.8791427612305</t>
   </si>
   <si>
     <t xml:space="preserve">63.3001823425293</t>
@@ -4778,13 +4778,13 @@
     <t xml:space="preserve">62.8949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">62.991397857666</t>
+    <t xml:space="preserve">62.9914016723633</t>
   </si>
   <si>
     <t xml:space="preserve">62.2387466430664</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1036529541016</t>
+    <t xml:space="preserve">62.1036567687988</t>
   </si>
   <si>
     <t xml:space="preserve">63.5374183654785</t>
@@ -5514,6 +5514,9 @@
   </si>
   <si>
     <t xml:space="preserve">59.1599998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5800018310547</t>
   </si>
 </sst>
 </file>
@@ -61807,7 +61810,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6495601852</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>776662</v>
@@ -61828,6 +61831,32 @@
         <v>1833</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6518518519</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>1202178</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>58.8199996948242</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>56.6800003051758</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>58.8199996948242</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>57.5800018310547</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="1841">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3273468017578</t>
+    <t xml:space="preserve">11.3273477554321</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">11.2181692123413</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0907926559448</t>
+    <t xml:space="preserve">11.0907936096191</t>
   </si>
   <si>
     <t xml:space="preserve">11.1453828811646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2363653182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4274301528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2280759811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8914403915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7367696762085</t>
+    <t xml:space="preserve">11.236367225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4274291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2280769348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8914394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7367706298828</t>
   </si>
   <si>
     <t xml:space="preserve">11.4092330932617</t>
@@ -74,37 +74,37 @@
     <t xml:space="preserve">11.8095560073853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.00062084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6639852523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0916032791138</t>
+    <t xml:space="preserve">12.0006198883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6639842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0916023254395</t>
   </si>
   <si>
     <t xml:space="preserve">12.3918466567993</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2735681533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4009447097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.373649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9915227890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3645515441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2189779281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1643877029419</t>
+    <t xml:space="preserve">12.2735691070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4009456634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3736505508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9915218353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3645505905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2189798355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1643886566162</t>
   </si>
   <si>
     <t xml:space="preserve">12.0279150009155</t>
@@ -122,49 +122,49 @@
     <t xml:space="preserve">11.2909545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.509313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1908750534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5548048019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9369325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1461925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6920881271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283212661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.546516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6829891204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0643091201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4737310409546</t>
+    <t xml:space="preserve">11.5093145370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1908760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5548057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9369316101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1461944580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6920890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5465173721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6829900741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0643072128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4737319946289</t>
   </si>
   <si>
     <t xml:space="preserve">13.0287256240845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2561817169189</t>
+    <t xml:space="preserve">13.2561807632446</t>
   </si>
   <si>
     <t xml:space="preserve">13.0560207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5109338760376</t>
+    <t xml:space="preserve">13.5109348297119</t>
   </si>
   <si>
     <t xml:space="preserve">13.7110948562622</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">14.2842864990234</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7565870285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9294557571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0204372406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6383075714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3380651473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3562641143799</t>
+    <t xml:space="preserve">13.7565879821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9294548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0204362869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6383085250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3380670547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3562622070312</t>
   </si>
   <si>
     <t xml:space="preserve">13.2834768295288</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">13.2379856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3926553726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8202753067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4199514389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.274377822876</t>
+    <t xml:space="preserve">13.3926563262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8202743530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4199495315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2743787765503</t>
   </si>
   <si>
     <t xml:space="preserve">13.2197885513306</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">12.8740539550781</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0833139419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1197080612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3289680480957</t>
+    <t xml:space="preserve">13.0833148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1197071075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.32896900177</t>
   </si>
   <si>
     <t xml:space="preserve">13.1651992797852</t>
@@ -242,28 +242,28 @@
     <t xml:space="preserve">13.5018358230591</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6928997039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.465443611145</t>
+    <t xml:space="preserve">13.6929006576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4654417037964</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741353988647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7921714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.883152961731</t>
+    <t xml:space="preserve">12.7921705245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8831510543823</t>
   </si>
   <si>
     <t xml:space="preserve">13.2652807235718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2925748825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6201114654541</t>
+    <t xml:space="preserve">13.2925729751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6201124191284</t>
   </si>
   <si>
     <t xml:space="preserve">14.2478933334351</t>
@@ -272,13 +272,13 @@
     <t xml:space="preserve">14.3752689361572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3115797042847</t>
+    <t xml:space="preserve">14.3115816116333</t>
   </si>
   <si>
     <t xml:space="preserve">14.2660913467407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476518630981</t>
+    <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
     <t xml:space="preserve">13.8748645782471</t>
@@ -287,127 +287,127 @@
     <t xml:space="preserve">13.6656036376953</t>
   </si>
   <si>
+    <t xml:space="preserve">13.6474075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8678216934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7484302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.573935508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7759828567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9045600891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7667980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8035335540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6657762527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.619854927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9780311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0423183441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0515031814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.601487159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545440673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0137119293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5096473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1514720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1249732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9872159957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1708946228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.547438621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2249422073364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5820655822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9861612319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4453601837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.289231300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9035053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1698398590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.261679649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2157602310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4729108810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.252495765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.243311882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0596323013306</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.647406578064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5280151367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8678226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7484302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5739345550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7759838104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9045600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7667989730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8035345077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6657752990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6198539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9780302047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0423192977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0515022277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6014890670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545431137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0137119293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5096473693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1514711380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1249742507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9872140884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1708955764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5474376678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2249441146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5820636749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.986159324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4453592300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2892303466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9035043716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1698389053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.261679649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2157592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4729108810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2433128356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0596323013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6474056243896</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.1433420181274</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4923334121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3821268081665</t>
+    <t xml:space="preserve">14.4923324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3821258544922</t>
   </si>
   <si>
     <t xml:space="preserve">14.6943817138672</t>
@@ -419,58 +419,58 @@
     <t xml:space="preserve">14.2719192504883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8127183914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9137420654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2443656921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3453903198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3362054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1617107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3637580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3086547851562</t>
+    <t xml:space="preserve">13.8127193450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.913743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.244366645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3453893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3362083435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1617116928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3637590408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3086538314819</t>
   </si>
   <si>
     <t xml:space="preserve">14.235182762146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0790538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3178386688232</t>
+    <t xml:space="preserve">14.0790557861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3178377151489</t>
   </si>
   <si>
     <t xml:space="preserve">14.0698699951172</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0055837631226</t>
+    <t xml:space="preserve">14.0055828094482</t>
   </si>
   <si>
     <t xml:space="preserve">13.8953742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8310880661011</t>
+    <t xml:space="preserve">13.8310871124268</t>
   </si>
   <si>
     <t xml:space="preserve">13.6565914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7208795547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8219032287598</t>
+    <t xml:space="preserve">13.7208786010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8219041824341</t>
   </si>
   <si>
     <t xml:space="preserve">14.0331344604492</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">13.8402709960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0147657394409</t>
+    <t xml:space="preserve">14.0147676467896</t>
   </si>
   <si>
     <t xml:space="preserve">14.2259979248047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9229278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3270225524902</t>
+    <t xml:space="preserve">13.922926902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3270235061646</t>
   </si>
   <si>
     <t xml:space="preserve">14.3913106918335</t>
@@ -503,19 +503,19 @@
     <t xml:space="preserve">13.950478553772</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0974225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7851657867432</t>
+    <t xml:space="preserve">14.0974235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">14.1525259017944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4188623428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2076301574707</t>
+    <t xml:space="preserve">14.4188613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.207631111145</t>
   </si>
   <si>
     <t xml:space="preserve">14.281102180481</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">14.1892623901367</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1066074371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9321117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7025117874146</t>
+    <t xml:space="preserve">14.1066055297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9321098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7025108337402</t>
   </si>
   <si>
     <t xml:space="preserve">13.6933269500732</t>
@@ -539,19 +539,19 @@
     <t xml:space="preserve">13.7943515777588</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6382236480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9412956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.62903881073</t>
+    <t xml:space="preserve">13.6382246017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9412937164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6290397644043</t>
   </si>
   <si>
     <t xml:space="preserve">14.0882387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1800785064697</t>
+    <t xml:space="preserve">14.180079460144</t>
   </si>
   <si>
     <t xml:space="preserve">14.3729419708252</t>
@@ -560,34 +560,34 @@
     <t xml:space="preserve">14.9790840148926</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9699010848999</t>
+    <t xml:space="preserve">14.9699001312256</t>
   </si>
   <si>
     <t xml:space="preserve">15.2546062469482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4382858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3831815719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2362365722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8780612945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0709257125854</t>
+    <t xml:space="preserve">15.4382848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3831825256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2362375259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.87806224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0709266662598</t>
   </si>
   <si>
     <t xml:space="preserve">15.1076622009277</t>
   </si>
   <si>
-    <t xml:space="preserve">15.208685874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1260280609131</t>
+    <t xml:space="preserve">15.2086839675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1260290145874</t>
   </si>
   <si>
     <t xml:space="preserve">14.9882688522339</t>
@@ -605,67 +605,67 @@
     <t xml:space="preserve">15.4291000366211</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3097066879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0433721542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0066385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2913427352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.787278175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8240127563477</t>
+    <t xml:space="preserve">15.3097095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0433702468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0066375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2913408279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7872762680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8240098953247</t>
   </si>
   <si>
     <t xml:space="preserve">16.0444278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0811653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.833194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1362705230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4577083587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5311794281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5679187774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5587310791016</t>
+    <t xml:space="preserve">16.0811634063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.833197593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.457706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.531177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5679168701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5587291717529</t>
   </si>
   <si>
     <t xml:space="preserve">16.6138362884521</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4760780334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3934230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3474979400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2740287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9893236160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2923927307129</t>
+    <t xml:space="preserve">16.4760761260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3934211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3475017547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2740249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9893255233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2923946380615</t>
   </si>
   <si>
     <t xml:space="preserve">16.3383178710938</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">16.3015804290771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2464771270752</t>
+    <t xml:space="preserve">16.2464752197266</t>
   </si>
   <si>
     <t xml:space="preserve">16.5403652191162</t>
   </si>
   <si>
-    <t xml:space="preserve">16.466890335083</t>
+    <t xml:space="preserve">16.4668922424316</t>
   </si>
   <si>
     <t xml:space="preserve">16.4117889404297</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">16.2556610107422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3291320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5495452880859</t>
+    <t xml:space="preserve">16.3291301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5495491027832</t>
   </si>
   <si>
     <t xml:space="preserve">17.4863147735596</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">17.6516246795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5506038665771</t>
+    <t xml:space="preserve">17.5506019592285</t>
   </si>
   <si>
     <t xml:space="preserve">17.688362121582</t>
@@ -713,28 +713,28 @@
     <t xml:space="preserve">17.72509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9087791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9638805389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.055721282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0006160736084</t>
+    <t xml:space="preserve">17.9087772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9638824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0557231903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.000617980957</t>
   </si>
   <si>
     <t xml:space="preserve">18.2577686309814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4138965606689</t>
+    <t xml:space="preserve">18.4138946533203</t>
   </si>
   <si>
     <t xml:space="preserve">18.5883941650391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2853202819824</t>
+    <t xml:space="preserve">18.2853221893311</t>
   </si>
   <si>
     <t xml:space="preserve">18.4690036773682</t>
@@ -743,31 +743,31 @@
     <t xml:space="preserve">18.4965515136719</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7353382110596</t>
+    <t xml:space="preserve">18.7353363037109</t>
   </si>
   <si>
     <t xml:space="preserve">18.6802310943604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8271770477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5792064666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6894187927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8547267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0384082794189</t>
+    <t xml:space="preserve">18.8271789550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5792102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6894149780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8547286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0384063720703</t>
   </si>
   <si>
     <t xml:space="preserve">19.3598480224609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6629199981689</t>
+    <t xml:space="preserve">19.6629180908203</t>
   </si>
   <si>
     <t xml:space="preserve">19.6721038818359</t>
@@ -779,25 +779,25 @@
     <t xml:space="preserve">19.920072555542</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0027294158936</t>
+    <t xml:space="preserve">20.0027275085449</t>
   </si>
   <si>
     <t xml:space="preserve">19.543529510498</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6445503234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7547588348389</t>
+    <t xml:space="preserve">19.644552230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7547607421875</t>
   </si>
   <si>
     <t xml:space="preserve">19.9751758575439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1404857635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.901704788208</t>
+    <t xml:space="preserve">20.1404876708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9017028808594</t>
   </si>
   <si>
     <t xml:space="preserve">20.0210933685303</t>
@@ -806,19 +806,19 @@
     <t xml:space="preserve">19.95680809021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6456031799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.893575668335</t>
+    <t xml:space="preserve">20.6456069946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8935737609863</t>
   </si>
   <si>
     <t xml:space="preserve">20.8109188079834</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1323585510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3068523406982</t>
+    <t xml:space="preserve">21.1323547363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3068561553955</t>
   </si>
   <si>
     <t xml:space="preserve">21.5915584564209</t>
@@ -827,40 +827,40 @@
     <t xml:space="preserve">20.9394931793213</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2323265075684</t>
+    <t xml:space="preserve">20.2323246002197</t>
   </si>
   <si>
     <t xml:space="preserve">20.4527416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3425331115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4343776702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3241672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4435577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8282318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9935417175293</t>
+    <t xml:space="preserve">20.3425350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4343738555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3241653442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4435615539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8282337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9935455322266</t>
   </si>
   <si>
     <t xml:space="preserve">20.0954093933105</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1694946289062</t>
+    <t xml:space="preserve">20.1694927215576</t>
   </si>
   <si>
     <t xml:space="preserve">20.0491046905518</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9287204742432</t>
+    <t xml:space="preserve">19.9287185668945</t>
   </si>
   <si>
     <t xml:space="preserve">20.4658317565918</t>
@@ -875,22 +875,22 @@
     <t xml:space="preserve">20.150972366333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.715726852417</t>
+    <t xml:space="preserve">19.7157249450684</t>
   </si>
   <si>
     <t xml:space="preserve">19.354564666748</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4379081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4008674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5119915008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.00266456604</t>
+    <t xml:space="preserve">19.4379100799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4008693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5119934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0026626586914</t>
   </si>
   <si>
     <t xml:space="preserve">19.2619590759277</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">19.5582962036133</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4749488830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7805519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6601638793945</t>
+    <t xml:space="preserve">19.4749507904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7805480957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6601619720459</t>
   </si>
   <si>
     <t xml:space="preserve">20.0583667755127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.650899887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860786437988</t>
+    <t xml:space="preserve">19.6509017944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860767364502</t>
   </si>
   <si>
     <t xml:space="preserve">19.5768165588379</t>
@@ -926,37 +926,37 @@
     <t xml:space="preserve">19.3730850219727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7896709442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9841423034668</t>
+    <t xml:space="preserve">18.7896728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9841442108154</t>
   </si>
   <si>
     <t xml:space="preserve">19.0582275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0211868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2341766357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1600952148438</t>
+    <t xml:space="preserve">19.0211849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2341785430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1600914001465</t>
   </si>
   <si>
     <t xml:space="preserve">19.030445098877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.53977394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7249889373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8175926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8453750610352</t>
+    <t xml:space="preserve">19.5397777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7249870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.817590713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8453731536865</t>
   </si>
   <si>
     <t xml:space="preserve">19.8916778564453</t>
@@ -977,28 +977,28 @@
     <t xml:space="preserve">20.9288597106934</t>
   </si>
   <si>
-    <t xml:space="preserve">21.021463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8177318572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7158679962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8547763824463</t>
+    <t xml:space="preserve">21.0214672088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8177337646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7158660888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.854772567749</t>
   </si>
   <si>
     <t xml:space="preserve">20.7899513244629</t>
   </si>
   <si>
-    <t xml:space="preserve">20.836254119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.86403465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8084735870361</t>
+    <t xml:space="preserve">20.8362522125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8640384674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8084697723389</t>
   </si>
   <si>
     <t xml:space="preserve">21.3178043365479</t>
@@ -1010,25 +1010,25 @@
     <t xml:space="preserve">22.0308685302734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8641777038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8271312713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9104804992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8549156188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7623081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6882266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3455829620361</t>
+    <t xml:space="preserve">21.8641738891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8271331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9104785919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8549137115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7623119354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6882247924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3455810546875</t>
   </si>
   <si>
     <t xml:space="preserve">21.7530498504639</t>
@@ -1046,46 +1046,46 @@
     <t xml:space="preserve">22.2901611328125</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4938945770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6605854034424</t>
+    <t xml:space="preserve">22.493896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6605834960938</t>
   </si>
   <si>
     <t xml:space="preserve">22.9384002685547</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8735771179199</t>
+    <t xml:space="preserve">22.8735790252686</t>
   </si>
   <si>
     <t xml:space="preserve">23.1050910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1236095428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0124855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7439289093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8920993804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7346687316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7161502838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7531890869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4568500518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.317943572998</t>
+    <t xml:space="preserve">23.1236114501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.012487411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7439270019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8920955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7346668243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7161464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7531909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4568519592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3179416656494</t>
   </si>
   <si>
     <t xml:space="preserve">22.5679779052734</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">22.6142826080322</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6420650482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3364639282227</t>
+    <t xml:space="preserve">22.6420631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.336462020874</t>
   </si>
   <si>
     <t xml:space="preserve">22.2438583374023</t>
@@ -1109,31 +1109,31 @@
     <t xml:space="preserve">22.6513233184814</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7809715270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5587158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7902317047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8550567626953</t>
+    <t xml:space="preserve">22.7809734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5587177276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7902297973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8550548553467</t>
   </si>
   <si>
     <t xml:space="preserve">22.9013576507568</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4846324920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9476623535156</t>
+    <t xml:space="preserve">22.4846343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.947660446167</t>
   </si>
   <si>
     <t xml:space="preserve">23.0680465698242</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8643169403076</t>
+    <t xml:space="preserve">22.864315032959</t>
   </si>
   <si>
     <t xml:space="preserve">22.6235427856445</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">22.5772380828857</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5031509399414</t>
+    <t xml:space="preserve">22.5031547546387</t>
   </si>
   <si>
     <t xml:space="preserve">22.4383277893066</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3457221984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2623805999756</t>
+    <t xml:space="preserve">22.345724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2623825073242</t>
   </si>
   <si>
     <t xml:space="preserve">21.1140689849854</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">21.5400543212891</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4844913482666</t>
+    <t xml:space="preserve">21.4844951629639</t>
   </si>
   <si>
     <t xml:space="preserve">21.1418533325195</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">21.2437171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1233291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5770969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5678386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141395568848</t>
+    <t xml:space="preserve">21.1233310699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5678367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141414642334</t>
   </si>
   <si>
     <t xml:space="preserve">21.299280166626</t>
@@ -1190,43 +1190,43 @@
     <t xml:space="preserve">21.2714996337891</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3548431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9197406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.901216506958</t>
+    <t xml:space="preserve">21.3548450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9197387695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9012184143066</t>
   </si>
   <si>
     <t xml:space="preserve">22.4475879669189</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9754428863525</t>
+    <t xml:space="preserve">22.9754409790039</t>
   </si>
   <si>
     <t xml:space="preserve">23.0217456817627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4014282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8272724151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3458652496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4199504852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3273429870605</t>
+    <t xml:space="preserve">23.4014301300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8272705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3458614349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4199485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3273448944092</t>
   </si>
   <si>
     <t xml:space="preserve">23.6144218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7811107635498</t>
+    <t xml:space="preserve">23.7811126708984</t>
   </si>
   <si>
     <t xml:space="preserve">24.1885757446289</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">24.4478702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1515312194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8922348022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7070274353027</t>
+    <t xml:space="preserve">24.1515331268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8922386169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7070255279541</t>
   </si>
   <si>
     <t xml:space="preserve">24.1700553894043</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">24.0218868255615</t>
   </si>
   <si>
-    <t xml:space="preserve">24.077449798584</t>
+    <t xml:space="preserve">24.0774478912354</t>
   </si>
   <si>
     <t xml:space="preserve">23.7255477905273</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">23.3366050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2995624542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5588569641113</t>
+    <t xml:space="preserve">23.299560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.55885887146</t>
   </si>
   <si>
     <t xml:space="preserve">24.3552627563477</t>
@@ -1271,55 +1271,55 @@
     <t xml:space="preserve">24.8923778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0405464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7997760772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9294204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0590648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0775871276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8368129730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6608619689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5775165557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.762731552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959701538086</t>
+    <t xml:space="preserve">25.040548324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7997722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9294185638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0590667724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0775890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8368148803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6608638763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5775184631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7627296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.09596824646</t>
   </si>
   <si>
     <t xml:space="preserve">23.9941024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9109001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8181533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5867786407471</t>
+    <t xml:space="preserve">24.9108982086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.818151473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5867767333984</t>
   </si>
   <si>
     <t xml:space="preserve">25.216495513916</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2536811828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3462867736816</t>
+    <t xml:space="preserve">26.25368309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.346284866333</t>
   </si>
   <si>
     <t xml:space="preserve">26.0036449432373</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">26.0406875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9666042327881</t>
+    <t xml:space="preserve">25.9666023254395</t>
   </si>
   <si>
     <t xml:space="preserve">26.2166385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7259693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5777969360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8925170898438</t>
+    <t xml:space="preserve">26.7259674072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5778007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8925189971924</t>
   </si>
   <si>
     <t xml:space="preserve">25.8369541168213</t>
@@ -1355,55 +1355,55 @@
     <t xml:space="preserve">26.2814617156982</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1518135070801</t>
+    <t xml:space="preserve">26.1518154144287</t>
   </si>
   <si>
     <t xml:space="preserve">26.8093147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0037841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1056518554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2723426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0871295928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4205093383789</t>
+    <t xml:space="preserve">27.0037860870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1056499481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2723407745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0871276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4205112457275</t>
   </si>
   <si>
     <t xml:space="preserve">27.3556861877441</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5686779022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0872669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5780811309814</t>
+    <t xml:space="preserve">27.5686798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0872707366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5780792236328</t>
   </si>
   <si>
     <t xml:space="preserve">28.1983966827393</t>
   </si>
   <si>
-    <t xml:space="preserve">28.346565246582</t>
+    <t xml:space="preserve">28.3465633392334</t>
   </si>
   <si>
     <t xml:space="preserve">28.3002624511719</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5502948760986</t>
+    <t xml:space="preserve">28.5502967834473</t>
   </si>
   <si>
     <t xml:space="preserve">28.6151218414307</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4394493103027</t>
+    <t xml:space="preserve">30.439453125</t>
   </si>
   <si>
     <t xml:space="preserve">30.0968112945557</t>
@@ -1412,34 +1412,34 @@
     <t xml:space="preserve">30.4857521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8376579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9209995269775</t>
+    <t xml:space="preserve">30.8376541137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9210033416748</t>
   </si>
   <si>
     <t xml:space="preserve">30.5876197814941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2543811798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5229377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1710338592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9118824005127</t>
+    <t xml:space="preserve">31.2543792724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5229358673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1710357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9118747711182</t>
   </si>
   <si>
     <t xml:space="preserve">32.624942779541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4304733276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7453308105469</t>
+    <t xml:space="preserve">32.4304695129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7453346252441</t>
   </si>
   <si>
     <t xml:space="preserve">32.6434631347656</t>
@@ -1454,34 +1454,34 @@
     <t xml:space="preserve">33.7084312438965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2177619934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6715240478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1901206970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8010368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0324020385742</t>
+    <t xml:space="preserve">34.2177581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6715202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.190113067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8010330200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0324096679688</t>
   </si>
   <si>
     <t xml:space="preserve">33.7825126647949</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8288154602051</t>
+    <t xml:space="preserve">33.8288116455078</t>
   </si>
   <si>
     <t xml:space="preserve">34.0695915222168</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4492683410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8474731445312</t>
+    <t xml:space="preserve">34.449275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8474769592285</t>
   </si>
   <si>
     <t xml:space="preserve">34.8659973144531</t>
@@ -1493,73 +1493,73 @@
     <t xml:space="preserve">36.032829284668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4865951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2440986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2554512023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.490650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2834281921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6171646118164</t>
+    <t xml:space="preserve">36.4866027832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2440948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2554550170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4906463623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2834358215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6171722412109</t>
   </si>
   <si>
     <t xml:space="preserve">36.8223609924316</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6565055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9549674987793</t>
+    <t xml:space="preserve">35.6565093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.954963684082</t>
   </si>
   <si>
     <t xml:space="preserve">36.6264953613281</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6544799804688</t>
+    <t xml:space="preserve">36.6544761657715</t>
   </si>
   <si>
     <t xml:space="preserve">37.1581268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5571556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1374435424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0741844177246</t>
+    <t xml:space="preserve">38.5571517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1374473571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0741882324219</t>
   </si>
   <si>
     <t xml:space="preserve">38.1187934875488</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4452323913574</t>
+    <t xml:space="preserve">38.4452362060547</t>
   </si>
   <si>
     <t xml:space="preserve">38.7623443603516</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3406066894531</t>
+    <t xml:space="preserve">39.3406105041504</t>
   </si>
   <si>
     <t xml:space="preserve">39.228687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6784019470215</t>
+    <t xml:space="preserve">38.6784057617188</t>
   </si>
   <si>
     <t xml:space="preserve">37.4845657348633</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1674499511719</t>
+    <t xml:space="preserve">37.1674537658691</t>
   </si>
   <si>
     <t xml:space="preserve">37.102165222168</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">36.2161178588867</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1974639892578</t>
+    <t xml:space="preserve">36.1974601745605</t>
   </si>
   <si>
     <t xml:space="preserve">36.3187103271484</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8990020751953</t>
+    <t xml:space="preserve">35.8990058898926</t>
   </si>
   <si>
     <t xml:space="preserve">36.3746719360352</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">36.1508255004883</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3020858764648</t>
+    <t xml:space="preserve">35.3020896911621</t>
   </si>
   <si>
     <t xml:space="preserve">34.723819732666</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">34.5093040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0689125061035</t>
+    <t xml:space="preserve">35.0689163208008</t>
   </si>
   <si>
     <t xml:space="preserve">35.852367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9569931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6285247802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4026527404785</t>
+    <t xml:space="preserve">34.9569969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6285285949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4026565551758</t>
   </si>
   <si>
     <t xml:space="preserve">35.9176559448242</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">36.1881332397461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0389099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9809150695801</t>
+    <t xml:space="preserve">36.0389060974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9809188842773</t>
   </si>
   <si>
     <t xml:space="preserve">35.6751594543457</t>
@@ -1634,40 +1634,40 @@
     <t xml:space="preserve">35.4792976379395</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5745887756348</t>
+    <t xml:space="preserve">34.574592590332</t>
   </si>
   <si>
     <t xml:space="preserve">35.1808395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9756507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1735420227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0409355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1528587341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3207397460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5166091918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4046783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7891120910645</t>
+    <t xml:space="preserve">34.9756469726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1735382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0409393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1528549194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3207359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5166053771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4046821594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7891082763672</t>
   </si>
   <si>
     <t xml:space="preserve">35.6098747253418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2647857666016</t>
+    <t xml:space="preserve">35.2647819519043</t>
   </si>
   <si>
     <t xml:space="preserve">35.5818939208984</t>
@@ -1679,10 +1679,10 @@
     <t xml:space="preserve">37.0368804931641</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9715881347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1394729614258</t>
+    <t xml:space="preserve">36.9715957641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.139476776123</t>
   </si>
   <si>
     <t xml:space="preserve">36.3373641967773</t>
@@ -1697,40 +1697,40 @@
     <t xml:space="preserve">34.6025733947754</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0595932006836</t>
+    <t xml:space="preserve">35.0595893859863</t>
   </si>
   <si>
     <t xml:space="preserve">35.115550994873</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0782470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5725593566895</t>
+    <t xml:space="preserve">35.0782432556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.572566986084</t>
   </si>
   <si>
     <t xml:space="preserve">34.7518005371094</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3953552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1994895935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3766975402832</t>
+    <t xml:space="preserve">35.3953590393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1994934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3767013549805</t>
   </si>
   <si>
     <t xml:space="preserve">35.2927589416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8543968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1901588439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4513168334961</t>
+    <t xml:space="preserve">34.8543930053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1901626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4513130187988</t>
   </si>
   <si>
     <t xml:space="preserve">36.0202522277832</t>
@@ -1745,25 +1745,25 @@
     <t xml:space="preserve">32.5506744384766</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1942253112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5940608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.174352645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8385848999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2789764404297</t>
+    <t xml:space="preserve">33.1942176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5940628051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1743545532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8385887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2789783477783</t>
   </si>
   <si>
     <t xml:space="preserve">28.9038753509521</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0437793731689</t>
+    <t xml:space="preserve">29.0437755584717</t>
   </si>
   <si>
     <t xml:space="preserve">29.099739074707</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">27.2623519897461</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8872470855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5401268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1950359344482</t>
+    <t xml:space="preserve">27.8872509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5401287078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1950340270996</t>
   </si>
   <si>
     <t xml:space="preserve">27.7939796447754</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">28.6333961486816</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7266635894775</t>
+    <t xml:space="preserve">28.7266616821289</t>
   </si>
   <si>
     <t xml:space="preserve">30.2189598083496</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8552112579346</t>
+    <t xml:space="preserve">29.8552131652832</t>
   </si>
   <si>
     <t xml:space="preserve">29.631368637085</t>
@@ -1811,10 +1811,10 @@
     <t xml:space="preserve">29.789924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3422336578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.073787689209</t>
+    <t xml:space="preserve">29.3422355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0737857818604</t>
   </si>
   <si>
     <t xml:space="preserve">29.6966571807861</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">26.8612957000732</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4582138061523</t>
+    <t xml:space="preserve">27.458215713501</t>
   </si>
   <si>
     <t xml:space="preserve">27.4209079742432</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0551319122314</t>
+    <t xml:space="preserve">28.0551338195801</t>
   </si>
   <si>
     <t xml:space="preserve">27.8219623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3369636535645</t>
+    <t xml:space="preserve">27.3369655609131</t>
   </si>
   <si>
     <t xml:space="preserve">27.5235042572021</t>
@@ -1853,19 +1853,19 @@
     <t xml:space="preserve">26.842643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375305175781</t>
+    <t xml:space="preserve">28.4375324249268</t>
   </si>
   <si>
     <t xml:space="preserve">27.3742752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9245586395264</t>
+    <t xml:space="preserve">27.9245567321777</t>
   </si>
   <si>
     <t xml:space="preserve">27.1131210327148</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4675445556641</t>
+    <t xml:space="preserve">27.4675426483154</t>
   </si>
   <si>
     <t xml:space="preserve">26.0591888427734</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">25.9006328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5441856384277</t>
+    <t xml:space="preserve">26.5441818237305</t>
   </si>
   <si>
     <t xml:space="preserve">26.2457256317139</t>
@@ -1883,16 +1883,16 @@
     <t xml:space="preserve">25.695442199707</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2011203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7420768737793</t>
+    <t xml:space="preserve">25.2011184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7420749664307</t>
   </si>
   <si>
     <t xml:space="preserve">26.2830333709717</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7140960693359</t>
+    <t xml:space="preserve">25.7140941619873</t>
   </si>
   <si>
     <t xml:space="preserve">25.9192886352539</t>
@@ -1913,25 +1913,25 @@
     <t xml:space="preserve">27.0664882659912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8033084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5681095123291</t>
+    <t xml:space="preserve">27.8033065795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5681076049805</t>
   </si>
   <si>
     <t xml:space="preserve">29.2489681243896</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7826290130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6727294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6447525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9525356292725</t>
+    <t xml:space="preserve">28.7826271057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6727313995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6447505950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9525375366211</t>
   </si>
   <si>
     <t xml:space="preserve">28.0271511077881</t>
@@ -1946,64 +1946,64 @@
     <t xml:space="preserve">27.9991722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5867614746094</t>
+    <t xml:space="preserve">28.586763381958</t>
   </si>
   <si>
     <t xml:space="preserve">28.5121459960938</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8758964538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920333862305</t>
+    <t xml:space="preserve">28.8758926391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920314788818</t>
   </si>
   <si>
     <t xml:space="preserve">30.6853046417236</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2915477752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967403411865</t>
+    <t xml:space="preserve">31.2915458679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967384338379</t>
   </si>
   <si>
     <t xml:space="preserve">31.9071178436279</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1329917907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3381767272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6366348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.420093536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6346130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.317497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0376930236816</t>
+    <t xml:space="preserve">31.1329898834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3381805419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6366329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4200973510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6346168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3175010681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0376892089844</t>
   </si>
   <si>
     <t xml:space="preserve">32.5320167541504</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4947052001953</t>
+    <t xml:space="preserve">32.4947090148926</t>
   </si>
   <si>
     <t xml:space="preserve">32.3734588623047</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3641357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1869163513184</t>
+    <t xml:space="preserve">32.3641319274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1869201660156</t>
   </si>
   <si>
     <t xml:space="preserve">32.6905708312988</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">32.6252822875977</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4500999450684</t>
+    <t xml:space="preserve">31.450101852417</t>
   </si>
   <si>
     <t xml:space="preserve">34.929012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5559387207031</t>
+    <t xml:space="preserve">34.5559349060059</t>
   </si>
   <si>
     <t xml:space="preserve">33.6698875427246</t>
@@ -2042,19 +2042,19 @@
     <t xml:space="preserve">33.6605606079102</t>
   </si>
   <si>
-    <t xml:space="preserve">33.753833770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.285457611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9496917724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9610443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4574012756348</t>
+    <t xml:space="preserve">33.7538299560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2854614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9496994018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9610481262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4573974609375</t>
   </si>
   <si>
     <t xml:space="preserve">33.1755676269531</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">34.2668075561523</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3694038391113</t>
+    <t xml:space="preserve">34.3693962097168</t>
   </si>
   <si>
     <t xml:space="preserve">34.9010314941406</t>
@@ -2087,19 +2087,19 @@
     <t xml:space="preserve">33.9683456420898</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0429611206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8471031188965</t>
+    <t xml:space="preserve">34.0429649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8470993041992</t>
   </si>
   <si>
     <t xml:space="preserve">34.1828689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8657531738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0616149902344</t>
+    <t xml:space="preserve">33.8657608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0616188049316</t>
   </si>
   <si>
     <t xml:space="preserve">34.6398811340332</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">34.4440155029297</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8097915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0989265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1082496643066</t>
+    <t xml:space="preserve">33.8097953796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0989227294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1082534790039</t>
   </si>
   <si>
     <t xml:space="preserve">33.987003326416</t>
@@ -2132,241 +2132,241 @@
     <t xml:space="preserve">33.138256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2015151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6719131469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4273910522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8584518432617</t>
+    <t xml:space="preserve">34.2015190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6719169616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4273948669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8584594726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2968215942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3064002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6082420349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5797920227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5799446105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9855461120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.013843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5044822692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4857711791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3159847259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1273365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2499618530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8253440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5422172546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7308616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3818626403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8440551757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4573211669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5327796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0610008239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3911399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4098510742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5324745178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4945945739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2870788574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.192756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.551342010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2778015136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0324020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4662971496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8435935974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7681350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3152236938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4189834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3246574401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3340873718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0794105529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1548728942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8907585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2963600158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8341674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9284934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0228157043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0416793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4661483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4472770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.739688873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8057136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7774200439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4757308959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0606956481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2023391723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1743431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1460494995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5516471862793</t>
   </si>
   <si>
     <t xml:space="preserve">33.2968139648438</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3064041137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6082420349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5797920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.579948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9855461120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0138397216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5044822692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4857730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3159885406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1273365020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2499599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8253440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5422172546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7308654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3818626403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8440551757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4573249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5327835083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0610008239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3911476135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.409854888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5324821472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4945907592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2870788574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.192756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.551342010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2777976989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0324020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4662933349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8436012268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7681350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3152236938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4189834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3246536254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3340873718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0794105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1548767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8907585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2963638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8341674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9284934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.022819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0416793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4661445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4472808837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.739688873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8057174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7774200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4757347106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0606956481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2023391723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1743469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1460494995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.551643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.296817779541</t>
-  </si>
-  <si>
     <t xml:space="preserve">33.1458930969238</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0798683166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2120819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9385356903076</t>
+    <t xml:space="preserve">33.0798721313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2120742797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9385299682617</t>
   </si>
   <si>
     <t xml:space="preserve">32.4761848449707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.41015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4477386474609</t>
+    <t xml:space="preserve">32.4101600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4477348327637</t>
   </si>
   <si>
     <t xml:space="preserve">32.4667510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2686729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0705833435059</t>
+    <t xml:space="preserve">32.268669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0705871582031</t>
   </si>
   <si>
     <t xml:space="preserve">32.013988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1554794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3629989624023</t>
+    <t xml:space="preserve">32.1554832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3629951477051</t>
   </si>
   <si>
     <t xml:space="preserve">33.0704345703125</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8250389099121</t>
+    <t xml:space="preserve">33.8250350952148</t>
   </si>
   <si>
     <t xml:space="preserve">33.919361114502</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4760360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2779502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3628425598145</t>
+    <t xml:space="preserve">33.4760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2779541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3628387451172</t>
   </si>
   <si>
     <t xml:space="preserve">33.3817100524902</t>
@@ -2384,55 +2384,55 @@
     <t xml:space="preserve">29.9388370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6274108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7688999176025</t>
+    <t xml:space="preserve">30.6274127960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7688980102539</t>
   </si>
   <si>
     <t xml:space="preserve">30.2784061431885</t>
   </si>
   <si>
-    <t xml:space="preserve">30.401029586792</t>
+    <t xml:space="preserve">30.4010314941406</t>
   </si>
   <si>
     <t xml:space="preserve">30.3161373138428</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5236568450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0235786437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8443622589111</t>
+    <t xml:space="preserve">30.5236530303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0235748291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8443603515625</t>
   </si>
   <si>
     <t xml:space="preserve">30.504789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7973499298096</t>
+    <t xml:space="preserve">29.7973480224609</t>
   </si>
   <si>
     <t xml:space="preserve">30.287841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6934413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8820896148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7311706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3065547943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9008007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5233459472656</t>
+    <t xml:space="preserve">30.6934375762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8820934295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7311725616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3065528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9007987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5233497619629</t>
   </si>
   <si>
     <t xml:space="preserve">32.2592391967773</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">32.1366119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7310180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4197425842285</t>
+    <t xml:space="preserve">31.731014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4197444915771</t>
   </si>
   <si>
     <t xml:space="preserve">30.3444328308105</t>
@@ -2459,67 +2459,67 @@
     <t xml:space="preserve">30.3633003234863</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6462783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1174468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4854698181152</t>
+    <t xml:space="preserve">30.646276473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1174430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.485466003418</t>
   </si>
   <si>
     <t xml:space="preserve">32.7120018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1741943359375</t>
+    <t xml:space="preserve">33.1741905212402</t>
   </si>
   <si>
     <t xml:space="preserve">33.2873840332031</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0421333312988</t>
+    <t xml:space="preserve">33.0421371459961</t>
   </si>
   <si>
     <t xml:space="preserve">35.0041046142578</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5040245056152</t>
+    <t xml:space="preserve">35.5040283203125</t>
   </si>
   <si>
     <t xml:space="preserve">35.088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8626136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.777717590332</t>
+    <t xml:space="preserve">34.8626174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7777214050293</t>
   </si>
   <si>
     <t xml:space="preserve">34.3721237182617</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4853172302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7494277954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9946708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6077842712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3059425354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8623123168945</t>
+    <t xml:space="preserve">34.4853096008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7494239807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9946670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6077880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3059463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8623161315918</t>
   </si>
   <si>
     <t xml:space="preserve">36.9660682678223</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8621559143066</t>
+    <t xml:space="preserve">37.8621597290039</t>
   </si>
   <si>
     <t xml:space="preserve">37.5131568908691</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">36.5887680053711</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4850120544434</t>
+    <t xml:space="preserve">36.4850082397461</t>
   </si>
   <si>
     <t xml:space="preserve">36.6264991760254</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">39.8052597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">39.418529510498</t>
+    <t xml:space="preserve">39.4185256958008</t>
   </si>
   <si>
     <t xml:space="preserve">39.7014999389648</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">38.9563293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6733551025391</t>
+    <t xml:space="preserve">38.6733589172363</t>
   </si>
   <si>
     <t xml:space="preserve">38.5790328979492</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">37.8810234069824</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0319442749023</t>
+    <t xml:space="preserve">38.0319404602051</t>
   </si>
   <si>
     <t xml:space="preserve">38.5695953369141</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4752769470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.324348449707</t>
+    <t xml:space="preserve">38.4752731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3243560791016</t>
   </si>
   <si>
     <t xml:space="preserve">37.7961311340332</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2866287231445</t>
+    <t xml:space="preserve">38.2866249084473</t>
   </si>
   <si>
     <t xml:space="preserve">37.8149948120117</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">37.9847831726074</t>
   </si>
   <si>
-    <t xml:space="preserve">38.824275970459</t>
+    <t xml:space="preserve">38.8242797851562</t>
   </si>
   <si>
     <t xml:space="preserve">38.8054084777832</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">38.3998107910156</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4847030639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2298736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2957534790039</t>
+    <t xml:space="preserve">38.4847068786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2298698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2957496643066</t>
   </si>
   <si>
     <t xml:space="preserve">40.2580223083496</t>
@@ -2612,64 +2612,64 @@
     <t xml:space="preserve">40.2768859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0034942626953</t>
+    <t xml:space="preserve">39.003490447998</t>
   </si>
   <si>
     <t xml:space="preserve">38.1357002258301</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1355476379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0508041381836</t>
+    <t xml:space="preserve">39.1355514526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0508117675781</t>
   </si>
   <si>
     <t xml:space="preserve">38.248893737793</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6548004150391</t>
+    <t xml:space="preserve">36.6547966003418</t>
   </si>
   <si>
     <t xml:space="preserve">38.0791053771973</t>
   </si>
   <si>
-    <t xml:space="preserve">37.315071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7868461608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1924476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6923675537109</t>
+    <t xml:space="preserve">37.3150749206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7868499755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1924514770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6923713684082</t>
   </si>
   <si>
     <t xml:space="preserve">38.1168365478516</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3433723449707</t>
+    <t xml:space="preserve">37.3433685302734</t>
   </si>
   <si>
     <t xml:space="preserve">36.5133056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4754295349121</t>
+    <t xml:space="preserve">37.4754219055176</t>
   </si>
   <si>
     <t xml:space="preserve">36.4567108154297</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0792617797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9379272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0888442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8245811462402</t>
+    <t xml:space="preserve">37.0792579650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9379234313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0888404846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8245849609375</t>
   </si>
   <si>
     <t xml:space="preserve">35.0418357849121</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">33.6741180419922</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2590866088867</t>
+    <t xml:space="preserve">33.2590827941895</t>
   </si>
   <si>
     <t xml:space="preserve">33.2213554382324</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8064746856689</t>
+    <t xml:space="preserve">31.8064785003662</t>
   </si>
   <si>
     <t xml:space="preserve">28.7880687713623</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">25.4866847991943</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6090030670166</t>
+    <t xml:space="preserve">27.6090049743652</t>
   </si>
   <si>
     <t xml:space="preserve">26.9770240783691</t>
@@ -2735,43 +2735,43 @@
     <t xml:space="preserve">32.4478912353516</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4008808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5519504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1840839385986</t>
+    <t xml:space="preserve">31.40087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5519523620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.18408203125</t>
   </si>
   <si>
     <t xml:space="preserve">29.3351554870605</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3631477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7877616882324</t>
+    <t xml:space="preserve">31.3631496429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7877655029297</t>
   </si>
   <si>
     <t xml:space="preserve">30.9858455657959</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7876129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.32541847229</t>
+    <t xml:space="preserve">31.7876110076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3254203796387</t>
   </si>
   <si>
     <t xml:space="preserve">32.5610771179199</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2496490478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.589527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2688255310059</t>
+    <t xml:space="preserve">33.2496528625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5895290374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2688236236572</t>
   </si>
   <si>
     <t xml:space="preserve">32.221508026123</t>
@@ -2780,10 +2780,10 @@
     <t xml:space="preserve">32.4950523376465</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9575481414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4669075012207</t>
+    <t xml:space="preserve">30.9575519561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4669036865234</t>
   </si>
   <si>
     <t xml:space="preserve">30.5896835327148</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">30.9198188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4576263427734</t>
+    <t xml:space="preserve">30.4576282501221</t>
   </si>
   <si>
     <t xml:space="preserve">30.9103870391846</t>
   </si>
   <si>
-    <t xml:space="preserve">30.080322265625</t>
+    <t xml:space="preserve">30.0803241729736</t>
   </si>
   <si>
     <t xml:space="preserve">29.3540210723877</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">29.2691268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4104652404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5425186157227</t>
+    <t xml:space="preserve">30.4104633331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5425205230713</t>
   </si>
   <si>
     <t xml:space="preserve">29.4577789306641</t>
@@ -2831,31 +2831,31 @@
     <t xml:space="preserve">31.5517997741699</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7781753540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.61767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7591667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7404479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0894546508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9479656219482</t>
+    <t xml:space="preserve">31.7781791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6176795959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7591590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7404499053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0894584655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9479637145996</t>
   </si>
   <si>
     <t xml:space="preserve">32.6931343078613</t>
   </si>
   <si>
-    <t xml:space="preserve">33.230785369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5043296813965</t>
+    <t xml:space="preserve">33.2307891845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5043334960938</t>
   </si>
   <si>
     <t xml:space="preserve">33.8061752319336</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">32.8157615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4384574890137</t>
+    <t xml:space="preserve">32.4384536743164</t>
   </si>
   <si>
     <t xml:space="preserve">32.8534889221191</t>
@@ -2873,31 +2873,31 @@
     <t xml:space="preserve">32.1083183288574</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3158302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6742706298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9668273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6837005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2026405334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0611572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3442802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7687530517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6838531494141</t>
+    <t xml:space="preserve">32.3158340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6742668151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9668312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6837043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2026443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0611534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3442821502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7687492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6838550567627</t>
   </si>
   <si>
     <t xml:space="preserve">31.7121486663818</t>
@@ -2906,85 +2906,85 @@
     <t xml:space="preserve">31.2876873016357</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7500343322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7783317565918</t>
+    <t xml:space="preserve">30.7500324249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7783336639404</t>
   </si>
   <si>
     <t xml:space="preserve">30.0897579193115</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2501106262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.155782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.580099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0141448974609</t>
+    <t xml:space="preserve">30.2501087188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1557846069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5800971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0141468048096</t>
   </si>
   <si>
     <t xml:space="preserve">30.7594680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2029476165771</t>
+    <t xml:space="preserve">30.2029495239258</t>
   </si>
   <si>
     <t xml:space="preserve">30.2218132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5330829620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6840057373047</t>
+    <t xml:space="preserve">30.5330848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6840038299561</t>
   </si>
   <si>
     <t xml:space="preserve">31.2782554626465</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5613842010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6368427276611</t>
+    <t xml:space="preserve">30.5613822937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6368446350098</t>
   </si>
   <si>
     <t xml:space="preserve">31.8536434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">32.513916015625</t>
+    <t xml:space="preserve">32.5139198303223</t>
   </si>
   <si>
     <t xml:space="preserve">32.910083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2119255065918</t>
+    <t xml:space="preserve">33.2119216918945</t>
   </si>
   <si>
     <t xml:space="preserve">34.6550979614258</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7775688171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1078605651855</t>
+    <t xml:space="preserve">35.7775726318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1078643798828</t>
   </si>
   <si>
     <t xml:space="preserve">34.4287185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2024917602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7685928344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1836242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9949760437012</t>
+    <t xml:space="preserve">33.2024955749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7685966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1836280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9949722290039</t>
   </si>
   <si>
     <t xml:space="preserve">33.589225769043</t>
@@ -2996,13 +2996,13 @@
     <t xml:space="preserve">34.3626899719238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.617374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9759559631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3249588012695</t>
+    <t xml:space="preserve">34.6173706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.975959777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3249626159668</t>
   </si>
   <si>
     <t xml:space="preserve">34.702262878418</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">34.7116966247559</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7398376464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1833229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7302513122559</t>
+    <t xml:space="preserve">35.7398414611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1833190917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7302551269531</t>
   </si>
   <si>
     <t xml:space="preserve">34.9003448486328</t>
@@ -3032,13 +3032,13 @@
     <t xml:space="preserve">32.9195175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1270294189453</t>
+    <t xml:space="preserve">33.1270332336426</t>
   </si>
   <si>
     <t xml:space="preserve">33.9570922851562</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3060989379883</t>
+    <t xml:space="preserve">34.306095123291</t>
   </si>
   <si>
     <t xml:space="preserve">35.6738128662109</t>
@@ -3047,10 +3047,10 @@
     <t xml:space="preserve">35.419132232666</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4282646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4565582275391</t>
+    <t xml:space="preserve">37.4282608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4565620422363</t>
   </si>
   <si>
     <t xml:space="preserve">38.1922988891602</t>
@@ -3059,46 +3059,46 @@
     <t xml:space="preserve">37.4376945495605</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5508880615234</t>
+    <t xml:space="preserve">37.5508842468262</t>
   </si>
   <si>
     <t xml:space="preserve">38.7488212585449</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7299537658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4658432006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2960548400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3241958618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5883102416992</t>
+    <t xml:space="preserve">38.7299499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4658355712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2960586547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3241996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5883140563965</t>
   </si>
   <si>
     <t xml:space="preserve">39.5222854614258</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1072540283203</t>
+    <t xml:space="preserve">39.1072463989258</t>
   </si>
   <si>
     <t xml:space="preserve">38.6827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7582473754883</t>
+    <t xml:space="preserve">38.7582511901855</t>
   </si>
   <si>
     <t xml:space="preserve">39.3430633544922</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1731300354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7485122680664</t>
+    <t xml:space="preserve">40.1731262207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7485160827637</t>
   </si>
   <si>
     <t xml:space="preserve">41.5031127929688</t>
@@ -3107,25 +3107,25 @@
     <t xml:space="preserve">42.3520431518555</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9650077819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8235168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8799591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1629371643066</t>
+    <t xml:space="preserve">43.9650039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8235130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8799629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1629333496094</t>
   </si>
   <si>
     <t xml:space="preserve">46.0307235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9458351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2193756103516</t>
+    <t xml:space="preserve">45.9458312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2193794250488</t>
   </si>
   <si>
     <t xml:space="preserve">45.7477493286133</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">44.8610954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6345634460449</t>
+    <t xml:space="preserve">45.6345596313477</t>
   </si>
   <si>
     <t xml:space="preserve">45.4742050170898</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">46.9079513549805</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4456100463867</t>
+    <t xml:space="preserve">47.4456024169922</t>
   </si>
   <si>
     <t xml:space="preserve">47.2946815490723</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">47.1626281738281</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8609390258789</t>
+    <t xml:space="preserve">45.8609352111816</t>
   </si>
   <si>
     <t xml:space="preserve">45.8798065185547</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3327217102051</t>
+    <t xml:space="preserve">45.3327178955078</t>
   </si>
   <si>
     <t xml:space="preserve">45.276123046875</t>
@@ -3173,34 +3173,34 @@
     <t xml:space="preserve">45.4176139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0686073303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6630058288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6817207336426</t>
+    <t xml:space="preserve">45.068603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6630096435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6817245483398</t>
   </si>
   <si>
     <t xml:space="preserve">44.9459838867188</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9081039428711</t>
+    <t xml:space="preserve">45.9081001281738</t>
   </si>
   <si>
     <t xml:space="preserve">46.7758979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6535758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5781135559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3610191345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7667694091797</t>
+    <t xml:space="preserve">44.6535797119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5781173706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3610153198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7667655944824</t>
   </si>
   <si>
     <t xml:space="preserve">45.2006607055664</t>
@@ -3209,13 +3209,13 @@
     <t xml:space="preserve">45.2100944519043</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1814918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.954963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6529655456543</t>
+    <t xml:space="preserve">47.1814956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9549598693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
     <t xml:space="preserve">49.1623268127441</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">48.3322639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2377853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8793487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7663116455078</t>
+    <t xml:space="preserve">49.2377891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8793449401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7663078308105</t>
   </si>
   <si>
     <t xml:space="preserve">47.709716796875</t>
@@ -3245,73 +3245,73 @@
     <t xml:space="preserve">50.2942276000977</t>
   </si>
   <si>
-    <t xml:space="preserve">48.9548110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3134002685547</t>
+    <t xml:space="preserve">48.9548072814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.313404083252</t>
   </si>
   <si>
     <t xml:space="preserve">48.1058807373047</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2379341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3888549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2000503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5584869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7661628723145</t>
+    <t xml:space="preserve">48.2379417419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.388858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2000541687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5584907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7661590576172</t>
   </si>
   <si>
     <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7381629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8985252380371</t>
+    <t xml:space="preserve">46.738166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8985176086426</t>
   </si>
   <si>
     <t xml:space="preserve">47.464469909668</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7947616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0868644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4077262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5209121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8983688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2569541931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6344108581543</t>
+    <t xml:space="preserve">46.7947578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0868682861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4077224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5209083557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.898365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.256950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
     <t xml:space="preserve">46.4080276489258</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2289619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4459075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4930725097656</t>
+    <t xml:space="preserve">45.2289657592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4459114074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4930763244629</t>
   </si>
   <si>
     <t xml:space="preserve">46.4174613952637</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">46.8796577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6910057067871</t>
+    <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
     <t xml:space="preserve">47.5022010803223</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">47.6531219482422</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5776596069336</t>
+    <t xml:space="preserve">47.5776634216309</t>
   </si>
   <si>
     <t xml:space="preserve">48.5775108337402</t>
@@ -3344,22 +3344,22 @@
     <t xml:space="preserve">47.3701438903809</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3887023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4640121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0304222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0681495666504</t>
+    <t xml:space="preserve">49.3887062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4640159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0304183959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0681533813477</t>
   </si>
   <si>
     <t xml:space="preserve">48.1247482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5586433410645</t>
+    <t xml:space="preserve">48.5586395263672</t>
   </si>
   <si>
     <t xml:space="preserve">47.4267387390137</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">48.5020484924316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.351131439209</t>
+    <t xml:space="preserve">48.3511238098145</t>
   </si>
   <si>
     <t xml:space="preserve">48.8038902282715</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">48.6718330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">49.011402130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7660026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5207633972168</t>
+    <t xml:space="preserve">49.0114059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7660064697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5207557678223</t>
   </si>
   <si>
     <t xml:space="preserve">50.2753601074219</t>
@@ -3401,22 +3401,22 @@
     <t xml:space="preserve">52.2802429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7939147949219</t>
+    <t xml:space="preserve">52.7939186096191</t>
   </si>
   <si>
     <t xml:space="preserve">54.2207794189453</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2100715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.2861709594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.6583480834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8485984802246</t>
+    <t xml:space="preserve">55.210075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.2861671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.6583518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8485946655273</t>
   </si>
   <si>
     <t xml:space="preserve">55.3432464599609</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">55.4573936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0471649169922</t>
+    <t xml:space="preserve">56.3515586853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0471611022949</t>
   </si>
   <si>
     <t xml:space="preserve">54.7915229797363</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">55.2671432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4003219604492</t>
+    <t xml:space="preserve">55.400318145752</t>
   </si>
   <si>
     <t xml:space="preserve">55.4383697509766</t>
@@ -3467,25 +3467,25 @@
     <t xml:space="preserve">54.9056739807129</t>
   </si>
   <si>
-    <t xml:space="preserve">54.810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2778549194336</t>
+    <t xml:space="preserve">54.8105506896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2778511047363</t>
   </si>
   <si>
     <t xml:space="preserve">54.677375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5251808166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0115013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.239803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5441970825195</t>
+    <t xml:space="preserve">54.5251731872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0115051269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2398071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">52.641716003418</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">54.4871253967285</t>
   </si>
   <si>
-    <t xml:space="preserve">54.943717956543</t>
+    <t xml:space="preserve">54.9437217712402</t>
   </si>
   <si>
     <t xml:space="preserve">55.5905647277832</t>
@@ -3515,13 +3515,13 @@
     <t xml:space="preserve">54.9627456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8569183349609</t>
+    <t xml:space="preserve">55.8569145202637</t>
   </si>
   <si>
     <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0174255371094</t>
+    <t xml:space="preserve">57.0174293518066</t>
   </si>
   <si>
     <t xml:space="preserve">56.7510833740234</t>
@@ -3533,22 +3533,22 @@
     <t xml:space="preserve">55.1720199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8759384155273</t>
+    <t xml:space="preserve">55.8759422302246</t>
   </si>
   <si>
     <t xml:space="preserve">55.9330139160156</t>
   </si>
   <si>
-    <t xml:space="preserve">55.7617874145508</t>
+    <t xml:space="preserve">55.761791229248</t>
   </si>
   <si>
     <t xml:space="preserve">56.8462028503418</t>
   </si>
   <si>
-    <t xml:space="preserve">58.215991973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.5964889526367</t>
+    <t xml:space="preserve">58.2159957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.5964851379395</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">57.1315803527832</t>
   </si>
   <si>
-    <t xml:space="preserve">55.6286163330078</t>
+    <t xml:space="preserve">55.6286125183105</t>
   </si>
   <si>
     <t xml:space="preserve">52.2231750488281</t>
@@ -3575,22 +3575,22 @@
     <t xml:space="preserve">51.994873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">51.918773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5382766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6904754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9568252563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.557300567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1851234436035</t>
+    <t xml:space="preserve">51.9187774658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.538272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6904792785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9568214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5573043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1851196289062</t>
   </si>
   <si>
     <t xml:space="preserve">52.1470718383789</t>
@@ -3599,37 +3599,37 @@
     <t xml:space="preserve">51.3860778808594</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2612152099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8890380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.565616607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4895172119141</t>
+    <t xml:space="preserve">52.2612190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8890419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5656204223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4895210266113</t>
   </si>
   <si>
     <t xml:space="preserve">51.9758453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9377975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2552947998047</t>
+    <t xml:space="preserve">51.9377937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.255298614502</t>
   </si>
   <si>
     <t xml:space="preserve">49.17919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4348373413086</t>
+    <t xml:space="preserve">50.4348335266113</t>
   </si>
   <si>
     <t xml:space="preserve">49.1411476135254</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1114158630371</t>
+    <t xml:space="preserve">50.1114120483398</t>
   </si>
   <si>
     <t xml:space="preserve">51.7094993591309</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">49.7118911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3587341308594</t>
+    <t xml:space="preserve">50.3587379455566</t>
   </si>
   <si>
     <t xml:space="preserve">52.9270896911621</t>
@@ -3662,16 +3662,16 @@
     <t xml:space="preserve">53.6880836486816</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6500358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9520378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7047157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8271789550781</t>
+    <t xml:space="preserve">53.650032043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.952033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.704719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8271827697754</t>
   </si>
   <si>
     <t xml:space="preserve">57.3028030395508</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">60.7843475341797</t>
   </si>
   <si>
-    <t xml:space="preserve">59.8331069946289</t>
+    <t xml:space="preserve">59.8331031799316</t>
   </si>
   <si>
     <t xml:space="preserve">60.5750732421875</t>
@@ -3713,10 +3713,10 @@
     <t xml:space="preserve">64.8366394042969</t>
   </si>
   <si>
-    <t xml:space="preserve">62.8009719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.1160888671875</t>
+    <t xml:space="preserve">62.8009757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.1160850524902</t>
   </si>
   <si>
     <t xml:space="preserve">63.2195205688477</t>
@@ -3725,16 +3725,16 @@
     <t xml:space="preserve">64.3610153198242</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1981048583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7878799438477</t>
+    <t xml:space="preserve">65.198112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7878875732422</t>
   </si>
   <si>
     <t xml:space="preserve">65.6737289428711</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0078582763672</t>
+    <t xml:space="preserve">65.0078506469727</t>
   </si>
   <si>
     <t xml:space="preserve">64.4941940307617</t>
@@ -3743,10 +3743,10 @@
     <t xml:space="preserve">65.4073791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9341621398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3146514892578</t>
+    <t xml:space="preserve">62.9341583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3146476745605</t>
   </si>
   <si>
     <t xml:space="preserve">63.7331962585449</t>
@@ -3761,34 +3761,34 @@
     <t xml:space="preserve">60.9555740356445</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4204864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3253555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638824462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0863494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.9020309448242</t>
+    <t xml:space="preserve">62.420482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3253517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.086353302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.9020233154297</t>
   </si>
   <si>
     <t xml:space="preserve">63.8853988647461</t>
   </si>
   <si>
-    <t xml:space="preserve">63.5619735717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8390235900879</t>
+    <t xml:space="preserve">63.5619697570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8390312194824</t>
   </si>
   <si>
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043334960938</t>
+    <t xml:space="preserve">60.0043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3797,40 +3797,40 @@
     <t xml:space="preserve">60.0804290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1375045776367</t>
+    <t xml:space="preserve">60.1375007629395</t>
   </si>
   <si>
     <t xml:space="preserve">59.5477333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">59.167236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6428604125977</t>
+    <t xml:space="preserve">59.1672325134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6428565979004</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
   </si>
   <si>
-    <t xml:space="preserve">61.1077690124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4311904907227</t>
+    <t xml:space="preserve">61.1077651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4311943054199</t>
   </si>
   <si>
     <t xml:space="preserve">60.898494720459</t>
   </si>
   <si>
-    <t xml:space="preserve">61.1648483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8307151794434</t>
+    <t xml:space="preserve">61.1648445129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8307113647461</t>
   </si>
   <si>
     <t xml:space="preserve">62.3063316345215</t>
   </si>
   <si>
-    <t xml:space="preserve">59.7379760742188</t>
+    <t xml:space="preserve">59.737979888916</t>
   </si>
   <si>
     <t xml:space="preserve">58.2540473937988</t>
@@ -3851,10 +3851,10 @@
     <t xml:space="preserve">54.9246978759766</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8022308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5334892272949</t>
+    <t xml:space="preserve">53.8022346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5334930419922</t>
   </si>
   <si>
     <t xml:space="preserve">55.5715408325195</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">53.726131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7368392944336</t>
+    <t xml:space="preserve">52.7368431091309</t>
   </si>
   <si>
     <t xml:space="preserve">53.592960357666</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">56.1422882080078</t>
   </si>
   <si>
-    <t xml:space="preserve">56.5227813720703</t>
+    <t xml:space="preserve">56.522777557373</t>
   </si>
   <si>
     <t xml:space="preserve">55.0578727722168</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">51.7855987548828</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3075866699219</t>
+    <t xml:space="preserve">53.3075828552246</t>
   </si>
   <si>
     <t xml:space="preserve">52.3943977355957</t>
@@ -3911,37 +3911,37 @@
     <t xml:space="preserve">52.0329246520996</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5596961975098</t>
+    <t xml:space="preserve">49.5596923828125</t>
   </si>
   <si>
     <t xml:space="preserve">46.8391456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1899070739746</t>
+    <t xml:space="preserve">48.1899032592773</t>
   </si>
   <si>
     <t xml:space="preserve">45.9640007019043</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8249053955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1007614135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4348983764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9925384521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9937362670898</t>
+    <t xml:space="preserve">42.8249015808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1007652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4348945617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9925346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9937324523926</t>
   </si>
   <si>
     <t xml:space="preserve">45.6310691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6595993041992</t>
+    <t xml:space="preserve">45.6596031188965</t>
   </si>
   <si>
     <t xml:space="preserve">44.2232284545898</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">46.7440185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8474617004395</t>
+    <t xml:space="preserve">47.8474578857422</t>
   </si>
   <si>
     <t xml:space="preserve">48.6084518432617</t>
@@ -3959,19 +3959,19 @@
     <t xml:space="preserve">48.1708793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3433036804199</t>
+    <t xml:space="preserve">47.3432998657227</t>
   </si>
   <si>
     <t xml:space="preserve">46.8581657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2481727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9782371520996</t>
+    <t xml:space="preserve">47.248176574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3242721557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9782409667969</t>
   </si>
   <si>
     <t xml:space="preserve">48.2660064697266</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">50.396785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">48.018684387207</t>
+    <t xml:space="preserve">48.0186805725098</t>
   </si>
   <si>
     <t xml:space="preserve">47.0293922424316</t>
@@ -4001,43 +4001,43 @@
     <t xml:space="preserve">47.067440032959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5050086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.094783782959</t>
+    <t xml:space="preserve">47.505012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0947799682617</t>
   </si>
   <si>
     <t xml:space="preserve">47.2291526794434</t>
   </si>
   <si>
-    <t xml:space="preserve">48.66552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5811080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3552093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8225135803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4586486816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3147621154785</t>
+    <t xml:space="preserve">48.6655235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5811157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3552055358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.822509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4586448669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3147659301758</t>
   </si>
   <si>
     <t xml:space="preserve">47.8284339904785</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6013336181641</t>
+    <t xml:space="preserve">46.6013374328613</t>
   </si>
   <si>
     <t xml:space="preserve">45.6215515136719</t>
   </si>
   <si>
-    <t xml:space="preserve">44.955680847168</t>
+    <t xml:space="preserve">44.9556846618652</t>
   </si>
   <si>
     <t xml:space="preserve">42.4253807067871</t>
@@ -4052,19 +4052,19 @@
     <t xml:space="preserve">40.7702217102051</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5585517883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7309722900391</t>
+    <t xml:space="preserve">42.5585556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7309761047363</t>
   </si>
   <si>
     <t xml:space="preserve">43.148323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2161064147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0627136230469</t>
+    <t xml:space="preserve">42.2161102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0627174377441</t>
   </si>
   <si>
     <t xml:space="preserve">41.569263458252</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">40.1994743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">40.797737121582</t>
+    <t xml:space="preserve">40.7977409362793</t>
   </si>
   <si>
     <t xml:space="preserve">39.4371719360352</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">40.7205467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">41.579345703125</t>
+    <t xml:space="preserve">41.5793418884277</t>
   </si>
   <si>
     <t xml:space="preserve">43.3162384033203</t>
@@ -4103,19 +4103,19 @@
     <t xml:space="preserve">44.281177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4645195007324</t>
+    <t xml:space="preserve">44.4645233154297</t>
   </si>
   <si>
     <t xml:space="preserve">44.2136344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">43.065357208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1486549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5240173339844</t>
+    <t xml:space="preserve">43.0653533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1486587524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5240135192871</t>
   </si>
   <si>
     <t xml:space="preserve">38.0573043823242</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">37.0344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3660850524902</t>
+    <t xml:space="preserve">38.366081237793</t>
   </si>
   <si>
     <t xml:space="preserve">36.1756706237793</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">35.7896919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7221488952637</t>
+    <t xml:space="preserve">35.7221450805664</t>
   </si>
   <si>
     <t xml:space="preserve">36.4844512939453</t>
@@ -4160,7 +4160,7 @@
     <t xml:space="preserve">39.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9257507324219</t>
+    <t xml:space="preserve">38.9257545471191</t>
   </si>
   <si>
     <t xml:space="preserve">38.2213478088379</t>
@@ -4169,10 +4169,10 @@
     <t xml:space="preserve">39.77490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9389381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0257835388184</t>
+    <t xml:space="preserve">39.9389419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0257873535156</t>
   </si>
   <si>
     <t xml:space="preserve">39.3985748291016</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">41.2609100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">41.675838470459</t>
+    <t xml:space="preserve">41.6758346557617</t>
   </si>
   <si>
     <t xml:space="preserve">42.081111907959</t>
@@ -4214,10 +4214,10 @@
     <t xml:space="preserve">41.6468887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9952392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9637184143066</t>
+    <t xml:space="preserve">44.9952354431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9637145996094</t>
   </si>
   <si>
     <t xml:space="preserve">47.021614074707</t>
@@ -4226,22 +4226,22 @@
     <t xml:space="preserve">46.0663223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3654518127441</t>
+    <t xml:space="preserve">46.3654556274414</t>
   </si>
   <si>
     <t xml:space="preserve">47.5812835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5716323852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5523300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.896167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7742691040039</t>
+    <t xml:space="preserve">47.5716285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5523338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8961715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7742652893066</t>
   </si>
   <si>
     <t xml:space="preserve">48.0155029296875</t>
@@ -4259,10 +4259,10 @@
     <t xml:space="preserve">47.8128662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0241813659668</t>
+    <t xml:space="preserve">47.1760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0241851806641</t>
   </si>
   <si>
     <t xml:space="preserve">45.8540344238281</t>
@@ -4277,31 +4277,31 @@
     <t xml:space="preserve">44.0206451416016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.103946685791</t>
+    <t xml:space="preserve">43.1039505004883</t>
   </si>
   <si>
     <t xml:space="preserve">43.2679901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0750007629395</t>
+    <t xml:space="preserve">43.0750045776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.974967956543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1811447143555</t>
+    <t xml:space="preserve">43.1811485290527</t>
   </si>
   <si>
     <t xml:space="preserve">42.071460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1100616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3319931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6407775878906</t>
+    <t xml:space="preserve">42.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3319969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6407737731934</t>
   </si>
   <si>
     <t xml:space="preserve">43.4320297241211</t>
@@ -4310,25 +4310,25 @@
     <t xml:space="preserve">43.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9688606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6829147338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.505687713623</t>
+    <t xml:space="preserve">42.9688568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.682918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5056838989258</t>
   </si>
   <si>
     <t xml:space="preserve">41.8495254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4284896850586</t>
+    <t xml:space="preserve">42.4284934997559</t>
   </si>
   <si>
     <t xml:space="preserve">42.7469215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4223823547363</t>
+    <t xml:space="preserve">43.4223785400391</t>
   </si>
   <si>
     <t xml:space="preserve">40.8556365966797</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">41.9942665100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7108955383301</t>
+    <t xml:space="preserve">40.7108917236328</t>
   </si>
   <si>
     <t xml:space="preserve">40.9038848876953</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">43.8083610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9206123352051</t>
+    <t xml:space="preserve">42.9206085205078</t>
   </si>
   <si>
     <t xml:space="preserve">42.4574394226074</t>
@@ -4376,10 +4376,10 @@
     <t xml:space="preserve">43.6153717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6925659179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7925987243652</t>
+    <t xml:space="preserve">43.6925621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.792594909668</t>
   </si>
   <si>
     <t xml:space="preserve">45.0531311035156</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">44.7057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6803436279297</t>
+    <t xml:space="preserve">45.680347442627</t>
   </si>
   <si>
     <t xml:space="preserve">44.3390769958496</t>
@@ -4400,13 +4400,13 @@
     <t xml:space="preserve">47.2146034240723</t>
   </si>
   <si>
-    <t xml:space="preserve">46.703182220459</t>
+    <t xml:space="preserve">46.7031860351562</t>
   </si>
   <si>
     <t xml:space="preserve">44.7347030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7022171020508</t>
+    <t xml:space="preserve">43.7022132873535</t>
   </si>
   <si>
     <t xml:space="preserve">42.1583061218262</t>
@@ -4421,16 +4421,16 @@
     <t xml:space="preserve">40.7784385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7987098693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9144973754883</t>
+    <t xml:space="preserve">43.7987060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9145011901855</t>
   </si>
   <si>
     <t xml:space="preserve">44.8215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0820846557617</t>
+    <t xml:space="preserve">45.0820808410645</t>
   </si>
   <si>
     <t xml:space="preserve">47.8321647644043</t>
@@ -4442,31 +4442,31 @@
     <t xml:space="preserve">48.6909637451172</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8453521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2663879394531</t>
+    <t xml:space="preserve">48.8453559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2663917541504</t>
   </si>
   <si>
     <t xml:space="preserve">48.1312980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0830497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6645889282227</t>
+    <t xml:space="preserve">48.0830535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6645851135254</t>
   </si>
   <si>
     <t xml:space="preserve">46.6356391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.597038269043</t>
+    <t xml:space="preserve">46.5970420837402</t>
   </si>
   <si>
     <t xml:space="preserve">46.4426498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3172035217285</t>
+    <t xml:space="preserve">46.3172073364258</t>
   </si>
   <si>
     <t xml:space="preserve">45.8347358703613</t>
@@ -4475,7 +4475,7 @@
     <t xml:space="preserve">47.330394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5777435302734</t>
+    <t xml:space="preserve">46.5777397155762</t>
   </si>
   <si>
     <t xml:space="preserve">46.6259880065918</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">45.7671890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7803802490234</t>
+    <t xml:space="preserve">46.7803764343262</t>
   </si>
   <si>
     <t xml:space="preserve">47.6391754150391</t>
@@ -4508,10 +4508,10 @@
     <t xml:space="preserve">45.9215812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1953048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4136962890625</t>
+    <t xml:space="preserve">47.1953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4137001037598</t>
   </si>
   <si>
     <t xml:space="preserve">47.7356719970703</t>
@@ -4520,16 +4520,16 @@
     <t xml:space="preserve">48.3821792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7646217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8839530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6330718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6559028625488</t>
+    <t xml:space="preserve">47.7646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8839492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6330680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">50.505054473877</t>
@@ -4538,22 +4538,22 @@
     <t xml:space="preserve">50.8331336975098</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0804824829102</t>
+    <t xml:space="preserve">50.0804786682129</t>
   </si>
   <si>
     <t xml:space="preserve">51.2770080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6243858337402</t>
+    <t xml:space="preserve">51.6243896484375</t>
   </si>
   <si>
     <t xml:space="preserve">53.0525016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5349731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0753402709961</t>
+    <t xml:space="preserve">53.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0753364562988</t>
   </si>
   <si>
     <t xml:space="preserve">54.2876243591309</t>
@@ -4562,13 +4562,13 @@
     <t xml:space="preserve">53.0910987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2490310668945</t>
+    <t xml:space="preserve">54.2490272521973</t>
   </si>
   <si>
     <t xml:space="preserve">54.5385131835938</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3069229125977</t>
+    <t xml:space="preserve">54.3069267272949</t>
   </si>
   <si>
     <t xml:space="preserve">54.4613151550293</t>
@@ -4577,22 +4577,22 @@
     <t xml:space="preserve">55.754337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3104667663574</t>
+    <t xml:space="preserve">55.3104629516602</t>
   </si>
   <si>
     <t xml:space="preserve">55.1946716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0595817565918</t>
+    <t xml:space="preserve">55.0595779418945</t>
   </si>
   <si>
     <t xml:space="preserve">56.4683952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6999816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4262542724609</t>
+    <t xml:space="preserve">56.6999778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4262580871582</t>
   </si>
   <si>
     <t xml:space="preserve">55.2525672912598</t>
@@ -4607,28 +4607,28 @@
     <t xml:space="preserve">54.2297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">54.7122001647949</t>
+    <t xml:space="preserve">54.7122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">55.1560745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1210174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6385459899902</t>
+    <t xml:space="preserve">56.1210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">55.6771430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6034889221191</t>
+    <t xml:space="preserve">56.6034851074219</t>
   </si>
   <si>
     <t xml:space="preserve">56.5648880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2175102233887</t>
+    <t xml:space="preserve">56.2175064086914</t>
   </si>
   <si>
     <t xml:space="preserve">55.6964416503906</t>
@@ -4640,7 +4640,7 @@
     <t xml:space="preserve">55.7736358642578</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6070289611816</t>
+    <t xml:space="preserve">57.6070251464844</t>
   </si>
   <si>
     <t xml:space="preserve">58.2438888549805</t>
@@ -4682,10 +4682,10 @@
     <t xml:space="preserve">57.5684280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8035545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.2667236328125</t>
+    <t xml:space="preserve">58.8035507202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.2667274475098</t>
   </si>
   <si>
     <t xml:space="preserve">59.4597129821777</t>
@@ -4697,37 +4697,37 @@
     <t xml:space="preserve">58.5719680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.2509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2316627502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3124046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4667930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9878616333008</t>
+    <t xml:space="preserve">60.2509689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.2316665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3124008178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3703002929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9878578186035</t>
   </si>
   <si>
     <t xml:space="preserve">61.0422172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">61.196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7720375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4738731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6282653808594</t>
+    <t xml:space="preserve">61.1966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4738693237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6282615661621</t>
   </si>
   <si>
     <t xml:space="preserve">62.373836517334</t>
@@ -4742,7 +4742,7 @@
     <t xml:space="preserve">64.5739059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8440856933594</t>
+    <t xml:space="preserve">64.8440933227539</t>
   </si>
   <si>
     <t xml:space="preserve">65.3072662353516</t>
@@ -4763,13 +4763,13 @@
     <t xml:space="preserve">66.1564025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9405899047852</t>
+    <t xml:space="preserve">64.9405822753906</t>
   </si>
   <si>
     <t xml:space="preserve">64.4195175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8791465759277</t>
+    <t xml:space="preserve">63.8791427612305</t>
   </si>
   <si>
     <t xml:space="preserve">63.3001823425293</t>
@@ -4784,13 +4784,13 @@
     <t xml:space="preserve">62.8949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">62.991397857666</t>
+    <t xml:space="preserve">62.9914016723633</t>
   </si>
   <si>
     <t xml:space="preserve">62.2387466430664</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1036529541016</t>
+    <t xml:space="preserve">62.1036567687988</t>
   </si>
   <si>
     <t xml:space="preserve">63.5374183654785</t>
@@ -5532,6 +5532,9 @@
   </si>
   <si>
     <t xml:space="preserve">56.8199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.2599983215332</t>
   </si>
 </sst>
 </file>
@@ -61929,7 +61932,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6499884259</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>2437600</v>
@@ -61950,6 +61953,32 @@
         <v>1839</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6519328704</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>844169</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>58.439998626709</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>56.8600006103516</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>56.439998626709</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>58.2599983215332</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1848">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1196117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9933519363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0474643707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1376466751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3270311355591</t>
+    <t xml:space="preserve">11.119610786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9933528900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0474615097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1376476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3270330429077</t>
   </si>
   <si>
     <t xml:space="preserve">12.1206455230713</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">11.7869672775269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6336545944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089952468872</t>
+    <t xml:space="preserve">11.6336555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089962005615</t>
   </si>
   <si>
     <t xml:space="preserve">11.7058019638062</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">11.8951873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5615091323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9853706359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.282977104187</t>
+    <t xml:space="preserve">11.5615081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9853715896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829761505127</t>
   </si>
   <si>
     <t xml:space="preserve">12.1657371520996</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">12.2649402618408</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8861694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559223175049</t>
+    <t xml:space="preserve">11.8861703872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559213638306</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116285324097</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">12.0575170516968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9222421646118</t>
+    <t xml:space="preserve">11.9222412109375</t>
   </si>
   <si>
     <t xml:space="preserve">12.075553894043</t>
@@ -116,40 +116,40 @@
     <t xml:space="preserve">11.5705270767212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4262342453003</t>
+    <t xml:space="preserve">11.4262351989746</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917562484741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4081974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0925559997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4532871246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0394830703735</t>
+    <t xml:space="preserve">11.4081964492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0925569534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4532899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320589065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394821166992</t>
   </si>
   <si>
     <t xml:space="preserve">12.5805816650391</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4182510375977</t>
+    <t xml:space="preserve">12.418251991272</t>
   </si>
   <si>
     <t xml:space="preserve">12.4362878799438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5715637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9583177566528</t>
+    <t xml:space="preserve">12.5715618133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9583168029785</t>
   </si>
   <si>
     <t xml:space="preserve">12.3641414642334</t>
@@ -158,37 +158,37 @@
     <t xml:space="preserve">12.9142599105835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1397180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9413146972656</t>
+    <t xml:space="preserve">13.1397190093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9413137435913</t>
   </si>
   <si>
     <t xml:space="preserve">13.3922319412231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5906362533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627817153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357259750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8972578048706</t>
+    <t xml:space="preserve">13.5906352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627826690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587924957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357269287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8070755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8972587585449</t>
   </si>
   <si>
     <t xml:space="preserve">13.5184879302979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2208833694458</t>
+    <t xml:space="preserve">13.2208824157715</t>
   </si>
   <si>
     <t xml:space="preserve">13.2389192581177</t>
@@ -197,85 +197,85 @@
     <t xml:space="preserve">13.1667728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0765905380249</t>
+    <t xml:space="preserve">13.0765886306763</t>
   </si>
   <si>
     <t xml:space="preserve">13.1938276290894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1216821670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2749938964844</t>
+    <t xml:space="preserve">13.1216831207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2749929428101</t>
   </si>
   <si>
     <t xml:space="preserve">13.6988534927368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3020467758179</t>
+    <t xml:space="preserve">13.3020486831665</t>
   </si>
   <si>
     <t xml:space="preserve">13.1577548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">13.103645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7609462738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9683694839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0044422149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2118644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0495338439941</t>
+    <t xml:space="preserve">13.1036434173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7609481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9683704376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0044431686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2118654251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0495347976685</t>
   </si>
   <si>
     <t xml:space="preserve">13.3291034698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3832149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5726003646851</t>
+    <t xml:space="preserve">13.3832120895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725994110107</t>
   </si>
   <si>
     <t xml:space="preserve">13.3471412658691</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8601484298706</t>
+    <t xml:space="preserve">12.8601512908936</t>
   </si>
   <si>
     <t xml:space="preserve">12.6797828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7699670791626</t>
+    <t xml:space="preserve">12.7699661254883</t>
   </si>
   <si>
     <t xml:space="preserve">13.1487369537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1757907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500452041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1858434677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.140754699707</t>
+    <t xml:space="preserve">13.1757917404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004529953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227159500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1858444213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1407537460327</t>
   </si>
   <si>
     <t xml:space="preserve">13.8251123428345</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">13.54554271698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5275068283081</t>
+    <t xml:space="preserve">13.5275058746338</t>
   </si>
   <si>
     <t xml:space="preserve">13.4091644287109</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">13.7459850311279</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4546794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6549530029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7824001312256</t>
+    <t xml:space="preserve">13.6276435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4546804428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6549520492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7823991775513</t>
   </si>
   <si>
     <t xml:space="preserve">13.6458492279053</t>
@@ -314,25 +314,25 @@
     <t xml:space="preserve">13.6822624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5457134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5001964569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8552255630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9189491271973</t>
+    <t xml:space="preserve">13.5457124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5001955032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.855224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9189472198486</t>
   </si>
   <si>
     <t xml:space="preserve">13.9280519485474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4819898605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3363370895386</t>
+    <t xml:space="preserve">13.481990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3363380432129</t>
   </si>
   <si>
     <t xml:space="preserve">12.8993787765503</t>
@@ -341,40 +341,40 @@
     <t xml:space="preserve">13.3909568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0359268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0008773803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8643293380737</t>
+    <t xml:space="preserve">13.035927772522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0008783340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8643283843994</t>
   </si>
   <si>
     <t xml:space="preserve">14.0463953018188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4196310043335</t>
+    <t xml:space="preserve">14.4196300506592</t>
   </si>
   <si>
     <t xml:space="preserve">13.10875415802</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4715223312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3272342681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1724786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7901382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0268249511719</t>
+    <t xml:space="preserve">12.4715232849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8720684051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3272352218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.172477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7901391983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0268259048462</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541343688965</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">13.145167350769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0996494293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545427322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1360645294189</t>
+    <t xml:space="preserve">13.0996522903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1360635757446</t>
   </si>
   <si>
     <t xml:space="preserve">13.1269617080688</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">12.944896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5275058746338</t>
+    <t xml:space="preserve">13.5275039672852</t>
   </si>
   <si>
     <t xml:space="preserve">14.0190839767456</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">14.5652828216553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2739772796631</t>
+    <t xml:space="preserve">14.2739782333374</t>
   </si>
   <si>
     <t xml:space="preserve">14.1465311050415</t>
@@ -422,22 +422,22 @@
     <t xml:space="preserve">13.6913652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7915010452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192216873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193574905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2102537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0372905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2375640869141</t>
+    <t xml:space="preserve">13.7915029525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192226409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2102556228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0372915267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2375631332397</t>
   </si>
   <si>
     <t xml:space="preserve">14.1829442977905</t>
@@ -446,19 +446,19 @@
     <t xml:space="preserve">14.1101179122925</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9553604125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1920471191406</t>
+    <t xml:space="preserve">13.955361366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1920480728149</t>
   </si>
   <si>
     <t xml:space="preserve">13.9462575912476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8825349807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732954025269</t>
+    <t xml:space="preserve">13.8825359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732963562012</t>
   </si>
   <si>
     <t xml:space="preserve">13.7095727920532</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">13.5366096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6003322601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7004680633545</t>
+    <t xml:space="preserve">13.6003332138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7004699707031</t>
   </si>
   <si>
     <t xml:space="preserve">13.9098453521729</t>
@@ -482,40 +482,40 @@
     <t xml:space="preserve">13.8916387557983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1010150909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2011499404907</t>
+    <t xml:space="preserve">14.1010141372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006048202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.201150894165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2648735046387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6367454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8279151916504</t>
+    <t xml:space="preserve">13.6367464065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8279142379761</t>
   </si>
   <si>
     <t xml:space="preserve">13.9735689163208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6640558242798</t>
+    <t xml:space="preserve">13.6640567779541</t>
   </si>
   <si>
     <t xml:space="preserve">14.02818775177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2921838760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0828084945679</t>
+    <t xml:space="preserve">14.2921848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0828075408936</t>
   </si>
   <si>
     <t xml:space="preserve">14.1556339263916</t>
@@ -524,127 +524,127 @@
     <t xml:space="preserve">14.064600944519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8097076416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5821266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5730237960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6731595993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.518404006958</t>
+    <t xml:space="preserve">13.9826707839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8097085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.582127571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5730228424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6731586456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184030532837</t>
   </si>
   <si>
     <t xml:space="preserve">13.8188133239746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5093002319336</t>
+    <t xml:space="preserve">13.5092992782593</t>
   </si>
   <si>
     <t xml:space="preserve">13.9644651412964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0554971694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2466678619385</t>
+    <t xml:space="preserve">14.0554981231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2466650009155</t>
   </si>
   <si>
     <t xml:space="preserve">14.847484588623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8383808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205835342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3026514053345</t>
+    <t xml:space="preserve">14.8383817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.120584487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3026504516602</t>
   </si>
   <si>
     <t xml:space="preserve">15.2480297088623</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1023759841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.747350692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9385194778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9749326705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750665664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931373596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9021034240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9112071990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8747959136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1569957733154</t>
+    <t xml:space="preserve">15.1023769378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7473497390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.938515663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9749317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0750675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931392669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565874099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8838987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9021062850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0477590560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935457229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752042770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9112091064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8747940063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1569967269897</t>
   </si>
   <si>
     <t xml:space="preserve">15.6485738754272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6849889755249</t>
+    <t xml:space="preserve">15.684986114502</t>
   </si>
   <si>
     <t xml:space="preserve">15.903468132019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9398822784424</t>
+    <t xml:space="preserve">15.9398813247681</t>
   </si>
   <si>
     <t xml:space="preserve">15.6940927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9945020675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3131141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3859405517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4223556518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4132518768311</t>
+    <t xml:space="preserve">15.994499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3131160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3859443664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4223575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4132537841797</t>
   </si>
   <si>
     <t xml:space="preserve">16.4678745269775</t>
@@ -656,85 +656,85 @@
     <t xml:space="preserve">16.2493934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.20387840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1310539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8488473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1492595672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1947765350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765651702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1583595275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1037425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3950500488281</t>
+    <t xml:space="preserve">16.2038745880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1310501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8488483428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1492538452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1947746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1583614349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1037445068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3950481414795</t>
   </si>
   <si>
     <t xml:space="preserve">16.3222179412842</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2676029205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1128444671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856708526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4041500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3326892852783</t>
+    <t xml:space="preserve">16.2676010131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1128425598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4041481018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3326854705811</t>
   </si>
   <si>
     <t xml:space="preserve">17.496545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">17.396411895752</t>
+    <t xml:space="preserve">17.3964099884033</t>
   </si>
   <si>
     <t xml:space="preserve">17.5329608917236</t>
   </si>
   <si>
-    <t xml:space="preserve">17.569372177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7514400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.806058883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8970928192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.842472076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973606109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2521171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4250812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1246700286865</t>
+    <t xml:space="preserve">17.5693702697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7514362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8970890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8424701690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973644256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2521209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4250831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1246757507324</t>
   </si>
   <si>
     <t xml:space="preserve">18.3067398071289</t>
@@ -746,154 +746,154 @@
     <t xml:space="preserve">18.5707359313965</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5161113739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6617660522461</t>
+    <t xml:space="preserve">18.5161151885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6617698669434</t>
   </si>
   <si>
     <t xml:space="preserve">18.4159774780273</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5252170562744</t>
+    <t xml:space="preserve">18.5252208709717</t>
   </si>
   <si>
     <t xml:space="preserve">18.689079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8711471557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1897602081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4901714324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4992733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4628601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7450618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269939422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3718242645264</t>
+    <t xml:space="preserve">18.8711452484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1897583007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4992713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4628582000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.371826171875</t>
   </si>
   <si>
     <t xml:space="preserve">19.4719619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5812015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7996807098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9635391235352</t>
+    <t xml:space="preserve">19.5812034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7996788024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9635410308838</t>
   </si>
   <si>
     <t xml:space="preserve">19.7268543243408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8451976776123</t>
+    <t xml:space="preserve">19.8451957702637</t>
   </si>
   <si>
     <t xml:space="preserve">19.78147315979</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4642181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7100124359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6280822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9466991424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1196594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4018630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7555274963379</t>
+    <t xml:space="preserve">20.4642219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7100105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.628080368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9466972351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1196575164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4018650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7555294036865</t>
   </si>
   <si>
     <t xml:space="preserve">20.0545749664307</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2730541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1638107299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2548446655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1456050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2639465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6540260314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8178882598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9188594818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9922943115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8729610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7536334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4966144561768</t>
+    <t xml:space="preserve">20.2730522155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1638145446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.254846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1456031799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2639484405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6540279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8178863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9188613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9922924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8729629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7536354064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4966163635254</t>
   </si>
   <si>
     <t xml:space="preserve">19.9005012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9739360809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5425148010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1845226287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2671337127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2304210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3405666351318</t>
+    <t xml:space="preserve">19.9739322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5425109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1845207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2671356201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2304191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3405704498291</t>
   </si>
   <si>
     <t xml:space="preserve">18.83571434021</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0927314758301</t>
+    <t xml:space="preserve">19.0927295684814</t>
   </si>
   <si>
     <t xml:space="preserve">19.3864650726318</t>
@@ -908,16 +908,16 @@
     <t xml:space="preserve">19.4874362945557</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8821411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.414005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.404821395874</t>
+    <t xml:space="preserve">19.8821430206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4782543182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048233032227</t>
   </si>
   <si>
     <t xml:space="preserve">19.5884075164795</t>
@@ -926,31 +926,31 @@
     <t xml:space="preserve">19.2028827667236</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6245937347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8173542022705</t>
+    <t xml:space="preserve">18.6245918273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8173561096191</t>
   </si>
   <si>
     <t xml:space="preserve">18.8907890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8540706634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0651950836182</t>
+    <t xml:space="preserve">18.8540744781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0651931762695</t>
   </si>
   <si>
     <t xml:space="preserve">18.9917602539062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8632526397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3681087493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5516929626465</t>
+    <t xml:space="preserve">18.8632488250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.368106842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5516891479492</t>
   </si>
   <si>
     <t xml:space="preserve">19.643482208252</t>
@@ -968,37 +968,37 @@
     <t xml:space="preserve">19.533332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4598979949951</t>
+    <t xml:space="preserve">19.4598999023438</t>
   </si>
   <si>
     <t xml:space="preserve">20.5155067443848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7449855804443</t>
+    <t xml:space="preserve">20.7449836730957</t>
   </si>
   <si>
     <t xml:space="preserve">20.8367786407471</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6348342895508</t>
+    <t xml:space="preserve">20.6348361968994</t>
   </si>
   <si>
     <t xml:space="preserve">20.5338649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6715526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072998046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6807308197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256561279297</t>
+    <t xml:space="preserve">20.6715545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6072978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6807346343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256542205811</t>
   </si>
   <si>
     <t xml:space="preserve">21.1305122375488</t>
@@ -1016,40 +1016,40 @@
     <t xml:space="preserve">21.635368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7179794311523</t>
+    <t xml:space="preserve">21.717981338501</t>
   </si>
   <si>
     <t xml:space="preserve">21.6629066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5711135864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4976787567139</t>
+    <t xml:space="preserve">21.5711154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4976806640625</t>
   </si>
   <si>
     <t xml:space="preserve">21.1580505371094</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5619316101074</t>
+    <t xml:space="preserve">21.5619354248047</t>
   </si>
   <si>
     <t xml:space="preserve">21.9107456207275</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1953010559082</t>
+    <t xml:space="preserve">22.1952953338623</t>
   </si>
   <si>
     <t xml:space="preserve">22.0392513275146</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0943260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2962684631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4614944458008</t>
+    <t xml:space="preserve">22.0943279266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.296272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.461498260498</t>
   </si>
   <si>
     <t xml:space="preserve">22.736873626709</t>
@@ -1058,28 +1058,28 @@
     <t xml:space="preserve">22.6726188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9020977020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9204540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8103046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5441074371338</t>
+    <t xml:space="preserve">22.902099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9204559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8103065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5441093444824</t>
   </si>
   <si>
     <t xml:space="preserve">22.690975189209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5349273681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5165729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5532913208008</t>
+    <t xml:space="preserve">22.5349292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5165710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5532875061035</t>
   </si>
   <si>
     <t xml:space="preserve">22.2595539093018</t>
@@ -1088,31 +1088,31 @@
     <t xml:space="preserve">22.1218681335449</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3697052001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.415599822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4431419372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1402244567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0484313964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7638778686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4523181915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5808258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.360523223877</t>
+    <t xml:space="preserve">22.3697032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4156036376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4431400299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1402263641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.048433303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7638759613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4523162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5808296203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605251312256</t>
   </si>
   <si>
     <t xml:space="preserve">22.5900058746338</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">22.6542587280273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7001552581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2870922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7460536956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8653793334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6634407043457</t>
+    <t xml:space="preserve">22.7001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2870941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7460517883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8653812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6634368896484</t>
   </si>
   <si>
     <t xml:space="preserve">22.4247817993164</t>
@@ -1142,28 +1142,28 @@
     <t xml:space="preserve">22.3788833618164</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3054504394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2411956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1494007110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667915344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285697937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3508110046387</t>
+    <t xml:space="preserve">22.3054523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2411975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1494045257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3508148193359</t>
   </si>
   <si>
     <t xml:space="preserve">21.2957363128662</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9561100006104</t>
+    <t xml:space="preserve">20.9561080932617</t>
   </si>
   <si>
     <t xml:space="preserve">21.0570793151855</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">21.3875293731689</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3783512115479</t>
+    <t xml:space="preserve">21.3783531188965</t>
   </si>
   <si>
     <t xml:space="preserve">21.4242477416992</t>
@@ -1187,28 +1187,28 @@
     <t xml:space="preserve">21.1396923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7271633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7088031768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.250373840332</t>
+    <t xml:space="preserve">21.0846176147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672267913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7271595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7088012695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2503757476807</t>
   </si>
   <si>
     <t xml:space="preserve">22.7735900878906</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8194885253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1958351135254</t>
+    <t xml:space="preserve">22.8194828033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1958332061768</t>
   </si>
   <si>
     <t xml:space="preserve">22.6267204284668</t>
@@ -1220,19 +1220,19 @@
     <t xml:space="preserve">23.2141914367676</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1224002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4069519042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5721797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9760665893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2330837249756</t>
+    <t xml:space="preserve">23.1223983764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4069538116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5721817016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9760627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.233081817627</t>
   </si>
   <si>
     <t xml:space="preserve">23.9393463134766</t>
@@ -1241,31 +1241,31 @@
     <t xml:space="preserve">23.6823291778564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4987449645996</t>
+    <t xml:space="preserve">23.4987468719482</t>
   </si>
   <si>
     <t xml:space="preserve">23.957706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8108425140381</t>
+    <t xml:space="preserve">23.8108386993408</t>
   </si>
   <si>
     <t xml:space="preserve">23.8659152984619</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5171070098877</t>
+    <t xml:space="preserve">23.5171051025391</t>
   </si>
   <si>
     <t xml:space="preserve">23.1315784454346</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0948638916016</t>
+    <t xml:space="preserve">23.0948619842529</t>
   </si>
   <si>
     <t xml:space="preserve">23.351879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1412887573242</t>
+    <t xml:space="preserve">24.1412868499756</t>
   </si>
   <si>
     <t xml:space="preserve">24.6736831665039</t>
@@ -1274,25 +1274,25 @@
     <t xml:space="preserve">24.8205509185791</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5818939208984</t>
+    <t xml:space="preserve">24.5818901062012</t>
   </si>
   <si>
     <t xml:space="preserve">24.7103996276855</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8389072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8572673797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6186084747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4442005157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3615894317627</t>
+    <t xml:space="preserve">24.8389091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8572654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6186065673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4441986083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3615951538086</t>
   </si>
   <si>
     <t xml:space="preserve">24.5451736450195</t>
@@ -1304,25 +1304,25 @@
     <t xml:space="preserve">23.7833003997803</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6920413970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6088943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3707675933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9949550628662</t>
+    <t xml:space="preserve">24.6920433044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6088962554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3707695007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9949531555176</t>
   </si>
   <si>
     <t xml:space="preserve">26.0230255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1148166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7751846313477</t>
+    <t xml:space="preserve">26.1148204803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7751865386963</t>
   </si>
   <si>
     <t xml:space="preserve">25.9128742218018</t>
@@ -1334,121 +1334,121 @@
     <t xml:space="preserve">25.8119049072266</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7384719848633</t>
+    <t xml:space="preserve">25.7384700775146</t>
   </si>
   <si>
     <t xml:space="preserve">25.986307144165</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4911651611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3442974090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6650333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6099586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0505599975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9220542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5737762451172</t>
+    <t xml:space="preserve">26.4911632537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.344295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6650352478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6099605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0505619049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9220523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5737800598145</t>
   </si>
   <si>
     <t xml:space="preserve">26.7665405273438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8675136566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0327377319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8491535186768</t>
+    <t xml:space="preserve">26.8675117492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0327396392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8491516113281</t>
   </si>
   <si>
     <t xml:space="preserve">27.1796035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1153507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3264713287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8405075073242</t>
+    <t xml:space="preserve">27.115348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.326473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8405055999756</t>
   </si>
   <si>
     <t xml:space="preserve">28.3270053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9506549835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0975246429443</t>
+    <t xml:space="preserve">27.9506568908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.097526550293</t>
   </si>
   <si>
     <t xml:space="preserve">28.051628112793</t>
   </si>
   <si>
-    <t xml:space="preserve">28.299467086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3637180328369</t>
+    <t xml:space="preserve">28.2994651794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3637199401855</t>
   </si>
   <si>
     <t xml:space="preserve">30.1720218658447</t>
   </si>
   <si>
-    <t xml:space="preserve">29.832389831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2179203033447</t>
+    <t xml:space="preserve">29.8323917388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2179145812988</t>
   </si>
   <si>
     <t xml:space="preserve">30.5667266845703</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6493377685547</t>
+    <t xml:space="preserve">30.6493358612061</t>
   </si>
   <si>
     <t xml:space="preserve">30.3188896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">30.979793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2459888458252</t>
+    <t xml:space="preserve">30.9797916412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2459869384766</t>
   </si>
   <si>
     <t xml:space="preserve">30.8971767425537</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6315174102783</t>
+    <t xml:space="preserve">31.6315097808838</t>
   </si>
   <si>
     <t xml:space="preserve">32.3383102416992</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1455535888672</t>
+    <t xml:space="preserve">32.1455497741699</t>
   </si>
   <si>
     <t xml:space="preserve">32.4576454162598</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3566741943359</t>
+    <t xml:space="preserve">32.3566703796387</t>
   </si>
   <si>
     <t xml:space="preserve">33.0634727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1369018554688</t>
+    <t xml:space="preserve">33.136905670166</t>
   </si>
   <si>
     <t xml:space="preserve">33.412281036377</t>
@@ -1457,19 +1457,19 @@
     <t xml:space="preserve">33.9171371459961</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3669090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8809509277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5040740966797</t>
+    <t xml:space="preserve">34.3669128417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8809471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5040702819824</t>
   </si>
   <si>
     <t xml:space="preserve">32.7421951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">33.485710144043</t>
+    <t xml:space="preserve">33.4857139587402</t>
   </si>
   <si>
     <t xml:space="preserve">33.531608581543</t>
@@ -1481,25 +1481,25 @@
     <t xml:space="preserve">34.1466178894043</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5413246154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5596771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8625946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7162551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1660385131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.925666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9457054138184</t>
+    <t xml:space="preserve">34.5413208007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5596809387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8625907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7162628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1660346984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9256706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9457092285156</t>
   </si>
   <si>
     <t xml:space="preserve">34.187629699707</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">34.9734497070312</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2954635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4988594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3432426452637</t>
+    <t xml:space="preserve">36.295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3432464599609</t>
   </si>
   <si>
     <t xml:space="preserve">35.6390762329102</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3047180175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.332447052002</t>
+    <t xml:space="preserve">36.3047142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3324432373047</t>
   </si>
   <si>
     <t xml:space="preserve">36.831672668457</t>
@@ -1532,28 +1532,28 @@
     <t xml:space="preserve">38.2184066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8023872375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7484664916992</t>
+    <t xml:space="preserve">37.8023834228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.748462677002</t>
   </si>
   <si>
     <t xml:space="preserve">37.7838935852051</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1074638366699</t>
+    <t xml:space="preserve">38.1074676513672</t>
   </si>
   <si>
     <t xml:space="preserve">38.4217948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9949760437012</t>
+    <t xml:space="preserve">38.9949798583984</t>
   </si>
   <si>
     <t xml:space="preserve">38.8840408325195</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3385887145996</t>
+    <t xml:space="preserve">38.3385925292969</t>
   </si>
   <si>
     <t xml:space="preserve">37.1552429199219</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">36.8409118652344</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7762031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5820579528809</t>
+    <t xml:space="preserve">36.7761993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5820617675781</t>
   </si>
   <si>
     <t xml:space="preserve">35.8979377746582</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">35.9996299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">35.583610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0550994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8332176208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919319152832</t>
+    <t xml:space="preserve">35.5836143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0550956726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8332252502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919395446777</t>
   </si>
   <si>
     <t xml:space="preserve">34.4187507629395</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">34.2061195373535</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7608108520508</t>
+    <t xml:space="preserve">34.760814666748</t>
   </si>
   <si>
     <t xml:space="preserve">35.5373878479004</t>
@@ -1607,85 +1607,85 @@
     <t xml:space="preserve">35.3155059814453</t>
   </si>
   <si>
-    <t xml:space="preserve">36.082836151123</t>
+    <t xml:space="preserve">36.0828323364258</t>
   </si>
   <si>
     <t xml:space="preserve">35.6021003723145</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1105651855469</t>
+    <t xml:space="preserve">36.1105690002441</t>
   </si>
   <si>
     <t xml:space="preserve">35.9534072875977</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8701972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.722282409668</t>
+    <t xml:space="preserve">35.8702011108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7222785949707</t>
   </si>
   <si>
     <t xml:space="preserve">36.6560173034668</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3617324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1675872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2708282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.871753692627</t>
+    <t xml:space="preserve">35.3617362976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1675910949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2708320617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8717498779297</t>
   </si>
   <si>
     <t xml:space="preserve">34.6683654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8732986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7330780029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8440170288086</t>
+    <t xml:space="preserve">33.8733024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.733081817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8440132141113</t>
   </si>
   <si>
     <t xml:space="preserve">35.010425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2045745849609</t>
+    <t xml:space="preserve">35.2045669555664</t>
   </si>
   <si>
     <t xml:space="preserve">35.0936317443848</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4834671020508</t>
+    <t xml:space="preserve">34.483470916748</t>
   </si>
   <si>
     <t xml:space="preserve">35.2970199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9549598693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2692832946777</t>
+    <t xml:space="preserve">34.9549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.269287109375</t>
   </si>
   <si>
     <t xml:space="preserve">36.0643424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7114906311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6467742919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8131790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0181159973145</t>
+    <t xml:space="preserve">36.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6467666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8131828308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.018123626709</t>
   </si>
   <si>
     <t xml:space="preserve">35.9903831481934</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">35.5928535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2985649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7515678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8070411682129</t>
+    <t xml:space="preserve">34.2985725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7515754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8070449829102</t>
   </si>
   <si>
     <t xml:space="preserve">34.7700614929199</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2600364685059</t>
+    <t xml:space="preserve">35.2600402832031</t>
   </si>
   <si>
     <t xml:space="preserve">34.4464836120605</t>
@@ -1718,43 +1718,43 @@
     <t xml:space="preserve">34.8902435302734</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0658912658691</t>
+    <t xml:space="preserve">35.0658988952637</t>
   </si>
   <si>
     <t xml:space="preserve">34.9826927185059</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5481796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8809967041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1398544311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7037963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4172058105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4295463562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2646980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9025917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.334056854248</t>
+    <t xml:space="preserve">34.5481758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8809928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1398468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7037925720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4172019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4295501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2646903991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9025955200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3340587615967</t>
   </si>
   <si>
     <t xml:space="preserve">28.9180393218994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5852222442627</t>
+    <t xml:space="preserve">28.5852241516113</t>
   </si>
   <si>
     <t xml:space="preserve">28.0305271148682</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">28.6499366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">28.788610458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440780639648</t>
+    <t xml:space="preserve">28.7886085510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440799713135</t>
   </si>
   <si>
     <t xml:space="preserve">28.1044864654541</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">27.022834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.642240524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2893848419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473266601562</t>
+    <t xml:space="preserve">27.6422424316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2893867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473247528076</t>
   </si>
   <si>
     <t xml:space="preserve">27.5497951507568</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">27.9195899963379</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3818340301514</t>
+    <t xml:space="preserve">28.3818359375</t>
   </si>
   <si>
     <t xml:space="preserve">28.4742832183838</t>
@@ -1802,67 +1802,67 @@
     <t xml:space="preserve">29.9534702301025</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5929126739502</t>
+    <t xml:space="preserve">29.5929164886475</t>
   </si>
   <si>
     <t xml:space="preserve">29.3710384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5282039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0844459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8271408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.435754776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4095668792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.418815612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7254447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6253051757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2169742584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1799983978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8086528778076</t>
+    <t xml:space="preserve">29.5282020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0844440460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8271446228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4357509613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4095687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4188137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7254467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.625301361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2169780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1799964904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.808650970459</t>
   </si>
   <si>
     <t xml:space="preserve">27.5775299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0967922210693</t>
+    <t xml:space="preserve">27.096794128418</t>
   </si>
   <si>
     <t xml:space="preserve">27.2816925048828</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6068134307861</t>
+    <t xml:space="preserve">26.6068153381348</t>
   </si>
   <si>
     <t xml:space="preserve">28.1876907348633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1337757110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6792221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8749160766602</t>
+    <t xml:space="preserve">27.1337738037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6792240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8749141693115</t>
   </si>
   <si>
     <t xml:space="preserve">27.226224899292</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">25.8302440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6730823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310977935791</t>
+    <t xml:space="preserve">25.6730785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3109760284424</t>
   </si>
   <si>
     <t xml:space="preserve">26.0151405334473</t>
@@ -1883,100 +1883,100 @@
     <t xml:space="preserve">25.469690322876</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9797115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5159149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0521183013916</t>
+    <t xml:space="preserve">24.9797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5159168243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0521221160889</t>
   </si>
   <si>
     <t xml:space="preserve">25.4881820678711</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6915702819824</t>
+    <t xml:space="preserve">25.6915721893311</t>
   </si>
   <si>
     <t xml:space="preserve">25.9319362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7454872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9581203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7100601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8286933898926</t>
+    <t xml:space="preserve">26.7454853057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.958122253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7100582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8286914825439</t>
   </si>
   <si>
     <t xml:space="preserve">27.5590400695801</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3171215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.992000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5297565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4018745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7069530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7809162139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0490188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2801418304443</t>
+    <t xml:space="preserve">28.31711769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9919986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5297546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.401876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.706958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7809143066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0490169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2801399230957</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3356075286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2616500854492</t>
+    <t xml:space="preserve">28.3356094360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2616519927979</t>
   </si>
   <si>
     <t xml:space="preserve">28.6222019195557</t>
   </si>
   <si>
-    <t xml:space="preserve">30.323263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.415714263916</t>
+    <t xml:space="preserve">30.3232650756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4157123565674</t>
   </si>
   <si>
     <t xml:space="preserve">31.0166282653809</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2200183868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6267948150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8594703674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0628566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586921691895</t>
+    <t xml:space="preserve">31.2200202941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6267929077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.859468460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0628528594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586902618408</t>
   </si>
   <si>
     <t xml:space="preserve">32.1352577209473</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">32.0335731506348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7562217712402</t>
+    <t xml:space="preserve">31.7562236785889</t>
   </si>
   <si>
     <t xml:space="preserve">32.2462043762207</t>
@@ -1997,61 +1997,61 @@
     <t xml:space="preserve">32.2092208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0890350341797</t>
+    <t xml:space="preserve">32.089038848877</t>
   </si>
   <si>
     <t xml:space="preserve">32.0797958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9041385650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4033699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3386497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1737995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6221389770508</t>
+    <t xml:space="preserve">31.9041423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4033660888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3386535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1737976074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">34.2523422241211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.374080657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2816276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1429595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9580612182617</t>
+    <t xml:space="preserve">33.3740768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2816314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1429557800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.958065032959</t>
   </si>
   <si>
     <t xml:space="preserve">33.0227737426758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8748588562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3648414611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4572868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9842414855957</t>
+    <t xml:space="preserve">32.8748550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3648338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4572830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9842376708984</t>
   </si>
   <si>
     <t xml:space="preserve">33.651424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6714668273926</t>
+    <t xml:space="preserve">32.6714706420898</t>
   </si>
   <si>
     <t xml:space="preserve">32.1722450256348</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">32.8840980529785</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2076683044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9657516479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0674476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5944061279297</t>
+    <t xml:space="preserve">33.2076721191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9657554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5944023132324</t>
   </si>
   <si>
     <t xml:space="preserve">34.3910179138184</t>
@@ -2078,19 +2078,19 @@
     <t xml:space="preserve">34.3263053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2631416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6699180603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7438774108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.549732208252</t>
+    <t xml:space="preserve">33.2631378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6699104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7438735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5497360229492</t>
   </si>
   <si>
     <t xml:space="preserve">33.8825531005859</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">33.5682258605957</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7623634338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3355484008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1414031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5127563476562</t>
+    <t xml:space="preserve">33.7623672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3355445861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1414070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.512752532959</t>
   </si>
   <si>
     <t xml:space="preserve">33.7993469238281</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">33.688404083252</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3817710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6144523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9950408935547</t>
+    <t xml:space="preserve">34.3817749023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6144485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9950370788574</t>
   </si>
   <si>
     <t xml:space="preserve">32.8471183776855</t>
@@ -2135,16 +2135,16 @@
     <t xml:space="preserve">33.9010353088379</t>
   </si>
   <si>
-    <t xml:space="preserve">32.384880065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.133716583252</t>
+    <t xml:space="preserve">32.3848762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1337089538574</t>
   </si>
   <si>
     <t xml:space="preserve">32.5697708129883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.004280090332</t>
+    <t xml:space="preserve">33.0042839050293</t>
   </si>
   <si>
     <t xml:space="preserve">32.0225715637207</t>
@@ -2153,16 +2153,16 @@
     <t xml:space="preserve">32.3217582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2847709655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2937126159668</t>
+    <t xml:space="preserve">33.2847671508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2937088012695</t>
   </si>
   <si>
     <t xml:space="preserve">32.6957473754883</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7237930297852</t>
+    <t xml:space="preserve">32.7237968444824</t>
   </si>
   <si>
     <t xml:space="preserve">32.2189102172852</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">31.2091522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0408592224121</t>
+    <t xml:space="preserve">31.0408554077148</t>
   </si>
   <si>
     <t xml:space="preserve">30.8538627624512</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9754104614258</t>
+    <t xml:space="preserve">30.975414276123</t>
   </si>
   <si>
     <t xml:space="preserve">31.5457382202148</t>
@@ -2186,28 +2186,28 @@
     <t xml:space="preserve">32.2563095092773</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4433059692383</t>
+    <t xml:space="preserve">32.4433097839355</t>
   </si>
   <si>
     <t xml:space="preserve">32.0973701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5555000305176</t>
+    <t xml:space="preserve">32.5554962158203</t>
   </si>
   <si>
     <t xml:space="preserve">32.1721649169922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2469673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7705383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.097785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1075439453125</t>
+    <t xml:space="preserve">32.2469596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7705421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0977783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1075401306152</t>
   </si>
   <si>
     <t xml:space="preserve">34.2290878295898</t>
@@ -2216,25 +2216,25 @@
     <t xml:space="preserve">35.1827545166016</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9770622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8835678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2477912902832</t>
+    <t xml:space="preserve">34.9770584106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8835716247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2477874755859</t>
   </si>
   <si>
     <t xml:space="preserve">33.9766464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7246208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1547012329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.528694152832</t>
+    <t xml:space="preserve">34.7246170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1547050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5286865234375</t>
   </si>
   <si>
     <t xml:space="preserve">35.4538917541504</t>
@@ -2243,34 +2243,34 @@
     <t xml:space="preserve">35.9961738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0990180969238</t>
+    <t xml:space="preserve">36.0990257263184</t>
   </si>
   <si>
     <t xml:space="preserve">36.0055236816406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0148696899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7624320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8372344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.575439453125</t>
+    <t xml:space="preserve">36.0148735046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7624359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.837230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5754356384277</t>
   </si>
   <si>
     <t xml:space="preserve">35.9774742126465</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5193405151367</t>
+    <t xml:space="preserve">35.5193367004395</t>
   </si>
   <si>
     <t xml:space="preserve">35.6128387451172</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7063369750977</t>
+    <t xml:space="preserve">35.7063293457031</t>
   </si>
   <si>
     <t xml:space="preserve">35.7250328063965</t>
@@ -2279,64 +2279,64 @@
     <t xml:space="preserve">36.1457633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">36.127067565918</t>
+    <t xml:space="preserve">36.1270637512207</t>
   </si>
   <si>
     <t xml:space="preserve">36.4169082641602</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4823570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4543075561523</t>
+    <t xml:space="preserve">36.4823532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4543037414551</t>
   </si>
   <si>
     <t xml:space="preserve">35.1640548706055</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7526664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9018516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8916759490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8636264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2656593322754</t>
+    <t xml:space="preserve">34.7526702880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9018478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8916721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8636322021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2656631469727</t>
   </si>
   <si>
     <t xml:space="preserve">32.8546867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7892417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9290752410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6579322814941</t>
+    <t xml:space="preserve">32.7892456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9290771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6579303741455</t>
   </si>
   <si>
     <t xml:space="preserve">32.190860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1254119873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1538772583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.181510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9851722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7888240814209</t>
+    <t xml:space="preserve">32.125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1538734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1815147399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9851684570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7888298034668</t>
   </si>
   <si>
     <t xml:space="preserve">31.7327308654785</t>
@@ -2345,64 +2345,64 @@
     <t xml:space="preserve">31.872974395752</t>
   </si>
   <si>
-    <t xml:space="preserve">32.078670501709</t>
+    <t xml:space="preserve">32.0786666870117</t>
   </si>
   <si>
     <t xml:space="preserve">32.7798919677734</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5278663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213607788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1819305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0697250366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0884323120117</t>
+    <t xml:space="preserve">33.5278625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1819267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9855842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0697326660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0884284973145</t>
   </si>
   <si>
     <t xml:space="preserve">32.8172874450684</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0693206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103698730469</t>
+    <t xml:space="preserve">32.0693168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103736877441</t>
   </si>
   <si>
     <t xml:space="preserve">29.6758060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3583316802979</t>
+    <t xml:space="preserve">30.3583354949951</t>
   </si>
   <si>
     <t xml:space="preserve">30.4985733032227</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0123920440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1339378356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0497913360596</t>
+    <t xml:space="preserve">30.0123901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.133939743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0497932434082</t>
   </si>
   <si>
     <t xml:space="preserve">30.255485534668</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7510204315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733757019043</t>
+    <t xml:space="preserve">30.7510147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5733737945557</t>
   </si>
   <si>
     <t xml:space="preserve">30.2367858886719</t>
@@ -2411,13 +2411,13 @@
     <t xml:space="preserve">29.5355625152588</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0217456817627</t>
+    <t xml:space="preserve">30.0217437744141</t>
   </si>
   <si>
     <t xml:space="preserve">30.4237785339355</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6107730865479</t>
+    <t xml:space="preserve">30.6107749938965</t>
   </si>
   <si>
     <t xml:space="preserve">30.4611778259277</t>
@@ -2435,16 +2435,16 @@
     <t xml:space="preserve">31.9758224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8542766571045</t>
+    <t xml:space="preserve">31.8542785644531</t>
   </si>
   <si>
     <t xml:space="preserve">31.452241897583</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1437015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0778408050537</t>
+    <t xml:space="preserve">31.143705368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0778388977051</t>
   </si>
   <si>
     <t xml:space="preserve">30.3863792419434</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">30.1806869506836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0965423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3770313262939</t>
+    <t xml:space="preserve">30.0965404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3770275115967</t>
   </si>
   <si>
     <t xml:space="preserve">33.8177032470703</t>
@@ -2468,10 +2468,10 @@
     <t xml:space="preserve">32.4246025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.882740020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9949340820312</t>
+    <t xml:space="preserve">32.8827362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9949378967285</t>
   </si>
   <si>
     <t xml:space="preserve">32.7518424987793</t>
@@ -2489,10 +2489,10 @@
     <t xml:space="preserve">34.5563278198242</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4721755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0701446533203</t>
+    <t xml:space="preserve">34.4721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.070140838623</t>
   </si>
   <si>
     <t xml:space="preserve">34.1823425292969</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">34.4441299438477</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6872177124023</t>
+    <t xml:space="preserve">34.6872215270996</t>
   </si>
   <si>
     <t xml:space="preserve">35.2949485778809</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">36.641300201416</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1835823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2673149108887</t>
+    <t xml:space="preserve">37.5295143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1835784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2673110961914</t>
   </si>
   <si>
     <t xml:space="preserve">36.1644706726074</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6701774597168</t>
+    <t xml:space="preserve">38.6701736450195</t>
   </si>
   <si>
     <t xml:space="preserve">39.4555473327637</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0722122192383</t>
+    <t xml:space="preserve">39.072208404541</t>
   </si>
   <si>
     <t xml:space="preserve">39.3526992797852</t>
@@ -2543,22 +2543,22 @@
     <t xml:space="preserve">38.6140747070312</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3335876464844</t>
+    <t xml:space="preserve">38.3335838317871</t>
   </si>
   <si>
     <t xml:space="preserve">38.2400932312012</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6604118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.810001373291</t>
+    <t xml:space="preserve">37.6604080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8100051879883</t>
   </si>
   <si>
     <t xml:space="preserve">37.5482177734375</t>
   </si>
   <si>
-    <t xml:space="preserve">37.697811126709</t>
+    <t xml:space="preserve">37.6978073120117</t>
   </si>
   <si>
     <t xml:space="preserve">38.2307434082031</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">38.1372451782227</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9876441955566</t>
+    <t xml:space="preserve">37.9876518249512</t>
   </si>
   <si>
     <t xml:space="preserve">37.4640693664551</t>
   </si>
   <si>
-    <t xml:space="preserve">37.950252532959</t>
+    <t xml:space="preserve">37.9502487182617</t>
   </si>
   <si>
     <t xml:space="preserve">37.4827690124512</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">37.6510620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4831809997559</t>
+    <t xml:space="preserve">38.4831848144531</t>
   </si>
   <si>
     <t xml:space="preserve">38.4644813537598</t>
@@ -2594,10 +2594,10 @@
     <t xml:space="preserve">38.1465950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8852157592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9417266845703</t>
+    <t xml:space="preserve">38.8852119445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9417304992676</t>
   </si>
   <si>
     <t xml:space="preserve">39.9043273925781</t>
@@ -2606,34 +2606,34 @@
     <t xml:space="preserve">39.9230270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6608200073242</t>
+    <t xml:space="preserve">38.6608276367188</t>
   </si>
   <si>
     <t xml:space="preserve">37.8006591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7917175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7165069580078</t>
+    <t xml:space="preserve">38.7917251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7165107727051</t>
   </si>
   <si>
     <t xml:space="preserve">37.9128532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.332763671875</t>
+    <t xml:space="preserve">36.3327598571777</t>
   </si>
   <si>
     <t xml:space="preserve">37.744556427002</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9872398376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4636497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8656883239746</t>
+    <t xml:space="preserve">36.9872360229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4636535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8656921386719</t>
   </si>
   <si>
     <t xml:space="preserve">37.3612213134766</t>
@@ -2648,16 +2648,16 @@
     <t xml:space="preserve">36.192512512207</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1461868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1364212036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7534980773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6221923828125</t>
+    <t xml:space="preserve">37.1461791992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1364135742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.753490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.622184753418</t>
   </si>
   <si>
     <t xml:space="preserve">35.7717819213867</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">32.8733901977539</t>
   </si>
   <si>
-    <t xml:space="preserve">32.845344543457</t>
+    <t xml:space="preserve">32.8453369140625</t>
   </si>
   <si>
     <t xml:space="preserve">33.3782691955566</t>
@@ -2684,25 +2684,25 @@
     <t xml:space="preserve">32.9294891357422</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5270347595215</t>
+    <t xml:space="preserve">31.5270404815674</t>
   </si>
   <si>
     <t xml:space="preserve">28.5351486206055</t>
   </si>
   <si>
-    <t xml:space="preserve">28.179859161377</t>
+    <t xml:space="preserve">28.1798610687256</t>
   </si>
   <si>
     <t xml:space="preserve">27.4505882263184</t>
   </si>
   <si>
-    <t xml:space="preserve">24.309103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7684764862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6087055206299</t>
+    <t xml:space="preserve">24.3091049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7684783935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6087074279785</t>
   </si>
   <si>
     <t xml:space="preserve">25.2440700531006</t>
@@ -2711,25 +2711,25 @@
     <t xml:space="preserve">25.7115516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2627696990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3664417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7400150299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3396301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.88232421875</t>
+    <t xml:space="preserve">25.262767791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3664436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7400131225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3396320343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8823223114014</t>
   </si>
   <si>
     <t xml:space="preserve">32.1628150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1250057220459</t>
+    <t xml:space="preserve">31.1250019073486</t>
   </si>
   <si>
     <t xml:space="preserve">30.2835330963135</t>
@@ -2741,19 +2741,19 @@
     <t xml:space="preserve">29.077428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0876064300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5172729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7136135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5083389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0502052307129</t>
+    <t xml:space="preserve">31.0876045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5172748565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7136154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5083427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0502014160156</t>
   </si>
   <si>
     <t xml:space="preserve">32.2750091552734</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">32.9575347900391</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3119945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9941101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9384231567383</t>
+    <t xml:space="preserve">31.3119964599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9941082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9384212493896</t>
   </si>
   <si>
     <t xml:space="preserve">32.2095603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6855697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1904525756836</t>
+    <t xml:space="preserve">30.6855659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.190450668335</t>
   </si>
   <si>
     <t xml:space="preserve">30.3209342956543</t>
@@ -2789,70 +2789,70 @@
     <t xml:space="preserve">30.1900367736816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6388206481934</t>
+    <t xml:space="preserve">30.6388244628906</t>
   </si>
   <si>
     <t xml:space="preserve">29.8160495758057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0961284637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0119800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.14328956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2741832733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.198974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7693042755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2185020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8071136474609</t>
+    <t xml:space="preserve">29.0961265563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0119819641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1432914733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2741851806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1989727020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7693004608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2184963226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8071155548096</t>
   </si>
   <si>
     <t xml:space="preserve">32.6022453308105</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2745971679688</t>
+    <t xml:space="preserve">31.274600982666</t>
   </si>
   <si>
     <t xml:space="preserve">31.4989891052246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3311080932617</t>
+    <t xml:space="preserve">32.331111907959</t>
   </si>
   <si>
     <t xml:space="preserve">32.4713554382324</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4615898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8075294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6672840118408</t>
+    <t xml:space="preserve">31.4615917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8075256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6672821044922</t>
   </si>
   <si>
     <t xml:space="preserve">32.4059066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9388313293457</t>
+    <t xml:space="preserve">32.938835144043</t>
   </si>
   <si>
     <t xml:space="preserve">33.2099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5091667175293</t>
+    <t xml:space="preserve">33.509162902832</t>
   </si>
   <si>
     <t xml:space="preserve">32.5274543762207</t>
@@ -2864,43 +2864,43 @@
     <t xml:space="preserve">32.5648498535156</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8262233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0319213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3872032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6859836578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.396556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9197216033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7794761657715</t>
+    <t xml:space="preserve">31.8262271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0319175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.38720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6859817504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3965606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9197235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794818878174</t>
   </si>
   <si>
     <t xml:space="preserve">31.068904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4896411895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4054908752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4335422515869</t>
+    <t xml:space="preserve">31.4896430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4054946899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4335403442383</t>
   </si>
   <si>
     <t xml:space="preserve">31.0128021240234</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4798774719238</t>
+    <t xml:space="preserve">30.4798755645752</t>
   </si>
   <si>
     <t xml:space="preserve">30.5079250335693</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3026485443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416687011719</t>
+    <t xml:space="preserve">31.3026428222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416648864746</t>
   </si>
   <si>
     <t xml:space="preserve">30.4892272949219</t>
@@ -2927,28 +2927,28 @@
     <t xml:space="preserve">29.9375953674316</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9562969207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2648334503174</t>
+    <t xml:space="preserve">29.956298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.264835357666</t>
   </si>
   <si>
     <t xml:space="preserve">30.4144268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0034599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2928829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3676815032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5737857818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2282638549805</t>
+    <t xml:space="preserve">31.0034561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2928867340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3676834106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5737895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2282600402832</t>
   </si>
   <si>
     <t xml:space="preserve">32.6209487915039</t>
@@ -2957,19 +2957,19 @@
     <t xml:space="preserve">32.9201354980469</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3506317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4632415771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7994155883789</t>
+    <t xml:space="preserve">34.3506355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4632453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7994194030762</t>
   </si>
   <si>
     <t xml:space="preserve">34.1262397766113</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9107894897461</t>
+    <t xml:space="preserve">32.9107856750488</t>
   </si>
   <si>
     <t xml:space="preserve">32.4807052612305</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">32.8920860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7050933837891</t>
+    <t xml:space="preserve">32.7050971984863</t>
   </si>
   <si>
     <t xml:space="preserve">33.2941246032715</t>
@@ -2987,37 +2987,37 @@
     <t xml:space="preserve">33.1632270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0607948303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3132362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6774559020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0233917236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3973808288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5002288818359</t>
+    <t xml:space="preserve">34.060791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.313232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6774635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0233955383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3973846435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5002250671387</t>
   </si>
   <si>
     <t xml:space="preserve">33.0510330200195</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4067344665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4258422851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8742141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4075546264648</t>
+    <t xml:space="preserve">34.4067306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4258460998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8742179870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4075584411621</t>
   </si>
   <si>
     <t xml:space="preserve">34.5937232971191</t>
@@ -3029,43 +3029,43 @@
     <t xml:space="preserve">32.8359870910645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6587600708008</t>
+    <t xml:space="preserve">33.658763885498</t>
   </si>
   <si>
     <t xml:space="preserve">34.004695892334</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3604011535645</t>
+    <t xml:space="preserve">35.3603935241699</t>
   </si>
   <si>
     <t xml:space="preserve">35.1079521179199</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0994338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1274757385254</t>
+    <t xml:space="preserve">37.0994300842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1274795532227</t>
   </si>
   <si>
     <t xml:space="preserve">37.8567581176758</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1087799072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2209777832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4083862304688</t>
+    <t xml:space="preserve">37.1087837219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2209815979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.408390045166</t>
   </si>
   <si>
     <t xml:space="preserve">38.3896865844727</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1278991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.959602355957</t>
+    <t xml:space="preserve">38.1278953552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9595947265625</t>
   </si>
   <si>
     <t xml:space="preserve">38.9787101745605</t>
@@ -3074,16 +3074,16 @@
     <t xml:space="preserve">39.2405014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1750526428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7636680603027</t>
+    <t xml:space="preserve">39.1750564575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.763671875</t>
   </si>
   <si>
     <t xml:space="preserve">38.3429336547852</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4177322387695</t>
+    <t xml:space="preserve">38.4177360534668</t>
   </si>
   <si>
     <t xml:space="preserve">38.9974098205566</t>
@@ -3092,10 +3092,10 @@
     <t xml:space="preserve">39.820182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.138484954834</t>
+    <t xml:space="preserve">40.390510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1384811401367</t>
   </si>
   <si>
     <t xml:space="preserve">41.9799537658691</t>
@@ -3110,46 +3110,46 @@
     <t xml:space="preserve">44.4856605529785</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7661552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6263198852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5421714782715</t>
+    <t xml:space="preserve">44.7661514282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6263160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5421676635742</t>
   </si>
   <si>
     <t xml:space="preserve">45.8133087158203</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3458290100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.466968536377</t>
+    <t xml:space="preserve">45.3458251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4669609069824</t>
   </si>
   <si>
     <t xml:space="preserve">45.2336349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4958381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0287704467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8791694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7482757568359</t>
+    <t xml:space="preserve">45.0746879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4958305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0287628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8791732788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7482719421387</t>
   </si>
   <si>
     <t xml:space="preserve">45.4580230712891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4767265319824</t>
+    <t xml:space="preserve">45.4767227172852</t>
   </si>
   <si>
     <t xml:space="preserve">44.7100524902344</t>
@@ -3164,58 +3164,58 @@
     <t xml:space="preserve">43.9807777404785</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0185928344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6726531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2706146240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2803840637207</t>
+    <t xml:space="preserve">45.0185890197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6726493835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.270622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2803764343262</t>
   </si>
   <si>
     <t xml:space="preserve">44.5511093139648</t>
   </si>
   <si>
-    <t xml:space="preserve">45.504768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3649406433105</t>
+    <t xml:space="preserve">45.5047721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3649444580078</t>
   </si>
   <si>
     <t xml:space="preserve">44.2612686157227</t>
   </si>
   <si>
-    <t xml:space="preserve">44.186466217041</t>
+    <t xml:space="preserve">44.1864700317383</t>
   </si>
   <si>
     <t xml:space="preserve">44.9624938964844</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3734664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8035469055176</t>
+    <t xml:space="preserve">44.373462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8035507202148</t>
   </si>
   <si>
     <t xml:space="preserve">44.8129005432129</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7669792175293</t>
+    <t xml:space="preserve">46.766975402832</t>
   </si>
   <si>
     <t xml:space="preserve">47.5336494445801</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2255249023438</t>
+    <t xml:space="preserve">48.2255210876465</t>
   </si>
   <si>
     <t xml:space="preserve">48.7304039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3003196716309</t>
+    <t xml:space="preserve">48.3003158569336</t>
   </si>
   <si>
     <t xml:space="preserve">48.5995101928711</t>
@@ -3227,22 +3227,22 @@
     <t xml:space="preserve">48.8052024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4499092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3466567993164</t>
+    <t xml:space="preserve">48.4499130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
     <t xml:space="preserve">47.2905578613281</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8523635864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5247116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8889389038086</t>
+    <t xml:space="preserve">49.8523597717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.524715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8889350891113</t>
   </si>
   <si>
     <t xml:space="preserve">48.1058807373047</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">49.2000541687012</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5584907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7661628723145</t>
+    <t xml:space="preserve">49.5584945678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7661552429199</t>
   </si>
   <si>
     <t xml:space="preserve">47.6719856262207</t>
@@ -3272,28 +3272,28 @@
     <t xml:space="preserve">46.8985214233398</t>
   </si>
   <si>
-    <t xml:space="preserve">47.464469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7947616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8793449401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0868682861328</t>
+    <t xml:space="preserve">47.4644660949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7947578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8793487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0868644714355</t>
   </si>
   <si>
     <t xml:space="preserve">48.4077224731445</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5209121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8983688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.256950378418</t>
+    <t xml:space="preserve">48.5209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.898365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2569541931152</t>
   </si>
   <si>
     <t xml:space="preserve">46.6344108581543</t>
@@ -3302,28 +3302,28 @@
     <t xml:space="preserve">46.4080276489258</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2289619445801</t>
+    <t xml:space="preserve">45.2289581298828</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459075927734</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4930763244629</t>
+    <t xml:space="preserve">45.4930686950684</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0967559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8796577453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.954963684082</t>
+    <t xml:space="preserve">46.4174575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.096752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8796539306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9549598693848</t>
   </si>
   <si>
     <t xml:space="preserve">46.6910018920898</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">47.5022010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2946815490723</t>
+    <t xml:space="preserve">47.2946853637695</t>
   </si>
   <si>
     <t xml:space="preserve">47.6531219482422</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">49.3887062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4640121459961</t>
+    <t xml:space="preserve">50.4640159606934</t>
   </si>
   <si>
     <t xml:space="preserve">48.0304222106934</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">48.0681495666504</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1247482299805</t>
+    <t xml:space="preserve">48.1247444152832</t>
   </si>
   <si>
     <t xml:space="preserve">48.5586433410645</t>
@@ -3371,28 +3371,28 @@
     <t xml:space="preserve">47.4267349243164</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5020484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.351131439209</t>
+    <t xml:space="preserve">48.5020446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3511238098145</t>
   </si>
   <si>
     <t xml:space="preserve">48.8038902282715</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0492897033691</t>
+    <t xml:space="preserve">48.0492858886719</t>
   </si>
   <si>
     <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6718330383301</t>
+    <t xml:space="preserve">48.6718292236328</t>
   </si>
   <si>
     <t xml:space="preserve">49.011402130127</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7660026550293</t>
+    <t xml:space="preserve">49.7660064697266</t>
   </si>
   <si>
     <t xml:space="preserve">49.5207633972168</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">54.8485984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3432464599609</t>
+    <t xml:space="preserve">55.3432426452637</t>
   </si>
   <si>
     <t xml:space="preserve">55.4573936462402</t>
@@ -3437,25 +3437,25 @@
     <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0471611022949</t>
+    <t xml:space="preserve">56.0471572875977</t>
   </si>
   <si>
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305328369141</t>
+    <t xml:space="preserve">54.0305290222168</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3349304199219</t>
+    <t xml:space="preserve">54.3349266052246</t>
   </si>
   <si>
     <t xml:space="preserve">55.1149482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4764137268066</t>
+    <t xml:space="preserve">55.4764175415039</t>
   </si>
   <si>
     <t xml:space="preserve">55.7427635192871</t>
@@ -3464,10 +3464,10 @@
     <t xml:space="preserve">55.2671432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4003219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4383659362793</t>
+    <t xml:space="preserve">55.400318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4383697509766</t>
   </si>
   <si>
     <t xml:space="preserve">54.4300498962402</t>
@@ -3488,13 +3488,13 @@
     <t xml:space="preserve">54.5251770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0115013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.239803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5442008972168</t>
+    <t xml:space="preserve">54.0115051269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2398071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">52.641716003418</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">54.9437217712402</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5905647277832</t>
+    <t xml:space="preserve">55.5905685424805</t>
   </si>
   <si>
     <t xml:space="preserve">53.9734573364258</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0174293518066</t>
+    <t xml:space="preserve">57.0174255371094</t>
   </si>
   <si>
     <t xml:space="preserve">56.7510833740234</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">55.1720199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8759384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9330177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7617874145508</t>
+    <t xml:space="preserve">55.8759422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9330139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.761791229248</t>
   </si>
   <si>
     <t xml:space="preserve">56.8462066650391</t>
@@ -3557,16 +3557,16 @@
     <t xml:space="preserve">58.215991973877</t>
   </si>
   <si>
-    <t xml:space="preserve">58.596492767334</t>
+    <t xml:space="preserve">58.5964889526367</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8628349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7023239135742</t>
+    <t xml:space="preserve">58.8628387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.702320098877</t>
   </si>
   <si>
     <t xml:space="preserve">57.1315803527832</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">55.6286163330078</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2231712341309</t>
+    <t xml:space="preserve">52.2231750488281</t>
   </si>
   <si>
     <t xml:space="preserve">51.2909545898438</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">51.994873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">51.918773651123</t>
+    <t xml:space="preserve">51.9187774658203</t>
   </si>
   <si>
     <t xml:space="preserve">51.5382804870605</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">52.565616607666</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4895172119141</t>
+    <t xml:space="preserve">52.4895210266113</t>
   </si>
   <si>
     <t xml:space="preserve">51.9758491516113</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">49.2552947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">49.17919921875</t>
+    <t xml:space="preserve">49.1791954040527</t>
   </si>
   <si>
     <t xml:space="preserve">50.4348373413086</t>
@@ -3641,10 +3641,10 @@
     <t xml:space="preserve">50.1114158630371</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7095031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5465927124023</t>
+    <t xml:space="preserve">51.7094993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5465965270996</t>
   </si>
   <si>
     <t xml:space="preserve">52.3182945251465</t>
@@ -3686,10 +3686,10 @@
     <t xml:space="preserve">57.3028030395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0447692871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1208648681641</t>
+    <t xml:space="preserve">58.0447731018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1208686828613</t>
   </si>
   <si>
     <t xml:space="preserve">57.6642723083496</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">58.2350196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">59.0911331176758</t>
+    <t xml:space="preserve">59.091136932373</t>
   </si>
   <si>
     <t xml:space="preserve">60.7843475341797</t>
@@ -3716,16 +3716,16 @@
     <t xml:space="preserve">63.0482978820801</t>
   </si>
   <si>
-    <t xml:space="preserve">64.3039474487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8366394042969</t>
+    <t xml:space="preserve">64.3039398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8366317749023</t>
   </si>
   <si>
     <t xml:space="preserve">62.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1160926818848</t>
+    <t xml:space="preserve">62.1160888671875</t>
   </si>
   <si>
     <t xml:space="preserve">63.2195281982422</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">64.3610153198242</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1981048583984</t>
+    <t xml:space="preserve">65.198112487793</t>
   </si>
   <si>
     <t xml:space="preserve">65.7878875732422</t>
@@ -3743,52 +3743,52 @@
     <t xml:space="preserve">65.6737289428711</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0078659057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4941864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4073791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3146438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7331962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6618843078613</t>
+    <t xml:space="preserve">65.0078582763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4941940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4073867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9341506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3146476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7331924438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6618804931641</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9555740356445</t>
+    <t xml:space="preserve">60.9555702209473</t>
   </si>
   <si>
     <t xml:space="preserve">62.420482635498</t>
   </si>
   <si>
-    <t xml:space="preserve">62.3253517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0863571166992</t>
+    <t xml:space="preserve">62.3253555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0863494873047</t>
   </si>
   <si>
     <t xml:space="preserve">65.9020233154297</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8853912353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5619735717773</t>
+    <t xml:space="preserve">63.8853988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5619697570801</t>
   </si>
   <si>
     <t xml:space="preserve">62.8390235900879</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043296813965</t>
+    <t xml:space="preserve">60.0043334960938</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">59.167236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6428565979004</t>
+    <t xml:space="preserve">59.6428527832031</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
@@ -3833,13 +3833,13 @@
     <t xml:space="preserve">61.1648445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8307151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3063354492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7379760742188</t>
+    <t xml:space="preserve">61.8307113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.306339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.737979888916</t>
   </si>
   <si>
     <t xml:space="preserve">58.2540435791016</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">54.0876045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">54.9247016906738</t>
+    <t xml:space="preserve">54.9246978759766</t>
   </si>
   <si>
     <t xml:space="preserve">53.8022346496582</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">52.4324417114258</t>
   </si>
   <si>
-    <t xml:space="preserve">53.4978370666504</t>
+    <t xml:space="preserve">53.4978408813477</t>
   </si>
   <si>
     <t xml:space="preserve">53.726131439209</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">52.7368392944336</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5929641723633</t>
+    <t xml:space="preserve">53.592960357666</t>
   </si>
   <si>
     <t xml:space="preserve">56.1422882080078</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">55.32421875</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8129386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7855987548828</t>
+    <t xml:space="preserve">52.8129425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7855949401855</t>
   </si>
   <si>
     <t xml:space="preserve">53.3075866699219</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">52.3943939208984</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1280479431152</t>
+    <t xml:space="preserve">52.128044128418</t>
   </si>
   <si>
     <t xml:space="preserve">52.0709762573242</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">46.7440185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8474617004395</t>
+    <t xml:space="preserve">47.8474578857422</t>
   </si>
   <si>
     <t xml:space="preserve">48.6084518432617</t>
@@ -3968,28 +3968,28 @@
     <t xml:space="preserve">48.1708793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3433036804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8581657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2481727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9782409667969</t>
+    <t xml:space="preserve">47.3432998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8581619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.248176574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3242797851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9782447814941</t>
   </si>
   <si>
     <t xml:space="preserve">48.2660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2469787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0353088378906</t>
+    <t xml:space="preserve">48.2469825744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0353126525879</t>
   </si>
   <si>
     <t xml:space="preserve">50.396785736084</t>
@@ -4001,13 +4001,13 @@
     <t xml:space="preserve">47.0293922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5133285522461</t>
+    <t xml:space="preserve">48.5133247375488</t>
   </si>
   <si>
     <t xml:space="preserve">46.1827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">47.067440032959</t>
+    <t xml:space="preserve">47.0674438476562</t>
   </si>
   <si>
     <t xml:space="preserve">47.505012512207</t>
@@ -4016,16 +4016,16 @@
     <t xml:space="preserve">48.094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2291564941406</t>
+    <t xml:space="preserve">47.2291526794434</t>
   </si>
   <si>
     <t xml:space="preserve">48.66552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.581111907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3552093505859</t>
+    <t xml:space="preserve">47.5811157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3552055358887</t>
   </si>
   <si>
     <t xml:space="preserve">44.822509765625</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6215515136719</t>
+    <t xml:space="preserve">45.6215553283691</t>
   </si>
   <si>
     <t xml:space="preserve">44.955680847168</t>
@@ -4052,13 +4052,13 @@
     <t xml:space="preserve">42.4253807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6370429992676</t>
+    <t xml:space="preserve">40.6370468139648</t>
   </si>
   <si>
     <t xml:space="preserve">39.7904434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7702178955078</t>
+    <t xml:space="preserve">40.7702217102051</t>
   </si>
   <si>
     <t xml:space="preserve">42.5585556030273</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">42.2161064147949</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0627136230469</t>
+    <t xml:space="preserve">43.0627174377441</t>
   </si>
   <si>
     <t xml:space="preserve">41.569263458252</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">40.1994743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">40.797737121582</t>
+    <t xml:space="preserve">40.7977409362793</t>
   </si>
   <si>
     <t xml:space="preserve">39.4371719360352</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">40.7205467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">41.579345703125</t>
+    <t xml:space="preserve">41.5793418884277</t>
   </si>
   <si>
     <t xml:space="preserve">43.3162384033203</t>
@@ -4112,19 +4112,19 @@
     <t xml:space="preserve">44.281177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4645195007324</t>
+    <t xml:space="preserve">44.4645233154297</t>
   </si>
   <si>
     <t xml:space="preserve">44.2136344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">43.065357208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1486549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5240173339844</t>
+    <t xml:space="preserve">43.0653533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1486587524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5240135192871</t>
   </si>
   <si>
     <t xml:space="preserve">38.0573043823242</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">37.0344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3660850524902</t>
+    <t xml:space="preserve">38.366081237793</t>
   </si>
   <si>
     <t xml:space="preserve">36.1756706237793</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">35.7896919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7221488952637</t>
+    <t xml:space="preserve">35.7221450805664</t>
   </si>
   <si>
     <t xml:space="preserve">36.4844512939453</t>
@@ -4169,7 +4169,7 @@
     <t xml:space="preserve">39.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9257507324219</t>
+    <t xml:space="preserve">38.9257545471191</t>
   </si>
   <si>
     <t xml:space="preserve">38.2213478088379</t>
@@ -4178,10 +4178,10 @@
     <t xml:space="preserve">39.77490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9389381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0257835388184</t>
+    <t xml:space="preserve">39.9389419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0257873535156</t>
   </si>
   <si>
     <t xml:space="preserve">39.3985748291016</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">41.2609100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">41.675838470459</t>
+    <t xml:space="preserve">41.6758346557617</t>
   </si>
   <si>
     <t xml:space="preserve">42.081111907959</t>
@@ -4223,10 +4223,10 @@
     <t xml:space="preserve">41.6468887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9952392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9637184143066</t>
+    <t xml:space="preserve">44.9952354431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9637145996094</t>
   </si>
   <si>
     <t xml:space="preserve">47.021614074707</t>
@@ -4235,22 +4235,22 @@
     <t xml:space="preserve">46.0663223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3654518127441</t>
+    <t xml:space="preserve">46.3654556274414</t>
   </si>
   <si>
     <t xml:space="preserve">47.5812835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5716323852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5523300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.896167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7742691040039</t>
+    <t xml:space="preserve">47.5716285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5523338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8961715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7742652893066</t>
   </si>
   <si>
     <t xml:space="preserve">48.0155029296875</t>
@@ -4268,10 +4268,10 @@
     <t xml:space="preserve">47.8128662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0241813659668</t>
+    <t xml:space="preserve">47.1760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0241851806641</t>
   </si>
   <si>
     <t xml:space="preserve">45.8540344238281</t>
@@ -4286,31 +4286,31 @@
     <t xml:space="preserve">44.0206451416016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.103946685791</t>
+    <t xml:space="preserve">43.1039505004883</t>
   </si>
   <si>
     <t xml:space="preserve">43.2679901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0750007629395</t>
+    <t xml:space="preserve">43.0750045776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.974967956543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1811447143555</t>
+    <t xml:space="preserve">43.1811485290527</t>
   </si>
   <si>
     <t xml:space="preserve">42.071460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1100616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3319931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6407775878906</t>
+    <t xml:space="preserve">42.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3319969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6407737731934</t>
   </si>
   <si>
     <t xml:space="preserve">43.4320297241211</t>
@@ -4319,25 +4319,25 @@
     <t xml:space="preserve">43.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9688606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6829147338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.505687713623</t>
+    <t xml:space="preserve">42.9688568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.682918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5056838989258</t>
   </si>
   <si>
     <t xml:space="preserve">41.8495254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4284896850586</t>
+    <t xml:space="preserve">42.4284934997559</t>
   </si>
   <si>
     <t xml:space="preserve">42.7469215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4223823547363</t>
+    <t xml:space="preserve">43.4223785400391</t>
   </si>
   <si>
     <t xml:space="preserve">40.8556365966797</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">41.9942665100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7108955383301</t>
+    <t xml:space="preserve">40.7108917236328</t>
   </si>
   <si>
     <t xml:space="preserve">40.9038848876953</t>
@@ -4370,7 +4370,7 @@
     <t xml:space="preserve">43.8083610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9206123352051</t>
+    <t xml:space="preserve">42.9206085205078</t>
   </si>
   <si>
     <t xml:space="preserve">42.4574394226074</t>
@@ -4385,10 +4385,10 @@
     <t xml:space="preserve">43.6153717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6925659179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7925987243652</t>
+    <t xml:space="preserve">43.6925621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.792594909668</t>
   </si>
   <si>
     <t xml:space="preserve">45.0531311035156</t>
@@ -4397,7 +4397,7 @@
     <t xml:space="preserve">44.7057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6803436279297</t>
+    <t xml:space="preserve">45.680347442627</t>
   </si>
   <si>
     <t xml:space="preserve">44.3390769958496</t>
@@ -4409,13 +4409,13 @@
     <t xml:space="preserve">47.2146034240723</t>
   </si>
   <si>
-    <t xml:space="preserve">46.703182220459</t>
+    <t xml:space="preserve">46.7031860351562</t>
   </si>
   <si>
     <t xml:space="preserve">44.7347030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7022171020508</t>
+    <t xml:space="preserve">43.7022132873535</t>
   </si>
   <si>
     <t xml:space="preserve">42.1583061218262</t>
@@ -4430,16 +4430,16 @@
     <t xml:space="preserve">40.7784385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7987098693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9144973754883</t>
+    <t xml:space="preserve">43.7987060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9145011901855</t>
   </si>
   <si>
     <t xml:space="preserve">44.8215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0820846557617</t>
+    <t xml:space="preserve">45.0820808410645</t>
   </si>
   <si>
     <t xml:space="preserve">47.8321647644043</t>
@@ -4451,31 +4451,31 @@
     <t xml:space="preserve">48.6909637451172</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8453521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2663879394531</t>
+    <t xml:space="preserve">48.8453559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2663917541504</t>
   </si>
   <si>
     <t xml:space="preserve">48.1312980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0830497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6645889282227</t>
+    <t xml:space="preserve">48.0830535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6645851135254</t>
   </si>
   <si>
     <t xml:space="preserve">46.6356391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.597038269043</t>
+    <t xml:space="preserve">46.5970420837402</t>
   </si>
   <si>
     <t xml:space="preserve">46.4426498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3172035217285</t>
+    <t xml:space="preserve">46.3172073364258</t>
   </si>
   <si>
     <t xml:space="preserve">45.8347358703613</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">47.330394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5777435302734</t>
+    <t xml:space="preserve">46.5777397155762</t>
   </si>
   <si>
     <t xml:space="preserve">46.6259880065918</t>
@@ -4493,7 +4493,7 @@
     <t xml:space="preserve">45.7671890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7803802490234</t>
+    <t xml:space="preserve">46.7803764343262</t>
   </si>
   <si>
     <t xml:space="preserve">47.6391754150391</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">45.9215812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1953048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4136962890625</t>
+    <t xml:space="preserve">47.1953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4137001037598</t>
   </si>
   <si>
     <t xml:space="preserve">47.7356719970703</t>
@@ -4529,16 +4529,16 @@
     <t xml:space="preserve">48.3821792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7646217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8839530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6330718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6559028625488</t>
+    <t xml:space="preserve">47.7646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8839492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6330680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">50.505054473877</t>
@@ -4547,22 +4547,22 @@
     <t xml:space="preserve">50.8331336975098</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0804824829102</t>
+    <t xml:space="preserve">50.0804786682129</t>
   </si>
   <si>
     <t xml:space="preserve">51.2770080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6243858337402</t>
+    <t xml:space="preserve">51.6243896484375</t>
   </si>
   <si>
     <t xml:space="preserve">53.0525016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5349731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0753402709961</t>
+    <t xml:space="preserve">53.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0753364562988</t>
   </si>
   <si>
     <t xml:space="preserve">54.2876243591309</t>
@@ -4571,13 +4571,13 @@
     <t xml:space="preserve">53.0910987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2490310668945</t>
+    <t xml:space="preserve">54.2490272521973</t>
   </si>
   <si>
     <t xml:space="preserve">54.5385131835938</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3069229125977</t>
+    <t xml:space="preserve">54.3069267272949</t>
   </si>
   <si>
     <t xml:space="preserve">54.4613151550293</t>
@@ -4586,22 +4586,22 @@
     <t xml:space="preserve">55.754337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3104667663574</t>
+    <t xml:space="preserve">55.3104629516602</t>
   </si>
   <si>
     <t xml:space="preserve">55.1946716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0595817565918</t>
+    <t xml:space="preserve">55.0595779418945</t>
   </si>
   <si>
     <t xml:space="preserve">56.4683952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6999816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4262542724609</t>
+    <t xml:space="preserve">56.6999778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4262580871582</t>
   </si>
   <si>
     <t xml:space="preserve">55.2525672912598</t>
@@ -4616,28 +4616,28 @@
     <t xml:space="preserve">54.2297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">54.7122001647949</t>
+    <t xml:space="preserve">54.7122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">55.1560745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1210174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6385459899902</t>
+    <t xml:space="preserve">56.1210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">55.6771430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6034889221191</t>
+    <t xml:space="preserve">56.6034851074219</t>
   </si>
   <si>
     <t xml:space="preserve">56.5648880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2175102233887</t>
+    <t xml:space="preserve">56.2175064086914</t>
   </si>
   <si>
     <t xml:space="preserve">55.6964416503906</t>
@@ -4649,7 +4649,7 @@
     <t xml:space="preserve">55.7736358642578</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6070289611816</t>
+    <t xml:space="preserve">57.6070251464844</t>
   </si>
   <si>
     <t xml:space="preserve">58.2438888549805</t>
@@ -4691,10 +4691,10 @@
     <t xml:space="preserve">57.5684280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8035545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.2667236328125</t>
+    <t xml:space="preserve">58.8035507202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.2667274475098</t>
   </si>
   <si>
     <t xml:space="preserve">59.4597129821777</t>
@@ -4706,37 +4706,37 @@
     <t xml:space="preserve">58.5719680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.2509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2316627502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3124046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4667930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9878616333008</t>
+    <t xml:space="preserve">60.2509689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.2316665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3124008178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3703002929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9878578186035</t>
   </si>
   <si>
     <t xml:space="preserve">61.0422172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">61.196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7720375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4738731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6282653808594</t>
+    <t xml:space="preserve">61.1966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4738693237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6282615661621</t>
   </si>
   <si>
     <t xml:space="preserve">62.373836517334</t>
@@ -4751,7 +4751,7 @@
     <t xml:space="preserve">64.5739059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8440856933594</t>
+    <t xml:space="preserve">64.8440933227539</t>
   </si>
   <si>
     <t xml:space="preserve">65.3072662353516</t>
@@ -4772,13 +4772,13 @@
     <t xml:space="preserve">66.1564025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9405899047852</t>
+    <t xml:space="preserve">64.9405822753906</t>
   </si>
   <si>
     <t xml:space="preserve">64.4195175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8791465759277</t>
+    <t xml:space="preserve">63.8791427612305</t>
   </si>
   <si>
     <t xml:space="preserve">63.3001823425293</t>
@@ -4793,13 +4793,13 @@
     <t xml:space="preserve">62.8949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">62.991397857666</t>
+    <t xml:space="preserve">62.9914016723633</t>
   </si>
   <si>
     <t xml:space="preserve">62.2387466430664</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1036529541016</t>
+    <t xml:space="preserve">62.1036567687988</t>
   </si>
   <si>
     <t xml:space="preserve">63.5374183654785</t>
@@ -5553,6 +5553,9 @@
   </si>
   <si>
     <t xml:space="preserve">57.1800003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.060001373291</t>
   </si>
 </sst>
 </file>
@@ -62054,7 +62057,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6496412037</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>755557</v>
@@ -62075,6 +62078,32 @@
         <v>1846</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6503472222</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>526944</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>57.7000007629395</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>56.7999992370605</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>57.1399993896484</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>57.060001373291</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1854">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,31 +44,31 @@
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.119610786438</t>
+    <t xml:space="preserve">11.1196098327637</t>
   </si>
   <si>
     <t xml:space="preserve">10.9933528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0474624633789</t>
+    <t xml:space="preserve">11.0474643707275</t>
   </si>
   <si>
     <t xml:space="preserve">11.1376476287842</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3270330429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7869672775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6336555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089942932129</t>
+    <t xml:space="preserve">11.327033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1206464767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7869682312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6336545944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089962005615</t>
   </si>
   <si>
     <t xml:space="preserve">11.7058019638062</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">11.5615091323853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9853706359863</t>
+    <t xml:space="preserve">11.9853715896606</t>
   </si>
   <si>
     <t xml:space="preserve">12.2829761505127</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">12.1657371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2919931411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2649402618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8861684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559223175049</t>
+    <t xml:space="preserve">12.2919940948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2649393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8861694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559213638306</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116275787354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0575170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9222431182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0755548477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5705280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4262342453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1917572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4081964492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0925559997559</t>
+    <t xml:space="preserve">12.0575180053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9222421646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.075553894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5705270767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4262351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1917562484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4081974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0925550460815</t>
   </si>
   <si>
     <t xml:space="preserve">11.4532880783081</t>
@@ -134,25 +134,25 @@
     <t xml:space="preserve">11.8320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0394811630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5805807113647</t>
+    <t xml:space="preserve">12.0394802093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5805816650391</t>
   </si>
   <si>
     <t xml:space="preserve">12.4182529449463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4362869262695</t>
+    <t xml:space="preserve">12.4362888336182</t>
   </si>
   <si>
     <t xml:space="preserve">12.5715618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9583168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3641414642334</t>
+    <t xml:space="preserve">11.9583148956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3641424179077</t>
   </si>
   <si>
     <t xml:space="preserve">12.9142589569092</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">12.9413146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3922328948975</t>
+    <t xml:space="preserve">13.3922319412231</t>
   </si>
   <si>
     <t xml:space="preserve">13.5906352996826</t>
@@ -173,46 +173,46 @@
     <t xml:space="preserve">13.6627826690674</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587915420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357269287109</t>
+    <t xml:space="preserve">14.1587905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357278823853</t>
   </si>
   <si>
     <t xml:space="preserve">13.8070755004883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8972587585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184869766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2208824157715</t>
+    <t xml:space="preserve">13.8972568511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184888839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2208843231201</t>
   </si>
   <si>
     <t xml:space="preserve">13.238920211792</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1667728424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0765895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1938285827637</t>
+    <t xml:space="preserve">13.1667737960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0765914916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.193829536438</t>
   </si>
   <si>
     <t xml:space="preserve">13.1216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2749938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988544464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3020467758179</t>
+    <t xml:space="preserve">13.2749929428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988554000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3020496368408</t>
   </si>
   <si>
     <t xml:space="preserve">13.1577548980713</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">13.103645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7609491348267</t>
+    <t xml:space="preserve">12.7609462738037</t>
   </si>
   <si>
     <t xml:space="preserve">12.9683694839478</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">13.0044431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2118654251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0495338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3291025161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3832139968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5725965499878</t>
+    <t xml:space="preserve">13.2118635177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0495347976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3291044235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725994110107</t>
   </si>
   <si>
     <t xml:space="preserve">13.3471403121948</t>
@@ -257,22 +257,22 @@
     <t xml:space="preserve">12.7699661254883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1487369537354</t>
+    <t xml:space="preserve">13.148736000061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1757907867432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500452041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.185845375061</t>
+    <t xml:space="preserve">13.5004510879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227169036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489728927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1858444213867</t>
   </si>
   <si>
     <t xml:space="preserve">14.1407537460327</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">13.4091634750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7459850311279</t>
+    <t xml:space="preserve">13.7459859848022</t>
   </si>
   <si>
     <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4546785354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6549520492554</t>
+    <t xml:space="preserve">13.4546804428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6549510955811</t>
   </si>
   <si>
     <t xml:space="preserve">13.7824001312256</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">13.6822624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5457124710083</t>
+    <t xml:space="preserve">13.545711517334</t>
   </si>
   <si>
     <t xml:space="preserve">13.5001964569092</t>
@@ -326,22 +326,22 @@
     <t xml:space="preserve">13.9189491271973</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9280519485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.481990814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3363361358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8993787765503</t>
+    <t xml:space="preserve">13.9280529022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4819917678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3363370895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.899377822876</t>
   </si>
   <si>
     <t xml:space="preserve">13.3909568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.035927772522</t>
+    <t xml:space="preserve">13.0359296798706</t>
   </si>
   <si>
     <t xml:space="preserve">14.0008783340454</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">13.8643283843994</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0463953018188</t>
+    <t xml:space="preserve">14.0463943481445</t>
   </si>
   <si>
     <t xml:space="preserve">14.4196300506592</t>
@@ -362,34 +362,34 @@
     <t xml:space="preserve">12.4715232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8720684051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3272333145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1724786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7901382446289</t>
+    <t xml:space="preserve">12.8720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3272342681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.172477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7901391983032</t>
   </si>
   <si>
     <t xml:space="preserve">13.0268249511719</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0541343688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.145167350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0996503829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1360645294189</t>
+    <t xml:space="preserve">13.0541353225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1451683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0996513366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545427322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1360654830933</t>
   </si>
   <si>
     <t xml:space="preserve">13.1269607543945</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">12.9448947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0190858840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557716369629</t>
+    <t xml:space="preserve">14.0190839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.36501121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557706832886</t>
   </si>
   <si>
     <t xml:space="preserve">14.5652828216553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2739791870117</t>
+    <t xml:space="preserve">14.2739763259888</t>
   </si>
   <si>
     <t xml:space="preserve">14.1465311050415</t>
@@ -419,31 +419,31 @@
     <t xml:space="preserve">13.6913652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7915019989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192216873169</t>
+    <t xml:space="preserve">13.7915029525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192207336426</t>
   </si>
   <si>
     <t xml:space="preserve">14.2193574905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2102546691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0372924804688</t>
+    <t xml:space="preserve">14.2102537155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0372915267944</t>
   </si>
   <si>
     <t xml:space="preserve">14.2375640869141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1829442977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1101179122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9553632736206</t>
+    <t xml:space="preserve">14.1829433441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1101160049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.955361366272</t>
   </si>
   <si>
     <t xml:space="preserve">14.1920480728149</t>
@@ -452,22 +452,22 @@
     <t xml:space="preserve">13.9462575912476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8825368881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732963562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7095737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5366086959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6003313064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7004680633545</t>
+    <t xml:space="preserve">13.8825340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732954025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7095727920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5366106033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6003322601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7004709243774</t>
   </si>
   <si>
     <t xml:space="preserve">13.9098453521729</t>
@@ -479,22 +479,22 @@
     <t xml:space="preserve">13.8916397094727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1010131835938</t>
+    <t xml:space="preserve">14.1010141372681</t>
   </si>
   <si>
     <t xml:space="preserve">13.8006057739258</t>
   </si>
   <si>
-    <t xml:space="preserve">14.201150894165</t>
+    <t xml:space="preserve">14.2011528015137</t>
   </si>
   <si>
     <t xml:space="preserve">14.264874458313</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6367454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370189666748</t>
+    <t xml:space="preserve">13.6367464065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370170593262</t>
   </si>
   <si>
     <t xml:space="preserve">13.8279142379761</t>
@@ -503,34 +503,34 @@
     <t xml:space="preserve">13.9735689163208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6640558242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.02818775177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2921838760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0828075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1556348800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.064600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826707839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8097095489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5821256637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5730218887329</t>
+    <t xml:space="preserve">13.6640548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0281867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2921848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0828084945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1556329727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0646018981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8097085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5821266174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5730228424072</t>
   </si>
   <si>
     <t xml:space="preserve">13.6731595993042</t>
@@ -539,100 +539,100 @@
     <t xml:space="preserve">13.5184030532837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8188123703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5093002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644651412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0554981231689</t>
+    <t xml:space="preserve">13.8188133239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092992782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0554971694946</t>
   </si>
   <si>
     <t xml:space="preserve">14.2466669082642</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474826812744</t>
+    <t xml:space="preserve">14.8474855422974</t>
   </si>
   <si>
     <t xml:space="preserve">14.8383817672729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1205854415894</t>
+    <t xml:space="preserve">15.1205863952637</t>
   </si>
   <si>
     <t xml:space="preserve">15.3026523590088</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2480306625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1023778915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7473487854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9385175704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9749336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931383132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565874099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838996887207</t>
+    <t xml:space="preserve">15.2480316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1023769378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7473497390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.938515663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9749326705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0750694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931373596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8838968276978</t>
   </si>
   <si>
     <t xml:space="preserve">14.9021062850952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752052307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.911208152771</t>
+    <t xml:space="preserve">15.0477590560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935466766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752042770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9112071990967</t>
   </si>
   <si>
     <t xml:space="preserve">14.874794960022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1569976806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6485786437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6849908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9034662246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9398794174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6940908432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9945011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3131160736084</t>
+    <t xml:space="preserve">15.1569967269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6485757827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6849880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.903468132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9398822784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6940937042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9944982528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.313117980957</t>
   </si>
   <si>
     <t xml:space="preserve">16.3859443664551</t>
@@ -641,40 +641,40 @@
     <t xml:space="preserve">16.4223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4132518768311</t>
+    <t xml:space="preserve">16.4132537841797</t>
   </si>
   <si>
     <t xml:space="preserve">16.4678745269775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3313217163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2493953704834</t>
+    <t xml:space="preserve">16.3313255310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2493934631348</t>
   </si>
   <si>
     <t xml:space="preserve">16.2038764953613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1310520172119</t>
+    <t xml:space="preserve">16.1310501098633</t>
   </si>
   <si>
     <t xml:space="preserve">15.8488483428955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1492538452148</t>
+    <t xml:space="preserve">16.1492557525635</t>
   </si>
   <si>
     <t xml:space="preserve">16.1947746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.176570892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1583595275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1037406921387</t>
+    <t xml:space="preserve">16.1765689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1583576202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1037425994873</t>
   </si>
   <si>
     <t xml:space="preserve">16.3950462341309</t>
@@ -683,34 +683,34 @@
     <t xml:space="preserve">16.3222198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2676029205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1128425598145</t>
+    <t xml:space="preserve">16.2676010131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1128463745117</t>
   </si>
   <si>
     <t xml:space="preserve">16.1856708526611</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4041481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3326854705811</t>
+    <t xml:space="preserve">16.4041500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3326892852783</t>
   </si>
   <si>
     <t xml:space="preserve">17.496545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3964099884033</t>
+    <t xml:space="preserve">17.396411895752</t>
   </si>
   <si>
     <t xml:space="preserve">17.5329608917236</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5693759918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7514381408691</t>
+    <t xml:space="preserve">17.5693740844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7514400482178</t>
   </si>
   <si>
     <t xml:space="preserve">17.8060569763184</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">17.8970909118652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8424701690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973644256592</t>
+    <t xml:space="preserve">17.842472076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973625183105</t>
   </si>
   <si>
     <t xml:space="preserve">18.2521190643311</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">18.1246738433838</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3067378997803</t>
+    <t xml:space="preserve">18.3067417144775</t>
   </si>
   <si>
     <t xml:space="preserve">18.3340492248535</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">18.6617698669434</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4159774780273</t>
+    <t xml:space="preserve">18.4159812927246</t>
   </si>
   <si>
     <t xml:space="preserve">18.5252208709717</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">18.689079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8711452484131</t>
+    <t xml:space="preserve">18.8711433410645</t>
   </si>
   <si>
     <t xml:space="preserve">19.1897621154785</t>
@@ -770,19 +770,19 @@
     <t xml:space="preserve">19.4992713928223</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4628601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.745059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269939422607</t>
+    <t xml:space="preserve">19.4628582000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269901275635</t>
   </si>
   <si>
     <t xml:space="preserve">19.371826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4719657897949</t>
+    <t xml:space="preserve">19.4719638824463</t>
   </si>
   <si>
     <t xml:space="preserve">19.5812015533447</t>
@@ -791,109 +791,109 @@
     <t xml:space="preserve">19.7996807098389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9635429382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7268543243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8451957702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7814750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4642219543457</t>
+    <t xml:space="preserve">19.9635410308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7268562316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8451976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.78147315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4642200469971</t>
   </si>
   <si>
     <t xml:space="preserve">20.7100124359131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.628080368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9466991424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1196594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4018630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7555294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0545768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2730541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1638145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2548484802246</t>
+    <t xml:space="preserve">20.6280841827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9466972351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1196613311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4018650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7555274963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0545749664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2730522155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1638126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2548446655273</t>
   </si>
   <si>
     <t xml:space="preserve">20.1456050872803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2639503479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6540298461914</t>
+    <t xml:space="preserve">20.2639465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6540279388428</t>
   </si>
   <si>
     <t xml:space="preserve">19.8178863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9188613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9922943115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8729610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7536334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860240936279</t>
+    <t xml:space="preserve">19.9188594818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9922904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8729629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7536315917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860279083252</t>
   </si>
   <si>
     <t xml:space="preserve">19.4966144561768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9004993438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.973934173584</t>
+    <t xml:space="preserve">19.9005012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9739322662354</t>
   </si>
   <si>
     <t xml:space="preserve">19.5425109863281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1845226287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2671356201172</t>
+    <t xml:space="preserve">19.1845245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2671337127686</t>
   </si>
   <si>
     <t xml:space="preserve">19.2304191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3405685424805</t>
+    <t xml:space="preserve">19.3405704498291</t>
   </si>
   <si>
     <t xml:space="preserve">18.83571434021</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0927295684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3864669799805</t>
+    <t xml:space="preserve">19.0927276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3864631652832</t>
   </si>
   <si>
     <t xml:space="preserve">19.3038520812988</t>
@@ -902,52 +902,52 @@
     <t xml:space="preserve">19.6067657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4874324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8821430206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.404821395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5884075164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2028789520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6245918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8173561096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8907890319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8540744781494</t>
+    <t xml:space="preserve">19.487434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8821392059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4782581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5884056091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.202880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6245937347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8173542022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8907909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8540725708008</t>
   </si>
   <si>
     <t xml:space="preserve">19.0651950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9917583465576</t>
+    <t xml:space="preserve">18.9917602539062</t>
   </si>
   <si>
     <t xml:space="preserve">18.8632488250732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.368106842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5516910552979</t>
+    <t xml:space="preserve">19.3681049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5516872406006</t>
   </si>
   <si>
     <t xml:space="preserve">19.643482208252</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">19.6710224151611</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7169170379639</t>
+    <t xml:space="preserve">19.7169151306152</t>
   </si>
   <si>
     <t xml:space="preserve">19.6985549926758</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">19.4599018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5155048370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.744987487793</t>
+    <t xml:space="preserve">20.515510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7449855804443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8367786407471</t>
@@ -983,37 +983,37 @@
     <t xml:space="preserve">20.5338649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6715526580811</t>
+    <t xml:space="preserve">20.6715545654297</t>
   </si>
   <si>
     <t xml:space="preserve">20.6072978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6807327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256580352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1305160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4334278106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8373146057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6720848083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.635368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7179794311523</t>
+    <t xml:space="preserve">20.6531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6807346343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1305141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4334259033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8373126983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.672082901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6353702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.717981338501</t>
   </si>
   <si>
     <t xml:space="preserve">21.6629066467285</t>
@@ -1022,49 +1022,49 @@
     <t xml:space="preserve">21.5711135864258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4976825714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1580486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5619335174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9107475280762</t>
+    <t xml:space="preserve">21.4976806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1580467224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5619354248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9107456207275</t>
   </si>
   <si>
     <t xml:space="preserve">22.1952991485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0392551422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0943260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.296272277832</t>
+    <t xml:space="preserve">22.0392532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0943279266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2962703704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.4614963531494</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7368717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6726207733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9020977020264</t>
+    <t xml:space="preserve">22.736873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6726169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.902099609375</t>
   </si>
   <si>
     <t xml:space="preserve">22.9204559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">22.810302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5441074371338</t>
+    <t xml:space="preserve">22.8103046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5441112518311</t>
   </si>
   <si>
     <t xml:space="preserve">22.690975189209</t>
@@ -1073,31 +1073,31 @@
     <t xml:space="preserve">22.5349292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5165729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5532875061035</t>
+    <t xml:space="preserve">22.5165691375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5532855987549</t>
   </si>
   <si>
     <t xml:space="preserve">22.2595539093018</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1218681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3697071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4155979156494</t>
+    <t xml:space="preserve">22.1218643188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3697052001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4156017303467</t>
   </si>
   <si>
     <t xml:space="preserve">22.4431400299072</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1402244567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0484352111816</t>
+    <t xml:space="preserve">22.1402263641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.048433303833</t>
   </si>
   <si>
     <t xml:space="preserve">21.7638778686523</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">22.3605251312256</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5900039672852</t>
+    <t xml:space="preserve">22.5900077819824</t>
   </si>
   <si>
     <t xml:space="preserve">22.6542587280273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7001533508301</t>
+    <t xml:space="preserve">22.7001571655273</t>
   </si>
   <si>
     <t xml:space="preserve">22.2870922088623</t>
@@ -1127,112 +1127,112 @@
     <t xml:space="preserve">22.7460536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8653831481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6634387969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4247817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788814544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3054466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2411937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1494026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667915344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3508110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2957382202148</t>
+    <t xml:space="preserve">22.8653812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6634368896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4247798919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788833618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3054523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2411956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1494064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3508148193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2957401275635</t>
   </si>
   <si>
     <t xml:space="preserve">20.9561100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0570812225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3875274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3783550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4242458343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1121520996094</t>
+    <t xml:space="preserve">21.0570774078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3875293731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3783512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4242496490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1121559143066</t>
   </si>
   <si>
     <t xml:space="preserve">21.1396923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7271614074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7087993621826</t>
+    <t xml:space="preserve">21.0846176147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7271595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7088031768799</t>
   </si>
   <si>
     <t xml:space="preserve">22.2503757476807</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7735862731934</t>
+    <t xml:space="preserve">22.7735900878906</t>
   </si>
   <si>
     <t xml:space="preserve">22.8194847106934</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1958312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6267223358154</t>
+    <t xml:space="preserve">23.1958351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6267204284668</t>
   </si>
   <si>
     <t xml:space="preserve">23.1407566070557</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2141895294189</t>
+    <t xml:space="preserve">23.2141933441162</t>
   </si>
   <si>
     <t xml:space="preserve">23.1223983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4069538116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5721797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9760646820068</t>
+    <t xml:space="preserve">23.4069519042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5721778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9760665893555</t>
   </si>
   <si>
     <t xml:space="preserve">24.233081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9393463134766</t>
+    <t xml:space="preserve">23.9393501281738</t>
   </si>
   <si>
     <t xml:space="preserve">23.6823291778564</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">23.4987468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">23.957706451416</t>
+    <t xml:space="preserve">23.9577045440674</t>
   </si>
   <si>
     <t xml:space="preserve">23.8108386993408</t>
@@ -1253,40 +1253,40 @@
     <t xml:space="preserve">23.5171031951904</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1315803527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0948600769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3518810272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1412887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6736812591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8205509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5818920135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7103977203369</t>
+    <t xml:space="preserve">23.1315784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0948619842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.351879119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1412868499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6736831665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8205528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5818881988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7103996276855</t>
   </si>
   <si>
     <t xml:space="preserve">24.8389091491699</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8572673797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6186065673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4442024230957</t>
+    <t xml:space="preserve">24.8572654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6186084747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4442005157471</t>
   </si>
   <si>
     <t xml:space="preserve">24.3615913391113</t>
@@ -1298,82 +1298,82 @@
     <t xml:space="preserve">23.8842716217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7833003997803</t>
+    <t xml:space="preserve">23.7833023071289</t>
   </si>
   <si>
     <t xml:space="preserve">24.6920413970947</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6088943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3707675933838</t>
+    <t xml:space="preserve">23.6088962554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3707714080811</t>
   </si>
   <si>
     <t xml:space="preserve">24.9949531555176</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0230255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.114818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7751884460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9128742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8119049072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7384719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9863090515137</t>
+    <t xml:space="preserve">26.0230274200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1148166656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7751865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9128723144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9312305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8119029998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7384700775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.986307144165</t>
   </si>
   <si>
     <t xml:space="preserve">26.4911651611328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.344295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6650352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6099605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0505638122559</t>
+    <t xml:space="preserve">26.3442974090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6650371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6099624633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0505619049072</t>
   </si>
   <si>
     <t xml:space="preserve">25.9220523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5737762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7665405273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8675136566162</t>
+    <t xml:space="preserve">26.5737781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7665386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8675098419189</t>
   </si>
   <si>
     <t xml:space="preserve">27.0327377319336</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8491516113281</t>
+    <t xml:space="preserve">26.8491554260254</t>
   </si>
   <si>
     <t xml:space="preserve">27.1796054840088</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1153507232666</t>
+    <t xml:space="preserve">27.115348815918</t>
   </si>
   <si>
     <t xml:space="preserve">27.3264713287354</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">27.8405055999756</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3270053863525</t>
+    <t xml:space="preserve">28.3270034790039</t>
   </si>
   <si>
     <t xml:space="preserve">27.9506587982178</t>
@@ -1391,49 +1391,49 @@
     <t xml:space="preserve">28.0975227355957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.051628112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2994651794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3637199401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1720218658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.832389831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2179203033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5667285919189</t>
+    <t xml:space="preserve">28.0516262054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.299467086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3637218475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1720180511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8323917388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2179145812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5667266845703</t>
   </si>
   <si>
     <t xml:space="preserve">30.6493434906006</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3188896179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9797897338867</t>
+    <t xml:space="preserve">30.3188877105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9797916412354</t>
   </si>
   <si>
     <t xml:space="preserve">31.2459888458252</t>
   </si>
   <si>
-    <t xml:space="preserve">30.897180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.631519317627</t>
+    <t xml:space="preserve">30.8971767425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6315116882324</t>
   </si>
   <si>
     <t xml:space="preserve">32.3383102416992</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1455459594727</t>
+    <t xml:space="preserve">32.1455497741699</t>
   </si>
   <si>
     <t xml:space="preserve">32.4576416015625</t>
@@ -1445,28 +1445,28 @@
     <t xml:space="preserve">33.0634689331055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1369018554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.412281036377</t>
+    <t xml:space="preserve">33.1368980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4122848510742</t>
   </si>
   <si>
     <t xml:space="preserve">33.9171371459961</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3669128417969</t>
+    <t xml:space="preserve">34.3669090270996</t>
   </si>
   <si>
     <t xml:space="preserve">34.8809509277344</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5040664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7421913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.485710144043</t>
+    <t xml:space="preserve">33.5040702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7421951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4857139587402</t>
   </si>
   <si>
     <t xml:space="preserve">33.5316047668457</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">33.7702674865723</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1466102600098</t>
+    <t xml:space="preserve">34.146614074707</t>
   </si>
   <si>
     <t xml:space="preserve">34.5413246154785</t>
@@ -1487,1051 +1487,1051 @@
     <t xml:space="preserve">34.8625946044922</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7162551879883</t>
+    <t xml:space="preserve">35.7162628173828</t>
   </si>
   <si>
     <t xml:space="preserve">36.1660385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9256706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9457092285156</t>
+    <t xml:space="preserve">35.9256744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9457130432129</t>
   </si>
   <si>
     <t xml:space="preserve">34.187629699707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.973445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.295467376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4988555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3432426452637</t>
+    <t xml:space="preserve">34.9734497070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2954597473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.498851776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3432388305664</t>
   </si>
   <si>
     <t xml:space="preserve">35.6390800476074</t>
   </si>
   <si>
+    <t xml:space="preserve">36.3047180175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.332447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8316764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2184028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8023834228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7484664916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7838973999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1074676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4217948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9949760437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8840370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3385887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1552429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8409156799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7761993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5820617675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8979377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8794479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9996299743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5836143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0550994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8332176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919357299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4187507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2061195373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.760814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5373840332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6498756408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3155097961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0828323364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6020965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1105728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9534034729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8702011108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7222785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6560134887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3617324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1675910949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2708396911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.871753692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6683654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8733024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7330780029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8440170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.010425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2045707702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0936279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4834671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2970161437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.269287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7114868164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6467704772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8131866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0181198120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9903945922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5928535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2985649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7515716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8070449829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7700614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2600402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4464912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0843887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8902435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0659027099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9826889038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5481796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8809928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7037925720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4172019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4295539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2646942138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9025917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3340587615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9180393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5852241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6499347686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.788610458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440818786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1044864654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1784477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.022834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6422424316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2893867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5497932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9195899963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4742832183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9534683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5929145812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3710384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5282039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0844459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8271446228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4357528686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4095687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.418815612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7254486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6253051757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2169780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1799964904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8086490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5775279998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0967960357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2816925048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6068153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1876926422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1337738037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6792221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8749179840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.226224899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8302421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6730785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0151405334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4696922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5159149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4881801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6915721893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9319343566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7454891204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9581184387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7100582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8286933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5590381622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3171195983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9919967651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5297527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4018745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7069568634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7809162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0490169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2801418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7531814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3356094360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2616481781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.622200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3232650756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.415714263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2200202941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6267910003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8594703674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0628528594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1352615356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.347900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0335731506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7562217712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2462043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2092208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.089038848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0797996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9041385650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4033660888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3386535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1737937927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6221389770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2523384094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3740730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2816314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1429557800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0227737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8748550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3648338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4572792053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9842414855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6514282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6714668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1722373962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8841018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2076683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9657554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0674476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5943984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3910179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3263053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2631416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6699142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7438774108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5497360229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8825531005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5682220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7623672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3355484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1414070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.512752532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7993431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.80859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.688404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3817749023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.614444732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9950370788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8471145629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9010391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.384880065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5697708129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0225677490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3217544555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2847709655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2937126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.695743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7237930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2189102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2091522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0408535003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8538646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9754104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5457420349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2563056945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4433097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0973663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5555000305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1721687316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2469635009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7705421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0977821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1075439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2290916442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1827583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8835678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2477874755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9766464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7246208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1547050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5286903381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4538917541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9961738586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0055198669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0148735046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7624320983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8372268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.575439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9774742126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5193405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6128349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7063331604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7250328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1457672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1270637512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4169044494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4823532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4543075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1640548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7526626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9018516540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8916702270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8636302947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2656593322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8546867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7892417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9290752410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6579341888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.190860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1254196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1538772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1815147399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9851684570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7888240814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7327270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8729782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.078670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7798919677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5278625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213607788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1819305419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9855804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0697364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0884323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8172874450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0693168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103755950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6758060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3583354949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4985752105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0123901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.133939743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0497913360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2554874420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7510166168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.573371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2367858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5355606079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0217437744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4237785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6107749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4611778259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0315055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.620532989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2376136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9758243560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8542766571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4522399902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1437034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0778388977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3863792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.180685043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0965423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3770294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.817699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1912727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4246063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8827323913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9949340820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7518463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1921043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7807159423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5563278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.070140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1823387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4441299438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6872177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2949485778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9957618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5384559631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6412963867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5295181274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1835823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2673149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1644668579102</t>
+  </si>
+  <si>
     <t xml:space="preserve">36.3047142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3324432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8316688537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2184066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8023910522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.748462677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7838935852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1074638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4217948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9949760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8840408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3385887145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1552391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8409118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7762031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5820541381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8979377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8794479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.999626159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.583610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0550994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8332176208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919357299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4187507629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2061195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7608184814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5373878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6498756408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3155059814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0828323364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6021003723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1105728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9534072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8702011108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.722282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6560211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3617324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1675872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2708320617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8717575073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6683654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8733024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7330780029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8440170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0104293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2045707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0936317443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4834632873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2970199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9549560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2692832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0643463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7114868164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6467742919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8131790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0181198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9903831481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5928535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2985649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7515678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8070373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7700614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2600364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4464874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0843849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0658912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9826927185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5481834411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8810005187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1398582458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7037925720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4172019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4295463562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2646980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9025917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.334056854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9180374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5852222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305290222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.649938583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7886085510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440799713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1044864654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1784477233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.022834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6422424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2893848419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473247528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5497951507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9195899963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4742870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9534702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5929145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3710403442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5282039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0844459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8271427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4357509613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4095687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.418815612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7254486083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6253051757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2169780731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1799983978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.808650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5775279998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2816905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6068153381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1876907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1337757110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6792240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8749141693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.226224899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8302440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6730823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.310977935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0151405334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9797115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5159149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0521202087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4881820678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6915683746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9319362640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7454872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9581203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7100582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8286895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5590400695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3171215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9919986724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5297565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4296112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4018745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7069568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7809162139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0490188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2801418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7531814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3356094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2616519927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6222019195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3232650756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.415714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0166263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2200164794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6267929077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.859468460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0628566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586864471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1352615356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3478965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0335693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7562217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2462005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2092208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0890426635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0797996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9041404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4033622741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3386497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1737957000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6221389770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2523460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3740768432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2816314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1429557800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9580574035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.022777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8748588562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3648376464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4572830200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9842376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.651424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6714706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1722412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8841018676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2076644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9657516479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0674438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5944023132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3910179138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2631416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059799194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6699142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7438735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5497283935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8825492858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5682220458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7623634338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3355522155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1414031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5127563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7993431091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8085899353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.688404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3817672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6144485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9950370788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8471183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9010391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3848724365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.133716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5697708129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0042839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0225677490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3217582702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2847671508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2937126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6957473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7237930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2189102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2091522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0408592224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8538627624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9754085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5457344055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2563095092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4433059692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0973701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5554962158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1721649169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2469673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7705421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0977821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1075439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2290840148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1827545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9770660400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8835678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2477912902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9766426086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7246208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1547050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5286903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4538917541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9961700439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0990180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0055236816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0148735046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7624320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.837230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5754432678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9774703979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.519344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6128387451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7063369750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7250328063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1457672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.127067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4169082641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4823570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4543075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1640548706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7526664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9018516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.891674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8636264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2656631469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8546867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7892417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9290714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6579341888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1908645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.125415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1538734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.181510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9851684570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7888278961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7327308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.872974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0786666870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7798919677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5278701782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213607788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1819305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0697288513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.088436126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8172874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0693168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103717803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6758060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3583335876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4985733032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0123920440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1339378356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0497913360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.255485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7510166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2367858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5355606079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0217437744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4237785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6107749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4611778259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0315036773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.620532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2376098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9758243560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8542766571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4522399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1437015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0778408050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3863792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1806869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0965404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3770313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8177032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1912727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4246063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8827362060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9949340820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7518424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6965751647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1921043395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7807197570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5563278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4721794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.070140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1823425292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4441299438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6872177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2949523925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5384559631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6412963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1835823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2673149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1644668579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3047180175781</t>
-  </si>
-  <si>
     <t xml:space="preserve">38.6701774597168</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4555473327637</t>
+    <t xml:space="preserve">39.4555435180664</t>
   </si>
   <si>
     <t xml:space="preserve">39.072208404541</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">39.3526992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6140785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3335838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2400932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6604156494141</t>
+    <t xml:space="preserve">38.6140747070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3335876464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2400894165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6604080200195</t>
   </si>
   <si>
     <t xml:space="preserve">37.8100051879883</t>
@@ -2558,22 +2558,22 @@
     <t xml:space="preserve">37.5482177734375</t>
   </si>
   <si>
-    <t xml:space="preserve">37.697811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2307434082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1372451782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9876480102539</t>
+    <t xml:space="preserve">37.6978073120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2307395935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1372413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9876556396484</t>
   </si>
   <si>
     <t xml:space="preserve">37.4640655517578</t>
   </si>
   <si>
-    <t xml:space="preserve">37.950252532959</t>
+    <t xml:space="preserve">37.9502487182617</t>
   </si>
   <si>
     <t xml:space="preserve">37.4827690124512</t>
@@ -2582,22 +2582,22 @@
     <t xml:space="preserve">37.6510620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4831809997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4644813537598</t>
+    <t xml:space="preserve">38.4831848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.464485168457</t>
   </si>
   <si>
     <t xml:space="preserve">38.062442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1465950012207</t>
+    <t xml:space="preserve">38.146598815918</t>
   </si>
   <si>
     <t xml:space="preserve">38.8852157592773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9417266845703</t>
+    <t xml:space="preserve">39.9417304992676</t>
   </si>
   <si>
     <t xml:space="preserve">39.9043273925781</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">38.6608200073242</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8006591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7917213439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7165107727051</t>
+    <t xml:space="preserve">37.8006553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7917251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7165069580078</t>
   </si>
   <si>
     <t xml:space="preserve">37.9128532409668</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">37.0152854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">36.192512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.146183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1364212036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7534942626953</t>
+    <t xml:space="preserve">36.1925163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1461791992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.136417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.753490447998</t>
   </si>
   <si>
     <t xml:space="preserve">35.6221885681152</t>
@@ -2663,34 +2663,34 @@
     <t xml:space="preserve">35.7717819213867</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5010528564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7339668273926</t>
+    <t xml:space="preserve">36.501049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7339706420898</t>
   </si>
   <si>
     <t xml:space="preserve">32.8733863830566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.845344543457</t>
+    <t xml:space="preserve">32.8453407287598</t>
   </si>
   <si>
     <t xml:space="preserve">33.3782691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9668807983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9294929504395</t>
+    <t xml:space="preserve">32.9668846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9294853210449</t>
   </si>
   <si>
     <t xml:space="preserve">31.5270385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5351486206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.179859161377</t>
+    <t xml:space="preserve">28.5351505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1798610687256</t>
   </si>
   <si>
     <t xml:space="preserve">27.4505882263184</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">32.1628150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1250038146973</t>
+    <t xml:space="preserve">31.1250057220459</t>
   </si>
   <si>
     <t xml:space="preserve">30.2835330963135</t>
@@ -2738,58 +2738,58 @@
     <t xml:space="preserve">29.9188976287842</t>
   </si>
   <si>
-    <t xml:space="preserve">29.077428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0876064300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5172748565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7136135101318</t>
+    <t xml:space="preserve">29.0774269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0876026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5172729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7136154174805</t>
   </si>
   <si>
     <t xml:space="preserve">31.5083427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0502033233643</t>
+    <t xml:space="preserve">31.050199508667</t>
   </si>
   <si>
     <t xml:space="preserve">32.2750091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9575386047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3119964599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9941101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9384231567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2095565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.685567855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.190450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3209323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6481685638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1900386810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6388187408447</t>
+    <t xml:space="preserve">32.9575347900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3119945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9941062927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.938419342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2095603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6855640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1904525756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3209342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6481704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1900367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.638822555542</t>
   </si>
   <si>
     <t xml:space="preserve">29.8160514831543</t>
@@ -2801,28 +2801,28 @@
     <t xml:space="preserve">29.0119819641113</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1432876586914</t>
+    <t xml:space="preserve">30.14328956604</t>
   </si>
   <si>
     <t xml:space="preserve">30.2741832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1989727020264</t>
+    <t xml:space="preserve">29.198974609375</t>
   </si>
   <si>
     <t xml:space="preserve">29.7693023681641</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2185039520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8071136474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6022453308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2745971679688</t>
+    <t xml:space="preserve">31.2185020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8071155548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6022491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2745990753174</t>
   </si>
   <si>
     <t xml:space="preserve">31.4989891052246</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">32.331111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4713516235352</t>
+    <t xml:space="preserve">32.4713554382324</t>
   </si>
   <si>
     <t xml:space="preserve">31.4615936279297</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">32.4059066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9388313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2099800109863</t>
+    <t xml:space="preserve">32.938835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">33.5091667175293</t>
@@ -2861,43 +2861,43 @@
     <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5648536682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8262252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0319213867188</t>
+    <t xml:space="preserve">32.5648498535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.826229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0319175720215</t>
   </si>
   <si>
     <t xml:space="preserve">32.3872032165527</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6859855651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.396556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9197235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7794761657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0689067840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4896373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4054927825928</t>
+    <t xml:space="preserve">31.685977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3965606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9197196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4896411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4054908752441</t>
   </si>
   <si>
     <t xml:space="preserve">31.4335441589355</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0128021240234</t>
+    <t xml:space="preserve">31.0128059387207</t>
   </si>
   <si>
     <t xml:space="preserve">30.4798755645752</t>
@@ -2915,16 +2915,16 @@
     <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3026466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416706085205</t>
+    <t xml:space="preserve">31.3026447296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416667938232</t>
   </si>
   <si>
     <t xml:space="preserve">30.4892272949219</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9375953674316</t>
+    <t xml:space="preserve">29.9375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">29.9562969207764</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">30.4144268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0034599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2928829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3676815032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5737838745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2282638549805</t>
+    <t xml:space="preserve">31.003454208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2928848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3676834106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.573787689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2282600402832</t>
   </si>
   <si>
     <t xml:space="preserve">32.6209449768066</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">34.3506355285645</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4632415771484</t>
+    <t xml:space="preserve">35.463249206543</t>
   </si>
   <si>
     <t xml:space="preserve">34.7994155883789</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">34.1262435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9107894897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4807052612305</t>
+    <t xml:space="preserve">32.9107933044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4807014465332</t>
   </si>
   <si>
     <t xml:space="preserve">32.89208984375</t>
@@ -2984,25 +2984,25 @@
     <t xml:space="preserve">33.2941246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1632308959961</t>
+    <t xml:space="preserve">33.1632270812988</t>
   </si>
   <si>
     <t xml:space="preserve">34.0607948303223</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3132362365723</t>
+    <t xml:space="preserve">34.313232421875</t>
   </si>
   <si>
     <t xml:space="preserve">33.6774597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0233955383301</t>
+    <t xml:space="preserve">34.0233917236328</t>
   </si>
   <si>
     <t xml:space="preserve">34.3973846435547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5002288818359</t>
+    <t xml:space="preserve">34.5002326965332</t>
   </si>
   <si>
     <t xml:space="preserve">33.0510330200195</t>
@@ -3011,37 +3011,37 @@
     <t xml:space="preserve">34.4067344665527</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4258460998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.874210357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4075546264648</t>
+    <t xml:space="preserve">35.4258422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8742141723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4075584411621</t>
   </si>
   <si>
     <t xml:space="preserve">34.5937232971191</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6303024291992</t>
+    <t xml:space="preserve">32.630298614502</t>
   </si>
   <si>
     <t xml:space="preserve">32.8359870910645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6587562561035</t>
+    <t xml:space="preserve">33.6587600708008</t>
   </si>
   <si>
     <t xml:space="preserve">34.004695892334</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3604011535645</t>
+    <t xml:space="preserve">35.3603973388672</t>
   </si>
   <si>
     <t xml:space="preserve">35.1079559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0994338989258</t>
+    <t xml:space="preserve">37.0994300842285</t>
   </si>
   <si>
     <t xml:space="preserve">37.1274795532227</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">37.1087799072266</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2209815979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4083824157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3896903991699</t>
+    <t xml:space="preserve">37.2209777832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4083862304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3896865844727</t>
   </si>
   <si>
     <t xml:space="preserve">38.1278915405273</t>
@@ -3077,34 +3077,34 @@
     <t xml:space="preserve">39.1750564575195</t>
   </si>
   <si>
-    <t xml:space="preserve">38.763671875</t>
+    <t xml:space="preserve">38.7636680603027</t>
   </si>
   <si>
     <t xml:space="preserve">38.3429336547852</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4177322387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9974098205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8201789855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3905143737793</t>
+    <t xml:space="preserve">38.4177360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9974136352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.820182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.390510559082</t>
   </si>
   <si>
     <t xml:space="preserve">41.138484954834</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9799575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5787391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4384994506836</t>
+    <t xml:space="preserve">41.9799537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.578742980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4384956359863</t>
   </si>
   <si>
     <t xml:space="preserve">44.4856643676758</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">44.7661514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6263236999512</t>
+    <t xml:space="preserve">45.6263160705566</t>
   </si>
   <si>
     <t xml:space="preserve">45.5421714782715</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">45.8133125305176</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3458251953125</t>
+    <t xml:space="preserve">45.3458290100098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4669609069824</t>
@@ -3131,22 +3131,22 @@
     <t xml:space="preserve">45.2336349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4958343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0287704467773</t>
+    <t xml:space="preserve">45.0746917724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0287666320801</t>
   </si>
   <si>
     <t xml:space="preserve">46.8791694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7482757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4580230712891</t>
+    <t xml:space="preserve">46.7482719421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4580268859863</t>
   </si>
   <si>
     <t xml:space="preserve">45.4767227172852</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">45.0185928344727</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6726531982422</t>
+    <t xml:space="preserve">44.6726493835449</t>
   </si>
   <si>
     <t xml:space="preserve">44.2706184387207</t>
@@ -3179,25 +3179,25 @@
     <t xml:space="preserve">44.5511131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5047645568848</t>
+    <t xml:space="preserve">45.504768371582</t>
   </si>
   <si>
     <t xml:space="preserve">46.3649406433105</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2612648010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1864700317383</t>
+    <t xml:space="preserve">44.2612686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1864738464355</t>
   </si>
   <si>
     <t xml:space="preserve">44.9624977111816</t>
   </si>
   <si>
-    <t xml:space="preserve">44.373462677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8035507202148</t>
+    <t xml:space="preserve">44.3734588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8035469055176</t>
   </si>
   <si>
     <t xml:space="preserve">44.8129005432129</t>
@@ -3209,43 +3209,43 @@
     <t xml:space="preserve">47.5336494445801</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2255249023438</t>
+    <t xml:space="preserve">48.2255210876465</t>
   </si>
   <si>
     <t xml:space="preserve">48.7304039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3003158569336</t>
+    <t xml:space="preserve">48.3003196716309</t>
   </si>
   <si>
     <t xml:space="preserve">48.5995025634766</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9076385498047</t>
+    <t xml:space="preserve">47.9076347351074</t>
   </si>
   <si>
     <t xml:space="preserve">48.8051986694336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4499092102051</t>
+    <t xml:space="preserve">48.4499168395996</t>
   </si>
   <si>
     <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2905578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8523635864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.524715423584</t>
+    <t xml:space="preserve">47.2905616760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.8523597717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5247116088867</t>
   </si>
   <si>
     <t xml:space="preserve">47.8889350891113</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1058807373047</t>
+    <t xml:space="preserve">48.105884552002</t>
   </si>
   <si>
     <t xml:space="preserve">48.2379341125488</t>
@@ -3260,16 +3260,16 @@
     <t xml:space="preserve">49.5584907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7661628723145</t>
+    <t xml:space="preserve">48.7661590576172</t>
   </si>
   <si>
     <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7381629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8985214233398</t>
+    <t xml:space="preserve">46.738166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8985252380371</t>
   </si>
   <si>
     <t xml:space="preserve">47.464469909668</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">48.8793449401855</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0868682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4077224731445</t>
+    <t xml:space="preserve">49.0868644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4077262878418</t>
   </si>
   <si>
     <t xml:space="preserve">48.5209121704102</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">47.256950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6344108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4080276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289619445801</t>
+    <t xml:space="preserve">46.634407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.408031463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289657592773</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459075927734</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174613952637</t>
+    <t xml:space="preserve">46.4174575805664</t>
   </si>
   <si>
     <t xml:space="preserve">46.0967559814453</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8796577453613</t>
+    <t xml:space="preserve">46.8796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">47.954963684082</t>
@@ -3329,28 +3329,28 @@
     <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5022010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2946815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6531219482422</t>
+    <t xml:space="preserve">47.5022048950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2946853637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6531181335449</t>
   </si>
   <si>
     <t xml:space="preserve">47.5776596069336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.577507019043</t>
+    <t xml:space="preserve">48.5775108337402</t>
   </si>
   <si>
     <t xml:space="preserve">48.426586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3701438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3887062072754</t>
+    <t xml:space="preserve">47.3701477050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3887023925781</t>
   </si>
   <si>
     <t xml:space="preserve">50.4640121459961</t>
@@ -3368,19 +3368,19 @@
     <t xml:space="preserve">48.5586433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4267349243164</t>
+    <t xml:space="preserve">47.4267387390137</t>
   </si>
   <si>
     <t xml:space="preserve">48.5020484924316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.351131439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8038902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0492897033691</t>
+    <t xml:space="preserve">48.3511276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8038940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0492858886719</t>
   </si>
   <si>
     <t xml:space="preserve">48.6529693603516</t>
@@ -3389,19 +3389,19 @@
     <t xml:space="preserve">48.6718330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">49.011402130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7660026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5207633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2753601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.539478302002</t>
+    <t xml:space="preserve">49.0114059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7660064697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5207595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2753639221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5394744873047</t>
   </si>
   <si>
     <t xml:space="preserve">51.6333999633789</t>
@@ -5571,6 +5571,9 @@
   </si>
   <si>
     <t xml:space="preserve">56.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.560001373291</t>
   </si>
 </sst>
 </file>
@@ -62254,7 +62257,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6494560185</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>570751</v>
@@ -62275,6 +62278,32 @@
         <v>1852</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6507638889</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>661837</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>57.0200004577637</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>55.4599990844727</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>56.0400009155273</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>55.560001373291</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1858">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1196098327637</t>
+    <t xml:space="preserve">11.119610786438</t>
   </si>
   <si>
     <t xml:space="preserve">10.9933528900146</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">11.0474634170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1376476287842</t>
+    <t xml:space="preserve">11.1376485824585</t>
   </si>
   <si>
     <t xml:space="preserve">11.3270311355591</t>
@@ -65,121 +65,121 @@
     <t xml:space="preserve">11.7869672775269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6336545944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089952468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7058000564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8951864242554</t>
+    <t xml:space="preserve">11.6336536407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089962005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8951873779297</t>
   </si>
   <si>
     <t xml:space="preserve">11.5615091323853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9853706359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2829751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657381057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2919940948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2649402618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8861694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559223175049</t>
+    <t xml:space="preserve">11.9853715896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2919950485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2649393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8861684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559213638306</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116275787354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0575189590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9222440719604</t>
+    <t xml:space="preserve">12.0575160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9222431182861</t>
   </si>
   <si>
     <t xml:space="preserve">12.0755548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5705261230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.426233291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1917562484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4081983566284</t>
+    <t xml:space="preserve">11.5705280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4262342453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1917572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4081974029541</t>
   </si>
   <si>
     <t xml:space="preserve">11.0925559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4532880783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320589065552</t>
+    <t xml:space="preserve">11.4532890319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320579528809</t>
   </si>
   <si>
     <t xml:space="preserve">12.0394811630249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5805816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418251991272</t>
+    <t xml:space="preserve">12.5805807113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4182510375977</t>
   </si>
   <si>
     <t xml:space="preserve">12.4362878799438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5715618133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9583158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3641414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9142608642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1397180557251</t>
+    <t xml:space="preserve">12.5715627670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9583168029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3641405105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9142589569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1397190093994</t>
   </si>
   <si>
     <t xml:space="preserve">12.9413146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3922319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5906352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587915420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357259750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070755004883</t>
+    <t xml:space="preserve">13.3922328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5906343460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627817153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357278823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8070764541626</t>
   </si>
   <si>
     <t xml:space="preserve">13.8972587585449</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">13.2208824157715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2389192581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1667737960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0765895843506</t>
+    <t xml:space="preserve">13.238920211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1667728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0765905380249</t>
   </si>
   <si>
     <t xml:space="preserve">13.1938285827637</t>
@@ -209,46 +209,46 @@
     <t xml:space="preserve">13.2749919891357</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6988554000854</t>
+    <t xml:space="preserve">13.6988544464111</t>
   </si>
   <si>
     <t xml:space="preserve">13.3020486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">13.157753944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1036443710327</t>
+    <t xml:space="preserve">13.1577558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.103645324707</t>
   </si>
   <si>
     <t xml:space="preserve">12.760947227478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9683704376221</t>
+    <t xml:space="preserve">12.9683694839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.0044431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2118654251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0495338439941</t>
+    <t xml:space="preserve">13.2118644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0495357513428</t>
   </si>
   <si>
     <t xml:space="preserve">13.3291034698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3832130432129</t>
+    <t xml:space="preserve">13.3832139968872</t>
   </si>
   <si>
     <t xml:space="preserve">13.5725984573364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3471403121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8601484298706</t>
+    <t xml:space="preserve">13.3471393585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8601503372192</t>
   </si>
   <si>
     <t xml:space="preserve">12.679783821106</t>
@@ -257,22 +257,22 @@
     <t xml:space="preserve">12.7699661254883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1487379074097</t>
+    <t xml:space="preserve">13.1487369537354</t>
   </si>
   <si>
     <t xml:space="preserve">13.1757917404175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5004510879517</t>
+    <t xml:space="preserve">13.5004529953003</t>
   </si>
   <si>
     <t xml:space="preserve">14.1227169036865</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489728927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.185845375061</t>
+    <t xml:space="preserve">14.2489738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1858463287354</t>
   </si>
   <si>
     <t xml:space="preserve">14.140754699707</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">13.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.752965927124</t>
+    <t xml:space="preserve">13.7529649734497</t>
   </si>
   <si>
     <t xml:space="preserve">13.5455436706543</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">13.5275068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4091625213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7459869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6276416778564</t>
+    <t xml:space="preserve">13.4091634750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7459859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
     <t xml:space="preserve">13.4546804428101</t>
@@ -305,10 +305,10 @@
     <t xml:space="preserve">13.6549530029297</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7823991775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.645848274231</t>
+    <t xml:space="preserve">13.782398223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6458492279053</t>
   </si>
   <si>
     <t xml:space="preserve">13.6822624206543</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">13.5457134246826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5001964569092</t>
+    <t xml:space="preserve">13.5001955032349</t>
   </si>
   <si>
     <t xml:space="preserve">13.8552255630493</t>
@@ -329,43 +329,43 @@
     <t xml:space="preserve">13.9280519485474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4819917678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3363361358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8993787765503</t>
+    <t xml:space="preserve">13.4819889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3363370895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8993797302246</t>
   </si>
   <si>
     <t xml:space="preserve">13.3909568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0359287261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0008773803711</t>
+    <t xml:space="preserve">13.035927772522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0008783340454</t>
   </si>
   <si>
     <t xml:space="preserve">13.8643283843994</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0463953018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4196290969849</t>
+    <t xml:space="preserve">14.0463962554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4196300506592</t>
   </si>
   <si>
     <t xml:space="preserve">13.10875415802</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4715223312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8720684051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3272342681885</t>
+    <t xml:space="preserve">12.4715232849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3272352218628</t>
   </si>
   <si>
     <t xml:space="preserve">13.1724786758423</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">12.7901382446289</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0268268585205</t>
+    <t xml:space="preserve">13.0268249511719</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541353225708</t>
@@ -383,67 +383,67 @@
     <t xml:space="preserve">13.145167350769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0996513366699</t>
+    <t xml:space="preserve">13.0996494293213</t>
   </si>
   <si>
     <t xml:space="preserve">13.3545436859131</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1360626220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1269617080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9448957443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0190839767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557716369629</t>
+    <t xml:space="preserve">13.1360645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1269607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.944896697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0190849304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3650102615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557706832886</t>
   </si>
   <si>
     <t xml:space="preserve">14.5652837753296</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2739791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1465311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913661956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7915010452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192216873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193565368652</t>
+    <t xml:space="preserve">14.2739782333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1465301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913652420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7915019989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192207336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193574905396</t>
   </si>
   <si>
     <t xml:space="preserve">14.2102527618408</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0372915267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2375650405884</t>
+    <t xml:space="preserve">14.0372905731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2375640869141</t>
   </si>
   <si>
     <t xml:space="preserve">14.1829433441162</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1101179122925</t>
+    <t xml:space="preserve">14.1101169586182</t>
   </si>
   <si>
     <t xml:space="preserve">13.955361366272</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">14.1920480728149</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9462575912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8825359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732963562012</t>
+    <t xml:space="preserve">13.9462585449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8825349807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732934951782</t>
   </si>
   <si>
     <t xml:space="preserve">13.7095727920532</t>
@@ -473,40 +473,40 @@
     <t xml:space="preserve">13.7004690170288</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9098453521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7186765670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.891637802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1010131835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.201150894165</t>
+    <t xml:space="preserve">13.9098434448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.718674659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8916387557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1010150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006048202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2011499404907</t>
   </si>
   <si>
     <t xml:space="preserve">14.264874458313</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6367444992065</t>
+    <t xml:space="preserve">13.6367464065552</t>
   </si>
   <si>
     <t xml:space="preserve">13.8370180130005</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8279151916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9735679626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6640558242798</t>
+    <t xml:space="preserve">13.8279142379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9735689163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6640567779541</t>
   </si>
   <si>
     <t xml:space="preserve">14.02818775177</t>
@@ -521,76 +521,76 @@
     <t xml:space="preserve">14.1556339263916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0645999908447</t>
+    <t xml:space="preserve">14.0646018981934</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826707839966</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8097076416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5821266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5730237960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6731586456299</t>
+    <t xml:space="preserve">13.8097085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.582127571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5730228424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6731595993042</t>
   </si>
   <si>
     <t xml:space="preserve">13.518404006958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8188104629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644632339478</t>
+    <t xml:space="preserve">13.8188123703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5093002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644651412964</t>
   </si>
   <si>
     <t xml:space="preserve">14.0554981231689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2466659545898</t>
+    <t xml:space="preserve">14.2466669082642</t>
   </si>
   <si>
     <t xml:space="preserve">14.847484588623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8383808135986</t>
+    <t xml:space="preserve">14.8383817672729</t>
   </si>
   <si>
     <t xml:space="preserve">15.1205854415894</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3026523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.248028755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1023778915405</t>
+    <t xml:space="preserve">15.3026514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2480297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1023788452148</t>
   </si>
   <si>
     <t xml:space="preserve">14.7473497390747</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9385204315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9749317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750694274902</t>
+    <t xml:space="preserve">14.9385185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9749307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.075065612793</t>
   </si>
   <si>
     <t xml:space="preserve">14.9931383132935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8565893173218</t>
+    <t xml:space="preserve">14.8565883636475</t>
   </si>
   <si>
     <t xml:space="preserve">14.8838987350464</t>
@@ -599,19 +599,19 @@
     <t xml:space="preserve">14.9021062850952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0477590560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752023696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.911208152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.874794960022</t>
+    <t xml:space="preserve">15.0477600097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935476303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752033233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9112071990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8747959136963</t>
   </si>
   <si>
     <t xml:space="preserve">15.1569967269897</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">15.6485757827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6849880218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.903468132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9398832321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6940908432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9945011138916</t>
+    <t xml:space="preserve">15.6849918365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9034690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9398813247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6940927505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9945001602173</t>
   </si>
   <si>
     <t xml:space="preserve">16.3131160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3859462738037</t>
+    <t xml:space="preserve">16.3859443664551</t>
   </si>
   <si>
     <t xml:space="preserve">16.4223537445068</t>
@@ -647,61 +647,61 @@
     <t xml:space="preserve">16.4132556915283</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4678726196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3313255310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2493953704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2038764953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1310482025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8488473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1492538452148</t>
+    <t xml:space="preserve">16.4678764343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3313236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2493934631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.20387840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1310520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8488483428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1492595672607</t>
   </si>
   <si>
     <t xml:space="preserve">16.1947746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1583614349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1037445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3950462341309</t>
+    <t xml:space="preserve">16.1765632629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1583595275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1037406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3950481414795</t>
   </si>
   <si>
     <t xml:space="preserve">16.3222198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.267599105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1128425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856689453125</t>
+    <t xml:space="preserve">16.2676029205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1128463745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856727600098</t>
   </si>
   <si>
     <t xml:space="preserve">16.4041500091553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3326873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4965438842773</t>
+    <t xml:space="preserve">17.3326892852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4965476989746</t>
   </si>
   <si>
     <t xml:space="preserve">17.3964099884033</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">17.532958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5693702697754</t>
+    <t xml:space="preserve">17.5693740844727</t>
   </si>
   <si>
     <t xml:space="preserve">17.7514400482178</t>
@@ -719,79 +719,79 @@
     <t xml:space="preserve">17.8060569763184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8970928192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8424682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973625183105</t>
+    <t xml:space="preserve">17.8970909118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.842472076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973644256592</t>
   </si>
   <si>
     <t xml:space="preserve">18.2521209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4250869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1246719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3067398071289</t>
+    <t xml:space="preserve">18.4250831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1246738433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3067378997803</t>
   </si>
   <si>
     <t xml:space="preserve">18.3340492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5707340240479</t>
+    <t xml:space="preserve">18.5707359313965</t>
   </si>
   <si>
     <t xml:space="preserve">18.5161151885986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6617679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4159774780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.525218963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6890773773193</t>
+    <t xml:space="preserve">18.6617660522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.415979385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5252170562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6890811920166</t>
   </si>
   <si>
     <t xml:space="preserve">18.8711452484131</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1897583007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4901676177979</t>
+    <t xml:space="preserve">19.1897621154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901695251465</t>
   </si>
   <si>
     <t xml:space="preserve">19.4992713928223</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4628562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.745059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3718280792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4719619750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5812034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7996826171875</t>
+    <t xml:space="preserve">19.4628582000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7450618743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3718242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4719638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5811996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7996807098389</t>
   </si>
   <si>
     <t xml:space="preserve">19.9635410308838</t>
@@ -800,22 +800,22 @@
     <t xml:space="preserve">19.7268543243408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8451995849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.78147315979</t>
+    <t xml:space="preserve">19.8451976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7814769744873</t>
   </si>
   <si>
     <t xml:space="preserve">20.4642219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7100105285645</t>
+    <t xml:space="preserve">20.7100124359131</t>
   </si>
   <si>
     <t xml:space="preserve">20.6280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9466991424561</t>
+    <t xml:space="preserve">20.9466972351074</t>
   </si>
   <si>
     <t xml:space="preserve">21.1196613311768</t>
@@ -824,34 +824,34 @@
     <t xml:space="preserve">21.4018630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7555274963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.054573059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2730522155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1638126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2548484802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1456069946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2639484405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6540298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8178882598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9188575744629</t>
+    <t xml:space="preserve">20.7555255889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0545768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2730560302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1638145446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2548427581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1456031799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2639465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6540279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8178901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9188613891602</t>
   </si>
   <si>
     <t xml:space="preserve">19.9922924041748</t>
@@ -860,94 +860,94 @@
     <t xml:space="preserve">19.8729629516602</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7536334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860279083252</t>
+    <t xml:space="preserve">19.7536315917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860260009766</t>
   </si>
   <si>
     <t xml:space="preserve">19.4966163635254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9005012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9739360809326</t>
+    <t xml:space="preserve">19.9005031585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9739322662354</t>
   </si>
   <si>
     <t xml:space="preserve">19.5425128936768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1845245361328</t>
+    <t xml:space="preserve">19.1845226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.2671356201172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2304172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3405704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8357124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0927276611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3864669799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3038558959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6067657470703</t>
+    <t xml:space="preserve">19.2304210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3405685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.83571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0927295684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3864650726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3038520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6067676544189</t>
   </si>
   <si>
     <t xml:space="preserve">19.4874324798584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8821411132812</t>
+    <t xml:space="preserve">19.8821430206299</t>
   </si>
   <si>
     <t xml:space="preserve">19.4782562255859</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4140014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.404821395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5884075164795</t>
+    <t xml:space="preserve">19.414005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5884094238281</t>
   </si>
   <si>
     <t xml:space="preserve">19.202880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6245918273926</t>
+    <t xml:space="preserve">18.6245956420898</t>
   </si>
   <si>
     <t xml:space="preserve">18.8173542022705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8907909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8540744781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0651950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9917621612549</t>
+    <t xml:space="preserve">18.8907890319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8540725708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0651931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9917583465576</t>
   </si>
   <si>
     <t xml:space="preserve">18.8632488250732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3681049346924</t>
+    <t xml:space="preserve">19.368106842041</t>
   </si>
   <si>
     <t xml:space="preserve">19.5516891479492</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">19.6710205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7169151306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.698558807373</t>
+    <t xml:space="preserve">19.7169170379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6985569000244</t>
   </si>
   <si>
     <t xml:space="preserve">19.533332824707</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">19.4598999023438</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5155048370361</t>
+    <t xml:space="preserve">20.5155067443848</t>
   </si>
   <si>
     <t xml:space="preserve">20.744987487793</t>
@@ -983,43 +983,43 @@
     <t xml:space="preserve">20.6348361968994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5338649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6715526580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6807327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256580352783</t>
+    <t xml:space="preserve">20.533863067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6715545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6072978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6807308197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256561279297</t>
   </si>
   <si>
     <t xml:space="preserve">21.1305160522461</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4334259033203</t>
+    <t xml:space="preserve">21.4334278106689</t>
   </si>
   <si>
     <t xml:space="preserve">21.8373126983643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6720867156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6353664398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7179794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6629066467285</t>
+    <t xml:space="preserve">21.6720848083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.635368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.717981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6629104614258</t>
   </si>
   <si>
     <t xml:space="preserve">21.5711135864258</t>
@@ -1028,25 +1028,25 @@
     <t xml:space="preserve">21.4976806640625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1580486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5619354248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9107437133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1953010559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0392551422119</t>
+    <t xml:space="preserve">21.1580505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5619335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9107456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1952991485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0392532348633</t>
   </si>
   <si>
     <t xml:space="preserve">22.0943279266357</t>
   </si>
   <si>
-    <t xml:space="preserve">22.296272277832</t>
+    <t xml:space="preserve">22.2962703704834</t>
   </si>
   <si>
     <t xml:space="preserve">22.4614944458008</t>
@@ -1055,28 +1055,28 @@
     <t xml:space="preserve">22.7368717193604</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6726169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.902099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9204578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8103046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5441093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6909770965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5349273681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5165748596191</t>
+    <t xml:space="preserve">22.6726188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9020977020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9204540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8103065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5441074371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6909732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5349311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5165729522705</t>
   </si>
   <si>
     <t xml:space="preserve">22.5532875061035</t>
@@ -1085,55 +1085,55 @@
     <t xml:space="preserve">22.2595520019531</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1218662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3697071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.415599822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4431400299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1402244567871</t>
+    <t xml:space="preserve">22.1218681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3697052001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4156017303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4431419372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1402282714844</t>
   </si>
   <si>
     <t xml:space="preserve">22.048433303833</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7638759613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4523162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5808238983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3605251312256</t>
+    <t xml:space="preserve">21.7638778686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4523181915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5808258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.360523223877</t>
   </si>
   <si>
     <t xml:space="preserve">22.5900058746338</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6542587280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7001514434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2870941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7460498809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8653812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6634368896484</t>
+    <t xml:space="preserve">22.6542568206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2870922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7460536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8653793334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6634387969971</t>
   </si>
   <si>
     <t xml:space="preserve">22.4247798919678</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">22.3788814544678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3054466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2411937713623</t>
+    <t xml:space="preserve">22.3054504394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2411956787109</t>
   </si>
   <si>
     <t xml:space="preserve">22.1494026184082</t>
@@ -1157,28 +1157,28 @@
     <t xml:space="preserve">20.9285697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3508129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2957401275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9561100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0570831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377517700195</t>
+    <t xml:space="preserve">21.3508148193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2957382202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9561080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0570793151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377498626709</t>
   </si>
   <si>
     <t xml:space="preserve">21.3875293731689</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3783531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.424243927002</t>
+    <t xml:space="preserve">21.3783512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4242458343506</t>
   </si>
   <si>
     <t xml:space="preserve">21.112154006958</t>
@@ -1187,49 +1187,49 @@
     <t xml:space="preserve">21.1396923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846176147461</t>
+    <t xml:space="preserve">21.0846157073975</t>
   </si>
   <si>
     <t xml:space="preserve">21.1672306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7271633148193</t>
+    <t xml:space="preserve">21.7271595001221</t>
   </si>
   <si>
     <t xml:space="preserve">21.7087993621826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2503776550293</t>
+    <t xml:space="preserve">22.250373840332</t>
   </si>
   <si>
     <t xml:space="preserve">22.773588180542</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8194847106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1958312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6267204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1407566070557</t>
+    <t xml:space="preserve">22.8194828033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1958332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6267223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.140754699707</t>
   </si>
   <si>
     <t xml:space="preserve">23.2141914367676</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1224002838135</t>
+    <t xml:space="preserve">23.1223964691162</t>
   </si>
   <si>
     <t xml:space="preserve">23.4069538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5721797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9760646820068</t>
+    <t xml:space="preserve">23.5721778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9760627746582</t>
   </si>
   <si>
     <t xml:space="preserve">24.233081817627</t>
@@ -1238,31 +1238,31 @@
     <t xml:space="preserve">23.9393463134766</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6823272705078</t>
+    <t xml:space="preserve">23.6823291778564</t>
   </si>
   <si>
     <t xml:space="preserve">23.4987468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9577045440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8108425140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8659133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5171051025391</t>
+    <t xml:space="preserve">23.957706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8108406066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8659114837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5171070098877</t>
   </si>
   <si>
     <t xml:space="preserve">23.1315784454346</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0948600769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3518810272217</t>
+    <t xml:space="preserve">23.0948619842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.351879119873</t>
   </si>
   <si>
     <t xml:space="preserve">24.1412887573242</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">24.6736831665039</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8205509185791</t>
+    <t xml:space="preserve">24.8205528259277</t>
   </si>
   <si>
     <t xml:space="preserve">24.5818901062012</t>
@@ -1283,37 +1283,37 @@
     <t xml:space="preserve">24.8389091491699</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8572635650635</t>
+    <t xml:space="preserve">24.8572673797607</t>
   </si>
   <si>
     <t xml:space="preserve">24.6186065673828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4442005157471</t>
+    <t xml:space="preserve">24.4442024230957</t>
   </si>
   <si>
     <t xml:space="preserve">24.3615913391113</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5451736450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8842735290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7833023071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6920394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6088962554932</t>
+    <t xml:space="preserve">24.5451717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8842716217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7833003997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6920433044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6088943481445</t>
   </si>
   <si>
     <t xml:space="preserve">24.3707675933838</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9949550628662</t>
+    <t xml:space="preserve">24.9949569702148</t>
   </si>
   <si>
     <t xml:space="preserve">26.0230255126953</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">26.114818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7751903533936</t>
+    <t xml:space="preserve">25.7751865386963</t>
   </si>
   <si>
     <t xml:space="preserve">25.9128742218018</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8119049072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7384719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.986307144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4911632537842</t>
+    <t xml:space="preserve">25.9312343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8119029998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7384738922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9863052368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4911651611328</t>
   </si>
   <si>
     <t xml:space="preserve">26.3442974090576</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6650352478027</t>
+    <t xml:space="preserve">25.6650333404541</t>
   </si>
   <si>
     <t xml:space="preserve">25.6099605560303</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">25.9220542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5737762451172</t>
+    <t xml:space="preserve">26.5737800598145</t>
   </si>
   <si>
     <t xml:space="preserve">26.7665405273438</t>
@@ -1367,55 +1367,55 @@
     <t xml:space="preserve">26.8675117492676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0327377319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8491516113281</t>
+    <t xml:space="preserve">27.0327396392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8491554260254</t>
   </si>
   <si>
     <t xml:space="preserve">27.1796035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1153526306152</t>
+    <t xml:space="preserve">27.1153507232666</t>
   </si>
   <si>
     <t xml:space="preserve">27.3264713287354</t>
   </si>
   <si>
-    <t xml:space="preserve">27.840503692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3270034790039</t>
+    <t xml:space="preserve">27.8405075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3270053863525</t>
   </si>
   <si>
     <t xml:space="preserve">27.9506568908691</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0975246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0516262054443</t>
+    <t xml:space="preserve">28.0975227355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0516242980957</t>
   </si>
   <si>
     <t xml:space="preserve">28.2994651794434</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3637180328369</t>
+    <t xml:space="preserve">28.3637218475342</t>
   </si>
   <si>
     <t xml:space="preserve">30.1720237731934</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8323917388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2179183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5667266845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6493396759033</t>
+    <t xml:space="preserve">29.832389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2179203033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5667285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6493339538574</t>
   </si>
   <si>
     <t xml:space="preserve">30.3188896179199</t>
@@ -1424,13 +1424,13 @@
     <t xml:space="preserve">30.9797916412354</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2459926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8971786499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6315155029297</t>
+    <t xml:space="preserve">31.2459907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8971729278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6315212249756</t>
   </si>
   <si>
     <t xml:space="preserve">32.3383102416992</t>
@@ -1442,40 +1442,40 @@
     <t xml:space="preserve">32.4576416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3566741943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0634689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1369018554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.412281036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9171371459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3669090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8809471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5040702819824</t>
+    <t xml:space="preserve">32.3566703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0634727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.136905670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4122772216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9171333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3669128417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8809509277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5040740966797</t>
   </si>
   <si>
     <t xml:space="preserve">32.7421951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4857139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5316047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7702713012695</t>
+    <t xml:space="preserve">33.485710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.531608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7702751159668</t>
   </si>
   <si>
     <t xml:space="preserve">34.1466178894043</t>
@@ -1490,16 +1490,16 @@
     <t xml:space="preserve">34.8625946044922</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7162551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1660423278809</t>
+    <t xml:space="preserve">35.7162590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1660385131836</t>
   </si>
   <si>
     <t xml:space="preserve">35.9256744384766</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9457092285156</t>
+    <t xml:space="preserve">34.9457130432129</t>
   </si>
   <si>
     <t xml:space="preserve">34.1876335144043</t>
@@ -1508,43 +1508,43 @@
     <t xml:space="preserve">34.9734497070312</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2954635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4988594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3432426452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6390762329102</t>
+    <t xml:space="preserve">36.295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3432388305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6390800476074</t>
   </si>
   <si>
     <t xml:space="preserve">36.3047142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">36.332447052002</t>
+    <t xml:space="preserve">36.3324508666992</t>
   </si>
   <si>
     <t xml:space="preserve">36.8316688537598</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2184028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8023872375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7484703063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7838973999023</t>
+    <t xml:space="preserve">38.2184104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8023834228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7484664916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7838935852051</t>
   </si>
   <si>
     <t xml:space="preserve">38.1074676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4217910766602</t>
+    <t xml:space="preserve">38.4217948913574</t>
   </si>
   <si>
     <t xml:space="preserve">38.9949760437012</t>
@@ -1559,22 +1559,22 @@
     <t xml:space="preserve">37.1552391052246</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8409118652344</t>
+    <t xml:space="preserve">36.8409156799316</t>
   </si>
   <si>
     <t xml:space="preserve">36.7761993408203</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5820579528809</t>
+    <t xml:space="preserve">36.5820617675781</t>
   </si>
   <si>
     <t xml:space="preserve">35.8979377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8794479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9996299743652</t>
+    <t xml:space="preserve">35.8794441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.999626159668</t>
   </si>
   <si>
     <t xml:space="preserve">35.5836143493652</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">36.0550994873047</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8332214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919319152832</t>
+    <t xml:space="preserve">35.8332252502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919357299805</t>
   </si>
   <si>
     <t xml:space="preserve">34.4187545776367</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2061157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7608184814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5373878479004</t>
+    <t xml:space="preserve">34.2061195373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7608108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5373840332031</t>
   </si>
   <si>
     <t xml:space="preserve">34.6498756408691</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">36.1105690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9534072875977</t>
+    <t xml:space="preserve">35.9534034729004</t>
   </si>
   <si>
     <t xml:space="preserve">35.8702011108398</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7222785949707</t>
+    <t xml:space="preserve">35.722282409668</t>
   </si>
   <si>
     <t xml:space="preserve">36.6560211181641</t>
@@ -1634,40 +1634,40 @@
     <t xml:space="preserve">35.1675872802734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2708282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.871753692627</t>
+    <t xml:space="preserve">34.2708358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8717498779297</t>
   </si>
   <si>
     <t xml:space="preserve">34.6683654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8733024597168</t>
+    <t xml:space="preserve">33.8732986450195</t>
   </si>
   <si>
     <t xml:space="preserve">34.7330780029297</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8440093994141</t>
+    <t xml:space="preserve">34.8440132141113</t>
   </si>
   <si>
     <t xml:space="preserve">35.010425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2045669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0936317443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4834594726562</t>
+    <t xml:space="preserve">35.2045707702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0936279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.483470916748</t>
   </si>
   <si>
     <t xml:space="preserve">35.2970161437988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9549560546875</t>
+    <t xml:space="preserve">34.9549598693848</t>
   </si>
   <si>
     <t xml:space="preserve">35.2692832946777</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">36.7114868164062</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6467704772949</t>
+    <t xml:space="preserve">36.6467742919922</t>
   </si>
   <si>
     <t xml:space="preserve">36.8131790161133</t>
@@ -1688,10 +1688,10 @@
     <t xml:space="preserve">36.0181198120117</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9903831481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5928535461426</t>
+    <t xml:space="preserve">35.9903869628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5928497314453</t>
   </si>
   <si>
     <t xml:space="preserve">34.2985687255859</t>
@@ -1700,34 +1700,34 @@
     <t xml:space="preserve">34.7515716552734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8070373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7700538635254</t>
+    <t xml:space="preserve">34.8070411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7700576782227</t>
   </si>
   <si>
     <t xml:space="preserve">35.2600402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4464797973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0843811035156</t>
+    <t xml:space="preserve">34.4464836120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0843849182129</t>
   </si>
   <si>
     <t xml:space="preserve">34.8902473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0658912658691</t>
+    <t xml:space="preserve">35.0658874511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.9826927185059</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5481834411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8809967041016</t>
+    <t xml:space="preserve">34.5481796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8810005187988</t>
   </si>
   <si>
     <t xml:space="preserve">35.1398544311523</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">32.2646903991699</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9025917053223</t>
+    <t xml:space="preserve">32.902587890625</t>
   </si>
   <si>
     <t xml:space="preserve">29.3340587615967</t>
@@ -1757,31 +1757,31 @@
     <t xml:space="preserve">28.5852222442627</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0305271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6499366760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7886085510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440799713135</t>
+    <t xml:space="preserve">28.0305290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.649938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7886066436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440780639648</t>
   </si>
   <si>
     <t xml:space="preserve">28.1044864654541</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1784477233887</t>
+    <t xml:space="preserve">28.17844581604</t>
   </si>
   <si>
     <t xml:space="preserve">27.022834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.642240524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2893848419189</t>
+    <t xml:space="preserve">27.6422424316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2893867492676</t>
   </si>
   <si>
     <t xml:space="preserve">27.9473247528076</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">27.5497951507568</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9195899963379</t>
+    <t xml:space="preserve">27.9195919036865</t>
   </si>
   <si>
     <t xml:space="preserve">28.3818359375</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">29.5929145812988</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3710403442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5282039642334</t>
+    <t xml:space="preserve">29.3710384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5282020568848</t>
   </si>
   <si>
     <t xml:space="preserve">29.0844459533691</t>
@@ -1820,16 +1820,16 @@
     <t xml:space="preserve">29.4357528686523</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4095687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.418815612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7254447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6253051757812</t>
+    <t xml:space="preserve">28.4095706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4188137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7254467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.625301361084</t>
   </si>
   <si>
     <t xml:space="preserve">27.2169761657715</t>
@@ -1841,19 +1841,19 @@
     <t xml:space="preserve">27.808650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5775279998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2816886901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6068153381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1876907348633</t>
+    <t xml:space="preserve">27.5775299072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0967922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2816905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6068134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1876926422119</t>
   </si>
   <si>
     <t xml:space="preserve">27.1337757110596</t>
@@ -1865,22 +1865,22 @@
     <t xml:space="preserve">26.8749160766602</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2262229919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8302421569824</t>
+    <t xml:space="preserve">27.226224899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8302459716797</t>
   </si>
   <si>
     <t xml:space="preserve">25.6730804443359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.310977935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0151405334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696922302246</t>
+    <t xml:space="preserve">26.3109760284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0151424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.469690322876</t>
   </si>
   <si>
     <t xml:space="preserve">24.9797134399414</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">25.5159168243408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0521202087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4881839752197</t>
+    <t xml:space="preserve">26.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4881801605225</t>
   </si>
   <si>
     <t xml:space="preserve">25.6915702819824</t>
@@ -1904,25 +1904,25 @@
     <t xml:space="preserve">26.7454872131348</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9581203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7100582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8286933898926</t>
+    <t xml:space="preserve">26.958122253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7100601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8286914825439</t>
   </si>
   <si>
     <t xml:space="preserve">27.5590400695801</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3171195983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.992000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5297527313232</t>
+    <t xml:space="preserve">28.31711769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9919967651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5297546386719</t>
   </si>
   <si>
     <t xml:space="preserve">27.4296112060547</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">27.401876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7069568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7809143066406</t>
+    <t xml:space="preserve">27.7069549560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7809162139893</t>
   </si>
   <si>
     <t xml:space="preserve">28.0490169525146</t>
@@ -1946,25 +1946,25 @@
     <t xml:space="preserve">27.7531814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3356094360352</t>
+    <t xml:space="preserve">28.3356075286865</t>
   </si>
   <si>
     <t xml:space="preserve">28.2616500854492</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6222019195557</t>
+    <t xml:space="preserve">28.622200012207</t>
   </si>
   <si>
     <t xml:space="preserve">30.3232612609863</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4157161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0166263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2200183868408</t>
+    <t xml:space="preserve">30.415714263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2200164794922</t>
   </si>
   <si>
     <t xml:space="preserve">31.6267929077148</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">30.859468460083</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0628566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586940765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1352615356445</t>
+    <t xml:space="preserve">31.0628547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586902618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1352577209473</t>
   </si>
   <si>
     <t xml:space="preserve">32.3478965759277</t>
@@ -1988,16 +1988,16 @@
     <t xml:space="preserve">32.0335693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7562217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.246208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2092247009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.089038848877</t>
+    <t xml:space="preserve">31.7562236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2462005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2092170715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0890350341797</t>
   </si>
   <si>
     <t xml:space="preserve">32.0797958374023</t>
@@ -2009,22 +2009,22 @@
     <t xml:space="preserve">32.4033660888672</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3386497497559</t>
+    <t xml:space="preserve">32.3386535644531</t>
   </si>
   <si>
     <t xml:space="preserve">31.1737957000732</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6221351623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2523460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3740844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.281623840332</t>
+    <t xml:space="preserve">34.6221389770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2523422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.374080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2816314697266</t>
   </si>
   <si>
     <t xml:space="preserve">33.1429557800293</t>
@@ -2036,34 +2036,34 @@
     <t xml:space="preserve">33.022777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8748588562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3648376464844</t>
+    <t xml:space="preserve">32.8748626708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3648300170898</t>
   </si>
   <si>
     <t xml:space="preserve">33.4572830200195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9842414855957</t>
+    <t xml:space="preserve">33.9842376708984</t>
   </si>
   <si>
     <t xml:space="preserve">33.6514282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6714706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1722450256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.884105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2076644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9657554626465</t>
+    <t xml:space="preserve">32.6714668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1722412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8840980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2076683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9657516479492</t>
   </si>
   <si>
     <t xml:space="preserve">34.0674476623535</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">34.3263053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2631416320801</t>
+    <t xml:space="preserve">33.2631378173828</t>
   </si>
   <si>
     <t xml:space="preserve">33.1059761047363</t>
@@ -2087,22 +2087,22 @@
     <t xml:space="preserve">33.6699142456055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7438774108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5497283935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8825454711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5682220458984</t>
+    <t xml:space="preserve">33.7438735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.549732208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8825492858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5682258605957</t>
   </si>
   <si>
     <t xml:space="preserve">33.7623672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3355484008789</t>
+    <t xml:space="preserve">34.3355445861816</t>
   </si>
   <si>
     <t xml:space="preserve">34.1414070129395</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">33.6884078979492</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3817710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6144523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9950370788574</t>
+    <t xml:space="preserve">34.381778717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6144485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9950408935547</t>
   </si>
   <si>
     <t xml:space="preserve">32.8471221923828</t>
@@ -2138,28 +2138,28 @@
     <t xml:space="preserve">32.3848724365234</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1337127685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5697708129883</t>
+    <t xml:space="preserve">33.1337089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5697746276855</t>
   </si>
   <si>
     <t xml:space="preserve">33.0042839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0225639343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3217582702637</t>
+    <t xml:space="preserve">32.0225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3217620849609</t>
   </si>
   <si>
     <t xml:space="preserve">33.2847709655762</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2937126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.695743560791</t>
+    <t xml:space="preserve">32.2937088012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6957511901855</t>
   </si>
   <si>
     <t xml:space="preserve">32.7237930297852</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">31.2091522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0408573150635</t>
+    <t xml:space="preserve">31.0408535003662</t>
   </si>
   <si>
     <t xml:space="preserve">30.8538627624512</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">32.4433097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0973663330078</t>
+    <t xml:space="preserve">32.0973701477051</t>
   </si>
   <si>
     <t xml:space="preserve">32.5555000305176</t>
@@ -2198,34 +2198,34 @@
     <t xml:space="preserve">32.1721649169922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2469673156738</t>
+    <t xml:space="preserve">32.2469596862793</t>
   </si>
   <si>
     <t xml:space="preserve">32.7705421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0977821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1075477600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2290878295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1827583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9770622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8835639953613</t>
+    <t xml:space="preserve">33.0977783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1075439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2290916442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1827545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9770584106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8835678100586</t>
   </si>
   <si>
     <t xml:space="preserve">34.2477874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9766464233398</t>
+    <t xml:space="preserve">33.9766502380371</t>
   </si>
   <si>
     <t xml:space="preserve">34.7246208190918</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">35.1547050476074</t>
   </si>
   <si>
-    <t xml:space="preserve">35.528694152832</t>
+    <t xml:space="preserve">35.5286865234375</t>
   </si>
   <si>
     <t xml:space="preserve">35.4538917541504</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9961700439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0990180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0055160522461</t>
+    <t xml:space="preserve">35.9961738586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0055198669434</t>
   </si>
   <si>
     <t xml:space="preserve">36.0148735046387</t>
@@ -2255,31 +2255,31 @@
     <t xml:space="preserve">35.7624320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8372344970703</t>
+    <t xml:space="preserve">35.837230682373</t>
   </si>
   <si>
     <t xml:space="preserve">35.575439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9774703979492</t>
+    <t xml:space="preserve">35.9774780273438</t>
   </si>
   <si>
     <t xml:space="preserve">35.5193405151367</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6128349304199</t>
+    <t xml:space="preserve">35.6128387451172</t>
   </si>
   <si>
     <t xml:space="preserve">35.7063331604004</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7250366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1457710266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1270713806152</t>
+    <t xml:space="preserve">35.7250328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1457633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.127067565918</t>
   </si>
   <si>
     <t xml:space="preserve">36.4169082641602</t>
@@ -2291,58 +2291,58 @@
     <t xml:space="preserve">36.4543075561523</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1640586853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7526626586914</t>
+    <t xml:space="preserve">35.1640548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7526664733887</t>
   </si>
   <si>
     <t xml:space="preserve">33.9018516540527</t>
   </si>
   <si>
-    <t xml:space="preserve">31.891674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8636302947998</t>
+    <t xml:space="preserve">31.8916721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8636283874512</t>
   </si>
   <si>
     <t xml:space="preserve">32.2656631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8546867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7892417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9290714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6579341888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1908645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1254119873047</t>
+    <t xml:space="preserve">32.8546829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7892456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9290733337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6579303741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.190860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.125415802002</t>
   </si>
   <si>
     <t xml:space="preserve">33.1538772583008</t>
   </si>
   <si>
-    <t xml:space="preserve">32.181510925293</t>
+    <t xml:space="preserve">32.1815147399902</t>
   </si>
   <si>
     <t xml:space="preserve">31.9851684570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7888278961182</t>
+    <t xml:space="preserve">31.7888298034668</t>
   </si>
   <si>
     <t xml:space="preserve">31.7327270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8729782104492</t>
+    <t xml:space="preserve">31.872974395752</t>
   </si>
   <si>
     <t xml:space="preserve">32.078670501709</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">33.5278625488281</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6213569641113</t>
+    <t xml:space="preserve">33.6213607788086</t>
   </si>
   <si>
     <t xml:space="preserve">33.1819267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9855804443359</t>
+    <t xml:space="preserve">32.9855842590332</t>
   </si>
   <si>
     <t xml:space="preserve">33.0697326660156</t>
@@ -2372,55 +2372,55 @@
     <t xml:space="preserve">32.8172874450684</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0693168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103717803955</t>
+    <t xml:space="preserve">32.0693130493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103736877441</t>
   </si>
   <si>
     <t xml:space="preserve">29.6758060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3583316802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4985752105713</t>
+    <t xml:space="preserve">30.3583354949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4985733032227</t>
   </si>
   <si>
     <t xml:space="preserve">30.0123920440674</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1339378356934</t>
+    <t xml:space="preserve">30.133939743042</t>
   </si>
   <si>
     <t xml:space="preserve">30.0497932434082</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2554836273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7510185241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2367839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5355606079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0217456817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4237804412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6107730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4611797332764</t>
+    <t xml:space="preserve">30.255485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7510166168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5733757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2367858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5355625152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0217437744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4237766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6107749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4611759185791</t>
   </si>
   <si>
     <t xml:space="preserve">31.0315017700195</t>
@@ -2429,46 +2429,46 @@
     <t xml:space="preserve">31.620532989502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2376136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9758243560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8542766571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4522399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1437034606934</t>
+    <t xml:space="preserve">32.237606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9758224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8542785644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4522380828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.143705368042</t>
   </si>
   <si>
     <t xml:space="preserve">30.0778388977051</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3863792419434</t>
+    <t xml:space="preserve">30.386381149292</t>
   </si>
   <si>
     <t xml:space="preserve">30.1806869506836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0965404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3770313262939</t>
+    <t xml:space="preserve">30.0965385437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3770294189453</t>
   </si>
   <si>
     <t xml:space="preserve">33.817699432373</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1912727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4246063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8827362060547</t>
+    <t xml:space="preserve">33.191276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4246025085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.882740020752</t>
   </si>
   <si>
     <t xml:space="preserve">32.9949378967285</t>
@@ -2480,22 +2480,22 @@
     <t xml:space="preserve">34.6965713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1921005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7807159423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5563278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4721832275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0701446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1823387145996</t>
+    <t xml:space="preserve">35.1921043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7807235717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.556324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4721755981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.070140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1823425292969</t>
   </si>
   <si>
     <t xml:space="preserve">34.4441299438477</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">34.6872215270996</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2949447631836</t>
+    <t xml:space="preserve">35.2949485778809</t>
   </si>
   <si>
     <t xml:space="preserve">34.9957618713379</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">36.641300201416</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5295219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1835823059082</t>
+    <t xml:space="preserve">37.5295143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1835784912109</t>
   </si>
   <si>
     <t xml:space="preserve">36.2673149108887</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">36.1644706726074</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6701736450195</t>
+    <t xml:space="preserve">38.6701774597168</t>
   </si>
   <si>
     <t xml:space="preserve">39.4555473327637</t>
@@ -2537,22 +2537,22 @@
     <t xml:space="preserve">39.072208404541</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3526992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6140785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3335914611816</t>
+    <t xml:space="preserve">39.3527030944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6140747070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3335838317871</t>
   </si>
   <si>
     <t xml:space="preserve">38.2400932312012</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6604118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.810001373291</t>
+    <t xml:space="preserve">37.6604080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8100051879883</t>
   </si>
   <si>
     <t xml:space="preserve">37.5482177734375</t>
@@ -2564,37 +2564,37 @@
     <t xml:space="preserve">38.2307395935059</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1372413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9876556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4640655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.950252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4827690124512</t>
+    <t xml:space="preserve">38.1372451782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9876518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4640693664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9502487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4827651977539</t>
   </si>
   <si>
     <t xml:space="preserve">37.6510620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4831809997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4644813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.062442779541</t>
+    <t xml:space="preserve">38.4831848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4644775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0624465942383</t>
   </si>
   <si>
     <t xml:space="preserve">38.1465950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8852157592773</t>
+    <t xml:space="preserve">38.8852119445801</t>
   </si>
   <si>
     <t xml:space="preserve">39.9417266845703</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">39.9230270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6608238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8006553649902</t>
+    <t xml:space="preserve">38.6608276367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8006629943848</t>
   </si>
   <si>
     <t xml:space="preserve">38.7917213439941</t>
@@ -2618,13 +2618,13 @@
     <t xml:space="preserve">37.7165069580078</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9128570556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.332763671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.744556427002</t>
+    <t xml:space="preserve">37.9128532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3327598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7445602416992</t>
   </si>
   <si>
     <t xml:space="preserve">36.9872360229492</t>
@@ -2633,61 +2633,61 @@
     <t xml:space="preserve">36.4636535644531</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8656883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3612251281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7819595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0152854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1925163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1461791992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.136417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7534942626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6221885681152</t>
+    <t xml:space="preserve">36.8656921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3612213134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7819557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0152893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.192512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.146183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1364135742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.753490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.622184753418</t>
   </si>
   <si>
     <t xml:space="preserve">35.7717781066895</t>
   </si>
   <si>
-    <t xml:space="preserve">36.501049041748</t>
+    <t xml:space="preserve">36.5010566711426</t>
   </si>
   <si>
     <t xml:space="preserve">34.7339706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8733863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.845344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3782691955566</t>
+    <t xml:space="preserve">32.8733901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8453369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3782730102539</t>
   </si>
   <si>
     <t xml:space="preserve">32.9668846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9294853210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5270347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5351505279541</t>
+    <t xml:space="preserve">32.9294891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5270404815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5351486206055</t>
   </si>
   <si>
     <t xml:space="preserve">28.1798610687256</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">27.7684764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6087036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2440700531006</t>
+    <t xml:space="preserve">25.6087074279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.244068145752</t>
   </si>
   <si>
     <t xml:space="preserve">25.7115516662598</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">25.262767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3664398193359</t>
+    <t xml:space="preserve">27.3664436340332</t>
   </si>
   <si>
     <t xml:space="preserve">26.7400150299072</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3396301269531</t>
+    <t xml:space="preserve">30.3396339416504</t>
   </si>
   <si>
     <t xml:space="preserve">31.8823261260986</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">31.1250019073486</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2835311889648</t>
+    <t xml:space="preserve">30.2835330963135</t>
   </si>
   <si>
     <t xml:space="preserve">29.9188976287842</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0774269104004</t>
+    <t xml:space="preserve">29.077428817749</t>
   </si>
   <si>
     <t xml:space="preserve">31.0876026153564</t>
@@ -2753,70 +2753,70 @@
     <t xml:space="preserve">31.5083389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0502033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2750091552734</t>
+    <t xml:space="preserve">31.0502014160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2750129699707</t>
   </si>
   <si>
     <t xml:space="preserve">32.9575386047363</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3119983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9941101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9384231567383</t>
+    <t xml:space="preserve">31.3119945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9941062927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9384250640869</t>
   </si>
   <si>
     <t xml:space="preserve">32.2095642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6855697631836</t>
+    <t xml:space="preserve">30.685567855835</t>
   </si>
   <si>
     <t xml:space="preserve">31.1904525756836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3209323883057</t>
+    <t xml:space="preserve">30.3209342956543</t>
   </si>
   <si>
     <t xml:space="preserve">30.6481704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1900386810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6388187408447</t>
+    <t xml:space="preserve">30.1900367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6388244628906</t>
   </si>
   <si>
     <t xml:space="preserve">29.8160495758057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0961284637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0119800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1432876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2741832733154</t>
+    <t xml:space="preserve">29.0961265563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.01198387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1432914733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2741851806641</t>
   </si>
   <si>
     <t xml:space="preserve">29.198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7693061828613</t>
+    <t xml:space="preserve">29.7693004608154</t>
   </si>
   <si>
     <t xml:space="preserve">31.2184982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8071136474609</t>
+    <t xml:space="preserve">30.8071155548096</t>
   </si>
   <si>
     <t xml:space="preserve">32.6022453308105</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">31.2745990753174</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4989852905273</t>
+    <t xml:space="preserve">31.4989891052246</t>
   </si>
   <si>
     <t xml:space="preserve">32.3311080932617</t>
@@ -2834,28 +2834,28 @@
     <t xml:space="preserve">32.4713516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4615936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8075275421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6672859191895</t>
+    <t xml:space="preserve">31.4615917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8075294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6672821044922</t>
   </si>
   <si>
     <t xml:space="preserve">32.4059066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9388389587402</t>
+    <t xml:space="preserve">32.938835144043</t>
   </si>
   <si>
     <t xml:space="preserve">33.2099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5091667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5274467468262</t>
+    <t xml:space="preserve">33.509162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5274505615234</t>
   </si>
   <si>
     <t xml:space="preserve">32.1534652709961</t>
@@ -2864,40 +2864,40 @@
     <t xml:space="preserve">32.5648498535156</t>
   </si>
   <si>
-    <t xml:space="preserve">31.826229095459</t>
+    <t xml:space="preserve">31.8262271881104</t>
   </si>
   <si>
     <t xml:space="preserve">32.0319175720215</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3872032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6859817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3965606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9197196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7794799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4896373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4054908752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.433536529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0128059387207</t>
+    <t xml:space="preserve">32.38720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.685977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.396556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9197235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0689029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4896430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4054946899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4335403442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0128021240234</t>
   </si>
   <si>
     <t xml:space="preserve">30.4798755645752</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">30.5079250335693</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8253993988037</t>
+    <t xml:space="preserve">29.8254013061523</t>
   </si>
   <si>
     <t xml:space="preserve">29.9843444824219</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3026466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416706085205</t>
+    <t xml:space="preserve">31.3026447296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416667938232</t>
   </si>
   <si>
     <t xml:space="preserve">30.4892253875732</t>
@@ -2927,31 +2927,31 @@
     <t xml:space="preserve">29.9375972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9562969207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2648334503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4144287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2928829193115</t>
+    <t xml:space="preserve">29.956298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.264835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4144268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0034561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2928867340088</t>
   </si>
   <si>
     <t xml:space="preserve">30.3676815032959</t>
   </si>
   <si>
-    <t xml:space="preserve">31.573787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2282600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6209411621094</t>
+    <t xml:space="preserve">31.5737934112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2282638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6209487915039</t>
   </si>
   <si>
     <t xml:space="preserve">32.9201354980469</t>
@@ -2963,40 +2963,40 @@
     <t xml:space="preserve">35.4632453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7994155883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1262435913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9107894897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4807014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.89208984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7050971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2941207885742</t>
+    <t xml:space="preserve">34.7994194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1262397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9107856750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4807052612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8920860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7050933837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2941246032715</t>
   </si>
   <si>
     <t xml:space="preserve">33.1632270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0607986450195</t>
+    <t xml:space="preserve">34.060791015625</t>
   </si>
   <si>
     <t xml:space="preserve">34.313232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6774559020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0233917236328</t>
+    <t xml:space="preserve">33.6774597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0233955383301</t>
   </si>
   <si>
     <t xml:space="preserve">34.3973846435547</t>
@@ -3005,52 +3005,52 @@
     <t xml:space="preserve">34.5002288818359</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0510330200195</t>
+    <t xml:space="preserve">33.0510368347168</t>
   </si>
   <si>
     <t xml:space="preserve">34.4067306518555</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4258422851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8742141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4075546264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5937232971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.630298614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8359909057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6587562561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.004695892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3603973388672</t>
+    <t xml:space="preserve">35.4258460998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8742179870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4075584411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5937271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6303024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8359870910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.658763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0046920776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3603935241699</t>
   </si>
   <si>
     <t xml:space="preserve">35.1079559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0994262695312</t>
+    <t xml:space="preserve">37.0994300842285</t>
   </si>
   <si>
     <t xml:space="preserve">37.1274833679199</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8567581176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1087799072266</t>
+    <t xml:space="preserve">37.8567543029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1087837219238</t>
   </si>
   <si>
     <t xml:space="preserve">37.2209815979004</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">38.4083862304688</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3896865844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1278915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.959602355957</t>
+    <t xml:space="preserve">38.3896827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1278953552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9595947265625</t>
   </si>
   <si>
     <t xml:space="preserve">38.9787101745605</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">39.1750564575195</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7636680603027</t>
+    <t xml:space="preserve">38.763671875</t>
   </si>
   <si>
     <t xml:space="preserve">38.3429336547852</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">39.820182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.390510559082</t>
+    <t xml:space="preserve">40.3905143737793</t>
   </si>
   <si>
     <t xml:space="preserve">41.138484954834</t>
@@ -3107,10 +3107,10 @@
     <t xml:space="preserve">43.4384956359863</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4856605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7661476135254</t>
+    <t xml:space="preserve">44.4856643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7661514282227</t>
   </si>
   <si>
     <t xml:space="preserve">45.6263160705566</t>
@@ -3119,13 +3119,13 @@
     <t xml:space="preserve">45.5421714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8133125305176</t>
+    <t xml:space="preserve">45.8133087158203</t>
   </si>
   <si>
     <t xml:space="preserve">45.3458290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4669609069824</t>
+    <t xml:space="preserve">44.4669647216797</t>
   </si>
   <si>
     <t xml:space="preserve">45.2336349487305</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">45.0746879577637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4958381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0287666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8791694641113</t>
+    <t xml:space="preserve">46.4958305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0287628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8791732788086</t>
   </si>
   <si>
     <t xml:space="preserve">46.7482757568359</t>
@@ -3149,40 +3149,40 @@
     <t xml:space="preserve">45.4580230712891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4767150878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7100563049316</t>
+    <t xml:space="preserve">45.4767227172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7100524902344</t>
   </si>
   <si>
     <t xml:space="preserve">44.9344444274902</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8783416748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9807815551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0185928344727</t>
+    <t xml:space="preserve">44.8783493041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9807739257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0185890197754</t>
   </si>
   <si>
     <t xml:space="preserve">44.6726493835449</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2706184387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2803802490234</t>
+    <t xml:space="preserve">44.270622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2803764343262</t>
   </si>
   <si>
     <t xml:space="preserve">44.5511093139648</t>
   </si>
   <si>
-    <t xml:space="preserve">45.504768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3649406433105</t>
+    <t xml:space="preserve">45.5047721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3649444580078</t>
   </si>
   <si>
     <t xml:space="preserve">44.2612686157227</t>
@@ -3194,22 +3194,22 @@
     <t xml:space="preserve">44.9624938964844</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3734588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8035469055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8129005432129</t>
+    <t xml:space="preserve">44.373462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8035507202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8129043579102</t>
   </si>
   <si>
     <t xml:space="preserve">46.766975402832</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5336494445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.225528717041</t>
+    <t xml:space="preserve">47.5336456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2255210876465</t>
   </si>
   <si>
     <t xml:space="preserve">48.7304039001465</t>
@@ -3218,10 +3218,10 @@
     <t xml:space="preserve">48.3003158569336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5995063781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9076385498047</t>
+    <t xml:space="preserve">48.5995101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9076347351074</t>
   </si>
   <si>
     <t xml:space="preserve">48.8052024841309</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">49.8523597717285</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5247116088867</t>
+    <t xml:space="preserve">48.524715423584</t>
   </si>
   <si>
     <t xml:space="preserve">47.8889350891113</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">48.2379341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3888549804688</t>
+    <t xml:space="preserve">48.388858795166</t>
   </si>
   <si>
     <t xml:space="preserve">49.2000541687012</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">49.5584907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7661590576172</t>
+    <t xml:space="preserve">48.7661552429199</t>
   </si>
   <si>
     <t xml:space="preserve">47.6719856262207</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">46.738166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8985252380371</t>
+    <t xml:space="preserve">46.8985214233398</t>
   </si>
   <si>
     <t xml:space="preserve">47.464469909668</t>
@@ -3278,43 +3278,43 @@
     <t xml:space="preserve">46.7947616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8793449401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0868644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4077262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5209121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8983688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.256950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.634407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.408031463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289657592773</t>
+    <t xml:space="preserve">48.8793487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0868682861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4077224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.898365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2569541931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6344108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4080238342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289619445801</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459075927734</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4930763244629</t>
+    <t xml:space="preserve">45.4930725097656</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174575805664</t>
+    <t xml:space="preserve">46.4174613952637</t>
   </si>
   <si>
     <t xml:space="preserve">46.0967559814453</t>
@@ -3323,25 +3323,25 @@
     <t xml:space="preserve">46.8796539306641</t>
   </si>
   <si>
-    <t xml:space="preserve">47.954963684082</t>
+    <t xml:space="preserve">47.9549598693848</t>
   </si>
   <si>
     <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5022048950195</t>
+    <t xml:space="preserve">47.5022010803223</t>
   </si>
   <si>
     <t xml:space="preserve">47.2946853637695</t>
   </si>
   <si>
-    <t xml:space="preserve">47.6531181335449</t>
+    <t xml:space="preserve">47.6531219482422</t>
   </si>
   <si>
     <t xml:space="preserve">47.5776596069336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5775108337402</t>
+    <t xml:space="preserve">48.577507019043</t>
   </si>
   <si>
     <t xml:space="preserve">48.426586151123</t>
@@ -3350,34 +3350,34 @@
     <t xml:space="preserve">47.3701477050781</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3887023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4640121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0304222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0681495666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1247482299805</t>
+    <t xml:space="preserve">49.3887062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4640159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0304183959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0681533813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1247444152832</t>
   </si>
   <si>
     <t xml:space="preserve">48.5586433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4267387390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5020484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3511276245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8038940429688</t>
+    <t xml:space="preserve">47.4267349243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5020446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3511238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8038902282715</t>
   </si>
   <si>
     <t xml:space="preserve">48.0492858886719</t>
@@ -3386,22 +3386,22 @@
     <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6718330383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0114059448242</t>
+    <t xml:space="preserve">48.6718292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.011402130127</t>
   </si>
   <si>
     <t xml:space="preserve">49.7660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5207595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2753639221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5394744873047</t>
+    <t xml:space="preserve">49.5207633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2753601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.539478302002</t>
   </si>
   <si>
     <t xml:space="preserve">51.6333999633789</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">54.8485984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3432464599609</t>
+    <t xml:space="preserve">55.3432426452637</t>
   </si>
   <si>
     <t xml:space="preserve">55.4573936462402</t>
@@ -3437,25 +3437,25 @@
     <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0471611022949</t>
+    <t xml:space="preserve">56.0471572875977</t>
   </si>
   <si>
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305328369141</t>
+    <t xml:space="preserve">54.0305290222168</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3349304199219</t>
+    <t xml:space="preserve">54.3349266052246</t>
   </si>
   <si>
     <t xml:space="preserve">55.1149482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4764137268066</t>
+    <t xml:space="preserve">55.4764175415039</t>
   </si>
   <si>
     <t xml:space="preserve">55.7427635192871</t>
@@ -3464,10 +3464,10 @@
     <t xml:space="preserve">55.2671432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4003219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4383659362793</t>
+    <t xml:space="preserve">55.400318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4383697509766</t>
   </si>
   <si>
     <t xml:space="preserve">54.4300498962402</t>
@@ -3488,13 +3488,13 @@
     <t xml:space="preserve">54.5251770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0115013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.239803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5442008972168</t>
+    <t xml:space="preserve">54.0115051269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2398071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">52.641716003418</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">54.9437217712402</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5905647277832</t>
+    <t xml:space="preserve">55.5905685424805</t>
   </si>
   <si>
     <t xml:space="preserve">53.9734573364258</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0174293518066</t>
+    <t xml:space="preserve">57.0174255371094</t>
   </si>
   <si>
     <t xml:space="preserve">56.7510833740234</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">55.1720199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8759384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9330177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7617874145508</t>
+    <t xml:space="preserve">55.8759422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9330139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.761791229248</t>
   </si>
   <si>
     <t xml:space="preserve">56.8462066650391</t>
@@ -3557,16 +3557,16 @@
     <t xml:space="preserve">58.215991973877</t>
   </si>
   <si>
-    <t xml:space="preserve">58.596492767334</t>
+    <t xml:space="preserve">58.5964889526367</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8628349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7023239135742</t>
+    <t xml:space="preserve">58.8628387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.702320098877</t>
   </si>
   <si>
     <t xml:space="preserve">57.1315803527832</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">55.6286163330078</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2231712341309</t>
+    <t xml:space="preserve">52.2231750488281</t>
   </si>
   <si>
     <t xml:space="preserve">51.2909545898438</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">51.994873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">51.918773651123</t>
+    <t xml:space="preserve">51.9187774658203</t>
   </si>
   <si>
     <t xml:space="preserve">51.5382804870605</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">52.565616607666</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4895172119141</t>
+    <t xml:space="preserve">52.4895210266113</t>
   </si>
   <si>
     <t xml:space="preserve">51.9758491516113</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">49.2552947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">49.17919921875</t>
+    <t xml:space="preserve">49.1791954040527</t>
   </si>
   <si>
     <t xml:space="preserve">50.4348373413086</t>
@@ -3641,10 +3641,10 @@
     <t xml:space="preserve">50.1114158630371</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7095031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5465927124023</t>
+    <t xml:space="preserve">51.7094993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5465965270996</t>
   </si>
   <si>
     <t xml:space="preserve">52.3182945251465</t>
@@ -3686,10 +3686,10 @@
     <t xml:space="preserve">57.3028030395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0447692871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1208648681641</t>
+    <t xml:space="preserve">58.0447731018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1208686828613</t>
   </si>
   <si>
     <t xml:space="preserve">57.6642723083496</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">58.2350196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">59.0911331176758</t>
+    <t xml:space="preserve">59.091136932373</t>
   </si>
   <si>
     <t xml:space="preserve">60.7843475341797</t>
@@ -3716,16 +3716,16 @@
     <t xml:space="preserve">63.0482978820801</t>
   </si>
   <si>
-    <t xml:space="preserve">64.3039474487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8366394042969</t>
+    <t xml:space="preserve">64.3039398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8366317749023</t>
   </si>
   <si>
     <t xml:space="preserve">62.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1160926818848</t>
+    <t xml:space="preserve">62.1160888671875</t>
   </si>
   <si>
     <t xml:space="preserve">63.2195281982422</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">64.3610153198242</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1981048583984</t>
+    <t xml:space="preserve">65.198112487793</t>
   </si>
   <si>
     <t xml:space="preserve">65.7878875732422</t>
@@ -3743,52 +3743,52 @@
     <t xml:space="preserve">65.6737289428711</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0078659057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4941864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4073791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.934154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3146438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7331962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6618843078613</t>
+    <t xml:space="preserve">65.0078582763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4941940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4073867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9341506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3146476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7331924438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6618804931641</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9555740356445</t>
+    <t xml:space="preserve">60.9555702209473</t>
   </si>
   <si>
     <t xml:space="preserve">62.420482635498</t>
   </si>
   <si>
-    <t xml:space="preserve">62.3253517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0863571166992</t>
+    <t xml:space="preserve">62.3253555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0863494873047</t>
   </si>
   <si>
     <t xml:space="preserve">65.9020233154297</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8853912353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5619735717773</t>
+    <t xml:space="preserve">63.8853988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5619697570801</t>
   </si>
   <si>
     <t xml:space="preserve">62.8390235900879</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043296813965</t>
+    <t xml:space="preserve">60.0043334960938</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">59.167236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6428565979004</t>
+    <t xml:space="preserve">59.6428527832031</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
@@ -3833,13 +3833,13 @@
     <t xml:space="preserve">61.1648445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8307151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3063354492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7379760742188</t>
+    <t xml:space="preserve">61.8307113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.306339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.737979888916</t>
   </si>
   <si>
     <t xml:space="preserve">58.2540435791016</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">54.0876045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">54.9247016906738</t>
+    <t xml:space="preserve">54.9246978759766</t>
   </si>
   <si>
     <t xml:space="preserve">53.8022346496582</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">52.4324417114258</t>
   </si>
   <si>
-    <t xml:space="preserve">53.4978370666504</t>
+    <t xml:space="preserve">53.4978408813477</t>
   </si>
   <si>
     <t xml:space="preserve">53.726131439209</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">52.7368392944336</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5929641723633</t>
+    <t xml:space="preserve">53.592960357666</t>
   </si>
   <si>
     <t xml:space="preserve">56.1422882080078</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">55.32421875</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8129386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7855987548828</t>
+    <t xml:space="preserve">52.8129425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7855949401855</t>
   </si>
   <si>
     <t xml:space="preserve">53.3075866699219</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">52.3943939208984</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1280479431152</t>
+    <t xml:space="preserve">52.128044128418</t>
   </si>
   <si>
     <t xml:space="preserve">52.0709762573242</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">46.7440185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8474617004395</t>
+    <t xml:space="preserve">47.8474578857422</t>
   </si>
   <si>
     <t xml:space="preserve">48.6084518432617</t>
@@ -3968,28 +3968,28 @@
     <t xml:space="preserve">48.1708793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3433036804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8581657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2481727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9782409667969</t>
+    <t xml:space="preserve">47.3432998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8581619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.248176574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3242797851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9782447814941</t>
   </si>
   <si>
     <t xml:space="preserve">48.2660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2469787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0353088378906</t>
+    <t xml:space="preserve">48.2469825744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0353126525879</t>
   </si>
   <si>
     <t xml:space="preserve">50.396785736084</t>
@@ -4001,13 +4001,13 @@
     <t xml:space="preserve">47.0293922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5133285522461</t>
+    <t xml:space="preserve">48.5133247375488</t>
   </si>
   <si>
     <t xml:space="preserve">46.1827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">47.067440032959</t>
+    <t xml:space="preserve">47.0674438476562</t>
   </si>
   <si>
     <t xml:space="preserve">47.505012512207</t>
@@ -4016,16 +4016,16 @@
     <t xml:space="preserve">48.094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2291564941406</t>
+    <t xml:space="preserve">47.2291526794434</t>
   </si>
   <si>
     <t xml:space="preserve">48.66552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.581111907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3552093505859</t>
+    <t xml:space="preserve">47.5811157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3552055358887</t>
   </si>
   <si>
     <t xml:space="preserve">44.822509765625</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6215515136719</t>
+    <t xml:space="preserve">45.6215553283691</t>
   </si>
   <si>
     <t xml:space="preserve">44.955680847168</t>
@@ -4052,13 +4052,13 @@
     <t xml:space="preserve">42.4253807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6370429992676</t>
+    <t xml:space="preserve">40.6370468139648</t>
   </si>
   <si>
     <t xml:space="preserve">39.7904434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7702178955078</t>
+    <t xml:space="preserve">40.7702217102051</t>
   </si>
   <si>
     <t xml:space="preserve">42.5585556030273</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">42.2161064147949</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0627136230469</t>
+    <t xml:space="preserve">43.0627174377441</t>
   </si>
   <si>
     <t xml:space="preserve">41.569263458252</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">40.1994743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">40.797737121582</t>
+    <t xml:space="preserve">40.7977409362793</t>
   </si>
   <si>
     <t xml:space="preserve">39.4371719360352</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">40.7205467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">41.579345703125</t>
+    <t xml:space="preserve">41.5793418884277</t>
   </si>
   <si>
     <t xml:space="preserve">43.3162384033203</t>
@@ -4112,19 +4112,19 @@
     <t xml:space="preserve">44.281177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4645195007324</t>
+    <t xml:space="preserve">44.4645233154297</t>
   </si>
   <si>
     <t xml:space="preserve">44.2136344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">43.065357208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1486549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5240173339844</t>
+    <t xml:space="preserve">43.0653533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1486587524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5240135192871</t>
   </si>
   <si>
     <t xml:space="preserve">38.0573043823242</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">37.0344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3660850524902</t>
+    <t xml:space="preserve">38.366081237793</t>
   </si>
   <si>
     <t xml:space="preserve">36.1756706237793</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">35.7896919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7221488952637</t>
+    <t xml:space="preserve">35.7221450805664</t>
   </si>
   <si>
     <t xml:space="preserve">36.4844512939453</t>
@@ -4169,7 +4169,7 @@
     <t xml:space="preserve">39.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9257507324219</t>
+    <t xml:space="preserve">38.9257545471191</t>
   </si>
   <si>
     <t xml:space="preserve">38.2213478088379</t>
@@ -4178,10 +4178,10 @@
     <t xml:space="preserve">39.77490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9389381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0257835388184</t>
+    <t xml:space="preserve">39.9389419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0257873535156</t>
   </si>
   <si>
     <t xml:space="preserve">39.3985748291016</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">41.2609100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">41.675838470459</t>
+    <t xml:space="preserve">41.6758346557617</t>
   </si>
   <si>
     <t xml:space="preserve">42.081111907959</t>
@@ -4223,10 +4223,10 @@
     <t xml:space="preserve">41.6468887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9952392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9637184143066</t>
+    <t xml:space="preserve">44.9952354431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9637145996094</t>
   </si>
   <si>
     <t xml:space="preserve">47.021614074707</t>
@@ -4235,22 +4235,22 @@
     <t xml:space="preserve">46.0663223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3654518127441</t>
+    <t xml:space="preserve">46.3654556274414</t>
   </si>
   <si>
     <t xml:space="preserve">47.5812835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5716323852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5523300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.896167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7742691040039</t>
+    <t xml:space="preserve">47.5716285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5523338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8961715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7742652893066</t>
   </si>
   <si>
     <t xml:space="preserve">48.0155029296875</t>
@@ -4268,10 +4268,10 @@
     <t xml:space="preserve">47.8128662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0241813659668</t>
+    <t xml:space="preserve">47.1760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0241851806641</t>
   </si>
   <si>
     <t xml:space="preserve">45.8540344238281</t>
@@ -4286,31 +4286,31 @@
     <t xml:space="preserve">44.0206451416016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.103946685791</t>
+    <t xml:space="preserve">43.1039505004883</t>
   </si>
   <si>
     <t xml:space="preserve">43.2679901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0750007629395</t>
+    <t xml:space="preserve">43.0750045776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.974967956543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1811447143555</t>
+    <t xml:space="preserve">43.1811485290527</t>
   </si>
   <si>
     <t xml:space="preserve">42.071460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1100616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3319931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6407775878906</t>
+    <t xml:space="preserve">42.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3319969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6407737731934</t>
   </si>
   <si>
     <t xml:space="preserve">43.4320297241211</t>
@@ -4319,25 +4319,25 @@
     <t xml:space="preserve">43.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9688606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6829147338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.505687713623</t>
+    <t xml:space="preserve">42.9688568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.682918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5056838989258</t>
   </si>
   <si>
     <t xml:space="preserve">41.8495254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4284896850586</t>
+    <t xml:space="preserve">42.4284934997559</t>
   </si>
   <si>
     <t xml:space="preserve">42.7469215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4223823547363</t>
+    <t xml:space="preserve">43.4223785400391</t>
   </si>
   <si>
     <t xml:space="preserve">40.8556365966797</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">41.9942665100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7108955383301</t>
+    <t xml:space="preserve">40.7108917236328</t>
   </si>
   <si>
     <t xml:space="preserve">40.9038848876953</t>
@@ -4370,7 +4370,7 @@
     <t xml:space="preserve">43.8083610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9206123352051</t>
+    <t xml:space="preserve">42.9206085205078</t>
   </si>
   <si>
     <t xml:space="preserve">42.4574394226074</t>
@@ -4385,10 +4385,10 @@
     <t xml:space="preserve">43.6153717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6925659179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7925987243652</t>
+    <t xml:space="preserve">43.6925621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.792594909668</t>
   </si>
   <si>
     <t xml:space="preserve">45.0531311035156</t>
@@ -4397,7 +4397,7 @@
     <t xml:space="preserve">44.7057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6803436279297</t>
+    <t xml:space="preserve">45.680347442627</t>
   </si>
   <si>
     <t xml:space="preserve">44.3390769958496</t>
@@ -4409,13 +4409,13 @@
     <t xml:space="preserve">47.2146034240723</t>
   </si>
   <si>
-    <t xml:space="preserve">46.703182220459</t>
+    <t xml:space="preserve">46.7031860351562</t>
   </si>
   <si>
     <t xml:space="preserve">44.7347030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7022171020508</t>
+    <t xml:space="preserve">43.7022132873535</t>
   </si>
   <si>
     <t xml:space="preserve">42.1583061218262</t>
@@ -4430,16 +4430,16 @@
     <t xml:space="preserve">40.7784385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7987098693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9144973754883</t>
+    <t xml:space="preserve">43.7987060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9145011901855</t>
   </si>
   <si>
     <t xml:space="preserve">44.8215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0820846557617</t>
+    <t xml:space="preserve">45.0820808410645</t>
   </si>
   <si>
     <t xml:space="preserve">47.8321647644043</t>
@@ -4451,31 +4451,31 @@
     <t xml:space="preserve">48.6909637451172</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8453521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2663879394531</t>
+    <t xml:space="preserve">48.8453559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2663917541504</t>
   </si>
   <si>
     <t xml:space="preserve">48.1312980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0830497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6645889282227</t>
+    <t xml:space="preserve">48.0830535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6645851135254</t>
   </si>
   <si>
     <t xml:space="preserve">46.6356391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.597038269043</t>
+    <t xml:space="preserve">46.5970420837402</t>
   </si>
   <si>
     <t xml:space="preserve">46.4426498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3172035217285</t>
+    <t xml:space="preserve">46.3172073364258</t>
   </si>
   <si>
     <t xml:space="preserve">45.8347358703613</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">47.330394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5777435302734</t>
+    <t xml:space="preserve">46.5777397155762</t>
   </si>
   <si>
     <t xml:space="preserve">46.6259880065918</t>
@@ -4493,7 +4493,7 @@
     <t xml:space="preserve">45.7671890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7803802490234</t>
+    <t xml:space="preserve">46.7803764343262</t>
   </si>
   <si>
     <t xml:space="preserve">47.6391754150391</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">45.9215812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1953048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4136962890625</t>
+    <t xml:space="preserve">47.1953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4137001037598</t>
   </si>
   <si>
     <t xml:space="preserve">47.7356719970703</t>
@@ -4529,16 +4529,16 @@
     <t xml:space="preserve">48.3821792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7646217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8839530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6330718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6559028625488</t>
+    <t xml:space="preserve">47.7646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8839492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6330680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">50.505054473877</t>
@@ -4547,22 +4547,22 @@
     <t xml:space="preserve">50.8331336975098</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0804824829102</t>
+    <t xml:space="preserve">50.0804786682129</t>
   </si>
   <si>
     <t xml:space="preserve">51.2770080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6243858337402</t>
+    <t xml:space="preserve">51.6243896484375</t>
   </si>
   <si>
     <t xml:space="preserve">53.0525016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5349731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0753402709961</t>
+    <t xml:space="preserve">53.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0753364562988</t>
   </si>
   <si>
     <t xml:space="preserve">54.2876243591309</t>
@@ -4571,13 +4571,13 @@
     <t xml:space="preserve">53.0910987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2490310668945</t>
+    <t xml:space="preserve">54.2490272521973</t>
   </si>
   <si>
     <t xml:space="preserve">54.5385131835938</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3069229125977</t>
+    <t xml:space="preserve">54.3069267272949</t>
   </si>
   <si>
     <t xml:space="preserve">54.4613151550293</t>
@@ -4586,22 +4586,22 @@
     <t xml:space="preserve">55.754337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3104667663574</t>
+    <t xml:space="preserve">55.3104629516602</t>
   </si>
   <si>
     <t xml:space="preserve">55.1946716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0595817565918</t>
+    <t xml:space="preserve">55.0595779418945</t>
   </si>
   <si>
     <t xml:space="preserve">56.4683952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6999816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4262542724609</t>
+    <t xml:space="preserve">56.6999778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4262580871582</t>
   </si>
   <si>
     <t xml:space="preserve">55.2525672912598</t>
@@ -4616,28 +4616,28 @@
     <t xml:space="preserve">54.2297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">54.7122001647949</t>
+    <t xml:space="preserve">54.7122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">55.1560745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1210174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6385459899902</t>
+    <t xml:space="preserve">56.1210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">55.6771430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6034889221191</t>
+    <t xml:space="preserve">56.6034851074219</t>
   </si>
   <si>
     <t xml:space="preserve">56.5648880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2175102233887</t>
+    <t xml:space="preserve">56.2175064086914</t>
   </si>
   <si>
     <t xml:space="preserve">55.6964416503906</t>
@@ -4649,7 +4649,7 @@
     <t xml:space="preserve">55.7736358642578</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6070289611816</t>
+    <t xml:space="preserve">57.6070251464844</t>
   </si>
   <si>
     <t xml:space="preserve">58.2438888549805</t>
@@ -4691,10 +4691,10 @@
     <t xml:space="preserve">57.5684280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8035545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.2667236328125</t>
+    <t xml:space="preserve">58.8035507202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.2667274475098</t>
   </si>
   <si>
     <t xml:space="preserve">59.4597129821777</t>
@@ -4706,37 +4706,37 @@
     <t xml:space="preserve">58.5719680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.2509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2316627502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3124046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4667930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9878616333008</t>
+    <t xml:space="preserve">60.2509689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.2316665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3124008178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3703002929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9878578186035</t>
   </si>
   <si>
     <t xml:space="preserve">61.0422172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">61.196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7720375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4738731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6282653808594</t>
+    <t xml:space="preserve">61.1966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4738693237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6282615661621</t>
   </si>
   <si>
     <t xml:space="preserve">62.373836517334</t>
@@ -4751,7 +4751,7 @@
     <t xml:space="preserve">64.5739059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8440856933594</t>
+    <t xml:space="preserve">64.8440933227539</t>
   </si>
   <si>
     <t xml:space="preserve">65.3072662353516</t>
@@ -4772,13 +4772,13 @@
     <t xml:space="preserve">66.1564025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9405899047852</t>
+    <t xml:space="preserve">64.9405822753906</t>
   </si>
   <si>
     <t xml:space="preserve">64.4195175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8791465759277</t>
+    <t xml:space="preserve">63.8791427612305</t>
   </si>
   <si>
     <t xml:space="preserve">63.3001823425293</t>
@@ -4793,13 +4793,13 @@
     <t xml:space="preserve">62.8949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">62.991397857666</t>
+    <t xml:space="preserve">62.9914016723633</t>
   </si>
   <si>
     <t xml:space="preserve">62.2387466430664</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1036529541016</t>
+    <t xml:space="preserve">62.1036567687988</t>
   </si>
   <si>
     <t xml:space="preserve">63.5374183654785</t>
@@ -5583,6 +5583,9 @@
   </si>
   <si>
     <t xml:space="preserve">58.2799987792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9000015258789</t>
   </si>
 </sst>
 </file>
@@ -62370,7 +62373,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6494328704</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>533120</v>
@@ -62391,6 +62394,32 @@
         <v>1856</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.649537037</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>796329</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>57.7799987792969</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>56.8199996948242</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>57.5200004577637</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>56.9000015258789</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1867">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2278308868408</t>
+    <t xml:space="preserve">11.2278299331665</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.119610786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.993353843689</t>
+    <t xml:space="preserve">11.1196117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9933519363403</t>
   </si>
   <si>
     <t xml:space="preserve">11.0474634170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1376476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3270320892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7869672775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.63365650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089962005615</t>
+    <t xml:space="preserve">11.1376466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3270311355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1206436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7869682312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6336545944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089971542358</t>
   </si>
   <si>
     <t xml:space="preserve">11.7058019638062</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">11.8951873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5615091323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9853706359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2829751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657390594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2919940948486</t>
+    <t xml:space="preserve">11.5615081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9853715896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657381057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2919950485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.2649402618408</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">11.8861694335938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2559204101562</t>
+    <t xml:space="preserve">12.2559194564819</t>
   </si>
   <si>
     <t xml:space="preserve">12.111629486084</t>
@@ -107,25 +107,25 @@
     <t xml:space="preserve">12.0575180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9222450256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.075553894043</t>
+    <t xml:space="preserve">11.9222421646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0755548477173</t>
   </si>
   <si>
     <t xml:space="preserve">11.5705280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">11.426233291626</t>
+    <t xml:space="preserve">11.4262342453003</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4081983566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0925569534302</t>
+    <t xml:space="preserve">11.4081964492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0925559997559</t>
   </si>
   <si>
     <t xml:space="preserve">11.4532880783081</t>
@@ -134,67 +134,67 @@
     <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0394821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5805816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4362888336182</t>
+    <t xml:space="preserve">12.0394811630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5805807113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4182510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4362878799438</t>
   </si>
   <si>
     <t xml:space="preserve">12.5715618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9583158493042</t>
+    <t xml:space="preserve">11.9583168029785</t>
   </si>
   <si>
     <t xml:space="preserve">12.3641405105591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9142589569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1397171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9413156509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3922319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5906343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587915420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357269287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070755004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8972587585449</t>
+    <t xml:space="preserve">12.9142608642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1397180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.941312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3922309875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5906352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627817153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587896347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357278823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8070764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8972568511963</t>
   </si>
   <si>
     <t xml:space="preserve">13.5184879302979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2208824157715</t>
+    <t xml:space="preserve">13.2208833694458</t>
   </si>
   <si>
     <t xml:space="preserve">13.2389192581177</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1667737960815</t>
+    <t xml:space="preserve">13.1667728424072</t>
   </si>
   <si>
     <t xml:space="preserve">13.0765895843506</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">13.1938285827637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1216831207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2749929428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988554000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3020477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1577548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1036434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.760947227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9683704376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0044431686401</t>
+    <t xml:space="preserve">13.1216812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2749938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988544464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3020486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.157753944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.103645324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7609481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9683694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0044441223145</t>
   </si>
   <si>
     <t xml:space="preserve">13.2118644714355</t>
@@ -239,40 +239,40 @@
     <t xml:space="preserve">13.3291025161743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3832130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5725984573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3471412658691</t>
+    <t xml:space="preserve">13.3832139968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725994110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3471403121948</t>
   </si>
   <si>
     <t xml:space="preserve">12.8601493835449</t>
   </si>
   <si>
-    <t xml:space="preserve">12.679783821106</t>
+    <t xml:space="preserve">12.6797847747803</t>
   </si>
   <si>
     <t xml:space="preserve">12.7699670791626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1487369537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1757926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500452041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1858444213867</t>
+    <t xml:space="preserve">13.1487379074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1757907867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004529953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227159500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.185845375061</t>
   </si>
   <si>
     <t xml:space="preserve">14.140754699707</t>
@@ -281,82 +281,82 @@
     <t xml:space="preserve">13.8251123428345</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7529649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455446243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275068283081</t>
+    <t xml:space="preserve">13.752965927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.54554271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275058746338</t>
   </si>
   <si>
     <t xml:space="preserve">13.4091634750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7459859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4546785354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6549530029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7823991775513</t>
+    <t xml:space="preserve">13.7459840774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6276435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4546794891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6549520492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7824001312256</t>
   </si>
   <si>
     <t xml:space="preserve">13.6458492279053</t>
   </si>
   <si>
-    <t xml:space="preserve">13.68226146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5457143783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5001974105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8552265167236</t>
+    <t xml:space="preserve">13.6822624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5001964569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8552255630493</t>
   </si>
   <si>
     <t xml:space="preserve">13.9189491271973</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9280519485474</t>
+    <t xml:space="preserve">13.9280529022217</t>
   </si>
   <si>
     <t xml:space="preserve">13.481990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3363361358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8993787765503</t>
+    <t xml:space="preserve">13.3363370895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8993797302246</t>
   </si>
   <si>
     <t xml:space="preserve">13.3909568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.035927772522</t>
+    <t xml:space="preserve">13.0359296798706</t>
   </si>
   <si>
     <t xml:space="preserve">14.0008783340454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8643274307251</t>
+    <t xml:space="preserve">13.8643283843994</t>
   </si>
   <si>
     <t xml:space="preserve">14.0463943481445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4196290969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.10875415802</t>
+    <t xml:space="preserve">14.4196300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1087551116943</t>
   </si>
   <si>
     <t xml:space="preserve">12.4715223312378</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">12.8720684051514</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272323608398</t>
+    <t xml:space="preserve">13.3272342681885</t>
   </si>
   <si>
     <t xml:space="preserve">13.172477722168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7901382446289</t>
+    <t xml:space="preserve">12.7901391983032</t>
   </si>
   <si>
     <t xml:space="preserve">13.0268249511719</t>
@@ -383,124 +383,124 @@
     <t xml:space="preserve">13.145167350769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0996503829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545436859131</t>
+    <t xml:space="preserve">13.0996513366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545427322388</t>
   </si>
   <si>
     <t xml:space="preserve">13.1360645294189</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1269607543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9448957443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0190849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5652837753296</t>
+    <t xml:space="preserve">13.1269617080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9448947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0190839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3650102615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557697296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5652828216553</t>
   </si>
   <si>
     <t xml:space="preserve">14.2739782333374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1465311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913652420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7915010452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192216873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193565368652</t>
+    <t xml:space="preserve">14.1465320587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913661956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7915019989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192207336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193555831909</t>
   </si>
   <si>
     <t xml:space="preserve">14.2102537155151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0372896194458</t>
+    <t xml:space="preserve">14.0372924804688</t>
   </si>
   <si>
     <t xml:space="preserve">14.2375640869141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1829452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1101188659668</t>
+    <t xml:space="preserve">14.1829433441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1101179122925</t>
   </si>
   <si>
     <t xml:space="preserve">13.9553623199463</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1920471191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9462575912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8825349807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732973098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7095727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5366096496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6003332138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7004690170288</t>
+    <t xml:space="preserve">14.1920480728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9462566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8825359344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732963562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7095737457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5366106033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6003322601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7004699707031</t>
   </si>
   <si>
     <t xml:space="preserve">13.9098443984985</t>
   </si>
   <si>
-    <t xml:space="preserve">13.718674659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8916387557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1010141372681</t>
+    <t xml:space="preserve">13.7186756134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.891637802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1010122299194</t>
   </si>
   <si>
     <t xml:space="preserve">13.8006048202515</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2011518478394</t>
+    <t xml:space="preserve">14.201150894165</t>
   </si>
   <si>
     <t xml:space="preserve">14.264874458313</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6367444992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8279151916504</t>
+    <t xml:space="preserve">13.6367454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8279142379761</t>
   </si>
   <si>
     <t xml:space="preserve">13.9735679626465</t>
@@ -509,25 +509,25 @@
     <t xml:space="preserve">13.6640567779541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0281887054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2921838760376</t>
+    <t xml:space="preserve">14.0281858444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2921829223633</t>
   </si>
   <si>
     <t xml:space="preserve">14.0828094482422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1556339263916</t>
+    <t xml:space="preserve">14.1556358337402</t>
   </si>
   <si>
     <t xml:space="preserve">14.064600944519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8097076416016</t>
+    <t xml:space="preserve">13.9826698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8097085952759</t>
   </si>
   <si>
     <t xml:space="preserve">13.5821266174316</t>
@@ -536,103 +536,103 @@
     <t xml:space="preserve">13.5730228424072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6731605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8188104629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644641876221</t>
+    <t xml:space="preserve">13.6731586456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8188123703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5093002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644651412964</t>
   </si>
   <si>
     <t xml:space="preserve">14.0554981231689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2466669082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8474826812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8383808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205863952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3026504516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2480306625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1023778915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7473487854004</t>
+    <t xml:space="preserve">14.2466659545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.847484588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8383817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.120584487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3026475906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.248028755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1023769378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7473497390747</t>
   </si>
   <si>
     <t xml:space="preserve">14.9385166168213</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9749326705933</t>
+    <t xml:space="preserve">14.9749317169189</t>
   </si>
   <si>
     <t xml:space="preserve">15.0750675201416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9931354522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838977813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9021062850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0477590560913</t>
+    <t xml:space="preserve">14.9931383132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565874099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.883900642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9021053314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.047758102417</t>
   </si>
   <si>
     <t xml:space="preserve">15.2935466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1752023696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9112071990967</t>
+    <t xml:space="preserve">15.1752052307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.911208152771</t>
   </si>
   <si>
     <t xml:space="preserve">14.874794960022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1569986343384</t>
+    <t xml:space="preserve">15.1569976806641</t>
   </si>
   <si>
     <t xml:space="preserve">15.6485767364502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6849899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.903468132019</t>
+    <t xml:space="preserve">15.6849870681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9034662246704</t>
   </si>
   <si>
     <t xml:space="preserve">15.9398813247681</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6940898895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9945030212402</t>
+    <t xml:space="preserve">15.6940908432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9945011138916</t>
   </si>
   <si>
     <t xml:space="preserve">16.313117980957</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">16.2038764953613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1310482025146</t>
+    <t xml:space="preserve">16.1310520172119</t>
   </si>
   <si>
     <t xml:space="preserve">15.8488473892212</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">16.1492557525635</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1947765350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1583595275879</t>
+    <t xml:space="preserve">16.1947746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1583614349365</t>
   </si>
   <si>
     <t xml:space="preserve">16.1037406921387</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3222198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2676010131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1128425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4041500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3326892852783</t>
+    <t xml:space="preserve">16.3222217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.267599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1128444671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856708526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4041481018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3326873779297</t>
   </si>
   <si>
     <t xml:space="preserve">17.496545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3964099884033</t>
+    <t xml:space="preserve">17.3964080810547</t>
   </si>
   <si>
     <t xml:space="preserve">17.532958984375</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">17.569372177124</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7514400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060550689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8970909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8424701690674</t>
+    <t xml:space="preserve">17.7514362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8970890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.842472076416</t>
   </si>
   <si>
     <t xml:space="preserve">18.0973644256592</t>
@@ -734,37 +734,37 @@
     <t xml:space="preserve">18.4250831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1246738433838</t>
+    <t xml:space="preserve">18.1246757507324</t>
   </si>
   <si>
     <t xml:space="preserve">18.3067417144775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3340530395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.51611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6617698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.415979385376</t>
+    <t xml:space="preserve">18.3340492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5161170959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6617679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4159774780273</t>
   </si>
   <si>
     <t xml:space="preserve">18.5252208709717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6890754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8711433410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1897621154785</t>
+    <t xml:space="preserve">18.689079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8711452484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1897602081299</t>
   </si>
   <si>
     <t xml:space="preserve">19.4901695251465</t>
@@ -773,19 +773,19 @@
     <t xml:space="preserve">19.4992713928223</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4628562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.745059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3718280792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4719619750977</t>
+    <t xml:space="preserve">19.4628601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3718242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4719638824463</t>
   </si>
   <si>
     <t xml:space="preserve">19.5812034606934</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">19.7268543243408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8451957702637</t>
+    <t xml:space="preserve">19.8451976776123</t>
   </si>
   <si>
     <t xml:space="preserve">19.7814750671387</t>
@@ -815,25 +815,25 @@
     <t xml:space="preserve">20.6280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9466972351074</t>
+    <t xml:space="preserve">20.9466991424561</t>
   </si>
   <si>
     <t xml:space="preserve">21.1196594238281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4018650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7555294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.054573059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2730522155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1638145446777</t>
+    <t xml:space="preserve">21.4018630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7555274963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0545749664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2730541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1638107299805</t>
   </si>
   <si>
     <t xml:space="preserve">20.254846572876</t>
@@ -842,67 +842,67 @@
     <t xml:space="preserve">20.1456069946289</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2639503479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6540279388428</t>
+    <t xml:space="preserve">20.2639484405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6540298461914</t>
   </si>
   <si>
     <t xml:space="preserve">19.8178882598877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9188575744629</t>
+    <t xml:space="preserve">19.9188594818115</t>
   </si>
   <si>
     <t xml:space="preserve">19.9922924041748</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8729648590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7536334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4966144561768</t>
+    <t xml:space="preserve">19.8729629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7536354064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860240936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4966163635254</t>
   </si>
   <si>
     <t xml:space="preserve">19.9005012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5425109863281</t>
+    <t xml:space="preserve">19.9739322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5425128936768</t>
   </si>
   <si>
     <t xml:space="preserve">19.1845226287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2671356201172</t>
+    <t xml:space="preserve">19.2671337127686</t>
   </si>
   <si>
     <t xml:space="preserve">19.2304191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3405685424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8357124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0927276611328</t>
+    <t xml:space="preserve">19.3405704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.83571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0927295684814</t>
   </si>
   <si>
     <t xml:space="preserve">19.3864650726318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3038520812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6067657470703</t>
+    <t xml:space="preserve">19.3038539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6067676544189</t>
   </si>
   <si>
     <t xml:space="preserve">19.4874362945557</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">19.8821411132812</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.404821395874</t>
+    <t xml:space="preserve">19.4782581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4139995574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048233032227</t>
   </si>
   <si>
     <t xml:space="preserve">19.5884075164795</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">18.6245918273926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8173561096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8907890319824</t>
+    <t xml:space="preserve">18.8173542022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8907871246338</t>
   </si>
   <si>
     <t xml:space="preserve">18.8540725708008</t>
@@ -953,37 +953,37 @@
     <t xml:space="preserve">19.5516910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6434841156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6710243225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7169170379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6985549926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.533332824707</t>
+    <t xml:space="preserve">19.643482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6710205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7169151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.698558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5333309173584</t>
   </si>
   <si>
     <t xml:space="preserve">19.4598999023438</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5155067443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.744987487793</t>
+    <t xml:space="preserve">20.5155086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7449855804443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8367786407471</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6348342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5338649749756</t>
+    <t xml:space="preserve">20.6348361968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5338668823242</t>
   </si>
   <si>
     <t xml:space="preserve">20.6715545654297</t>
@@ -995,49 +995,49 @@
     <t xml:space="preserve">20.6531963348389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6807308197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256580352783</t>
+    <t xml:space="preserve">20.6807327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256542205811</t>
   </si>
   <si>
     <t xml:space="preserve">21.1305141448975</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4334259033203</t>
+    <t xml:space="preserve">21.4334278106689</t>
   </si>
   <si>
     <t xml:space="preserve">21.8373126983643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6720867156982</t>
+    <t xml:space="preserve">21.6720886230469</t>
   </si>
   <si>
     <t xml:space="preserve">21.635368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.717981338501</t>
+    <t xml:space="preserve">21.7179832458496</t>
   </si>
   <si>
     <t xml:space="preserve">21.6629047393799</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5711135864258</t>
+    <t xml:space="preserve">21.571117401123</t>
   </si>
   <si>
     <t xml:space="preserve">21.4976806640625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1580505371094</t>
+    <t xml:space="preserve">21.1580486297607</t>
   </si>
   <si>
     <t xml:space="preserve">21.5619335174561</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9107437133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1953010559082</t>
+    <t xml:space="preserve">21.9107456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1952991485596</t>
   </si>
   <si>
     <t xml:space="preserve">22.0392532348633</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">22.2962703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4614963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7368717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6726188659668</t>
+    <t xml:space="preserve">22.4614944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.736873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6726169586182</t>
   </si>
   <si>
     <t xml:space="preserve">22.902099609375</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">22.5165729522705</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5532855987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2595558166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1218681335449</t>
+    <t xml:space="preserve">22.5532875061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2595520019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1218662261963</t>
   </si>
   <si>
     <t xml:space="preserve">22.3697071075439</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4155979156494</t>
+    <t xml:space="preserve">22.415599822998</t>
   </si>
   <si>
     <t xml:space="preserve">22.4431400299072</t>
@@ -1103,97 +1103,97 @@
     <t xml:space="preserve">22.048433303833</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7638778686523</t>
+    <t xml:space="preserve">21.7638759613037</t>
   </si>
   <si>
     <t xml:space="preserve">22.4523143768311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5808238983154</t>
+    <t xml:space="preserve">22.5808258056641</t>
   </si>
   <si>
     <t xml:space="preserve">22.3605251312256</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5900058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.654260635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7001552581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2870922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7460498809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8653793334961</t>
+    <t xml:space="preserve">22.5900077819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6542587280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2870941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7460536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8653812408447</t>
   </si>
   <si>
     <t xml:space="preserve">22.6634387969971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4247798919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788814544678</t>
+    <t xml:space="preserve">22.4247817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788795471191</t>
   </si>
   <si>
     <t xml:space="preserve">22.3054504394531</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2411937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1494045257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667915344238</t>
+    <t xml:space="preserve">22.2411956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1494026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667896270752</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3508110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2957401275635</t>
+    <t xml:space="preserve">21.3508129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2957382202148</t>
   </si>
   <si>
     <t xml:space="preserve">20.9561061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0570812225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377498626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3875293731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3783550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4242458343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.112154006958</t>
+    <t xml:space="preserve">21.0570793151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3875312805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3783531188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4242477416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1121559143066</t>
   </si>
   <si>
     <t xml:space="preserve">21.1396923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7271595001221</t>
+    <t xml:space="preserve">21.0846138000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7271614074707</t>
   </si>
   <si>
     <t xml:space="preserve">21.7088012695312</t>
@@ -1202,64 +1202,64 @@
     <t xml:space="preserve">22.2503757476807</t>
   </si>
   <si>
-    <t xml:space="preserve">22.773588180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.819486618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1958312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6267223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.140754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2141933441162</t>
+    <t xml:space="preserve">22.7735862731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194828033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1958332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6267204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1407585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2141914367676</t>
   </si>
   <si>
     <t xml:space="preserve">23.1224002838135</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4069519042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5721817016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9760646820068</t>
+    <t xml:space="preserve">23.4069557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5721797943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9760627746582</t>
   </si>
   <si>
     <t xml:space="preserve">24.233081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9393463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6823291778564</t>
+    <t xml:space="preserve">23.9393482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6823272705078</t>
   </si>
   <si>
     <t xml:space="preserve">23.4987468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9577045440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8108367919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8659114837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5171051025391</t>
+    <t xml:space="preserve">23.9577083587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8108386993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8659133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5171031951904</t>
   </si>
   <si>
     <t xml:space="preserve">23.1315765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0948600769043</t>
+    <t xml:space="preserve">23.0948619842529</t>
   </si>
   <si>
     <t xml:space="preserve">23.3518810272217</t>
@@ -1268,16 +1268,16 @@
     <t xml:space="preserve">24.1412887573242</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6736812591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8205509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5818939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7103996276855</t>
+    <t xml:space="preserve">24.6736793518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8205528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5818920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7103977203369</t>
   </si>
   <si>
     <t xml:space="preserve">24.8389091491699</t>
@@ -1286,55 +1286,55 @@
     <t xml:space="preserve">24.8572673797607</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6186084747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4442024230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3615894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5451717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8842735290527</t>
+    <t xml:space="preserve">24.6186103820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4442005157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3615913391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5451755523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8842716217041</t>
   </si>
   <si>
     <t xml:space="preserve">23.7833023071289</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6920433044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6088962554932</t>
+    <t xml:space="preserve">24.6920413970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6088943481445</t>
   </si>
   <si>
     <t xml:space="preserve">24.3707675933838</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9949531555176</t>
+    <t xml:space="preserve">24.9949550628662</t>
   </si>
   <si>
     <t xml:space="preserve">26.0230255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1148166656494</t>
+    <t xml:space="preserve">26.114818572998</t>
   </si>
   <si>
     <t xml:space="preserve">25.7751884460449</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9128761291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8119049072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7384738922119</t>
+    <t xml:space="preserve">25.9128742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9312343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8119068145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7384700775146</t>
   </si>
   <si>
     <t xml:space="preserve">25.986307144165</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">26.4911651611328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.344295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6650333404541</t>
+    <t xml:space="preserve">26.3442935943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6650352478027</t>
   </si>
   <si>
     <t xml:space="preserve">25.6099605560303</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">26.0505619049072</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9220523834229</t>
+    <t xml:space="preserve">25.9220542907715</t>
   </si>
   <si>
     <t xml:space="preserve">26.5737781524658</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">26.7665424346924</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8675136566162</t>
+    <t xml:space="preserve">26.8675117492676</t>
   </si>
   <si>
     <t xml:space="preserve">27.0327396392822</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">27.1796035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1153507232666</t>
+    <t xml:space="preserve">27.115348815918</t>
   </si>
   <si>
     <t xml:space="preserve">27.3264713287354</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">28.3270034790039</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9506587982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0975246429443</t>
+    <t xml:space="preserve">27.9506607055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0975227355957</t>
   </si>
   <si>
     <t xml:space="preserve">28.0516262054443</t>
@@ -1400,25 +1400,25 @@
     <t xml:space="preserve">28.2994651794434</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3637180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1720237731934</t>
+    <t xml:space="preserve">28.3637199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1720180511475</t>
   </si>
   <si>
     <t xml:space="preserve">29.832389831543</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2179183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5667266845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.649341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3188877105713</t>
+    <t xml:space="preserve">30.2179164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5667285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6493396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3188896179199</t>
   </si>
   <si>
     <t xml:space="preserve">30.9797897338867</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">31.2459869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8971786499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6315155029297</t>
+    <t xml:space="preserve">30.8971824645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6315116882324</t>
   </si>
   <si>
     <t xml:space="preserve">32.3383102416992</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1455459594727</t>
+    <t xml:space="preserve">32.1455497741699</t>
   </si>
   <si>
     <t xml:space="preserve">32.4576416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3566703796387</t>
+    <t xml:space="preserve">32.3566741943359</t>
   </si>
   <si>
     <t xml:space="preserve">33.0634689331055</t>
@@ -1460,49 +1460,49 @@
     <t xml:space="preserve">34.3669128417969</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8809547424316</t>
+    <t xml:space="preserve">34.8809471130371</t>
   </si>
   <si>
     <t xml:space="preserve">33.5040702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7421913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.485710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5316047668457</t>
+    <t xml:space="preserve">32.7421951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4857139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.531608581543</t>
   </si>
   <si>
     <t xml:space="preserve">33.7702674865723</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1466102600098</t>
+    <t xml:space="preserve">34.146614074707</t>
   </si>
   <si>
     <t xml:space="preserve">34.5413246154785</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5596809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8625946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7162551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1660423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9256782531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9457054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.187629699707</t>
+    <t xml:space="preserve">34.5596771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8625984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7162590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1660461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9256744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9457092285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1876335144043</t>
   </si>
   <si>
     <t xml:space="preserve">34.973445892334</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">36.295467376709</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4988594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3432388305664</t>
+    <t xml:space="preserve">36.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3432426452637</t>
   </si>
   <si>
     <t xml:space="preserve">35.6390762329102</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">36.3047103881836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.332447052002</t>
+    <t xml:space="preserve">36.3324432373047</t>
   </si>
   <si>
     <t xml:space="preserve">36.831672668457</t>
@@ -1532,40 +1532,40 @@
     <t xml:space="preserve">38.2184066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8023834228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.748462677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7838935852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1074676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4217987060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9949760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8840370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3385848999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1552391052246</t>
+    <t xml:space="preserve">37.8023872375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7484664916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7838973999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1074638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4217910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9949798583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8840408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3385887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1552429199219</t>
   </si>
   <si>
     <t xml:space="preserve">36.8409118652344</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7762031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5820579528809</t>
+    <t xml:space="preserve">36.7761993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5820617675781</t>
   </si>
   <si>
     <t xml:space="preserve">35.8979377746582</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">35.9996299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5836143493652</t>
+    <t xml:space="preserve">35.583610534668</t>
   </si>
   <si>
     <t xml:space="preserve">36.0550994873047</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8332252502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919319152832</t>
+    <t xml:space="preserve">35.8332214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919395446777</t>
   </si>
   <si>
     <t xml:space="preserve">34.4187507629395</t>
@@ -1610,40 +1610,40 @@
     <t xml:space="preserve">36.0828323364258</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6020965576172</t>
+    <t xml:space="preserve">35.6021003723145</t>
   </si>
   <si>
     <t xml:space="preserve">36.1105690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9534072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8702011108398</t>
+    <t xml:space="preserve">35.9534111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8701972961426</t>
   </si>
   <si>
     <t xml:space="preserve">35.722282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6560211181641</t>
+    <t xml:space="preserve">36.6560173034668</t>
   </si>
   <si>
     <t xml:space="preserve">35.3617362976074</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1675910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2708358764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8717575073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6683692932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8733024597168</t>
+    <t xml:space="preserve">35.1675872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2708282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.871753692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6683654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8733062744141</t>
   </si>
   <si>
     <t xml:space="preserve">34.733081817627</t>
@@ -1655,34 +1655,34 @@
     <t xml:space="preserve">35.010425567627</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2045669555664</t>
+    <t xml:space="preserve">35.2045707702637</t>
   </si>
   <si>
     <t xml:space="preserve">35.0936317443848</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4834632873535</t>
+    <t xml:space="preserve">34.4834671020508</t>
   </si>
   <si>
     <t xml:space="preserve">35.2970199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9549598693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2692832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7114868164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6467704772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.813175201416</t>
+    <t xml:space="preserve">34.9549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.269287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.064338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6467742919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8131828308105</t>
   </si>
   <si>
     <t xml:space="preserve">36.0181159973145</t>
@@ -1691,43 +1691,43 @@
     <t xml:space="preserve">35.9903869628906</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5928535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2985725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7515678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8070411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7700614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2600402832031</t>
+    <t xml:space="preserve">35.5928573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2985687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7515716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8070373535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7700576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">34.4464874267578</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0843849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0658950805664</t>
+    <t xml:space="preserve">35.0843887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8902473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0658988952637</t>
   </si>
   <si>
     <t xml:space="preserve">34.9826927185059</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5481758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8810005187988</t>
+    <t xml:space="preserve">34.5481834411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8809967041016</t>
   </si>
   <si>
     <t xml:space="preserve">35.1398506164551</t>
@@ -1739,52 +1739,52 @@
     <t xml:space="preserve">35.4172019958496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4295501708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2646903991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.902587890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3340587615967</t>
+    <t xml:space="preserve">33.4295463562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2646942138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9025917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3340606689453</t>
   </si>
   <si>
     <t xml:space="preserve">28.9180393218994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5852222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305290222168</t>
+    <t xml:space="preserve">28.5852241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305271148682</t>
   </si>
   <si>
     <t xml:space="preserve">28.6499366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">28.788610458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440818786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1044883728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1784477233887</t>
+    <t xml:space="preserve">28.7886085510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440799713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1044864654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1784439086914</t>
   </si>
   <si>
     <t xml:space="preserve">27.022834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.642240524292</t>
+    <t xml:space="preserve">27.6422424316406</t>
   </si>
   <si>
     <t xml:space="preserve">28.2893867492676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9473247528076</t>
+    <t xml:space="preserve">27.9473266601562</t>
   </si>
   <si>
     <t xml:space="preserve">27.5497932434082</t>
@@ -1793,25 +1793,25 @@
     <t xml:space="preserve">27.9195899963379</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3818321228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4742851257324</t>
+    <t xml:space="preserve">28.3818340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4742813110352</t>
   </si>
   <si>
     <t xml:space="preserve">29.9534683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5929164886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3710403442383</t>
+    <t xml:space="preserve">29.5929145812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3710384368896</t>
   </si>
   <si>
     <t xml:space="preserve">29.5282039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0844459533691</t>
+    <t xml:space="preserve">29.0844440460205</t>
   </si>
   <si>
     <t xml:space="preserve">27.8271427154541</t>
@@ -1820,28 +1820,28 @@
     <t xml:space="preserve">29.4357528686523</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4095687866211</t>
+    <t xml:space="preserve">28.4095706939697</t>
   </si>
   <si>
     <t xml:space="preserve">28.4188137054443</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7254486083984</t>
+    <t xml:space="preserve">27.7254467010498</t>
   </si>
   <si>
     <t xml:space="preserve">26.6253051757812</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2169761657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1799983978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8086490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5775279998779</t>
+    <t xml:space="preserve">27.2169780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1799964904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.808650970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5775260925293</t>
   </si>
   <si>
     <t xml:space="preserve">27.096794128418</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">27.2816905975342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6068172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1876926422119</t>
+    <t xml:space="preserve">26.6068153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1876907348633</t>
   </si>
   <si>
     <t xml:space="preserve">27.1337738037109</t>
@@ -1871,46 +1871,46 @@
     <t xml:space="preserve">25.8302421569824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6730823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3109760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0151405334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9797115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5159168243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0521202087402</t>
+    <t xml:space="preserve">25.6730785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0151424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.469690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.97971534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5159149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0521221160889</t>
   </si>
   <si>
     <t xml:space="preserve">25.4881820678711</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6915683746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9319381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7454891204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9581203460693</t>
+    <t xml:space="preserve">25.6915702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9319343566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7454872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.958122253418</t>
   </si>
   <si>
     <t xml:space="preserve">25.7100582122803</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8286933898926</t>
+    <t xml:space="preserve">26.8286914825439</t>
   </si>
   <si>
     <t xml:space="preserve">27.5590381622314</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">28.992000579834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5297565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4296131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.401876449585</t>
+    <t xml:space="preserve">28.5297546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4296092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4018726348877</t>
   </si>
   <si>
     <t xml:space="preserve">27.706958770752</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">27.7809162139893</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0490169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2801418304443</t>
+    <t xml:space="preserve">28.0490188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2801399230957</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531814575195</t>
@@ -1952,19 +1952,19 @@
     <t xml:space="preserve">28.2616519927979</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6222019195557</t>
+    <t xml:space="preserve">28.6221981048584</t>
   </si>
   <si>
     <t xml:space="preserve">30.323263168335</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4157161712646</t>
+    <t xml:space="preserve">30.4157123565674</t>
   </si>
   <si>
     <t xml:space="preserve">31.0166282653809</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2200202941895</t>
+    <t xml:space="preserve">31.2200183868408</t>
   </si>
   <si>
     <t xml:space="preserve">31.6267929077148</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">30.859468460083</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0628509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586883544922</t>
+    <t xml:space="preserve">31.0628547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586902618408</t>
   </si>
   <si>
     <t xml:space="preserve">32.1352615356445</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">32.3478965759277</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0335731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.756217956543</t>
+    <t xml:space="preserve">32.0335693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7562217712402</t>
   </si>
   <si>
     <t xml:space="preserve">32.2462005615234</t>
@@ -1997,49 +1997,49 @@
     <t xml:space="preserve">32.2092208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0890350341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0797996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9041404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4033622741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3386459350586</t>
+    <t xml:space="preserve">32.089038848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0797958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9041366577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4033660888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3386535644531</t>
   </si>
   <si>
     <t xml:space="preserve">31.1737957000732</t>
   </si>
   <si>
-    <t xml:space="preserve">34.622142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2523422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.374080657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2816276550293</t>
+    <t xml:space="preserve">34.6221389770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2523460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3740768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2816352844238</t>
   </si>
   <si>
     <t xml:space="preserve">33.1429557800293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9580574035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.022777557373</t>
+    <t xml:space="preserve">32.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0227737426758</t>
   </si>
   <si>
     <t xml:space="preserve">32.8748588562012</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3648376464844</t>
+    <t xml:space="preserve">33.3648338317871</t>
   </si>
   <si>
     <t xml:space="preserve">33.4572830200195</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">33.6514282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6714668273926</t>
+    <t xml:space="preserve">32.6714706420898</t>
   </si>
   <si>
     <t xml:space="preserve">32.1722412109375</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">34.3910179138184</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2631416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059799194336</t>
+    <t xml:space="preserve">34.3263053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2631454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059761047363</t>
   </si>
   <si>
     <t xml:space="preserve">33.6699142456055</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">33.7438735961914</t>
   </si>
   <si>
-    <t xml:space="preserve">33.549732208252</t>
+    <t xml:space="preserve">33.5497283935547</t>
   </si>
   <si>
     <t xml:space="preserve">33.8825492858887</t>
@@ -2099,40 +2099,40 @@
     <t xml:space="preserve">33.5682220458984</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7623710632324</t>
+    <t xml:space="preserve">33.7623634338379</t>
   </si>
   <si>
     <t xml:space="preserve">34.3355484008789</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1414031982422</t>
+    <t xml:space="preserve">34.1414070129395</t>
   </si>
   <si>
     <t xml:space="preserve">33.512752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7993392944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8085861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6884002685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3817710876465</t>
+    <t xml:space="preserve">33.7993431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8085899353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.688404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3817672729492</t>
   </si>
   <si>
     <t xml:space="preserve">33.6144485473633</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9950370788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8471145629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9010353088379</t>
+    <t xml:space="preserve">32.995044708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8471183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">32.3848724365234</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">33.1337127685547</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5697784423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0042839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0225715637207</t>
+    <t xml:space="preserve">32.5697746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0225677490234</t>
   </si>
   <si>
     <t xml:space="preserve">32.3217582702637</t>
@@ -2156,25 +2156,25 @@
     <t xml:space="preserve">33.2847709655762</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2937126159668</t>
+    <t xml:space="preserve">32.2937088012695</t>
   </si>
   <si>
     <t xml:space="preserve">32.6957473754883</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7237892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2189140319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2091522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0408554077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8538608551025</t>
+    <t xml:space="preserve">32.7237968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2189102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2091503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0408535003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8538627624512</t>
   </si>
   <si>
     <t xml:space="preserve">30.9754104614258</t>
@@ -2183,22 +2183,22 @@
     <t xml:space="preserve">31.5457382202148</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4433097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0973701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5554962158203</t>
+    <t xml:space="preserve">32.2563095092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4433059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0973663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5555000305176</t>
   </si>
   <si>
     <t xml:space="preserve">32.1721649169922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2469673156738</t>
+    <t xml:space="preserve">32.2469596862793</t>
   </si>
   <si>
     <t xml:space="preserve">32.7705421447754</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">33.0977821350098</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1075477600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2290840148926</t>
+    <t xml:space="preserve">34.1075439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2290878295898</t>
   </si>
   <si>
     <t xml:space="preserve">35.1827583312988</t>
@@ -2219,28 +2219,28 @@
     <t xml:space="preserve">34.9770622253418</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8835639953613</t>
+    <t xml:space="preserve">34.8835678100586</t>
   </si>
   <si>
     <t xml:space="preserve">34.2477874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9766464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1547012329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.528694152832</t>
+    <t xml:space="preserve">33.9766502380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7246208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1547050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5286903381348</t>
   </si>
   <si>
     <t xml:space="preserve">35.4538955688477</t>
   </si>
   <si>
-    <t xml:space="preserve">35.996166229248</t>
+    <t xml:space="preserve">35.9961738586426</t>
   </si>
   <si>
     <t xml:space="preserve">36.0990219116211</t>
@@ -2255,19 +2255,19 @@
     <t xml:space="preserve">35.7624320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">35.837230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5754356384277</t>
+    <t xml:space="preserve">35.8372268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.575439453125</t>
   </si>
   <si>
     <t xml:space="preserve">35.9774742126465</t>
   </si>
   <si>
-    <t xml:space="preserve">35.519344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6128387451172</t>
+    <t xml:space="preserve">35.5193405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6128349304199</t>
   </si>
   <si>
     <t xml:space="preserve">35.7063331604004</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">36.1457710266113</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1270713806152</t>
+    <t xml:space="preserve">36.127067565918</t>
   </si>
   <si>
     <t xml:space="preserve">36.4169082641602</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4823570251465</t>
+    <t xml:space="preserve">36.4823532104492</t>
   </si>
   <si>
     <t xml:space="preserve">36.4543075561523</t>
@@ -2294,10 +2294,10 @@
     <t xml:space="preserve">35.1640586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7526664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9018516540527</t>
+    <t xml:space="preserve">34.7526626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9018478393555</t>
   </si>
   <si>
     <t xml:space="preserve">31.891674041748</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">32.8546867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7892417907715</t>
+    <t xml:space="preserve">32.7892379760742</t>
   </si>
   <si>
     <t xml:space="preserve">31.9290752410889</t>
@@ -2333,85 +2333,85 @@
     <t xml:space="preserve">32.1815147399902</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9851684570312</t>
+    <t xml:space="preserve">31.9851722717285</t>
   </si>
   <si>
     <t xml:space="preserve">31.7888278961182</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7327308654785</t>
+    <t xml:space="preserve">31.7327270507812</t>
   </si>
   <si>
     <t xml:space="preserve">31.8729782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0786666870117</t>
+    <t xml:space="preserve">32.078670501709</t>
   </si>
   <si>
     <t xml:space="preserve">32.7798919677734</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5278663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1819305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9855842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0697288513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0884284973145</t>
+    <t xml:space="preserve">33.5278625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213607788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1819267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9855804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0697364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0884323120117</t>
   </si>
   <si>
     <t xml:space="preserve">32.8172874450684</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0693168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103755950928</t>
+    <t xml:space="preserve">32.0693206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103717803955</t>
   </si>
   <si>
     <t xml:space="preserve">29.6758060455322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3583316802979</t>
+    <t xml:space="preserve">30.3583354949951</t>
   </si>
   <si>
     <t xml:space="preserve">30.4985752105713</t>
   </si>
   <si>
-    <t xml:space="preserve">30.012393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1339378356934</t>
+    <t xml:space="preserve">30.0123920440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.133939743042</t>
   </si>
   <si>
     <t xml:space="preserve">30.0497932434082</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2554836273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7510185241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2367839813232</t>
+    <t xml:space="preserve">30.2554874420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7510166168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5733737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2367858886719</t>
   </si>
   <si>
     <t xml:space="preserve">29.5355606079102</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0217437744141</t>
+    <t xml:space="preserve">30.0217418670654</t>
   </si>
   <si>
     <t xml:space="preserve">30.4237785339355</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">30.6107749938965</t>
   </si>
   <si>
-    <t xml:space="preserve">30.461181640625</t>
+    <t xml:space="preserve">30.4611778259277</t>
   </si>
   <si>
     <t xml:space="preserve">31.0315055847168</t>
@@ -2441,16 +2441,16 @@
     <t xml:space="preserve">31.4522399902344</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1437034606934</t>
+    <t xml:space="preserve">31.1437015533447</t>
   </si>
   <si>
     <t xml:space="preserve">30.0778388977051</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3863773345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1806869506836</t>
+    <t xml:space="preserve">30.3863792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.180685043335</t>
   </si>
   <si>
     <t xml:space="preserve">30.0965404510498</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">30.3770294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8177032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1912727355957</t>
+    <t xml:space="preserve">33.817699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.191276550293</t>
   </si>
   <si>
     <t xml:space="preserve">32.4246063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8827362060547</t>
+    <t xml:space="preserve">32.8827323913574</t>
   </si>
   <si>
     <t xml:space="preserve">32.9949340820312</t>
@@ -2477,10 +2477,10 @@
     <t xml:space="preserve">32.7518424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1921005249023</t>
+    <t xml:space="preserve">34.6965751647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1921043395996</t>
   </si>
   <si>
     <t xml:space="preserve">34.7807197570801</t>
@@ -2495,28 +2495,28 @@
     <t xml:space="preserve">34.070140838623</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1823387145996</t>
+    <t xml:space="preserve">34.1823425292969</t>
   </si>
   <si>
     <t xml:space="preserve">34.4441299438477</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6872215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2949523925781</t>
+    <t xml:space="preserve">34.6872177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2949485778809</t>
   </si>
   <si>
     <t xml:space="preserve">34.9957580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5384521484375</t>
+    <t xml:space="preserve">36.538459777832</t>
   </si>
   <si>
     <t xml:space="preserve">36.641300201416</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5295219421387</t>
+    <t xml:space="preserve">37.5295181274414</t>
   </si>
   <si>
     <t xml:space="preserve">37.1835823059082</t>
@@ -2534,16 +2534,16 @@
     <t xml:space="preserve">38.6701736450195</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4555473327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.072208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3526954650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6140747070312</t>
+    <t xml:space="preserve">39.4555435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0722122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3526992797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.614070892334</t>
   </si>
   <si>
     <t xml:space="preserve">38.3335876464844</t>
@@ -2552,34 +2552,34 @@
     <t xml:space="preserve">38.2400894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6604080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.810001373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5482139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.697811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2307357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1372413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9876556396484</t>
+    <t xml:space="preserve">37.6604118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8100051879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6978073120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2307395935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1372489929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9876518249512</t>
   </si>
   <si>
     <t xml:space="preserve">37.4640655517578</t>
   </si>
   <si>
-    <t xml:space="preserve">37.950252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4827728271484</t>
+    <t xml:space="preserve">37.9502487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4827690124512</t>
   </si>
   <si>
     <t xml:space="preserve">37.6510581970215</t>
@@ -2591,10 +2591,10 @@
     <t xml:space="preserve">38.4644813537598</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0624465942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1465950012207</t>
+    <t xml:space="preserve">38.062442779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.146598815918</t>
   </si>
   <si>
     <t xml:space="preserve">38.8852157592773</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">39.9043273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9230270385742</t>
+    <t xml:space="preserve">39.9230308532715</t>
   </si>
   <si>
     <t xml:space="preserve">38.6608238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8006591796875</t>
+    <t xml:space="preserve">37.8006553649902</t>
   </si>
   <si>
     <t xml:space="preserve">38.7917251586914</t>
@@ -2636,43 +2636,43 @@
     <t xml:space="preserve">36.4636535644531</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8656921386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3612251281738</t>
+    <t xml:space="preserve">36.8656883239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3612213134766</t>
   </si>
   <si>
     <t xml:space="preserve">37.7819595336914</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0152854919434</t>
+    <t xml:space="preserve">37.0152893066406</t>
   </si>
   <si>
     <t xml:space="preserve">36.1925163269043</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1461791992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1364212036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7534980773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6221885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7717781066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5010528564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7339668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8733901977539</t>
+    <t xml:space="preserve">37.146183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1364135742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7534942626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.622184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7717819213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.501049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7339706420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8733863830566</t>
   </si>
   <si>
     <t xml:space="preserve">32.8453407287598</t>
@@ -2681,40 +2681,40 @@
     <t xml:space="preserve">33.3782691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9668846130371</t>
+    <t xml:space="preserve">32.9668807983398</t>
   </si>
   <si>
     <t xml:space="preserve">32.9294891357422</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5270385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5351505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.179859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.450590133667</t>
+    <t xml:space="preserve">31.527042388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5351486206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1798610687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4505882263184</t>
   </si>
   <si>
     <t xml:space="preserve">24.3091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7684783935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6087036132812</t>
+    <t xml:space="preserve">27.7684764862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6087055206299</t>
   </si>
   <si>
     <t xml:space="preserve">25.2440700531006</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7115516662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2627696990967</t>
+    <t xml:space="preserve">25.7115535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2627716064453</t>
   </si>
   <si>
     <t xml:space="preserve">27.3664398193359</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">26.7400150299072</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3396301269531</t>
+    <t xml:space="preserve">30.3396320343018</t>
   </si>
   <si>
     <t xml:space="preserve">31.8823223114014</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">32.1628150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1250057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2835330963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9188976287842</t>
+    <t xml:space="preserve">31.1250019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2835350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9188995361328</t>
   </si>
   <si>
     <t xml:space="preserve">29.077428817749</t>
@@ -2747,25 +2747,25 @@
     <t xml:space="preserve">31.0876026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5172748565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7136173248291</t>
+    <t xml:space="preserve">30.5172729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7136135101318</t>
   </si>
   <si>
     <t xml:space="preserve">31.5083427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0502033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2750091552734</t>
+    <t xml:space="preserve">31.0502052307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2750053405762</t>
   </si>
   <si>
     <t xml:space="preserve">32.9575386047363</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3119983673096</t>
+    <t xml:space="preserve">31.3119964599609</t>
   </si>
   <si>
     <t xml:space="preserve">30.9941062927246</t>
@@ -2777,19 +2777,19 @@
     <t xml:space="preserve">32.2095603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6855697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1904525756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3209323883057</t>
+    <t xml:space="preserve">30.6855659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1904487609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3209342956543</t>
   </si>
   <si>
     <t xml:space="preserve">30.6481685638428</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1900405883789</t>
+    <t xml:space="preserve">30.1900386810303</t>
   </si>
   <si>
     <t xml:space="preserve">30.6388206481934</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">29.8160514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0961303710938</t>
+    <t xml:space="preserve">29.0961265563965</t>
   </si>
   <si>
     <t xml:space="preserve">29.0119800567627</t>
@@ -2807,43 +2807,43 @@
     <t xml:space="preserve">30.14328956604</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2741832733154</t>
+    <t xml:space="preserve">30.2741851806641</t>
   </si>
   <si>
     <t xml:space="preserve">29.198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7693061828613</t>
+    <t xml:space="preserve">29.7693023681641</t>
   </si>
   <si>
     <t xml:space="preserve">31.2185001373291</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8071155548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6022491455078</t>
+    <t xml:space="preserve">30.8071174621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6022453308105</t>
   </si>
   <si>
     <t xml:space="preserve">31.2745990753174</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4989852905273</t>
+    <t xml:space="preserve">31.4989891052246</t>
   </si>
   <si>
     <t xml:space="preserve">32.331111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4713516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4615898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8075275421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6672821044922</t>
+    <t xml:space="preserve">32.4713554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4615936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8075313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6672782897949</t>
   </si>
   <si>
     <t xml:space="preserve">32.4059066772461</t>
@@ -2852,10 +2852,10 @@
     <t xml:space="preserve">32.938835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2099800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5091667175293</t>
+    <t xml:space="preserve">33.2099761962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.509162902832</t>
   </si>
   <si>
     <t xml:space="preserve">32.5274505615234</t>
@@ -2864,13 +2864,13 @@
     <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5648498535156</t>
+    <t xml:space="preserve">32.5648536682129</t>
   </si>
   <si>
     <t xml:space="preserve">31.826229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0319175720215</t>
+    <t xml:space="preserve">32.0319137573242</t>
   </si>
   <si>
     <t xml:space="preserve">32.3872032165527</t>
@@ -2882,16 +2882,16 @@
     <t xml:space="preserve">32.396556854248</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9197196960449</t>
+    <t xml:space="preserve">31.9197235107422</t>
   </si>
   <si>
     <t xml:space="preserve">31.7794799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">31.068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4896411895752</t>
+    <t xml:space="preserve">31.0689029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4896373748779</t>
   </si>
   <si>
     <t xml:space="preserve">31.4054927825928</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">31.4335384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0128059387207</t>
+    <t xml:space="preserve">31.0128040313721</t>
   </si>
   <si>
     <t xml:space="preserve">30.4798755645752</t>
@@ -2912,16 +2912,16 @@
     <t xml:space="preserve">29.8253993988037</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9843444824219</t>
+    <t xml:space="preserve">29.9843463897705</t>
   </si>
   <si>
     <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3026447296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416706085205</t>
+    <t xml:space="preserve">31.3026428222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416687011719</t>
   </si>
   <si>
     <t xml:space="preserve">30.4892253875732</t>
@@ -2936,19 +2936,19 @@
     <t xml:space="preserve">30.2648334503174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4144287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2928810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3676795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.573787689209</t>
+    <t xml:space="preserve">30.4144268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0034561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2928848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3676815032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5737915039062</t>
   </si>
   <si>
     <t xml:space="preserve">32.2282600402832</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">35.4632453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7994155883789</t>
+    <t xml:space="preserve">34.7994194030762</t>
   </si>
   <si>
     <t xml:space="preserve">34.1262435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9107894897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4807014465332</t>
+    <t xml:space="preserve">32.9107856750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4807052612305</t>
   </si>
   <si>
     <t xml:space="preserve">32.89208984375</t>
@@ -2996,13 +2996,13 @@
     <t xml:space="preserve">34.3132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6774559020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0233955383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3973846435547</t>
+    <t xml:space="preserve">33.6774635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0233917236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3973808288574</t>
   </si>
   <si>
     <t xml:space="preserve">34.5002288818359</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">34.4067344665527</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4258422851562</t>
+    <t xml:space="preserve">35.4258460998535</t>
   </si>
   <si>
     <t xml:space="preserve">34.874210357666</t>
@@ -3023,28 +3023,28 @@
     <t xml:space="preserve">36.4075584411621</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5937271118164</t>
+    <t xml:space="preserve">34.5937232971191</t>
   </si>
   <si>
     <t xml:space="preserve">32.630298614502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8359909057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6587600708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.004695892334</t>
+    <t xml:space="preserve">32.8359870910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6587562561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0046920776367</t>
   </si>
   <si>
     <t xml:space="preserve">35.3603973388672</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1079597473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0994338989258</t>
+    <t xml:space="preserve">35.1079559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0994300842285</t>
   </si>
   <si>
     <t xml:space="preserve">37.1274795532227</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">37.1087799072266</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2209815979004</t>
+    <t xml:space="preserve">37.2209777832031</t>
   </si>
   <si>
     <t xml:space="preserve">38.4083862304688</t>
@@ -3068,34 +3068,34 @@
     <t xml:space="preserve">38.1278915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">37.959602355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9787101745605</t>
+    <t xml:space="preserve">37.9595985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9787063598633</t>
   </si>
   <si>
     <t xml:space="preserve">39.2405052185059</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1750602722168</t>
+    <t xml:space="preserve">39.1750564575195</t>
   </si>
   <si>
     <t xml:space="preserve">38.763671875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3429336547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4177322387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9974098205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.820182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3905067443848</t>
+    <t xml:space="preserve">38.3429298400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4177360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9974136352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8201789855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.390510559082</t>
   </si>
   <si>
     <t xml:space="preserve">41.138484954834</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">43.578742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4384994506836</t>
+    <t xml:space="preserve">43.4384956359863</t>
   </si>
   <si>
     <t xml:space="preserve">44.4856643676758</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">44.7661476135254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6263160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5421676635742</t>
+    <t xml:space="preserve">45.6263198852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5421714782715</t>
   </si>
   <si>
     <t xml:space="preserve">45.8133125305176</t>
@@ -3140,10 +3140,10 @@
     <t xml:space="preserve">46.4958381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0287666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8791732788086</t>
+    <t xml:space="preserve">47.0287628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8791694641113</t>
   </si>
   <si>
     <t xml:space="preserve">46.7482757568359</t>
@@ -3152,28 +3152,28 @@
     <t xml:space="preserve">45.4580230712891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4767189025879</t>
+    <t xml:space="preserve">45.4767265319824</t>
   </si>
   <si>
     <t xml:space="preserve">44.7100524902344</t>
   </si>
   <si>
-    <t xml:space="preserve">44.934440612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8783416748047</t>
+    <t xml:space="preserve">44.9344444274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.878345489502</t>
   </si>
   <si>
     <t xml:space="preserve">43.9807815551758</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0185890197754</t>
+    <t xml:space="preserve">45.0185928344727</t>
   </si>
   <si>
     <t xml:space="preserve">44.6726493835449</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2706146240234</t>
+    <t xml:space="preserve">44.2706184387207</t>
   </si>
   <si>
     <t xml:space="preserve">45.2803802490234</t>
@@ -3191,16 +3191,16 @@
     <t xml:space="preserve">44.2612686157227</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1864738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9624900817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.373462677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8035507202148</t>
+    <t xml:space="preserve">44.1864700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9624938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3734588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8035469055176</t>
   </si>
   <si>
     <t xml:space="preserve">44.8128967285156</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">47.5336494445801</t>
   </si>
   <si>
-    <t xml:space="preserve">48.225528717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7304039001465</t>
+    <t xml:space="preserve">48.2255249023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7304077148438</t>
   </si>
   <si>
     <t xml:space="preserve">48.3003158569336</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">48.5995063781738</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9076385498047</t>
+    <t xml:space="preserve">47.9076347351074</t>
   </si>
   <si>
     <t xml:space="preserve">48.8052024841309</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">48.4499168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3466491699219</t>
+    <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
     <t xml:space="preserve">47.2905578613281</t>
@@ -3242,13 +3242,13 @@
     <t xml:space="preserve">49.8523635864258</t>
   </si>
   <si>
-    <t xml:space="preserve">48.524715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8889312744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.105884552002</t>
+    <t xml:space="preserve">48.5247116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8889350891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1058807373047</t>
   </si>
   <si>
     <t xml:space="preserve">48.2379341125488</t>
@@ -3257,25 +3257,25 @@
     <t xml:space="preserve">48.3888549804688</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2000541687012</t>
+    <t xml:space="preserve">49.2000503540039</t>
   </si>
   <si>
     <t xml:space="preserve">49.5584907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7661590576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6719856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.738166809082</t>
+    <t xml:space="preserve">48.7661628723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.671989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7381629943848</t>
   </si>
   <si>
     <t xml:space="preserve">46.8985252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">47.464469909668</t>
+    <t xml:space="preserve">47.4644660949707</t>
   </si>
   <si>
     <t xml:space="preserve">46.7947578430176</t>
@@ -3293,13 +3293,13 @@
     <t xml:space="preserve">48.5209121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">47.898365020752</t>
+    <t xml:space="preserve">47.8983688354492</t>
   </si>
   <si>
     <t xml:space="preserve">47.2569541931152</t>
   </si>
   <si>
-    <t xml:space="preserve">46.634407043457</t>
+    <t xml:space="preserve">46.6344108581543</t>
   </si>
   <si>
     <t xml:space="preserve">46.4080276489258</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">46.4174575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">46.096752166748</t>
+    <t xml:space="preserve">46.0967483520508</t>
   </si>
   <si>
     <t xml:space="preserve">46.8796539306641</t>
@@ -3365,10 +3365,10 @@
     <t xml:space="preserve">48.0681533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1247444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5586433410645</t>
+    <t xml:space="preserve">48.1247482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5586395263672</t>
   </si>
   <si>
     <t xml:space="preserve">47.4267387390137</t>
@@ -3377,16 +3377,16 @@
     <t xml:space="preserve">48.5020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3511238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8038902282715</t>
+    <t xml:space="preserve">48.3511276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8038940429688</t>
   </si>
   <si>
     <t xml:space="preserve">48.0492858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6529731750488</t>
+    <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
     <t xml:space="preserve">48.6718330383301</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">49.5207595825195</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2753639221191</t>
+    <t xml:space="preserve">50.2753601074219</t>
   </si>
   <si>
     <t xml:space="preserve">50.5394744873047</t>
@@ -5610,6 +5610,9 @@
   </si>
   <si>
     <t xml:space="preserve">56.4799995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6399993896484</t>
   </si>
 </sst>
 </file>
@@ -62657,7 +62660,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6524074074</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>876983</v>
@@ -62678,6 +62681,32 @@
         <v>1865</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6495949074</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>412772</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>56.4799995422363</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>55.3400001525879</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>56.4000015258789</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>55.6399993896484</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="1869">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2278299331665</t>
+    <t xml:space="preserve">11.2278289794922</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.119610786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9933547973633</t>
+    <t xml:space="preserve">11.1196098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9933528900146</t>
   </si>
   <si>
     <t xml:space="preserve">11.0474634170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1376476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3270330429077</t>
+    <t xml:space="preserve">11.1376466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3270320892334</t>
   </si>
   <si>
     <t xml:space="preserve">12.1206455230713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7869672775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6336555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089952468872</t>
+    <t xml:space="preserve">11.7869663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.63365650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089962005615</t>
   </si>
   <si>
     <t xml:space="preserve">11.7058019638062</t>
@@ -77,37 +77,37 @@
     <t xml:space="preserve">11.8951873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5615100860596</t>
+    <t xml:space="preserve">11.5615110397339</t>
   </si>
   <si>
     <t xml:space="preserve">11.9853706359863</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2829751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657361984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2919960021973</t>
+    <t xml:space="preserve">12.2829761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657381057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2919931411743</t>
   </si>
   <si>
     <t xml:space="preserve">12.2649402618408</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8861684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559213638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.111626625061</t>
+    <t xml:space="preserve">11.8861694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1116285324097</t>
   </si>
   <si>
     <t xml:space="preserve">12.0575180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9222431182861</t>
+    <t xml:space="preserve">11.9222421646118</t>
   </si>
   <si>
     <t xml:space="preserve">12.075553894043</t>
@@ -119,115 +119,115 @@
     <t xml:space="preserve">11.4262351989746</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917562484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4081954956055</t>
+    <t xml:space="preserve">11.1917572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4081964492798</t>
   </si>
   <si>
     <t xml:space="preserve">11.0925559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4532871246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320598602295</t>
+    <t xml:space="preserve">11.4532880783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
     <t xml:space="preserve">12.0394811630249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5805797576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418251991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4362878799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715627670288</t>
+    <t xml:space="preserve">12.5805807113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4182510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4362888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715618133545</t>
   </si>
   <si>
     <t xml:space="preserve">11.9583177566528</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3641414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9142608642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1397161483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9413156509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3922328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5906343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627817153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587905883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357269287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070755004883</t>
+    <t xml:space="preserve">12.3641405105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1397171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9413146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3922319412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5906352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627826690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587896347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357259750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.807074546814</t>
   </si>
   <si>
     <t xml:space="preserve">13.8972587585449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5184888839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2208843231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2389192581177</t>
+    <t xml:space="preserve">13.5184879302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2208824157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.238920211792</t>
   </si>
   <si>
     <t xml:space="preserve">13.1667728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0765895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1938276290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216840744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2749929428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988544464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3020486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1577548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1036443710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7609462738037</t>
+    <t xml:space="preserve">13.0765905380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.193829536438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216821670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2749938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988554000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3020477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1577558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1036434173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.760947227478</t>
   </si>
   <si>
     <t xml:space="preserve">12.9683694839478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0044431686401</t>
+    <t xml:space="preserve">13.0044441223145</t>
   </si>
   <si>
     <t xml:space="preserve">13.2118654251099</t>
@@ -236,79 +236,79 @@
     <t xml:space="preserve">13.0495347976685</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3291025161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3832130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5725984573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3471403121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8601503372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.679783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1487350463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1757917404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1858444213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1407537460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8251132965088</t>
+    <t xml:space="preserve">13.3291044235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3832139968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725994110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3471393585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8601484298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6797828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7699661254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1487369537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1757907867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.500452041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227169036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.185845375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.140754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8251123428345</t>
   </si>
   <si>
     <t xml:space="preserve">13.752965927124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5455436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275087356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.409161567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7459869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6276426315308</t>
+    <t xml:space="preserve">13.5455446243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275077819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4091634750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7459850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
     <t xml:space="preserve">13.4546794891357</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6549549102783</t>
+    <t xml:space="preserve">13.6549530029297</t>
   </si>
   <si>
     <t xml:space="preserve">13.7823991775513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6458501815796</t>
+    <t xml:space="preserve">13.6458492279053</t>
   </si>
   <si>
     <t xml:space="preserve">13.6822624206543</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">13.8552255630493</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9189481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9280519485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.481990814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3363380432129</t>
+    <t xml:space="preserve">13.9189491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.928050994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4819898605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3363361358643</t>
   </si>
   <si>
     <t xml:space="preserve">12.8993787765503</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">13.3909578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0359287261963</t>
+    <t xml:space="preserve">13.035927772522</t>
   </si>
   <si>
     <t xml:space="preserve">14.0008773803711</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">13.8643274307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0463962554932</t>
+    <t xml:space="preserve">14.0463953018188</t>
   </si>
   <si>
     <t xml:space="preserve">14.4196300506592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4715223312378</t>
+    <t xml:space="preserve">13.10875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4715232849121</t>
   </si>
   <si>
     <t xml:space="preserve">12.8720684051514</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272333145142</t>
+    <t xml:space="preserve">13.3272342681885</t>
   </si>
   <si>
     <t xml:space="preserve">13.1724786758423</t>
@@ -374,10 +374,10 @@
     <t xml:space="preserve">12.7901382446289</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0268249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0541343688965</t>
+    <t xml:space="preserve">13.0268259048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0541353225708</t>
   </si>
   <si>
     <t xml:space="preserve">13.145167350769</t>
@@ -386,19 +386,19 @@
     <t xml:space="preserve">13.0996503829956</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3545436859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1360654830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1269607543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.944896697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275058746338</t>
+    <t xml:space="preserve">13.3545417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1360664367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1269617080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9448957443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275068283081</t>
   </si>
   <si>
     <t xml:space="preserve">14.0190839767456</t>
@@ -413,19 +413,19 @@
     <t xml:space="preserve">14.5652828216553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2739772796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1465311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913652420044</t>
+    <t xml:space="preserve">14.2739791870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1465301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913661956787</t>
   </si>
   <si>
     <t xml:space="preserve">13.7915019989014</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1192207336426</t>
+    <t xml:space="preserve">14.1192197799683</t>
   </si>
   <si>
     <t xml:space="preserve">14.2193584442139</t>
@@ -446,28 +446,28 @@
     <t xml:space="preserve">14.1101169586182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9553632736206</t>
+    <t xml:space="preserve">13.9553623199463</t>
   </si>
   <si>
     <t xml:space="preserve">14.1920480728149</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9462585449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8825359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732944488525</t>
+    <t xml:space="preserve">13.9462566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8825349807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732954025269</t>
   </si>
   <si>
     <t xml:space="preserve">13.7095727920532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5366106033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6003313064575</t>
+    <t xml:space="preserve">13.5366096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6003341674805</t>
   </si>
   <si>
     <t xml:space="preserve">13.7004690170288</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">13.891637802124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1010150909424</t>
+    <t xml:space="preserve">14.1010141372681</t>
   </si>
   <si>
     <t xml:space="preserve">13.8006048202515</t>
@@ -491,37 +491,37 @@
     <t xml:space="preserve">14.2011499404907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.264874458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6367464065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8279142379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9735679626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6640558242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.02818775177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2921838760376</t>
+    <t xml:space="preserve">14.2648735046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6367454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8279132843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9735698699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6640567779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0281887054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2921848297119</t>
   </si>
   <si>
     <t xml:space="preserve">14.0828075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1556348800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0646018981934</t>
+    <t xml:space="preserve">14.1556358337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.064600944519</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826707839966</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">13.8097085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5821256637573</t>
+    <t xml:space="preserve">13.5821266174316</t>
   </si>
   <si>
     <t xml:space="preserve">13.5730218887329</t>
@@ -539,70 +539,70 @@
     <t xml:space="preserve">13.6731595993042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.518404006958</t>
+    <t xml:space="preserve">13.5184030532837</t>
   </si>
   <si>
     <t xml:space="preserve">13.8188123703003</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5093002319336</t>
+    <t xml:space="preserve">13.5093011856079</t>
   </si>
   <si>
     <t xml:space="preserve">13.9644651412964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0554981231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2466678619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8474836349487</t>
+    <t xml:space="preserve">14.0554971694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2466659545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.847484588623</t>
   </si>
   <si>
     <t xml:space="preserve">14.8383817672729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1205863952637</t>
+    <t xml:space="preserve">15.1205854415894</t>
   </si>
   <si>
     <t xml:space="preserve">15.3026514053345</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2480297088623</t>
+    <t xml:space="preserve">15.2480306625366</t>
   </si>
   <si>
     <t xml:space="preserve">15.1023769378662</t>
   </si>
   <si>
-    <t xml:space="preserve">14.747350692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9385185241699</t>
+    <t xml:space="preserve">14.7473497390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9385194778442</t>
   </si>
   <si>
     <t xml:space="preserve">14.9749326705933</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0750675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931354522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565874099731</t>
+    <t xml:space="preserve">15.0750665664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931364059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565883636475</t>
   </si>
   <si>
     <t xml:space="preserve">14.8838987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9021034240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935457229614</t>
+    <t xml:space="preserve">14.9021043777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0477590560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935476303101</t>
   </si>
   <si>
     <t xml:space="preserve">15.1752042770386</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">14.9112071990967</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8747959136963</t>
+    <t xml:space="preserve">14.8747968673706</t>
   </si>
   <si>
     <t xml:space="preserve">15.1569976806641</t>
@@ -626,40 +626,40 @@
     <t xml:space="preserve">15.9034671783447</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9398813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6940927505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9944982528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3131160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3859443664551</t>
+    <t xml:space="preserve">15.9398822784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6940908432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9945001602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.313117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3859386444092</t>
   </si>
   <si>
     <t xml:space="preserve">16.4223575592041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4132556915283</t>
+    <t xml:space="preserve">16.4132518768311</t>
   </si>
   <si>
     <t xml:space="preserve">16.4678707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3313217163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2493934631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.20387840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1310501098633</t>
+    <t xml:space="preserve">16.3313236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2493915557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2038764953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1310482025146</t>
   </si>
   <si>
     <t xml:space="preserve">15.8488483428955</t>
@@ -668,106 +668,106 @@
     <t xml:space="preserve">16.1492576599121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1947708129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765651702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1583633422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1037406921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3950462341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3222217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2676029205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1128444671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856708526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4041500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3326873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.496545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3964099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.532958984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.569372177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7514362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060550689697</t>
+    <t xml:space="preserve">16.1947746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1583614349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1037425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3950481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3222198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.267599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1128463745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4041538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3326892852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4965476989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3964080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5329608917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5693702697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7514400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060569763184</t>
   </si>
   <si>
     <t xml:space="preserve">17.8970928192139</t>
   </si>
   <si>
-    <t xml:space="preserve">17.842472076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973625183105</t>
+    <t xml:space="preserve">17.8424739837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973644256592</t>
   </si>
   <si>
     <t xml:space="preserve">18.2521190643311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.425085067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1246757507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3067398071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3340473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707359313965</t>
+    <t xml:space="preserve">18.4250812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1246738433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3067417144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3340492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707397460938</t>
   </si>
   <si>
     <t xml:space="preserve">18.5161151885986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6617679595947</t>
+    <t xml:space="preserve">18.6617660522461</t>
   </si>
   <si>
     <t xml:space="preserve">18.415979385376</t>
   </si>
   <si>
-    <t xml:space="preserve">18.525218963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.689079284668</t>
+    <t xml:space="preserve">18.5252208709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6890811920166</t>
   </si>
   <si>
     <t xml:space="preserve">18.8711433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1897583007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4901714324951</t>
+    <t xml:space="preserve">19.1897602081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901676177979</t>
   </si>
   <si>
     <t xml:space="preserve">19.4992733001709</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">19.7450618743896</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8269939422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.371826171875</t>
+    <t xml:space="preserve">19.8269920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3718242645264</t>
   </si>
   <si>
     <t xml:space="preserve">19.4719619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5812015533447</t>
+    <t xml:space="preserve">19.5812034606934</t>
   </si>
   <si>
     <t xml:space="preserve">19.7996788024902</t>
@@ -797,34 +797,34 @@
     <t xml:space="preserve">19.9635410308838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7268562316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8451976776123</t>
+    <t xml:space="preserve">19.7268543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8451957702637</t>
   </si>
   <si>
     <t xml:space="preserve">19.7814750671387</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4642219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7100086212158</t>
+    <t xml:space="preserve">20.4642238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7100105285645</t>
   </si>
   <si>
     <t xml:space="preserve">20.6280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9466972351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1196613311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4018611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7555274963379</t>
+    <t xml:space="preserve">20.9466991424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1196594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4018650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7555255889893</t>
   </si>
   <si>
     <t xml:space="preserve">20.0545768737793</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">20.1638126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">20.254846572876</t>
+    <t xml:space="preserve">20.2548446655273</t>
   </si>
   <si>
     <t xml:space="preserve">20.1456050872803</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">19.8178901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9188575744629</t>
+    <t xml:space="preserve">19.9188613891602</t>
   </si>
   <si>
     <t xml:space="preserve">19.9922924041748</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8729591369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7536315917969</t>
+    <t xml:space="preserve">19.8729648590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7536334991455</t>
   </si>
   <si>
     <t xml:space="preserve">20.2860260009766</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">19.9005031585693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5425128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1845245361328</t>
+    <t xml:space="preserve">19.9739360809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5425109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1845226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.2671356201172</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">19.3405685424805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8357162475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0927295684814</t>
+    <t xml:space="preserve">18.83571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0927314758301</t>
   </si>
   <si>
     <t xml:space="preserve">19.3864650726318</t>
@@ -902,46 +902,46 @@
     <t xml:space="preserve">19.3038539886475</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6067638397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4874362945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8821430206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.404821395874</t>
+    <t xml:space="preserve">19.6067657470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4874382019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8821411132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4782581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048252105713</t>
   </si>
   <si>
     <t xml:space="preserve">19.5884075164795</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2028827667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6245937347412</t>
+    <t xml:space="preserve">19.202880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6245899200439</t>
   </si>
   <si>
     <t xml:space="preserve">18.8173542022705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8907871246338</t>
+    <t xml:space="preserve">18.8907890319824</t>
   </si>
   <si>
     <t xml:space="preserve">18.8540725708008</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0651950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9917583465576</t>
+    <t xml:space="preserve">19.0651931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9917602539062</t>
   </si>
   <si>
     <t xml:space="preserve">18.8632507324219</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">19.5516910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6434841156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6710186004639</t>
+    <t xml:space="preserve">19.643482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6710205078125</t>
   </si>
   <si>
     <t xml:space="preserve">19.7169151306152</t>
@@ -968,37 +968,37 @@
     <t xml:space="preserve">19.533332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4598999023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5155048370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7449855804443</t>
+    <t xml:space="preserve">19.4598979949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.515510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.744987487793</t>
   </si>
   <si>
     <t xml:space="preserve">20.8367786407471</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6348342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5338668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6715507507324</t>
+    <t xml:space="preserve">20.6348361968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5338649749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6715526580811</t>
   </si>
   <si>
     <t xml:space="preserve">20.6072978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6531944274902</t>
+    <t xml:space="preserve">20.6531925201416</t>
   </si>
   <si>
     <t xml:space="preserve">20.6807308197021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6256580352783</t>
+    <t xml:space="preserve">20.6256561279297</t>
   </si>
   <si>
     <t xml:space="preserve">21.1305141448975</t>
@@ -1007,58 +1007,58 @@
     <t xml:space="preserve">21.4334259033203</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8373126983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6720848083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6353702545166</t>
+    <t xml:space="preserve">21.8373107910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6720867156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.635368347168</t>
   </si>
   <si>
     <t xml:space="preserve">21.717981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6629066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5711135864258</t>
+    <t xml:space="preserve">21.6629104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5711154937744</t>
   </si>
   <si>
     <t xml:space="preserve">21.4976806640625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1580505371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5619335174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9107475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1952991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0392532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0943260192871</t>
+    <t xml:space="preserve">21.1580486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5619354248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9107456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0392513275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0943298339844</t>
   </si>
   <si>
     <t xml:space="preserve">22.2962703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4614963531494</t>
+    <t xml:space="preserve">22.4614944458008</t>
   </si>
   <si>
     <t xml:space="preserve">22.736873626709</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6726169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9020957946777</t>
+    <t xml:space="preserve">22.6726188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9020977020264</t>
   </si>
   <si>
     <t xml:space="preserve">22.9204540252686</t>
@@ -1067,40 +1067,40 @@
     <t xml:space="preserve">22.8103065490723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5441093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6909732818604</t>
+    <t xml:space="preserve">22.5441074371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6909770965576</t>
   </si>
   <si>
     <t xml:space="preserve">22.5349292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5165710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5532875061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2595539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1218681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3697032928467</t>
+    <t xml:space="preserve">22.5165748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5532894134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2595520019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1218662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3697052001953</t>
   </si>
   <si>
     <t xml:space="preserve">22.415599822998</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4431419372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1402225494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.048433303833</t>
+    <t xml:space="preserve">22.4431400299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1402263641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0484352111816</t>
   </si>
   <si>
     <t xml:space="preserve">21.7638759613037</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">22.4523162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5808258056641</t>
+    <t xml:space="preserve">22.5808238983154</t>
   </si>
   <si>
     <t xml:space="preserve">22.3605251312256</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5900058746338</t>
+    <t xml:space="preserve">22.5900077819824</t>
   </si>
   <si>
     <t xml:space="preserve">22.6542587280273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7001533508301</t>
+    <t xml:space="preserve">22.7001552581787</t>
   </si>
   <si>
     <t xml:space="preserve">22.2870922088623</t>
@@ -1130,46 +1130,46 @@
     <t xml:space="preserve">22.7460536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8653812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6634407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4247798919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.378885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3054504394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2411956787109</t>
+    <t xml:space="preserve">22.8653793334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6634387969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4247779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3054485321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2411937713623</t>
   </si>
   <si>
     <t xml:space="preserve">22.1494026184082</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0667934417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285697937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3508148193359</t>
+    <t xml:space="preserve">22.0667896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3508129119873</t>
   </si>
   <si>
     <t xml:space="preserve">21.2957382202148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9561080932617</t>
+    <t xml:space="preserve">20.9561061859131</t>
   </si>
   <si>
     <t xml:space="preserve">21.0570812225342</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9377498626709</t>
+    <t xml:space="preserve">20.9377517700195</t>
   </si>
   <si>
     <t xml:space="preserve">21.3875293731689</t>
@@ -1178,25 +1178,25 @@
     <t xml:space="preserve">21.3783531188965</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4242477416992</t>
+    <t xml:space="preserve">21.4242458343506</t>
   </si>
   <si>
     <t xml:space="preserve">21.112154006958</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1396903991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0846176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7271614074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7088031768799</t>
+    <t xml:space="preserve">21.1396942138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0846157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7271595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7088012695312</t>
   </si>
   <si>
     <t xml:space="preserve">22.250373840332</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">22.8194847106934</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1958332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6267242431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.140754699707</t>
+    <t xml:space="preserve">23.1958351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6267223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1407566070557</t>
   </si>
   <si>
     <t xml:space="preserve">23.2141914367676</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1223964691162</t>
+    <t xml:space="preserve">23.1223983764648</t>
   </si>
   <si>
     <t xml:space="preserve">23.4069519042969</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">24.2330837249756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9393482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6823272705078</t>
+    <t xml:space="preserve">23.9393463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6823310852051</t>
   </si>
   <si>
     <t xml:space="preserve">23.4987449645996</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">23.957706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8108406066895</t>
+    <t xml:space="preserve">23.8108386993408</t>
   </si>
   <si>
     <t xml:space="preserve">23.8659114837646</t>
@@ -1259,25 +1259,25 @@
     <t xml:space="preserve">23.1315784454346</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0948619842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3518810272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1412868499756</t>
+    <t xml:space="preserve">23.0948600769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3518772125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1412906646729</t>
   </si>
   <si>
     <t xml:space="preserve">24.6736812591553</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8205509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5818920135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7103996276855</t>
+    <t xml:space="preserve">24.8205547332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5818901062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104015350342</t>
   </si>
   <si>
     <t xml:space="preserve">24.8389072418213</t>
@@ -1286,22 +1286,22 @@
     <t xml:space="preserve">24.8572673797607</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6186103820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4442024230957</t>
+    <t xml:space="preserve">24.6186084747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4442005157471</t>
   </si>
   <si>
     <t xml:space="preserve">24.3615913391113</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5451717376709</t>
+    <t xml:space="preserve">24.5451736450195</t>
   </si>
   <si>
     <t xml:space="preserve">23.8842716217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7832984924316</t>
+    <t xml:space="preserve">23.7833023071289</t>
   </si>
   <si>
     <t xml:space="preserve">24.6920394897461</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">23.6088943481445</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3707675933838</t>
+    <t xml:space="preserve">24.3707656860352</t>
   </si>
   <si>
     <t xml:space="preserve">24.9949550628662</t>
@@ -1322,85 +1322,85 @@
     <t xml:space="preserve">26.1148166656494</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7751865386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9128742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8119049072266</t>
+    <t xml:space="preserve">25.7751884460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9128723144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9312362670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8119068145752</t>
   </si>
   <si>
     <t xml:space="preserve">25.7384719848633</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9863090515137</t>
+    <t xml:space="preserve">25.986307144165</t>
   </si>
   <si>
     <t xml:space="preserve">26.4911651611328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3442974090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6650352478027</t>
+    <t xml:space="preserve">26.344295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6650333404541</t>
   </si>
   <si>
     <t xml:space="preserve">25.6099605560303</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0505599975586</t>
+    <t xml:space="preserve">26.0505619049072</t>
   </si>
   <si>
     <t xml:space="preserve">25.9220542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5737781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7665405273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8675117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0327396392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8491535186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1796073913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1153507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3264694213867</t>
+    <t xml:space="preserve">26.5737762451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7665386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8675136566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0327377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8491516113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1796054840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.115348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3264713287354</t>
   </si>
   <si>
     <t xml:space="preserve">27.8405055999756</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3270053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9506549835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0975246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0516262054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.299467086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3637218475342</t>
+    <t xml:space="preserve">28.3270034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9506587982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0975227355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.051628112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2994632720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3637199401855</t>
   </si>
   <si>
     <t xml:space="preserve">30.1720237731934</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">29.8323917388916</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2179183959961</t>
+    <t xml:space="preserve">30.2179164886475</t>
   </si>
   <si>
     <t xml:space="preserve">30.5667285919189</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6493396759033</t>
+    <t xml:space="preserve">30.6493377685547</t>
   </si>
   <si>
     <t xml:space="preserve">30.3188896179199</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">31.2459888458252</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8971786499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6315135955811</t>
+    <t xml:space="preserve">30.8971767425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6315155029297</t>
   </si>
   <si>
     <t xml:space="preserve">32.3383102416992</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">32.1455535888672</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4576416015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3566703796387</t>
+    <t xml:space="preserve">32.4576454162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3566665649414</t>
   </si>
   <si>
     <t xml:space="preserve">33.0634689331055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.136905670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.412281036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9171409606934</t>
+    <t xml:space="preserve">33.1369018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4122848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9171371459961</t>
   </si>
   <si>
     <t xml:space="preserve">34.3669166564941</t>
@@ -1463,19 +1463,19 @@
     <t xml:space="preserve">34.8809509277344</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5040702819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7421951293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.485710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5316047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.770263671875</t>
+    <t xml:space="preserve">33.5040740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7421989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4857139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.531608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7702713012695</t>
   </si>
   <si>
     <t xml:space="preserve">34.1466178894043</t>
@@ -1487,31 +1487,31 @@
     <t xml:space="preserve">34.5596771240234</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8625946044922</t>
+    <t xml:space="preserve">34.8625869750977</t>
   </si>
   <si>
     <t xml:space="preserve">35.7162551879883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1660423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9256706237793</t>
+    <t xml:space="preserve">36.1660385131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.925666809082</t>
   </si>
   <si>
     <t xml:space="preserve">34.9457130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1876335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9734497070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2954635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4988555908203</t>
+    <t xml:space="preserve">34.187629699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.973445892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.498851776123</t>
   </si>
   <si>
     <t xml:space="preserve">35.3432388305664</t>
@@ -1526,10 +1526,10 @@
     <t xml:space="preserve">36.332447052002</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8316688537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2184143066406</t>
+    <t xml:space="preserve">36.831672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2184104919434</t>
   </si>
   <si>
     <t xml:space="preserve">37.8023834228516</t>
@@ -1553,46 +1553,46 @@
     <t xml:space="preserve">38.8840408325195</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3385887145996</t>
+    <t xml:space="preserve">38.3385925292969</t>
   </si>
   <si>
     <t xml:space="preserve">37.1552391052246</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8409118652344</t>
+    <t xml:space="preserve">36.8409156799316</t>
   </si>
   <si>
     <t xml:space="preserve">36.7762031555176</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5820617675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8979377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8794441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.999626159668</t>
+    <t xml:space="preserve">36.5820579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8979415893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.879451751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9996299743652</t>
   </si>
   <si>
     <t xml:space="preserve">35.5836143493652</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0550994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8332252502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919319152832</t>
+    <t xml:space="preserve">36.055103302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8332176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919281005859</t>
   </si>
   <si>
     <t xml:space="preserve">34.4187507629395</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2061233520508</t>
+    <t xml:space="preserve">34.2061195373535</t>
   </si>
   <si>
     <t xml:space="preserve">34.7608108520508</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">35.5373840332031</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6498756408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3155059814453</t>
+    <t xml:space="preserve">34.6498718261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3155097961426</t>
   </si>
   <si>
     <t xml:space="preserve">36.0828323364258</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">35.9534072875977</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8702011108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.722282409668</t>
+    <t xml:space="preserve">35.8701972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7222862243652</t>
   </si>
   <si>
     <t xml:space="preserve">36.6560211181641</t>
@@ -1637,22 +1637,22 @@
     <t xml:space="preserve">34.2708320617676</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8717498779297</t>
+    <t xml:space="preserve">34.871753692627</t>
   </si>
   <si>
     <t xml:space="preserve">34.6683654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8732986450195</t>
+    <t xml:space="preserve">33.8733024597168</t>
   </si>
   <si>
     <t xml:space="preserve">34.7330780029297</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8440132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0104293823242</t>
+    <t xml:space="preserve">34.8440170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.010425567627</t>
   </si>
   <si>
     <t xml:space="preserve">35.2045707702637</t>
@@ -1661,22 +1661,22 @@
     <t xml:space="preserve">35.0936279296875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.483470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2970199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9549598693848</t>
+    <t xml:space="preserve">34.4834632873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2970161437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9549560546875</t>
   </si>
   <si>
     <t xml:space="preserve">35.2692832946777</t>
   </si>
   <si>
-    <t xml:space="preserve">36.064338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7114868164062</t>
+    <t xml:space="preserve">36.0643463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7114791870117</t>
   </si>
   <si>
     <t xml:space="preserve">36.6467742919922</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">36.0181198120117</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9903869628906</t>
+    <t xml:space="preserve">35.9903831481934</t>
   </si>
   <si>
     <t xml:space="preserve">35.5928497314453</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">34.2985687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7515678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8070373535156</t>
+    <t xml:space="preserve">34.7515716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8070411682129</t>
   </si>
   <si>
     <t xml:space="preserve">34.7700576782227</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">35.2600402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4464874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0843849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8902473449707</t>
+    <t xml:space="preserve">34.4464836120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0843887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8902435302734</t>
   </si>
   <si>
     <t xml:space="preserve">35.0658912658691</t>
@@ -1727,61 +1727,61 @@
     <t xml:space="preserve">34.5481796264648</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8810005187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1398544311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7037963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4172058105469</t>
+    <t xml:space="preserve">34.8809967041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1398582458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7037925720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4172019958496</t>
   </si>
   <si>
     <t xml:space="preserve">33.4295463562012</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2646903991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9025917053223</t>
+    <t xml:space="preserve">32.2646942138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.902587890625</t>
   </si>
   <si>
     <t xml:space="preserve">29.3340587615967</t>
   </si>
   <si>
-    <t xml:space="preserve">28.918041229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5852222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305290222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.649938583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7886085510254</t>
+    <t xml:space="preserve">28.9180393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5852203369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6499366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.788610458374</t>
   </si>
   <si>
     <t xml:space="preserve">28.8440780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1044864654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.17844581604</t>
+    <t xml:space="preserve">28.1044883728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1784477233887</t>
   </si>
   <si>
     <t xml:space="preserve">27.022834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6422443389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2893867492676</t>
+    <t xml:space="preserve">27.642240524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2893848419189</t>
   </si>
   <si>
     <t xml:space="preserve">27.9473247528076</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">27.5497951507568</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9195938110352</t>
+    <t xml:space="preserve">27.9195899963379</t>
   </si>
   <si>
     <t xml:space="preserve">28.3818359375</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">28.4742832183838</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9534702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5929145812988</t>
+    <t xml:space="preserve">29.9534683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5929126739502</t>
   </si>
   <si>
     <t xml:space="preserve">29.3710384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5282020568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0844459533691</t>
+    <t xml:space="preserve">29.5282039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0844440460205</t>
   </si>
   <si>
     <t xml:space="preserve">27.8271427154541</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">29.4357528686523</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4095706939697</t>
+    <t xml:space="preserve">28.4095687866211</t>
   </si>
   <si>
     <t xml:space="preserve">28.4188137054443</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7254467010498</t>
+    <t xml:space="preserve">27.7254447937012</t>
   </si>
   <si>
     <t xml:space="preserve">26.6253032684326</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">27.2169761657715</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1799983978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.808650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5775299072266</t>
+    <t xml:space="preserve">27.1799964904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8086528778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5775279998779</t>
   </si>
   <si>
     <t xml:space="preserve">27.0967922210693</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">27.2816925048828</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6068134307861</t>
+    <t xml:space="preserve">26.6068153381348</t>
   </si>
   <si>
     <t xml:space="preserve">28.1876926422119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1337757110596</t>
+    <t xml:space="preserve">27.1337738037109</t>
   </si>
   <si>
     <t xml:space="preserve">27.6792221069336</t>
@@ -1877,16 +1877,16 @@
     <t xml:space="preserve">26.3109760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0151424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.469690322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9797134399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5159149169922</t>
+    <t xml:space="preserve">26.0151386260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4696922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9797115325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5159187316895</t>
   </si>
   <si>
     <t xml:space="preserve">26.0521202087402</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">25.6915702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9319362640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7454872131348</t>
+    <t xml:space="preserve">25.9319343566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7454891204834</t>
   </si>
   <si>
     <t xml:space="preserve">26.9581203460693</t>
@@ -1913,13 +1913,13 @@
     <t xml:space="preserve">26.8286933898926</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5590400695801</t>
+    <t xml:space="preserve">27.5590381622314</t>
   </si>
   <si>
     <t xml:space="preserve">28.3171195983887</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9919986724854</t>
+    <t xml:space="preserve">28.992000579834</t>
   </si>
   <si>
     <t xml:space="preserve">28.5297546386719</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">27.401876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7069549560547</t>
+    <t xml:space="preserve">27.7069568634033</t>
   </si>
   <si>
     <t xml:space="preserve">27.7809162139893</t>
@@ -1943,46 +1943,46 @@
     <t xml:space="preserve">28.2801418304443</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531795501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3356075286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2616481781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.622200012207</t>
+    <t xml:space="preserve">27.7531833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3356094360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2616500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6222019195557</t>
   </si>
   <si>
     <t xml:space="preserve">30.3232612609863</t>
   </si>
   <si>
-    <t xml:space="preserve">30.415714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0166320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2200202941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6267929077148</t>
+    <t xml:space="preserve">30.4157180786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2200164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6267910003662</t>
   </si>
   <si>
     <t xml:space="preserve">30.859468460083</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0628509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586940765381</t>
+    <t xml:space="preserve">31.0628566741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586883544922</t>
   </si>
   <si>
     <t xml:space="preserve">32.1352577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3478965759277</t>
+    <t xml:space="preserve">32.347900390625</t>
   </si>
   <si>
     <t xml:space="preserve">32.0335693359375</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">31.7562236785889</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2462043762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2092208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.089038848877</t>
+    <t xml:space="preserve">32.2462005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2092247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0890350341797</t>
   </si>
   <si>
     <t xml:space="preserve">32.0797958374023</t>
@@ -2009,31 +2009,31 @@
     <t xml:space="preserve">32.4033660888672</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3386535644531</t>
+    <t xml:space="preserve">32.3386497497559</t>
   </si>
   <si>
     <t xml:space="preserve">31.1737957000732</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6221389770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2523422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.374080657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2816314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1429557800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9580574035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.022777557373</t>
+    <t xml:space="preserve">34.622142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2523384094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3740768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2816276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1429595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0227737426758</t>
   </si>
   <si>
     <t xml:space="preserve">32.8748588562012</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">33.3648338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4572830200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9842376708984</t>
+    <t xml:space="preserve">33.4572792053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.984245300293</t>
   </si>
   <si>
     <t xml:space="preserve">33.6514282226562</t>
@@ -2054,55 +2054,55 @@
     <t xml:space="preserve">32.6714668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1722450256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8840980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2076644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9657516479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0674476623535</t>
+    <t xml:space="preserve">32.1722412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8840942382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2076683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9657554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0674514770508</t>
   </si>
   <si>
     <t xml:space="preserve">34.5944023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3910217285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3263053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2631340026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6699142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7438735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5497360229492</t>
+    <t xml:space="preserve">34.3910179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.326301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2631416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7438774108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.549732208252</t>
   </si>
   <si>
     <t xml:space="preserve">33.8825492858887</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5682258605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7623672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3355445861816</t>
+    <t xml:space="preserve">33.5682220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7623634338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3355484008789</t>
   </si>
   <si>
     <t xml:space="preserve">34.1414070129395</t>
@@ -2120,22 +2120,22 @@
     <t xml:space="preserve">33.688404083252</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3817749023438</t>
+    <t xml:space="preserve">34.3817710876465</t>
   </si>
   <si>
     <t xml:space="preserve">33.614444732666</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8471221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9010314941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3848724365234</t>
+    <t xml:space="preserve">32.9950332641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8471183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9010391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3848762512207</t>
   </si>
   <si>
     <t xml:space="preserve">33.1337127685547</t>
@@ -2144,52 +2144,52 @@
     <t xml:space="preserve">32.5697708129883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0042839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0225715637207</t>
+    <t xml:space="preserve">33.004280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0225677490234</t>
   </si>
   <si>
     <t xml:space="preserve">32.3217620849609</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2847709655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2937088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6957473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7237892150879</t>
+    <t xml:space="preserve">33.2847747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2937126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6957511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7237930297852</t>
   </si>
   <si>
     <t xml:space="preserve">32.2189102172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2091522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0408573150635</t>
+    <t xml:space="preserve">31.2091503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0408554077148</t>
   </si>
   <si>
     <t xml:space="preserve">30.8538627624512</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9754066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5457382202148</t>
+    <t xml:space="preserve">30.9754104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5457401275635</t>
   </si>
   <si>
     <t xml:space="preserve">32.2563095092773</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4433059692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0973663330078</t>
+    <t xml:space="preserve">32.443302154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0973701477051</t>
   </si>
   <si>
     <t xml:space="preserve">32.5555000305176</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">32.1721649169922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2469635009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7705421447754</t>
+    <t xml:space="preserve">32.2469596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7705383300781</t>
   </si>
   <si>
     <t xml:space="preserve">33.0977821350098</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">34.1075439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2290916442871</t>
+    <t xml:space="preserve">34.2290878295898</t>
   </si>
   <si>
     <t xml:space="preserve">35.1827545166016</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">34.9770622253418</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8835678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2477874755859</t>
+    <t xml:space="preserve">34.8835639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2477912902832</t>
   </si>
   <si>
     <t xml:space="preserve">33.9766502380371</t>
@@ -2234,31 +2234,31 @@
     <t xml:space="preserve">35.1547050476074</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5286903381348</t>
+    <t xml:space="preserve">35.528694152832</t>
   </si>
   <si>
     <t xml:space="preserve">35.4538955688477</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9961738586426</t>
+    <t xml:space="preserve">35.9961700439453</t>
   </si>
   <si>
     <t xml:space="preserve">36.0990180969238</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0055198669434</t>
+    <t xml:space="preserve">36.0055236816406</t>
   </si>
   <si>
     <t xml:space="preserve">36.0148696899414</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7624320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8372344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.575439453125</t>
+    <t xml:space="preserve">35.7624359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.837230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5754356384277</t>
   </si>
   <si>
     <t xml:space="preserve">35.9774742126465</t>
@@ -2267,49 +2267,49 @@
     <t xml:space="preserve">35.519344329834</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6128425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7063369750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7250289916992</t>
+    <t xml:space="preserve">35.6128387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7063331604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7250328063965</t>
   </si>
   <si>
     <t xml:space="preserve">36.1457672119141</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1270713806152</t>
+    <t xml:space="preserve">36.127067565918</t>
   </si>
   <si>
     <t xml:space="preserve">36.4169082641602</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4823532104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4543075561523</t>
+    <t xml:space="preserve">36.4823570251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4543037414551</t>
   </si>
   <si>
     <t xml:space="preserve">35.1640510559082</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7526664733887</t>
+    <t xml:space="preserve">34.7526702880859</t>
   </si>
   <si>
     <t xml:space="preserve">33.9018516540527</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8916759490967</t>
+    <t xml:space="preserve">31.8916778564453</t>
   </si>
   <si>
     <t xml:space="preserve">31.8636283874512</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2656631469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8546829223633</t>
+    <t xml:space="preserve">32.2656555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8546867370605</t>
   </si>
   <si>
     <t xml:space="preserve">32.7892417907715</t>
@@ -2321,34 +2321,34 @@
     <t xml:space="preserve">31.6579303741455</t>
   </si>
   <si>
-    <t xml:space="preserve">32.190860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1254119873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1538772583008</t>
+    <t xml:space="preserve">32.1908645629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1254196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1538734436035</t>
   </si>
   <si>
     <t xml:space="preserve">32.181510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9851722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7888298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7327308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8729724884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.078670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7798919677734</t>
+    <t xml:space="preserve">31.9851684570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7888259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7327251434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8729763031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0786743164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7798957824707</t>
   </si>
   <si>
     <t xml:space="preserve">33.5278663635254</t>
@@ -2360,52 +2360,52 @@
     <t xml:space="preserve">33.1819305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9855804443359</t>
+    <t xml:space="preserve">32.9855842590332</t>
   </si>
   <si>
     <t xml:space="preserve">33.0697288513184</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0884284973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8172874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0693130493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103736877441</t>
+    <t xml:space="preserve">33.0884323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8172912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0693168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103755950928</t>
   </si>
   <si>
     <t xml:space="preserve">29.6758041381836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3583354949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.498571395874</t>
+    <t xml:space="preserve">30.3583335876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4985733032227</t>
   </si>
   <si>
     <t xml:space="preserve">30.012393951416</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1339378356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0497932434082</t>
+    <t xml:space="preserve">30.133939743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0497913360596</t>
   </si>
   <si>
     <t xml:space="preserve">30.2554836273193</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7510204315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2367858886719</t>
+    <t xml:space="preserve">30.7510147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5733737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2367839813232</t>
   </si>
   <si>
     <t xml:space="preserve">29.5355606079102</t>
@@ -2414,19 +2414,19 @@
     <t xml:space="preserve">30.0217437744141</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4237785339355</t>
+    <t xml:space="preserve">30.4237804412842</t>
   </si>
   <si>
     <t xml:space="preserve">30.6107749938965</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4611759185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0315055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.620532989502</t>
+    <t xml:space="preserve">30.461181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0315074920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6205368041992</t>
   </si>
   <si>
     <t xml:space="preserve">32.2376098632812</t>
@@ -2435,10 +2435,10 @@
     <t xml:space="preserve">31.9758224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8542785644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4522380828857</t>
+    <t xml:space="preserve">31.8542709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4522399902344</t>
   </si>
   <si>
     <t xml:space="preserve">31.1437015533447</t>
@@ -2447,10 +2447,10 @@
     <t xml:space="preserve">30.0778408050537</t>
   </si>
   <si>
-    <t xml:space="preserve">30.386381149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1806869506836</t>
+    <t xml:space="preserve">30.3863792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.180685043335</t>
   </si>
   <si>
     <t xml:space="preserve">30.0965385437012</t>
@@ -2465,10 +2465,10 @@
     <t xml:space="preserve">33.191276550293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4246025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.882740020752</t>
+    <t xml:space="preserve">32.4246101379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8827362060547</t>
   </si>
   <si>
     <t xml:space="preserve">32.9949378967285</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">32.7518424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6965713500977</t>
+    <t xml:space="preserve">34.6965675354004</t>
   </si>
   <si>
     <t xml:space="preserve">35.1921043395996</t>
@@ -2489,10 +2489,10 @@
     <t xml:space="preserve">34.556324005127</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4721755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0701446533203</t>
+    <t xml:space="preserve">34.4721717834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.070140838623</t>
   </si>
   <si>
     <t xml:space="preserve">34.1823387145996</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">34.6872177124023</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2949485778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5384559631348</t>
+    <t xml:space="preserve">35.2949447631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9957580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.538459777832</t>
   </si>
   <si>
     <t xml:space="preserve">36.641300201416</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">37.5295143127441</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1835784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2673110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1644706726074</t>
+    <t xml:space="preserve">37.1835823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2673149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1644668579102</t>
   </si>
   <si>
     <t xml:space="preserve">38.6701736450195</t>
@@ -2534,130 +2534,130 @@
     <t xml:space="preserve">39.4555473327637</t>
   </si>
   <si>
-    <t xml:space="preserve">39.072208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3526992797852</t>
+    <t xml:space="preserve">39.0722160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3526954650879</t>
   </si>
   <si>
     <t xml:space="preserve">38.6140785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3335838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2400932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6604080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.810001373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5482177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.697811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2307434082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1372451782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9876518249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4640655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.950252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4827651977539</t>
+    <t xml:space="preserve">38.3335876464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2400894165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6604118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8100051879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5482215881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6978073120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2307395935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1372489929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9876556396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4640693664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9502487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4827690124512</t>
   </si>
   <si>
     <t xml:space="preserve">37.6510620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4831848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4644775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.062442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1465950012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8852119445801</t>
+    <t xml:space="preserve">38.4831809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.464485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0624504089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1465911865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8852157592773</t>
   </si>
   <si>
     <t xml:space="preserve">39.9417266845703</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9230270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6608238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8006629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7917175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7165069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9128494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3327560424805</t>
+    <t xml:space="preserve">39.9043312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9230346679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6608200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8006553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7917251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7165107727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9128532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.332763671875</t>
   </si>
   <si>
     <t xml:space="preserve">37.7445602416992</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9872360229492</t>
+    <t xml:space="preserve">36.9872398376465</t>
   </si>
   <si>
     <t xml:space="preserve">36.4636573791504</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8656883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3612213134766</t>
+    <t xml:space="preserve">36.8656921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3612251281738</t>
   </si>
   <si>
     <t xml:space="preserve">37.7819557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0152893066406</t>
+    <t xml:space="preserve">37.0152854919434</t>
   </si>
   <si>
     <t xml:space="preserve">36.192512512207</t>
   </si>
   <si>
-    <t xml:space="preserve">37.146183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.136417388916</t>
+    <t xml:space="preserve">37.1461791992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1364212036133</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534942626953</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6221885681152</t>
+    <t xml:space="preserve">35.622184753418</t>
   </si>
   <si>
     <t xml:space="preserve">35.7717781066895</t>
@@ -2675,16 +2675,16 @@
     <t xml:space="preserve">32.8453407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3782730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9668846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9294929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5270366668701</t>
+    <t xml:space="preserve">33.3782691955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9668807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9294891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5270385742188</t>
   </si>
   <si>
     <t xml:space="preserve">28.5351486206055</t>
@@ -2693,16 +2693,16 @@
     <t xml:space="preserve">28.1798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4505863189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.309103012085</t>
+    <t xml:space="preserve">27.450590133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3091011047363</t>
   </si>
   <si>
     <t xml:space="preserve">27.7684783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6087074279785</t>
+    <t xml:space="preserve">25.6087055206299</t>
   </si>
   <si>
     <t xml:space="preserve">25.2440700531006</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">25.7115516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">25.262767791748</t>
+    <t xml:space="preserve">25.2627696990967</t>
   </si>
   <si>
     <t xml:space="preserve">27.3664417266846</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7400150299072</t>
+    <t xml:space="preserve">26.7400131225586</t>
   </si>
   <si>
     <t xml:space="preserve">30.3396320343018</t>
@@ -2726,25 +2726,25 @@
     <t xml:space="preserve">31.8823261260986</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1628112792969</t>
+    <t xml:space="preserve">32.1628189086914</t>
   </si>
   <si>
     <t xml:space="preserve">31.1250057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2835330963135</t>
+    <t xml:space="preserve">30.2835350036621</t>
   </si>
   <si>
     <t xml:space="preserve">29.9188976287842</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0774269104004</t>
+    <t xml:space="preserve">29.077428817749</t>
   </si>
   <si>
     <t xml:space="preserve">31.0876026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5172748565674</t>
+    <t xml:space="preserve">30.517276763916</t>
   </si>
   <si>
     <t xml:space="preserve">30.7136173248291</t>
@@ -2756,19 +2756,19 @@
     <t xml:space="preserve">31.0502033233643</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2750129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9575386047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3119945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9941062927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9384250640869</t>
+    <t xml:space="preserve">32.275016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9575309753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3119983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9941082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.938419342041</t>
   </si>
   <si>
     <t xml:space="preserve">32.2095642089844</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">30.6855697631836</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1904525756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3209323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6481666564941</t>
+    <t xml:space="preserve">31.1904487609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3209342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6481685638428</t>
   </si>
   <si>
     <t xml:space="preserve">30.1900367736816</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">30.6388206481934</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8160495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0961265563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0119819641113</t>
+    <t xml:space="preserve">29.8160533905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0961303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0119800567627</t>
   </si>
   <si>
     <t xml:space="preserve">30.14328956604</t>
@@ -2807,40 +2807,40 @@
     <t xml:space="preserve">30.2741851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">29.198974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7693004608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2185020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8071136474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6022453308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2745952606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4989852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.331111907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4713478088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4615917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8075294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6672821044922</t>
+    <t xml:space="preserve">29.1989727020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7693023681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2184982299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8071174621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6022491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.274600982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.498987197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3311080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4713592529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4615859985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8075275421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6672840118408</t>
   </si>
   <si>
     <t xml:space="preserve">32.4059066772461</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">32.938835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2099761962891</t>
+    <t xml:space="preserve">33.2099800109863</t>
   </si>
   <si>
     <t xml:space="preserve">33.509162902832</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5648498535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8262271881104</t>
+    <t xml:space="preserve">32.5648460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8262252807617</t>
   </si>
   <si>
     <t xml:space="preserve">32.0319175720215</t>
@@ -2873,46 +2873,46 @@
     <t xml:space="preserve">32.38720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">31.685977935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.396556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9197235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7794742584229</t>
+    <t xml:space="preserve">31.6859836578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3965606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9197216033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794799804688</t>
   </si>
   <si>
     <t xml:space="preserve">31.0689029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4896392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4054908752441</t>
+    <t xml:space="preserve">31.4896450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4054927825928</t>
   </si>
   <si>
     <t xml:space="preserve">31.4335403442383</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0128021240234</t>
+    <t xml:space="preserve">31.0128040313721</t>
   </si>
   <si>
     <t xml:space="preserve">30.4798755645752</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5079250335693</t>
+    <t xml:space="preserve">30.507926940918</t>
   </si>
   <si>
     <t xml:space="preserve">29.8253993988037</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9843444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8908462524414</t>
+    <t xml:space="preserve">29.9843425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.89084815979</t>
   </si>
   <si>
     <t xml:space="preserve">31.3026447296143</t>
@@ -2927,31 +2927,31 @@
     <t xml:space="preserve">29.9375972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9562969207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.264835357666</t>
+    <t xml:space="preserve">29.956298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2648334503174</t>
   </si>
   <si>
     <t xml:space="preserve">30.4144268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0034599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2928848266602</t>
+    <t xml:space="preserve">31.0034561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2928829193115</t>
   </si>
   <si>
     <t xml:space="preserve">30.3676815032959</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5737895965576</t>
+    <t xml:space="preserve">31.573787689209</t>
   </si>
   <si>
     <t xml:space="preserve">32.2282638549805</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6209487915039</t>
+    <t xml:space="preserve">32.6209526062012</t>
   </si>
   <si>
     <t xml:space="preserve">32.9201354980469</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">34.3506355285645</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4632415771484</t>
+    <t xml:space="preserve">35.4632453918457</t>
   </si>
   <si>
     <t xml:space="preserve">34.7994194030762</t>
@@ -2969,19 +2969,19 @@
     <t xml:space="preserve">34.1262435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9107856750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4807014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8920860290527</t>
+    <t xml:space="preserve">32.9107894897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4807052612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.89208984375</t>
   </si>
   <si>
     <t xml:space="preserve">32.7050933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2941246032715</t>
+    <t xml:space="preserve">33.2941207885742</t>
   </si>
   <si>
     <t xml:space="preserve">33.1632270812988</t>
@@ -2993,67 +2993,67 @@
     <t xml:space="preserve">34.3132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6774559020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0233955383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3973846435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5002288818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0510368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4067306518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4258460998535</t>
+    <t xml:space="preserve">33.6774597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0233993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3973808288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5002326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0510292053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4067344665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4258422851562</t>
   </si>
   <si>
     <t xml:space="preserve">34.8742141723633</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4075584411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5937271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6303024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8359909057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6587600708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0046920776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3603973388672</t>
+    <t xml:space="preserve">36.4075546264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5937194824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.630298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8359870910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6587562561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.004695892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3603935241699</t>
   </si>
   <si>
     <t xml:space="preserve">35.1079597473145</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0994338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1274833679199</t>
+    <t xml:space="preserve">37.0994300842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1274795532227</t>
   </si>
   <si>
     <t xml:space="preserve">37.8567543029785</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1087837219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2209815979004</t>
+    <t xml:space="preserve">37.1087799072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2209777832031</t>
   </si>
   <si>
     <t xml:space="preserve">38.4083862304688</t>
@@ -3062,19 +3062,19 @@
     <t xml:space="preserve">38.3896865844727</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1278953552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9595985412598</t>
+    <t xml:space="preserve">38.1278915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.959602355957</t>
   </si>
   <si>
     <t xml:space="preserve">38.9787101745605</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2405090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1750526428223</t>
+    <t xml:space="preserve">39.2405052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1750564575195</t>
   </si>
   <si>
     <t xml:space="preserve">38.7636680603027</t>
@@ -3092,16 +3092,16 @@
     <t xml:space="preserve">39.820182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1384887695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9799537658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.578742980957</t>
+    <t xml:space="preserve">40.390510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1384811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9799575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5787467956543</t>
   </si>
   <si>
     <t xml:space="preserve">43.4384956359863</t>
@@ -3110,19 +3110,19 @@
     <t xml:space="preserve">44.4856643676758</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7661514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6263198852539</t>
+    <t xml:space="preserve">44.7661552429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6263160705566</t>
   </si>
   <si>
     <t xml:space="preserve">45.5421714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8133125305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3458290100098</t>
+    <t xml:space="preserve">45.8133163452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3458251953125</t>
   </si>
   <si>
     <t xml:space="preserve">44.4669647216797</t>
@@ -3131,10 +3131,10 @@
     <t xml:space="preserve">45.2336349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4958305358887</t>
+    <t xml:space="preserve">45.0746879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4958381652832</t>
   </si>
   <si>
     <t xml:space="preserve">47.0287666320801</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">46.8791694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7482757568359</t>
+    <t xml:space="preserve">46.7482795715332</t>
   </si>
   <si>
     <t xml:space="preserve">45.4580192565918</t>
@@ -3155,19 +3155,19 @@
     <t xml:space="preserve">44.7100524902344</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9344482421875</t>
+    <t xml:space="preserve">44.9344444274902</t>
   </si>
   <si>
     <t xml:space="preserve">44.878345489502</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9807777404785</t>
+    <t xml:space="preserve">43.9807815551758</t>
   </si>
   <si>
     <t xml:space="preserve">45.0185890197754</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6726531982422</t>
+    <t xml:space="preserve">44.6726493835449</t>
   </si>
   <si>
     <t xml:space="preserve">44.2706184387207</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">45.2803802490234</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5511093139648</t>
+    <t xml:space="preserve">44.5511054992676</t>
   </si>
   <si>
     <t xml:space="preserve">45.5047721862793</t>
@@ -3185,10 +3185,10 @@
     <t xml:space="preserve">46.3649406433105</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2612686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.186466217041</t>
+    <t xml:space="preserve">44.2612762451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1864738464355</t>
   </si>
   <si>
     <t xml:space="preserve">44.9624938964844</t>
@@ -3197,25 +3197,25 @@
     <t xml:space="preserve">44.373462677002</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8035507202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8129043579102</t>
+    <t xml:space="preserve">44.8035469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8129005432129</t>
   </si>
   <si>
     <t xml:space="preserve">46.7669792175293</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5336456298828</t>
+    <t xml:space="preserve">47.5336494445801</t>
   </si>
   <si>
     <t xml:space="preserve">48.2255249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7304039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3003158569336</t>
+    <t xml:space="preserve">48.7304077148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3003196716309</t>
   </si>
   <si>
     <t xml:space="preserve">48.5995101928711</t>
@@ -3227,67 +3227,67 @@
     <t xml:space="preserve">48.8052024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4499092102051</t>
+    <t xml:space="preserve">48.4499130249023</t>
   </si>
   <si>
     <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2905578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8523635864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5247192382812</t>
+    <t xml:space="preserve">47.2905616760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.852367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5247116088867</t>
   </si>
   <si>
     <t xml:space="preserve">47.8889350891113</t>
   </si>
   <si>
-    <t xml:space="preserve">48.105884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2379341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.388858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2000541687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5584907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7661552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6719856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.738166809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8985214233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.464469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7947616577148</t>
+    <t xml:space="preserve">48.1058807373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2379379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3888549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2000503540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5584945678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7661590576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.671989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7381629943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8985176086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4644660949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7947578430176</t>
   </si>
   <si>
     <t xml:space="preserve">48.8793487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0868682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4077224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5209159851074</t>
+    <t xml:space="preserve">49.0868644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4077186584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5209121704102</t>
   </si>
   <si>
     <t xml:space="preserve">47.898365020752</t>
@@ -3296,31 +3296,31 @@
     <t xml:space="preserve">47.2569541931152</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6344108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4080238342285</t>
+    <t xml:space="preserve">46.634407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4080276489258</t>
   </si>
   <si>
     <t xml:space="preserve">45.2289619445801</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4459075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4930725097656</t>
+    <t xml:space="preserve">45.4459114074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4930763244629</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0967559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8796539306641</t>
+    <t xml:space="preserve">46.4174575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.096752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8796577453613</t>
   </si>
   <si>
     <t xml:space="preserve">47.9549598693848</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">47.5022010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2946853637695</t>
+    <t xml:space="preserve">47.2946815490723</t>
   </si>
   <si>
     <t xml:space="preserve">47.6531219482422</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">48.426586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3701477050781</t>
+    <t xml:space="preserve">47.3701438903809</t>
   </si>
   <si>
     <t xml:space="preserve">49.3887062072754</t>
@@ -3365,16 +3365,16 @@
     <t xml:space="preserve">48.1247444152832</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5586433410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4267349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5020446777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3511238098145</t>
+    <t xml:space="preserve">48.5586395263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4267387390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5020484924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3511276245117</t>
   </si>
   <si>
     <t xml:space="preserve">48.8038902282715</t>
@@ -3386,49 +3386,49 @@
     <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6718292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.011402130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7660064697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5207633972168</t>
+    <t xml:space="preserve">48.6718330383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0114059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7660026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5207595825195</t>
   </si>
   <si>
     <t xml:space="preserve">50.2753601074219</t>
   </si>
   <si>
-    <t xml:space="preserve">50.539478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6333999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2802467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7939147949219</t>
+    <t xml:space="preserve">50.5394744873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6333961486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2802429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7939186096191</t>
   </si>
   <si>
     <t xml:space="preserve">54.2207794189453</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2100715637207</t>
+    <t xml:space="preserve">55.210075378418</t>
   </si>
   <si>
     <t xml:space="preserve">55.2861709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">54.6583480834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8485984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3432426452637</t>
+    <t xml:space="preserve">54.6583518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8485946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3432464599609</t>
   </si>
   <si>
     <t xml:space="preserve">55.4573936462402</t>
@@ -3443,7 +3443,7 @@
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305290222168</t>
+    <t xml:space="preserve">54.0305252075195</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
@@ -3452,13 +3452,13 @@
     <t xml:space="preserve">54.3349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1149482727051</t>
+    <t xml:space="preserve">55.1149444580078</t>
   </si>
   <si>
     <t xml:space="preserve">55.4764175415039</t>
   </si>
   <si>
-    <t xml:space="preserve">55.7427635192871</t>
+    <t xml:space="preserve">55.7427673339844</t>
   </si>
   <si>
     <t xml:space="preserve">55.2671432495117</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">54.5442047119141</t>
   </si>
   <si>
-    <t xml:space="preserve">52.641716003418</t>
+    <t xml:space="preserve">52.6417198181152</t>
   </si>
   <si>
     <t xml:space="preserve">53.6119842529297</t>
@@ -3518,13 +3518,13 @@
     <t xml:space="preserve">53.3266143798828</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3920021057129</t>
+    <t xml:space="preserve">54.3920059204102</t>
   </si>
   <si>
     <t xml:space="preserve">54.9627456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8569145202637</t>
+    <t xml:space="preserve">55.8569183349609</t>
   </si>
   <si>
     <t xml:space="preserve">56.6940040588379</t>
@@ -3533,10 +3533,10 @@
     <t xml:space="preserve">57.0174255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">56.7510833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0959205627441</t>
+    <t xml:space="preserve">56.7510795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0959167480469</t>
   </si>
   <si>
     <t xml:space="preserve">55.1720199584961</t>
@@ -3548,16 +3548,16 @@
     <t xml:space="preserve">55.9330139160156</t>
   </si>
   <si>
-    <t xml:space="preserve">55.761791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8462066650391</t>
+    <t xml:space="preserve">55.7617874145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8462028503418</t>
   </si>
   <si>
     <t xml:space="preserve">58.215991973877</t>
   </si>
   <si>
-    <t xml:space="preserve">58.5964889526367</t>
+    <t xml:space="preserve">58.5964851379395</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
@@ -3566,13 +3566,13 @@
     <t xml:space="preserve">58.8628387451172</t>
   </si>
   <si>
-    <t xml:space="preserve">57.702320098877</t>
+    <t xml:space="preserve">57.7023239135742</t>
   </si>
   <si>
     <t xml:space="preserve">57.1315803527832</t>
   </si>
   <si>
-    <t xml:space="preserve">55.6286163330078</t>
+    <t xml:space="preserve">55.6286125183105</t>
   </si>
   <si>
     <t xml:space="preserve">52.2231750488281</t>
@@ -3581,16 +3581,16 @@
     <t xml:space="preserve">51.2909545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">51.994873046875</t>
+    <t xml:space="preserve">51.9948768615723</t>
   </si>
   <si>
     <t xml:space="preserve">51.9187774658203</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5382804870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6904754638672</t>
+    <t xml:space="preserve">51.5382766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6904792785645</t>
   </si>
   <si>
     <t xml:space="preserve">51.9568214416504</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">51.557300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1851234436035</t>
+    <t xml:space="preserve">52.1851196289062</t>
   </si>
   <si>
     <t xml:space="preserve">52.1470718383789</t>
@@ -3623,13 +3623,13 @@
     <t xml:space="preserve">51.9758491516113</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9377975463867</t>
+    <t xml:space="preserve">51.9377937316895</t>
   </si>
   <si>
     <t xml:space="preserve">49.2552947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">49.1791954040527</t>
+    <t xml:space="preserve">49.17919921875</t>
   </si>
   <si>
     <t xml:space="preserve">50.4348373413086</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">51.7094993591309</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5465965270996</t>
+    <t xml:space="preserve">52.5465927124023</t>
   </si>
   <si>
     <t xml:space="preserve">52.3182945251465</t>
@@ -3662,13 +3662,13 @@
     <t xml:space="preserve">52.9270896911621</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1553916931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.1827278137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.6880798339844</t>
+    <t xml:space="preserve">53.155387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.1827239990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6880836486816</t>
   </si>
   <si>
     <t xml:space="preserve">53.6500358581543</t>
@@ -3677,16 +3677,16 @@
     <t xml:space="preserve">55.9520378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">55.7047157287598</t>
+    <t xml:space="preserve">55.704719543457</t>
   </si>
   <si>
     <t xml:space="preserve">56.8271827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">57.3028030395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0447731018066</t>
+    <t xml:space="preserve">57.302806854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0447692871094</t>
   </si>
   <si>
     <t xml:space="preserve">58.1208686828613</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">57.6642723083496</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2457275390625</t>
+    <t xml:space="preserve">57.2457237243652</t>
   </si>
   <si>
     <t xml:space="preserve">58.2350196838379</t>
@@ -3719,16 +3719,16 @@
     <t xml:space="preserve">64.3039398193359</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8366317749023</t>
+    <t xml:space="preserve">64.8366394042969</t>
   </si>
   <si>
     <t xml:space="preserve">62.8009757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1160888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.2195281982422</t>
+    <t xml:space="preserve">62.1160850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.2195205688477</t>
   </si>
   <si>
     <t xml:space="preserve">64.3610153198242</t>
@@ -3737,10 +3737,10 @@
     <t xml:space="preserve">65.198112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7878875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6737289428711</t>
+    <t xml:space="preserve">65.7878799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6737365722656</t>
   </si>
   <si>
     <t xml:space="preserve">65.0078582763672</t>
@@ -3752,13 +3752,13 @@
     <t xml:space="preserve">65.4073867797852</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9341506958008</t>
+    <t xml:space="preserve">62.9341583251953</t>
   </si>
   <si>
     <t xml:space="preserve">63.3146476745605</t>
   </si>
   <si>
-    <t xml:space="preserve">63.7331924438477</t>
+    <t xml:space="preserve">63.7332000732422</t>
   </si>
   <si>
     <t xml:space="preserve">59.6618804931641</t>
@@ -3767,16 +3767,16 @@
     <t xml:space="preserve">61.4502143859863</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9555702209473</t>
+    <t xml:space="preserve">60.9555740356445</t>
   </si>
   <si>
     <t xml:space="preserve">62.420482635498</t>
   </si>
   <si>
-    <t xml:space="preserve">62.3253555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638862609863</t>
+    <t xml:space="preserve">62.3253517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638824462891</t>
   </si>
   <si>
     <t xml:space="preserve">63.0863494873047</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">63.5619697570801</t>
   </si>
   <si>
-    <t xml:space="preserve">62.8390235900879</t>
+    <t xml:space="preserve">62.8390312194824</t>
   </si>
   <si>
     <t xml:space="preserve">62.0019378662109</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">59.8901786804199</t>
   </si>
   <si>
-    <t xml:space="preserve">61.1077690124512</t>
+    <t xml:space="preserve">61.1077651977539</t>
   </si>
   <si>
     <t xml:space="preserve">61.4311904907227</t>
@@ -3836,31 +3836,31 @@
     <t xml:space="preserve">61.8307113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">62.306339263916</t>
+    <t xml:space="preserve">62.3063354492188</t>
   </si>
   <si>
     <t xml:space="preserve">59.737979888916</t>
   </si>
   <si>
-    <t xml:space="preserve">58.2540435791016</t>
+    <t xml:space="preserve">58.2540473937988</t>
   </si>
   <si>
     <t xml:space="preserve">57.435977935791</t>
   </si>
   <si>
-    <t xml:space="preserve">57.055477142334</t>
+    <t xml:space="preserve">57.0554809570312</t>
   </si>
   <si>
     <t xml:space="preserve">56.1232604980469</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0876045227051</t>
+    <t xml:space="preserve">54.0876083374023</t>
   </si>
   <si>
     <t xml:space="preserve">54.9246978759766</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8022346496582</t>
+    <t xml:space="preserve">53.8022308349609</t>
   </si>
   <si>
     <t xml:space="preserve">55.5334930419922</t>
@@ -3875,13 +3875,13 @@
     <t xml:space="preserve">52.4324417114258</t>
   </si>
   <si>
-    <t xml:space="preserve">53.4978408813477</t>
+    <t xml:space="preserve">53.4978370666504</t>
   </si>
   <si>
     <t xml:space="preserve">53.726131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7368392944336</t>
+    <t xml:space="preserve">52.7368431091309</t>
   </si>
   <si>
     <t xml:space="preserve">53.592960357666</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">56.5227813720703</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0578727722168</t>
+    <t xml:space="preserve">55.0578765869141</t>
   </si>
   <si>
     <t xml:space="preserve">55.32421875</t>
@@ -3908,10 +3908,10 @@
     <t xml:space="preserve">53.3075866699219</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3943939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.128044128418</t>
+    <t xml:space="preserve">52.3943977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1280479431152</t>
   </si>
   <si>
     <t xml:space="preserve">52.0709762573242</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">43.1007652282715</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4348945617676</t>
+    <t xml:space="preserve">42.4348907470703</t>
   </si>
   <si>
     <t xml:space="preserve">45.9925346374512</t>
@@ -3971,13 +3971,13 @@
     <t xml:space="preserve">47.3432998657227</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8581619262695</t>
+    <t xml:space="preserve">46.8581657409668</t>
   </si>
   <si>
     <t xml:space="preserve">47.248176574707</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3242797851562</t>
+    <t xml:space="preserve">47.324275970459</t>
   </si>
   <si>
     <t xml:space="preserve">49.9782447814941</t>
@@ -3995,19 +3995,19 @@
     <t xml:space="preserve">50.396785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">48.018684387207</t>
+    <t xml:space="preserve">48.0186805725098</t>
   </si>
   <si>
     <t xml:space="preserve">47.0293922424316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5133247375488</t>
+    <t xml:space="preserve">48.5133285522461</t>
   </si>
   <si>
     <t xml:space="preserve">46.1827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0674438476562</t>
+    <t xml:space="preserve">47.067440032959</t>
   </si>
   <si>
     <t xml:space="preserve">47.505012512207</t>
@@ -4016,10 +4016,10 @@
     <t xml:space="preserve">48.094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2291526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.66552734375</t>
+    <t xml:space="preserve">47.2291564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6655235290527</t>
   </si>
   <si>
     <t xml:space="preserve">47.5811157226562</t>
@@ -4037,16 +4037,16 @@
     <t xml:space="preserve">47.3147659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8284301757812</t>
+    <t xml:space="preserve">47.8284339904785</t>
   </si>
   <si>
     <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6215553283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.955680847168</t>
+    <t xml:space="preserve">45.6215515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9556846618652</t>
   </si>
   <si>
     <t xml:space="preserve">42.4253807067871</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">40.6370468139648</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7904434204102</t>
+    <t xml:space="preserve">39.7904396057129</t>
   </si>
   <si>
     <t xml:space="preserve">40.7702217102051</t>
@@ -4070,7 +4070,7 @@
     <t xml:space="preserve">43.1483268737793</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2161064147949</t>
+    <t xml:space="preserve">42.2161102294922</t>
   </si>
   <si>
     <t xml:space="preserve">43.0627174377441</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">41.569263458252</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9985160827637</t>
+    <t xml:space="preserve">40.9985198974609</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994743347168</t>
@@ -5616,6 +5616,9 @@
   </si>
   <si>
     <t xml:space="preserve">55.0800018310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.9199981689453</t>
   </si>
 </sst>
 </file>
@@ -62741,7 +62744,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6494328704</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>641250</v>
@@ -62762,6 +62765,32 @@
         <v>1867</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6496296296</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>879884</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>54.7599983215332</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>53.560001373291</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>54.7400016784668</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>53.9199981689453</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1877">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2278308868408</t>
+    <t xml:space="preserve">11.2278299331665</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1196117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.993353843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0474634170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1376485824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3270320892334</t>
+    <t xml:space="preserve">11.119610786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9933528900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0474643707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1376466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.327033996582</t>
   </si>
   <si>
     <t xml:space="preserve">12.1206455230713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7869682312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.63365650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089971542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7058029174805</t>
+    <t xml:space="preserve">11.7869663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6336555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089962005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7058019638062</t>
   </si>
   <si>
     <t xml:space="preserve">11.895188331604</t>
@@ -80,22 +80,22 @@
     <t xml:space="preserve">11.5615081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9853706359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.282977104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657361984253</t>
+    <t xml:space="preserve">11.985369682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829751968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657381057739</t>
   </si>
   <si>
     <t xml:space="preserve">12.2919940948486</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2649393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8861684799194</t>
+    <t xml:space="preserve">12.2649402618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8861694335938</t>
   </si>
   <si>
     <t xml:space="preserve">12.2559213638306</t>
@@ -110,22 +110,22 @@
     <t xml:space="preserve">11.9222421646118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0755548477173</t>
+    <t xml:space="preserve">12.0755558013916</t>
   </si>
   <si>
     <t xml:space="preserve">11.5705280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4262361526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1917572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4081954956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0925550460815</t>
+    <t xml:space="preserve">11.4262342453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1917562484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4081964492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0925569534302</t>
   </si>
   <si>
     <t xml:space="preserve">11.4532880783081</t>
@@ -137,58 +137,58 @@
     <t xml:space="preserve">12.0394821166992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5805797576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418251991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4362869262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715627670288</t>
+    <t xml:space="preserve">12.5805807113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4182510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4362878799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715618133545</t>
   </si>
   <si>
     <t xml:space="preserve">11.9583158493042</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3641414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9142589569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1397190093994</t>
+    <t xml:space="preserve">12.3641424179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9142608642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1397171020508</t>
   </si>
   <si>
     <t xml:space="preserve">12.9413146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3922328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5906352996826</t>
+    <t xml:space="preserve">13.3922319412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.590633392334</t>
   </si>
   <si>
     <t xml:space="preserve">13.6627817153931</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587905883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357269287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8972597122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184879302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2208824157715</t>
+    <t xml:space="preserve">14.1587896347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357250213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8070755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8972578048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184888839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2208833694458</t>
   </si>
   <si>
     <t xml:space="preserve">13.238920211792</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">13.1667728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0765895843506</t>
+    <t xml:space="preserve">13.0765886306763</t>
   </si>
   <si>
     <t xml:space="preserve">13.1938285827637</t>
@@ -206,31 +206,31 @@
     <t xml:space="preserve">13.1216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2749948501587</t>
+    <t xml:space="preserve">13.2749938964844</t>
   </si>
   <si>
     <t xml:space="preserve">13.6988544464111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3020486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1577558517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1036443710327</t>
+    <t xml:space="preserve">13.3020477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.157753944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1036434173584</t>
   </si>
   <si>
     <t xml:space="preserve">12.760947227478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9683685302734</t>
+    <t xml:space="preserve">12.9683704376221</t>
   </si>
   <si>
     <t xml:space="preserve">13.0044431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2118644714355</t>
+    <t xml:space="preserve">13.2118654251099</t>
   </si>
   <si>
     <t xml:space="preserve">13.0495347976685</t>
@@ -239,58 +239,58 @@
     <t xml:space="preserve">13.3291025161743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3832130432129</t>
+    <t xml:space="preserve">13.3832139968872</t>
   </si>
   <si>
     <t xml:space="preserve">13.5725984573364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3471412658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8601484298706</t>
+    <t xml:space="preserve">13.3471393585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8601493835449</t>
   </si>
   <si>
     <t xml:space="preserve">12.6797828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7699670791626</t>
+    <t xml:space="preserve">12.7699661254883</t>
   </si>
   <si>
     <t xml:space="preserve">13.148736000061</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1757917404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500452041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489728927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1858444213867</t>
+    <t xml:space="preserve">13.1757907867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004510879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227178573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.185845375061</t>
   </si>
   <si>
     <t xml:space="preserve">14.140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8251132965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.752965927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455436706543</t>
+    <t xml:space="preserve">13.8251113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7529649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.54554271698</t>
   </si>
   <si>
     <t xml:space="preserve">13.5275068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4091625213623</t>
+    <t xml:space="preserve">13.4091634750366</t>
   </si>
   <si>
     <t xml:space="preserve">13.7459850311279</t>
@@ -299,64 +299,64 @@
     <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4546804428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6549520492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7824001312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6458492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.68226146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5457143783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5001955032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8552255630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9189472198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.928050994873</t>
+    <t xml:space="preserve">13.4546813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6549530029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782398223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6458511352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5001964569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8552274703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9189481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9280529022217</t>
   </si>
   <si>
     <t xml:space="preserve">13.4819898605347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3363361358643</t>
+    <t xml:space="preserve">13.3363370895386</t>
   </si>
   <si>
     <t xml:space="preserve">12.8993787765503</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3909568786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.035927772522</t>
+    <t xml:space="preserve">13.3909578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0359287261963</t>
   </si>
   <si>
     <t xml:space="preserve">14.0008783340454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8643293380737</t>
+    <t xml:space="preserve">13.8643274307251</t>
   </si>
   <si>
     <t xml:space="preserve">14.0463953018188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4196310043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1087551116943</t>
+    <t xml:space="preserve">14.4196290969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.10875415802</t>
   </si>
   <si>
     <t xml:space="preserve">12.4715232849121</t>
@@ -365,37 +365,37 @@
     <t xml:space="preserve">12.8720693588257</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272342681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1724767684937</t>
+    <t xml:space="preserve">13.3272323608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.172477722168</t>
   </si>
   <si>
     <t xml:space="preserve">12.7901391983032</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0268259048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0541353225708</t>
+    <t xml:space="preserve">13.0268249511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0541343688965</t>
   </si>
   <si>
     <t xml:space="preserve">13.1451683044434</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0996522903442</t>
+    <t xml:space="preserve">13.0996513366699</t>
   </si>
   <si>
     <t xml:space="preserve">13.3545436859131</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1360645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1269626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9448957443237</t>
+    <t xml:space="preserve">13.1360654830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1269617080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9448947906494</t>
   </si>
   <si>
     <t xml:space="preserve">13.5275058746338</t>
@@ -404,31 +404,31 @@
     <t xml:space="preserve">14.0190839767456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3650102615356</t>
+    <t xml:space="preserve">14.3650093078613</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557706832886</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5652837753296</t>
+    <t xml:space="preserve">14.5652809143066</t>
   </si>
   <si>
     <t xml:space="preserve">14.2739782333374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1465311050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913661956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7915019989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192226409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193574905396</t>
+    <t xml:space="preserve">14.1465301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913652420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7915010452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192216873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193584442139</t>
   </si>
   <si>
     <t xml:space="preserve">14.2102537155151</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">14.0372915267944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2375640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1829433441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1101169586182</t>
+    <t xml:space="preserve">14.2375650405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1829442977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1101160049438</t>
   </si>
   <si>
     <t xml:space="preserve">13.955361366272</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">14.1920480728149</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9462566375732</t>
+    <t xml:space="preserve">13.9462585449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.8825349807739</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732944488525</t>
+    <t xml:space="preserve">13.7732954025269</t>
   </si>
   <si>
     <t xml:space="preserve">13.7095727920532</t>
@@ -467,16 +467,16 @@
     <t xml:space="preserve">13.5366086959839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6003313064575</t>
+    <t xml:space="preserve">13.6003322601318</t>
   </si>
   <si>
     <t xml:space="preserve">13.7004699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9098443984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7186765670776</t>
+    <t xml:space="preserve">13.9098463058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7186756134033</t>
   </si>
   <si>
     <t xml:space="preserve">13.891637802124</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">14.201150894165</t>
   </si>
   <si>
-    <t xml:space="preserve">14.264874458313</t>
+    <t xml:space="preserve">14.2648735046387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6367444992065</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">13.8279151916504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9735670089722</t>
+    <t xml:space="preserve">13.9735698699951</t>
   </si>
   <si>
     <t xml:space="preserve">13.6640567779541</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">14.0281887054443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2921848297119</t>
+    <t xml:space="preserve">14.2921838760376</t>
   </si>
   <si>
     <t xml:space="preserve">14.0828084945679</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1556358337402</t>
+    <t xml:space="preserve">14.1556339263916</t>
   </si>
   <si>
     <t xml:space="preserve">14.064600944519</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">13.5730218887329</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6731586456299</t>
+    <t xml:space="preserve">13.6731595993042</t>
   </si>
   <si>
     <t xml:space="preserve">13.5184030532837</t>
@@ -545,88 +545,88 @@
     <t xml:space="preserve">13.818811416626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5092992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0554981231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2466678619385</t>
+    <t xml:space="preserve">13.5093002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644651412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0554971694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2466669082642</t>
   </si>
   <si>
     <t xml:space="preserve">14.8474855422974</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8383817672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205835342407</t>
+    <t xml:space="preserve">14.8383808135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.120584487915</t>
   </si>
   <si>
     <t xml:space="preserve">15.3026494979858</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2480306625366</t>
+    <t xml:space="preserve">15.2480297088623</t>
   </si>
   <si>
     <t xml:space="preserve">15.1023769378662</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7473497390747</t>
+    <t xml:space="preserve">14.747350692749</t>
   </si>
   <si>
     <t xml:space="preserve">14.9385175704956</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9749336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750665664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565874099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9021053314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935457229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752042770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.911208152771</t>
+    <t xml:space="preserve">14.9749317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.075065612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931392669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8838987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9021062850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0477571487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935466766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752052307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9112071990967</t>
   </si>
   <si>
     <t xml:space="preserve">14.874794960022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1569967269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6485757827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6849870681763</t>
+    <t xml:space="preserve">15.1569948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6485767364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6849889755249</t>
   </si>
   <si>
     <t xml:space="preserve">15.903468132019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9398832321167</t>
+    <t xml:space="preserve">15.9398813247681</t>
   </si>
   <si>
     <t xml:space="preserve">15.6940927505493</t>
@@ -635,22 +635,22 @@
     <t xml:space="preserve">15.9945011138916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3131141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3859405517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4223556518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4132518768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4678726196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3313255310059</t>
+    <t xml:space="preserve">16.313117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3859424591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4223575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4132537841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4678745269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3313217163086</t>
   </si>
   <si>
     <t xml:space="preserve">16.2493934631348</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">16.1310501098633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8488483428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1492595672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1947765350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765670776367</t>
+    <t xml:space="preserve">15.8488464355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1492557525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1947746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765689849854</t>
   </si>
   <si>
     <t xml:space="preserve">16.1583595275879</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">16.1037406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3950443267822</t>
+    <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
     <t xml:space="preserve">16.3222217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">16.267599105835</t>
+    <t xml:space="preserve">16.2676010131836</t>
   </si>
   <si>
     <t xml:space="preserve">16.1128444671631</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">16.1856727600098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4041481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3326892852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.496545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3964099884033</t>
+    <t xml:space="preserve">16.4041500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.332691192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4965438842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3964061737061</t>
   </si>
   <si>
     <t xml:space="preserve">17.532958984375</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">17.569372177124</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7514400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060569763184</t>
+    <t xml:space="preserve">17.7514419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060607910156</t>
   </si>
   <si>
     <t xml:space="preserve">17.8970928192139</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">18.0973644256592</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2521190643311</t>
+    <t xml:space="preserve">18.2521209716797</t>
   </si>
   <si>
     <t xml:space="preserve">18.4250831604004</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">18.1246738433838</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3067398071289</t>
+    <t xml:space="preserve">18.3067417144775</t>
   </si>
   <si>
     <t xml:space="preserve">18.3340473175049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5707340240479</t>
+    <t xml:space="preserve">18.5707359313965</t>
   </si>
   <si>
     <t xml:space="preserve">18.5161170959473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6617679595947</t>
+    <t xml:space="preserve">18.6617698669434</t>
   </si>
   <si>
     <t xml:space="preserve">18.415979385376</t>
@@ -761,61 +761,61 @@
     <t xml:space="preserve">18.6890811920166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8711471557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1897583007812</t>
+    <t xml:space="preserve">18.8711452484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1897621154785</t>
   </si>
   <si>
     <t xml:space="preserve">19.4901695251465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4992713928223</t>
+    <t xml:space="preserve">19.4992752075195</t>
   </si>
   <si>
     <t xml:space="preserve">19.4628582000732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7450618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.371826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4719619750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5811977386475</t>
+    <t xml:space="preserve">19.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3718280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.471960067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5811996459961</t>
   </si>
   <si>
     <t xml:space="preserve">19.7996807098389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9635391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7268505096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8451957702637</t>
+    <t xml:space="preserve">19.9635410308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7268562316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8451976776123</t>
   </si>
   <si>
     <t xml:space="preserve">19.7814750671387</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4642238616943</t>
+    <t xml:space="preserve">20.464225769043</t>
   </si>
   <si>
     <t xml:space="preserve">20.7100124359131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6280822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9466972351074</t>
+    <t xml:space="preserve">20.628080368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9466953277588</t>
   </si>
   <si>
     <t xml:space="preserve">21.1196613311768</t>
@@ -824,40 +824,40 @@
     <t xml:space="preserve">21.4018611907959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7555255889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.054573059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2730541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1638126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2548446655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1456050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.263952255249</t>
+    <t xml:space="preserve">20.7555274963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0545749664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2730522155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1638145446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2548484802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1456069946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2639484405518</t>
   </si>
   <si>
     <t xml:space="preserve">19.6540279388428</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8178863525391</t>
+    <t xml:space="preserve">19.8178882598877</t>
   </si>
   <si>
     <t xml:space="preserve">19.9188594818115</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9922924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8729610443115</t>
+    <t xml:space="preserve">19.9922904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8729629516602</t>
   </si>
   <si>
     <t xml:space="preserve">19.7536354064941</t>
@@ -869,43 +869,43 @@
     <t xml:space="preserve">19.4966144561768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9005012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5425109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1845226287842</t>
+    <t xml:space="preserve">19.9004993438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9739360809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5425128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1845207214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.2671356201172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2304191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3405666351318</t>
+    <t xml:space="preserve">19.2304210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3405685424805</t>
   </si>
   <si>
     <t xml:space="preserve">18.8357124328613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0927333831787</t>
+    <t xml:space="preserve">19.0927314758301</t>
   </si>
   <si>
     <t xml:space="preserve">19.3864650726318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3038501739502</t>
+    <t xml:space="preserve">19.3038520812988</t>
   </si>
   <si>
     <t xml:space="preserve">19.6067657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4874362945557</t>
+    <t xml:space="preserve">19.487434387207</t>
   </si>
   <si>
     <t xml:space="preserve">19.8821411132812</t>
@@ -926,28 +926,28 @@
     <t xml:space="preserve">19.202880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6245918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8173542022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8907890319824</t>
+    <t xml:space="preserve">18.6245937347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8173561096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8907871246338</t>
   </si>
   <si>
     <t xml:space="preserve">18.8540744781494</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0651950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9917583465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8632488250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3681087493896</t>
+    <t xml:space="preserve">19.0651931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9917602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8632507324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.368106842041</t>
   </si>
   <si>
     <t xml:space="preserve">19.5516891479492</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">19.643482208252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6710224151611</t>
+    <t xml:space="preserve">19.6710205078125</t>
   </si>
   <si>
     <t xml:space="preserve">19.7169151306152</t>
@@ -965,40 +965,40 @@
     <t xml:space="preserve">19.6985549926758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5333347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4598999023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5155086517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.744987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8367767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6348361968994</t>
+    <t xml:space="preserve">19.533332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4598979949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5155067443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7449855804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8367786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6348342895508</t>
   </si>
   <si>
     <t xml:space="preserve">20.5338649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6715545654297</t>
+    <t xml:space="preserve">20.6715526580811</t>
   </si>
   <si>
     <t xml:space="preserve">20.6072978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6807327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256561279297</t>
+    <t xml:space="preserve">20.6531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6807346343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256580352783</t>
   </si>
   <si>
     <t xml:space="preserve">21.1305122375488</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">21.4334259033203</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8373126983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6720867156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6353664398193</t>
+    <t xml:space="preserve">21.8373107910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.672082901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.635368347168</t>
   </si>
   <si>
     <t xml:space="preserve">21.717981338501</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">21.4976825714111</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1580486297607</t>
+    <t xml:space="preserve">21.1580467224121</t>
   </si>
   <si>
     <t xml:space="preserve">21.5619354248047</t>
@@ -1037,34 +1037,34 @@
     <t xml:space="preserve">21.9107456207275</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1953010559082</t>
+    <t xml:space="preserve">22.1952991485596</t>
   </si>
   <si>
     <t xml:space="preserve">22.0392551422119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0943298339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2962703704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4614944458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7368717193604</t>
+    <t xml:space="preserve">22.094331741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2962741851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4614963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.736873626709</t>
   </si>
   <si>
     <t xml:space="preserve">22.6726207733154</t>
   </si>
   <si>
-    <t xml:space="preserve">22.902099609375</t>
+    <t xml:space="preserve">22.9020977020264</t>
   </si>
   <si>
     <t xml:space="preserve">22.9204559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8103065490723</t>
+    <t xml:space="preserve">22.8103084564209</t>
   </si>
   <si>
     <t xml:space="preserve">22.5441074371338</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">22.5532875061035</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2595520019531</t>
+    <t xml:space="preserve">22.2595539093018</t>
   </si>
   <si>
     <t xml:space="preserve">22.1218662261963</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">22.4431381225586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1402263641357</t>
+    <t xml:space="preserve">22.1402244567871</t>
   </si>
   <si>
     <t xml:space="preserve">22.0484313964844</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">21.7638759613037</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4523162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5808258056641</t>
+    <t xml:space="preserve">22.4523181915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5808277130127</t>
   </si>
   <si>
     <t xml:space="preserve">22.3605251312256</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5900077819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6542568206787</t>
+    <t xml:space="preserve">22.5900039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.654260635376</t>
   </si>
   <si>
     <t xml:space="preserve">22.7001533508301</t>
@@ -1127,46 +1127,46 @@
     <t xml:space="preserve">22.2870922088623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7460517883301</t>
+    <t xml:space="preserve">22.7460536956787</t>
   </si>
   <si>
     <t xml:space="preserve">22.8653812408447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6634387969971</t>
+    <t xml:space="preserve">22.6634368896484</t>
   </si>
   <si>
     <t xml:space="preserve">22.4247798919678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.378885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3054485321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2411975860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1494045257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667934417725</t>
+    <t xml:space="preserve">22.3788814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3054504394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2411937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1494026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667915344238</t>
   </si>
   <si>
     <t xml:space="preserve">20.9285678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3508148193359</t>
+    <t xml:space="preserve">21.3508129119873</t>
   </si>
   <si>
     <t xml:space="preserve">21.2957401275635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9561061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0570812225342</t>
+    <t xml:space="preserve">20.9561080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0570774078369</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377498626709</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">21.3875293731689</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3783512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.424243927002</t>
+    <t xml:space="preserve">21.3783531188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4242458343506</t>
   </si>
   <si>
     <t xml:space="preserve">21.112154006958</t>
@@ -1187,52 +1187,52 @@
     <t xml:space="preserve">21.1396942138672</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7271595001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7088012695312</t>
+    <t xml:space="preserve">21.0846138000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7271614074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7088031768799</t>
   </si>
   <si>
     <t xml:space="preserve">22.250373840332</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7735900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.819486618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1958312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6267242431641</t>
+    <t xml:space="preserve">22.7735919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194847106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1958332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6267223358154</t>
   </si>
   <si>
     <t xml:space="preserve">23.140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2141933441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1224002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4069538116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5721817016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9760627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2330837249756</t>
+    <t xml:space="preserve">23.2141914367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1224021911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4069519042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5721778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9760646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.233081817627</t>
   </si>
   <si>
     <t xml:space="preserve">23.9393463134766</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">23.4987449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.957706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8108367919922</t>
+    <t xml:space="preserve">23.9577045440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8108386993408</t>
   </si>
   <si>
     <t xml:space="preserve">23.8659133911133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5171051025391</t>
+    <t xml:space="preserve">23.5171031951904</t>
   </si>
   <si>
     <t xml:space="preserve">23.1315784454346</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">23.0948619842529</t>
   </si>
   <si>
-    <t xml:space="preserve">23.351879119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1412887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6736812591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8205490112305</t>
+    <t xml:space="preserve">23.3518810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1412868499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6736831665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8205509185791</t>
   </si>
   <si>
     <t xml:space="preserve">24.5818920135498</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">24.7103996276855</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8389091491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8572673797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6186084747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4442024230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.36159324646</t>
+    <t xml:space="preserve">24.8389072418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8572654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6186065673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4442005157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3615913391113</t>
   </si>
   <si>
     <t xml:space="preserve">24.5451717376709</t>
@@ -1304,37 +1304,37 @@
     <t xml:space="preserve">23.7833003997803</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6920413970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6088962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3707656860352</t>
+    <t xml:space="preserve">24.6920394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6088943481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3707695007324</t>
   </si>
   <si>
     <t xml:space="preserve">24.9949550628662</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0230255126953</t>
+    <t xml:space="preserve">26.0230274200439</t>
   </si>
   <si>
     <t xml:space="preserve">26.114818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7751884460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9128742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9312324523926</t>
+    <t xml:space="preserve">25.7751865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9128723144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9312343597412</t>
   </si>
   <si>
     <t xml:space="preserve">25.8119049072266</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7384700775146</t>
+    <t xml:space="preserve">25.7384719848633</t>
   </si>
   <si>
     <t xml:space="preserve">25.9863090515137</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">26.3442974090576</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6650333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6099586486816</t>
+    <t xml:space="preserve">25.6650371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6099605560303</t>
   </si>
   <si>
     <t xml:space="preserve">26.0505619049072</t>
@@ -1364,70 +1364,70 @@
     <t xml:space="preserve">26.7665386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8675117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.032735824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8491516113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1796054840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.115348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3264694213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8405075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3270034790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9506587982178</t>
+    <t xml:space="preserve">26.8675136566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0327377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8491535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1796073913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1153507232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3264713287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8405055999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3270015716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9506568908691</t>
   </si>
   <si>
     <t xml:space="preserve">28.0975246429443</t>
   </si>
   <si>
-    <t xml:space="preserve">28.051628112793</t>
+    <t xml:space="preserve">28.0516262054443</t>
   </si>
   <si>
     <t xml:space="preserve">28.2994651794434</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3637199401855</t>
+    <t xml:space="preserve">28.3637180328369</t>
   </si>
   <si>
     <t xml:space="preserve">30.1720218658447</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8323955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2179183959961</t>
+    <t xml:space="preserve">29.8323917388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2179164886475</t>
   </si>
   <si>
     <t xml:space="preserve">30.5667266845703</t>
   </si>
   <si>
-    <t xml:space="preserve">30.649341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3188896179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9797916412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2459869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8971824645996</t>
+    <t xml:space="preserve">30.6493396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3188858032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9797878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2459907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8971786499023</t>
   </si>
   <si>
     <t xml:space="preserve">31.6315116882324</t>
@@ -1436,25 +1436,25 @@
     <t xml:space="preserve">32.3383102416992</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1455535888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4576454162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3566741943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0634689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1368980407715</t>
+    <t xml:space="preserve">32.1455497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4576416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3566703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0634727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1369018554688</t>
   </si>
   <si>
     <t xml:space="preserve">33.412281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9171333312988</t>
+    <t xml:space="preserve">33.9171371459961</t>
   </si>
   <si>
     <t xml:space="preserve">34.3669128417969</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">34.8809509277344</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5040702819824</t>
+    <t xml:space="preserve">33.5040740966797</t>
   </si>
   <si>
     <t xml:space="preserve">32.7421989440918</t>
@@ -1472,43 +1472,43 @@
     <t xml:space="preserve">33.485710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5316047668457</t>
+    <t xml:space="preserve">33.531608581543</t>
   </si>
   <si>
     <t xml:space="preserve">33.7702674865723</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1466102600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.541316986084</t>
+    <t xml:space="preserve">34.146614074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5413208007812</t>
   </si>
   <si>
     <t xml:space="preserve">34.5596809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8625946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7162590026855</t>
+    <t xml:space="preserve">34.8625907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7162551879883</t>
   </si>
   <si>
     <t xml:space="preserve">36.1660423278809</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9256706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9457092285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.187629699707</t>
+    <t xml:space="preserve">35.925666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9457130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1876258850098</t>
   </si>
   <si>
     <t xml:space="preserve">34.9734497070312</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2954597473145</t>
+    <t xml:space="preserve">36.295467376709</t>
   </si>
   <si>
     <t xml:space="preserve">36.498851776123</t>
@@ -1517,46 +1517,46 @@
     <t xml:space="preserve">35.3432426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6390800476074</t>
+    <t xml:space="preserve">35.6390762329102</t>
   </si>
   <si>
     <t xml:space="preserve">36.3047103881836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.332447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8316688537598</t>
+    <t xml:space="preserve">36.3324432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.831672668457</t>
   </si>
   <si>
     <t xml:space="preserve">38.2184028625488</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8023834228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7484664916992</t>
+    <t xml:space="preserve">37.8023872375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7484703063965</t>
   </si>
   <si>
     <t xml:space="preserve">37.7838973999023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1074638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4217948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9949722290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.884033203125</t>
+    <t xml:space="preserve">38.1074714660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4217910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9949798583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8840370178223</t>
   </si>
   <si>
     <t xml:space="preserve">38.3385887145996</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1552429199219</t>
+    <t xml:space="preserve">37.1552391052246</t>
   </si>
   <si>
     <t xml:space="preserve">36.8409156799316</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">36.7761993408203</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5820541381836</t>
+    <t xml:space="preserve">36.5820579528809</t>
   </si>
   <si>
     <t xml:space="preserve">35.8979377746582</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">36.0550994873047</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8332214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919319152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4187545776367</t>
+    <t xml:space="preserve">35.8332176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919395446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4187507629395</t>
   </si>
   <si>
     <t xml:space="preserve">34.2061195373535</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">34.760814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5373840332031</t>
+    <t xml:space="preserve">35.5373802185059</t>
   </si>
   <si>
     <t xml:space="preserve">34.6498756408691</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">35.3155097961426</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0828285217285</t>
+    <t xml:space="preserve">36.082836151123</t>
   </si>
   <si>
     <t xml:space="preserve">35.6020965576172</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1105728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9534072875977</t>
+    <t xml:space="preserve">36.1105690002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9534034729004</t>
   </si>
   <si>
     <t xml:space="preserve">35.8702011108398</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">35.722282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6560173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3617362976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.167594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2708320617676</t>
+    <t xml:space="preserve">36.6560211181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3617324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1675910949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2708358764648</t>
   </si>
   <si>
     <t xml:space="preserve">34.8717498779297</t>
@@ -1643,49 +1643,49 @@
     <t xml:space="preserve">34.6683654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8733062744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7330780029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8440132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.010425567627</t>
+    <t xml:space="preserve">33.8733024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.733081817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8440170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0104217529297</t>
   </si>
   <si>
     <t xml:space="preserve">35.2045707702637</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0936279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4834671020508</t>
+    <t xml:space="preserve">35.0936317443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4834632873535</t>
   </si>
   <si>
     <t xml:space="preserve">35.2970199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">34.954963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2692909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0643463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7114868164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6467704772949</t>
+    <t xml:space="preserve">34.9549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.269287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7114906311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6467781066895</t>
   </si>
   <si>
     <t xml:space="preserve">36.8131828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0181198120117</t>
+    <t xml:space="preserve">36.0181159973145</t>
   </si>
   <si>
     <t xml:space="preserve">35.9903869628906</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">34.2985649108887</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7515678405762</t>
+    <t xml:space="preserve">34.7515716552734</t>
   </si>
   <si>
     <t xml:space="preserve">34.8070411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7700614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2600326538086</t>
+    <t xml:space="preserve">34.7700576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2600364685059</t>
   </si>
   <si>
     <t xml:space="preserve">34.4464874267578</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">35.0843887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8902397155762</t>
+    <t xml:space="preserve">34.8902473449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.0658950805664</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">34.9826927185059</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5481796264648</t>
+    <t xml:space="preserve">34.5481758117676</t>
   </si>
   <si>
     <t xml:space="preserve">34.8810005187988</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1398468017578</t>
+    <t xml:space="preserve">35.1398506164551</t>
   </si>
   <si>
     <t xml:space="preserve">35.7037925720215</t>
@@ -1739,70 +1739,70 @@
     <t xml:space="preserve">35.4172019958496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4295463562012</t>
+    <t xml:space="preserve">33.4295501708984</t>
   </si>
   <si>
     <t xml:space="preserve">32.2646942138672</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9025917053223</t>
+    <t xml:space="preserve">32.902587890625</t>
   </si>
   <si>
     <t xml:space="preserve">29.3340606689453</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9180374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5852222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305290222168</t>
+    <t xml:space="preserve">28.9180393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5852241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305309295654</t>
   </si>
   <si>
     <t xml:space="preserve">28.649938583374</t>
   </si>
   <si>
-    <t xml:space="preserve">28.788610458374</t>
+    <t xml:space="preserve">28.7886066436768</t>
   </si>
   <si>
     <t xml:space="preserve">28.8440818786621</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1044883728027</t>
+    <t xml:space="preserve">28.1044864654541</t>
   </si>
   <si>
     <t xml:space="preserve">28.17844581604</t>
   </si>
   <si>
-    <t xml:space="preserve">27.022834777832</t>
+    <t xml:space="preserve">27.0228366851807</t>
   </si>
   <si>
     <t xml:space="preserve">27.6422443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2893867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473266601562</t>
+    <t xml:space="preserve">28.2893848419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473247528076</t>
   </si>
   <si>
     <t xml:space="preserve">27.5497932434082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9195880889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3818340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4742832183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9534702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5929145812988</t>
+    <t xml:space="preserve">27.9195899963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4742813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9534683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5929164886475</t>
   </si>
   <si>
     <t xml:space="preserve">29.3710403442383</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">29.5282020568848</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0844459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8271408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4357528686523</t>
+    <t xml:space="preserve">29.0844478607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8271389007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.435754776001</t>
   </si>
   <si>
     <t xml:space="preserve">28.4095687866211</t>
@@ -1835,28 +1835,28 @@
     <t xml:space="preserve">27.2169799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1799964904785</t>
+    <t xml:space="preserve">27.1799983978271</t>
   </si>
   <si>
     <t xml:space="preserve">27.8086528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5775260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2816925048828</t>
+    <t xml:space="preserve">27.5775279998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0967922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2816944122314</t>
   </si>
   <si>
     <t xml:space="preserve">26.6068153381348</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1876907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1337738037109</t>
+    <t xml:space="preserve">28.1876926422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1337757110596</t>
   </si>
   <si>
     <t xml:space="preserve">27.6792221069336</t>
@@ -1868,28 +1868,28 @@
     <t xml:space="preserve">27.2262229919434</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8302421569824</t>
+    <t xml:space="preserve">25.8302440643311</t>
   </si>
   <si>
     <t xml:space="preserve">25.6730823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">26.310977935791</t>
+    <t xml:space="preserve">26.3109760284424</t>
   </si>
   <si>
     <t xml:space="preserve">26.0151405334473</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4696922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9797134399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5159187316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0521240234375</t>
+    <t xml:space="preserve">25.469690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9797115325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5159130096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0521221160889</t>
   </si>
   <si>
     <t xml:space="preserve">25.4881801605225</t>
@@ -1898,28 +1898,28 @@
     <t xml:space="preserve">25.6915702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9319343566895</t>
+    <t xml:space="preserve">25.9319381713867</t>
   </si>
   <si>
     <t xml:space="preserve">26.7454872131348</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9581184387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7100582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8286914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5590419769287</t>
+    <t xml:space="preserve">26.9581203460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7100563049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8286933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5590381622314</t>
   </si>
   <si>
     <t xml:space="preserve">28.3171215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">28.992000579834</t>
+    <t xml:space="preserve">28.9919986724854</t>
   </si>
   <si>
     <t xml:space="preserve">28.5297527313232</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">27.4296092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">27.401876449585</t>
+    <t xml:space="preserve">27.4018745422363</t>
   </si>
   <si>
     <t xml:space="preserve">27.7069568634033</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">27.7809143066406</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0490188598633</t>
+    <t xml:space="preserve">28.0490207672119</t>
   </si>
   <si>
     <t xml:space="preserve">28.2801399230957</t>
@@ -1946,61 +1946,61 @@
     <t xml:space="preserve">27.7531833648682</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3356094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2616500854492</t>
+    <t xml:space="preserve">28.3356113433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2616481781006</t>
   </si>
   <si>
     <t xml:space="preserve">28.6222019195557</t>
   </si>
   <si>
-    <t xml:space="preserve">30.323263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4157161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0166320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2200183868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6267910003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.859468460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0628528594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586902618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1352577209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3478965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0335693359375</t>
+    <t xml:space="preserve">30.3232612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.415714263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2200222015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6267948150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8594665527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0628566741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1352653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.347900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0335731506348</t>
   </si>
   <si>
     <t xml:space="preserve">31.7562217712402</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2462005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2092208862305</t>
+    <t xml:space="preserve">32.2462043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2092247009277</t>
   </si>
   <si>
     <t xml:space="preserve">32.089038848877</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0797958374023</t>
+    <t xml:space="preserve">32.0797920227051</t>
   </si>
   <si>
     <t xml:space="preserve">31.9041385650635</t>
@@ -2009,16 +2009,16 @@
     <t xml:space="preserve">32.4033660888672</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3386459350586</t>
+    <t xml:space="preserve">32.3386497497559</t>
   </si>
   <si>
     <t xml:space="preserve">31.1737937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6221389770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2523422241211</t>
+    <t xml:space="preserve">34.622142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2523384094238</t>
   </si>
   <si>
     <t xml:space="preserve">33.3740768432617</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">33.2816276550293</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1429557800293</t>
+    <t xml:space="preserve">33.142951965332</t>
   </si>
   <si>
     <t xml:space="preserve">32.9580612182617</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">33.0227699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8748626708984</t>
+    <t xml:space="preserve">32.8748550415039</t>
   </si>
   <si>
     <t xml:space="preserve">33.3648338317871</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">33.6514320373535</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6714706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1722412109375</t>
+    <t xml:space="preserve">32.6714668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1722373962402</t>
   </si>
   <si>
     <t xml:space="preserve">32.8841018676758</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2076644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9657592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0674476623535</t>
+    <t xml:space="preserve">33.2076683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9657554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.067440032959</t>
   </si>
   <si>
     <t xml:space="preserve">34.5944061279297</t>
@@ -2075,34 +2075,34 @@
     <t xml:space="preserve">34.3910140991211</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2631454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6699180603027</t>
+    <t xml:space="preserve">34.3263053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2631416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6699142456055</t>
   </si>
   <si>
     <t xml:space="preserve">33.7438774108887</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5497360229492</t>
+    <t xml:space="preserve">33.549732208252</t>
   </si>
   <si>
     <t xml:space="preserve">33.8825531005859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5682220458984</t>
+    <t xml:space="preserve">33.568229675293</t>
   </si>
   <si>
     <t xml:space="preserve">33.7623672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3355522155762</t>
+    <t xml:space="preserve">34.3355484008789</t>
   </si>
   <si>
     <t xml:space="preserve">34.1414070129395</t>
@@ -2114,256 +2114,256 @@
     <t xml:space="preserve">33.7993431091309</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8085861206055</t>
+    <t xml:space="preserve">33.8085899353027</t>
   </si>
   <si>
     <t xml:space="preserve">33.688404083252</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3817749023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.614444732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9950408935547</t>
+    <t xml:space="preserve">34.3817710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6144485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9950370788574</t>
   </si>
   <si>
     <t xml:space="preserve">32.8471145629883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9010314941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3848724365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1337089538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5697746276855</t>
+    <t xml:space="preserve">33.9010353088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3848762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5697784423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0225677490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3217620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2847747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2937126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6957473754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7237968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2189102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2091503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0408554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8538646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9754123687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5457401275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2563133239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.443302154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0973663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5555000305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1721649169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2469596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7705421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0977783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1075439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2290878295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1827507019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8835639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2477874755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9766502380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7246208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1547012329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5286865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4538917541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9961700439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0055236816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0148735046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7624320983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.837230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.575439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9774742126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5193405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6128387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7063331604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7250328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1457672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.127067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4169082641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4823532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4543075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1640548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7526664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9018478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8916721343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8636264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2656631469727</t>
   </si>
   <si>
     <t xml:space="preserve">33.004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0225677490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3217582702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2847709655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2937126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6957473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7237930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2189064025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2091503143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0408592224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8538665771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9754085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5457401275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4433097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0973701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5555000305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1721649169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2469635009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7705421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0977783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1075401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2290878295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1827545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9770622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8835678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2477874755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9766464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7246208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1547050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5286903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4538917541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9961700439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0990180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0055198669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0148735046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7624359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8372268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.575439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9774742126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5193405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6128349304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7063331604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7250289916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1457672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1270713806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4169082641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4823570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4543113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1640586853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7526664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9018478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8916759490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8636264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2656593322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0042839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8546905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7892417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9290790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6579322814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1908645629883</t>
+    <t xml:space="preserve">32.8546867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7892456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9290714263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6579284667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.190860748291</t>
   </si>
   <si>
     <t xml:space="preserve">32.125415802002</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1538772583008</t>
+    <t xml:space="preserve">33.1538734436035</t>
   </si>
   <si>
     <t xml:space="preserve">32.181510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9851665496826</t>
+    <t xml:space="preserve">31.9851703643799</t>
   </si>
   <si>
     <t xml:space="preserve">31.7888298034668</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7327308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8729724884033</t>
+    <t xml:space="preserve">31.7327270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8729763031006</t>
   </si>
   <si>
     <t xml:space="preserve">32.078670501709</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7798881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5278663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213607788086</t>
+    <t xml:space="preserve">32.7798919677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5278625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213569641113</t>
   </si>
   <si>
     <t xml:space="preserve">33.1819305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9855842590332</t>
+    <t xml:space="preserve">32.9855880737305</t>
   </si>
   <si>
     <t xml:space="preserve">33.0697288513184</t>
@@ -2372,37 +2372,37 @@
     <t xml:space="preserve">33.0884323120117</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8172874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0693168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6758041381836</t>
+    <t xml:space="preserve">32.8172912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0693206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6758060455322</t>
   </si>
   <si>
     <t xml:space="preserve">30.3583335876465</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4985771179199</t>
+    <t xml:space="preserve">30.4985752105713</t>
   </si>
   <si>
     <t xml:space="preserve">30.0123920440674</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1339378356934</t>
+    <t xml:space="preserve">30.133939743042</t>
   </si>
   <si>
     <t xml:space="preserve">30.0497913360596</t>
   </si>
   <si>
-    <t xml:space="preserve">30.255485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7510147094727</t>
+    <t xml:space="preserve">30.2554836273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.751012802124</t>
   </si>
   <si>
     <t xml:space="preserve">30.5733737945557</t>
@@ -2417,19 +2417,19 @@
     <t xml:space="preserve">30.0217437744141</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4237785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6107711791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4611797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0315074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6205348968506</t>
+    <t xml:space="preserve">30.4237766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6107749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.461181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0315036773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6205310821533</t>
   </si>
   <si>
     <t xml:space="preserve">32.2376136779785</t>
@@ -2438,28 +2438,28 @@
     <t xml:space="preserve">31.9758224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8542747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4522399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1436996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0778388977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3863830566406</t>
+    <t xml:space="preserve">31.8542709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4522380828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1437015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0778408050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3863792419434</t>
   </si>
   <si>
     <t xml:space="preserve">30.180685043335</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0965385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3770313262939</t>
+    <t xml:space="preserve">30.0965404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3770294189453</t>
   </si>
   <si>
     <t xml:space="preserve">33.8177032470703</t>
@@ -2471,55 +2471,55 @@
     <t xml:space="preserve">32.4246063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">32.882740020752</t>
+    <t xml:space="preserve">32.8827323913574</t>
   </si>
   <si>
     <t xml:space="preserve">32.9949340820312</t>
   </si>
   <si>
-    <t xml:space="preserve">32.751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6965751647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1920967102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7807159423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5563201904297</t>
+    <t xml:space="preserve">32.7518424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1921043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7807197570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5563278198242</t>
   </si>
   <si>
     <t xml:space="preserve">34.4721794128418</t>
   </si>
   <si>
-    <t xml:space="preserve">34.070140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1823425292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4441337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6872215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2949485778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9957580566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5384521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.641300201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5295143127441</t>
+    <t xml:space="preserve">34.0701446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1823348999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4441299438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6872177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2949523925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9957618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.538459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6413040161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5295181274414</t>
   </si>
   <si>
     <t xml:space="preserve">37.1835784912109</t>
@@ -2534,28 +2534,28 @@
     <t xml:space="preserve">36.3047142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6701812744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4555473327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.072208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3527030944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.614070892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3335838317871</t>
+    <t xml:space="preserve">38.6701774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4555435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0722122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3526992797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6140747070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3335876464844</t>
   </si>
   <si>
     <t xml:space="preserve">38.2400894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6604080200195</t>
+    <t xml:space="preserve">37.6604118347168</t>
   </si>
   <si>
     <t xml:space="preserve">37.810001373291</t>
@@ -2564,16 +2564,16 @@
     <t xml:space="preserve">37.5482177734375</t>
   </si>
   <si>
-    <t xml:space="preserve">37.697811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2307434082031</t>
+    <t xml:space="preserve">37.6978073120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2307395935059</t>
   </si>
   <si>
     <t xml:space="preserve">38.1372489929199</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9876480102539</t>
+    <t xml:space="preserve">37.9876518249512</t>
   </si>
   <si>
     <t xml:space="preserve">37.4640655517578</t>
@@ -2585,19 +2585,19 @@
     <t xml:space="preserve">37.4827690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6510620117188</t>
+    <t xml:space="preserve">37.651065826416</t>
   </si>
   <si>
     <t xml:space="preserve">38.4831848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4644813537598</t>
+    <t xml:space="preserve">38.4644775390625</t>
   </si>
   <si>
     <t xml:space="preserve">38.0624465942383</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1465873718262</t>
+    <t xml:space="preserve">38.1465950012207</t>
   </si>
   <si>
     <t xml:space="preserve">38.8852157592773</t>
@@ -2606,16 +2606,16 @@
     <t xml:space="preserve">39.9417304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9230270385742</t>
+    <t xml:space="preserve">39.9043312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9230308532715</t>
   </si>
   <si>
     <t xml:space="preserve">38.6608238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">37.800651550293</t>
+    <t xml:space="preserve">37.8006553649902</t>
   </si>
   <si>
     <t xml:space="preserve">38.7917213439941</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">36.3327598571777</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7445602416992</t>
+    <t xml:space="preserve">37.744556427002</t>
   </si>
   <si>
     <t xml:space="preserve">36.9872360229492</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">36.8656921386719</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3612213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7819519042969</t>
+    <t xml:space="preserve">37.3612251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7819557189941</t>
   </si>
   <si>
     <t xml:space="preserve">37.0152854919434</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">37.1461791992188</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1364250183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7534980773926</t>
+    <t xml:space="preserve">36.1364212036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7534942626953</t>
   </si>
   <si>
     <t xml:space="preserve">35.6221885681152</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">36.5010566711426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7339668273926</t>
+    <t xml:space="preserve">34.7339744567871</t>
   </si>
   <si>
     <t xml:space="preserve">32.8733863830566</t>
@@ -2687,19 +2687,19 @@
     <t xml:space="preserve">32.9668807983398</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9294891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5270366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5351486206055</t>
+    <t xml:space="preserve">32.9294853210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5270385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5351467132568</t>
   </si>
   <si>
     <t xml:space="preserve">28.1798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4505882263184</t>
+    <t xml:space="preserve">27.450590133667</t>
   </si>
   <si>
     <t xml:space="preserve">24.309103012085</t>
@@ -2708,22 +2708,22 @@
     <t xml:space="preserve">27.7684764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6087074279785</t>
+    <t xml:space="preserve">25.6087055206299</t>
   </si>
   <si>
     <t xml:space="preserve">25.2440700531006</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7115535736084</t>
+    <t xml:space="preserve">25.7115516662598</t>
   </si>
   <si>
     <t xml:space="preserve">25.2627696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3664398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7400150299072</t>
+    <t xml:space="preserve">27.3664417266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7400131225586</t>
   </si>
   <si>
     <t xml:space="preserve">30.3396339416504</t>
@@ -2738,31 +2738,31 @@
     <t xml:space="preserve">31.1250038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2835311889648</t>
+    <t xml:space="preserve">30.2835330963135</t>
   </si>
   <si>
     <t xml:space="preserve">29.9188976287842</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0774307250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0876045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5172729492188</t>
+    <t xml:space="preserve">29.077428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0876064300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5172748565674</t>
   </si>
   <si>
     <t xml:space="preserve">30.7136173248291</t>
   </si>
   <si>
-    <t xml:space="preserve">31.508337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0502033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2750129699707</t>
+    <t xml:space="preserve">31.5083389282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0502071380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2750091552734</t>
   </si>
   <si>
     <t xml:space="preserve">32.9575347900391</t>
@@ -2771,22 +2771,22 @@
     <t xml:space="preserve">31.3119945526123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9941082000732</t>
+    <t xml:space="preserve">30.9941101074219</t>
   </si>
   <si>
     <t xml:space="preserve">31.9384231567383</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2095642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.685567855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.190450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.320930480957</t>
+    <t xml:space="preserve">32.2095603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6855716705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1904468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3209342956543</t>
   </si>
   <si>
     <t xml:space="preserve">30.6481685638428</t>
@@ -2795,19 +2795,19 @@
     <t xml:space="preserve">30.1900386810303</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6388244628906</t>
+    <t xml:space="preserve">30.6388206481934</t>
   </si>
   <si>
     <t xml:space="preserve">29.8160495758057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0961265563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0119819641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1432914733887</t>
+    <t xml:space="preserve">29.0961284637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0119800567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1432876586914</t>
   </si>
   <si>
     <t xml:space="preserve">30.2741851806641</t>
@@ -2816,34 +2816,34 @@
     <t xml:space="preserve">29.198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7693004608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2185001373291</t>
+    <t xml:space="preserve">29.7693023681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2185020446777</t>
   </si>
   <si>
     <t xml:space="preserve">30.8071155548096</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6022491455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.274600982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.498987197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3311080932617</t>
+    <t xml:space="preserve">32.6022453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2745971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4989891052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3311157226562</t>
   </si>
   <si>
     <t xml:space="preserve">32.4713516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4615898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8075275421143</t>
+    <t xml:space="preserve">31.4615917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8075351715088</t>
   </si>
   <si>
     <t xml:space="preserve">31.6672821044922</t>
@@ -2852,16 +2852,16 @@
     <t xml:space="preserve">32.4059028625488</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9388313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2099723815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.509162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5274505615234</t>
+    <t xml:space="preserve">32.938835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2099761962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5091667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5274543762207</t>
   </si>
   <si>
     <t xml:space="preserve">32.1534614562988</t>
@@ -2870,16 +2870,16 @@
     <t xml:space="preserve">32.5648536682129</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8262252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0319137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.38720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6859798431396</t>
+    <t xml:space="preserve">31.826229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0319213867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3872032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6859836578369</t>
   </si>
   <si>
     <t xml:space="preserve">32.396556854248</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">31.7794780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0689010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4896430969238</t>
+    <t xml:space="preserve">31.0689029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4896411895752</t>
   </si>
   <si>
     <t xml:space="preserve">31.4054908752441</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">30.4798755645752</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5079250335693</t>
+    <t xml:space="preserve">30.507926940918</t>
   </si>
   <si>
     <t xml:space="preserve">29.8254013061523</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">29.9843444824219</t>
   </si>
   <si>
-    <t xml:space="preserve">29.89084815979</t>
+    <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
     <t xml:space="preserve">31.3026466369629</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">30.4892272949219</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9375953674316</t>
+    <t xml:space="preserve">29.9375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">29.9562969207764</t>
@@ -2942,43 +2942,43 @@
     <t xml:space="preserve">30.4144268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2928867340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3676795959473</t>
+    <t xml:space="preserve">31.0034561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2928829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3676815032959</t>
   </si>
   <si>
     <t xml:space="preserve">31.573787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2282638549805</t>
+    <t xml:space="preserve">32.2282676696777</t>
   </si>
   <si>
     <t xml:space="preserve">32.6209449768066</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9201393127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3506393432617</t>
+    <t xml:space="preserve">32.9201354980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3506355285645</t>
   </si>
   <si>
     <t xml:space="preserve">35.4632415771484</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7994194030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1262435913086</t>
+    <t xml:space="preserve">34.7994232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1262397766113</t>
   </si>
   <si>
     <t xml:space="preserve">32.9107894897461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4807014465332</t>
+    <t xml:space="preserve">32.4807052612305</t>
   </si>
   <si>
     <t xml:space="preserve">32.89208984375</t>
@@ -2999,10 +2999,10 @@
     <t xml:space="preserve">34.3132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6774559020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0233917236328</t>
+    <t xml:space="preserve">33.6774597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0233955383301</t>
   </si>
   <si>
     <t xml:space="preserve">34.3973808288574</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">34.874210357666</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4075584411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5937232971191</t>
+    <t xml:space="preserve">36.4075546264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5937271118164</t>
   </si>
   <si>
     <t xml:space="preserve">32.630298614502</t>
@@ -3038,10 +3038,10 @@
     <t xml:space="preserve">33.6587562561035</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0046997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3603935241699</t>
+    <t xml:space="preserve">34.004695892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3604011535645</t>
   </si>
   <si>
     <t xml:space="preserve">35.1079559326172</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">37.0994338989258</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1274795532227</t>
+    <t xml:space="preserve">37.1274833679199</t>
   </si>
   <si>
     <t xml:space="preserve">37.8567581176758</t>
@@ -3059,49 +3059,49 @@
     <t xml:space="preserve">37.1087837219238</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2209815979004</t>
+    <t xml:space="preserve">37.2209777832031</t>
   </si>
   <si>
     <t xml:space="preserve">38.408390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3896903991699</t>
+    <t xml:space="preserve">38.3896865844727</t>
   </si>
   <si>
     <t xml:space="preserve">38.1278915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9595985412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9787101745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2405014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1750564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7636756896973</t>
+    <t xml:space="preserve">37.959602355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9787139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2405052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1750602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7636680603027</t>
   </si>
   <si>
     <t xml:space="preserve">38.3429336547852</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4177322387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9974136352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8201866149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3905067443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1384887695312</t>
+    <t xml:space="preserve">38.4177398681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9974098205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.820182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.138484954834</t>
   </si>
   <si>
     <t xml:space="preserve">41.9799537658691</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">44.7661476135254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6263198852539</t>
+    <t xml:space="preserve">45.6263160705566</t>
   </si>
   <si>
     <t xml:space="preserve">45.5421714782715</t>
@@ -3128,10 +3128,10 @@
     <t xml:space="preserve">45.8133125305176</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4669609069824</t>
+    <t xml:space="preserve">45.3458290100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4669647216797</t>
   </si>
   <si>
     <t xml:space="preserve">45.2336311340332</t>
@@ -3140,25 +3140,25 @@
     <t xml:space="preserve">45.0746841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4958305358887</t>
+    <t xml:space="preserve">46.4958381652832</t>
   </si>
   <si>
     <t xml:space="preserve">47.0287666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8791732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7482795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4580230712891</t>
+    <t xml:space="preserve">46.8791694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7482757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4580192565918</t>
   </si>
   <si>
     <t xml:space="preserve">45.4767265319824</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7100486755371</t>
+    <t xml:space="preserve">44.7100524902344</t>
   </si>
   <si>
     <t xml:space="preserve">44.9344444274902</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">44.878345489502</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9807777404785</t>
+    <t xml:space="preserve">43.9807815551758</t>
   </si>
   <si>
     <t xml:space="preserve">45.0185890197754</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">45.2803802490234</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5511093139648</t>
+    <t xml:space="preserve">44.5511054992676</t>
   </si>
   <si>
     <t xml:space="preserve">45.5047721862793</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">46.3649406433105</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2612686157227</t>
+    <t xml:space="preserve">44.2612724304199</t>
   </si>
   <si>
     <t xml:space="preserve">44.1864738464355</t>
@@ -3200,16 +3200,16 @@
     <t xml:space="preserve">44.9624938964844</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3734588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8035469055176</t>
+    <t xml:space="preserve">44.373462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8035430908203</t>
   </si>
   <si>
     <t xml:space="preserve">44.8128967285156</t>
   </si>
   <si>
-    <t xml:space="preserve">46.766975402832</t>
+    <t xml:space="preserve">46.7669792175293</t>
   </si>
   <si>
     <t xml:space="preserve">47.5336494445801</t>
@@ -3221,22 +3221,22 @@
     <t xml:space="preserve">48.7304039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3003158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5995063781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9076385498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8052024841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4499130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3466567993164</t>
+    <t xml:space="preserve">48.3003196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5995101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9076347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8052062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4499092102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
     <t xml:space="preserve">47.2905616760254</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">48.5247116088867</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8889350891113</t>
+    <t xml:space="preserve">47.8889389038086</t>
   </si>
   <si>
     <t xml:space="preserve">48.1058807373047</t>
@@ -3269,22 +3269,22 @@
     <t xml:space="preserve">48.7661590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">47.6719818115234</t>
+    <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
     <t xml:space="preserve">46.738166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8985214233398</t>
+    <t xml:space="preserve">46.8985176086426</t>
   </si>
   <si>
     <t xml:space="preserve">47.464469909668</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7947616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8793487548828</t>
+    <t xml:space="preserve">46.7947578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8793449401855</t>
   </si>
   <si>
     <t xml:space="preserve">49.0868682861328</t>
@@ -3293,28 +3293,28 @@
     <t xml:space="preserve">48.4077224731445</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5209121704102</t>
+    <t xml:space="preserve">48.5209083557129</t>
   </si>
   <si>
     <t xml:space="preserve">47.898365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2569541931152</t>
+    <t xml:space="preserve">47.256950378418</t>
   </si>
   <si>
     <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4080238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289619445801</t>
+    <t xml:space="preserve">46.4080276489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289657592773</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459114074707</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4930725097656</t>
+    <t xml:space="preserve">45.4930763244629</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">47.9549598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6910057067871</t>
+    <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
     <t xml:space="preserve">47.5022010803223</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">47.6531219482422</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5776596069336</t>
+    <t xml:space="preserve">47.5776634216309</t>
   </si>
   <si>
     <t xml:space="preserve">48.5775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4265899658203</t>
+    <t xml:space="preserve">48.426586151123</t>
   </si>
   <si>
     <t xml:space="preserve">47.3701438903809</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">49.3887062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4640121459961</t>
+    <t xml:space="preserve">50.4640159606934</t>
   </si>
   <si>
     <t xml:space="preserve">48.0304183959961</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">48.5020484924316</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3511276245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8038940429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0492820739746</t>
+    <t xml:space="preserve">48.3511238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8038902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0492858886719</t>
   </si>
   <si>
     <t xml:space="preserve">48.6529693603516</t>
@@ -3395,13 +3395,13 @@
     <t xml:space="preserve">48.6718330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">49.011402130127</t>
+    <t xml:space="preserve">49.0114059448242</t>
   </si>
   <si>
     <t xml:space="preserve">49.7660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5207595825195</t>
+    <t xml:space="preserve">49.5207557678223</t>
   </si>
   <si>
     <t xml:space="preserve">50.2753601074219</t>
@@ -3416,13 +3416,13 @@
     <t xml:space="preserve">52.2802429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7939147949219</t>
+    <t xml:space="preserve">52.7939186096191</t>
   </si>
   <si>
     <t xml:space="preserve">54.2207794189453</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2100715637207</t>
+    <t xml:space="preserve">55.210075378418</t>
   </si>
   <si>
     <t xml:space="preserve">55.2861671447754</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">54.6583518981934</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8485984802246</t>
+    <t xml:space="preserve">54.8485946655273</t>
   </si>
   <si>
     <t xml:space="preserve">55.3432464599609</t>
@@ -3440,7 +3440,7 @@
     <t xml:space="preserve">55.4573936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3515625</t>
+    <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
     <t xml:space="preserve">56.0471611022949</t>
@@ -3482,16 +3482,16 @@
     <t xml:space="preserve">54.9056739807129</t>
   </si>
   <si>
-    <t xml:space="preserve">54.810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2778549194336</t>
+    <t xml:space="preserve">54.8105506896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2778511047363</t>
   </si>
   <si>
     <t xml:space="preserve">54.677375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5251770019531</t>
+    <t xml:space="preserve">54.5251731872559</t>
   </si>
   <si>
     <t xml:space="preserve">54.0115051269531</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">54.2398071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5442008972168</t>
+    <t xml:space="preserve">54.5442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">52.641716003418</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">55.8569145202637</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6940078735352</t>
+    <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
     <t xml:space="preserve">57.0174293518066</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">55.0959205627441</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1720161437988</t>
+    <t xml:space="preserve">55.1720199584961</t>
   </si>
   <si>
     <t xml:space="preserve">55.8759422302246</t>
@@ -3563,13 +3563,13 @@
     <t xml:space="preserve">58.2159957885742</t>
   </si>
   <si>
-    <t xml:space="preserve">58.5964889526367</t>
+    <t xml:space="preserve">58.5964851379395</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8628425598145</t>
+    <t xml:space="preserve">58.8628387451172</t>
   </si>
   <si>
     <t xml:space="preserve">57.7023239135742</t>
@@ -3584,16 +3584,16 @@
     <t xml:space="preserve">52.2231750488281</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2909507751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9948692321777</t>
+    <t xml:space="preserve">51.2909545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.994873046875</t>
   </si>
   <si>
     <t xml:space="preserve">51.9187774658203</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5382766723633</t>
+    <t xml:space="preserve">51.538272857666</t>
   </si>
   <si>
     <t xml:space="preserve">51.6904792785645</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">52.1851196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1470756530762</t>
+    <t xml:space="preserve">52.1470718383789</t>
   </si>
   <si>
     <t xml:space="preserve">51.3860778808594</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">52.2612190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8890380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.565616607666</t>
+    <t xml:space="preserve">52.8890419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5656204223633</t>
   </si>
   <si>
     <t xml:space="preserve">52.4895210266113</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">51.9758453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9377975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2552947998047</t>
+    <t xml:space="preserve">51.9377937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.255298614502</t>
   </si>
   <si>
     <t xml:space="preserve">49.17919921875</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">52.3182945251465</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1958274841309</t>
+    <t xml:space="preserve">51.1958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">49.7118911743164</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">53.155387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">54.1827278137207</t>
+    <t xml:space="preserve">54.1827239990234</t>
   </si>
   <si>
     <t xml:space="preserve">53.6880836486816</t>
@@ -3680,13 +3680,13 @@
     <t xml:space="preserve">53.650032043457</t>
   </si>
   <si>
-    <t xml:space="preserve">55.9520378112793</t>
+    <t xml:space="preserve">55.952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">55.704719543457</t>
   </si>
   <si>
-    <t xml:space="preserve">56.8271789550781</t>
+    <t xml:space="preserve">56.8271827697754</t>
   </si>
   <si>
     <t xml:space="preserve">57.3028030395508</t>
@@ -3725,10 +3725,10 @@
     <t xml:space="preserve">64.3039398193359</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8366317749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8009719848633</t>
+    <t xml:space="preserve">64.8366394042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8009757995605</t>
   </si>
   <si>
     <t xml:space="preserve">62.1160850524902</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">64.3610153198242</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1981048583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7878799438477</t>
+    <t xml:space="preserve">65.198112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7878875732422</t>
   </si>
   <si>
     <t xml:space="preserve">65.6737289428711</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">63.7331962585449</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6618804931641</t>
+    <t xml:space="preserve">59.6618843078613</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
@@ -3776,10 +3776,10 @@
     <t xml:space="preserve">60.9555740356445</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4204902648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3253555297852</t>
+    <t xml:space="preserve">62.420482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3253517150879</t>
   </si>
   <si>
     <t xml:space="preserve">61.9638862609863</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">63.086353302002</t>
   </si>
   <si>
-    <t xml:space="preserve">65.9020309448242</t>
+    <t xml:space="preserve">65.9020233154297</t>
   </si>
   <si>
     <t xml:space="preserve">63.8853988647461</t>
@@ -3797,13 +3797,13 @@
     <t xml:space="preserve">63.5619697570801</t>
   </si>
   <si>
-    <t xml:space="preserve">62.8390274047852</t>
+    <t xml:space="preserve">62.8390312194824</t>
   </si>
   <si>
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043334960938</t>
+    <t xml:space="preserve">60.0043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3818,16 +3818,16 @@
     <t xml:space="preserve">59.5477333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">59.167236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6428604125977</t>
+    <t xml:space="preserve">59.1672325134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6428565979004</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
   </si>
   <si>
-    <t xml:space="preserve">61.1077690124512</t>
+    <t xml:space="preserve">61.1077651977539</t>
   </si>
   <si>
     <t xml:space="preserve">61.4311943054199</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">57.055477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1232643127441</t>
+    <t xml:space="preserve">56.1232604980469</t>
   </si>
   <si>
     <t xml:space="preserve">54.0876045227051</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">53.8022346496582</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5334892272949</t>
+    <t xml:space="preserve">55.5334930419922</t>
   </si>
   <si>
     <t xml:space="preserve">55.5715408325195</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">53.726131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7368392944336</t>
+    <t xml:space="preserve">52.7368431091309</t>
   </si>
   <si>
     <t xml:space="preserve">53.592960357666</t>
@@ -3896,13 +3896,13 @@
     <t xml:space="preserve">56.1422882080078</t>
   </si>
   <si>
-    <t xml:space="preserve">56.5227813720703</t>
+    <t xml:space="preserve">56.522777557373</t>
   </si>
   <si>
     <t xml:space="preserve">55.0578727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3242225646973</t>
+    <t xml:space="preserve">55.32421875</t>
   </si>
   <si>
     <t xml:space="preserve">52.8129425048828</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">51.7855987548828</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3075866699219</t>
+    <t xml:space="preserve">53.3075828552246</t>
   </si>
   <si>
     <t xml:space="preserve">52.3943977355957</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">46.8391456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1899070739746</t>
+    <t xml:space="preserve">48.1899032592773</t>
   </si>
   <si>
     <t xml:space="preserve">45.9640007019043</t>
@@ -3941,7 +3941,7 @@
     <t xml:space="preserve">42.8249015808105</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1007614135742</t>
+    <t xml:space="preserve">43.1007652282715</t>
   </si>
   <si>
     <t xml:space="preserve">42.4348945617676</t>
@@ -3956,7 +3956,7 @@
     <t xml:space="preserve">45.6310691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6595993041992</t>
+    <t xml:space="preserve">45.6596031188965</t>
   </si>
   <si>
     <t xml:space="preserve">44.2232284545898</t>
@@ -3965,7 +3965,7 @@
     <t xml:space="preserve">46.7440185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8474617004395</t>
+    <t xml:space="preserve">47.8474578857422</t>
   </si>
   <si>
     <t xml:space="preserve">48.6084518432617</t>
@@ -3983,7 +3983,7 @@
     <t xml:space="preserve">47.248176574707</t>
   </si>
   <si>
-    <t xml:space="preserve">47.324275970459</t>
+    <t xml:space="preserve">47.3242721557617</t>
   </si>
   <si>
     <t xml:space="preserve">49.9782409667969</t>
@@ -3995,10 +3995,10 @@
     <t xml:space="preserve">48.2469825744629</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0353164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3967895507812</t>
+    <t xml:space="preserve">50.0353126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.396785736084</t>
   </si>
   <si>
     <t xml:space="preserve">48.0186805725098</t>
@@ -4016,43 +4016,43 @@
     <t xml:space="preserve">47.067440032959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5050086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.094783782959</t>
+    <t xml:space="preserve">47.505012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0947799682617</t>
   </si>
   <si>
     <t xml:space="preserve">47.2291526794434</t>
   </si>
   <si>
-    <t xml:space="preserve">48.66552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.581111907959</t>
+    <t xml:space="preserve">48.6655235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5811157226562</t>
   </si>
   <si>
     <t xml:space="preserve">45.3552055358887</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8225135803223</t>
+    <t xml:space="preserve">44.822509765625</t>
   </si>
   <si>
     <t xml:space="preserve">46.4586448669434</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3147621154785</t>
+    <t xml:space="preserve">47.3147659301758</t>
   </si>
   <si>
     <t xml:space="preserve">47.8284339904785</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6013336181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6215553283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.955680847168</t>
+    <t xml:space="preserve">46.6013374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6215515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9556846618652</t>
   </si>
   <si>
     <t xml:space="preserve">42.4253807067871</t>
@@ -4070,7 +4070,7 @@
     <t xml:space="preserve">42.5585556030273</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7309722900391</t>
+    <t xml:space="preserve">41.7309761047363</t>
   </si>
   <si>
     <t xml:space="preserve">43.148323059082</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">42.2161102294922</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0627136230469</t>
+    <t xml:space="preserve">43.0627174377441</t>
   </si>
   <si>
     <t xml:space="preserve">41.569263458252</t>
@@ -4091,7 +4091,7 @@
     <t xml:space="preserve">40.1994743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">40.797737121582</t>
+    <t xml:space="preserve">40.7977409362793</t>
   </si>
   <si>
     <t xml:space="preserve">39.4371719360352</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">40.7205467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">41.579345703125</t>
+    <t xml:space="preserve">41.5793418884277</t>
   </si>
   <si>
     <t xml:space="preserve">43.3162384033203</t>
@@ -4118,19 +4118,19 @@
     <t xml:space="preserve">44.281177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4645195007324</t>
+    <t xml:space="preserve">44.4645233154297</t>
   </si>
   <si>
     <t xml:space="preserve">44.2136344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">43.065357208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1486549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5240173339844</t>
+    <t xml:space="preserve">43.0653533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1486587524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5240135192871</t>
   </si>
   <si>
     <t xml:space="preserve">38.0573043823242</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">37.0344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3660850524902</t>
+    <t xml:space="preserve">38.366081237793</t>
   </si>
   <si>
     <t xml:space="preserve">36.1756706237793</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">35.7896919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7221488952637</t>
+    <t xml:space="preserve">35.7221450805664</t>
   </si>
   <si>
     <t xml:space="preserve">36.4844512939453</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">39.4950675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9257507324219</t>
+    <t xml:space="preserve">38.9257545471191</t>
   </si>
   <si>
     <t xml:space="preserve">38.2213478088379</t>
@@ -4184,10 +4184,10 @@
     <t xml:space="preserve">39.77490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9389381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0257835388184</t>
+    <t xml:space="preserve">39.9389419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0257873535156</t>
   </si>
   <si>
     <t xml:space="preserve">39.3985748291016</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">41.2609100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">41.675838470459</t>
+    <t xml:space="preserve">41.6758346557617</t>
   </si>
   <si>
     <t xml:space="preserve">42.081111907959</t>
@@ -4229,10 +4229,10 @@
     <t xml:space="preserve">41.6468887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9952392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9637184143066</t>
+    <t xml:space="preserve">44.9952354431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9637145996094</t>
   </si>
   <si>
     <t xml:space="preserve">47.021614074707</t>
@@ -4241,22 +4241,22 @@
     <t xml:space="preserve">46.0663223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3654518127441</t>
+    <t xml:space="preserve">46.3654556274414</t>
   </si>
   <si>
     <t xml:space="preserve">47.5812835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5716323852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5523300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.896167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7742691040039</t>
+    <t xml:space="preserve">47.5716285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5523338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8961715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7742652893066</t>
   </si>
   <si>
     <t xml:space="preserve">48.0155029296875</t>
@@ -4274,10 +4274,10 @@
     <t xml:space="preserve">47.8128662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0241813659668</t>
+    <t xml:space="preserve">47.1760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0241851806641</t>
   </si>
   <si>
     <t xml:space="preserve">45.8540344238281</t>
@@ -4292,31 +4292,31 @@
     <t xml:space="preserve">44.0206451416016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.103946685791</t>
+    <t xml:space="preserve">43.1039505004883</t>
   </si>
   <si>
     <t xml:space="preserve">43.2679901123047</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0750007629395</t>
+    <t xml:space="preserve">43.0750045776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.974967956543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1811447143555</t>
+    <t xml:space="preserve">43.1811485290527</t>
   </si>
   <si>
     <t xml:space="preserve">42.071460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1100616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3319931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6407775878906</t>
+    <t xml:space="preserve">42.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3319969177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6407737731934</t>
   </si>
   <si>
     <t xml:space="preserve">43.4320297241211</t>
@@ -4325,25 +4325,25 @@
     <t xml:space="preserve">43.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9688606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6829147338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.505687713623</t>
+    <t xml:space="preserve">42.9688568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.682918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5056838989258</t>
   </si>
   <si>
     <t xml:space="preserve">41.8495254516602</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4284896850586</t>
+    <t xml:space="preserve">42.4284934997559</t>
   </si>
   <si>
     <t xml:space="preserve">42.7469215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4223823547363</t>
+    <t xml:space="preserve">43.4223785400391</t>
   </si>
   <si>
     <t xml:space="preserve">40.8556365966797</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">41.9942665100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7108955383301</t>
+    <t xml:space="preserve">40.7108917236328</t>
   </si>
   <si>
     <t xml:space="preserve">40.9038848876953</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">43.8083610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9206123352051</t>
+    <t xml:space="preserve">42.9206085205078</t>
   </si>
   <si>
     <t xml:space="preserve">42.4574394226074</t>
@@ -4391,10 +4391,10 @@
     <t xml:space="preserve">43.6153717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6925659179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7925987243652</t>
+    <t xml:space="preserve">43.6925621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.792594909668</t>
   </si>
   <si>
     <t xml:space="preserve">45.0531311035156</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">44.7057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6803436279297</t>
+    <t xml:space="preserve">45.680347442627</t>
   </si>
   <si>
     <t xml:space="preserve">44.3390769958496</t>
@@ -4415,13 +4415,13 @@
     <t xml:space="preserve">47.2146034240723</t>
   </si>
   <si>
-    <t xml:space="preserve">46.703182220459</t>
+    <t xml:space="preserve">46.7031860351562</t>
   </si>
   <si>
     <t xml:space="preserve">44.7347030639648</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7022171020508</t>
+    <t xml:space="preserve">43.7022132873535</t>
   </si>
   <si>
     <t xml:space="preserve">42.1583061218262</t>
@@ -4436,16 +4436,16 @@
     <t xml:space="preserve">40.7784385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7987098693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9144973754883</t>
+    <t xml:space="preserve">43.7987060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9145011901855</t>
   </si>
   <si>
     <t xml:space="preserve">44.8215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0820846557617</t>
+    <t xml:space="preserve">45.0820808410645</t>
   </si>
   <si>
     <t xml:space="preserve">47.8321647644043</t>
@@ -4457,31 +4457,31 @@
     <t xml:space="preserve">48.6909637451172</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8453521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2663879394531</t>
+    <t xml:space="preserve">48.8453559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2663917541504</t>
   </si>
   <si>
     <t xml:space="preserve">48.1312980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0830497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6645889282227</t>
+    <t xml:space="preserve">48.0830535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6645851135254</t>
   </si>
   <si>
     <t xml:space="preserve">46.6356391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.597038269043</t>
+    <t xml:space="preserve">46.5970420837402</t>
   </si>
   <si>
     <t xml:space="preserve">46.4426498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3172035217285</t>
+    <t xml:space="preserve">46.3172073364258</t>
   </si>
   <si>
     <t xml:space="preserve">45.8347358703613</t>
@@ -4490,7 +4490,7 @@
     <t xml:space="preserve">47.330394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5777435302734</t>
+    <t xml:space="preserve">46.5777397155762</t>
   </si>
   <si>
     <t xml:space="preserve">46.6259880065918</t>
@@ -4499,7 +4499,7 @@
     <t xml:space="preserve">45.7671890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7803802490234</t>
+    <t xml:space="preserve">46.7803764343262</t>
   </si>
   <si>
     <t xml:space="preserve">47.6391754150391</t>
@@ -4523,10 +4523,10 @@
     <t xml:space="preserve">45.9215812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1953048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4136962890625</t>
+    <t xml:space="preserve">47.1953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4137001037598</t>
   </si>
   <si>
     <t xml:space="preserve">47.7356719970703</t>
@@ -4535,16 +4535,16 @@
     <t xml:space="preserve">48.3821792602539</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7646217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8839530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6330718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6559028625488</t>
+    <t xml:space="preserve">47.7646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8839492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6330680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">50.505054473877</t>
@@ -4553,22 +4553,22 @@
     <t xml:space="preserve">50.8331336975098</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0804824829102</t>
+    <t xml:space="preserve">50.0804786682129</t>
   </si>
   <si>
     <t xml:space="preserve">51.2770080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6243858337402</t>
+    <t xml:space="preserve">51.6243896484375</t>
   </si>
   <si>
     <t xml:space="preserve">53.0525016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5349731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0753402709961</t>
+    <t xml:space="preserve">53.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0753364562988</t>
   </si>
   <si>
     <t xml:space="preserve">54.2876243591309</t>
@@ -4577,13 +4577,13 @@
     <t xml:space="preserve">53.0910987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2490310668945</t>
+    <t xml:space="preserve">54.2490272521973</t>
   </si>
   <si>
     <t xml:space="preserve">54.5385131835938</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3069229125977</t>
+    <t xml:space="preserve">54.3069267272949</t>
   </si>
   <si>
     <t xml:space="preserve">54.4613151550293</t>
@@ -4592,22 +4592,22 @@
     <t xml:space="preserve">55.754337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3104667663574</t>
+    <t xml:space="preserve">55.3104629516602</t>
   </si>
   <si>
     <t xml:space="preserve">55.1946716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0595817565918</t>
+    <t xml:space="preserve">55.0595779418945</t>
   </si>
   <si>
     <t xml:space="preserve">56.4683952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6999816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4262542724609</t>
+    <t xml:space="preserve">56.6999778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4262580871582</t>
   </si>
   <si>
     <t xml:space="preserve">55.2525672912598</t>
@@ -4622,28 +4622,28 @@
     <t xml:space="preserve">54.2297286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">54.7122001647949</t>
+    <t xml:space="preserve">54.7122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">55.1560745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1210174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6385459899902</t>
+    <t xml:space="preserve">56.1210136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">55.6771430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6034889221191</t>
+    <t xml:space="preserve">56.6034851074219</t>
   </si>
   <si>
     <t xml:space="preserve">56.5648880004883</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2175102233887</t>
+    <t xml:space="preserve">56.2175064086914</t>
   </si>
   <si>
     <t xml:space="preserve">55.6964416503906</t>
@@ -4655,7 +4655,7 @@
     <t xml:space="preserve">55.7736358642578</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6070289611816</t>
+    <t xml:space="preserve">57.6070251464844</t>
   </si>
   <si>
     <t xml:space="preserve">58.2438888549805</t>
@@ -4697,10 +4697,10 @@
     <t xml:space="preserve">57.5684280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8035545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.2667236328125</t>
+    <t xml:space="preserve">58.8035507202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.2667274475098</t>
   </si>
   <si>
     <t xml:space="preserve">59.4597129821777</t>
@@ -4712,37 +4712,37 @@
     <t xml:space="preserve">58.5719680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.2509651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2316627502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3124046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4667930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9878616333008</t>
+    <t xml:space="preserve">60.2509689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.2316665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3124008178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3703002929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9878578186035</t>
   </si>
   <si>
     <t xml:space="preserve">61.0422172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">61.196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7720375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4738731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6282653808594</t>
+    <t xml:space="preserve">61.1966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7720336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4738693237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6282615661621</t>
   </si>
   <si>
     <t xml:space="preserve">62.373836517334</t>
@@ -4757,7 +4757,7 @@
     <t xml:space="preserve">64.5739059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8440856933594</t>
+    <t xml:space="preserve">64.8440933227539</t>
   </si>
   <si>
     <t xml:space="preserve">65.3072662353516</t>
@@ -4778,13 +4778,13 @@
     <t xml:space="preserve">66.1564025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9405899047852</t>
+    <t xml:space="preserve">64.9405822753906</t>
   </si>
   <si>
     <t xml:space="preserve">64.4195175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8791465759277</t>
+    <t xml:space="preserve">63.8791427612305</t>
   </si>
   <si>
     <t xml:space="preserve">63.3001823425293</t>
@@ -4799,13 +4799,13 @@
     <t xml:space="preserve">62.8949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">62.991397857666</t>
+    <t xml:space="preserve">62.9914016723633</t>
   </si>
   <si>
     <t xml:space="preserve">62.2387466430664</t>
   </si>
   <si>
-    <t xml:space="preserve">62.1036529541016</t>
+    <t xml:space="preserve">62.1036567687988</t>
   </si>
   <si>
     <t xml:space="preserve">63.5374183654785</t>
@@ -5640,6 +5640,9 @@
   </si>
   <si>
     <t xml:space="preserve">52.0200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4000015258789</t>
   </si>
 </sst>
 </file>
@@ -62921,7 +62924,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6496296296</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>780270</v>
@@ -62942,6 +62945,32 @@
         <v>1875</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6493402778</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>387185</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>52.9000015258789</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>51.939998626709</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>52.2000007629395</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>52.4000015258789</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2278308868408</t>
+    <t xml:space="preserve">11.2278318405151</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.119610786438</t>
+    <t xml:space="preserve">11.1196098327637</t>
   </si>
   <si>
     <t xml:space="preserve">10.9933528900146</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">11.0474634170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1376466751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3270330429077</t>
+    <t xml:space="preserve">11.1376476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3270320892334</t>
   </si>
   <si>
     <t xml:space="preserve">12.1206455230713</t>
@@ -68,40 +68,40 @@
     <t xml:space="preserve">11.6336555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3089962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7058010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.895188331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5615110397339</t>
+    <t xml:space="preserve">11.3089942932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8951873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5615081787109</t>
   </si>
   <si>
     <t xml:space="preserve">11.9853706359863</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2829751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657381057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2919940948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2649383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8861684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.111629486084</t>
+    <t xml:space="preserve">12.2829761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2919950485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2649412155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8861694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1116285324097</t>
   </si>
   <si>
     <t xml:space="preserve">12.0575180053711</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">11.9222421646118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0755558013916</t>
+    <t xml:space="preserve">12.075553894043</t>
   </si>
   <si>
     <t xml:space="preserve">11.5705270767212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4262351989746</t>
+    <t xml:space="preserve">11.426233291626</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917572021484</t>
@@ -128,58 +128,58 @@
     <t xml:space="preserve">11.0925559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4532880783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320598602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0394811630249</t>
+    <t xml:space="preserve">11.4532899856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320589065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394830703735</t>
   </si>
   <si>
     <t xml:space="preserve">12.5805807113647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.418251991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4362888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715618133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9583168029785</t>
+    <t xml:space="preserve">12.4182510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4362878799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715627670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9583148956299</t>
   </si>
   <si>
     <t xml:space="preserve">12.3641414642334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9142589569092</t>
+    <t xml:space="preserve">12.9142599105835</t>
   </si>
   <si>
     <t xml:space="preserve">13.1397171020508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9413146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3922319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5906362533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627817153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587915420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357259750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070755004883</t>
+    <t xml:space="preserve">12.9413156509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3922328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.590633392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627807617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357269287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8070764541626</t>
   </si>
   <si>
     <t xml:space="preserve">13.8972578048706</t>
@@ -188,121 +188,121 @@
     <t xml:space="preserve">13.5184879302979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2208833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2389211654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1667737960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0765905380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.193829536438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216821670532</t>
+    <t xml:space="preserve">13.2208824157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.238920211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1667728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0765895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1938276290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216831207275</t>
   </si>
   <si>
     <t xml:space="preserve">13.2749929428101</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6988534927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3020486831665</t>
+    <t xml:space="preserve">13.6988563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3020477294922</t>
   </si>
   <si>
     <t xml:space="preserve">13.157753944397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1036443710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7609481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9683685302734</t>
+    <t xml:space="preserve">13.103645324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.760947227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9683694839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.0044431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2118635177612</t>
+    <t xml:space="preserve">13.2118663787842</t>
   </si>
   <si>
     <t xml:space="preserve">13.0495357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3291034698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3832130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5725994110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3471403121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8601512908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6797828674316</t>
+    <t xml:space="preserve">13.3291044235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3832149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725984573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3471393585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8601503372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.679783821106</t>
   </si>
   <si>
     <t xml:space="preserve">12.7699670791626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1487350463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1757907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227178573608</t>
+    <t xml:space="preserve">13.1487369537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1757898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.500452041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227159500122</t>
   </si>
   <si>
     <t xml:space="preserve">14.2489738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">14.185845375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1407537460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8251123428345</t>
+    <t xml:space="preserve">14.1858444213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1407527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8251104354858</t>
   </si>
   <si>
     <t xml:space="preserve">13.7529649734497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5455436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275077819824</t>
+    <t xml:space="preserve">13.54554271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275068283081</t>
   </si>
   <si>
     <t xml:space="preserve">13.4091644287109</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7459869384766</t>
+    <t xml:space="preserve">13.7459850311279</t>
   </si>
   <si>
     <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4546794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6549510955811</t>
+    <t xml:space="preserve">13.4546804428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6549530029297</t>
   </si>
   <si>
     <t xml:space="preserve">13.7824001312256</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">13.6458501815796</t>
   </si>
   <si>
-    <t xml:space="preserve">13.68226146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5457124710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5001955032349</t>
+    <t xml:space="preserve">13.6822624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5001964569092</t>
   </si>
   <si>
     <t xml:space="preserve">13.8552255630493</t>
@@ -329,16 +329,16 @@
     <t xml:space="preserve">13.9280519485474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.481990814209</t>
+    <t xml:space="preserve">13.4819917678833</t>
   </si>
   <si>
     <t xml:space="preserve">13.3363370895386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3909559249878</t>
+    <t xml:space="preserve">12.8993787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3909568786621</t>
   </si>
   <si>
     <t xml:space="preserve">13.035927772522</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">14.0008783340454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8643293380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0463933944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4196310043335</t>
+    <t xml:space="preserve">13.8643283843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0463953018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4196290969849</t>
   </si>
   <si>
     <t xml:space="preserve">13.10875415802</t>
@@ -362,76 +362,76 @@
     <t xml:space="preserve">12.4715232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3272342681885</t>
+    <t xml:space="preserve">12.8720684051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3272361755371</t>
   </si>
   <si>
     <t xml:space="preserve">13.172477722168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7901382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0268249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0541353225708</t>
+    <t xml:space="preserve">12.7901391983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0268239974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0541334152222</t>
   </si>
   <si>
     <t xml:space="preserve">13.145167350769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0996522903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545427322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1360645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1269617080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9448957443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275068283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0190839767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3650102615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5652837753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2739772796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1465320587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.691367149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7915019989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192216873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2102537155151</t>
+    <t xml:space="preserve">13.0996513366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1360626220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1269588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9448947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0190849304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.365008354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557697296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5652828216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2739763259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1465301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6913642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7915010452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192207336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193574905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2102546691895</t>
   </si>
   <si>
     <t xml:space="preserve">14.0372915267944</t>
@@ -443,22 +443,22 @@
     <t xml:space="preserve">14.1829442977905</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1101179122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.955361366272</t>
+    <t xml:space="preserve">14.1101169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9553604125977</t>
   </si>
   <si>
     <t xml:space="preserve">14.1920471191406</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9462566375732</t>
+    <t xml:space="preserve">13.9462585449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.8825340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732954025269</t>
+    <t xml:space="preserve">13.7732963562012</t>
   </si>
   <si>
     <t xml:space="preserve">13.7095727920532</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">13.6003332138062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7004690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9098443984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7186765670776</t>
+    <t xml:space="preserve">13.7004699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9098463058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7186737060547</t>
   </si>
   <si>
     <t xml:space="preserve">13.8916387557983</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">13.8006048202515</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2011518478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2648735046387</t>
+    <t xml:space="preserve">14.201150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.264874458313</t>
   </si>
   <si>
     <t xml:space="preserve">13.6367454528809</t>
@@ -500,31 +500,31 @@
     <t xml:space="preserve">13.8370189666748</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8279151916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9735689163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6640548706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0281887054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2921848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0828075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1556348800659</t>
+    <t xml:space="preserve">13.8279142379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9735679626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6640558242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.02818775177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2921838760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0828094482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1556358337402</t>
   </si>
   <si>
     <t xml:space="preserve">14.064600944519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826726913452</t>
+    <t xml:space="preserve">13.9826698303223</t>
   </si>
   <si>
     <t xml:space="preserve">13.8097085952759</t>
@@ -545,73 +545,73 @@
     <t xml:space="preserve">13.8188123703003</t>
   </si>
   <si>
-    <t xml:space="preserve">13.509298324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644660949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0554981231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2466678619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8474836349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8383808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205835342407</t>
+    <t xml:space="preserve">13.5093011856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644641876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0554971694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2466659545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.847484588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8383817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205854415894</t>
   </si>
   <si>
     <t xml:space="preserve">15.3026504516602</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2480306625366</t>
+    <t xml:space="preserve">15.2480297088623</t>
   </si>
   <si>
     <t xml:space="preserve">15.1023769378662</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7473497390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9385166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9749326705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750684738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565874099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838977813721</t>
+    <t xml:space="preserve">14.747350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9385185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9749336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0750665664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931373596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8838996887207</t>
   </si>
   <si>
     <t xml:space="preserve">14.9021062850952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9112091064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.874794960022</t>
+    <t xml:space="preserve">15.0477590560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935438156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752061843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.911208152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8747959136963</t>
   </si>
   <si>
     <t xml:space="preserve">15.1569967269897</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">15.6485767364502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6849889755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9034700393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9398822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6940908432007</t>
+    <t xml:space="preserve">15.6849880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9034671783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9398794174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6940927505493</t>
   </si>
   <si>
     <t xml:space="preserve">15.9945001602173</t>
@@ -641,46 +641,46 @@
     <t xml:space="preserve">16.3859443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4223575592041</t>
+    <t xml:space="preserve">16.4223556518555</t>
   </si>
   <si>
     <t xml:space="preserve">16.4132537841797</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4678726196289</t>
+    <t xml:space="preserve">16.4678745269775</t>
   </si>
   <si>
     <t xml:space="preserve">16.3313236236572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2493934631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.20387840271</t>
+    <t xml:space="preserve">16.2493915557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2038745880127</t>
   </si>
   <si>
     <t xml:space="preserve">16.1310501098633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8488483428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1492576599121</t>
+    <t xml:space="preserve">15.8488464355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1492538452148</t>
   </si>
   <si>
     <t xml:space="preserve">16.1947746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765689849854</t>
+    <t xml:space="preserve">16.1765670776367</t>
   </si>
   <si>
     <t xml:space="preserve">16.1583595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1037425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3950481414795</t>
+    <t xml:space="preserve">16.10373878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
     <t xml:space="preserve">16.3222198486328</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">16.1128425598145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1856727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4041481018066</t>
+    <t xml:space="preserve">16.1856708526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4041500091553</t>
   </si>
   <si>
     <t xml:space="preserve">17.3326873779297</t>
@@ -707,49 +707,49 @@
     <t xml:space="preserve">17.3964099884033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5329608917236</t>
+    <t xml:space="preserve">17.532958984375</t>
   </si>
   <si>
     <t xml:space="preserve">17.569372177124</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7514400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8970890045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8424758911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973663330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2521190643311</t>
+    <t xml:space="preserve">17.7514362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8970928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.842472076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973625183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2521209716797</t>
   </si>
   <si>
     <t xml:space="preserve">18.4250831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1246738433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3067436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3340492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707340240479</t>
+    <t xml:space="preserve">18.1246757507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3067378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3340473175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707321166992</t>
   </si>
   <si>
     <t xml:space="preserve">18.5161151885986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6617698669434</t>
+    <t xml:space="preserve">18.6617660522461</t>
   </si>
   <si>
     <t xml:space="preserve">18.415979385376</t>
@@ -761,40 +761,40 @@
     <t xml:space="preserve">18.689079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8711452484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1897602081299</t>
+    <t xml:space="preserve">18.8711471557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1897621154785</t>
   </si>
   <si>
     <t xml:space="preserve">19.4901676177979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4992713928223</t>
+    <t xml:space="preserve">19.4992733001709</t>
   </si>
   <si>
     <t xml:space="preserve">19.4628582000732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7450618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.371826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4719619750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5812015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7996788024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9635410308838</t>
+    <t xml:space="preserve">19.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269939422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3718280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4719638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.581205368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7996807098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9635391235352</t>
   </si>
   <si>
     <t xml:space="preserve">19.7268562316895</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">20.7100124359131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.628080368042</t>
+    <t xml:space="preserve">20.6280822753906</t>
   </si>
   <si>
     <t xml:space="preserve">20.9466972351074</t>
@@ -821,58 +821,58 @@
     <t xml:space="preserve">21.1196594238281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4018650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7555294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.054573059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2730522155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1638126373291</t>
+    <t xml:space="preserve">21.4018630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7555236816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0545768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2730541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1638145446777</t>
   </si>
   <si>
     <t xml:space="preserve">20.2548446655273</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1456069946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2639484405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6540279388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8178882598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9188613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9922924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8729629516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7536354064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4966163635254</t>
+    <t xml:space="preserve">20.1456050872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2639503479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6540260314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8178863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9188575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9922943115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8729610443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7536334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4966144561768</t>
   </si>
   <si>
     <t xml:space="preserve">19.9005012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.973934173584</t>
+    <t xml:space="preserve">19.9739322662354</t>
   </si>
   <si>
     <t xml:space="preserve">19.5425109863281</t>
@@ -887,37 +887,37 @@
     <t xml:space="preserve">19.2304191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3405685424805</t>
+    <t xml:space="preserve">19.3405647277832</t>
   </si>
   <si>
     <t xml:space="preserve">18.8357124328613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0927295684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3864650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3038539886475</t>
+    <t xml:space="preserve">19.0927314758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3864669799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3038520812988</t>
   </si>
   <si>
     <t xml:space="preserve">19.6067657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.487434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8821392059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4782581329346</t>
+    <t xml:space="preserve">19.4874362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8821430206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4782543182373</t>
   </si>
   <si>
     <t xml:space="preserve">19.4140033721924</t>
   </si>
   <si>
-    <t xml:space="preserve">19.404821395874</t>
+    <t xml:space="preserve">19.4048252105713</t>
   </si>
   <si>
     <t xml:space="preserve">19.5884056091309</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">19.2028827667236</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6245880126953</t>
+    <t xml:space="preserve">18.6245918273926</t>
   </si>
   <si>
     <t xml:space="preserve">18.8173542022705</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">18.8540725708008</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0651931762695</t>
+    <t xml:space="preserve">19.0651912689209</t>
   </si>
   <si>
     <t xml:space="preserve">18.9917583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8632526397705</t>
+    <t xml:space="preserve">18.8632507324219</t>
   </si>
   <si>
     <t xml:space="preserve">19.368106842041</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">19.5516910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6434841156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6710205078125</t>
+    <t xml:space="preserve">19.6434803009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6710186004639</t>
   </si>
   <si>
     <t xml:space="preserve">19.7169170379639</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">19.6985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.533332824707</t>
+    <t xml:space="preserve">19.5333347320557</t>
   </si>
   <si>
     <t xml:space="preserve">19.4598979949951</t>
@@ -977,37 +977,37 @@
     <t xml:space="preserve">20.744987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8367805480957</t>
+    <t xml:space="preserve">20.8367767333984</t>
   </si>
   <si>
     <t xml:space="preserve">20.6348361968994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5338687896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6715545654297</t>
+    <t xml:space="preserve">20.5338668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6715507507324</t>
   </si>
   <si>
     <t xml:space="preserve">20.6072998046875</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6807346343994</t>
+    <t xml:space="preserve">20.6531925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6807327270508</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256580352783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1305122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4334278106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8373126983643</t>
+    <t xml:space="preserve">21.1305141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4334297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8373107910156</t>
   </si>
   <si>
     <t xml:space="preserve">21.6720867156982</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">21.1580505371094</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5619373321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9107437133789</t>
+    <t xml:space="preserve">21.5619354248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9107475280762</t>
   </si>
   <si>
     <t xml:space="preserve">22.1952991485596</t>
@@ -1046,13 +1046,13 @@
     <t xml:space="preserve">22.0943279266357</t>
   </si>
   <si>
-    <t xml:space="preserve">22.296272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4614963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7368755340576</t>
+    <t xml:space="preserve">22.2962741851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.461498260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7368717193604</t>
   </si>
   <si>
     <t xml:space="preserve">22.6726169586182</t>
@@ -1064,34 +1064,34 @@
     <t xml:space="preserve">22.9204578399658</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8103065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5441074371338</t>
+    <t xml:space="preserve">22.8103046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5441093444824</t>
   </si>
   <si>
     <t xml:space="preserve">22.690975189209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5349292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5165729522705</t>
+    <t xml:space="preserve">22.5349273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5165710449219</t>
   </si>
   <si>
     <t xml:space="preserve">22.5532894134521</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2595539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1218643188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3697052001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4155979156494</t>
+    <t xml:space="preserve">22.2595558166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1218662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3697032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4156017303467</t>
   </si>
   <si>
     <t xml:space="preserve">22.4431419372559</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">22.1402244567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.048433303833</t>
+    <t xml:space="preserve">22.0484313964844</t>
   </si>
   <si>
     <t xml:space="preserve">21.7638759613037</t>
@@ -1115,64 +1115,64 @@
     <t xml:space="preserve">22.3605251312256</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5900077819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6542587280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7001552581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2870922088623</t>
+    <t xml:space="preserve">22.5900058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.654260635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2870941162109</t>
   </si>
   <si>
     <t xml:space="preserve">22.7460517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8653812408447</t>
+    <t xml:space="preserve">22.8653793334961</t>
   </si>
   <si>
     <t xml:space="preserve">22.6634387969971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4247817993164</t>
+    <t xml:space="preserve">22.4247798919678</t>
   </si>
   <si>
     <t xml:space="preserve">22.3788814544678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3054504394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2411956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1494064331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667934417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285697937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3508129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2957363128662</t>
+    <t xml:space="preserve">22.3054523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2411975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1494045257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667915344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3508148193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2957382202148</t>
   </si>
   <si>
     <t xml:space="preserve">20.9561080932617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0570793151855</t>
+    <t xml:space="preserve">21.0570812225342</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377479553223</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3875293731689</t>
+    <t xml:space="preserve">21.3875312805176</t>
   </si>
   <si>
     <t xml:space="preserve">21.3783512115479</t>
@@ -1181,112 +1181,112 @@
     <t xml:space="preserve">21.4242458343506</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1121559143066</t>
+    <t xml:space="preserve">21.112154006958</t>
   </si>
   <si>
     <t xml:space="preserve">21.1396903991699</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7271614074707</t>
+    <t xml:space="preserve">21.0846157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7271595001221</t>
   </si>
   <si>
     <t xml:space="preserve">21.7088012695312</t>
   </si>
   <si>
-    <t xml:space="preserve">22.250373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7735862731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194847106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1958332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6267204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1407585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2141933441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1224002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4069538116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5721778869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9760646820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.233081817627</t>
+    <t xml:space="preserve">22.2503757476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7735919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.819486618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1958312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6267223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.140754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2141914367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1223983764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4069557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5721817016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9760627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2330799102783</t>
   </si>
   <si>
     <t xml:space="preserve">23.9393463134766</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6823272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4987468719482</t>
+    <t xml:space="preserve">23.6823310852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4987449645996</t>
   </si>
   <si>
     <t xml:space="preserve">23.957706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8108367919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8659114837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5171012878418</t>
+    <t xml:space="preserve">23.8108386993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8659133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5171051025391</t>
   </si>
   <si>
     <t xml:space="preserve">23.1315784454346</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0948600769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.351879119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1412868499756</t>
+    <t xml:space="preserve">23.0948638916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3518810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1412887573242</t>
   </si>
   <si>
     <t xml:space="preserve">24.6736812591553</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8205528259277</t>
+    <t xml:space="preserve">24.8205509185791</t>
   </si>
   <si>
     <t xml:space="preserve">24.5818901062012</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7103958129883</t>
+    <t xml:space="preserve">24.7103996276855</t>
   </si>
   <si>
     <t xml:space="preserve">24.8389091491699</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8572635650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6186084747314</t>
+    <t xml:space="preserve">24.8572673797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6186065673828</t>
   </si>
   <si>
     <t xml:space="preserve">24.4442005157471</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">24.3615913391113</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5451736450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8842716217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7833023071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6920413970947</t>
+    <t xml:space="preserve">24.5451717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8842754364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7833003997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6920433044434</t>
   </si>
   <si>
     <t xml:space="preserve">23.6088962554932</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">24.3707695007324</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9949550628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0230293273926</t>
+    <t xml:space="preserve">24.9949569702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0230274200439</t>
   </si>
   <si>
     <t xml:space="preserve">26.1148166656494</t>
@@ -1325,46 +1325,46 @@
     <t xml:space="preserve">25.7751865386963</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9128723144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9312324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8119049072266</t>
+    <t xml:space="preserve">25.9128761291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9312343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8119029998779</t>
   </si>
   <si>
     <t xml:space="preserve">25.7384700775146</t>
   </si>
   <si>
-    <t xml:space="preserve">25.986307144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4911632537842</t>
+    <t xml:space="preserve">25.9863052368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4911613464355</t>
   </si>
   <si>
     <t xml:space="preserve">26.3442974090576</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6650352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6099624633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0505599975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9220542907715</t>
+    <t xml:space="preserve">25.6650333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6099605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0505619049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9220523834229</t>
   </si>
   <si>
     <t xml:space="preserve">26.5737781524658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7665405273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8675136566162</t>
+    <t xml:space="preserve">26.7665386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8675117492676</t>
   </si>
   <si>
     <t xml:space="preserve">27.0327377319336</t>
@@ -1373,79 +1373,79 @@
     <t xml:space="preserve">26.8491535186768</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1796054840088</t>
+    <t xml:space="preserve">27.1796035766602</t>
   </si>
   <si>
     <t xml:space="preserve">27.115348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3264713287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8405055999756</t>
+    <t xml:space="preserve">27.3264694213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8405075073242</t>
   </si>
   <si>
     <t xml:space="preserve">28.3270053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9506587982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0975246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.051628112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2994651794434</t>
+    <t xml:space="preserve">27.9506568908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.097526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0516300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.299467086792</t>
   </si>
   <si>
     <t xml:space="preserve">28.3637199401855</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1720199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8323917388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2179183959961</t>
+    <t xml:space="preserve">30.1720218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.832389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2179145812988</t>
   </si>
   <si>
     <t xml:space="preserve">30.5667285919189</t>
   </si>
   <si>
-    <t xml:space="preserve">30.649341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3188896179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.979793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2459907531738</t>
+    <t xml:space="preserve">30.6493396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.318883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9797897338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2459926605225</t>
   </si>
   <si>
     <t xml:space="preserve">30.8971786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6315078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3383178710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1455497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.457649230957</t>
+    <t xml:space="preserve">31.6315135955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3383102416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1455459594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4576416015625</t>
   </si>
   <si>
     <t xml:space="preserve">32.3566703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0634689331055</t>
+    <t xml:space="preserve">33.0634651184082</t>
   </si>
   <si>
     <t xml:space="preserve">33.1369018554688</t>
@@ -1454,52 +1454,52 @@
     <t xml:space="preserve">33.412281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9171333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3669166564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8809471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5040702819824</t>
+    <t xml:space="preserve">33.9171371459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3669128417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8809509277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.504077911377</t>
   </si>
   <si>
     <t xml:space="preserve">32.7421989440918</t>
   </si>
   <si>
-    <t xml:space="preserve">33.485710144043</t>
+    <t xml:space="preserve">33.4857139587402</t>
   </si>
   <si>
     <t xml:space="preserve">33.5316047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7702674865723</t>
+    <t xml:space="preserve">33.7702713012695</t>
   </si>
   <si>
     <t xml:space="preserve">34.146614074707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5413208007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.559684753418</t>
+    <t xml:space="preserve">34.5413246154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5596809387207</t>
   </si>
   <si>
     <t xml:space="preserve">34.8625907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7162590026855</t>
+    <t xml:space="preserve">35.7162628173828</t>
   </si>
   <si>
     <t xml:space="preserve">36.1660385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9256706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9457130432129</t>
+    <t xml:space="preserve">35.9256744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9457092285156</t>
   </si>
   <si>
     <t xml:space="preserve">34.1876335144043</t>
@@ -1511,1026 +1511,1026 @@
     <t xml:space="preserve">36.2954635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">36.498851776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3432426452637</t>
+    <t xml:space="preserve">36.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3432464599609</t>
   </si>
   <si>
     <t xml:space="preserve">35.6390762329102</t>
   </si>
   <si>
+    <t xml:space="preserve">36.3047103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.332447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8316688537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2184104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8023796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.748462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7838935852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1074714660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4217910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9949760437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8840408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3385887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1552352905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8409156799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.776195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5820579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8979377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8794479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.999626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5836143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0550994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8332214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919319152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4187507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2061195373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7608108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5373840332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6498794555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3155097961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0828285217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6020965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1105690002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9534034729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8701972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7222862243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6560173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3617362976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1675872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2708396911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.871753692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6683654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8733024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7330780029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8440170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0104179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2045707702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0936241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4834632873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2970161437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9549598693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.269287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.064338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6467704772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8131790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0181159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9903907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5928497314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2985687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7515716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8070411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7700576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2600440979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4464836120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0843849182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8902397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0658950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9826927185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5481758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8810043334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7037925720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4172019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4295501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2646865844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9025917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3340606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.918041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5852241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6499366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.788610458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440799713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1044845581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1784477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.022834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6422424316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2893867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5497932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9195919036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4742851257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9534664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5929164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3710422515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5282020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0844440460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8271427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.435754776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4095687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4188117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7254486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6253051757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2169780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1799983978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8086490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5775279998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0967922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2816925048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6068172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1876907348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1337757110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6792240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8749179840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2262229919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8302440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6730804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.310977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0151405334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.469690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5159187316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4881820678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6915702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9319362640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7454891204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9581203460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7100582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8286914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5590362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3171195983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9919986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5297546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4296131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.401876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.706958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7809143066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0490188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2801418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7531814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3356094360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2616519927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.622200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.323263168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.415714263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2200183868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6267929077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.859468460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0628509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1352615356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3478965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0335731506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7562198638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2462043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2092247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.089038848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0797958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9041404724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4033622741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3386535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1737957000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.622142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2523460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3740730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2816276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1429595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0227737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8748588562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3648338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4572792053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9842376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6514282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6714668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1722412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8840980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2076683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9657554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5944061279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3910179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3263092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2631416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6699142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7438812255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5497360229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8825454711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5682258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7623710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3355484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1414070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.512752532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7993431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8085899353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.688404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3817672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6144485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9950370788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8471145629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9010353088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3848724365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5697746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3217620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2847709655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2937126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6957473754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7237930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2189102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2091522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0408554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8538608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9754085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5457382202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4433097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0973701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5554962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1721649169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2469635009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7705421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0977783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1075439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2290878295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1827583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8835639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2477874755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9766502380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7246208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1547050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5286903381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4538879394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9961738586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0055198669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0148735046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7624320983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.837230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5754356384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9774742126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5193405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6128387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7063331604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7250289916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1457672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.127067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4169082641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4823532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4543037414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1640548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7526664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9018478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8916797637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8636283874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2656593322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8546905517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7892417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9290733337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6579341888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.190860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1538734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.181510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9851684570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7888298034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7327308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.872974395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.078670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7798919677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5278663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1819267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9855842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0697250366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0884323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8172912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0693168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6758041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3583316802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4985752105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0123920440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1339359283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0497932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2554836273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7510204315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5733757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2367858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5355606079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0217456817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4237804412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6107730865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4611778259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0315055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6205368041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2376136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9758224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8542785644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.452241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.143705368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0778388977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3863792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1806888580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0965385437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3770294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.817699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.191276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4246063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8827362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9949378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7518424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6965751647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1921081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7807159423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.556324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.070140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1823387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4441299438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6872177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2949447631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9957618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5384559631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6412963867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5295143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1835784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2673149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1644706726074</t>
+  </si>
+  <si>
     <t xml:space="preserve">36.3047142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3324432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.831672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2184028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8023796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7484664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7838973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1074638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4217910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9949760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8840370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3385887145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1552391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8409156799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7761993408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5820579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8979377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.879451751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9996299743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5836143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0550994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8332214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919357299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4187507629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2061195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.760814666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5373840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6498794555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3155059814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0828323364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6020965576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1105690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9534072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8702049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6560173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3617362976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1675872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2708358764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.871753692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6683616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8733062744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.733081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8440170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.010425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2045707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0936317443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.483470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2970161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9549560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2692832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7114868164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6467742919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8131828308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0181159973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9903907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5928535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2985649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7515716552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8070449829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7700653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2600364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4464874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0843849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0658988952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9826927185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5481796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8809967041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1398544311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7037925720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4172019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4295501708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2646942138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.902587890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3340606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9180374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5852222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305252075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6499347686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7886085510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440799713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1044883728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.17844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.022834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6422424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2893848419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473247528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5497932434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9195880889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3818340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4742813110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9534683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5929145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3710384368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5282020568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0844459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8271408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4357528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4095687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4188137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7254467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6253032684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2169799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1799964904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8086490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5775299072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.096794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2816925048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6068153381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1876926422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1337718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6792240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8749179840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.226224899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8302421569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6730804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3109760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0151405334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9797134399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5159168243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0521202087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4881801605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6915702819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9319362640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7454891204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9581203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7100601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8286895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5590362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3171195983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9919967651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5297527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4296112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4018745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7069568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7809162139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0490169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2801399230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7531814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3356094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2616500854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6221981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.323263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4157123565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0166282653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2200202941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6267948150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.859468460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0628528594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586883544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1352577209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.347900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0335731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7562217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2462005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2092170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0890350341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0797958374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9041347503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4033699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3386497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1737976074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6221389770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2523422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3740768432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2816314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1429595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.958065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0227737426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8748550415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3648338317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4572830200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9842414855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.651424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6714630126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1722373962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8841018676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2076721191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9657516479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0674476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5944023132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3910217285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2631416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059799194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6699142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7438735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5497398376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8825531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5682258605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7623672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3355445861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1414108276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5127487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7993469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8085899353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.688404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3817710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6144485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8471221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9010353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3848762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1337089538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5697746276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0042839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0225715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3217582702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2847747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2937088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6957473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7237968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2189064025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2091503143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0408573150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8538627624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9754085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5457401275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2563095092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4433059692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0973701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5555000305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1721687316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2469635009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7705459594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0977821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1075401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2290916442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1827545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9770584106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8835639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2477912902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9766464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1547050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5286903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4538955688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9961738586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0990219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0055198669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0148735046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7624359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8372268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.575439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9774742126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5193405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6128387451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7063331604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7250366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1457633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1270637512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4169044494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4823532104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4543037414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1640586853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7526702880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9018478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.891674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8636322021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2656555175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.004280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8546905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7892417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9290733337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6579341888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1908645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1254196166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1538734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.181510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9851722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7888259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7327289581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8729763031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.078670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7798919677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5278625488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213607788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1819305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9855842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0697326660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0884323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8172912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0693168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103755950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6758041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3583354949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4985752105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.012393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.133939743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0497932434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.255485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7510166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733776092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2367858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5355625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0217418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4237804412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6107769012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4611797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0315036773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6205310821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2376136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9758224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8542785644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4522399902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1437015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0778408050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3863792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1806869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0965404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3770313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.817699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1912727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4246101379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8827362060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9949340820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7518424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1921043395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7807197570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.556324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4721755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.070140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1823425292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4441337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6872177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2949485778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5384559631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6412963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5295143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1835823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2673149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1644668579102</t>
-  </si>
-  <si>
     <t xml:space="preserve">38.6701736450195</t>
   </si>
   <si>
@@ -2543,13 +2543,13 @@
     <t xml:space="preserve">39.3526992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">38.614070892334</t>
+    <t xml:space="preserve">38.6140785217285</t>
   </si>
   <si>
     <t xml:space="preserve">38.3335876464844</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2400856018066</t>
+    <t xml:space="preserve">38.2400932312012</t>
   </si>
   <si>
     <t xml:space="preserve">37.6604080200195</t>
@@ -2558,43 +2558,43 @@
     <t xml:space="preserve">37.8100051879883</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5482177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6978073120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2307357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1372489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9876480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4640655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9502487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4827728271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6510581970215</t>
+    <t xml:space="preserve">37.5482139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.697811126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2307395935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1372451782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9876518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4640731811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.950252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4827690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6510620117188</t>
   </si>
   <si>
     <t xml:space="preserve">38.4831848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4644813537598</t>
+    <t xml:space="preserve">38.4644775390625</t>
   </si>
   <si>
     <t xml:space="preserve">38.0624465942383</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1465911865234</t>
+    <t xml:space="preserve">38.1465873718262</t>
   </si>
   <si>
     <t xml:space="preserve">38.8852157592773</t>
@@ -2609,34 +2609,34 @@
     <t xml:space="preserve">39.9230270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6608200073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8006553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7917251586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7165069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9128532409668</t>
+    <t xml:space="preserve">38.6608238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8006591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7917213439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7165107727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9128494262695</t>
   </si>
   <si>
     <t xml:space="preserve">36.3327598571777</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7445602416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9872398376465</t>
+    <t xml:space="preserve">37.744556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9872360229492</t>
   </si>
   <si>
     <t xml:space="preserve">36.4636573791504</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8656883239746</t>
+    <t xml:space="preserve">36.8656959533691</t>
   </si>
   <si>
     <t xml:space="preserve">37.3612213134766</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">37.7819595336914</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0152893066406</t>
+    <t xml:space="preserve">37.0152854919434</t>
   </si>
   <si>
     <t xml:space="preserve">36.1925163269043</t>
@@ -2663,16 +2663,16 @@
     <t xml:space="preserve">35.622184753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7717819213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5010566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7339706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8733863830566</t>
+    <t xml:space="preserve">35.7717781066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5010528564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7339668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8733901977539</t>
   </si>
   <si>
     <t xml:space="preserve">32.8453407287598</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">32.9668846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9294891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.527042388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5351486206055</t>
+    <t xml:space="preserve">32.9294929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5270366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5351505279541</t>
   </si>
   <si>
     <t xml:space="preserve">28.1798610687256</t>
@@ -2699,43 +2699,43 @@
     <t xml:space="preserve">27.4505882263184</t>
   </si>
   <si>
-    <t xml:space="preserve">24.309103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7684745788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6087074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2440700531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7115516662598</t>
+    <t xml:space="preserve">24.3091049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7684783935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6087055206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2440719604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7115535736084</t>
   </si>
   <si>
     <t xml:space="preserve">25.2627696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3664417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7400131225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3396339416504</t>
+    <t xml:space="preserve">27.3664436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7400150299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3396320343018</t>
   </si>
   <si>
     <t xml:space="preserve">31.8823223114014</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1628189086914</t>
+    <t xml:space="preserve">32.1628150939941</t>
   </si>
   <si>
     <t xml:space="preserve">31.1250038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2835350036621</t>
+    <t xml:space="preserve">30.2835311889648</t>
   </si>
   <si>
     <t xml:space="preserve">29.9188957214355</t>
@@ -2744,43 +2744,43 @@
     <t xml:space="preserve">29.077428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0876045227051</t>
+    <t xml:space="preserve">31.0876064300537</t>
   </si>
   <si>
     <t xml:space="preserve">30.5172748565674</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7136154174805</t>
+    <t xml:space="preserve">30.7136192321777</t>
   </si>
   <si>
     <t xml:space="preserve">31.5083389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0502052307129</t>
+    <t xml:space="preserve">31.0502014160156</t>
   </si>
   <si>
     <t xml:space="preserve">32.2750129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9575347900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3120002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9941062927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9384231567383</t>
+    <t xml:space="preserve">32.9575386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3119964599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9941082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9384250640869</t>
   </si>
   <si>
     <t xml:space="preserve">32.2095642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6855659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.190450668335</t>
+    <t xml:space="preserve">30.685567855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1904544830322</t>
   </si>
   <si>
     <t xml:space="preserve">30.3209342956543</t>
@@ -2789,64 +2789,64 @@
     <t xml:space="preserve">30.6481704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1900367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6388206481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8160514831543</t>
+    <t xml:space="preserve">30.1900386810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.638822555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8160495758057</t>
   </si>
   <si>
     <t xml:space="preserve">29.0961265563965</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0119800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.14328956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2741851806641</t>
+    <t xml:space="preserve">29.0119819641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1432914733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2741832733154</t>
   </si>
   <si>
     <t xml:space="preserve">29.198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7693023681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2185001373291</t>
+    <t xml:space="preserve">29.7693042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2185020446777</t>
   </si>
   <si>
     <t xml:space="preserve">30.8071136474609</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6022491455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.274600982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4989891052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3311080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4713592529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4615936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8075275421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6672801971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4059028625488</t>
+    <t xml:space="preserve">32.6022453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2745990753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4989852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.331111907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4713516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4615917205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8075294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6672821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4059104919434</t>
   </si>
   <si>
     <t xml:space="preserve">32.9388389587402</t>
@@ -2855,40 +2855,40 @@
     <t xml:space="preserve">33.2099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">33.509162902832</t>
+    <t xml:space="preserve">33.5091667175293</t>
   </si>
   <si>
     <t xml:space="preserve">32.5274505615234</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1534690856934</t>
+    <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
     <t xml:space="preserve">32.5648498535156</t>
   </si>
   <si>
-    <t xml:space="preserve">31.826229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0319175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3872108459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6859836578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3965606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9197177886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.779483795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0689029693604</t>
+    <t xml:space="preserve">31.8262271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0319137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.38720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6859817504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.396556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9197235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0689067840576</t>
   </si>
   <si>
     <t xml:space="preserve">31.4896392822266</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">31.4054908752441</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4335403442383</t>
+    <t xml:space="preserve">31.433536529541</t>
   </si>
   <si>
     <t xml:space="preserve">31.0128040313721</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4798755645752</t>
+    <t xml:space="preserve">30.4798774719238</t>
   </si>
   <si>
     <t xml:space="preserve">30.507926940918</t>
@@ -2918,37 +2918,37 @@
     <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3026447296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416667938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4892253875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375953674316</t>
+    <t xml:space="preserve">31.3026504516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416706085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4892272949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">29.9562969207764</t>
   </si>
   <si>
-    <t xml:space="preserve">30.264835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4144248962402</t>
+    <t xml:space="preserve">30.2648334503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4144287109375</t>
   </si>
   <si>
     <t xml:space="preserve">31.0034580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2928848266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3676834106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.573787689209</t>
+    <t xml:space="preserve">30.2928829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3676776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5737895965576</t>
   </si>
   <si>
     <t xml:space="preserve">32.2282600402832</t>
@@ -2960,22 +2960,22 @@
     <t xml:space="preserve">32.9201354980469</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3506317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4632453918457</t>
+    <t xml:space="preserve">34.3506355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4632415771484</t>
   </si>
   <si>
     <t xml:space="preserve">34.7994194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1262397766113</t>
+    <t xml:space="preserve">34.1262474060059</t>
   </si>
   <si>
     <t xml:space="preserve">32.9107856750488</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4807052612305</t>
+    <t xml:space="preserve">32.4807014465332</t>
   </si>
   <si>
     <t xml:space="preserve">32.89208984375</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">32.7050933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2941246032715</t>
+    <t xml:space="preserve">33.2941284179688</t>
   </si>
   <si>
     <t xml:space="preserve">33.1632270812988</t>
@@ -2993,22 +2993,22 @@
     <t xml:space="preserve">34.0607948303223</t>
   </si>
   <si>
-    <t xml:space="preserve">34.313232421875</t>
+    <t xml:space="preserve">34.3132362365723</t>
   </si>
   <si>
     <t xml:space="preserve">33.6774597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0233917236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3973808288574</t>
+    <t xml:space="preserve">34.0233993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3973846435547</t>
   </si>
   <si>
     <t xml:space="preserve">34.5002288818359</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0510330200195</t>
+    <t xml:space="preserve">33.0510292053223</t>
   </si>
   <si>
     <t xml:space="preserve">34.4067306518555</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">35.4258460998535</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8742179870605</t>
+    <t xml:space="preserve">34.8742141723633</t>
   </si>
   <si>
     <t xml:space="preserve">36.4075584411621</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5937232971191</t>
+    <t xml:space="preserve">34.5937271118164</t>
   </si>
   <si>
     <t xml:space="preserve">32.630298614502</t>
@@ -3038,10 +3038,10 @@
     <t xml:space="preserve">34.004695892334</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3603935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1079559326172</t>
+    <t xml:space="preserve">35.3603973388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1079521179199</t>
   </si>
   <si>
     <t xml:space="preserve">37.0994338989258</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">37.8567543029785</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1087837219238</t>
+    <t xml:space="preserve">37.1087760925293</t>
   </si>
   <si>
     <t xml:space="preserve">37.2209815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4083862304688</t>
+    <t xml:space="preserve">38.408390045166</t>
   </si>
   <si>
     <t xml:space="preserve">38.3896865844727</t>
@@ -3077,22 +3077,22 @@
     <t xml:space="preserve">39.2405052185059</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1750526428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.763671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3429374694824</t>
+    <t xml:space="preserve">39.1750564575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7636680603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3429298400879</t>
   </si>
   <si>
     <t xml:space="preserve">38.4177360534668</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9974136352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8201789855957</t>
+    <t xml:space="preserve">38.9974098205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.820182800293</t>
   </si>
   <si>
     <t xml:space="preserve">40.390510559082</t>
@@ -3110,10 +3110,10 @@
     <t xml:space="preserve">43.4384956359863</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4856643676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7661514282227</t>
+    <t xml:space="preserve">44.4856605529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7661552429199</t>
   </si>
   <si>
     <t xml:space="preserve">45.6263160705566</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">44.4669609069824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2336349487305</t>
+    <t xml:space="preserve">45.2336387634277</t>
   </si>
   <si>
     <t xml:space="preserve">45.0746879577637</t>
@@ -3140,22 +3140,22 @@
     <t xml:space="preserve">46.4958343505859</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0287628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8791732788086</t>
+    <t xml:space="preserve">47.0287666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8791694641113</t>
   </si>
   <si>
     <t xml:space="preserve">46.7482757568359</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4580230712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4767265319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7100524902344</t>
+    <t xml:space="preserve">45.4580192565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4767227172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7100486755371</t>
   </si>
   <si>
     <t xml:space="preserve">44.9344444274902</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">44.878345489502</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9807739257812</t>
+    <t xml:space="preserve">43.9807777404785</t>
   </si>
   <si>
     <t xml:space="preserve">45.0185890197754</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">44.2706184387207</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2803802490234</t>
+    <t xml:space="preserve">45.2803840637207</t>
   </si>
   <si>
     <t xml:space="preserve">44.5511093139648</t>
@@ -3185,13 +3185,13 @@
     <t xml:space="preserve">45.504768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3649444580078</t>
+    <t xml:space="preserve">46.3649406433105</t>
   </si>
   <si>
     <t xml:space="preserve">44.2612724304199</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1864738464355</t>
+    <t xml:space="preserve">44.186466217041</t>
   </si>
   <si>
     <t xml:space="preserve">44.9624938964844</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">44.373462677002</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8035469055176</t>
+    <t xml:space="preserve">44.8035507202148</t>
   </si>
   <si>
     <t xml:space="preserve">44.8129005432129</t>
@@ -3218,7 +3218,7 @@
     <t xml:space="preserve">48.7304039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3003234863281</t>
+    <t xml:space="preserve">48.3003196716309</t>
   </si>
   <si>
     <t xml:space="preserve">48.5995063781738</t>
@@ -3230,64 +3230,64 @@
     <t xml:space="preserve">48.8052024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4499130249023</t>
+    <t xml:space="preserve">48.4499092102051</t>
   </si>
   <si>
     <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2905616760254</t>
+    <t xml:space="preserve">47.2905578613281</t>
   </si>
   <si>
     <t xml:space="preserve">49.8523635864258</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5247116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8889389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1058807373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2379379272461</t>
+    <t xml:space="preserve">48.524715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8889350891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.105884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2379341125488</t>
   </si>
   <si>
     <t xml:space="preserve">48.3888549804688</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2000503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5584945678711</t>
+    <t xml:space="preserve">49.2000541687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5584907531738</t>
   </si>
   <si>
     <t xml:space="preserve">48.7661590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">47.671989440918</t>
+    <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
     <t xml:space="preserve">46.7381629943848</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8985176086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4644660949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7947578430176</t>
+    <t xml:space="preserve">46.8985214233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.464469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7947616577148</t>
   </si>
   <si>
     <t xml:space="preserve">48.8793487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0868644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4077186584473</t>
+    <t xml:space="preserve">49.0868682861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4077262878418</t>
   </si>
   <si>
     <t xml:space="preserve">48.5209121704102</t>
@@ -3302,28 +3302,28 @@
     <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4080276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4459114074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4930763244629</t>
+    <t xml:space="preserve">46.408031463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289657592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4459075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4930686950684</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174575805664</t>
+    <t xml:space="preserve">46.4174537658691</t>
   </si>
   <si>
     <t xml:space="preserve">46.096752166748</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8796577453613</t>
+    <t xml:space="preserve">46.8796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">47.9549598693848</t>
@@ -3335,13 +3335,13 @@
     <t xml:space="preserve">47.5022010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2946815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6531219482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5776596069336</t>
+    <t xml:space="preserve">47.2946853637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6531181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5776557922363</t>
   </si>
   <si>
     <t xml:space="preserve">48.577507019043</t>
@@ -3350,16 +3350,16 @@
     <t xml:space="preserve">48.426586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3701438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3887062072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4640159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0304183959961</t>
+    <t xml:space="preserve">47.3701515197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3887023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4640121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0304222106934</t>
   </si>
   <si>
     <t xml:space="preserve">48.0681533813477</t>
@@ -3368,22 +3368,22 @@
     <t xml:space="preserve">48.1247444152832</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5586395263672</t>
+    <t xml:space="preserve">48.5586433410645</t>
   </si>
   <si>
     <t xml:space="preserve">47.4267387390137</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5020484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3511276245117</t>
+    <t xml:space="preserve">48.5020446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3511238098145</t>
   </si>
   <si>
     <t xml:space="preserve">48.8038902282715</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0492858886719</t>
+    <t xml:space="preserve">48.0492897033691</t>
   </si>
   <si>
     <t xml:space="preserve">48.6529693603516</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">49.0114059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7660026550293</t>
+    <t xml:space="preserve">49.7660102844238</t>
   </si>
   <si>
     <t xml:space="preserve">49.5207595825195</t>
@@ -29874,7 +29874,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G918" t="s">
-        <v>765</v>
+        <v>710</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29900,7 +29900,7 @@
         <v>35.1399993896484</v>
       </c>
       <c r="G919" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29926,7 +29926,7 @@
         <v>35.0699996948242</v>
       </c>
       <c r="G920" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29952,7 +29952,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G921" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29978,7 +29978,7 @@
         <v>33.8600006103516</v>
       </c>
       <c r="G922" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -30004,7 +30004,7 @@
         <v>34.4300003051758</v>
       </c>
       <c r="G923" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -30030,7 +30030,7 @@
         <v>34.3600006103516</v>
       </c>
       <c r="G924" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -30056,7 +30056,7 @@
         <v>35.4599990844727</v>
       </c>
       <c r="G925" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -30108,7 +30108,7 @@
         <v>34.4199981689453</v>
       </c>
       <c r="G927" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -30160,7 +30160,7 @@
         <v>34.2099990844727</v>
       </c>
       <c r="G929" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -30186,7 +30186,7 @@
         <v>34</v>
       </c>
       <c r="G930" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -30212,7 +30212,7 @@
         <v>33.939998626709</v>
       </c>
       <c r="G931" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -30238,7 +30238,7 @@
         <v>34.0900001525879</v>
       </c>
       <c r="G932" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -30264,7 +30264,7 @@
         <v>34.310001373291</v>
       </c>
       <c r="G933" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -30316,7 +30316,7 @@
         <v>35.060001373291</v>
       </c>
       <c r="G935" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -30342,7 +30342,7 @@
         <v>35.8600006103516</v>
       </c>
       <c r="G936" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -30368,7 +30368,7 @@
         <v>35.9599990844727</v>
       </c>
       <c r="G937" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -30394,7 +30394,7 @@
         <v>35.4900016784668</v>
       </c>
       <c r="G938" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -30420,7 +30420,7 @@
         <v>35.2799987792969</v>
       </c>
       <c r="G939" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -30446,7 +30446,7 @@
         <v>35.3699989318848</v>
       </c>
       <c r="G940" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -30472,7 +30472,7 @@
         <v>35.3899993896484</v>
       </c>
       <c r="G941" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -30498,7 +30498,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G942" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -30524,7 +30524,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G943" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -30550,7 +30550,7 @@
         <v>34.1300010681152</v>
       </c>
       <c r="G944" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -30576,7 +30576,7 @@
         <v>31.7399997711182</v>
       </c>
       <c r="G945" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30602,7 +30602,7 @@
         <v>32.4700012207031</v>
       </c>
       <c r="G946" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30628,7 +30628,7 @@
         <v>32.6199989318848</v>
       </c>
       <c r="G947" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30654,7 +30654,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G948" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30680,7 +30680,7 @@
         <v>32.2299995422363</v>
       </c>
       <c r="G949" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30706,7 +30706,7 @@
         <v>32.1399993896484</v>
       </c>
       <c r="G950" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30732,7 +30732,7 @@
         <v>32.3600006103516</v>
       </c>
       <c r="G951" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30758,7 +30758,7 @@
         <v>32.8899993896484</v>
       </c>
       <c r="G952" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30784,7 +30784,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G953" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30810,7 +30810,7 @@
         <v>32.3400001525879</v>
       </c>
       <c r="G954" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30836,7 +30836,7 @@
         <v>31.5900001525879</v>
       </c>
       <c r="G955" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30862,7 +30862,7 @@
         <v>32.1100006103516</v>
       </c>
       <c r="G956" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30888,7 +30888,7 @@
         <v>32.5400009155273</v>
       </c>
       <c r="G957" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30914,7 +30914,7 @@
         <v>32.7400016784668</v>
       </c>
       <c r="G958" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30940,7 +30940,7 @@
         <v>32.5800018310547</v>
       </c>
       <c r="G959" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30966,7 +30966,7 @@
         <v>33.189998626709</v>
       </c>
       <c r="G960" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30992,7 +30992,7 @@
         <v>33.8199996948242</v>
       </c>
       <c r="G961" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -31018,7 +31018,7 @@
         <v>34.4799995422363</v>
       </c>
       <c r="G962" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -31044,7 +31044,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -31070,7 +31070,7 @@
         <v>34.0699996948242</v>
       </c>
       <c r="G964" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -31096,7 +31096,7 @@
         <v>33.6399993896484</v>
       </c>
       <c r="G965" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -31122,7 +31122,7 @@
         <v>33.310001373291</v>
       </c>
       <c r="G966" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -31148,7 +31148,7 @@
         <v>32.1699981689453</v>
       </c>
       <c r="G967" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -31174,7 +31174,7 @@
         <v>32.5</v>
       </c>
       <c r="G968" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -31200,7 +31200,7 @@
         <v>32.2799987792969</v>
       </c>
       <c r="G969" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -31226,7 +31226,7 @@
         <v>32.189998626709</v>
       </c>
       <c r="G970" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -31252,7 +31252,7 @@
         <v>32.4900016784668</v>
       </c>
       <c r="G971" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -31278,7 +31278,7 @@
         <v>36.1699981689453</v>
       </c>
       <c r="G972" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -31304,7 +31304,7 @@
         <v>35.5</v>
       </c>
       <c r="G973" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -31330,7 +31330,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G974" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -31356,7 +31356,7 @@
         <v>34.6800003051758</v>
       </c>
       <c r="G975" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -31408,7 +31408,7 @@
         <v>35.1699981689453</v>
       </c>
       <c r="G977" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -31434,7 +31434,7 @@
         <v>35.2900009155273</v>
       </c>
       <c r="G978" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -31460,7 +31460,7 @@
         <v>35.0299987792969</v>
       </c>
       <c r="G979" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -31512,7 +31512,7 @@
         <v>37.1100006103516</v>
       </c>
       <c r="G981" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -31538,7 +31538,7 @@
         <v>37.6399993896484</v>
       </c>
       <c r="G982" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -31564,7 +31564,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31590,7 +31590,7 @@
         <v>36.9599990844727</v>
       </c>
       <c r="G984" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31616,7 +31616,7 @@
         <v>36.8699989318848</v>
       </c>
       <c r="G985" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -31642,7 +31642,7 @@
         <v>36.439998626709</v>
       </c>
       <c r="G986" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31668,7 +31668,7 @@
         <v>36.560001373291</v>
       </c>
       <c r="G987" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -31694,7 +31694,7 @@
         <v>36.8400001525879</v>
       </c>
       <c r="G988" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31720,7 +31720,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G989" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31746,7 +31746,7 @@
         <v>37.75</v>
       </c>
       <c r="G990" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31772,7 +31772,7 @@
         <v>37.4300003051758</v>
       </c>
       <c r="G991" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31850,7 +31850,7 @@
         <v>39.0800018310547</v>
       </c>
       <c r="G994" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31876,7 +31876,7 @@
         <v>39.189998626709</v>
       </c>
       <c r="G995" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31902,7 +31902,7 @@
         <v>40.1399993896484</v>
       </c>
       <c r="G996" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31928,7 +31928,7 @@
         <v>39.7700004577637</v>
       </c>
       <c r="G997" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31954,7 +31954,7 @@
         <v>38.7900009155273</v>
       </c>
       <c r="G998" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31980,7 +31980,7 @@
         <v>38.6800003051758</v>
       </c>
       <c r="G999" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -32006,7 +32006,7 @@
         <v>38.8300018310547</v>
       </c>
       <c r="G1000" t="s">
-        <v>502</v>
+        <v>838</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -33280,7 +33280,7 @@
         <v>37.6399993896484</v>
       </c>
       <c r="G1049" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -33514,7 +33514,7 @@
         <v>34.4300003051758</v>
       </c>
       <c r="G1058" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -34034,7 +34034,7 @@
         <v>34</v>
       </c>
       <c r="G1078" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -34398,7 +34398,7 @@
         <v>34</v>
       </c>
       <c r="G1092" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -34476,7 +34476,7 @@
         <v>32.5800018310547</v>
       </c>
       <c r="G1095" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -34554,7 +34554,7 @@
         <v>34.6800003051758</v>
       </c>
       <c r="G1098" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -34580,7 +34580,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1099" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -34866,7 +34866,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -35152,7 +35152,7 @@
         <v>34.6800003051758</v>
       </c>
       <c r="G1121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -35438,7 +35438,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G1132" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -35464,7 +35464,7 @@
         <v>35.1399993896484</v>
       </c>
       <c r="G1133" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -35620,7 +35620,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1139" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -36192,7 +36192,7 @@
         <v>32.8899993896484</v>
       </c>
       <c r="G1161" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -36400,7 +36400,7 @@
         <v>32.2799987792969</v>
       </c>
       <c r="G1169" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -36452,7 +36452,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -36608,7 +36608,7 @@
         <v>32.2299995422363</v>
       </c>
       <c r="G1177" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -36764,7 +36764,7 @@
         <v>32.6199989318848</v>
       </c>
       <c r="G1183" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -36972,7 +36972,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1191" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -37024,7 +37024,7 @@
         <v>34.310001373291</v>
       </c>
       <c r="G1193" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -37206,7 +37206,7 @@
         <v>35.0699996948242</v>
       </c>
       <c r="G1200" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -37466,7 +37466,7 @@
         <v>36.1699981689453</v>
       </c>
       <c r="G1210" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -37596,7 +37596,7 @@
         <v>36.9599990844727</v>
       </c>
       <c r="G1215" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -37778,7 +37778,7 @@
         <v>37.4300003051758</v>
       </c>
       <c r="G1222" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -37934,7 +37934,7 @@
         <v>34.1300010681152</v>
       </c>
       <c r="G1228" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -37960,7 +37960,7 @@
         <v>34.3600006103516</v>
       </c>
       <c r="G1229" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -63266,7 +63266,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="1" t="n">
-        <v>45531.6496064815</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B2203" t="n">
         <v>473044</v>
@@ -63287,6 +63287,32 @@
         <v>1886</v>
       </c>
       <c r="H2203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>45532.6512847222</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>410078</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>55.7999992370605</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>55</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>55.4199981689453</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H2204" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1888">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2278308868408</t>
+    <t xml:space="preserve">11.2278299331665</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.119610786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9933519363403</t>
+    <t xml:space="preserve">11.1196098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.993353843689</t>
   </si>
   <si>
     <t xml:space="preserve">11.0474634170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1376466751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3270320892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.120644569397</t>
+    <t xml:space="preserve">11.1376457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3270311355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1206455230713</t>
   </si>
   <si>
     <t xml:space="preserve">11.7869663238525</t>
   </si>
   <si>
-    <t xml:space="preserve">11.63365650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7058029174805</t>
+    <t xml:space="preserve">11.6336555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089952468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7058019638062</t>
   </si>
   <si>
     <t xml:space="preserve">11.8951873779297</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">11.5615081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">11.985369682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2829751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657381057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2919940948486</t>
+    <t xml:space="preserve">11.9853715896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2919950485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.2649393081665</t>
@@ -101,34 +101,34 @@
     <t xml:space="preserve">12.2559223175049</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1116275787354</t>
+    <t xml:space="preserve">12.111629486084</t>
   </si>
   <si>
     <t xml:space="preserve">12.0575180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9222431182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0755558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5705261230469</t>
+    <t xml:space="preserve">11.9222440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.075553894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5705270767212</t>
   </si>
   <si>
     <t xml:space="preserve">11.4262342453003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4081974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0925550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4532890319824</t>
+    <t xml:space="preserve">11.1917562484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4081964492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0925559997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4532899856567</t>
   </si>
   <si>
     <t xml:space="preserve">11.8320589065552</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">12.0394811630249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5805826187134</t>
+    <t xml:space="preserve">12.5805797576904</t>
   </si>
   <si>
     <t xml:space="preserve">12.418251991272</t>
@@ -152,22 +152,22 @@
     <t xml:space="preserve">11.9583177566528</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3641424179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9142599105835</t>
+    <t xml:space="preserve">12.3641395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9142589569092</t>
   </si>
   <si>
     <t xml:space="preserve">13.1397171020508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9413146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3922309875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5906362533569</t>
+    <t xml:space="preserve">12.9413156509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3922319412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5906343460083</t>
   </si>
   <si>
     <t xml:space="preserve">13.6627817153931</t>
@@ -179,40 +179,40 @@
     <t xml:space="preserve">13.6357269287109</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8070755004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8972578048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184888839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2208824157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.238920211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1667737960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0765905380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1938285827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216821670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2749948501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988544464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3020477294922</t>
+    <t xml:space="preserve">13.807074546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8972587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184879302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2208833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2389211654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1667728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0765895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1938276290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216802597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2749938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988554000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3020486831665</t>
   </si>
   <si>
     <t xml:space="preserve">13.1577558517456</t>
@@ -230,106 +230,106 @@
     <t xml:space="preserve">13.0044422149658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2118635177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0495357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3291034698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3832149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5725984573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3471393585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8601503372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6797828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.769965171814</t>
+    <t xml:space="preserve">13.2118654251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0495347976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3291025161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725994110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3471403121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8601512908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.679783821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7699670791626</t>
   </si>
   <si>
     <t xml:space="preserve">13.1487369537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1757907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500452041626</t>
+    <t xml:space="preserve">13.1757917404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004510879517</t>
   </si>
   <si>
     <t xml:space="preserve">14.1227159500122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2489728927612</t>
+    <t xml:space="preserve">14.2489738464355</t>
   </si>
   <si>
     <t xml:space="preserve">14.1858444213867</t>
   </si>
   <si>
-    <t xml:space="preserve">14.140754699707</t>
+    <t xml:space="preserve">14.1407537460327</t>
   </si>
   <si>
     <t xml:space="preserve">13.8251123428345</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7529649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275087356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4091625213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7459850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6276435852051</t>
+    <t xml:space="preserve">13.7529640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.54554271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4091634750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7459859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
     <t xml:space="preserve">13.4546794891357</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6549520492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.782398223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6458492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.68226146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5457134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5001955032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8552265167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9189481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.928050994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4819898605347</t>
+    <t xml:space="preserve">13.6549530029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7823991775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6458501815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822633743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5001964569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8552255630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9189491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.928053855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.481990814209</t>
   </si>
   <si>
     <t xml:space="preserve">13.3363370895386</t>
@@ -344,85 +344,85 @@
     <t xml:space="preserve">13.035927772522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0008783340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8643283843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0463953018188</t>
+    <t xml:space="preserve">14.0008773803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8643274307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0463943481445</t>
   </si>
   <si>
     <t xml:space="preserve">14.4196300506592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1087551116943</t>
+    <t xml:space="preserve">13.10875415802</t>
   </si>
   <si>
     <t xml:space="preserve">12.4715232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3272342681885</t>
+    <t xml:space="preserve">12.8720684051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3272352218628</t>
   </si>
   <si>
     <t xml:space="preserve">13.172477722168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7901401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0268249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0541343688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1451663970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0996522903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545436859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1360645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1269617080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9448957443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275077819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0190849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3650102615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557706832886</t>
+    <t xml:space="preserve">12.7901382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0268239974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0541353225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1451683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0996503829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545427322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1360654830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1269598007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9448938369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0190839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3650093078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557716369629</t>
   </si>
   <si>
     <t xml:space="preserve">14.5652837753296</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2739791870117</t>
+    <t xml:space="preserve">14.2739782333374</t>
   </si>
   <si>
     <t xml:space="preserve">14.1465311050415</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6913661956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7915029525757</t>
+    <t xml:space="preserve">13.6913652420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7915010452271</t>
   </si>
   <si>
     <t xml:space="preserve">14.1192226409912</t>
@@ -431,79 +431,79 @@
     <t xml:space="preserve">14.2193574905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2102546691895</t>
+    <t xml:space="preserve">14.2102527618408</t>
   </si>
   <si>
     <t xml:space="preserve">14.0372905731201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2375640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1829423904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1101179122925</t>
+    <t xml:space="preserve">14.2375631332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1829433441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1101188659668</t>
   </si>
   <si>
     <t xml:space="preserve">13.955361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1920480728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9462585449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8825359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7732963562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7095737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5366096496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6003322601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7004690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9098453521729</t>
+    <t xml:space="preserve">14.1920471191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9462594985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8825340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7732973098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7095727920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5366086959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6003332138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7004680633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9098434448242</t>
   </si>
   <si>
     <t xml:space="preserve">13.718674659729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.891637802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1010141372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006048202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.201150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2648735046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6367444992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370180130005</t>
+    <t xml:space="preserve">13.8916387557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1010150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006057739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2011518478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.264874458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6367464065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370189666748</t>
   </si>
   <si>
     <t xml:space="preserve">13.8279142379761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9735689163208</t>
+    <t xml:space="preserve">13.9735679626465</t>
   </si>
   <si>
     <t xml:space="preserve">13.6640558242798</t>
@@ -521,55 +521,55 @@
     <t xml:space="preserve">14.1556329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0646018981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8097076416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5821256637573</t>
+    <t xml:space="preserve">14.0645999908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8097095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5821266174316</t>
   </si>
   <si>
     <t xml:space="preserve">13.5730228424072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6731605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.518404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8188133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5093002319336</t>
+    <t xml:space="preserve">13.6731586456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8188123703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092992782593</t>
   </si>
   <si>
     <t xml:space="preserve">13.9644651412964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0554981231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2466669082642</t>
+    <t xml:space="preserve">14.0554971694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2466678619385</t>
   </si>
   <si>
     <t xml:space="preserve">14.847484588623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8383817672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1205863952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3026523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2480278015137</t>
+    <t xml:space="preserve">14.8383798599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205854415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3026494979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2480306625366</t>
   </si>
   <si>
     <t xml:space="preserve">15.1023778915405</t>
@@ -578,34 +578,34 @@
     <t xml:space="preserve">14.7473497390747</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9385185241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9749336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.075065612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931383132935</t>
+    <t xml:space="preserve">14.9385194778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9749307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0750665664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931364059448</t>
   </si>
   <si>
     <t xml:space="preserve">14.8565874099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8838987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9021034240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0477590560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752033233643</t>
+    <t xml:space="preserve">14.8838996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9021072387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.047758102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935466766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752052307129</t>
   </si>
   <si>
     <t xml:space="preserve">14.911208152771</t>
@@ -614,31 +614,31 @@
     <t xml:space="preserve">14.874794960022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1569976806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6485748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6849889755249</t>
+    <t xml:space="preserve">15.1569957733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6485767364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6849899291992</t>
   </si>
   <si>
     <t xml:space="preserve">15.903468132019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9398813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6940927505493</t>
+    <t xml:space="preserve">15.9398794174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.694091796875</t>
   </si>
   <si>
     <t xml:space="preserve">15.9945011138916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.313117980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3859424591064</t>
+    <t xml:space="preserve">16.3131160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3859443664551</t>
   </si>
   <si>
     <t xml:space="preserve">16.4223575592041</t>
@@ -647,16 +647,16 @@
     <t xml:space="preserve">16.4132537841797</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4678745269775</t>
+    <t xml:space="preserve">16.4678726196289</t>
   </si>
   <si>
     <t xml:space="preserve">16.3313236236572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.249397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.20387840271</t>
+    <t xml:space="preserve">16.2493953704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2038764953613</t>
   </si>
   <si>
     <t xml:space="preserve">16.1310501098633</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">15.8488473892212</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1492557525635</t>
+    <t xml:space="preserve">16.1492576599121</t>
   </si>
   <si>
     <t xml:space="preserve">16.1947746276855</t>
@@ -677,79 +677,79 @@
     <t xml:space="preserve">16.1583595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1037406921387</t>
+    <t xml:space="preserve">16.10373878479</t>
   </si>
   <si>
     <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3222160339355</t>
+    <t xml:space="preserve">16.3222198486328</t>
   </si>
   <si>
     <t xml:space="preserve">16.2676010131836</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1128444671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856727600098</t>
+    <t xml:space="preserve">16.1128463745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856708526611</t>
   </si>
   <si>
     <t xml:space="preserve">16.4041500091553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3326854705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4965476989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3964099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5329608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5693759918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7514381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8970890045166</t>
+    <t xml:space="preserve">17.3326873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.496545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3964080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5329570770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.569372177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7514400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.806058883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8970909118652</t>
   </si>
   <si>
     <t xml:space="preserve">17.8424701690674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0973625183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2521209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4250812530518</t>
+    <t xml:space="preserve">18.0973644256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2521228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.425085067749</t>
   </si>
   <si>
     <t xml:space="preserve">18.1246738433838</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3067378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3340492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707378387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5161170959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6617679595947</t>
+    <t xml:space="preserve">18.3067417144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3340511322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707321166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.51611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6617698669434</t>
   </si>
   <si>
     <t xml:space="preserve">18.4159774780273</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">18.525218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.689079284668</t>
+    <t xml:space="preserve">18.6890773773193</t>
   </si>
   <si>
     <t xml:space="preserve">18.8711452484131</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">19.1897602081299</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4901695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4992694854736</t>
+    <t xml:space="preserve">19.4901714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4992713928223</t>
   </si>
   <si>
     <t xml:space="preserve">19.4628582000732</t>
@@ -779,55 +779,55 @@
     <t xml:space="preserve">19.7450618743896</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8269920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3718242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4719638824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5812015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7996788024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9635391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7268524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8451995849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7814750671387</t>
+    <t xml:space="preserve">19.8269901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3718280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4719619750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5812034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7996807098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9635410308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7268543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.845193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.78147315979</t>
   </si>
   <si>
     <t xml:space="preserve">20.4642219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7100105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.628080368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9466991424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1196575164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4018611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7555274963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0545768737793</t>
+    <t xml:space="preserve">20.7100124359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6280822753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9466972351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1196594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4018630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7555294036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0545749664307</t>
   </si>
   <si>
     <t xml:space="preserve">20.2730541229248</t>
@@ -836,22 +836,22 @@
     <t xml:space="preserve">20.1638126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2548446655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1456050872803</t>
+    <t xml:space="preserve">20.254846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1456069946289</t>
   </si>
   <si>
     <t xml:space="preserve">20.2639484405518</t>
   </si>
   <si>
-    <t xml:space="preserve">19.65403175354</t>
+    <t xml:space="preserve">19.6540279388428</t>
   </si>
   <si>
     <t xml:space="preserve">19.8178882598877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9188594818115</t>
+    <t xml:space="preserve">19.9188556671143</t>
   </si>
   <si>
     <t xml:space="preserve">19.9922924041748</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">19.8729629516602</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7536315917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4966144561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9005012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9739360809326</t>
+    <t xml:space="preserve">19.7536354064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4966163635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9004993438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.973934173584</t>
   </si>
   <si>
     <t xml:space="preserve">19.5425109863281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1845245361328</t>
+    <t xml:space="preserve">19.1845226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.2671356201172</t>
@@ -893,22 +893,22 @@
     <t xml:space="preserve">18.8357162475586</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0927314758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3864669799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3038539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6067657470703</t>
+    <t xml:space="preserve">19.0927276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3864650726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3038520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6067638397217</t>
   </si>
   <si>
     <t xml:space="preserve">19.4874362945557</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8821430206299</t>
+    <t xml:space="preserve">19.8821392059326</t>
   </si>
   <si>
     <t xml:space="preserve">19.4782562255859</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">18.8540725708008</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0651931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9917602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8632488250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.368106842041</t>
+    <t xml:space="preserve">19.0651950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9917583465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8632507324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3681049346924</t>
   </si>
   <si>
     <t xml:space="preserve">19.5516910552979</t>
@@ -956,40 +956,40 @@
     <t xml:space="preserve">19.643482208252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6710186004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7169170379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.698558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5333309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4598979949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5155086517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7449855804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8367767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6348361968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5338649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6715507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072978973389</t>
+    <t xml:space="preserve">19.6710224151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7169151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6985569000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5333366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4599018096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5155067443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.744987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8367805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6348342895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5338668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6715526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6073017120361</t>
   </si>
   <si>
     <t xml:space="preserve">20.6531944274902</t>
@@ -1001,22 +1001,22 @@
     <t xml:space="preserve">20.6256580352783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1305103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4334259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8373126983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6720867156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6353664398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.717981338501</t>
+    <t xml:space="preserve">21.1305122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4334297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8373107910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6720886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.635368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7179832458496</t>
   </si>
   <si>
     <t xml:space="preserve">21.6629066467285</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">21.5711135864258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4976806640625</t>
+    <t xml:space="preserve">21.4976825714111</t>
   </si>
   <si>
     <t xml:space="preserve">21.1580505371094</t>
@@ -1037,25 +1037,25 @@
     <t xml:space="preserve">21.9107456207275</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1953010559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0392532348633</t>
+    <t xml:space="preserve">22.1952991485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0392513275146</t>
   </si>
   <si>
     <t xml:space="preserve">22.0943279266357</t>
   </si>
   <si>
-    <t xml:space="preserve">22.296272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4614963531494</t>
+    <t xml:space="preserve">22.2962703704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.461498260498</t>
   </si>
   <si>
     <t xml:space="preserve">22.7368717193604</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6726169586182</t>
+    <t xml:space="preserve">22.6726188659668</t>
   </si>
   <si>
     <t xml:space="preserve">22.9020977020264</t>
@@ -1064,37 +1064,37 @@
     <t xml:space="preserve">22.9204540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8103084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5441074371338</t>
+    <t xml:space="preserve">22.8103065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5441093444824</t>
   </si>
   <si>
     <t xml:space="preserve">22.690975189209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5349273681641</t>
+    <t xml:space="preserve">22.5349311828613</t>
   </si>
   <si>
     <t xml:space="preserve">22.5165729522705</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5532875061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2595520019531</t>
+    <t xml:space="preserve">22.5532894134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2595539093018</t>
   </si>
   <si>
     <t xml:space="preserve">22.1218662261963</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3697032928467</t>
+    <t xml:space="preserve">22.3697052001953</t>
   </si>
   <si>
     <t xml:space="preserve">22.4156017303467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4431381225586</t>
+    <t xml:space="preserve">22.4431400299072</t>
   </si>
   <si>
     <t xml:space="preserve">22.1402244567871</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">22.048433303833</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7638759613037</t>
+    <t xml:space="preserve">21.7638778686523</t>
   </si>
   <si>
     <t xml:space="preserve">22.4523162841797</t>
@@ -1112,22 +1112,22 @@
     <t xml:space="preserve">22.5808258056641</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3605251312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5900077819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6542587280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7001571655273</t>
+    <t xml:space="preserve">22.360523223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5900058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.654260635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7001552581787</t>
   </si>
   <si>
     <t xml:space="preserve">22.2870922088623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7460517883301</t>
+    <t xml:space="preserve">22.7460536956787</t>
   </si>
   <si>
     <t xml:space="preserve">22.8653793334961</t>
@@ -1136,10 +1136,10 @@
     <t xml:space="preserve">22.6634387969971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4247779846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788833618164</t>
+    <t xml:space="preserve">22.4247817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788814544678</t>
   </si>
   <si>
     <t xml:space="preserve">22.3054504394531</t>
@@ -1151,34 +1151,34 @@
     <t xml:space="preserve">22.1494026184082</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0667934417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285697937012</t>
+    <t xml:space="preserve">22.0667915344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285678863525</t>
   </si>
   <si>
     <t xml:space="preserve">21.3508129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2957363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9561080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0570812225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377498626709</t>
+    <t xml:space="preserve">21.2957382202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9561061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0570793151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377479553223</t>
   </si>
   <si>
     <t xml:space="preserve">21.3875312805176</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3783531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4242458343506</t>
+    <t xml:space="preserve">21.3783512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4242496490479</t>
   </si>
   <si>
     <t xml:space="preserve">21.112154006958</t>
@@ -1187,46 +1187,46 @@
     <t xml:space="preserve">21.1396942138672</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672267913818</t>
+    <t xml:space="preserve">21.0846157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672306060791</t>
   </si>
   <si>
     <t xml:space="preserve">21.7271614074707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7088012695312</t>
+    <t xml:space="preserve">21.7088031768799</t>
   </si>
   <si>
     <t xml:space="preserve">22.250373840332</t>
   </si>
   <si>
-    <t xml:space="preserve">22.773588180542</t>
+    <t xml:space="preserve">22.7735900878906</t>
   </si>
   <si>
     <t xml:space="preserve">22.819486618042</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1958332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6267223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1407566070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2141895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1223964691162</t>
+    <t xml:space="preserve">23.1958312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6267204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.140754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2141914367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1224021911621</t>
   </si>
   <si>
     <t xml:space="preserve">23.4069557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5721817016602</t>
+    <t xml:space="preserve">23.5721797943115</t>
   </si>
   <si>
     <t xml:space="preserve">23.9760646820068</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">23.6823291778564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4987449645996</t>
+    <t xml:space="preserve">23.4987468719482</t>
   </si>
   <si>
     <t xml:space="preserve">23.957706451416</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">23.8659133911133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1315784454346</t>
+    <t xml:space="preserve">23.5171070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1315765380859</t>
   </si>
   <si>
     <t xml:space="preserve">23.0948600769043</t>
@@ -1268,34 +1268,34 @@
     <t xml:space="preserve">24.1412887573242</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6736831665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8205490112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5818920135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7103977203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8389053344727</t>
+    <t xml:space="preserve">24.6736812591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8205528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5818939208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7104015350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8389072418213</t>
   </si>
   <si>
     <t xml:space="preserve">24.8572673797607</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6186084747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4442024230957</t>
+    <t xml:space="preserve">24.6186103820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4442043304443</t>
   </si>
   <si>
     <t xml:space="preserve">24.3615894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5451717376709</t>
+    <t xml:space="preserve">24.5451736450195</t>
   </si>
   <si>
     <t xml:space="preserve">23.8842716217041</t>
@@ -1304,37 +1304,37 @@
     <t xml:space="preserve">23.7833003997803</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6920413970947</t>
+    <t xml:space="preserve">24.6920433044434</t>
   </si>
   <si>
     <t xml:space="preserve">23.6088962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3707675933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9949569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0230255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1148166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7751903533936</t>
+    <t xml:space="preserve">24.3707695007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9949550628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0230236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.114818572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7751865386963</t>
   </si>
   <si>
     <t xml:space="preserve">25.9128723144531</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9312305450439</t>
+    <t xml:space="preserve">25.9312324523926</t>
   </si>
   <si>
     <t xml:space="preserve">25.8119049072266</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7384700775146</t>
+    <t xml:space="preserve">25.7384719848633</t>
   </si>
   <si>
     <t xml:space="preserve">25.986307144165</t>
@@ -1346,19 +1346,19 @@
     <t xml:space="preserve">26.344295501709</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6650352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6099605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0505599975586</t>
+    <t xml:space="preserve">25.6650333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6099624633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0505638122559</t>
   </si>
   <si>
     <t xml:space="preserve">25.9220542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5737781524658</t>
+    <t xml:space="preserve">26.5737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">26.7665405273438</t>
@@ -1367,37 +1367,37 @@
     <t xml:space="preserve">26.8675117492676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0327396392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8491535186768</t>
+    <t xml:space="preserve">27.0327377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8491516113281</t>
   </si>
   <si>
     <t xml:space="preserve">27.1796054840088</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1153507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3264713287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.840503692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3270053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9506568908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0975227355957</t>
+    <t xml:space="preserve">27.115348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3264694213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8405055999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3270034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9506587982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0975246429443</t>
   </si>
   <si>
     <t xml:space="preserve">28.051628112793</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2994651794434</t>
+    <t xml:space="preserve">28.299467086792</t>
   </si>
   <si>
     <t xml:space="preserve">28.3637218475342</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">30.1720199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8323917388916</t>
+    <t xml:space="preserve">29.832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">30.2179164886475</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">30.5667285919189</t>
   </si>
   <si>
-    <t xml:space="preserve">30.649341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3188915252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9797897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2459869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8971748352051</t>
+    <t xml:space="preserve">30.6493434906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3188858032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9797916412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2459907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8971767425537</t>
   </si>
   <si>
     <t xml:space="preserve">31.6315155029297</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">32.4576416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3566741943359</t>
+    <t xml:space="preserve">32.3566703796387</t>
   </si>
   <si>
     <t xml:space="preserve">33.0634689331055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.136905670166</t>
+    <t xml:space="preserve">33.1369018554688</t>
   </si>
   <si>
     <t xml:space="preserve">33.4122772216797</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">34.3669128417969</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8809509277344</t>
+    <t xml:space="preserve">34.8809547424316</t>
   </si>
   <si>
     <t xml:space="preserve">33.5040702819824</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">32.7421913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4857139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.531608581543</t>
+    <t xml:space="preserve">33.4857177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5316009521484</t>
   </si>
   <si>
     <t xml:space="preserve">33.7702674865723</t>
@@ -1481,40 +1481,40 @@
     <t xml:space="preserve">34.146614074707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5413208007812</t>
+    <t xml:space="preserve">34.5413246154785</t>
   </si>
   <si>
     <t xml:space="preserve">34.5596771240234</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8625984191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7162590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1660385131836</t>
+    <t xml:space="preserve">34.8625907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7162551879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1660461425781</t>
   </si>
   <si>
     <t xml:space="preserve">35.9256744384766</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9457092285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1876335144043</t>
+    <t xml:space="preserve">34.9457054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.187629699707</t>
   </si>
   <si>
     <t xml:space="preserve">34.973445892334</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2954711914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4988555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3432388305664</t>
+    <t xml:space="preserve">36.295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4988594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3432464599609</t>
   </si>
   <si>
     <t xml:space="preserve">35.6390762329102</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">36.332447052002</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8316650390625</t>
+    <t xml:space="preserve">36.831672668457</t>
   </si>
   <si>
     <t xml:space="preserve">38.2184066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8023872375488</t>
+    <t xml:space="preserve">37.8023834228516</t>
   </si>
   <si>
     <t xml:space="preserve">36.7484664916992</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">38.1074676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4217910766602</t>
+    <t xml:space="preserve">38.4217948913574</t>
   </si>
   <si>
     <t xml:space="preserve">38.9949760437012</t>
@@ -1553,16 +1553,16 @@
     <t xml:space="preserve">38.8840408325195</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3385925292969</t>
+    <t xml:space="preserve">38.3385848999023</t>
   </si>
   <si>
     <t xml:space="preserve">37.1552391052246</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8409118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7762031555176</t>
+    <t xml:space="preserve">36.8409156799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7761993408203</t>
   </si>
   <si>
     <t xml:space="preserve">36.5820541381836</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">35.8979377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8794479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.999626159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.583610534668</t>
+    <t xml:space="preserve">35.8794441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9996299743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5836143493652</t>
   </si>
   <si>
     <t xml:space="preserve">36.0550994873047</t>
@@ -1586,64 +1586,64 @@
     <t xml:space="preserve">35.8332214355469</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9919319152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4187507629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2061195373535</t>
+    <t xml:space="preserve">34.9919357299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4187469482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2061233520508</t>
   </si>
   <si>
     <t xml:space="preserve">34.760814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5373878479004</t>
+    <t xml:space="preserve">35.5373802185059</t>
   </si>
   <si>
     <t xml:space="preserve">34.6498756408691</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3155059814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.082836151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6021003723145</t>
+    <t xml:space="preserve">35.3155097961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0828323364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6020965576172</t>
   </si>
   <si>
     <t xml:space="preserve">36.1105690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9534072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8702011108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.722282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6560211181641</t>
+    <t xml:space="preserve">35.9534111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8701972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7222862243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6560173034668</t>
   </si>
   <si>
     <t xml:space="preserve">35.3617362976074</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1675872802734</t>
+    <t xml:space="preserve">35.1675910949707</t>
   </si>
   <si>
     <t xml:space="preserve">34.2708320617676</t>
   </si>
   <si>
-    <t xml:space="preserve">34.871753692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6683616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8732986450195</t>
+    <t xml:space="preserve">34.8717575073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6683654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8733024597168</t>
   </si>
   <si>
     <t xml:space="preserve">34.7330780029297</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">34.8440170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0104293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2045669555664</t>
+    <t xml:space="preserve">35.010425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2045707702637</t>
   </si>
   <si>
     <t xml:space="preserve">35.0936317443848</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">35.2692832946777</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0643424987793</t>
+    <t xml:space="preserve">36.064338684082</t>
   </si>
   <si>
     <t xml:space="preserve">36.7114868164062</t>
@@ -1682,28 +1682,28 @@
     <t xml:space="preserve">36.6467742919922</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8131790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0181198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9903831481934</t>
+    <t xml:space="preserve">36.813175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0181159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9903869628906</t>
   </si>
   <si>
     <t xml:space="preserve">35.5928497314453</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2985687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7515678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8070373535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7700614929199</t>
+    <t xml:space="preserve">34.2985725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7515716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8070411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7700653076172</t>
   </si>
   <si>
     <t xml:space="preserve">35.2600364685059</t>
@@ -1712,40 +1712,40 @@
     <t xml:space="preserve">34.4464874267578</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0843849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8902473449707</t>
+    <t xml:space="preserve">35.0843811035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8902435302734</t>
   </si>
   <si>
     <t xml:space="preserve">35.0658912658691</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9826927185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5481758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8810005187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1398582458496</t>
+    <t xml:space="preserve">34.9826889038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5481796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8809967041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1398506164551</t>
   </si>
   <si>
     <t xml:space="preserve">35.7037963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4171981811523</t>
+    <t xml:space="preserve">35.4172019958496</t>
   </si>
   <si>
     <t xml:space="preserve">33.4295463562012</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2646942138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.902587890625</t>
+    <t xml:space="preserve">32.2646903991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9025917053223</t>
   </si>
   <si>
     <t xml:space="preserve">29.3340587615967</t>
@@ -1754,22 +1754,22 @@
     <t xml:space="preserve">28.9180393218994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5852203369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305271148682</t>
+    <t xml:space="preserve">28.5852222442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305290222168</t>
   </si>
   <si>
     <t xml:space="preserve">28.6499366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7886085510254</t>
+    <t xml:space="preserve">28.7886123657227</t>
   </si>
   <si>
     <t xml:space="preserve">28.8440799713135</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1044864654541</t>
+    <t xml:space="preserve">28.1044883728027</t>
   </si>
   <si>
     <t xml:space="preserve">28.1784477233887</t>
@@ -1778,76 +1778,76 @@
     <t xml:space="preserve">27.022834777832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6422424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2893848419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473266601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5497951507568</t>
+    <t xml:space="preserve">27.642240524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2893867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5497932434082</t>
   </si>
   <si>
     <t xml:space="preserve">27.9195899963379</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4742851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9534702301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5929145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3710403442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5282039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0844440460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8271408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4357528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4095687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.418815612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7254467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6253051757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2169780731201</t>
+    <t xml:space="preserve">28.3818340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4742832183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9534664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5929164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3710384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5282020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0844459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8271427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.435754776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4095706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4188137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7254486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6253032684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2169761657715</t>
   </si>
   <si>
     <t xml:space="preserve">27.1799964904785</t>
   </si>
   <si>
-    <t xml:space="preserve">27.808650970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5775279998779</t>
+    <t xml:space="preserve">27.8086490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5775260925293</t>
   </si>
   <si>
     <t xml:space="preserve">27.096794128418</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2816905975342</t>
+    <t xml:space="preserve">27.2816925048828</t>
   </si>
   <si>
     <t xml:space="preserve">26.6068153381348</t>
@@ -1862,28 +1862,28 @@
     <t xml:space="preserve">27.6792240142822</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8749141693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.226224899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8302440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6730823516846</t>
+    <t xml:space="preserve">26.8749160766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2262229919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8302421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6730804443359</t>
   </si>
   <si>
     <t xml:space="preserve">26.310977935791</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0151424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9797115325928</t>
+    <t xml:space="preserve">26.0151405334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.469690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9797134399414</t>
   </si>
   <si>
     <t xml:space="preserve">25.5159168243408</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">26.0521202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4881801605225</t>
+    <t xml:space="preserve">25.4881839752197</t>
   </si>
   <si>
     <t xml:space="preserve">25.6915683746338</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9319362640381</t>
+    <t xml:space="preserve">25.9319381713867</t>
   </si>
   <si>
     <t xml:space="preserve">26.7454872131348</t>
@@ -1907,16 +1907,16 @@
     <t xml:space="preserve">26.9581203460693</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7100601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8286914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5590400695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3171215057373</t>
+    <t xml:space="preserve">25.7100582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8286933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5590381622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3171195983887</t>
   </si>
   <si>
     <t xml:space="preserve">28.992000579834</t>
@@ -1931,16 +1931,16 @@
     <t xml:space="preserve">27.4018745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7069568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7809181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0490169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2801418304443</t>
+    <t xml:space="preserve">27.706958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7809143066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.049015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2801399230957</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531814575195</t>
@@ -1949,49 +1949,49 @@
     <t xml:space="preserve">28.3356075286865</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2616500854492</t>
+    <t xml:space="preserve">28.2616519927979</t>
   </si>
   <si>
     <t xml:space="preserve">28.622200012207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.323263168335</t>
+    <t xml:space="preserve">30.3232650756836</t>
   </si>
   <si>
     <t xml:space="preserve">30.4157161712646</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0166301727295</t>
+    <t xml:space="preserve">31.0166282653809</t>
   </si>
   <si>
     <t xml:space="preserve">31.2200202941895</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6267967224121</t>
+    <t xml:space="preserve">31.6267890930176</t>
   </si>
   <si>
     <t xml:space="preserve">30.859468460083</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0628566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586902618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1352615356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.347900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0335655212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7562217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2462043762207</t>
+    <t xml:space="preserve">31.0628547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1352577209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3478965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0335731506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.756217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2462005615234</t>
   </si>
   <si>
     <t xml:space="preserve">32.2092208862305</t>
@@ -2003,10 +2003,10 @@
     <t xml:space="preserve">32.0797996520996</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9041404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4033660888672</t>
+    <t xml:space="preserve">31.9041366577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4033622741699</t>
   </si>
   <si>
     <t xml:space="preserve">32.3386497497559</t>
@@ -2015,19 +2015,19 @@
     <t xml:space="preserve">31.1737957000732</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6221389770508</t>
+    <t xml:space="preserve">34.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">34.2523460388184</t>
   </si>
   <si>
-    <t xml:space="preserve">33.374080657959</t>
+    <t xml:space="preserve">33.3740768432617</t>
   </si>
   <si>
     <t xml:space="preserve">33.2816276550293</t>
   </si>
   <si>
-    <t xml:space="preserve">33.142951965332</t>
+    <t xml:space="preserve">33.1429557800293</t>
   </si>
   <si>
     <t xml:space="preserve">32.9580574035645</t>
@@ -2051,13 +2051,13 @@
     <t xml:space="preserve">33.651424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6714706420898</t>
+    <t xml:space="preserve">32.6714630126953</t>
   </si>
   <si>
     <t xml:space="preserve">32.1722412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8840980529785</t>
+    <t xml:space="preserve">32.8841018676758</t>
   </si>
   <si>
     <t xml:space="preserve">33.2076683044434</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">33.9657554626465</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0674438476562</t>
+    <t xml:space="preserve">34.0674476623535</t>
   </si>
   <si>
     <t xml:space="preserve">34.5944023132324</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">34.3910179138184</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3263053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2631454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059761047363</t>
+    <t xml:space="preserve">34.3263092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2631416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059799194336</t>
   </si>
   <si>
     <t xml:space="preserve">33.6699142456055</t>
@@ -2090,40 +2090,40 @@
     <t xml:space="preserve">33.7438735961914</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5497283935547</t>
+    <t xml:space="preserve">33.549732208252</t>
   </si>
   <si>
     <t xml:space="preserve">33.8825492858887</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5682182312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7623634338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3355484008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1414031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5127563476562</t>
+    <t xml:space="preserve">33.5682258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7623710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3355445861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1414070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.512752532959</t>
   </si>
   <si>
     <t xml:space="preserve">33.7993431091309</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8085899353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.688404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3817710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6144485473633</t>
+    <t xml:space="preserve">33.8085861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6884002685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3817672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.614444732666</t>
   </si>
   <si>
     <t xml:space="preserve">32.9950408935547</t>
@@ -2135,19 +2135,19 @@
     <t xml:space="preserve">33.9010353088379</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3848686218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.133716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5697708129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0042877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0225677490234</t>
+    <t xml:space="preserve">32.3848724365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1337127685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5697746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0225715637207</t>
   </si>
   <si>
     <t xml:space="preserve">32.3217582702637</t>
@@ -2162,43 +2162,43 @@
     <t xml:space="preserve">32.6957473754883</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7237930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2189102172852</t>
+    <t xml:space="preserve">32.7237892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2189140319824</t>
   </si>
   <si>
     <t xml:space="preserve">31.2091522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0408592224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8538646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9754085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5457344055176</t>
+    <t xml:space="preserve">31.0408554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8538608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9754104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5457382202148</t>
   </si>
   <si>
     <t xml:space="preserve">32.2563133239746</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4433059692383</t>
+    <t xml:space="preserve">32.4433097839355</t>
   </si>
   <si>
     <t xml:space="preserve">32.0973701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5555000305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1721687316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2469635009766</t>
+    <t xml:space="preserve">32.5554962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1721649169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2469673156738</t>
   </si>
   <si>
     <t xml:space="preserve">32.7705421447754</t>
@@ -2207,40 +2207,40 @@
     <t xml:space="preserve">33.0977821350098</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1075439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2290878295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1827507019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9770660400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8835678100586</t>
+    <t xml:space="preserve">34.1075477600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2290840148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1827583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8835639953613</t>
   </si>
   <si>
     <t xml:space="preserve">34.2477874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9766426086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7246208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1547050476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5286903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4538917541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9961700439453</t>
+    <t xml:space="preserve">33.9766464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7246170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1547012329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.528694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4538955688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.996166229248</t>
   </si>
   <si>
     <t xml:space="preserve">36.0990219116211</t>
@@ -2255,22 +2255,22 @@
     <t xml:space="preserve">35.7624320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8372268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.575439453125</t>
+    <t xml:space="preserve">35.837230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5754356384277</t>
   </si>
   <si>
     <t xml:space="preserve">35.9774742126465</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5193481445312</t>
+    <t xml:space="preserve">35.519344329834</t>
   </si>
   <si>
     <t xml:space="preserve">35.6128387451172</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7063369750977</t>
+    <t xml:space="preserve">35.7063331604004</t>
   </si>
   <si>
     <t xml:space="preserve">35.7250328063965</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">36.1457710266113</t>
   </si>
   <si>
-    <t xml:space="preserve">36.127067565918</t>
+    <t xml:space="preserve">36.1270713806152</t>
   </si>
   <si>
     <t xml:space="preserve">36.4169082641602</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">31.891674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8636264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2656631469727</t>
+    <t xml:space="preserve">31.8636302947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2656593322754</t>
   </si>
   <si>
     <t xml:space="preserve">32.8546867370605</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">31.9290752410889</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6579360961914</t>
+    <t xml:space="preserve">31.6579341888428</t>
   </si>
   <si>
     <t xml:space="preserve">32.1908645629883</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">32.125415802002</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1538772583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.181510925293</t>
+    <t xml:space="preserve">33.1538734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1815147399902</t>
   </si>
   <si>
     <t xml:space="preserve">31.9851684570312</t>
@@ -2339,10 +2339,10 @@
     <t xml:space="preserve">31.7888278961182</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7327270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.872974395752</t>
+    <t xml:space="preserve">31.7327308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8729782104492</t>
   </si>
   <si>
     <t xml:space="preserve">32.0786666870117</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">32.7798919677734</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5278701782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213607788086</t>
+    <t xml:space="preserve">33.5278663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213569641113</t>
   </si>
   <si>
     <t xml:space="preserve">33.1819305419922</t>
@@ -2363,13 +2363,13 @@
     <t xml:space="preserve">32.9855842590332</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0697326660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.088436126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8172912597656</t>
+    <t xml:space="preserve">33.0697288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0884284973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8172874450684</t>
   </si>
   <si>
     <t xml:space="preserve">32.0693168640137</t>
@@ -2387,25 +2387,25 @@
     <t xml:space="preserve">30.4985752105713</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0123920440674</t>
+    <t xml:space="preserve">30.012393951416</t>
   </si>
   <si>
     <t xml:space="preserve">30.1339378356934</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0497913360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2554874420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7510166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2367858886719</t>
+    <t xml:space="preserve">30.0497932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2554836273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7510185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5733757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2367839813232</t>
   </si>
   <si>
     <t xml:space="preserve">29.5355606079102</t>
@@ -2414,16 +2414,16 @@
     <t xml:space="preserve">30.0217437744141</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4237804412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6107730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4611778259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0315074920654</t>
+    <t xml:space="preserve">30.4237785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6107749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.461181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0315055847168</t>
   </si>
   <si>
     <t xml:space="preserve">31.620532989502</t>
@@ -2432,40 +2432,40 @@
     <t xml:space="preserve">32.2376098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9758243560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8542728424072</t>
+    <t xml:space="preserve">31.9758205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8542766571045</t>
   </si>
   <si>
     <t xml:space="preserve">31.4522399902344</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1437015533447</t>
+    <t xml:space="preserve">31.1437034606934</t>
   </si>
   <si>
     <t xml:space="preserve">30.0778388977051</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3863792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.180685043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0965385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3770332336426</t>
+    <t xml:space="preserve">30.3863773345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1806869506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0965404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3770294189453</t>
   </si>
   <si>
     <t xml:space="preserve">33.8177032470703</t>
   </si>
   <si>
-    <t xml:space="preserve">33.191276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4246101379395</t>
+    <t xml:space="preserve">33.1912727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4246063232422</t>
   </si>
   <si>
     <t xml:space="preserve">32.8827362060547</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">32.9949340820312</t>
   </si>
   <si>
-    <t xml:space="preserve">32.751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6965751647949</t>
+    <t xml:space="preserve">32.7518424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">35.1921005249023</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">34.7807197570801</t>
   </si>
   <si>
-    <t xml:space="preserve">34.556324005127</t>
+    <t xml:space="preserve">34.5563278198242</t>
   </si>
   <si>
     <t xml:space="preserve">34.4721794128418</t>
@@ -2495,10 +2495,10 @@
     <t xml:space="preserve">34.070140838623</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1823425292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4441337585449</t>
+    <t xml:space="preserve">34.1823387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4441299438477</t>
   </si>
   <si>
     <t xml:space="preserve">34.6872215270996</t>
@@ -2510,13 +2510,13 @@
     <t xml:space="preserve">34.9957580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5384559631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6412963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5295143127441</t>
+    <t xml:space="preserve">36.5384521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.641300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5295219421387</t>
   </si>
   <si>
     <t xml:space="preserve">37.1835823059082</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">36.1644668579102</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6701774597168</t>
+    <t xml:space="preserve">38.6701736450195</t>
   </si>
   <si>
     <t xml:space="preserve">39.4555473327637</t>
@@ -2537,22 +2537,22 @@
     <t xml:space="preserve">39.072208404541</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3526992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6140785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3335838317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2400932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6604156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8100051879883</t>
+    <t xml:space="preserve">39.3526954650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6140747070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3335876464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2400894165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6604080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.810001373291</t>
   </si>
   <si>
     <t xml:space="preserve">37.5482139587402</t>
@@ -2561,25 +2561,25 @@
     <t xml:space="preserve">37.697811126709</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2307395935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1372489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9876480102539</t>
+    <t xml:space="preserve">38.2307357788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1372413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9876556396484</t>
   </si>
   <si>
     <t xml:space="preserve">37.4640655517578</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9502563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4827690124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6510620117188</t>
+    <t xml:space="preserve">37.950252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4827728271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6510581970215</t>
   </si>
   <si>
     <t xml:space="preserve">38.4831809997559</t>
@@ -2588,31 +2588,31 @@
     <t xml:space="preserve">38.4644813537598</t>
   </si>
   <si>
-    <t xml:space="preserve">38.062442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1465911865234</t>
+    <t xml:space="preserve">38.0624465942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1465950012207</t>
   </si>
   <si>
     <t xml:space="preserve">38.8852157592773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9417304992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9043312072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9230308532715</t>
+    <t xml:space="preserve">39.9417266845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9043273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9230270385742</t>
   </si>
   <si>
     <t xml:space="preserve">38.6608238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8006553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7917213439941</t>
+    <t xml:space="preserve">37.8006591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7917251586914</t>
   </si>
   <si>
     <t xml:space="preserve">37.7165069580078</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">37.9128532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3327674865723</t>
+    <t xml:space="preserve">36.332763671875</t>
   </si>
   <si>
     <t xml:space="preserve">37.744556427002</t>
@@ -2630,13 +2630,13 @@
     <t xml:space="preserve">36.9872360229492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4636573791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8656883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3612213134766</t>
+    <t xml:space="preserve">36.4636535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8656921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3612251281738</t>
   </si>
   <si>
     <t xml:space="preserve">37.7819595336914</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">37.0152854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">36.192512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.146183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.136417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7534942626953</t>
+    <t xml:space="preserve">36.1925163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1461791992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1364212036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7534980773926</t>
   </si>
   <si>
     <t xml:space="preserve">35.6221885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7717819213867</t>
+    <t xml:space="preserve">35.7717781066895</t>
   </si>
   <si>
     <t xml:space="preserve">36.5010528564453</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">34.7339668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8733825683594</t>
+    <t xml:space="preserve">32.8733901977539</t>
   </si>
   <si>
     <t xml:space="preserve">32.8453407287598</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">33.3782691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9668807983398</t>
+    <t xml:space="preserve">32.9668846130371</t>
   </si>
   <si>
     <t xml:space="preserve">32.9294891357422</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">31.5270385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5351486206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1798610687256</t>
+    <t xml:space="preserve">28.5351505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.179859161377</t>
   </si>
   <si>
     <t xml:space="preserve">27.450590133667</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">24.3091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7684764862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6087055206299</t>
+    <t xml:space="preserve">27.7684783935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6087036132812</t>
   </si>
   <si>
     <t xml:space="preserve">25.2440700531006</t>
@@ -2720,16 +2720,16 @@
     <t xml:space="preserve">26.7400150299072</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3396339416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8823261260986</t>
+    <t xml:space="preserve">30.3396301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8823223114014</t>
   </si>
   <si>
     <t xml:space="preserve">32.1628150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1250038146973</t>
+    <t xml:space="preserve">31.1250057220459</t>
   </si>
   <si>
     <t xml:space="preserve">30.2835330963135</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">30.5172748565674</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7136154174805</t>
+    <t xml:space="preserve">30.7136173248291</t>
   </si>
   <si>
     <t xml:space="preserve">31.5083427429199</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">32.2750091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9575347900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3119964599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9941101074219</t>
+    <t xml:space="preserve">32.9575386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3119983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9941062927246</t>
   </si>
   <si>
     <t xml:space="preserve">31.9384231567383</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">32.2095603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6855659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.190450668335</t>
+    <t xml:space="preserve">30.6855697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1904525756836</t>
   </si>
   <si>
     <t xml:space="preserve">30.3209323883057</t>
@@ -2786,19 +2786,19 @@
     <t xml:space="preserve">30.6481685638428</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1900386810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6388187408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8160495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0961284637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0119819641113</t>
+    <t xml:space="preserve">30.1900405883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6388206481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8160514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0961303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0119800567627</t>
   </si>
   <si>
     <t xml:space="preserve">30.14328956604</t>
@@ -2807,34 +2807,34 @@
     <t xml:space="preserve">30.2741832733154</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1989727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7693023681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2185039520264</t>
+    <t xml:space="preserve">29.198974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7693061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2185001373291</t>
   </si>
   <si>
     <t xml:space="preserve">30.8071155548096</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6022453308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2745971679688</t>
+    <t xml:space="preserve">32.6022491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2745990753174</t>
   </si>
   <si>
     <t xml:space="preserve">31.4989852905273</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3311080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4713554382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4615936279297</t>
+    <t xml:space="preserve">32.331111907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4713516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4615898132324</t>
   </si>
   <si>
     <t xml:space="preserve">31.8075275421143</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">32.4059066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9388313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2099761962891</t>
+    <t xml:space="preserve">32.938835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2099800109863</t>
   </si>
   <si>
     <t xml:space="preserve">33.5091667175293</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5648536682129</t>
+    <t xml:space="preserve">32.5648498535156</t>
   </si>
   <si>
     <t xml:space="preserve">31.826229095459</t>
@@ -2870,22 +2870,22 @@
     <t xml:space="preserve">32.0319175720215</t>
   </si>
   <si>
-    <t xml:space="preserve">32.38720703125</t>
+    <t xml:space="preserve">32.3872032165527</t>
   </si>
   <si>
     <t xml:space="preserve">31.6859817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3965530395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9197235107422</t>
+    <t xml:space="preserve">32.396556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9197196960449</t>
   </si>
   <si>
     <t xml:space="preserve">31.7794799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0689029693604</t>
+    <t xml:space="preserve">31.068904876709</t>
   </si>
   <si>
     <t xml:space="preserve">31.4896411895752</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">31.4054927825928</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4335403442383</t>
+    <t xml:space="preserve">31.4335384368896</t>
   </si>
   <si>
     <t xml:space="preserve">31.0128059387207</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">30.4798755645752</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5079250335693</t>
+    <t xml:space="preserve">30.507926940918</t>
   </si>
   <si>
     <t xml:space="preserve">29.8253993988037</t>
@@ -2915,16 +2915,16 @@
     <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3026466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4892272949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375953674316</t>
+    <t xml:space="preserve">31.3026447296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416706085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4892253875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">29.9562969207764</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">31.0034580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2928848266602</t>
+    <t xml:space="preserve">30.2928810119629</t>
   </si>
   <si>
     <t xml:space="preserve">30.3676795959473</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">32.6209449768066</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9201393127441</t>
+    <t xml:space="preserve">32.9201354980469</t>
   </si>
   <si>
     <t xml:space="preserve">34.3506355285645</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4632415771484</t>
+    <t xml:space="preserve">35.4632453918457</t>
   </si>
   <si>
     <t xml:space="preserve">34.7994155883789</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">33.2941246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1632308959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0607948303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6774597167969</t>
+    <t xml:space="preserve">33.1632270812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0607986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3132362365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6774559020996</t>
   </si>
   <si>
     <t xml:space="preserve">34.0233955383301</t>
@@ -3011,25 +3011,25 @@
     <t xml:space="preserve">34.4067344665527</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4258460998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8742141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4075546264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5937232971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6303024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8359870910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6587562561035</t>
+    <t xml:space="preserve">35.4258422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.874210357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4075584411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5937271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.630298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8359909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6587600708008</t>
   </si>
   <si>
     <t xml:space="preserve">34.004695892334</t>
@@ -3038,16 +3038,16 @@
     <t xml:space="preserve">35.3603973388672</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1079559326172</t>
+    <t xml:space="preserve">35.1079597473145</t>
   </si>
   <si>
     <t xml:space="preserve">37.0994338989258</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1274833679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8567581176758</t>
+    <t xml:space="preserve">37.1274795532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8567543029785</t>
   </si>
   <si>
     <t xml:space="preserve">37.1087799072266</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">38.4083862304688</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3896903991699</t>
+    <t xml:space="preserve">38.3896865844727</t>
   </si>
   <si>
     <t xml:space="preserve">38.1278915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9595985412598</t>
+    <t xml:space="preserve">37.959602355957</t>
   </si>
   <si>
     <t xml:space="preserve">38.9787101745605</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">39.1750602722168</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7636756896973</t>
+    <t xml:space="preserve">38.763671875</t>
   </si>
   <si>
     <t xml:space="preserve">38.3429336547852</t>
@@ -3092,10 +3092,10 @@
     <t xml:space="preserve">39.820182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.390510559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1384811401367</t>
+    <t xml:space="preserve">40.3905067443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.138484954834</t>
   </si>
   <si>
     <t xml:space="preserve">41.9799575805664</t>
@@ -3110,22 +3110,22 @@
     <t xml:space="preserve">44.4856643676758</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7661514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6263198852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5421714782715</t>
+    <t xml:space="preserve">44.7661476135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6263160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5421676635742</t>
   </si>
   <si>
     <t xml:space="preserve">45.8133125305176</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4669570922852</t>
+    <t xml:space="preserve">45.3458290100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4669609069824</t>
   </si>
   <si>
     <t xml:space="preserve">45.2336349487305</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">45.0746879577637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4958343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0287704467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8791694641113</t>
+    <t xml:space="preserve">46.4958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0287666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8791732788086</t>
   </si>
   <si>
     <t xml:space="preserve">46.7482757568359</t>
@@ -3149,13 +3149,13 @@
     <t xml:space="preserve">45.4580230712891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4767227172852</t>
+    <t xml:space="preserve">45.4767189025879</t>
   </si>
   <si>
     <t xml:space="preserve">44.7100524902344</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9344444274902</t>
+    <t xml:space="preserve">44.934440612793</t>
   </si>
   <si>
     <t xml:space="preserve">44.8783416748047</t>
@@ -3164,13 +3164,13 @@
     <t xml:space="preserve">43.9807815551758</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0185928344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6726531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2706184387207</t>
+    <t xml:space="preserve">45.0185890197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6726493835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2706146240234</t>
   </si>
   <si>
     <t xml:space="preserve">45.2803802490234</t>
@@ -3185,13 +3185,13 @@
     <t xml:space="preserve">46.3649444580078</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2612648010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1864700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9624977111816</t>
+    <t xml:space="preserve">44.2612686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1864738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9624900817871</t>
   </si>
   <si>
     <t xml:space="preserve">44.373462677002</t>
@@ -3209,28 +3209,28 @@
     <t xml:space="preserve">47.5336494445801</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2255210876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7304077148438</t>
+    <t xml:space="preserve">48.225528717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7304039001465</t>
   </si>
   <si>
     <t xml:space="preserve">48.3003158569336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5995025634766</t>
+    <t xml:space="preserve">48.5995063781738</t>
   </si>
   <si>
     <t xml:space="preserve">47.9076385498047</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8051986694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4499130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3466529846191</t>
+    <t xml:space="preserve">48.8052024841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4499168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3466491699219</t>
   </si>
   <si>
     <t xml:space="preserve">47.2905578613281</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">48.524715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8889350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1058807373047</t>
+    <t xml:space="preserve">47.8889312744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.105884552002</t>
   </si>
   <si>
     <t xml:space="preserve">48.2379341125488</t>
@@ -3254,19 +3254,19 @@
     <t xml:space="preserve">48.3888549804688</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2000503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5584869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7661628723145</t>
+    <t xml:space="preserve">49.2000541687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5584907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7661590576172</t>
   </si>
   <si>
     <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7381629943848</t>
+    <t xml:space="preserve">46.738166809082</t>
   </si>
   <si>
     <t xml:space="preserve">46.8985252380371</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">47.464469909668</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7947616577148</t>
+    <t xml:space="preserve">46.7947578430176</t>
   </si>
   <si>
     <t xml:space="preserve">48.8793487548828</t>
@@ -3284,25 +3284,25 @@
     <t xml:space="preserve">49.0868644714355</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4077262878418</t>
+    <t xml:space="preserve">48.4077224731445</t>
   </si>
   <si>
     <t xml:space="preserve">48.5209121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8983688354492</t>
+    <t xml:space="preserve">47.898365020752</t>
   </si>
   <si>
     <t xml:space="preserve">47.2569541931152</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6344108581543</t>
+    <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
     <t xml:space="preserve">46.4080276489258</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2289619445801</t>
+    <t xml:space="preserve">45.2289657592773</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459075927734</t>
@@ -3314,28 +3314,28 @@
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174613952637</t>
+    <t xml:space="preserve">46.4174575805664</t>
   </si>
   <si>
     <t xml:space="preserve">46.096752166748</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8796577453613</t>
+    <t xml:space="preserve">46.8796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">47.954963684082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6910057067871</t>
+    <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
     <t xml:space="preserve">47.5022010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2946815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6531219482422</t>
+    <t xml:space="preserve">47.2946853637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6531181335449</t>
   </si>
   <si>
     <t xml:space="preserve">47.5776596069336</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">48.426586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3701438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3887023925781</t>
+    <t xml:space="preserve">47.3701477050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3887062072754</t>
   </si>
   <si>
     <t xml:space="preserve">50.4640121459961</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">48.0304222106934</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0681495666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1247482299805</t>
+    <t xml:space="preserve">48.0681533813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1247444152832</t>
   </si>
   <si>
     <t xml:space="preserve">48.5586433410645</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">47.4267387390137</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5020484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.351131439209</t>
+    <t xml:space="preserve">48.5020446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3511238098145</t>
   </si>
   <si>
     <t xml:space="preserve">48.8038902282715</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">48.0492858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6529655456543</t>
+    <t xml:space="preserve">48.6529731750488</t>
   </si>
   <si>
     <t xml:space="preserve">48.6718330383301</t>
@@ -3392,13 +3392,13 @@
     <t xml:space="preserve">49.011402130127</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7660026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5207633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2753601074219</t>
+    <t xml:space="preserve">49.7660064697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5207595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2753639221191</t>
   </si>
   <si>
     <t xml:space="preserve">50.5394744873047</t>
@@ -5673,6 +5673,9 @@
   </si>
   <si>
     <t xml:space="preserve">55.6199989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.6800003051758</t>
   </si>
 </sst>
 </file>
@@ -63344,7 +63347,7 @@
     </row>
     <row r="2206">
       <c r="A2206" s="1" t="n">
-        <v>45534.6512847222</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B2206" t="n">
         <v>1146507</v>
@@ -63365,6 +63368,32 @@
         <v>1885</v>
       </c>
       <c r="H2206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>45537.6495138889</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>506780</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>55.560001373291</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>54.0999984741211</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>54.6800003051758</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H2207" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1891">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2278308868408</t>
+    <t xml:space="preserve">11.2278299331665</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.119610786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9933519363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0474653244019</t>
+    <t xml:space="preserve">11.1196098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9933528900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0474643707275</t>
   </si>
   <si>
     <t xml:space="preserve">11.1376466751099</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3270320892334</t>
+    <t xml:space="preserve">11.3270311355591</t>
   </si>
   <si>
     <t xml:space="preserve">12.1206455230713</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">11.7869672775269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6336536407471</t>
+    <t xml:space="preserve">11.63365650177</t>
   </si>
   <si>
     <t xml:space="preserve">11.3089962005615</t>
@@ -74,67 +74,67 @@
     <t xml:space="preserve">11.7058010101318</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8951864242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5615091323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9853715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2829751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657381057739</t>
+    <t xml:space="preserve">11.8951854705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5615081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9853706359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657371520996</t>
   </si>
   <si>
     <t xml:space="preserve">12.2919940948486</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2649383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8861703872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559213638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1116275787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0575170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9222431182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.075553894043</t>
+    <t xml:space="preserve">12.2649402618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8861684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1116285324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0575189590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9222421646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0755529403687</t>
   </si>
   <si>
     <t xml:space="preserve">11.5705270767212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.426233291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1917552947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4081964492798</t>
+    <t xml:space="preserve">11.4262351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1917572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4081954956055</t>
   </si>
   <si>
     <t xml:space="preserve">11.0925559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4532899856567</t>
+    <t xml:space="preserve">11.4532890319824</t>
   </si>
   <si>
     <t xml:space="preserve">11.8320589065552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0394821166992</t>
+    <t xml:space="preserve">12.0394811630249</t>
   </si>
   <si>
     <t xml:space="preserve">12.5805797576904</t>
@@ -143,109 +143,109 @@
     <t xml:space="preserve">12.418251991272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4362878799438</t>
+    <t xml:space="preserve">12.4362888336182</t>
   </si>
   <si>
     <t xml:space="preserve">12.5715637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9583158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3641405105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9142599105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1397171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9413156509399</t>
+    <t xml:space="preserve">11.9583139419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3641414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9142589569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1397180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9413146972656</t>
   </si>
   <si>
     <t xml:space="preserve">13.3922328948975</t>
   </si>
   <si>
-    <t xml:space="preserve">13.590633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587905883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357269287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8972597122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184888839722</t>
+    <t xml:space="preserve">13.5906352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627807617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587886810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357259750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8070755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8972578048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184879302979</t>
   </si>
   <si>
     <t xml:space="preserve">13.2208824157715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2389192581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1667728424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0765895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.193826675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216812133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2749938964844</t>
+    <t xml:space="preserve">13.2389211654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1667737960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0765905380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1938276290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216802597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2749929428101</t>
   </si>
   <si>
     <t xml:space="preserve">13.6988554000854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3020486831665</t>
+    <t xml:space="preserve">13.3020477294922</t>
   </si>
   <si>
     <t xml:space="preserve">13.1577548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1036434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7609491348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9683704376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0044441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2118635177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0495357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3291034698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3832130432129</t>
+    <t xml:space="preserve">13.1036443710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.760947227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9683694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0044431686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2118654251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0495367050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3291025161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3832139968872</t>
   </si>
   <si>
     <t xml:space="preserve">13.5725984573364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3471393585205</t>
+    <t xml:space="preserve">13.3471412658691</t>
   </si>
   <si>
     <t xml:space="preserve">12.8601493835449</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">12.679783821106</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7699661254883</t>
+    <t xml:space="preserve">12.7699670791626</t>
   </si>
   <si>
     <t xml:space="preserve">13.1487350463867</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">14.2489738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">14.185845375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.140754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8251132965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7529649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455446243286</t>
+    <t xml:space="preserve">14.1858444213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1407537460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8251113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7529640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455436706543</t>
   </si>
   <si>
     <t xml:space="preserve">13.5275068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4091634750366</t>
+    <t xml:space="preserve">13.4091644287109</t>
   </si>
   <si>
     <t xml:space="preserve">13.7459850311279</t>
@@ -299,67 +299,67 @@
     <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4546804428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6549520492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7823991775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6458501815796</t>
+    <t xml:space="preserve">13.4546794891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.654953956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782398223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6458492279053</t>
   </si>
   <si>
     <t xml:space="preserve">13.6822624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5457134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5001955032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8552236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9189472198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9280519485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4819898605347</t>
+    <t xml:space="preserve">13.5457124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5001964569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8552255630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9189481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9280529022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4819889068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.3363370895386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993797302246</t>
+    <t xml:space="preserve">12.8993787765503</t>
   </si>
   <si>
     <t xml:space="preserve">13.3909568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0359287261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0008792877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8643274307251</t>
+    <t xml:space="preserve">13.035927772522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0008773803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8643283843994</t>
   </si>
   <si>
     <t xml:space="preserve">14.0463962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4196300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1087532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4715223312378</t>
+    <t xml:space="preserve">14.4196290969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.10875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4715232849121</t>
   </si>
   <si>
     <t xml:space="preserve">12.8720693588257</t>
@@ -371,16 +371,16 @@
     <t xml:space="preserve">13.1724786758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7901401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0268249511719</t>
+    <t xml:space="preserve">12.7901391983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0268239974976</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541343688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1451683044434</t>
+    <t xml:space="preserve">13.145167350769</t>
   </si>
   <si>
     <t xml:space="preserve">13.0996513366699</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">13.1360645294189</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1269607543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9448957443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0190849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557706832886</t>
+    <t xml:space="preserve">13.1269598007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9448947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0190839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.365008354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557697296143</t>
   </si>
   <si>
     <t xml:space="preserve">14.5652828216553</t>
@@ -413,61 +413,61 @@
     <t xml:space="preserve">14.2739772796631</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1465301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913661956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7915010452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192226409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2102527618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0372905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2375650405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1829452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1101179122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.955361366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1920480728149</t>
+    <t xml:space="preserve">14.1465311050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.691367149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7915029525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192197799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193574905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2102546691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0372915267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2375640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1829442977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1101188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9553604125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1920471191406</t>
   </si>
   <si>
     <t xml:space="preserve">13.9462585449219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8825359344482</t>
+    <t xml:space="preserve">13.8825330734253</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732954025269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7095718383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5366096496582</t>
+    <t xml:space="preserve">13.7095737457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5366086959839</t>
   </si>
   <si>
     <t xml:space="preserve">13.6003322601318</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7004699707031</t>
+    <t xml:space="preserve">13.7004690170288</t>
   </si>
   <si>
     <t xml:space="preserve">13.9098443984985</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">13.8916397094727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1010141372681</t>
+    <t xml:space="preserve">14.1010150909424</t>
   </si>
   <si>
     <t xml:space="preserve">13.8006048202515</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">13.8279151916504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9735679626465</t>
+    <t xml:space="preserve">13.9735689163208</t>
   </si>
   <si>
     <t xml:space="preserve">13.6640558242798</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">14.0828075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1556329727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0645999908447</t>
+    <t xml:space="preserve">14.1556339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.064600944519</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826707839966</t>
@@ -527,19 +527,19 @@
     <t xml:space="preserve">13.8097095489502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.582127571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5730228424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6731615066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.518404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8188133239746</t>
+    <t xml:space="preserve">13.5821266174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5730237960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6731595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184049606323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8188123703003</t>
   </si>
   <si>
     <t xml:space="preserve">13.509298324585</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">13.9644641876221</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0554981231689</t>
+    <t xml:space="preserve">14.0554971694946</t>
   </si>
   <si>
     <t xml:space="preserve">14.2466669082642</t>
   </si>
   <si>
-    <t xml:space="preserve">14.847484588623</t>
+    <t xml:space="preserve">14.8474836349487</t>
   </si>
   <si>
     <t xml:space="preserve">14.8383808135986</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">15.1205854415894</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3026514053345</t>
+    <t xml:space="preserve">15.3026504516602</t>
   </si>
   <si>
     <t xml:space="preserve">15.2480297088623</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1023769378662</t>
+    <t xml:space="preserve">15.1023778915405</t>
   </si>
   <si>
     <t xml:space="preserve">14.7473487854004</t>
@@ -578,73 +578,73 @@
     <t xml:space="preserve">14.9385194778442</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9749317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838996887207</t>
+    <t xml:space="preserve">14.9749307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0750665664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931392669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565893173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8838987350464</t>
   </si>
   <si>
     <t xml:space="preserve">14.9021062850952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0477590560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752052307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9112071990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.874794960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1569976806641</t>
+    <t xml:space="preserve">15.0477571487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935447692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752042770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.911208152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8747959136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1569967269897</t>
   </si>
   <si>
     <t xml:space="preserve">15.6485757827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6849889755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9034671783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9398813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6940927505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9945001602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3131160736084</t>
+    <t xml:space="preserve">15.6849880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9034690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9398794174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6940946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9944982528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.313117980957</t>
   </si>
   <si>
     <t xml:space="preserve">16.3859443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4223556518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4132518768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4678764343262</t>
+    <t xml:space="preserve">16.4223575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4132556915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4678745269775</t>
   </si>
   <si>
     <t xml:space="preserve">16.3313236236572</t>
@@ -656,25 +656,25 @@
     <t xml:space="preserve">16.2038764953613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1310520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8488483428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1492576599121</t>
+    <t xml:space="preserve">16.1310501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8488502502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1492557525635</t>
   </si>
   <si>
     <t xml:space="preserve">16.1947746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1583614349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1037425994873</t>
+    <t xml:space="preserve">16.1765689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1583595275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.10373878479</t>
   </si>
   <si>
     <t xml:space="preserve">16.3950481414795</t>
@@ -686,73 +686,73 @@
     <t xml:space="preserve">16.2676010131836</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1128482818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4041519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3326873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4965438842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3964099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.532958984375</t>
+    <t xml:space="preserve">16.1128444671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4041500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3326854705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.496545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3964080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5329570770264</t>
   </si>
   <si>
     <t xml:space="preserve">17.5693740844727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7514381408691</t>
+    <t xml:space="preserve">17.7514362335205</t>
   </si>
   <si>
     <t xml:space="preserve">17.8060569763184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8970909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8424701690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973625183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2521190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4250812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1246776580811</t>
+    <t xml:space="preserve">17.8970928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8424739837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973644256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2521228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4250831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1246738433838</t>
   </si>
   <si>
     <t xml:space="preserve">18.3067417144775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3340473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.51611328125</t>
+    <t xml:space="preserve">18.3340492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5161151885986</t>
   </si>
   <si>
     <t xml:space="preserve">18.6617679595947</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4159812927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.525218963623</t>
+    <t xml:space="preserve">18.415979385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5252208709717</t>
   </si>
   <si>
     <t xml:space="preserve">18.689079284668</t>
@@ -761,28 +761,28 @@
     <t xml:space="preserve">18.8711452484131</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1897621154785</t>
+    <t xml:space="preserve">19.1897602081299</t>
   </si>
   <si>
     <t xml:space="preserve">19.4901695251465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4992713928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4628601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.745059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3718242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.471960067749</t>
+    <t xml:space="preserve">19.4992733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4628582000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269939422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.371826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4719657897949</t>
   </si>
   <si>
     <t xml:space="preserve">19.5812015533447</t>
@@ -794,40 +794,40 @@
     <t xml:space="preserve">19.9635429382324</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7268562316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8451976776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7814769744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4642219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7100143432617</t>
+    <t xml:space="preserve">19.7268543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8451957702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7814750671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4642238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7100105285645</t>
   </si>
   <si>
     <t xml:space="preserve">20.6280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9466972351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1196613311768</t>
+    <t xml:space="preserve">20.9466953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1196594238281</t>
   </si>
   <si>
     <t xml:space="preserve">21.4018630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7555294036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0545749664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2730522155762</t>
+    <t xml:space="preserve">20.7555255889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.054573059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2730541229248</t>
   </si>
   <si>
     <t xml:space="preserve">20.1638126373291</t>
@@ -839,43 +839,43 @@
     <t xml:space="preserve">20.1456050872803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2639484405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6540260314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8178882598877</t>
+    <t xml:space="preserve">20.2639503479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6540279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8178863525391</t>
   </si>
   <si>
     <t xml:space="preserve">19.9188594818115</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9922924041748</t>
+    <t xml:space="preserve">19.9922943115234</t>
   </si>
   <si>
     <t xml:space="preserve">19.8729629516602</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7536334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860240936279</t>
+    <t xml:space="preserve">19.7536354064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860279083252</t>
   </si>
   <si>
     <t xml:space="preserve">19.4966163635254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9005012512207</t>
+    <t xml:space="preserve">19.9004993438721</t>
   </si>
   <si>
     <t xml:space="preserve">19.9739322662354</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5425148010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1845207214355</t>
+    <t xml:space="preserve">19.5425128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1845245361328</t>
   </si>
   <si>
     <t xml:space="preserve">19.2671356201172</t>
@@ -884,37 +884,37 @@
     <t xml:space="preserve">19.2304191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3405666351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.83571434021</t>
+    <t xml:space="preserve">19.3405685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8357124328613</t>
   </si>
   <si>
     <t xml:space="preserve">19.0927276611328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3864650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3038520812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6067676544189</t>
+    <t xml:space="preserve">19.3864631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3038501739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6067657470703</t>
   </si>
   <si>
     <t xml:space="preserve">19.487434387207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8821392059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4782562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.414005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4048233032227</t>
+    <t xml:space="preserve">19.8821411132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4782581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048252105713</t>
   </si>
   <si>
     <t xml:space="preserve">19.5884075164795</t>
@@ -926,67 +926,67 @@
     <t xml:space="preserve">18.6245937347412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8173561096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8907890319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8540706634521</t>
+    <t xml:space="preserve">18.8173542022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8907909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8540744781494</t>
   </si>
   <si>
     <t xml:space="preserve">19.0651950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9917602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8632488250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3681087493896</t>
+    <t xml:space="preserve">18.9917583465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8632469177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3681049346924</t>
   </si>
   <si>
     <t xml:space="preserve">19.5516891479492</t>
   </si>
   <si>
-    <t xml:space="preserve">19.643482208252</t>
+    <t xml:space="preserve">19.6434803009033</t>
   </si>
   <si>
     <t xml:space="preserve">19.6710205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7169189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6985569000244</t>
+    <t xml:space="preserve">19.7169170379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.698558807373</t>
   </si>
   <si>
     <t xml:space="preserve">19.533332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4598979949951</t>
+    <t xml:space="preserve">19.4598999023438</t>
   </si>
   <si>
     <t xml:space="preserve">20.5155067443848</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7449855804443</t>
+    <t xml:space="preserve">20.7449836730957</t>
   </si>
   <si>
     <t xml:space="preserve">20.8367805480957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6348342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5338649749756</t>
+    <t xml:space="preserve">20.6348361968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5338668823242</t>
   </si>
   <si>
     <t xml:space="preserve">20.6715526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6072998046875</t>
+    <t xml:space="preserve">20.6072978973389</t>
   </si>
   <si>
     <t xml:space="preserve">20.6531944274902</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">20.6256561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1305122375488</t>
+    <t xml:space="preserve">21.1305141448975</t>
   </si>
   <si>
     <t xml:space="preserve">21.4334239959717</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">21.8373126983643</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6720848083496</t>
+    <t xml:space="preserve">21.6720886230469</t>
   </si>
   <si>
     <t xml:space="preserve">21.635368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.717981338501</t>
+    <t xml:space="preserve">21.7179832458496</t>
   </si>
   <si>
     <t xml:space="preserve">21.6629066467285</t>
@@ -1025,40 +1025,40 @@
     <t xml:space="preserve">21.4976806640625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1580505371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5619373321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9107456207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1952991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0392551422119</t>
+    <t xml:space="preserve">21.1580486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5619354248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9107437133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0392513275146</t>
   </si>
   <si>
     <t xml:space="preserve">22.0943279266357</t>
   </si>
   <si>
-    <t xml:space="preserve">22.296272277832</t>
+    <t xml:space="preserve">22.2962741851807</t>
   </si>
   <si>
     <t xml:space="preserve">22.4614963531494</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7368717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6726169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.902099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9204540252686</t>
+    <t xml:space="preserve">22.736873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6726188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9020977020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9204559326172</t>
   </si>
   <si>
     <t xml:space="preserve">22.8103065490723</t>
@@ -1067,43 +1067,43 @@
     <t xml:space="preserve">22.5441093444824</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6909770965576</t>
+    <t xml:space="preserve">22.690975189209</t>
   </si>
   <si>
     <t xml:space="preserve">22.5349292755127</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5165710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5532875061035</t>
+    <t xml:space="preserve">22.5165729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5532894134521</t>
   </si>
   <si>
     <t xml:space="preserve">22.2595539093018</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1218681335449</t>
+    <t xml:space="preserve">22.1218643188477</t>
   </si>
   <si>
     <t xml:space="preserve">22.3697052001953</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4156017303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4431419372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1402282714844</t>
+    <t xml:space="preserve">22.415599822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4431400299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1402244567871</t>
   </si>
   <si>
     <t xml:space="preserve">22.048433303833</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7638759613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4523162841797</t>
+    <t xml:space="preserve">21.7638740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4523181915283</t>
   </si>
   <si>
     <t xml:space="preserve">22.5808277130127</t>
@@ -1112,88 +1112,88 @@
     <t xml:space="preserve">22.3605251312256</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5900039672852</t>
+    <t xml:space="preserve">22.5900058746338</t>
   </si>
   <si>
     <t xml:space="preserve">22.6542587280273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7001533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2870922088623</t>
+    <t xml:space="preserve">22.7001552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2870941162109</t>
   </si>
   <si>
     <t xml:space="preserve">22.7460536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8653812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6634407043457</t>
+    <t xml:space="preserve">22.8653793334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6634387969971</t>
   </si>
   <si>
     <t xml:space="preserve">22.4247798919678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3788795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3054485321045</t>
+    <t xml:space="preserve">22.3788833618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3054523468018</t>
   </si>
   <si>
     <t xml:space="preserve">22.2411956787109</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1494026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285717010498</t>
+    <t xml:space="preserve">22.1494045257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667915344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285678863525</t>
   </si>
   <si>
     <t xml:space="preserve">21.3508148193359</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2957401275635</t>
+    <t xml:space="preserve">21.2957382202148</t>
   </si>
   <si>
     <t xml:space="preserve">20.9561080932617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0570774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9377460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3875312805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3783493041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4242477416992</t>
+    <t xml:space="preserve">21.0570793151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9377498626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3875293731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3783531188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4242496490479</t>
   </si>
   <si>
     <t xml:space="preserve">21.112154006958</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1396923065186</t>
+    <t xml:space="preserve">21.1396903991699</t>
   </si>
   <si>
     <t xml:space="preserve">21.0846176147461</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1672286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7271575927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7087993621826</t>
+    <t xml:space="preserve">21.1672325134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7271595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7088012695312</t>
   </si>
   <si>
     <t xml:space="preserve">22.2503757476807</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">22.7735900878906</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8194847106934</t>
+    <t xml:space="preserve">22.819486618042</t>
   </si>
   <si>
     <t xml:space="preserve">23.1958312988281</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">22.6267223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1407566070557</t>
+    <t xml:space="preserve">23.140754699707</t>
   </si>
   <si>
     <t xml:space="preserve">23.2141914367676</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">23.1223983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4069538116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5721778869629</t>
+    <t xml:space="preserve">23.4069557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5721797943115</t>
   </si>
   <si>
     <t xml:space="preserve">23.9760627746582</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">24.2330799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9393482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6823272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4987468719482</t>
+    <t xml:space="preserve">23.9393463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6823291778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4987449645996</t>
   </si>
   <si>
     <t xml:space="preserve">23.9577045440674</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">23.8659133911133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1315746307373</t>
+    <t xml:space="preserve">23.5171070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1315784454346</t>
   </si>
   <si>
     <t xml:space="preserve">23.0948619842529</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">23.351879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1412887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6736812591553</t>
+    <t xml:space="preserve">24.1412868499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6736850738525</t>
   </si>
   <si>
     <t xml:space="preserve">24.8205509185791</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5818901062012</t>
+    <t xml:space="preserve">24.5818881988525</t>
   </si>
   <si>
     <t xml:space="preserve">24.7103977203369</t>
@@ -1280,46 +1280,46 @@
     <t xml:space="preserve">24.8389072418213</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8572673797607</t>
+    <t xml:space="preserve">24.8572654724121</t>
   </si>
   <si>
     <t xml:space="preserve">24.6186084747314</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4442043304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3615913391113</t>
+    <t xml:space="preserve">24.4442024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.36159324646</t>
   </si>
   <si>
     <t xml:space="preserve">24.5451717376709</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8842735290527</t>
+    <t xml:space="preserve">23.8842754364014</t>
   </si>
   <si>
     <t xml:space="preserve">23.7832984924316</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6920433044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6088943481445</t>
+    <t xml:space="preserve">24.6920394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6088962554932</t>
   </si>
   <si>
     <t xml:space="preserve">24.3707675933838</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9949569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0230255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.114818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7751865386963</t>
+    <t xml:space="preserve">24.9949550628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0230236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1148204803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7751884460449</t>
   </si>
   <si>
     <t xml:space="preserve">25.9128742218018</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">25.8119049072266</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7384700775146</t>
+    <t xml:space="preserve">25.7384719848633</t>
   </si>
   <si>
     <t xml:space="preserve">25.9863052368164</t>
@@ -1340,19 +1340,19 @@
     <t xml:space="preserve">26.4911632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">26.344295501709</t>
+    <t xml:space="preserve">26.3442993164062</t>
   </si>
   <si>
     <t xml:space="preserve">25.6650333404541</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6099624633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0505619049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9220542907715</t>
+    <t xml:space="preserve">25.6099605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0505638122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9220523834229</t>
   </si>
   <si>
     <t xml:space="preserve">26.5737781524658</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">26.8491535186768</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1796035766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1153507232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3264751434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8405075073242</t>
+    <t xml:space="preserve">27.1796054840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.115348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.326473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8405094146729</t>
   </si>
   <si>
     <t xml:space="preserve">28.3270053863525</t>
@@ -1388,34 +1388,34 @@
     <t xml:space="preserve">27.9506568908691</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0975227355957</t>
+    <t xml:space="preserve">28.097526550293</t>
   </si>
   <si>
     <t xml:space="preserve">28.0516262054443</t>
   </si>
   <si>
-    <t xml:space="preserve">28.299467086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3637180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1720199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.832389831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2179183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5667304992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6493396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3188877105713</t>
+    <t xml:space="preserve">28.2994651794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3637199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1720218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8323917388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2179164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5667285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6493434906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3188896179199</t>
   </si>
   <si>
     <t xml:space="preserve">30.9797916412354</t>
@@ -1424,43 +1424,43 @@
     <t xml:space="preserve">31.2459907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8971767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6315174102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3383102416992</t>
+    <t xml:space="preserve">30.8971786499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6315135955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3383140563965</t>
   </si>
   <si>
     <t xml:space="preserve">32.1455535888672</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4576454162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3566703796387</t>
+    <t xml:space="preserve">32.4576416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3566741943359</t>
   </si>
   <si>
     <t xml:space="preserve">33.0634727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.136905670166</t>
+    <t xml:space="preserve">33.1368980407715</t>
   </si>
   <si>
     <t xml:space="preserve">33.412281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9171371459961</t>
+    <t xml:space="preserve">33.9171333312988</t>
   </si>
   <si>
     <t xml:space="preserve">34.3669128417969</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8809547424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5040702819824</t>
+    <t xml:space="preserve">34.8809471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5040740966797</t>
   </si>
   <si>
     <t xml:space="preserve">32.7421951293945</t>
@@ -1487,46 +1487,46 @@
     <t xml:space="preserve">34.8625907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7162590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1660385131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9256706237793</t>
+    <t xml:space="preserve">35.7162628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1660423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9256744384766</t>
   </si>
   <si>
     <t xml:space="preserve">34.9457130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1876335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9734535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2954635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4988555908203</t>
+    <t xml:space="preserve">34.187629699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.973445892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4988594055176</t>
   </si>
   <si>
     <t xml:space="preserve">35.3432426452637</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6390800476074</t>
+    <t xml:space="preserve">35.6390762329102</t>
   </si>
   <si>
     <t xml:space="preserve">36.3047103881836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3324432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8316688537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2184104919434</t>
+    <t xml:space="preserve">36.332447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8316650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2184028625488</t>
   </si>
   <si>
     <t xml:space="preserve">37.8023834228516</t>
@@ -1538,46 +1538,46 @@
     <t xml:space="preserve">37.7838935852051</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1074638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4217910766602</t>
+    <t xml:space="preserve">38.1074676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4217948913574</t>
   </si>
   <si>
     <t xml:space="preserve">38.9949760437012</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8840408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3385925292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1552429199219</t>
+    <t xml:space="preserve">38.8840370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3385887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1552391052246</t>
   </si>
   <si>
     <t xml:space="preserve">36.8409156799316</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7762031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5820579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8979377746582</t>
+    <t xml:space="preserve">36.7761993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5820617675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8979415893555</t>
   </si>
   <si>
     <t xml:space="preserve">35.8794479370117</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9996299743652</t>
+    <t xml:space="preserve">35.9996337890625</t>
   </si>
   <si>
     <t xml:space="preserve">35.583610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0550956726074</t>
+    <t xml:space="preserve">36.0550994873047</t>
   </si>
   <si>
     <t xml:space="preserve">35.8332214355469</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">34.4187507629395</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2061195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.760814666748</t>
+    <t xml:space="preserve">34.2061233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7608108520508</t>
   </si>
   <si>
     <t xml:space="preserve">35.5373840332031</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">34.6498794555664</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3155059814453</t>
+    <t xml:space="preserve">35.3155136108398</t>
   </si>
   <si>
     <t xml:space="preserve">36.0828285217285</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6020965576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1105690002441</t>
+    <t xml:space="preserve">35.6021003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1105728149414</t>
   </si>
   <si>
     <t xml:space="preserve">35.9534034729004</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">35.8702011108398</t>
   </si>
   <si>
-    <t xml:space="preserve">35.722282409668</t>
+    <t xml:space="preserve">35.7222785949707</t>
   </si>
   <si>
     <t xml:space="preserve">36.6560211181641</t>
@@ -1631,31 +1631,31 @@
     <t xml:space="preserve">35.1675910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2708320617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.871753692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6683654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8733062744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7330741882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8440170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0104293823242</t>
+    <t xml:space="preserve">34.2708358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8717575073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6683692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8732986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7330780029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8440132141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.010425567627</t>
   </si>
   <si>
     <t xml:space="preserve">35.2045707702637</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0936279296875</t>
+    <t xml:space="preserve">35.0936317443848</t>
   </si>
   <si>
     <t xml:space="preserve">34.4834632873535</t>
@@ -1667,40 +1667,40 @@
     <t xml:space="preserve">34.9549560546875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2692832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0643463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7114906311035</t>
+    <t xml:space="preserve">35.269287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7114868164062</t>
   </si>
   <si>
     <t xml:space="preserve">36.6467704772949</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8131828308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0181198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9903831481934</t>
+    <t xml:space="preserve">36.813175201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0181159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9903907775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.5928535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2985687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7515716552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8070411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7700538635254</t>
+    <t xml:space="preserve">34.2985725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7515678405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8070449829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7700576782227</t>
   </si>
   <si>
     <t xml:space="preserve">35.2600402832031</t>
@@ -1709,25 +1709,25 @@
     <t xml:space="preserve">34.4464836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0843811035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0658950805664</t>
+    <t xml:space="preserve">35.0843849182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8902473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0658912658691</t>
   </si>
   <si>
     <t xml:space="preserve">34.9826889038086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5481796264648</t>
+    <t xml:space="preserve">34.5481758117676</t>
   </si>
   <si>
     <t xml:space="preserve">34.8810005187988</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1398544311523</t>
+    <t xml:space="preserve">35.1398468017578</t>
   </si>
   <si>
     <t xml:space="preserve">35.7037925720215</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">35.4172058105469</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4295463562012</t>
+    <t xml:space="preserve">33.4295501708984</t>
   </si>
   <si>
     <t xml:space="preserve">32.2646903991699</t>
@@ -1745,58 +1745,58 @@
     <t xml:space="preserve">32.9025917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3340625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9180393218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5852241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305290222168</t>
+    <t xml:space="preserve">29.3340606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.918041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5852222442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305309295654</t>
   </si>
   <si>
     <t xml:space="preserve">28.6499366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">28.788610458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440780639648</t>
+    <t xml:space="preserve">28.7886085510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440818786621</t>
   </si>
   <si>
     <t xml:space="preserve">28.1044864654541</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1784496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0228366851807</t>
+    <t xml:space="preserve">28.1784477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.022834777832</t>
   </si>
   <si>
     <t xml:space="preserve">27.6422424316406</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2893886566162</t>
+    <t xml:space="preserve">28.2893867492676</t>
   </si>
   <si>
     <t xml:space="preserve">27.947322845459</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5497913360596</t>
+    <t xml:space="preserve">27.5497932434082</t>
   </si>
   <si>
     <t xml:space="preserve">27.9195899963379</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4742851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9534683227539</t>
+    <t xml:space="preserve">28.3818340301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4742832183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9534702301025</t>
   </si>
   <si>
     <t xml:space="preserve">29.5929164886475</t>
@@ -1805,16 +1805,16 @@
     <t xml:space="preserve">29.3710403442383</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5282039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0844478607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8271427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4357528686523</t>
+    <t xml:space="preserve">29.5282001495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0844440460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8271408081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.435754776001</t>
   </si>
   <si>
     <t xml:space="preserve">28.4095706939697</t>
@@ -1823,19 +1823,19 @@
     <t xml:space="preserve">28.4188137054443</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7254467010498</t>
+    <t xml:space="preserve">27.7254486083984</t>
   </si>
   <si>
     <t xml:space="preserve">26.6253032684326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2169780731201</t>
+    <t xml:space="preserve">27.2169761657715</t>
   </si>
   <si>
     <t xml:space="preserve">27.1799983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8086528778076</t>
+    <t xml:space="preserve">27.8086490631104</t>
   </si>
   <si>
     <t xml:space="preserve">27.5775299072266</t>
@@ -1847,49 +1847,49 @@
     <t xml:space="preserve">27.2816925048828</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6068172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1876907348633</t>
+    <t xml:space="preserve">26.6068134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1876926422119</t>
   </si>
   <si>
     <t xml:space="preserve">27.1337757110596</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6792221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8749141693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2262268066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8302440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6730785369873</t>
+    <t xml:space="preserve">27.6792240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8749179840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2262229919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8302421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6730804443359</t>
   </si>
   <si>
     <t xml:space="preserve">26.3109760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0151424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4696922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9797134399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5159168243408</t>
+    <t xml:space="preserve">26.0151386260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.469690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9797115325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5159187316895</t>
   </si>
   <si>
     <t xml:space="preserve">26.0521202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4881820678711</t>
+    <t xml:space="preserve">25.4881839752197</t>
   </si>
   <si>
     <t xml:space="preserve">25.6915702819824</t>
@@ -1898,28 +1898,28 @@
     <t xml:space="preserve">25.9319362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7454872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.958122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7100582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8286895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5590400695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.31711769104</t>
+    <t xml:space="preserve">26.7454891204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9581203460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7100601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8286914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5590381622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3171195983887</t>
   </si>
   <si>
     <t xml:space="preserve">28.9919986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5297546386719</t>
+    <t xml:space="preserve">28.5297527313232</t>
   </si>
   <si>
     <t xml:space="preserve">27.4296131134033</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">27.401876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7069549560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7809143066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0490188598633</t>
+    <t xml:space="preserve">27.7069568634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7809162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0490169525146</t>
   </si>
   <si>
     <t xml:space="preserve">28.2801418304443</t>
@@ -1946,31 +1946,31 @@
     <t xml:space="preserve">28.3356094360352</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2616519927979</t>
+    <t xml:space="preserve">28.2616539001465</t>
   </si>
   <si>
     <t xml:space="preserve">28.6222019195557</t>
   </si>
   <si>
-    <t xml:space="preserve">30.323263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4157123565674</t>
+    <t xml:space="preserve">30.3232612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.415714263916</t>
   </si>
   <si>
     <t xml:space="preserve">31.0166282653809</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2200202941895</t>
+    <t xml:space="preserve">31.2200164794922</t>
   </si>
   <si>
     <t xml:space="preserve">31.6267929077148</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8594665527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0628547668457</t>
+    <t xml:space="preserve">30.8594703674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0628509521484</t>
   </si>
   <si>
     <t xml:space="preserve">31.3586902618408</t>
@@ -1979,31 +1979,31 @@
     <t xml:space="preserve">32.1352615356445</t>
   </si>
   <si>
-    <t xml:space="preserve">32.347900390625</t>
+    <t xml:space="preserve">32.3478965759277</t>
   </si>
   <si>
     <t xml:space="preserve">32.0335731506348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7562198638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.246208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2092247009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0890426635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0797920227051</t>
+    <t xml:space="preserve">31.7562236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2462043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2092208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.089038848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0797958374023</t>
   </si>
   <si>
     <t xml:space="preserve">31.9041404724121</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4033660888672</t>
+    <t xml:space="preserve">32.4033622741699</t>
   </si>
   <si>
     <t xml:space="preserve">32.3386535644531</t>
@@ -2015,31 +2015,31 @@
     <t xml:space="preserve">34.622142791748</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2523460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.374080657959</t>
+    <t xml:space="preserve">34.2523422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3740768432617</t>
   </si>
   <si>
     <t xml:space="preserve">33.2816276550293</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1429557800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9580574035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.022777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8748588562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3648338317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.457275390625</t>
+    <t xml:space="preserve">33.1429595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0227737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8748550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3648300170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4572792053223</t>
   </si>
   <si>
     <t xml:space="preserve">33.9842414855957</t>
@@ -2057,19 +2057,19 @@
     <t xml:space="preserve">32.8841018676758</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2076644897461</t>
+    <t xml:space="preserve">33.2076683044434</t>
   </si>
   <si>
     <t xml:space="preserve">33.9657516479492</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0674438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5944023132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3910179138184</t>
+    <t xml:space="preserve">34.0674476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.594409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3910140991211</t>
   </si>
   <si>
     <t xml:space="preserve">34.3263092041016</t>
@@ -2078,28 +2078,28 @@
     <t xml:space="preserve">33.2631378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1059761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6699104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7438697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.549732208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8825492858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5682258605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7623672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3355484008789</t>
+    <t xml:space="preserve">33.1059837341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6699142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7438735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5497360229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8825454711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5682220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7623710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3355407714844</t>
   </si>
   <si>
     <t xml:space="preserve">34.1414070129395</t>
@@ -2111,16 +2111,16 @@
     <t xml:space="preserve">33.7993431091309</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8085899353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6884078979492</t>
+    <t xml:space="preserve">33.8085861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.688404083252</t>
   </si>
   <si>
     <t xml:space="preserve">34.3817710876465</t>
   </si>
   <si>
-    <t xml:space="preserve">33.614444732666</t>
+    <t xml:space="preserve">33.6144485473633</t>
   </si>
   <si>
     <t xml:space="preserve">32.9950370788574</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">32.8471221923828</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9010353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3848762512207</t>
+    <t xml:space="preserve">33.9010314941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3848724365234</t>
   </si>
   <si>
     <t xml:space="preserve">33.1337127685547</t>
@@ -2144,16 +2144,16 @@
     <t xml:space="preserve">33.0042839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0225715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3217620849609</t>
+    <t xml:space="preserve">32.0225677490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3217582702637</t>
   </si>
   <si>
     <t xml:space="preserve">33.2847709655762</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2937049865723</t>
+    <t xml:space="preserve">32.2937088012695</t>
   </si>
   <si>
     <t xml:space="preserve">32.6957473754883</t>
@@ -2174,22 +2174,22 @@
     <t xml:space="preserve">30.8538627624512</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9754104614258</t>
+    <t xml:space="preserve">30.9754085540771</t>
   </si>
   <si>
     <t xml:space="preserve">31.5457382202148</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2563095092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4433059692383</t>
+    <t xml:space="preserve">32.2563133239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4433097839355</t>
   </si>
   <si>
     <t xml:space="preserve">32.0973663330078</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5555000305176</t>
+    <t xml:space="preserve">32.5554962158203</t>
   </si>
   <si>
     <t xml:space="preserve">32.1721649169922</t>
@@ -2201,22 +2201,22 @@
     <t xml:space="preserve">32.7705421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0977821350098</t>
+    <t xml:space="preserve">33.0977783203125</t>
   </si>
   <si>
     <t xml:space="preserve">34.1075439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2290916442871</t>
+    <t xml:space="preserve">34.2290878295898</t>
   </si>
   <si>
     <t xml:space="preserve">35.1827583312988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9770584106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8835639953613</t>
+    <t xml:space="preserve">34.9770622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8835678100586</t>
   </si>
   <si>
     <t xml:space="preserve">34.2477874755859</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">35.1547050476074</t>
   </si>
   <si>
-    <t xml:space="preserve">35.528694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4538955688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9961738586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0990180969238</t>
+    <t xml:space="preserve">35.5286903381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4538917541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9961700439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0990219116211</t>
   </si>
   <si>
     <t xml:space="preserve">36.0055198669434</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">35.7624320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8372344970703</t>
+    <t xml:space="preserve">35.837230682373</t>
   </si>
   <si>
     <t xml:space="preserve">35.575439453125</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">35.9774742126465</t>
   </si>
   <si>
-    <t xml:space="preserve">35.519344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6128425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7063369750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7250289916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1457633972168</t>
+    <t xml:space="preserve">35.5193367004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6128349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7063331604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7250328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1457672119141</t>
   </si>
   <si>
     <t xml:space="preserve">36.1270713806152</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">36.4823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4543075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1640510559082</t>
+    <t xml:space="preserve">36.4543037414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1640548706055</t>
   </si>
   <si>
     <t xml:space="preserve">34.7526664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9018516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8916759490967</t>
+    <t xml:space="preserve">33.9018478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8916797637939</t>
   </si>
   <si>
     <t xml:space="preserve">31.8636283874512</t>
@@ -2306,40 +2306,40 @@
     <t xml:space="preserve">32.2656631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8546829223633</t>
+    <t xml:space="preserve">32.8546867370605</t>
   </si>
   <si>
     <t xml:space="preserve">32.7892417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9290733337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6579303741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.190860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1254119873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1538772583008</t>
+    <t xml:space="preserve">31.929069519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6579341888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1908645629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1538734436035</t>
   </si>
   <si>
     <t xml:space="preserve">32.181510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9851722717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7888259887695</t>
+    <t xml:space="preserve">31.9851684570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7888298034668</t>
   </si>
   <si>
     <t xml:space="preserve">31.7327308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8729724884033</t>
+    <t xml:space="preserve">31.8729782104492</t>
   </si>
   <si>
     <t xml:space="preserve">32.078670501709</t>
@@ -2348,40 +2348,40 @@
     <t xml:space="preserve">32.7798919677734</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5278663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213607788086</t>
+    <t xml:space="preserve">33.5278625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213569641113</t>
   </si>
   <si>
     <t xml:space="preserve">33.1819305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0697326660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0884323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8172874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0693168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9103736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6758041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3583335876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.498571395874</t>
+    <t xml:space="preserve">32.9855842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0697288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0884284973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8172912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0693130493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9103698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6758060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3583316802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4985733032227</t>
   </si>
   <si>
     <t xml:space="preserve">30.0123920440674</t>
@@ -2399,19 +2399,19 @@
     <t xml:space="preserve">30.7510204315186</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5733757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2367858886719</t>
+    <t xml:space="preserve">30.5733737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2367839813232</t>
   </si>
   <si>
     <t xml:space="preserve">29.5355606079102</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0217437744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4237804412842</t>
+    <t xml:space="preserve">30.0217456817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4237785339355</t>
   </si>
   <si>
     <t xml:space="preserve">30.6107730865479</t>
@@ -2420,13 +2420,13 @@
     <t xml:space="preserve">30.4611778259277</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0315055847168</t>
+    <t xml:space="preserve">31.0315036773682</t>
   </si>
   <si>
     <t xml:space="preserve">31.620532989502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2376098632812</t>
+    <t xml:space="preserve">32.2376136779785</t>
   </si>
   <si>
     <t xml:space="preserve">31.9758224487305</t>
@@ -2438,31 +2438,31 @@
     <t xml:space="preserve">31.4522380828857</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1437015533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0778427124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.386381149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1806869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0965404510498</t>
+    <t xml:space="preserve">31.143705368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0778388977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3863792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1806888580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0965385437012</t>
   </si>
   <si>
     <t xml:space="preserve">30.3770313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8177032470703</t>
+    <t xml:space="preserve">33.817699432373</t>
   </si>
   <si>
     <t xml:space="preserve">33.191276550293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4246025085449</t>
+    <t xml:space="preserve">32.4246063232422</t>
   </si>
   <si>
     <t xml:space="preserve">32.882740020752</t>
@@ -2474,25 +2474,25 @@
     <t xml:space="preserve">32.7518424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6965713500977</t>
+    <t xml:space="preserve">34.6965751647949</t>
   </si>
   <si>
     <t xml:space="preserve">35.1921043395996</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7807197570801</t>
+    <t xml:space="preserve">34.7807159423828</t>
   </si>
   <si>
     <t xml:space="preserve">34.556324005127</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4721755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0701446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1823425292969</t>
+    <t xml:space="preserve">34.4721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.070140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1823387145996</t>
   </si>
   <si>
     <t xml:space="preserve">34.4441299438477</t>
@@ -2510,19 +2510,19 @@
     <t xml:space="preserve">36.5384559631348</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6413040161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5295143127441</t>
+    <t xml:space="preserve">36.641300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5295181274414</t>
   </si>
   <si>
     <t xml:space="preserve">37.1835784912109</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2673110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1644706726074</t>
+    <t xml:space="preserve">36.2673149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1644668579102</t>
   </si>
   <si>
     <t xml:space="preserve">36.3047142028809</t>
@@ -2552,13 +2552,13 @@
     <t xml:space="preserve">37.6604118347168</t>
   </si>
   <si>
-    <t xml:space="preserve">37.810001373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5482177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6978149414062</t>
+    <t xml:space="preserve">37.8100051879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5482139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6978073120117</t>
   </si>
   <si>
     <t xml:space="preserve">38.2307395935059</t>
@@ -2567,16 +2567,16 @@
     <t xml:space="preserve">38.1372413635254</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9876556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4640655517578</t>
+    <t xml:space="preserve">37.9876518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4640693664551</t>
   </si>
   <si>
     <t xml:space="preserve">37.950252532959</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4827651977539</t>
+    <t xml:space="preserve">37.4827690124512</t>
   </si>
   <si>
     <t xml:space="preserve">37.6510620117188</t>
@@ -2585,70 +2585,70 @@
     <t xml:space="preserve">38.4831809997559</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4644775390625</t>
+    <t xml:space="preserve">38.4644813537598</t>
   </si>
   <si>
     <t xml:space="preserve">38.0624465942383</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1465950012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8852119445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9417266845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9043235778809</t>
+    <t xml:space="preserve">38.1465911865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8852157592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9417304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9043273925781</t>
   </si>
   <si>
     <t xml:space="preserve">39.9230270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6608238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8006629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7917175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7165069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9128494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3327560424805</t>
+    <t xml:space="preserve">38.6608276367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8006591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7917213439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7165107727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9128532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.332763671875</t>
   </si>
   <si>
     <t xml:space="preserve">37.7445602416992</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9872398376465</t>
+    <t xml:space="preserve">36.987232208252</t>
   </si>
   <si>
     <t xml:space="preserve">36.4636535644531</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8656883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3612213134766</t>
+    <t xml:space="preserve">36.8656921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3612251281738</t>
   </si>
   <si>
     <t xml:space="preserve">37.7819557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0152893066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.192512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.146183013916</t>
+    <t xml:space="preserve">37.0152854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1925163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1461791992188</t>
   </si>
   <si>
     <t xml:space="preserve">36.136417388916</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">35.7717781066895</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5010566711426</t>
+    <t xml:space="preserve">36.5010528564453</t>
   </si>
   <si>
     <t xml:space="preserve">34.7339706420898</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">32.8453407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3782730102539</t>
+    <t xml:space="preserve">33.3782691955566</t>
   </si>
   <si>
     <t xml:space="preserve">32.9668846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9294929504395</t>
+    <t xml:space="preserve">32.9294891357422</t>
   </si>
   <si>
     <t xml:space="preserve">31.5270366668701</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">28.5351486206055</t>
   </si>
   <si>
-    <t xml:space="preserve">28.179859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4505863189697</t>
+    <t xml:space="preserve">28.1798610687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.450590133667</t>
   </si>
   <si>
     <t xml:space="preserve">24.309103012085</t>
@@ -2702,16 +2702,16 @@
     <t xml:space="preserve">27.7684764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6087074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2440700531006</t>
+    <t xml:space="preserve">25.6087055206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2440719604492</t>
   </si>
   <si>
     <t xml:space="preserve">25.7115516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">25.262767791748</t>
+    <t xml:space="preserve">25.2627658843994</t>
   </si>
   <si>
     <t xml:space="preserve">27.3664417266846</t>
@@ -2723,46 +2723,46 @@
     <t xml:space="preserve">30.3396320343018</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8823223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1628112792969</t>
+    <t xml:space="preserve">31.8823261260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1628150939941</t>
   </si>
   <si>
     <t xml:space="preserve">31.1250019073486</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2835330963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9188976287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0774269104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0876026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5172729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7136135101318</t>
+    <t xml:space="preserve">30.2835311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9188957214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.077428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0876045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5172748565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7136173248291</t>
   </si>
   <si>
     <t xml:space="preserve">31.5083389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0502033233643</t>
+    <t xml:space="preserve">31.0502052307129</t>
   </si>
   <si>
     <t xml:space="preserve">32.2750129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9575347900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3119945526123</t>
+    <t xml:space="preserve">32.9575386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3119964599609</t>
   </si>
   <si>
     <t xml:space="preserve">30.9941101074219</t>
@@ -2771,22 +2771,22 @@
     <t xml:space="preserve">31.9384250640869</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2095642089844</t>
+    <t xml:space="preserve">32.2095603942871</t>
   </si>
   <si>
     <t xml:space="preserve">30.6855697631836</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1904525756836</t>
+    <t xml:space="preserve">31.190450668335</t>
   </si>
   <si>
     <t xml:space="preserve">30.3209323883057</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6481666564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1900367736816</t>
+    <t xml:space="preserve">30.64817237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1900386810303</t>
   </si>
   <si>
     <t xml:space="preserve">30.6388206481934</t>
@@ -2795,16 +2795,16 @@
     <t xml:space="preserve">29.8160495758057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0961246490479</t>
+    <t xml:space="preserve">29.0961284637451</t>
   </si>
   <si>
     <t xml:space="preserve">29.0119819641113</t>
   </si>
   <si>
-    <t xml:space="preserve">30.14328956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2741851806641</t>
+    <t xml:space="preserve">30.1432914733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2741832733154</t>
   </si>
   <si>
     <t xml:space="preserve">29.198974609375</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">30.8071136474609</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6022453308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2745952606201</t>
+    <t xml:space="preserve">32.6022415161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.274600982666</t>
   </si>
   <si>
     <t xml:space="preserve">31.4989852905273</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">32.331111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4713478088379</t>
+    <t xml:space="preserve">32.4713516235352</t>
   </si>
   <si>
     <t xml:space="preserve">31.4615917205811</t>
@@ -2846,31 +2846,31 @@
     <t xml:space="preserve">32.4059066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.938835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2099761962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.509162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5274505615234</t>
+    <t xml:space="preserve">32.9388389587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2099723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5091667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5274467468262</t>
   </si>
   <si>
     <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5648498535156</t>
+    <t xml:space="preserve">32.5648536682129</t>
   </si>
   <si>
     <t xml:space="preserve">31.8262271881104</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0319213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3872032165527</t>
+    <t xml:space="preserve">32.0319175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.38720703125</t>
   </si>
   <si>
     <t xml:space="preserve">31.6859817504883</t>
@@ -2879,31 +2879,31 @@
     <t xml:space="preserve">32.3965606689453</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9197235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7794742584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0689029693604</t>
+    <t xml:space="preserve">31.9197196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.068904876709</t>
   </si>
   <si>
     <t xml:space="preserve">31.4896392822266</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4054908752441</t>
+    <t xml:space="preserve">31.4054889678955</t>
   </si>
   <si>
     <t xml:space="preserve">31.4335403442383</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0128059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4798774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5079250335693</t>
+    <t xml:space="preserve">31.0128040313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4798755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.507926940918</t>
   </si>
   <si>
     <t xml:space="preserve">29.8253993988037</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">31.3026485443115</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7416667938232</t>
+    <t xml:space="preserve">30.7416706085205</t>
   </si>
   <si>
     <t xml:space="preserve">30.4892272949219</t>
@@ -2927,43 +2927,43 @@
     <t xml:space="preserve">29.9375972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9562969207764</t>
+    <t xml:space="preserve">29.956298828125</t>
   </si>
   <si>
     <t xml:space="preserve">30.2648334503174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4144268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0034599304199</t>
+    <t xml:space="preserve">30.4144306182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0034561157227</t>
   </si>
   <si>
     <t xml:space="preserve">30.2928848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3676815032959</t>
+    <t xml:space="preserve">30.3676795959473</t>
   </si>
   <si>
     <t xml:space="preserve">31.5737895965576</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2282638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6209487915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9201354980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3506355285645</t>
+    <t xml:space="preserve">32.2282600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6209449768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9201316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3506393432617</t>
   </si>
   <si>
     <t xml:space="preserve">35.4632415771484</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7994194030762</t>
+    <t xml:space="preserve">34.7994155883789</t>
   </si>
   <si>
     <t xml:space="preserve">34.1262435913086</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">32.4807014465332</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8920822143555</t>
+    <t xml:space="preserve">32.89208984375</t>
   </si>
   <si>
     <t xml:space="preserve">32.7050933837891</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">33.1632270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.060791015625</t>
+    <t xml:space="preserve">34.0607948303223</t>
   </si>
   <si>
     <t xml:space="preserve">34.313232421875</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">35.4258460998535</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8742179870605</t>
+    <t xml:space="preserve">34.8742141723633</t>
   </si>
   <si>
     <t xml:space="preserve">36.4075584411621</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5937271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6303024291992</t>
+    <t xml:space="preserve">34.5937232971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.630298614502</t>
   </si>
   <si>
     <t xml:space="preserve">32.8359909057617</t>
@@ -3035,13 +3035,13 @@
     <t xml:space="preserve">34.0046920776367</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3603973388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1079597473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0994338989258</t>
+    <t xml:space="preserve">35.3603935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1079521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0994300842285</t>
   </si>
   <si>
     <t xml:space="preserve">37.1274833679199</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">37.8567543029785</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1087837219238</t>
+    <t xml:space="preserve">37.1087799072266</t>
   </si>
   <si>
     <t xml:space="preserve">37.2209777832031</t>
@@ -3059,22 +3059,22 @@
     <t xml:space="preserve">38.4083862304688</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3896865844727</t>
+    <t xml:space="preserve">38.3896827697754</t>
   </si>
   <si>
     <t xml:space="preserve">38.1278953552246</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9595985412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9787101745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2405052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1750526428223</t>
+    <t xml:space="preserve">37.959602355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9787139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2405014038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1750564575195</t>
   </si>
   <si>
     <t xml:space="preserve">38.7636680603027</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">38.3429336547852</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4177322387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9974136352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.820182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1384887695312</t>
+    <t xml:space="preserve">38.4177360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9974098205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8201866149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3905067443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1384811401367</t>
   </si>
   <si>
     <t xml:space="preserve">41.9799537658691</t>
@@ -3104,19 +3104,19 @@
     <t xml:space="preserve">43.578742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4384956359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4856605529785</t>
+    <t xml:space="preserve">43.4384994506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4856567382812</t>
   </si>
   <si>
     <t xml:space="preserve">44.7661514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6263198852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5421714782715</t>
+    <t xml:space="preserve">45.6263160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5421676635742</t>
   </si>
   <si>
     <t xml:space="preserve">45.8133125305176</t>
@@ -3125,43 +3125,43 @@
     <t xml:space="preserve">45.3458290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4669647216797</t>
+    <t xml:space="preserve">44.4669609069824</t>
   </si>
   <si>
     <t xml:space="preserve">45.2336349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0746879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4958343505859</t>
+    <t xml:space="preserve">45.0746841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4958381652832</t>
   </si>
   <si>
     <t xml:space="preserve">47.0287666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8791694641113</t>
+    <t xml:space="preserve">46.8791770935059</t>
   </si>
   <si>
     <t xml:space="preserve">46.7482757568359</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4580230712891</t>
+    <t xml:space="preserve">45.4580192565918</t>
   </si>
   <si>
     <t xml:space="preserve">45.4767227172852</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7100563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9344482421875</t>
+    <t xml:space="preserve">44.7100524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9344444274902</t>
   </si>
   <si>
     <t xml:space="preserve">44.878345489502</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9807777404785</t>
+    <t xml:space="preserve">43.9807815551758</t>
   </si>
   <si>
     <t xml:space="preserve">45.0185928344727</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">45.2803802490234</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5511093139648</t>
+    <t xml:space="preserve">44.5511054992676</t>
   </si>
   <si>
     <t xml:space="preserve">45.5047721862793</t>
@@ -3185,16 +3185,16 @@
     <t xml:space="preserve">46.3649406433105</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2612648010254</t>
+    <t xml:space="preserve">44.2612724304199</t>
   </si>
   <si>
     <t xml:space="preserve">44.186466217041</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9624938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.373462677002</t>
+    <t xml:space="preserve">44.9624900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3734588623047</t>
   </si>
   <si>
     <t xml:space="preserve">44.8035507202148</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">44.8129043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7669792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5336494445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.225528717041</t>
+    <t xml:space="preserve">46.766975402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5336456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2255249023438</t>
   </si>
   <si>
     <t xml:space="preserve">48.7304039001465</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">48.5995101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9076347351074</t>
+    <t xml:space="preserve">47.9076309204102</t>
   </si>
   <si>
     <t xml:space="preserve">48.8052024841309</t>
@@ -3233,25 +3233,25 @@
     <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2905578613281</t>
+    <t xml:space="preserve">47.2905616760254</t>
   </si>
   <si>
     <t xml:space="preserve">49.8523597717285</t>
   </si>
   <si>
-    <t xml:space="preserve">48.524715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8889350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.105884552002</t>
+    <t xml:space="preserve">48.5247116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8889389038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1058883666992</t>
   </si>
   <si>
     <t xml:space="preserve">48.2379341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">48.388858795166</t>
+    <t xml:space="preserve">48.3888549804688</t>
   </si>
   <si>
     <t xml:space="preserve">49.2000541687012</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">46.738166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8985214233398</t>
+    <t xml:space="preserve">46.8985252380371</t>
   </si>
   <si>
     <t xml:space="preserve">47.464469909668</t>
@@ -3281,28 +3281,28 @@
     <t xml:space="preserve">48.8793487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0868682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4077224731445</t>
+    <t xml:space="preserve">49.0868644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4077262878418</t>
   </si>
   <si>
     <t xml:space="preserve">48.5209159851074</t>
   </si>
   <si>
-    <t xml:space="preserve">47.898365020752</t>
+    <t xml:space="preserve">47.8983688354492</t>
   </si>
   <si>
     <t xml:space="preserve">47.2569541931152</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6344108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4080238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289619445801</t>
+    <t xml:space="preserve">46.634407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4080276489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289657592773</t>
   </si>
   <si>
     <t xml:space="preserve">45.4459075927734</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174613952637</t>
+    <t xml:space="preserve">46.4174575805664</t>
   </si>
   <si>
     <t xml:space="preserve">46.0967559814453</t>
@@ -3329,16 +3329,16 @@
     <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5022010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2946853637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6531219482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5776596069336</t>
+    <t xml:space="preserve">47.5022048950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2946891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6531181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5776557922363</t>
   </si>
   <si>
     <t xml:space="preserve">48.577507019043</t>
@@ -3350,13 +3350,13 @@
     <t xml:space="preserve">47.3701477050781</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3887062072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4640159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0304183959961</t>
+    <t xml:space="preserve">49.3887023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4640121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0304222106934</t>
   </si>
   <si>
     <t xml:space="preserve">48.0681533813477</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">48.5586433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4267349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5020446777344</t>
+    <t xml:space="preserve">47.4267387390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5020484924316</t>
   </si>
   <si>
     <t xml:space="preserve">48.3511238098145</t>
@@ -3386,10 +3386,10 @@
     <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6718292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.011402130127</t>
+    <t xml:space="preserve">48.6718330383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0114059448242</t>
   </si>
   <si>
     <t xml:space="preserve">49.7660064697266</t>
@@ -5682,6 +5682,9 @@
   </si>
   <si>
     <t xml:space="preserve">52.0400009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9000015258789</t>
   </si>
 </sst>
 </file>
@@ -63431,7 +63434,7 @@
     </row>
     <row r="2209">
       <c r="A2209" s="1" t="n">
-        <v>45539.6497337963</v>
+        <v>45539.2916666667</v>
       </c>
       <c r="B2209" t="n">
         <v>804397</v>
@@ -63452,6 +63455,32 @@
         <v>1889</v>
       </c>
       <c r="H2209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>45540.6493171296</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>990159</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>52.0200004577637</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>50.4199981689453</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>51.9599990844727</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>50.9000015258789</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H2210" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1904">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,73 +44,73 @@
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1196098327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.993353843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0474643707275</t>
+    <t xml:space="preserve">11.1196117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9933519363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0474634170532</t>
   </si>
   <si>
     <t xml:space="preserve">11.1376476287842</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3270330429077</t>
+    <t xml:space="preserve">11.3270320892334</t>
   </si>
   <si>
     <t xml:space="preserve">12.120644569397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7869682312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6336555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089942932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7058029174805</t>
+    <t xml:space="preserve">11.7869663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.63365650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089952468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7058019638062</t>
   </si>
   <si>
     <t xml:space="preserve">11.8951873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5615081787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9853715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.282977104187</t>
+    <t xml:space="preserve">11.5615091323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9853706359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829751968384</t>
   </si>
   <si>
     <t xml:space="preserve">12.1657371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2919940948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2649402618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8861713409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559213638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1116285324097</t>
+    <t xml:space="preserve">12.2919931411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2649393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8861684799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559223175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1116275787354</t>
   </si>
   <si>
     <t xml:space="preserve">12.0575170516968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9222421646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.075553894043</t>
+    <t xml:space="preserve">11.9222431182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0755548477173</t>
   </si>
   <si>
     <t xml:space="preserve">11.5705280303955</t>
@@ -122,70 +122,70 @@
     <t xml:space="preserve">11.1917562484741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4081964492798</t>
+    <t xml:space="preserve">11.4081954956055</t>
   </si>
   <si>
     <t xml:space="preserve">11.0925559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4532899856567</t>
+    <t xml:space="preserve">11.4532890319824</t>
   </si>
   <si>
     <t xml:space="preserve">11.8320598602295</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0394821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5805807113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4182510375977</t>
+    <t xml:space="preserve">12.0394830703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5805816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418251991272</t>
   </si>
   <si>
     <t xml:space="preserve">12.4362888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5715637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9583148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3641414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9142589569092</t>
+    <t xml:space="preserve">12.5715627670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9583177566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3641424179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9142599105835</t>
   </si>
   <si>
     <t xml:space="preserve">13.1397180557251</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9413146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3922319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.590633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627817153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587915420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357278823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8070764541626</t>
+    <t xml:space="preserve">12.9413156509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3922309875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5906343460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627826690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357259750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8070755004883</t>
   </si>
   <si>
     <t xml:space="preserve">13.8972578048706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5184888839722</t>
+    <t xml:space="preserve">13.5184879302979</t>
   </si>
   <si>
     <t xml:space="preserve">13.2208833694458</t>
@@ -203,34 +203,34 @@
     <t xml:space="preserve">13.1938276290894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1216831207275</t>
+    <t xml:space="preserve">13.1216821670532</t>
   </si>
   <si>
     <t xml:space="preserve">13.2749929428101</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6988525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3020486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.157753944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1036462783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.760947227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9683713912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0044422149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2118644714355</t>
+    <t xml:space="preserve">13.6988544464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3020477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1577548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1036443710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7609481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9683694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0044441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2118635177612</t>
   </si>
   <si>
     <t xml:space="preserve">13.0495347976685</t>
@@ -239,55 +239,55 @@
     <t xml:space="preserve">13.3291034698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3832130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5725984573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3471393585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8601503372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6797847747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7699670791626</t>
+    <t xml:space="preserve">13.3832139968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725975036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3471412658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8601512908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6797819137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.769965171814</t>
   </si>
   <si>
     <t xml:space="preserve">13.1487369537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1757917404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227159500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.185845375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1407537460327</t>
+    <t xml:space="preserve">13.1757898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.500452041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227169036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1858444213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1407527923584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8251113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7529678344727</t>
+    <t xml:space="preserve">13.7529649734497</t>
   </si>
   <si>
     <t xml:space="preserve">13.5455436706543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5275077819824</t>
+    <t xml:space="preserve">13.5275068283081</t>
   </si>
   <si>
     <t xml:space="preserve">13.4091634750366</t>
@@ -305,19 +305,19 @@
     <t xml:space="preserve">13.6549520492554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7823991775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6458501815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822624206543</t>
+    <t xml:space="preserve">13.7824001312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6458492279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822633743286</t>
   </si>
   <si>
     <t xml:space="preserve">13.5457134246826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5001974105835</t>
+    <t xml:space="preserve">13.5001964569092</t>
   </si>
   <si>
     <t xml:space="preserve">13.8552255630493</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">12.8993787765503</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3909578323364</t>
+    <t xml:space="preserve">13.3909568786621</t>
   </si>
   <si>
     <t xml:space="preserve">13.035927772522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0008773803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8643293380737</t>
+    <t xml:space="preserve">14.0008783340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8643274307251</t>
   </si>
   <si>
     <t xml:space="preserve">14.0463943481445</t>
@@ -356,37 +356,37 @@
     <t xml:space="preserve">14.4196290969849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4715223312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8720693588257</t>
+    <t xml:space="preserve">13.10875415802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4715232849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8720684051514</t>
   </si>
   <si>
     <t xml:space="preserve">13.3272333145142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1724786758423</t>
+    <t xml:space="preserve">13.172477722168</t>
   </si>
   <si>
     <t xml:space="preserve">12.7901391983032</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0268239974976</t>
+    <t xml:space="preserve">13.0268249511719</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541343688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1451663970947</t>
+    <t xml:space="preserve">13.145167350769</t>
   </si>
   <si>
     <t xml:space="preserve">13.0996513366699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3545427322388</t>
+    <t xml:space="preserve">13.3545436859131</t>
   </si>
   <si>
     <t xml:space="preserve">13.1360645294189</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">13.1269617080688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.944896697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275068283081</t>
+    <t xml:space="preserve">12.9448957443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275058746338</t>
   </si>
   <si>
     <t xml:space="preserve">14.0190839767456</t>
@@ -407,19 +407,19 @@
     <t xml:space="preserve">14.3650102615356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2557687759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5652828216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2739763259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1465301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6913652420044</t>
+    <t xml:space="preserve">14.2557706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.565281867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2739772796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1465320587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.691367149353</t>
   </si>
   <si>
     <t xml:space="preserve">13.7915019989014</t>
@@ -434,37 +434,37 @@
     <t xml:space="preserve">14.2102537155151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0372924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2375659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1829433441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1101160049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9553594589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1920480728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9462575912476</t>
+    <t xml:space="preserve">14.0372915267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2375640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1829442977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1101179122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.955361366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1920471191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9462585449219</t>
   </si>
   <si>
     <t xml:space="preserve">13.8825349807739</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732963562012</t>
+    <t xml:space="preserve">13.7732973098755</t>
   </si>
   <si>
     <t xml:space="preserve">13.7095727920532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5366086959839</t>
+    <t xml:space="preserve">13.5366115570068</t>
   </si>
   <si>
     <t xml:space="preserve">13.6003322601318</t>
@@ -473,91 +473,91 @@
     <t xml:space="preserve">13.7004690170288</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9098443984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7186756134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8916397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1010141372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8006067276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2011518478394</t>
+    <t xml:space="preserve">13.9098453521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7186737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.891637802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1010150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8006057739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.201150894165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2648735046387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6367454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8279142379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9735670089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6640567779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0281887054443</t>
+    <t xml:space="preserve">13.6367444992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8279151916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9735679626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6640558242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.02818775177</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921838760376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0828094482422</t>
+    <t xml:space="preserve">14.0828084945679</t>
   </si>
   <si>
     <t xml:space="preserve">14.1556339263916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.064600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826707839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8097076416016</t>
+    <t xml:space="preserve">14.0646018981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8097085952759</t>
   </si>
   <si>
     <t xml:space="preserve">13.5821256637573</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5730237960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6731576919556</t>
+    <t xml:space="preserve">13.5730218887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6731605529785</t>
   </si>
   <si>
     <t xml:space="preserve">13.518404006958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8188123703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5092992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9644651412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0554981231689</t>
+    <t xml:space="preserve">13.818811416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5093002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9644641876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0554971694946</t>
   </si>
   <si>
     <t xml:space="preserve">14.2466659545898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.847484588623</t>
+    <t xml:space="preserve">14.8474826812744</t>
   </si>
   <si>
     <t xml:space="preserve">14.8383817672729</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">15.1205854415894</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3026475906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2480297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1023778915405</t>
+    <t xml:space="preserve">15.3026504516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2480306625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1023769378662</t>
   </si>
   <si>
     <t xml:space="preserve">14.7473497390747</t>
@@ -587,91 +587,91 @@
     <t xml:space="preserve">15.0750665664673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9931354522705</t>
+    <t xml:space="preserve">14.9931373596191</t>
   </si>
   <si>
     <t xml:space="preserve">14.8565874099731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.883900642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9021053314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0477600097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752052307129</t>
+    <t xml:space="preserve">14.8838977813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9021062850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0477609634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935457229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752042770386</t>
   </si>
   <si>
     <t xml:space="preserve">14.911208152771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8747959136963</t>
+    <t xml:space="preserve">14.874794960022</t>
   </si>
   <si>
     <t xml:space="preserve">15.1569967269897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6485757827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6849899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9034662246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9398803710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6940908432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9945020675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.313117980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3859386444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4223556518555</t>
+    <t xml:space="preserve">15.6485767364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6849880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9034700393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9398813247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6940898895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9945011138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3131160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3859443664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4223594665527</t>
   </si>
   <si>
     <t xml:space="preserve">16.4132518768311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4678745269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3313255310059</t>
+    <t xml:space="preserve">16.4678726196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3313236236572</t>
   </si>
   <si>
     <t xml:space="preserve">16.2493934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2038745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1310501098633</t>
+    <t xml:space="preserve">16.2038764953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1310482025146</t>
   </si>
   <si>
     <t xml:space="preserve">15.8488473892212</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1492576599121</t>
+    <t xml:space="preserve">16.1492519378662</t>
   </si>
   <si>
     <t xml:space="preserve">16.1947746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765651702881</t>
+    <t xml:space="preserve">16.1765689849854</t>
   </si>
   <si>
     <t xml:space="preserve">16.1583614349365</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3222198486328</t>
+    <t xml:space="preserve">16.3222179412842</t>
   </si>
   <si>
     <t xml:space="preserve">16.267599105835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1128406524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1856727600098</t>
+    <t xml:space="preserve">16.1128425598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1856689453125</t>
   </si>
   <si>
     <t xml:space="preserve">16.4041500091553</t>
@@ -704,79 +704,79 @@
     <t xml:space="preserve">17.4965438842773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.396411895752</t>
+    <t xml:space="preserve">17.3964099884033</t>
   </si>
   <si>
     <t xml:space="preserve">17.532958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5693702697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7514400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060569763184</t>
+    <t xml:space="preserve">17.569372177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7514419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060531616211</t>
   </si>
   <si>
     <t xml:space="preserve">17.8970909118652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.842472076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973625183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2521190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4250793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1246719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3067378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3340492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707340240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5161151885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6617679595947</t>
+    <t xml:space="preserve">17.8424701690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973606109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2521209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4250812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1246757507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3067398071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3340473175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707378387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5161170959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6617698669434</t>
   </si>
   <si>
     <t xml:space="preserve">18.415979385376</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5252208709717</t>
+    <t xml:space="preserve">18.525218963623</t>
   </si>
   <si>
     <t xml:space="preserve">18.689079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8711433410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1897602081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4901714324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4992752075195</t>
+    <t xml:space="preserve">18.8711471557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1897621154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4992713928223</t>
   </si>
   <si>
     <t xml:space="preserve">19.4628562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.745059967041</t>
+    <t xml:space="preserve">19.7450618743896</t>
   </si>
   <si>
     <t xml:space="preserve">19.8269939422607</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">19.5812015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7996845245361</t>
+    <t xml:space="preserve">19.7996826171875</t>
   </si>
   <si>
     <t xml:space="preserve">19.9635410308838</t>
@@ -806,19 +806,19 @@
     <t xml:space="preserve">19.7814750671387</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4642200469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7100124359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6280841827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9466953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1196613311768</t>
+    <t xml:space="preserve">20.4642219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7100105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6280822753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9466972351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1196594238281</t>
   </si>
   <si>
     <t xml:space="preserve">21.4018630981445</t>
@@ -827,46 +827,46 @@
     <t xml:space="preserve">20.7555255889893</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0545749664307</t>
+    <t xml:space="preserve">20.054573059082</t>
   </si>
   <si>
     <t xml:space="preserve">20.2730522155762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1638107299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2548446655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1456050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2639484405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6540260314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8178901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9188594818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9922924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8729610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7536373138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4966163635254</t>
+    <t xml:space="preserve">20.1638126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.254846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1456069946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2639503479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6540279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8178863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9188575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9922943115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8729629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7536315917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4966144561768</t>
   </si>
   <si>
     <t xml:space="preserve">19.9004993438721</t>
@@ -875,22 +875,22 @@
     <t xml:space="preserve">19.973934173584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5425090789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1845226287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2671356201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2304210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3405666351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.83571434021</t>
+    <t xml:space="preserve">19.5425128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1845245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2671337127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2304172515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3405685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8357124328613</t>
   </si>
   <si>
     <t xml:space="preserve">19.0927295684814</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">19.3038520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6067638397217</t>
+    <t xml:space="preserve">19.6067657470703</t>
   </si>
   <si>
     <t xml:space="preserve">19.4874362945557</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8821392059326</t>
+    <t xml:space="preserve">19.8821411132812</t>
   </si>
   <si>
     <t xml:space="preserve">19.4782562255859</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">19.4140033721924</t>
   </si>
   <si>
-    <t xml:space="preserve">19.404821395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5884075164795</t>
+    <t xml:space="preserve">19.4048233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5884056091309</t>
   </si>
   <si>
     <t xml:space="preserve">19.2028827667236</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">18.6245918273926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8173522949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8907871246338</t>
+    <t xml:space="preserve">18.8173561096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8907890319824</t>
   </si>
   <si>
     <t xml:space="preserve">18.8540725708008</t>
@@ -941,22 +941,22 @@
     <t xml:space="preserve">19.0651931762695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9917621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8632507324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3681049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5516891479492</t>
+    <t xml:space="preserve">18.9917602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8632545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.368106842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5516910552979</t>
   </si>
   <si>
     <t xml:space="preserve">19.643482208252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6710186004639</t>
+    <t xml:space="preserve">19.6710224151611</t>
   </si>
   <si>
     <t xml:space="preserve">19.7169170379639</t>
@@ -965,67 +965,67 @@
     <t xml:space="preserve">19.6985569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.533332824707</t>
+    <t xml:space="preserve">19.5333347320557</t>
   </si>
   <si>
     <t xml:space="preserve">19.4598999023438</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5155048370361</t>
+    <t xml:space="preserve">20.5155067443848</t>
   </si>
   <si>
     <t xml:space="preserve">20.744987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8367805480957</t>
+    <t xml:space="preserve">20.8367786407471</t>
   </si>
   <si>
     <t xml:space="preserve">20.6348361968994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5338668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6715507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072998046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6531925201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6807308197021</t>
+    <t xml:space="preserve">20.5338687896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6715545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6072959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6807327270508</t>
   </si>
   <si>
     <t xml:space="preserve">20.6256580352783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1305122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4334278106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8373126983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6720867156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.635368347168</t>
+    <t xml:space="preserve">21.1305141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4334259033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8373146057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6720848083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6353664398193</t>
   </si>
   <si>
     <t xml:space="preserve">21.717981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6629047393799</t>
+    <t xml:space="preserve">21.6629066467285</t>
   </si>
   <si>
     <t xml:space="preserve">21.5711135864258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4976806640625</t>
+    <t xml:space="preserve">21.4976825714111</t>
   </si>
   <si>
     <t xml:space="preserve">21.1580505371094</t>
@@ -1034,67 +1034,67 @@
     <t xml:space="preserve">21.5619335174561</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9107437133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1952991485596</t>
+    <t xml:space="preserve">21.9107475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1953029632568</t>
   </si>
   <si>
     <t xml:space="preserve">22.0392513275146</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0943279266357</t>
+    <t xml:space="preserve">22.0943260192871</t>
   </si>
   <si>
     <t xml:space="preserve">22.2962741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4614963531494</t>
+    <t xml:space="preserve">22.461498260498</t>
   </si>
   <si>
     <t xml:space="preserve">22.7368717193604</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6726169586182</t>
+    <t xml:space="preserve">22.6726188659668</t>
   </si>
   <si>
     <t xml:space="preserve">22.902099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9204540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8103084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5441093444824</t>
+    <t xml:space="preserve">22.9204578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.810302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5441074371338</t>
   </si>
   <si>
     <t xml:space="preserve">22.6909770965576</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5349311828613</t>
+    <t xml:space="preserve">22.5349273681641</t>
   </si>
   <si>
     <t xml:space="preserve">22.5165729522705</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5532913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2595558166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1218643188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3697032928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4156017303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4431381225586</t>
+    <t xml:space="preserve">22.5532855987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2595539093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1218662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3697052001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4155979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4431419372559</t>
   </si>
   <si>
     <t xml:space="preserve">22.1402244567871</t>
@@ -1106,40 +1106,40 @@
     <t xml:space="preserve">21.7638759613037</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4523162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5808296203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3605251312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5900058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6542587280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7001514434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2870960235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7460536956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8653793334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6634368896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4247817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788814544678</t>
+    <t xml:space="preserve">22.4523143768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5808258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5900039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6542625427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2870922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7460498809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8653812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6634387969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4247798919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788795471191</t>
   </si>
   <si>
     <t xml:space="preserve">22.3054485321045</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">22.2411937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1494007110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667915344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285697937012</t>
+    <t xml:space="preserve">22.1494045257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285678863525</t>
   </si>
   <si>
     <t xml:space="preserve">21.3508148193359</t>
@@ -1166,16 +1166,16 @@
     <t xml:space="preserve">20.9561100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0570774078369</t>
+    <t xml:space="preserve">21.0570812225342</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377479553223</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3875312805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3783512115479</t>
+    <t xml:space="preserve">21.3875274658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3783531188965</t>
   </si>
   <si>
     <t xml:space="preserve">21.4242477416992</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">21.1121559143066</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1396923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0846157073975</t>
+    <t xml:space="preserve">21.1396884918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0846176147461</t>
   </si>
   <si>
     <t xml:space="preserve">21.1672306060791</t>
@@ -1199,40 +1199,40 @@
     <t xml:space="preserve">21.7088012695312</t>
   </si>
   <si>
-    <t xml:space="preserve">22.250373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7735900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.819486618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1958351135254</t>
+    <t xml:space="preserve">22.2503757476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.773588180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194885253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">22.6267223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1407585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2141895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1224002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4069557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5721797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9760627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2330837249756</t>
+    <t xml:space="preserve">23.1407566070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2141933441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1223964691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4069538116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5721817016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9760646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.233081817627</t>
   </si>
   <si>
     <t xml:space="preserve">23.9393482208252</t>
@@ -1250,31 +1250,31 @@
     <t xml:space="preserve">23.8108386993408</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8659152984619</t>
+    <t xml:space="preserve">23.8659114837646</t>
   </si>
   <si>
     <t xml:space="preserve">23.5171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1315803527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0948600769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.351879119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1412906646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6736831665039</t>
+    <t xml:space="preserve">23.1315784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0948619842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3518810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1412887573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6736812591553</t>
   </si>
   <si>
     <t xml:space="preserve">24.8205509185791</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5818920135498</t>
+    <t xml:space="preserve">24.5818901062012</t>
   </si>
   <si>
     <t xml:space="preserve">24.7103996276855</t>
@@ -1283,28 +1283,28 @@
     <t xml:space="preserve">24.8389091491699</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8572673797607</t>
+    <t xml:space="preserve">24.8572654724121</t>
   </si>
   <si>
     <t xml:space="preserve">24.6186065673828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4442024230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3615875244141</t>
+    <t xml:space="preserve">24.4442005157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3615894317627</t>
   </si>
   <si>
     <t xml:space="preserve">24.5451736450195</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8842716217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7833003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6920394897461</t>
+    <t xml:space="preserve">23.8842735290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7833023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6920413970947</t>
   </si>
   <si>
     <t xml:space="preserve">23.6088962554932</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">24.9949550628662</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0230236053467</t>
+    <t xml:space="preserve">26.0230255126953</t>
   </si>
   <si>
     <t xml:space="preserve">26.1148166656494</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">25.7751884460449</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9128742218018</t>
+    <t xml:space="preserve">25.9128761291504</t>
   </si>
   <si>
     <t xml:space="preserve">25.9312324523926</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8119049072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7384719848633</t>
+    <t xml:space="preserve">25.8119068145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7384700775146</t>
   </si>
   <si>
     <t xml:space="preserve">25.9863090515137</t>
@@ -1343,64 +1343,64 @@
     <t xml:space="preserve">26.4911651611328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3442974090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6650333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6099605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0505638122559</t>
+    <t xml:space="preserve">26.344295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6650371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6099624633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0505599975586</t>
   </si>
   <si>
     <t xml:space="preserve">25.9220542907715</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5737762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7665405273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8675117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.032735824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8491554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1796054840088</t>
+    <t xml:space="preserve">26.5737781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7665424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8675136566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0327377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8491497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1796035766602</t>
   </si>
   <si>
     <t xml:space="preserve">27.1153507232666</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3264694213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8405075073242</t>
+    <t xml:space="preserve">27.3264713287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8405055999756</t>
   </si>
   <si>
     <t xml:space="preserve">28.3270034790039</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9506568908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.097526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0516262054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2994651794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3637199401855</t>
+    <t xml:space="preserve">27.9506587982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0975246429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.051628112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.299467086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3637218475342</t>
   </si>
   <si>
     <t xml:space="preserve">30.1720218658447</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">29.8323917388916</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2179164886475</t>
+    <t xml:space="preserve">30.2179183959961</t>
   </si>
   <si>
     <t xml:space="preserve">30.5667266845703</t>
   </si>
   <si>
-    <t xml:space="preserve">30.649341583252</t>
+    <t xml:space="preserve">30.6493377685547</t>
   </si>
   <si>
     <t xml:space="preserve">30.3188877105713</t>
@@ -1424,13 +1424,13 @@
     <t xml:space="preserve">30.9797878265381</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2459888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8971767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6315174102783</t>
+    <t xml:space="preserve">31.2459907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.897180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6315135955811</t>
   </si>
   <si>
     <t xml:space="preserve">32.3383140563965</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">32.1455497741699</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4576377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3566780090332</t>
+    <t xml:space="preserve">32.457649230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3566665649414</t>
   </si>
   <si>
     <t xml:space="preserve">33.0634689331055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1368980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4122772216797</t>
+    <t xml:space="preserve">33.136905670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4122848510742</t>
   </si>
   <si>
     <t xml:space="preserve">33.9171371459961</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3669090270996</t>
+    <t xml:space="preserve">34.3669128417969</t>
   </si>
   <si>
     <t xml:space="preserve">34.8809509277344</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">33.5040740966797</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7421951293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4857177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.531608581543</t>
+    <t xml:space="preserve">32.7421913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.485710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5316047668457</t>
   </si>
   <si>
     <t xml:space="preserve">33.7702674865723</t>
@@ -1481,31 +1481,31 @@
     <t xml:space="preserve">34.146614074707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5413246154785</t>
+    <t xml:space="preserve">34.5413208007812</t>
   </si>
   <si>
     <t xml:space="preserve">34.5596809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8625946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7162590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1660423278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9256744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9457130432129</t>
+    <t xml:space="preserve">34.8625907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7162551879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1660385131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9256706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9457092285156</t>
   </si>
   <si>
     <t xml:space="preserve">34.1876335144043</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9734497070312</t>
+    <t xml:space="preserve">34.973445892334</t>
   </si>
   <si>
     <t xml:space="preserve">36.295467376709</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">36.4988555908203</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3432426452637</t>
+    <t xml:space="preserve">35.3432464599609</t>
   </si>
   <si>
     <t xml:space="preserve">35.6390762329102</t>
@@ -1538,16 +1538,16 @@
     <t xml:space="preserve">36.7484664916992</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7838973999023</t>
+    <t xml:space="preserve">37.7838897705078</t>
   </si>
   <si>
     <t xml:space="preserve">38.1074676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4217948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9949760437012</t>
+    <t xml:space="preserve">38.4217910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9949798583984</t>
   </si>
   <si>
     <t xml:space="preserve">38.8840408325195</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">36.8409156799316</t>
   </si>
   <si>
-    <t xml:space="preserve">36.776195526123</t>
+    <t xml:space="preserve">36.7761993408203</t>
   </si>
   <si>
     <t xml:space="preserve">36.5820541381836</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">35.8979377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">35.879451751709</t>
+    <t xml:space="preserve">35.8794479370117</t>
   </si>
   <si>
     <t xml:space="preserve">35.9996299743652</t>
@@ -1583,28 +1583,28 @@
     <t xml:space="preserve">36.0550994873047</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8332214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919319152832</t>
+    <t xml:space="preserve">35.8332176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919357299805</t>
   </si>
   <si>
     <t xml:space="preserve">34.4187507629395</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2061195373535</t>
+    <t xml:space="preserve">34.2061233520508</t>
   </si>
   <si>
     <t xml:space="preserve">34.760814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5373840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6498756408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3155136108398</t>
+    <t xml:space="preserve">35.5373802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6498794555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3155097961426</t>
   </si>
   <si>
     <t xml:space="preserve">36.0828285217285</t>
@@ -1613,19 +1613,19 @@
     <t xml:space="preserve">35.6020965576172</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1105690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9534072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8701972961426</t>
+    <t xml:space="preserve">36.1105728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9534034729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8702011108398</t>
   </si>
   <si>
     <t xml:space="preserve">35.722282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6560134887695</t>
+    <t xml:space="preserve">36.6560173034668</t>
   </si>
   <si>
     <t xml:space="preserve">35.3617324829102</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">35.1675910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2708320617676</t>
+    <t xml:space="preserve">34.2708396911621</t>
   </si>
   <si>
     <t xml:space="preserve">34.871753692627</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6683654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8733024597168</t>
+    <t xml:space="preserve">34.6683692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8732986450195</t>
   </si>
   <si>
     <t xml:space="preserve">34.7330780029297</t>
@@ -1661,34 +1661,34 @@
     <t xml:space="preserve">35.0936279296875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4834632873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2970161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9549598693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.269287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0643348693848</t>
+    <t xml:space="preserve">34.4834671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2970199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2692909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.064338684082</t>
   </si>
   <si>
     <t xml:space="preserve">36.7114868164062</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6467742919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8131790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0181198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9903831481934</t>
+    <t xml:space="preserve">36.6467704772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8131828308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0181159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9903907775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.5928535461426</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">34.2985649108887</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7515678405762</t>
+    <t xml:space="preserve">34.7515716552734</t>
   </si>
   <si>
     <t xml:space="preserve">34.8070411682129</t>
@@ -1712,67 +1712,67 @@
     <t xml:space="preserve">34.4464874267578</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0843811035156</t>
+    <t xml:space="preserve">35.0843849182129</t>
   </si>
   <si>
     <t xml:space="preserve">34.8902397155762</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0658988952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9826889038086</t>
+    <t xml:space="preserve">35.0658950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9826927185059</t>
   </si>
   <si>
     <t xml:space="preserve">34.5481796264648</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8810043334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1398544311523</t>
+    <t xml:space="preserve">34.8810005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1398506164551</t>
   </si>
   <si>
     <t xml:space="preserve">35.7037925720215</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4172058105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4295463562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2646903991699</t>
+    <t xml:space="preserve">35.4172019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4295539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2646942138672</t>
   </si>
   <si>
     <t xml:space="preserve">32.9025917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">29.334056854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9180374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5852241516113</t>
+    <t xml:space="preserve">29.3340587615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9180393218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5852222442627</t>
   </si>
   <si>
     <t xml:space="preserve">28.0305290222168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6499366760254</t>
+    <t xml:space="preserve">28.6499347686768</t>
   </si>
   <si>
     <t xml:space="preserve">28.7886123657227</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440799713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1044864654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.17844581604</t>
+    <t xml:space="preserve">28.8440818786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1044845581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1784477233887</t>
   </si>
   <si>
     <t xml:space="preserve">27.022834777832</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">27.6422424316406</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2893886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.947322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5497951507568</t>
+    <t xml:space="preserve">28.2893867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5497932434082</t>
   </si>
   <si>
     <t xml:space="preserve">27.9195899963379</t>
@@ -1796,28 +1796,28 @@
     <t xml:space="preserve">28.3818340301514</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4742851257324</t>
+    <t xml:space="preserve">28.4742832183838</t>
   </si>
   <si>
     <t xml:space="preserve">29.9534664154053</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5929145812988</t>
+    <t xml:space="preserve">29.5929164886475</t>
   </si>
   <si>
     <t xml:space="preserve">29.3710384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5282039642334</t>
+    <t xml:space="preserve">29.5282020568848</t>
   </si>
   <si>
     <t xml:space="preserve">29.0844459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8271408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4357566833496</t>
+    <t xml:space="preserve">27.8271427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.435754776001</t>
   </si>
   <si>
     <t xml:space="preserve">28.4095668792725</t>
@@ -1826,19 +1826,19 @@
     <t xml:space="preserve">28.4188137054443</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7254467010498</t>
+    <t xml:space="preserve">27.7254486083984</t>
   </si>
   <si>
     <t xml:space="preserve">26.6253051757812</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2169780731201</t>
+    <t xml:space="preserve">27.2169799804688</t>
   </si>
   <si>
     <t xml:space="preserve">27.1799983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8086490631104</t>
+    <t xml:space="preserve">27.8086471557617</t>
   </si>
   <si>
     <t xml:space="preserve">27.5775279998779</t>
@@ -1850,34 +1850,34 @@
     <t xml:space="preserve">27.2816925048828</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6068172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1876888275146</t>
+    <t xml:space="preserve">26.6068153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1876907348633</t>
   </si>
   <si>
     <t xml:space="preserve">27.1337757110596</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6792240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8749179840088</t>
+    <t xml:space="preserve">27.6792221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8749160766602</t>
   </si>
   <si>
     <t xml:space="preserve">27.2262229919434</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8302402496338</t>
+    <t xml:space="preserve">25.8302440643311</t>
   </si>
   <si>
     <t xml:space="preserve">25.6730804443359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3109798431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0151405334473</t>
+    <t xml:space="preserve">26.310977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0151424407959</t>
   </si>
   <si>
     <t xml:space="preserve">25.4696922302246</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">25.5159168243408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0521202087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4881839752197</t>
+    <t xml:space="preserve">26.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4881820678711</t>
   </si>
   <si>
     <t xml:space="preserve">25.6915702819824</t>
@@ -1901,16 +1901,16 @@
     <t xml:space="preserve">25.9319362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7454872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9581203460693</t>
+    <t xml:space="preserve">26.7454891204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9581184387207</t>
   </si>
   <si>
     <t xml:space="preserve">25.7100582122803</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8286933898926</t>
+    <t xml:space="preserve">26.8286914825439</t>
   </si>
   <si>
     <t xml:space="preserve">27.5590362548828</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">28.3171215057373</t>
   </si>
   <si>
-    <t xml:space="preserve">28.992000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5297546386719</t>
+    <t xml:space="preserve">28.9919986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5297527313232</t>
   </si>
   <si>
     <t xml:space="preserve">27.4296112060547</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">28.2801418304443</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3356113433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2616500854492</t>
+    <t xml:space="preserve">27.7531833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3356094360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2616481781006</t>
   </si>
   <si>
     <t xml:space="preserve">28.622200012207</t>
@@ -1961,22 +1961,22 @@
     <t xml:space="preserve">30.415714263916</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0166263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2200183868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6267929077148</t>
+    <t xml:space="preserve">31.0166301727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2200222015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6267910003662</t>
   </si>
   <si>
     <t xml:space="preserve">30.8594703674316</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0628528594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3586902618408</t>
+    <t xml:space="preserve">31.0628490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3586864471436</t>
   </si>
   <si>
     <t xml:space="preserve">32.1352615356445</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">32.3478965759277</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0335731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7562217712402</t>
+    <t xml:space="preserve">32.0335693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.756217956543</t>
   </si>
   <si>
     <t xml:space="preserve">32.2462043762207</t>
@@ -1997,31 +1997,31 @@
     <t xml:space="preserve">32.2092247009277</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0890426635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0797920227051</t>
+    <t xml:space="preserve">32.089038848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0797996520996</t>
   </si>
   <si>
     <t xml:space="preserve">31.9041385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4033699035645</t>
+    <t xml:space="preserve">32.4033660888672</t>
   </si>
   <si>
     <t xml:space="preserve">32.3386497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1737957000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6221389770508</t>
+    <t xml:space="preserve">31.173791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">34.2523460388184</t>
   </si>
   <si>
-    <t xml:space="preserve">33.374080657959</t>
+    <t xml:space="preserve">33.3740730285645</t>
   </si>
   <si>
     <t xml:space="preserve">33.2816314697266</t>
@@ -2036,13 +2036,13 @@
     <t xml:space="preserve">33.0227737426758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8748588562012</t>
+    <t xml:space="preserve">32.8748550415039</t>
   </si>
   <si>
     <t xml:space="preserve">33.3648338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4572830200195</t>
+    <t xml:space="preserve">33.4572792053223</t>
   </si>
   <si>
     <t xml:space="preserve">33.9842376708984</t>
@@ -2051,61 +2051,61 @@
     <t xml:space="preserve">33.6514282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6714668273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1722412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8840980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2076721191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.965747833252</t>
+    <t xml:space="preserve">32.6714630126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1722373962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8841018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2076683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9657554626465</t>
   </si>
   <si>
     <t xml:space="preserve">34.0674476623535</t>
   </si>
   <si>
-    <t xml:space="preserve">34.594409942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3910140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3263130187988</t>
+    <t xml:space="preserve">34.5944023132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3910179138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3263092041016</t>
   </si>
   <si>
     <t xml:space="preserve">33.2631416320801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1059799194336</t>
+    <t xml:space="preserve">33.1059837341309</t>
   </si>
   <si>
     <t xml:space="preserve">33.6699142456055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7438774108887</t>
+    <t xml:space="preserve">33.7438812255859</t>
   </si>
   <si>
     <t xml:space="preserve">33.5497360229492</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8825531005859</t>
+    <t xml:space="preserve">33.8825492858887</t>
   </si>
   <si>
     <t xml:space="preserve">33.5682258605957</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7623672485352</t>
+    <t xml:space="preserve">33.7623710632324</t>
   </si>
   <si>
     <t xml:space="preserve">34.3355484008789</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1414031982422</t>
+    <t xml:space="preserve">34.1414070129395</t>
   </si>
   <si>
     <t xml:space="preserve">33.5127487182617</t>
@@ -2117,19 +2117,19 @@
     <t xml:space="preserve">33.8085899353027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6884078979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3817710876465</t>
+    <t xml:space="preserve">33.688404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3817672729492</t>
   </si>
   <si>
     <t xml:space="preserve">33.6144485473633</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8471183776855</t>
+    <t xml:space="preserve">32.9950370788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8471145629883</t>
   </si>
   <si>
     <t xml:space="preserve">33.9010391235352</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">32.3848762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">33.133716583252</t>
+    <t xml:space="preserve">33.1337127685547</t>
   </si>
   <si>
     <t xml:space="preserve">32.5697746276855</t>
@@ -2147,16 +2147,16 @@
     <t xml:space="preserve">33.0042839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0225677490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3217582702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2847747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2937088012695</t>
+    <t xml:space="preserve">32.0225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3217620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2847709655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2937126159668</t>
   </si>
   <si>
     <t xml:space="preserve">32.6957473754883</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">32.7237930297852</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2189140319824</t>
+    <t xml:space="preserve">32.2189102172852</t>
   </si>
   <si>
     <t xml:space="preserve">31.2091522216797</t>
@@ -2174,19 +2174,19 @@
     <t xml:space="preserve">31.0408554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8538627624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9754104614258</t>
+    <t xml:space="preserve">30.8538608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9754085540771</t>
   </si>
   <si>
     <t xml:space="preserve">31.5457382202148</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4433059692383</t>
+    <t xml:space="preserve">32.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4433097839355</t>
   </si>
   <si>
     <t xml:space="preserve">32.0973701477051</t>
@@ -2204,19 +2204,19 @@
     <t xml:space="preserve">32.7705421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0977745056152</t>
+    <t xml:space="preserve">33.0977783203125</t>
   </si>
   <si>
     <t xml:space="preserve">34.1075439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2290840148926</t>
+    <t xml:space="preserve">34.2290878295898</t>
   </si>
   <si>
     <t xml:space="preserve">35.1827583312988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9770584106445</t>
+    <t xml:space="preserve">34.9770622253418</t>
   </si>
   <si>
     <t xml:space="preserve">34.8835639953613</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">34.2477874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9766464233398</t>
+    <t xml:space="preserve">33.9766502380371</t>
   </si>
   <si>
     <t xml:space="preserve">34.7246208190918</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">35.5286903381348</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4538917541504</t>
+    <t xml:space="preserve">35.4538879394531</t>
   </si>
   <si>
     <t xml:space="preserve">35.9961738586426</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">36.0055198669434</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0148696899414</t>
+    <t xml:space="preserve">36.0148735046387</t>
   </si>
   <si>
     <t xml:space="preserve">35.7624320983887</t>
@@ -2264,19 +2264,19 @@
     <t xml:space="preserve">35.9774742126465</t>
   </si>
   <si>
-    <t xml:space="preserve">35.519344329834</t>
+    <t xml:space="preserve">35.5193405151367</t>
   </si>
   <si>
     <t xml:space="preserve">35.6128387451172</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7063369750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7250328063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1457710266113</t>
+    <t xml:space="preserve">35.7063331604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7250289916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1457672119141</t>
   </si>
   <si>
     <t xml:space="preserve">36.127067565918</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">36.4823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4543075561523</t>
+    <t xml:space="preserve">36.4543037414551</t>
   </si>
   <si>
     <t xml:space="preserve">35.1640548706055</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">33.9018478393555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8916759490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8636302947998</t>
+    <t xml:space="preserve">31.8916797637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8636283874512</t>
   </si>
   <si>
     <t xml:space="preserve">32.2656593322754</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">32.7892417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9290714263916</t>
+    <t xml:space="preserve">31.9290733337402</t>
   </si>
   <si>
     <t xml:space="preserve">31.6579341888428</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">32.125415802002</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1538772583008</t>
+    <t xml:space="preserve">33.1538734436035</t>
   </si>
   <si>
     <t xml:space="preserve">32.181510925293</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">31.9851684570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7888278961182</t>
+    <t xml:space="preserve">31.7888298034668</t>
   </si>
   <si>
     <t xml:space="preserve">31.7327308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8729782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0786666870117</t>
+    <t xml:space="preserve">31.872974395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.078670501709</t>
   </si>
   <si>
     <t xml:space="preserve">32.7798919677734</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">33.0697250366211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0884284973145</t>
+    <t xml:space="preserve">33.0884323120117</t>
   </si>
   <si>
     <t xml:space="preserve">32.8172912597656</t>
@@ -2375,10 +2375,10 @@
     <t xml:space="preserve">32.0693168640137</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9103698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6758060455322</t>
+    <t xml:space="preserve">31.9103736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6758041381836</t>
   </si>
   <si>
     <t xml:space="preserve">30.3583316802979</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">30.0123920440674</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1339378356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0497913360596</t>
+    <t xml:space="preserve">30.1339359283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0497932434082</t>
   </si>
   <si>
     <t xml:space="preserve">30.2554836273193</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">30.5733757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2367839813232</t>
+    <t xml:space="preserve">30.2367858886719</t>
   </si>
   <si>
     <t xml:space="preserve">29.5355606079102</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">30.0217456817627</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4237785339355</t>
+    <t xml:space="preserve">30.4237804412842</t>
   </si>
   <si>
     <t xml:space="preserve">30.6107730865479</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">30.4611778259277</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0315074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6205348968506</t>
+    <t xml:space="preserve">31.0315055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6205368041992</t>
   </si>
   <si>
     <t xml:space="preserve">32.2376136779785</t>
@@ -2435,10 +2435,10 @@
     <t xml:space="preserve">31.9758224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8542804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4522380828857</t>
+    <t xml:space="preserve">31.8542785644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.452241897583</t>
   </si>
   <si>
     <t xml:space="preserve">31.143705368042</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">30.0965385437012</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3770313262939</t>
+    <t xml:space="preserve">30.3770294189453</t>
   </si>
   <si>
     <t xml:space="preserve">33.817699432373</t>
@@ -2468,43 +2468,43 @@
     <t xml:space="preserve">32.4246063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">32.882740020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9949340820312</t>
+    <t xml:space="preserve">32.8827362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9949378967285</t>
   </si>
   <si>
     <t xml:space="preserve">32.7518424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1921043395996</t>
+    <t xml:space="preserve">34.6965751647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1921081542969</t>
   </si>
   <si>
     <t xml:space="preserve">34.7807159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5563278198242</t>
+    <t xml:space="preserve">34.556324005127</t>
   </si>
   <si>
     <t xml:space="preserve">34.4721794128418</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0701446533203</t>
+    <t xml:space="preserve">34.070140838623</t>
   </si>
   <si>
     <t xml:space="preserve">34.1823387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4441337585449</t>
+    <t xml:space="preserve">34.4441299438477</t>
   </si>
   <si>
     <t xml:space="preserve">34.6872177124023</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2949485778809</t>
+    <t xml:space="preserve">35.2949447631836</t>
   </si>
   <si>
     <t xml:space="preserve">34.9957618713379</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">36.6412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1835823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2673187255859</t>
+    <t xml:space="preserve">37.5295143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1835784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2673149108887</t>
   </si>
   <si>
     <t xml:space="preserve">36.1644706726074</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6701774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4555435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.072208404541</t>
+    <t xml:space="preserve">38.6701736450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4555473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0722122192383</t>
   </si>
   <si>
     <t xml:space="preserve">39.3526992797852</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">38.6140785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3335914611816</t>
+    <t xml:space="preserve">38.3335876464844</t>
   </si>
   <si>
     <t xml:space="preserve">38.2400932312012</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6604118347168</t>
+    <t xml:space="preserve">37.6604080200195</t>
   </si>
   <si>
     <t xml:space="preserve">37.8100051879883</t>
   </si>
   <si>
-    <t xml:space="preserve">37.548210144043</t>
+    <t xml:space="preserve">37.5482139587402</t>
   </si>
   <si>
     <t xml:space="preserve">37.697811126709</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">38.1372451782227</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9876480102539</t>
+    <t xml:space="preserve">37.9876518249512</t>
   </si>
   <si>
     <t xml:space="preserve">37.4640731811523</t>
@@ -2579,58 +2579,58 @@
     <t xml:space="preserve">37.4827690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6510581970215</t>
+    <t xml:space="preserve">37.6510620117188</t>
   </si>
   <si>
     <t xml:space="preserve">38.4831848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4644813537598</t>
+    <t xml:space="preserve">38.4644775390625</t>
   </si>
   <si>
     <t xml:space="preserve">38.0624465942383</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1465911865234</t>
+    <t xml:space="preserve">38.1465873718262</t>
   </si>
   <si>
     <t xml:space="preserve">38.8852157592773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9417266845703</t>
+    <t xml:space="preserve">39.9417304992676</t>
   </si>
   <si>
     <t xml:space="preserve">39.9043273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9230308532715</t>
+    <t xml:space="preserve">39.9230270385742</t>
   </si>
   <si>
     <t xml:space="preserve">38.6608238220215</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8006553649902</t>
+    <t xml:space="preserve">37.8006591796875</t>
   </si>
   <si>
     <t xml:space="preserve">38.7917213439941</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7165069580078</t>
+    <t xml:space="preserve">37.7165107727051</t>
   </si>
   <si>
     <t xml:space="preserve">37.9128494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3327674865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7445526123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9872398376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4636535644531</t>
+    <t xml:space="preserve">36.3327598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.744556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9872360229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4636573791504</t>
   </si>
   <si>
     <t xml:space="preserve">36.8656959533691</t>
@@ -2657,22 +2657,22 @@
     <t xml:space="preserve">36.7534942626953</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6221885681152</t>
+    <t xml:space="preserve">35.622184753418</t>
   </si>
   <si>
     <t xml:space="preserve">35.7717781066895</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5010566711426</t>
+    <t xml:space="preserve">36.5010528564453</t>
   </si>
   <si>
     <t xml:space="preserve">34.7339668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8733863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.845344543457</t>
+    <t xml:space="preserve">32.8733901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8453407287598</t>
   </si>
   <si>
     <t xml:space="preserve">33.3782691955566</t>
@@ -2681,10 +2681,10 @@
     <t xml:space="preserve">32.9668846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9294891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5270385742188</t>
+    <t xml:space="preserve">32.9294929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5270366668701</t>
   </si>
   <si>
     <t xml:space="preserve">28.5351505279541</t>
@@ -2693,13 +2693,13 @@
     <t xml:space="preserve">28.1798610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">27.450590133667</t>
+    <t xml:space="preserve">27.4505882263184</t>
   </si>
   <si>
     <t xml:space="preserve">24.3091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7684764862061</t>
+    <t xml:space="preserve">27.7684783935547</t>
   </si>
   <si>
     <t xml:space="preserve">25.6087055206299</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">25.2440719604492</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7115516662598</t>
+    <t xml:space="preserve">25.7115535736084</t>
   </si>
   <si>
     <t xml:space="preserve">25.2627696990967</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">26.7400150299072</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3396301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.88232421875</t>
+    <t xml:space="preserve">30.3396320343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8823223114014</t>
   </si>
   <si>
     <t xml:space="preserve">32.1628150939941</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">31.1250038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2835330963135</t>
+    <t xml:space="preserve">30.2835311889648</t>
   </si>
   <si>
     <t xml:space="preserve">29.9188957214355</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">29.077428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0876026153564</t>
+    <t xml:space="preserve">31.0876064300537</t>
   </si>
   <si>
     <t xml:space="preserve">30.5172748565674</t>
@@ -2750,37 +2750,37 @@
     <t xml:space="preserve">30.7136192321777</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5083408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0502033233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2750091552734</t>
+    <t xml:space="preserve">31.5083389282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0502014160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2750129699707</t>
   </si>
   <si>
     <t xml:space="preserve">32.9575386047363</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3120002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9941062927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9384231567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2095680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6855697631836</t>
+    <t xml:space="preserve">31.3119964599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9941082000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9384250640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2095642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.685567855835</t>
   </si>
   <si>
     <t xml:space="preserve">31.1904544830322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3209323883057</t>
+    <t xml:space="preserve">30.3209342956543</t>
   </si>
   <si>
     <t xml:space="preserve">30.6481704711914</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">29.8160495758057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0961284637451</t>
+    <t xml:space="preserve">29.0961265563965</t>
   </si>
   <si>
     <t xml:space="preserve">29.0119819641113</t>
@@ -2810,10 +2810,10 @@
     <t xml:space="preserve">29.198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7693061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2185001373291</t>
+    <t xml:space="preserve">29.7693042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2185020446777</t>
   </si>
   <si>
     <t xml:space="preserve">30.8071136474609</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">32.6022453308105</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2745971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4989891052246</t>
+    <t xml:space="preserve">31.2745990753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4989852905273</t>
   </si>
   <si>
     <t xml:space="preserve">32.331111907959</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">31.8075294494629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6672859191895</t>
+    <t xml:space="preserve">31.6672821044922</t>
   </si>
   <si>
     <t xml:space="preserve">32.4059104919434</t>
   </si>
   <si>
-    <t xml:space="preserve">32.938835144043</t>
+    <t xml:space="preserve">32.9388389587402</t>
   </si>
   <si>
     <t xml:space="preserve">33.2099761962891</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">32.5274505615234</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1534614562988</t>
+    <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
     <t xml:space="preserve">32.5648498535156</t>
@@ -2867,34 +2867,34 @@
     <t xml:space="preserve">31.8262271881104</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0319175720215</t>
+    <t xml:space="preserve">32.0319137573242</t>
   </si>
   <si>
     <t xml:space="preserve">32.38720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6859836578369</t>
+    <t xml:space="preserve">31.6859817504883</t>
   </si>
   <si>
     <t xml:space="preserve">32.396556854248</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9197216033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.779483795166</t>
+    <t xml:space="preserve">31.9197235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794818878174</t>
   </si>
   <si>
     <t xml:space="preserve">31.0689067840576</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4896411895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4054927825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4335384368896</t>
+    <t xml:space="preserve">31.4896392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4054908752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.433536529541</t>
   </si>
   <si>
     <t xml:space="preserve">31.0128040313721</t>
@@ -2903,10 +2903,10 @@
     <t xml:space="preserve">30.4798774719238</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5079250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8254013061523</t>
+    <t xml:space="preserve">30.507926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8253993988037</t>
   </si>
   <si>
     <t xml:space="preserve">29.9843444824219</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">29.8908462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3026466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416687011719</t>
+    <t xml:space="preserve">31.3026504516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416706085205</t>
   </si>
   <si>
     <t xml:space="preserve">30.4892272949219</t>
@@ -2933,52 +2933,52 @@
     <t xml:space="preserve">30.2648334503174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4144268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.003454208374</t>
+    <t xml:space="preserve">30.4144287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0034580230713</t>
   </si>
   <si>
     <t xml:space="preserve">30.2928829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3676795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5737857818604</t>
+    <t xml:space="preserve">30.3676776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5737895965576</t>
   </si>
   <si>
     <t xml:space="preserve">32.2282600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6209449768066</t>
+    <t xml:space="preserve">32.6209487915039</t>
   </si>
   <si>
     <t xml:space="preserve">32.9201354980469</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3506317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4632453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7994155883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1262435913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9107894897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4807052612305</t>
+    <t xml:space="preserve">34.3506355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4632415771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7994194030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1262474060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9107856750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4807014465332</t>
   </si>
   <si>
     <t xml:space="preserve">32.89208984375</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7050895690918</t>
+    <t xml:space="preserve">32.7050933837891</t>
   </si>
   <si>
     <t xml:space="preserve">33.2941284179688</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">34.3132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6774559020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0233955383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3973808288574</t>
+    <t xml:space="preserve">33.6774597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0233993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3973846435547</t>
   </si>
   <si>
     <t xml:space="preserve">34.5002288818359</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0510330200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4067344665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4258422851562</t>
+    <t xml:space="preserve">33.0510292053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4067306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4258460998535</t>
   </si>
   <si>
     <t xml:space="preserve">34.8742141723633</t>
@@ -3020,34 +3020,34 @@
     <t xml:space="preserve">36.4075584411621</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5937232971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6302947998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8359909057617</t>
+    <t xml:space="preserve">34.5937271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.630298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8359870910645</t>
   </si>
   <si>
     <t xml:space="preserve">33.6587600708008</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0046997070312</t>
+    <t xml:space="preserve">34.004695892334</t>
   </si>
   <si>
     <t xml:space="preserve">35.3603973388672</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1079559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0994300842285</t>
+    <t xml:space="preserve">35.1079521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0994338989258</t>
   </si>
   <si>
     <t xml:space="preserve">37.1274795532227</t>
   </si>
   <si>
-    <t xml:space="preserve">37.856761932373</t>
+    <t xml:space="preserve">37.8567543029785</t>
   </si>
   <si>
     <t xml:space="preserve">37.1087760925293</t>
@@ -3062,28 +3062,28 @@
     <t xml:space="preserve">38.3896865844727</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1278953552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.959602355957</t>
+    <t xml:space="preserve">38.1278915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9595985412598</t>
   </si>
   <si>
     <t xml:space="preserve">38.9787101745605</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2405014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1750526428223</t>
+    <t xml:space="preserve">39.2405052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1750564575195</t>
   </si>
   <si>
     <t xml:space="preserve">38.7636680603027</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3429336547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4177322387695</t>
+    <t xml:space="preserve">38.3429298400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4177360534668</t>
   </si>
   <si>
     <t xml:space="preserve">38.9974098205566</t>
@@ -3095,19 +3095,19 @@
     <t xml:space="preserve">40.390510559082</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1384811401367</t>
+    <t xml:space="preserve">41.138484954834</t>
   </si>
   <si>
     <t xml:space="preserve">41.9799575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">43.578742980957</t>
+    <t xml:space="preserve">43.5787467956543</t>
   </si>
   <si>
     <t xml:space="preserve">43.4384956359863</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4856643676758</t>
+    <t xml:space="preserve">44.4856605529785</t>
   </si>
   <si>
     <t xml:space="preserve">44.7661552429199</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">45.5421676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8133087158203</t>
+    <t xml:space="preserve">45.8133125305176</t>
   </si>
   <si>
     <t xml:space="preserve">45.3458290100098</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">44.4669609069824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2336349487305</t>
+    <t xml:space="preserve">45.2336387634277</t>
   </si>
   <si>
     <t xml:space="preserve">45.0746879577637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4958381652832</t>
+    <t xml:space="preserve">46.4958343505859</t>
   </si>
   <si>
     <t xml:space="preserve">47.0287666320801</t>
@@ -3149,10 +3149,10 @@
     <t xml:space="preserve">45.4580192565918</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4767265319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7100524902344</t>
+    <t xml:space="preserve">45.4767227172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7100486755371</t>
   </si>
   <si>
     <t xml:space="preserve">44.9344444274902</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">43.9807777404785</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0185928344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6726531982422</t>
+    <t xml:space="preserve">45.0185890197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6726493835449</t>
   </si>
   <si>
     <t xml:space="preserve">44.2706184387207</t>
@@ -3176,22 +3176,22 @@
     <t xml:space="preserve">45.2803840637207</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5511054992676</t>
+    <t xml:space="preserve">44.5511093139648</t>
   </si>
   <si>
     <t xml:space="preserve">45.504768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3649444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2612686157227</t>
+    <t xml:space="preserve">46.3649406433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2612724304199</t>
   </si>
   <si>
     <t xml:space="preserve">44.186466217041</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9624900817871</t>
+    <t xml:space="preserve">44.9624938964844</t>
   </si>
   <si>
     <t xml:space="preserve">44.373462677002</t>
@@ -3200,10 +3200,10 @@
     <t xml:space="preserve">44.8035507202148</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8128967285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.766975402832</t>
+    <t xml:space="preserve">44.8129005432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7669792175293</t>
   </si>
   <si>
     <t xml:space="preserve">47.5336494445801</t>
@@ -3212,43 +3212,43 @@
     <t xml:space="preserve">48.2255249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7304077148438</t>
+    <t xml:space="preserve">48.7304039001465</t>
   </si>
   <si>
     <t xml:space="preserve">48.3003196716309</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5995101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9076385498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8052062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4499130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3466567993164</t>
+    <t xml:space="preserve">48.5995063781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9076347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8052024841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4499092102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3466529846191</t>
   </si>
   <si>
     <t xml:space="preserve">47.2905578613281</t>
   </si>
   <si>
-    <t xml:space="preserve">49.852367401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5247116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8889389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1058807373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2379379272461</t>
+    <t xml:space="preserve">49.8523635864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.524715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8889350891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.105884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2379341125488</t>
   </si>
   <si>
     <t xml:space="preserve">48.3888549804688</t>
@@ -3293,19 +3293,19 @@
     <t xml:space="preserve">47.898365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">47.256950378418</t>
+    <t xml:space="preserve">47.2569541931152</t>
   </si>
   <si>
     <t xml:space="preserve">46.634407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4080276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2289619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4459114074707</t>
+    <t xml:space="preserve">46.408031463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2289657592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4459075927734</t>
   </si>
   <si>
     <t xml:space="preserve">45.4930686950684</t>
@@ -3314,16 +3314,16 @@
     <t xml:space="preserve">45.1063385009766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4174575805664</t>
+    <t xml:space="preserve">46.4174537658691</t>
   </si>
   <si>
     <t xml:space="preserve">46.096752166748</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8796577453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.954963684082</t>
+    <t xml:space="preserve">46.8796539306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9549598693848</t>
   </si>
   <si>
     <t xml:space="preserve">46.6910018920898</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">47.5022010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2946815490723</t>
+    <t xml:space="preserve">47.2946853637695</t>
   </si>
   <si>
     <t xml:space="preserve">47.6531181335449</t>
@@ -3341,28 +3341,28 @@
     <t xml:space="preserve">47.5776557922363</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5775108337402</t>
+    <t xml:space="preserve">48.577507019043</t>
   </si>
   <si>
     <t xml:space="preserve">48.426586151123</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3701477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3887062072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4640083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0304183959961</t>
+    <t xml:space="preserve">47.3701515197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3887023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4640121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0304222106934</t>
   </si>
   <si>
     <t xml:space="preserve">48.0681533813477</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1247482299805</t>
+    <t xml:space="preserve">48.1247444152832</t>
   </si>
   <si>
     <t xml:space="preserve">48.5586433410645</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">47.4267387390137</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5020484924316</t>
+    <t xml:space="preserve">48.5020446777344</t>
   </si>
   <si>
     <t xml:space="preserve">48.3511238098145</t>
@@ -3386,10 +3386,10 @@
     <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6718368530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.011402130127</t>
+    <t xml:space="preserve">48.6718330383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0114059448242</t>
   </si>
   <si>
     <t xml:space="preserve">49.7660102844238</t>
@@ -3401,10 +3401,10 @@
     <t xml:space="preserve">50.2753601074219</t>
   </si>
   <si>
-    <t xml:space="preserve">50.5394706726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6333999633789</t>
+    <t xml:space="preserve">50.5394744873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6333961486816</t>
   </si>
   <si>
     <t xml:space="preserve">52.2802429199219</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">55.210075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2861671447754</t>
+    <t xml:space="preserve">55.2861709594727</t>
   </si>
   <si>
     <t xml:space="preserve">54.6583518981934</t>
@@ -3437,19 +3437,19 @@
     <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0471611022949</t>
+    <t xml:space="preserve">56.0471572875977</t>
   </si>
   <si>
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305290222168</t>
+    <t xml:space="preserve">54.0305252075195</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3349304199219</t>
+    <t xml:space="preserve">54.3349266052246</t>
   </si>
   <si>
     <t xml:space="preserve">55.1149444580078</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">55.4764175415039</t>
   </si>
   <si>
-    <t xml:space="preserve">55.7427635192871</t>
+    <t xml:space="preserve">55.7427673339844</t>
   </si>
   <si>
     <t xml:space="preserve">55.2671432495117</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">55.4383697509766</t>
   </si>
   <si>
-    <t xml:space="preserve">54.4300537109375</t>
+    <t xml:space="preserve">54.4300498962402</t>
   </si>
   <si>
     <t xml:space="preserve">54.9056739807129</t>
@@ -3479,13 +3479,13 @@
     <t xml:space="preserve">54.8105506896973</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2778511047363</t>
+    <t xml:space="preserve">54.2778549194336</t>
   </si>
   <si>
     <t xml:space="preserve">54.677375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5251731872559</t>
+    <t xml:space="preserve">54.5251770019531</t>
   </si>
   <si>
     <t xml:space="preserve">54.0115051269531</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">54.5442047119141</t>
   </si>
   <si>
-    <t xml:space="preserve">52.641716003418</t>
+    <t xml:space="preserve">52.6417198181152</t>
   </si>
   <si>
     <t xml:space="preserve">53.6119842529297</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">54.9437217712402</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5905647277832</t>
+    <t xml:space="preserve">55.5905685424805</t>
   </si>
   <si>
     <t xml:space="preserve">53.9734573364258</t>
@@ -3518,25 +3518,25 @@
     <t xml:space="preserve">53.3266143798828</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3920021057129</t>
+    <t xml:space="preserve">54.3920059204102</t>
   </si>
   <si>
     <t xml:space="preserve">54.9627456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8569145202637</t>
+    <t xml:space="preserve">55.8569183349609</t>
   </si>
   <si>
     <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0174293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7510833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0959205627441</t>
+    <t xml:space="preserve">57.0174255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7510795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0959167480469</t>
   </si>
   <si>
     <t xml:space="preserve">55.1720199584961</t>
@@ -3548,13 +3548,13 @@
     <t xml:space="preserve">55.9330139160156</t>
   </si>
   <si>
-    <t xml:space="preserve">55.761791229248</t>
+    <t xml:space="preserve">55.7617874145508</t>
   </si>
   <si>
     <t xml:space="preserve">56.8462028503418</t>
   </si>
   <si>
-    <t xml:space="preserve">58.2159957885742</t>
+    <t xml:space="preserve">58.215991973877</t>
   </si>
   <si>
     <t xml:space="preserve">58.5964851379395</t>
@@ -3581,13 +3581,13 @@
     <t xml:space="preserve">51.2909545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">51.994873046875</t>
+    <t xml:space="preserve">51.9948768615723</t>
   </si>
   <si>
     <t xml:space="preserve">51.9187774658203</t>
   </si>
   <si>
-    <t xml:space="preserve">51.538272857666</t>
+    <t xml:space="preserve">51.5382766723633</t>
   </si>
   <si>
     <t xml:space="preserve">51.6904792785645</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">51.9568214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5573043823242</t>
+    <t xml:space="preserve">51.557300567627</t>
   </si>
   <si>
     <t xml:space="preserve">52.1851196289062</t>
@@ -3614,31 +3614,31 @@
     <t xml:space="preserve">52.8890419006348</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5656204223633</t>
+    <t xml:space="preserve">52.565616607666</t>
   </si>
   <si>
     <t xml:space="preserve">52.4895210266113</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9758453369141</t>
+    <t xml:space="preserve">51.9758491516113</t>
   </si>
   <si>
     <t xml:space="preserve">51.9377937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">49.255298614502</t>
+    <t xml:space="preserve">49.2552947998047</t>
   </si>
   <si>
     <t xml:space="preserve">49.17919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4348335266113</t>
+    <t xml:space="preserve">50.4348373413086</t>
   </si>
   <si>
     <t xml:space="preserve">49.1411476135254</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1114120483398</t>
+    <t xml:space="preserve">50.1114158630371</t>
   </si>
   <si>
     <t xml:space="preserve">51.7094993591309</t>
@@ -3671,10 +3671,10 @@
     <t xml:space="preserve">53.6880836486816</t>
   </si>
   <si>
-    <t xml:space="preserve">53.650032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.952033996582</t>
+    <t xml:space="preserve">53.6500358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9520378112793</t>
   </si>
   <si>
     <t xml:space="preserve">55.704719543457</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">56.8271827697754</t>
   </si>
   <si>
-    <t xml:space="preserve">57.3028030395508</t>
+    <t xml:space="preserve">57.302806854248</t>
   </si>
   <si>
     <t xml:space="preserve">58.0447692871094</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">57.6642723083496</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2457275390625</t>
+    <t xml:space="preserve">57.2457237243652</t>
   </si>
   <si>
     <t xml:space="preserve">58.2350196838379</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">60.7843475341797</t>
   </si>
   <si>
-    <t xml:space="preserve">59.8331031799316</t>
+    <t xml:space="preserve">59.8331069946289</t>
   </si>
   <si>
     <t xml:space="preserve">60.5750732421875</t>
@@ -3737,19 +3737,19 @@
     <t xml:space="preserve">65.198112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7878875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6737289428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.0078506469727</t>
+    <t xml:space="preserve">65.7878799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6737365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.0078582763672</t>
   </si>
   <si>
     <t xml:space="preserve">64.4941940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">65.4073791503906</t>
+    <t xml:space="preserve">65.4073867797852</t>
   </si>
   <si>
     <t xml:space="preserve">62.9341583251953</t>
@@ -3758,10 +3758,10 @@
     <t xml:space="preserve">63.3146476745605</t>
   </si>
   <si>
-    <t xml:space="preserve">63.7331962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6618843078613</t>
+    <t xml:space="preserve">63.7332000732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6618804931641</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
@@ -3776,10 +3776,10 @@
     <t xml:space="preserve">62.3253517150879</t>
   </si>
   <si>
-    <t xml:space="preserve">61.9638862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.086353302002</t>
+    <t xml:space="preserve">61.9638824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0863494873047</t>
   </si>
   <si>
     <t xml:space="preserve">65.9020233154297</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043296813965</t>
+    <t xml:space="preserve">60.0043334960938</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">60.0804290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1375007629395</t>
+    <t xml:space="preserve">60.1375045776367</t>
   </si>
   <si>
     <t xml:space="preserve">59.5477333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">59.1672325134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6428565979004</t>
+    <t xml:space="preserve">59.167236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6428527832031</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
@@ -3824,7 +3824,7 @@
     <t xml:space="preserve">61.1077651977539</t>
   </si>
   <si>
-    <t xml:space="preserve">61.4311943054199</t>
+    <t xml:space="preserve">61.4311904907227</t>
   </si>
   <si>
     <t xml:space="preserve">60.898494720459</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">61.8307113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">62.3063316345215</t>
+    <t xml:space="preserve">62.3063354492188</t>
   </si>
   <si>
     <t xml:space="preserve">59.737979888916</t>
@@ -3848,19 +3848,19 @@
     <t xml:space="preserve">57.435977935791</t>
   </si>
   <si>
-    <t xml:space="preserve">57.055477142334</t>
+    <t xml:space="preserve">57.0554809570312</t>
   </si>
   <si>
     <t xml:space="preserve">56.1232604980469</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0876045227051</t>
+    <t xml:space="preserve">54.0876083374023</t>
   </si>
   <si>
     <t xml:space="preserve">54.9246978759766</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8022346496582</t>
+    <t xml:space="preserve">53.8022308349609</t>
   </si>
   <si>
     <t xml:space="preserve">55.5334930419922</t>
@@ -3890,10 +3890,10 @@
     <t xml:space="preserve">56.1422882080078</t>
   </si>
   <si>
-    <t xml:space="preserve">56.522777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0578727722168</t>
+    <t xml:space="preserve">56.5227813720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0578765869141</t>
   </si>
   <si>
     <t xml:space="preserve">55.32421875</t>
@@ -3902,10 +3902,10 @@
     <t xml:space="preserve">52.8129425048828</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7855987548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.3075828552246</t>
+    <t xml:space="preserve">51.7855949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.3075866699219</t>
   </si>
   <si>
     <t xml:space="preserve">52.3943977355957</t>
@@ -3914,10 +3914,10 @@
     <t xml:space="preserve">52.1280479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">52.070972442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0329246520996</t>
+    <t xml:space="preserve">52.0709762573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0329208374023</t>
   </si>
   <si>
     <t xml:space="preserve">49.5596923828125</t>
@@ -3926,7 +3926,7 @@
     <t xml:space="preserve">46.8391456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1899032592773</t>
+    <t xml:space="preserve">48.1899070739746</t>
   </si>
   <si>
     <t xml:space="preserve">45.9640007019043</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">43.1007652282715</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4348945617676</t>
+    <t xml:space="preserve">42.4348907470703</t>
   </si>
   <si>
     <t xml:space="preserve">45.9925346374512</t>
@@ -3977,10 +3977,10 @@
     <t xml:space="preserve">47.248176574707</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3242721557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9782409667969</t>
+    <t xml:space="preserve">47.324275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9782447814941</t>
   </si>
   <si>
     <t xml:space="preserve">48.2660064697266</t>
@@ -4013,10 +4013,10 @@
     <t xml:space="preserve">47.505012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0947799682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2291526794434</t>
+    <t xml:space="preserve">48.094783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">48.6655235290527</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">44.822509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4586448669434</t>
+    <t xml:space="preserve">46.4586486816406</t>
   </si>
   <si>
     <t xml:space="preserve">47.3147659301758</t>
@@ -4040,7 +4040,7 @@
     <t xml:space="preserve">47.8284339904785</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6013374328613</t>
+    <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
     <t xml:space="preserve">45.6215515136719</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">40.6370468139648</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7904434204102</t>
+    <t xml:space="preserve">39.7904396057129</t>
   </si>
   <si>
     <t xml:space="preserve">40.7702217102051</t>
@@ -4064,10 +4064,10 @@
     <t xml:space="preserve">42.5585556030273</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7309761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.148323059082</t>
+    <t xml:space="preserve">41.7309722900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1483268737793</t>
   </si>
   <si>
     <t xml:space="preserve">42.2161102294922</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">41.569263458252</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9985160827637</t>
+    <t xml:space="preserve">40.9985198974609</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994743347168</t>
@@ -5721,6 +5721,9 @@
   </si>
   <si>
     <t xml:space="preserve">48.6399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.1699981689453</t>
   </si>
 </sst>
 </file>
@@ -63808,7 +63811,7 @@
     </row>
     <row r="2222">
       <c r="A2222" s="1" t="n">
-        <v>45558.6524421296</v>
+        <v>45558.2916666667</v>
       </c>
       <c r="B2222" t="n">
         <v>2017745</v>
@@ -63829,6 +63832,32 @@
         <v>1902</v>
       </c>
       <c r="H2222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>45559.6494675926</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>1406057</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>48.7200012207031</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>50.2799987792969</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>49.1699981689453</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H2223" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="1922">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">MONC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.119610786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.993350982666</t>
+    <t xml:space="preserve">11.1196098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.993353843689</t>
   </si>
   <si>
     <t xml:space="preserve">11.0474634170532</t>
@@ -56,49 +56,49 @@
     <t xml:space="preserve">11.1376476287842</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3270330429077</t>
+    <t xml:space="preserve">11.3270320892334</t>
   </si>
   <si>
     <t xml:space="preserve">12.1206455230713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7869682312012</t>
+    <t xml:space="preserve">11.7869672775269</t>
   </si>
   <si>
     <t xml:space="preserve">11.6336555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3089962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7058010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8951854705811</t>
+    <t xml:space="preserve">11.3089952468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7058019638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8951873779297</t>
   </si>
   <si>
     <t xml:space="preserve">11.5615091323853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9853715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2829761505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1657371520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2919950485229</t>
+    <t xml:space="preserve">11.985369682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2829751968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1657381057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2919931411743</t>
   </si>
   <si>
     <t xml:space="preserve">12.2649412155151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8861703872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2559204101562</t>
+    <t xml:space="preserve">11.8861694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2559213638306</t>
   </si>
   <si>
     <t xml:space="preserve">12.1116285324097</t>
@@ -107,34 +107,34 @@
     <t xml:space="preserve">12.0575180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9222431182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.075553894043</t>
+    <t xml:space="preserve">11.9222440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0755558013916</t>
   </si>
   <si>
     <t xml:space="preserve">11.5705280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4262351989746</t>
+    <t xml:space="preserve">11.4262342453003</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4081974029541</t>
+    <t xml:space="preserve">11.4081964492798</t>
   </si>
   <si>
     <t xml:space="preserve">11.0925559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4532880783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8320589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0394811630249</t>
+    <t xml:space="preserve">11.4532890319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8320579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394821166992</t>
   </si>
   <si>
     <t xml:space="preserve">12.5805807113647</t>
@@ -143,40 +143,40 @@
     <t xml:space="preserve">12.418251991272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4362869262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715627670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9583168029785</t>
+    <t xml:space="preserve">12.4362888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715618133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9583158493042</t>
   </si>
   <si>
     <t xml:space="preserve">12.3641405105591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9142589569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1397180557251</t>
+    <t xml:space="preserve">12.9142599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1397171020508</t>
   </si>
   <si>
     <t xml:space="preserve">12.9413156509399</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3922319412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5906343460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6627807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6357259750366</t>
+    <t xml:space="preserve">13.3922328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5906352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6627798080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6357269287109</t>
   </si>
   <si>
     <t xml:space="preserve">13.8070755004883</t>
@@ -185,58 +185,58 @@
     <t xml:space="preserve">13.8972587585449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5184888839722</t>
+    <t xml:space="preserve">13.5184879302979</t>
   </si>
   <si>
     <t xml:space="preserve">13.2208824157715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.238920211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1667747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0765886306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1938276290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1216812133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2749919891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988554000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3020486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1577558517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1036434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7609462738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9683713912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0044422149658</t>
+    <t xml:space="preserve">13.2389192581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1667728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0765905380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1938285827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1216821670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2749938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988544464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3020477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1577548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.103645324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.760947227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9683704376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0044431686401</t>
   </si>
   <si>
     <t xml:space="preserve">13.2118654251099</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0495338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3291025161743</t>
+    <t xml:space="preserve">13.0495347976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3291034698486</t>
   </si>
   <si>
     <t xml:space="preserve">13.3832139968872</t>
@@ -248,58 +248,58 @@
     <t xml:space="preserve">13.3471403121948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8601503372192</t>
+    <t xml:space="preserve">12.8601493835449</t>
   </si>
   <si>
     <t xml:space="preserve">12.679783821106</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1487350463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1757898330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004529953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.185845375061</t>
+    <t xml:space="preserve">12.7699680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1487369537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1757926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004510879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227178573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1858444213867</t>
   </si>
   <si>
     <t xml:space="preserve">14.140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8251113891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7529649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.54554271698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275077819824</t>
+    <t xml:space="preserve">13.8251123428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7529668807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275068283081</t>
   </si>
   <si>
     <t xml:space="preserve">13.4091634750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7459859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6276435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4546794891357</t>
+    <t xml:space="preserve">13.7459869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6276426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4546804428101</t>
   </si>
   <si>
     <t xml:space="preserve">13.6549530029297</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">13.7823991775513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6458501815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822633743286</t>
+    <t xml:space="preserve">13.645848274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822624206543</t>
   </si>
   <si>
     <t xml:space="preserve">13.5457134246826</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">13.5001955032349</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8552274703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9189472198486</t>
+    <t xml:space="preserve">13.8552255630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9189491271973</t>
   </si>
   <si>
     <t xml:space="preserve">13.9280519485474</t>
@@ -335,28 +335,28 @@
     <t xml:space="preserve">13.3363370895386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993787765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3909568786621</t>
+    <t xml:space="preserve">12.8993797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3909578323364</t>
   </si>
   <si>
     <t xml:space="preserve">13.035927772522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0008773803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8643283843994</t>
+    <t xml:space="preserve">14.0008764266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8643264770508</t>
   </si>
   <si>
     <t xml:space="preserve">14.0463953018188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4196310043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1087551116943</t>
+    <t xml:space="preserve">14.4196300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.10875415802</t>
   </si>
   <si>
     <t xml:space="preserve">12.4715223312378</t>
@@ -365,64 +365,64 @@
     <t xml:space="preserve">12.8720693588257</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1724767684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7901391983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0268249511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0541353225708</t>
+    <t xml:space="preserve">13.3272342681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.172477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7901401519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0268259048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0541343688965</t>
   </si>
   <si>
     <t xml:space="preserve">13.1451683044434</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0996513366699</t>
+    <t xml:space="preserve">13.0996522903442</t>
   </si>
   <si>
     <t xml:space="preserve">13.3545446395874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1360654830933</t>
+    <t xml:space="preserve">13.1360635757446</t>
   </si>
   <si>
     <t xml:space="preserve">13.1269607543945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9448947906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275068283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0190839767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.565281867981</t>
+    <t xml:space="preserve">12.9448957443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0190849304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3650102615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5652828216553</t>
   </si>
   <si>
     <t xml:space="preserve">14.2739782333374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1465311050415</t>
+    <t xml:space="preserve">14.1465301513672</t>
   </si>
   <si>
     <t xml:space="preserve">13.6913652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7915010452271</t>
+    <t xml:space="preserve">13.7915000915527</t>
   </si>
   <si>
     <t xml:space="preserve">14.1192207336426</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">14.2102537155151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0372915267944</t>
+    <t xml:space="preserve">14.0372924804688</t>
   </si>
   <si>
     <t xml:space="preserve">14.2375640869141</t>
@@ -446,40 +446,40 @@
     <t xml:space="preserve">14.1101179122925</t>
   </si>
   <si>
-    <t xml:space="preserve">13.955361366272</t>
+    <t xml:space="preserve">13.9553623199463</t>
   </si>
   <si>
     <t xml:space="preserve">14.1920480728149</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9462575912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8825349807739</t>
+    <t xml:space="preserve">13.9462585449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8825368881226</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732954025269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7095737457275</t>
+    <t xml:space="preserve">13.7095727920532</t>
   </si>
   <si>
     <t xml:space="preserve">13.5366086959839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6003322601318</t>
+    <t xml:space="preserve">13.6003341674805</t>
   </si>
   <si>
     <t xml:space="preserve">13.7004699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9098443984985</t>
+    <t xml:space="preserve">13.9098453521729</t>
   </si>
   <si>
     <t xml:space="preserve">13.7186756134033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8916397094727</t>
+    <t xml:space="preserve">13.8916387557983</t>
   </si>
   <si>
     <t xml:space="preserve">14.1010141372681</t>
@@ -488,25 +488,25 @@
     <t xml:space="preserve">13.8006057739258</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2011499404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2648735046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6367444992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370199203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8279161453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9735679626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6640567779541</t>
+    <t xml:space="preserve">14.201150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.264874458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6367454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370180130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8279151916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9735689163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6640558242798</t>
   </si>
   <si>
     <t xml:space="preserve">14.0281887054443</t>
@@ -515,52 +515,52 @@
     <t xml:space="preserve">14.2921838760376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0828075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1556339263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0645990371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826707839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8097095489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5821266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5730218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6731586456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.818811416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5093002319336</t>
+    <t xml:space="preserve">14.0828084945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1556348800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.064600944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8097085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.582127571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5730228424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6731595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.518404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8188133239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5092992782593</t>
   </si>
   <si>
     <t xml:space="preserve">13.9644641876221</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0554971694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2466659545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.847484588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8383817672729</t>
+    <t xml:space="preserve">14.0554981231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2466669082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8474836349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8383808135986</t>
   </si>
   <si>
     <t xml:space="preserve">15.120584487915</t>
@@ -569,58 +569,58 @@
     <t xml:space="preserve">15.3026504516602</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2480316162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1023778915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7473497390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9385185241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9749317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750665664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931383132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565874099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838996887207</t>
+    <t xml:space="preserve">15.2480306625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1023769378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7473487854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9385194778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9749307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0750694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931364059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8838987350464</t>
   </si>
   <si>
     <t xml:space="preserve">14.9021062850952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2935447692871</t>
+    <t xml:space="preserve">15.0477590560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2935485839844</t>
   </si>
   <si>
     <t xml:space="preserve">15.1752042770386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9112062454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8747940063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1569967269897</t>
+    <t xml:space="preserve">14.9112071990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8747959136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1569976806641</t>
   </si>
   <si>
     <t xml:space="preserve">15.6485757827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6849908828735</t>
+    <t xml:space="preserve">15.684986114502</t>
   </si>
   <si>
     <t xml:space="preserve">15.903468132019</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">15.9398813247681</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6940908432007</t>
+    <t xml:space="preserve">15.6940927505493</t>
   </si>
   <si>
     <t xml:space="preserve">15.9945011138916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3131198883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3859405517578</t>
+    <t xml:space="preserve">16.3131160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3859443664551</t>
   </si>
   <si>
     <t xml:space="preserve">16.4223556518555</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4132518768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4678745269775</t>
+    <t xml:space="preserve">16.4132537841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4678764343262</t>
   </si>
   <si>
     <t xml:space="preserve">16.3313236236572</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">16.2493953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2038764953613</t>
+    <t xml:space="preserve">16.2038745880127</t>
   </si>
   <si>
     <t xml:space="preserve">16.1310501098633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8488483428955</t>
+    <t xml:space="preserve">15.8488454818726</t>
   </si>
   <si>
     <t xml:space="preserve">16.1492576599121</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">16.1765670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1583614349365</t>
+    <t xml:space="preserve">16.1583595275879</t>
   </si>
   <si>
     <t xml:space="preserve">16.1037406921387</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3222236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2676048278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1128482818604</t>
+    <t xml:space="preserve">16.3222217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2676029205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1128444671631</t>
   </si>
   <si>
     <t xml:space="preserve">16.1856708526611</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4041481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3326892852783</t>
+    <t xml:space="preserve">16.4041500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3326873779297</t>
   </si>
   <si>
     <t xml:space="preserve">17.496545791626</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">17.532958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5693740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7514419555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8970928192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8424682617188</t>
+    <t xml:space="preserve">17.569372177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7514400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8970909118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.842472076416</t>
   </si>
   <si>
     <t xml:space="preserve">18.0973644256592</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">18.2521209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4250831604004</t>
+    <t xml:space="preserve">18.425085067749</t>
   </si>
   <si>
     <t xml:space="preserve">18.1246719360352</t>
@@ -743,112 +743,112 @@
     <t xml:space="preserve">18.3340473175049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5707340240479</t>
+    <t xml:space="preserve">18.5707359313965</t>
   </si>
   <si>
     <t xml:space="preserve">18.5161170959473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6617679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.415979385376</t>
+    <t xml:space="preserve">18.6617698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4159774780273</t>
   </si>
   <si>
     <t xml:space="preserve">18.5252208709717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6890811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8711471557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1897621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4901695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4992733001709</t>
+    <t xml:space="preserve">18.689079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8711452484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1897602081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4992713928223</t>
   </si>
   <si>
     <t xml:space="preserve">19.4628582000732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7450618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8269901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.371826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4719619750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5812015533447</t>
+    <t xml:space="preserve">19.745059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8269920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3718280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4719581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5812034606934</t>
   </si>
   <si>
     <t xml:space="preserve">19.7996826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9635410308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7268524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8451976776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.78147315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4642238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7100086212158</t>
+    <t xml:space="preserve">19.9635391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7268543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8451957702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7814712524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4642219543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7100105285645</t>
   </si>
   <si>
     <t xml:space="preserve">20.6280822753906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9466953277588</t>
+    <t xml:space="preserve">20.9466972351074</t>
   </si>
   <si>
     <t xml:space="preserve">21.1196613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4018611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7555255889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.054573059082</t>
+    <t xml:space="preserve">21.4018630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7555294036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0545749664307</t>
   </si>
   <si>
     <t xml:space="preserve">20.2730541229248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1638145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.254846572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1456050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2639503479004</t>
+    <t xml:space="preserve">20.1638126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2548484802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1456069946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2639484405518</t>
   </si>
   <si>
     <t xml:space="preserve">19.6540279388428</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8178863525391</t>
+    <t xml:space="preserve">19.8178882598877</t>
   </si>
   <si>
     <t xml:space="preserve">19.9188594818115</t>
@@ -857,67 +857,67 @@
     <t xml:space="preserve">19.9922924041748</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8729629516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7536334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2860260009766</t>
+    <t xml:space="preserve">19.8729648590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7536315917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2860279083252</t>
   </si>
   <si>
     <t xml:space="preserve">19.4966163635254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9004993438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9739360809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5425109863281</t>
+    <t xml:space="preserve">19.9004974365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.973934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5425128936768</t>
   </si>
   <si>
     <t xml:space="preserve">19.1845207214355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2671356201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2304191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3405666351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8357124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0927333831787</t>
+    <t xml:space="preserve">19.2671375274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2304210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3405685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.83571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0927276611328</t>
   </si>
   <si>
     <t xml:space="preserve">19.3864650726318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3038520812988</t>
+    <t xml:space="preserve">19.3038558959961</t>
   </si>
   <si>
     <t xml:space="preserve">19.6067657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4874362945557</t>
+    <t xml:space="preserve">19.487434387207</t>
   </si>
   <si>
     <t xml:space="preserve">19.8821411132812</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4782581329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4140014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.404821395874</t>
+    <t xml:space="preserve">19.4782562255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.414005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048233032227</t>
   </si>
   <si>
     <t xml:space="preserve">19.5884075164795</t>
@@ -929,22 +929,22 @@
     <t xml:space="preserve">18.6245918273926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8173561096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8907890319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8540744781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0651950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9917621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8632507324219</t>
+    <t xml:space="preserve">18.8173522949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8907871246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8540706634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0651931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9917602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8632526397705</t>
   </si>
   <si>
     <t xml:space="preserve">19.368106842041</t>
@@ -956,82 +956,82 @@
     <t xml:space="preserve">19.643482208252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6710224151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7169151306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.698558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5333347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4598999023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5155067443848</t>
+    <t xml:space="preserve">19.6710186004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7169132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6985569000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5333309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4598960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5155048370361</t>
   </si>
   <si>
     <t xml:space="preserve">20.744987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8367767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6348361968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5338649749756</t>
+    <t xml:space="preserve">20.8367805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.634838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.533863067627</t>
   </si>
   <si>
     <t xml:space="preserve">20.6715545654297</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6072978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6531944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6807327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6256580352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1305122375488</t>
+    <t xml:space="preserve">20.6072998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6807308197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6256561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1305141448975</t>
   </si>
   <si>
     <t xml:space="preserve">21.4334259033203</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8373107910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6720848083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6353664398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.717981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6629066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5711154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4976806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1580467224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5619354248047</t>
+    <t xml:space="preserve">21.837308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.672082901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.635368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7179832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6629047393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5711135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4976825714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1580505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5619335174561</t>
   </si>
   <si>
     <t xml:space="preserve">21.9107456207275</t>
@@ -1040,16 +1040,16 @@
     <t xml:space="preserve">22.1952991485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0392551422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0943298339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.296272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4614944458008</t>
+    <t xml:space="preserve">22.0392532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0943279266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2962703704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4614963531494</t>
   </si>
   <si>
     <t xml:space="preserve">22.736873626709</t>
@@ -1058,61 +1058,61 @@
     <t xml:space="preserve">22.6726188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9020977020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9204540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8103084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5441093444824</t>
+    <t xml:space="preserve">22.9020957946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9204578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8103046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5441112518311</t>
   </si>
   <si>
     <t xml:space="preserve">22.690975189209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5349311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5165748596191</t>
+    <t xml:space="preserve">22.5349292755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5165710449219</t>
   </si>
   <si>
     <t xml:space="preserve">22.5532875061035</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2595520019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1218700408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3697032928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4156017303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4431381225586</t>
+    <t xml:space="preserve">22.2595539093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1218681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3697071075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.415599822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4431400299072</t>
   </si>
   <si>
     <t xml:space="preserve">22.1402244567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.048433303833</t>
+    <t xml:space="preserve">22.0484313964844</t>
   </si>
   <si>
     <t xml:space="preserve">21.7638759613037</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4523181915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5808277130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3605270385742</t>
+    <t xml:space="preserve">22.4523162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5808258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605289459229</t>
   </si>
   <si>
     <t xml:space="preserve">22.5900039672852</t>
@@ -1142,43 +1142,43 @@
     <t xml:space="preserve">22.3788833618164</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3054504394531</t>
+    <t xml:space="preserve">22.3054485321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.2411937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1494045257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0667915344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9285678863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3508129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2957382202148</t>
+    <t xml:space="preserve">22.1494026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0667934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9285717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3508148193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2957401275635</t>
   </si>
   <si>
     <t xml:space="preserve">20.9561061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0570774078369</t>
+    <t xml:space="preserve">21.0570812225342</t>
   </si>
   <si>
     <t xml:space="preserve">20.9377498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3875312805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3783531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4242458343506</t>
+    <t xml:space="preserve">21.3875293731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3783512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4242477416992</t>
   </si>
   <si>
     <t xml:space="preserve">21.1121559143066</t>
@@ -1187,37 +1187,37 @@
     <t xml:space="preserve">21.1396942138672</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0846176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1672306060791</t>
+    <t xml:space="preserve">21.0846157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1672286987305</t>
   </si>
   <si>
     <t xml:space="preserve">21.7271614074707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7087993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.250373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7735900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194847106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1958312988281</t>
+    <t xml:space="preserve">21.7088012695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2503776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.773588180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.819486618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1958332061768</t>
   </si>
   <si>
     <t xml:space="preserve">22.6267223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">23.140754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2141933441162</t>
+    <t xml:space="preserve">23.1407566070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2141914367676</t>
   </si>
   <si>
     <t xml:space="preserve">23.1223983764648</t>
@@ -1238,13 +1238,13 @@
     <t xml:space="preserve">23.9393482208252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6823291778564</t>
+    <t xml:space="preserve">23.6823272705078</t>
   </si>
   <si>
     <t xml:space="preserve">23.4987449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9577045440674</t>
+    <t xml:space="preserve">23.957706451416</t>
   </si>
   <si>
     <t xml:space="preserve">23.8108386993408</t>
@@ -1253,55 +1253,55 @@
     <t xml:space="preserve">23.8659133911133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1315784454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0948619842529</t>
+    <t xml:space="preserve">23.5171070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1315765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0948600769043</t>
   </si>
   <si>
     <t xml:space="preserve">23.351879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1412868499756</t>
+    <t xml:space="preserve">24.1412887573242</t>
   </si>
   <si>
     <t xml:space="preserve">24.6736831665039</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8205490112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5818901062012</t>
+    <t xml:space="preserve">24.8205528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5818920135498</t>
   </si>
   <si>
     <t xml:space="preserve">24.7103996276855</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8389053344727</t>
+    <t xml:space="preserve">24.8389072418213</t>
   </si>
   <si>
     <t xml:space="preserve">24.8572673797607</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6186065673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4442024230957</t>
+    <t xml:space="preserve">24.6186084747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4442043304443</t>
   </si>
   <si>
     <t xml:space="preserve">24.3615894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5451717376709</t>
+    <t xml:space="preserve">24.5451755523682</t>
   </si>
   <si>
     <t xml:space="preserve">23.8842716217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7833003997803</t>
+    <t xml:space="preserve">23.7832984924316</t>
   </si>
   <si>
     <t xml:space="preserve">24.6920394897461</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">23.6088943481445</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3707675933838</t>
+    <t xml:space="preserve">24.3707695007324</t>
   </si>
   <si>
     <t xml:space="preserve">24.9949550628662</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">26.0230255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">26.114818572998</t>
+    <t xml:space="preserve">26.1148166656494</t>
   </si>
   <si>
     <t xml:space="preserve">25.7751884460449</t>
@@ -1328,28 +1328,28 @@
     <t xml:space="preserve">25.9128742218018</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9312305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8119068145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7384719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9863090515137</t>
+    <t xml:space="preserve">25.9312343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8119049072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7384700775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9863052368164</t>
   </si>
   <si>
     <t xml:space="preserve">26.4911632537842</t>
   </si>
   <si>
-    <t xml:space="preserve">26.344295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6650352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6099605560303</t>
+    <t xml:space="preserve">26.3442974090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6650371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6099586486816</t>
   </si>
   <si>
     <t xml:space="preserve">26.0505619049072</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">25.9220523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5737800598145</t>
+    <t xml:space="preserve">26.5737743377686</t>
   </si>
   <si>
     <t xml:space="preserve">26.7665386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8675117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0327377319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8491535186768</t>
+    <t xml:space="preserve">26.8675098419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0327396392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8491516113281</t>
   </si>
   <si>
     <t xml:space="preserve">27.1796054840088</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">27.8405055999756</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3270034790039</t>
+    <t xml:space="preserve">28.3270053863525</t>
   </si>
   <si>
     <t xml:space="preserve">27.9506587982178</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0975227355957</t>
+    <t xml:space="preserve">28.0975246429443</t>
   </si>
   <si>
     <t xml:space="preserve">28.0516262054443</t>
@@ -1406,25 +1406,25 @@
     <t xml:space="preserve">30.1720199584961</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8323917388916</t>
+    <t xml:space="preserve">29.8323936462402</t>
   </si>
   <si>
     <t xml:space="preserve">30.2179164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5667285919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6493377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3188896179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9797916412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2459869384766</t>
+    <t xml:space="preserve">30.5667266845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6493396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.318883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9797954559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2459907531738</t>
   </si>
   <si>
     <t xml:space="preserve">30.897180557251</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">32.1455459594727</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4576416015625</t>
+    <t xml:space="preserve">32.4576377868652</t>
   </si>
   <si>
     <t xml:space="preserve">32.3566703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0634689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1368980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4122848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9171333312988</t>
+    <t xml:space="preserve">33.0634727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1369018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4122772216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9171409606934</t>
   </si>
   <si>
     <t xml:space="preserve">34.3669128417969</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">34.8809509277344</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5040664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7421951293945</t>
+    <t xml:space="preserve">33.5040740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7421989440918</t>
   </si>
   <si>
     <t xml:space="preserve">33.4857139587402</t>
@@ -1478,19 +1478,19 @@
     <t xml:space="preserve">33.7702674865723</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1466102600098</t>
+    <t xml:space="preserve">34.146614074707</t>
   </si>
   <si>
     <t xml:space="preserve">34.5413208007812</t>
   </si>
   <si>
-    <t xml:space="preserve">34.559684753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8625907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7162551879883</t>
+    <t xml:space="preserve">34.5596733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8625946044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7162590026855</t>
   </si>
   <si>
     <t xml:space="preserve">36.1660423278809</t>
@@ -1502,19 +1502,19 @@
     <t xml:space="preserve">34.9457092285156</t>
   </si>
   <si>
-    <t xml:space="preserve">34.187629699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.973445892334</t>
+    <t xml:space="preserve">34.1876335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9734497070312</t>
   </si>
   <si>
     <t xml:space="preserve">36.2954635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">36.498851776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3432388305664</t>
+    <t xml:space="preserve">36.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3432464599609</t>
   </si>
   <si>
     <t xml:space="preserve">35.6390762329102</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">36.3324432373047</t>
   </si>
   <si>
-    <t xml:space="preserve">36.831672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2184028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8023796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.748462677002</t>
+    <t xml:space="preserve">36.8316688537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2184104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8023834228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7484703063965</t>
   </si>
   <si>
     <t xml:space="preserve">37.7838973999023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1074676513672</t>
+    <t xml:space="preserve">38.1074638366699</t>
   </si>
   <si>
     <t xml:space="preserve">38.4217948913574</t>
@@ -1550,19 +1550,19 @@
     <t xml:space="preserve">38.9949760437012</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8840370178223</t>
+    <t xml:space="preserve">38.8840408325195</t>
   </si>
   <si>
     <t xml:space="preserve">38.3385887145996</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1552391052246</t>
+    <t xml:space="preserve">37.1552429199219</t>
   </si>
   <si>
     <t xml:space="preserve">36.8409156799316</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7761993408203</t>
+    <t xml:space="preserve">36.7762031555176</t>
   </si>
   <si>
     <t xml:space="preserve">36.5820579528809</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">36.0550994873047</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8332214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9919319152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4187545776367</t>
+    <t xml:space="preserve">35.8332176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9919357299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4187507629395</t>
   </si>
   <si>
     <t xml:space="preserve">34.2061195373535</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">35.5373840332031</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6498794555664</t>
+    <t xml:space="preserve">34.6498756408691</t>
   </si>
   <si>
     <t xml:space="preserve">35.3155059814453</t>
@@ -1610,25 +1610,25 @@
     <t xml:space="preserve">36.0828323364258</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6020965576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1105766296387</t>
+    <t xml:space="preserve">35.6021003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1105690002441</t>
   </si>
   <si>
     <t xml:space="preserve">35.9534034729004</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8701972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6560134887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3617286682129</t>
+    <t xml:space="preserve">35.8702011108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7222862243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6560211181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3617324829102</t>
   </si>
   <si>
     <t xml:space="preserve">35.1675910949707</t>
@@ -1637,46 +1637,46 @@
     <t xml:space="preserve">34.2708320617676</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8717498779297</t>
+    <t xml:space="preserve">34.8717575073242</t>
   </si>
   <si>
     <t xml:space="preserve">34.6683654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8733024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.733081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8440132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0104293823242</t>
+    <t xml:space="preserve">33.8733062744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7330780029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8440170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.010425567627</t>
   </si>
   <si>
     <t xml:space="preserve">35.2045707702637</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0936279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4834671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2970199584961</t>
+    <t xml:space="preserve">35.0936317443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4834632873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2970161437988</t>
   </si>
   <si>
     <t xml:space="preserve">34.9549560546875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.269287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7114868164062</t>
+    <t xml:space="preserve">35.2692794799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0643463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.711483001709</t>
   </si>
   <si>
     <t xml:space="preserve">36.6467704772949</t>
@@ -1685,13 +1685,13 @@
     <t xml:space="preserve">36.8131828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0181198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9903869628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5928535461426</t>
+    <t xml:space="preserve">36.0181159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9903831481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5928573608398</t>
   </si>
   <si>
     <t xml:space="preserve">34.2985687255859</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">34.7700576782227</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2600326538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4464836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0843887329102</t>
+    <t xml:space="preserve">35.2600364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4464874267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0843811035156</t>
   </si>
   <si>
     <t xml:space="preserve">34.8902435302734</t>
@@ -1721,22 +1721,22 @@
     <t xml:space="preserve">35.0658950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9826889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5481796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8809967041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1398506164551</t>
+    <t xml:space="preserve">34.9826965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5481834411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8810005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1398544311523</t>
   </si>
   <si>
     <t xml:space="preserve">35.7037925720215</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4172019958496</t>
+    <t xml:space="preserve">35.4171981811523</t>
   </si>
   <si>
     <t xml:space="preserve">33.4295463562012</t>
@@ -1754,31 +1754,31 @@
     <t xml:space="preserve">28.9180393218994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5852222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0305309295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.649938583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.788610458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440818786621</t>
+    <t xml:space="preserve">28.5852241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0305290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6499366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7886123657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440799713135</t>
   </si>
   <si>
     <t xml:space="preserve">28.1044883728027</t>
   </si>
   <si>
-    <t xml:space="preserve">28.17844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0228366851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6422443389893</t>
+    <t xml:space="preserve">28.1784496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.022834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6422424316406</t>
   </si>
   <si>
     <t xml:space="preserve">28.2893867492676</t>
@@ -1787,79 +1787,79 @@
     <t xml:space="preserve">27.9473247528076</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5497951507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9195880889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3818340301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4742832183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9534702301025</t>
+    <t xml:space="preserve">27.5497932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9195899963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4742851257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9534664154053</t>
   </si>
   <si>
     <t xml:space="preserve">29.5929164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3710403442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5282020568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0844440460205</t>
+    <t xml:space="preserve">29.3710384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5282039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0844478607178</t>
   </si>
   <si>
     <t xml:space="preserve">27.8271408081055</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4357528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4095687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4188137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7254467010498</t>
+    <t xml:space="preserve">29.435754776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4095706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.418815612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7254486083984</t>
   </si>
   <si>
     <t xml:space="preserve">26.6253032684326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2169761657715</t>
+    <t xml:space="preserve">27.2169780731201</t>
   </si>
   <si>
     <t xml:space="preserve">27.1799983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">27.808650970459</t>
+    <t xml:space="preserve">27.8086528778076</t>
   </si>
   <si>
     <t xml:space="preserve">27.5775279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0967922210693</t>
+    <t xml:space="preserve">27.096794128418</t>
   </si>
   <si>
     <t xml:space="preserve">27.2816925048828</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6068172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1876907348633</t>
+    <t xml:space="preserve">26.6068153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1876926422119</t>
   </si>
   <si>
     <t xml:space="preserve">27.1337757110596</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6792221069336</t>
+    <t xml:space="preserve">27.6792240142822</t>
   </si>
   <si>
     <t xml:space="preserve">26.8749160766602</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">25.8302421569824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6730823516846</t>
+    <t xml:space="preserve">25.6730804443359</t>
   </si>
   <si>
     <t xml:space="preserve">26.310977935791</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0151386260986</t>
+    <t xml:space="preserve">26.0151405334473</t>
   </si>
   <si>
     <t xml:space="preserve">25.469690322876</t>
@@ -1889,25 +1889,25 @@
     <t xml:space="preserve">25.5159168243408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0521240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4881820678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6915721893311</t>
+    <t xml:space="preserve">26.0521202087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4881801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6915702819824</t>
   </si>
   <si>
     <t xml:space="preserve">25.9319362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7454872131348</t>
+    <t xml:space="preserve">26.7454891204834</t>
   </si>
   <si>
     <t xml:space="preserve">26.9581203460693</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7100582122803</t>
+    <t xml:space="preserve">25.7100563049316</t>
   </si>
   <si>
     <t xml:space="preserve">26.8286914825439</t>
@@ -1916,19 +1916,19 @@
     <t xml:space="preserve">27.5590400695801</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3171215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9919986724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5297527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.401876449585</t>
+    <t xml:space="preserve">28.3171195983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.992000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5297546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4018745422363</t>
   </si>
   <si>
     <t xml:space="preserve">27.7069568634033</t>
@@ -1937,118 +1937,118 @@
     <t xml:space="preserve">27.7809162139893</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0490188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2801399230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7531833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3356094360352</t>
+    <t xml:space="preserve">28.0490169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2801418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7531814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3356075286865</t>
   </si>
   <si>
     <t xml:space="preserve">28.2616519927979</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6222019195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3232612609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4157161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0166320800781</t>
+    <t xml:space="preserve">28.6222038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3232650756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.415714263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166282653809</t>
   </si>
   <si>
     <t xml:space="preserve">31.2200202941895</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6267948150635</t>
+    <t xml:space="preserve">31.6267967224121</t>
   </si>
   <si>
     <t xml:space="preserve">30.859468460083</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0628509521484</t>
+    <t xml:space="preserve">31.0628547668457</t>
   </si>
   <si>
     <t xml:space="preserve">31.3586864471436</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1352615356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3478965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0335655212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7562255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2462005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2092247009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0890350341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0797920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9041385650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4033660888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3386497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1737937927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6221389770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2523384094238</t>
+    <t xml:space="preserve">32.1352653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.347900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0335693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7562217712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2462043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2092208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0890426635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0797958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9041404724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4033622741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3386535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1737899780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.622142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2523422241211</t>
   </si>
   <si>
     <t xml:space="preserve">33.3740768432617</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2816276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.142951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9580612182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0227699279785</t>
+    <t xml:space="preserve">33.2816314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1429557800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9580574035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.022777557373</t>
   </si>
   <si>
     <t xml:space="preserve">32.8748588562012</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3648338317871</t>
+    <t xml:space="preserve">33.3648376464844</t>
   </si>
   <si>
     <t xml:space="preserve">33.4572830200195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9842376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6514320373535</t>
+    <t xml:space="preserve">33.9842414855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6514282226562</t>
   </si>
   <si>
     <t xml:space="preserve">32.6714706420898</t>
@@ -2060,37 +2060,37 @@
     <t xml:space="preserve">32.8841018676758</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2076683044434</t>
+    <t xml:space="preserve">33.2076644897461</t>
   </si>
   <si>
     <t xml:space="preserve">33.9657592773438</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0674476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.594409942627</t>
+    <t xml:space="preserve">34.0674438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5944023132324</t>
   </si>
   <si>
     <t xml:space="preserve">34.3910179138184</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3263092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2631454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1059761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6699142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7438735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5497360229492</t>
+    <t xml:space="preserve">34.3263053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2631416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1059799194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6699104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7438774108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.549732208252</t>
   </si>
   <si>
     <t xml:space="preserve">33.8825492858887</t>
@@ -2099,40 +2099,40 @@
     <t xml:space="preserve">33.5682258605957</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7623634338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3355522155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1414070129395</t>
+    <t xml:space="preserve">33.7623672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3355484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1414031982422</t>
   </si>
   <si>
     <t xml:space="preserve">33.512752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7993431091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8085861206055</t>
+    <t xml:space="preserve">33.7993392944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8085899353027</t>
   </si>
   <si>
     <t xml:space="preserve">33.688404083252</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3817749023438</t>
+    <t xml:space="preserve">34.3817710876465</t>
   </si>
   <si>
     <t xml:space="preserve">33.6144485473633</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8471183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9010314941406</t>
+    <t xml:space="preserve">32.9950370788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8471221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">32.3848724365234</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">33.1337127685547</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5697784423828</t>
+    <t xml:space="preserve">32.5697708129883</t>
   </si>
   <si>
     <t xml:space="preserve">33.0042839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0225677490234</t>
+    <t xml:space="preserve">32.0225715637207</t>
   </si>
   <si>
     <t xml:space="preserve">32.3217544555664</t>
@@ -2156,34 +2156,34 @@
     <t xml:space="preserve">33.2847709655762</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2937126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.695743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7237968444824</t>
+    <t xml:space="preserve">32.2937088012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6957473754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7237892150879</t>
   </si>
   <si>
     <t xml:space="preserve">32.2189102172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2091503143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0408611297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8538646697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9754085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5457401275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2563133239746</t>
+    <t xml:space="preserve">31.2091522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0408573150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8538627624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9754104614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5457382202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2563095092773</t>
   </si>
   <si>
     <t xml:space="preserve">32.4433059692383</t>
@@ -2192,19 +2192,19 @@
     <t xml:space="preserve">32.0973701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5555000305176</t>
+    <t xml:space="preserve">32.5554962158203</t>
   </si>
   <si>
     <t xml:space="preserve">32.1721649169922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2469635009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7705459594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0977821350098</t>
+    <t xml:space="preserve">32.2469673156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7705421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.097785949707</t>
   </si>
   <si>
     <t xml:space="preserve">34.1075439453125</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">34.2290878295898</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1827545166016</t>
+    <t xml:space="preserve">35.1827583312988</t>
   </si>
   <si>
     <t xml:space="preserve">34.9770622253418</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">34.2477874755859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9766502380371</t>
+    <t xml:space="preserve">33.9766464233398</t>
   </si>
   <si>
     <t xml:space="preserve">34.7246208190918</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">35.1547050476074</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5286903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4538917541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9961700439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0990219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0055198669434</t>
+    <t xml:space="preserve">35.528694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4538955688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9961738586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0990180969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0055236816406</t>
   </si>
   <si>
     <t xml:space="preserve">36.0148735046387</t>
@@ -2255,40 +2255,40 @@
     <t xml:space="preserve">35.7624320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8372268676758</t>
+    <t xml:space="preserve">35.837230682373</t>
   </si>
   <si>
     <t xml:space="preserve">35.575439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9774780273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5193405151367</t>
+    <t xml:space="preserve">35.9774742126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.519344329834</t>
   </si>
   <si>
     <t xml:space="preserve">35.6128387451172</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7063331604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7250289916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1457710266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.127067565918</t>
+    <t xml:space="preserve">35.7063369750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7250328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1457672119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1270713806152</t>
   </si>
   <si>
     <t xml:space="preserve">36.4169082641602</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4823570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4543113708496</t>
+    <t xml:space="preserve">36.4823532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4543037414551</t>
   </si>
   <si>
     <t xml:space="preserve">35.1640548706055</t>
@@ -2297,34 +2297,34 @@
     <t xml:space="preserve">34.7526664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9018478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8916759490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8636226654053</t>
+    <t xml:space="preserve">33.9018516540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.891674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8636264801025</t>
   </si>
   <si>
     <t xml:space="preserve">32.2656631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8546905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7892379760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9290790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6579322814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.190860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.125415802002</t>
+    <t xml:space="preserve">32.8546867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7892417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9290752410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6579341888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1908645629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1254119873047</t>
   </si>
   <si>
     <t xml:space="preserve">33.1538734436035</t>
@@ -2333,34 +2333,34 @@
     <t xml:space="preserve">32.181510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9851665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7888298034668</t>
+    <t xml:space="preserve">31.9851722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7888240814209</t>
   </si>
   <si>
     <t xml:space="preserve">31.7327308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8729763031006</t>
+    <t xml:space="preserve">31.872974395752</t>
   </si>
   <si>
     <t xml:space="preserve">32.078670501709</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7798881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5278625488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6213569641113</t>
+    <t xml:space="preserve">32.7798919677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5278701782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6213607788086</t>
   </si>
   <si>
     <t xml:space="preserve">33.1819305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9855842590332</t>
+    <t xml:space="preserve">32.9855766296387</t>
   </si>
   <si>
     <t xml:space="preserve">33.0697288513184</t>
@@ -2375,16 +2375,16 @@
     <t xml:space="preserve">32.0693168640137</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9103736877441</t>
+    <t xml:space="preserve">31.9103717803955</t>
   </si>
   <si>
     <t xml:space="preserve">29.6758041381836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3583316802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4985771179199</t>
+    <t xml:space="preserve">30.3583335876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4985752105713</t>
   </si>
   <si>
     <t xml:space="preserve">30.0123920440674</t>
@@ -2393,49 +2393,49 @@
     <t xml:space="preserve">30.1339378356934</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0497913360596</t>
+    <t xml:space="preserve">30.0497932434082</t>
   </si>
   <si>
     <t xml:space="preserve">30.255485534668</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7510166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5733737945557</t>
+    <t xml:space="preserve">30.7510185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5733757019043</t>
   </si>
   <si>
     <t xml:space="preserve">30.2367858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5355625152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0217456817627</t>
+    <t xml:space="preserve">29.5355606079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0217437744141</t>
   </si>
   <si>
     <t xml:space="preserve">30.4237785339355</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6107711791992</t>
+    <t xml:space="preserve">30.6107730865479</t>
   </si>
   <si>
     <t xml:space="preserve">30.4611797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0315074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6205348968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2376098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9758224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8542709350586</t>
+    <t xml:space="preserve">31.0315055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.620532989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2376136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9758205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8542804718018</t>
   </si>
   <si>
     <t xml:space="preserve">31.4522399902344</t>
@@ -2444,31 +2444,31 @@
     <t xml:space="preserve">31.1437015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0778388977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.386381149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.180685043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0965385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3770332336426</t>
+    <t xml:space="preserve">30.0778408050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3863792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1806869506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0965404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3770313262939</t>
   </si>
   <si>
     <t xml:space="preserve">33.8177032470703</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1912803649902</t>
+    <t xml:space="preserve">33.1912727355957</t>
   </si>
   <si>
     <t xml:space="preserve">32.4246063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8827362060547</t>
+    <t xml:space="preserve">32.882740020752</t>
   </si>
   <si>
     <t xml:space="preserve">32.9949340820312</t>
@@ -2477,31 +2477,31 @@
     <t xml:space="preserve">32.7518424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6965751647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1921005249023</t>
+    <t xml:space="preserve">34.6965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1921043395996</t>
   </si>
   <si>
     <t xml:space="preserve">34.7807197570801</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5563201904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4721794128418</t>
+    <t xml:space="preserve">34.5563278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4721755981445</t>
   </si>
   <si>
     <t xml:space="preserve">34.0701446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1823425292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4441337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6872215270996</t>
+    <t xml:space="preserve">34.1823348999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4441299438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6872177124023</t>
   </si>
   <si>
     <t xml:space="preserve">35.2949485778809</t>
@@ -2516,34 +2516,34 @@
     <t xml:space="preserve">36.6412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5295143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1835784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2673149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1644630432129</t>
+    <t xml:space="preserve">37.5295181274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1835823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2673110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1644668579102</t>
   </si>
   <si>
     <t xml:space="preserve">36.3047142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6701812744141</t>
+    <t xml:space="preserve">38.6701736450195</t>
   </si>
   <si>
     <t xml:space="preserve">39.4555473327637</t>
   </si>
   <si>
-    <t xml:space="preserve">39.072208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3526992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6140747070312</t>
+    <t xml:space="preserve">39.0722122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3526954650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6140785217285</t>
   </si>
   <si>
     <t xml:space="preserve">38.3335876464844</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">38.2307395935059</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1372451782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9876480102539</t>
+    <t xml:space="preserve">38.1372413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9876518249512</t>
   </si>
   <si>
     <t xml:space="preserve">37.4640655517578</t>
@@ -2585,16 +2585,16 @@
     <t xml:space="preserve">37.6510620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4831848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4644775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0624465942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1465911865234</t>
+    <t xml:space="preserve">38.4831809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.464485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.062442779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1465950012207</t>
   </si>
   <si>
     <t xml:space="preserve">38.8852157592773</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">39.9230308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6608276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.800651550293</t>
+    <t xml:space="preserve">38.6608200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8006591796875</t>
   </si>
   <si>
     <t xml:space="preserve">38.7917213439941</t>
@@ -2621,31 +2621,31 @@
     <t xml:space="preserve">37.7165069580078</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9128570556641</t>
+    <t xml:space="preserve">37.9128494262695</t>
   </si>
   <si>
     <t xml:space="preserve">36.3327598571777</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7445602416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9872360229492</t>
+    <t xml:space="preserve">37.744556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9872398376465</t>
   </si>
   <si>
     <t xml:space="preserve">36.4636535644531</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8656921386719</t>
+    <t xml:space="preserve">36.8656845092773</t>
   </si>
   <si>
     <t xml:space="preserve">37.3612251281738</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7819557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0152854919434</t>
+    <t xml:space="preserve">37.7819595336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0152893066406</t>
   </si>
   <si>
     <t xml:space="preserve">36.1925163269043</t>
@@ -2660,106 +2660,106 @@
     <t xml:space="preserve">36.7534980773926</t>
   </si>
   <si>
-    <t xml:space="preserve">35.622184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7717781066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5010528564453</t>
+    <t xml:space="preserve">35.6221885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7717819213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5010566711426</t>
   </si>
   <si>
     <t xml:space="preserve">34.7339706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8733863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8453407287598</t>
+    <t xml:space="preserve">32.8733901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.845344543457</t>
   </si>
   <si>
     <t xml:space="preserve">33.3782691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9668807983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9294853210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5270366668701</t>
+    <t xml:space="preserve">32.9668846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9294891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5270347595215</t>
   </si>
   <si>
     <t xml:space="preserve">28.5351505279541</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1798610687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.450590133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3091049194336</t>
+    <t xml:space="preserve">28.179859161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4505882263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.309103012085</t>
   </si>
   <si>
     <t xml:space="preserve">27.7684764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6087074279785</t>
+    <t xml:space="preserve">25.6087055206299</t>
   </si>
   <si>
     <t xml:space="preserve">25.2440700531006</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7115535736084</t>
+    <t xml:space="preserve">25.7115516662598</t>
   </si>
   <si>
     <t xml:space="preserve">25.2627696990967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3664417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7400131225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3396320343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.88232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1628150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1250057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2835330963135</t>
+    <t xml:space="preserve">27.3664398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7400150299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3396301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8823223114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1628112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1250019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2835350036621</t>
   </si>
   <si>
     <t xml:space="preserve">29.9188976287842</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0774307250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0876064300537</t>
+    <t xml:space="preserve">29.0774269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0876045227051</t>
   </si>
   <si>
     <t xml:space="preserve">30.5172729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7136173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5083408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0502014160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2750091552734</t>
+    <t xml:space="preserve">30.7136135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5083427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0502052307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2750129699707</t>
   </si>
   <si>
     <t xml:space="preserve">32.9575347900391</t>
@@ -2774,46 +2774,46 @@
     <t xml:space="preserve">31.9384231567383</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2095642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.685567855835</t>
+    <t xml:space="preserve">32.2095603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6855697631836</t>
   </si>
   <si>
     <t xml:space="preserve">31.1904525756836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.320930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6481704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1900386810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.638822555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8160495758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0961284637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0119819641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1432914733887</t>
+    <t xml:space="preserve">30.3209323883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6481666564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1900367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6388187408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8160514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0961265563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0119800567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.14328956604</t>
   </si>
   <si>
     <t xml:space="preserve">30.2741851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1989727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7693023681641</t>
+    <t xml:space="preserve">29.198974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7693042755127</t>
   </si>
   <si>
     <t xml:space="preserve">31.2185001373291</t>
@@ -2822,16 +2822,16 @@
     <t xml:space="preserve">30.8071136474609</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6022491455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.274600982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.498987197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3311080932617</t>
+    <t xml:space="preserve">32.6022453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2745952606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4989852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.331111907959</t>
   </si>
   <si>
     <t xml:space="preserve">32.4713516235352</t>
@@ -2843,16 +2843,16 @@
     <t xml:space="preserve">31.8075275421143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6672821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4059028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.938835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2099723815918</t>
+    <t xml:space="preserve">31.6672859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4059066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9388313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">33.5091667175293</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">32.5274505615234</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1534614562988</t>
+    <t xml:space="preserve">32.1534652709961</t>
   </si>
   <si>
     <t xml:space="preserve">32.5648498535156</t>
@@ -2870,31 +2870,31 @@
     <t xml:space="preserve">31.826229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0319137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3872108459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6859836578369</t>
+    <t xml:space="preserve">32.0319175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3872032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6859855651855</t>
   </si>
   <si>
     <t xml:space="preserve">32.396556854248</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9197273254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7794818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0689029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4896392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4054908752441</t>
+    <t xml:space="preserve">31.9197235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7794761657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4896373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4054927825928</t>
   </si>
   <si>
     <t xml:space="preserve">31.4335422515869</t>
@@ -2906,25 +2906,25 @@
     <t xml:space="preserve">30.4798755645752</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5079231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8254013061523</t>
+    <t xml:space="preserve">30.5079250335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8253993988037</t>
   </si>
   <si>
     <t xml:space="preserve">29.9843444824219</t>
   </si>
   <si>
-    <t xml:space="preserve">29.89084815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3026466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7416687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4892272949219</t>
+    <t xml:space="preserve">29.8908462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3026447296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7416667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4892292022705</t>
   </si>
   <si>
     <t xml:space="preserve">29.9375972747803</t>
@@ -2939,58 +2939,58 @@
     <t xml:space="preserve">30.4144268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2928867340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3676795959473</t>
+    <t xml:space="preserve">31.0034599304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2928810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3676834106445</t>
   </si>
   <si>
     <t xml:space="preserve">31.573787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2282638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6209449768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9201393127441</t>
+    <t xml:space="preserve">32.2282600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6209487915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9201354980469</t>
   </si>
   <si>
     <t xml:space="preserve">34.3506393432617</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4632415771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7994232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1262397766113</t>
+    <t xml:space="preserve">35.4632453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7994155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1262435913086</t>
   </si>
   <si>
     <t xml:space="preserve">32.9107894897461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4807052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8920936584473</t>
+    <t xml:space="preserve">32.4807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8920860290527</t>
   </si>
   <si>
     <t xml:space="preserve">32.7050971984863</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2941207885742</t>
+    <t xml:space="preserve">33.2941246032715</t>
   </si>
   <si>
     <t xml:space="preserve">33.1632270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0607986450195</t>
+    <t xml:space="preserve">34.0607948303223</t>
   </si>
   <si>
     <t xml:space="preserve">34.3132362365723</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">33.6774559020996</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0233955383301</t>
+    <t xml:space="preserve">34.0233917236328</t>
   </si>
   <si>
     <t xml:space="preserve">34.3973808288574</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">33.0510330200195</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4067268371582</t>
+    <t xml:space="preserve">34.4067306518555</t>
   </si>
   <si>
     <t xml:space="preserve">35.4258422851562</t>
@@ -3026,22 +3026,22 @@
     <t xml:space="preserve">34.5937232971191</t>
   </si>
   <si>
-    <t xml:space="preserve">32.630298614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8359870910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6587562561035</t>
+    <t xml:space="preserve">32.6303024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8359909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6587600708008</t>
   </si>
   <si>
     <t xml:space="preserve">34.004695892334</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3603973388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1079559326172</t>
+    <t xml:space="preserve">35.3604011535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1079597473145</t>
   </si>
   <si>
     <t xml:space="preserve">37.0994338989258</t>
@@ -3053,19 +3053,19 @@
     <t xml:space="preserve">37.8567581176758</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1087837219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2209815979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.408390045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3896903991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1278953552246</t>
+    <t xml:space="preserve">37.1087799072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2209777832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4083824157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3896865844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1278915405273</t>
   </si>
   <si>
     <t xml:space="preserve">37.959602355957</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">38.9787101745605</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2405014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1750564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.763671875</t>
+    <t xml:space="preserve">39.2405052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1750526428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7636680603027</t>
   </si>
   <si>
     <t xml:space="preserve">38.3429336547852</t>
@@ -3092,40 +3092,40 @@
     <t xml:space="preserve">38.9974136352539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8201866149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3905067443848</t>
+    <t xml:space="preserve">39.820182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.390510559082</t>
   </si>
   <si>
     <t xml:space="preserve">41.1384887695312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9799537658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5787391662598</t>
+    <t xml:space="preserve">41.9799575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.578742980957</t>
   </si>
   <si>
     <t xml:space="preserve">43.4384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4856643676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7661514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6263160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5421714782715</t>
+    <t xml:space="preserve">44.4856605529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7661476135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6263198852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5421676635742</t>
   </si>
   <si>
     <t xml:space="preserve">45.8133125305176</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3458251953125</t>
+    <t xml:space="preserve">45.3458290100098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4669647216797</t>
@@ -3134,34 +3134,34 @@
     <t xml:space="preserve">45.2336349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4958305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0287704467773</t>
+    <t xml:space="preserve">45.0746879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4958343505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0287666320801</t>
   </si>
   <si>
     <t xml:space="preserve">46.8791694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7482795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4580230712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4767265319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7100486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9344482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8783416748047</t>
+    <t xml:space="preserve">46.7482757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4580192565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4767227172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7100524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9344444274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.878345489502</t>
   </si>
   <si>
     <t xml:space="preserve">43.9807815551758</t>
@@ -3170,16 +3170,16 @@
     <t xml:space="preserve">45.0185890197754</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6726531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2706146240234</t>
+    <t xml:space="preserve">44.6726493835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2706184387207</t>
   </si>
   <si>
     <t xml:space="preserve">45.2803840637207</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5511054992676</t>
+    <t xml:space="preserve">44.5511131286621</t>
   </si>
   <si>
     <t xml:space="preserve">45.5047721862793</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">46.3649406433105</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2612686157227</t>
+    <t xml:space="preserve">44.2612648010254</t>
   </si>
   <si>
     <t xml:space="preserve">44.1864700317383</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">44.373462677002</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8035469055176</t>
+    <t xml:space="preserve">44.8035507202148</t>
   </si>
   <si>
     <t xml:space="preserve">44.8129005432129</t>
@@ -3215,19 +3215,19 @@
     <t xml:space="preserve">48.2255249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7304000854492</t>
+    <t xml:space="preserve">48.7304039001465</t>
   </si>
   <si>
     <t xml:space="preserve">48.3003158569336</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5995063781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.907642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8052024841309</t>
+    <t xml:space="preserve">48.5995101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9076385498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8051986694336</t>
   </si>
   <si>
     <t xml:space="preserve">48.4499130249023</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">47.2905578613281</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8523559570312</t>
+    <t xml:space="preserve">49.8523597717285</t>
   </si>
   <si>
     <t xml:space="preserve">48.524715423584</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">48.1058807373047</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2379417419434</t>
+    <t xml:space="preserve">48.2379341125488</t>
   </si>
   <si>
     <t xml:space="preserve">48.388858795166</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">48.7661590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">47.6719818115234</t>
+    <t xml:space="preserve">47.6719856262207</t>
   </si>
   <si>
     <t xml:space="preserve">46.738166809082</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">46.7947616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8793487548828</t>
+    <t xml:space="preserve">48.8793449401855</t>
   </si>
   <si>
     <t xml:space="preserve">49.0868682861328</t>
@@ -3296,22 +3296,22 @@
     <t xml:space="preserve">47.898365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2569541931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.634407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4080238342285</t>
+    <t xml:space="preserve">47.256950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6344108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4080276489258</t>
   </si>
   <si>
     <t xml:space="preserve">45.2289619445801</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4459114074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4930725097656</t>
+    <t xml:space="preserve">45.4459075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4930763244629</t>
   </si>
   <si>
     <t xml:space="preserve">45.1063385009766</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">46.4174613952637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.096752166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8796577453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9549598693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6910057067871</t>
+    <t xml:space="preserve">46.0967559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8796539306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.954963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6910018920898</t>
   </si>
   <si>
     <t xml:space="preserve">47.5022010803223</t>
@@ -3341,40 +3341,40 @@
     <t xml:space="preserve">47.6531219482422</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5776596069336</t>
+    <t xml:space="preserve">47.5776634216309</t>
   </si>
   <si>
     <t xml:space="preserve">48.5775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4265899658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3701438903809</t>
+    <t xml:space="preserve">48.426586151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3701477050781</t>
   </si>
   <si>
     <t xml:space="preserve">49.3887062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4640121459961</t>
+    <t xml:space="preserve">50.4640159606934</t>
   </si>
   <si>
     <t xml:space="preserve">48.0304183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0681533813477</t>
+    <t xml:space="preserve">48.0681495666504</t>
   </si>
   <si>
     <t xml:space="preserve">48.1247482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5586395263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4267387390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5020484924316</t>
+    <t xml:space="preserve">48.5586433410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4267349243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5020446777344</t>
   </si>
   <si>
     <t xml:space="preserve">48.3511276245117</t>
@@ -3383,13 +3383,13 @@
     <t xml:space="preserve">48.8038940429688</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0492820739746</t>
+    <t xml:space="preserve">48.0492858886719</t>
   </si>
   <si>
     <t xml:space="preserve">48.6529693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6718330383301</t>
+    <t xml:space="preserve">48.6718292236328</t>
   </si>
   <si>
     <t xml:space="preserve">49.011402130127</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">49.5207595825195</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2753601074219</t>
+    <t xml:space="preserve">50.2753639221191</t>
   </si>
   <si>
     <t xml:space="preserve">50.5394744873047</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">51.6333999633789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2802429199219</t>
+    <t xml:space="preserve">52.2802467346191</t>
   </si>
   <si>
     <t xml:space="preserve">52.7939147949219</t>
@@ -3422,10 +3422,10 @@
     <t xml:space="preserve">55.2100715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2861671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.6583518981934</t>
+    <t xml:space="preserve">55.2861709594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.6583480834961</t>
   </si>
   <si>
     <t xml:space="preserve">54.8485984802246</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">55.4573936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3515625</t>
+    <t xml:space="preserve">56.3515586853027</t>
   </si>
   <si>
     <t xml:space="preserve">56.0471611022949</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">54.7915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0305290222168</t>
+    <t xml:space="preserve">54.0305328369141</t>
   </si>
   <si>
     <t xml:space="preserve">54.0685806274414</t>
@@ -3455,10 +3455,10 @@
     <t xml:space="preserve">54.3349304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1149444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4764175415039</t>
+    <t xml:space="preserve">55.1149482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4764137268066</t>
   </si>
   <si>
     <t xml:space="preserve">55.7427635192871</t>
@@ -3467,19 +3467,19 @@
     <t xml:space="preserve">55.2671432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">55.400318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4383697509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.4300537109375</t>
+    <t xml:space="preserve">55.4003219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4383659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.4300498962402</t>
   </si>
   <si>
     <t xml:space="preserve">54.9056739807129</t>
   </si>
   <si>
-    <t xml:space="preserve">54.810546875</t>
+    <t xml:space="preserve">54.8105506896973</t>
   </si>
   <si>
     <t xml:space="preserve">54.2778549194336</t>
@@ -3491,10 +3491,10 @@
     <t xml:space="preserve">54.5251770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0115051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2398071289062</t>
+    <t xml:space="preserve">54.0115013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.239803314209</t>
   </si>
   <si>
     <t xml:space="preserve">54.5442008972168</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">55.8569145202637</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6940078735352</t>
+    <t xml:space="preserve">56.6940040588379</t>
   </si>
   <si>
     <t xml:space="preserve">57.0174293518066</t>
@@ -3542,31 +3542,31 @@
     <t xml:space="preserve">55.0959205627441</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1720161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8759422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9330139160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.761791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8462028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.2159957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.5964889526367</t>
+    <t xml:space="preserve">55.1720199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8759384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9330177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7617874145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8462066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.215991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.596492767334</t>
   </si>
   <si>
     <t xml:space="preserve">59.0340614318848</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8628425598145</t>
+    <t xml:space="preserve">58.8628349304199</t>
   </si>
   <si>
     <t xml:space="preserve">57.7023239135742</t>
@@ -3575,37 +3575,37 @@
     <t xml:space="preserve">57.1315803527832</t>
   </si>
   <si>
-    <t xml:space="preserve">55.6286125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2231750488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2909507751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9948692321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9187774658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5382766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6904792785645</t>
+    <t xml:space="preserve">55.6286163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2231712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2909545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.994873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.918773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5382804870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6904754638672</t>
   </si>
   <si>
     <t xml:space="preserve">51.9568214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5573043823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1851196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1470756530762</t>
+    <t xml:space="preserve">51.557300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1851234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1470718383789</t>
   </si>
   <si>
     <t xml:space="preserve">51.3860778808594</t>
@@ -3614,16 +3614,16 @@
     <t xml:space="preserve">52.2612190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8890380859375</t>
+    <t xml:space="preserve">52.8890419006348</t>
   </si>
   <si>
     <t xml:space="preserve">52.565616607666</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4895210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9758453369141</t>
+    <t xml:space="preserve">52.4895172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9758491516113</t>
   </si>
   <si>
     <t xml:space="preserve">51.9377975463867</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">49.17919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4348335266113</t>
+    <t xml:space="preserve">50.4348373413086</t>
   </si>
   <si>
     <t xml:space="preserve">49.1411476135254</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1114120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7094993591309</t>
+    <t xml:space="preserve">50.1114158630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7095031738281</t>
   </si>
   <si>
     <t xml:space="preserve">52.5465927124023</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">52.3182945251465</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1958274841309</t>
+    <t xml:space="preserve">51.1958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">49.7118911743164</t>
@@ -3665,25 +3665,25 @@
     <t xml:space="preserve">52.9270896911621</t>
   </si>
   <si>
-    <t xml:space="preserve">53.155387878418</t>
+    <t xml:space="preserve">53.1553916931152</t>
   </si>
   <si>
     <t xml:space="preserve">54.1827278137207</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6880836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.650032043457</t>
+    <t xml:space="preserve">53.6880798339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6500358581543</t>
   </si>
   <si>
     <t xml:space="preserve">55.9520378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">55.704719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8271789550781</t>
+    <t xml:space="preserve">55.7047157287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8271827697754</t>
   </si>
   <si>
     <t xml:space="preserve">57.3028030395508</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">58.0447692871094</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1208686828613</t>
+    <t xml:space="preserve">58.1208648681641</t>
   </si>
   <si>
     <t xml:space="preserve">57.6642723083496</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">58.2350196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">59.091136932373</t>
+    <t xml:space="preserve">59.0911331176758</t>
   </si>
   <si>
     <t xml:space="preserve">60.7843475341797</t>
   </si>
   <si>
-    <t xml:space="preserve">59.8331031799316</t>
+    <t xml:space="preserve">59.8331069946289</t>
   </si>
   <si>
     <t xml:space="preserve">60.5750732421875</t>
@@ -3719,19 +3719,19 @@
     <t xml:space="preserve">63.0482978820801</t>
   </si>
   <si>
-    <t xml:space="preserve">64.3039398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8366317749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8009719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.1160850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.2195205688477</t>
+    <t xml:space="preserve">64.3039474487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8366394042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8009757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.1160926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.2195281982422</t>
   </si>
   <si>
     <t xml:space="preserve">64.3610153198242</t>
@@ -3740,31 +3740,31 @@
     <t xml:space="preserve">65.1981048583984</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7878799438477</t>
+    <t xml:space="preserve">65.7878875732422</t>
   </si>
   <si>
     <t xml:space="preserve">65.6737289428711</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0078506469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4941940307617</t>
+    <t xml:space="preserve">65.0078659057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4941864013672</t>
   </si>
   <si>
     <t xml:space="preserve">65.4073791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9341583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3146476745605</t>
+    <t xml:space="preserve">62.934154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3146438598633</t>
   </si>
   <si>
     <t xml:space="preserve">63.7331962585449</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6618804931641</t>
+    <t xml:space="preserve">59.6618843078613</t>
   </si>
   <si>
     <t xml:space="preserve">61.4502143859863</t>
@@ -3773,34 +3773,34 @@
     <t xml:space="preserve">60.9555740356445</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4204902648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3253555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9638862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.086353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.9020309448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8853988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5619697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8390274047852</t>
+    <t xml:space="preserve">62.420482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3253517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9638900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0863571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.9020233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8853912353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5619735717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8390235900879</t>
   </si>
   <si>
     <t xml:space="preserve">62.0019378662109</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0043334960938</t>
+    <t xml:space="preserve">60.0043296813965</t>
   </si>
   <si>
     <t xml:space="preserve">61.545337677002</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">60.0804290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1375007629395</t>
+    <t xml:space="preserve">60.1375045776367</t>
   </si>
   <si>
     <t xml:space="preserve">59.5477333068848</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">59.167236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6428604125977</t>
+    <t xml:space="preserve">59.6428565979004</t>
   </si>
   <si>
     <t xml:space="preserve">59.8901786804199</t>
@@ -3827,7 +3827,7 @@
     <t xml:space="preserve">61.1077690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">61.4311943054199</t>
+    <t xml:space="preserve">61.4311904907227</t>
   </si>
   <si>
     <t xml:space="preserve">60.898494720459</t>
@@ -3836,16 +3836,16 @@
     <t xml:space="preserve">61.1648445129395</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8307113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3063316345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.737979888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.2540473937988</t>
+    <t xml:space="preserve">61.8307151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3063354492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7379760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.2540435791016</t>
   </si>
   <si>
     <t xml:space="preserve">57.435977935791</t>
@@ -3854,19 +3854,19 @@
     <t xml:space="preserve">57.055477142334</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1232643127441</t>
+    <t xml:space="preserve">56.1232604980469</t>
   </si>
   <si>
     <t xml:space="preserve">54.0876045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">54.9246978759766</t>
+    <t xml:space="preserve">54.9247016906738</t>
   </si>
   <si>
     <t xml:space="preserve">53.8022346496582</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5334892272949</t>
+    <t xml:space="preserve">55.5334930419922</t>
   </si>
   <si>
     <t xml:space="preserve">55.5715408325195</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">52.7368392944336</t>
   </si>
   <si>
-    <t xml:space="preserve">53.592960357666</t>
+    <t xml:space="preserve">53.5929641723633</t>
   </si>
   <si>
     <t xml:space="preserve">56.1422882080078</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">55.0578727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3242225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8129425048828</t>
+    <t xml:space="preserve">55.32421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8129386901855</t>
   </si>
   <si>
     <t xml:space="preserve">51.7855987548828</t>
@@ -3911,16 +3911,16 @@
     <t xml:space="preserve">53.3075866699219</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3943977355957</t>
+    <t xml:space="preserve">52.3943939208984</t>
   </si>
   <si>
     <t xml:space="preserve">52.1280479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">52.070972442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0329246520996</t>
+    <t xml:space="preserve">52.0709762573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0329208374023</t>
   </si>
   <si>
     <t xml:space="preserve">49.5596923828125</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">42.8249015808105</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1007614135742</t>
+    <t xml:space="preserve">43.1007652282715</t>
   </si>
   <si>
     <t xml:space="preserve">42.4348945617676</t>
@@ -3953,7 +3953,7 @@
     <t xml:space="preserve">45.6310691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6595993041992</t>
+    <t xml:space="preserve">45.6596031188965</t>
   </si>
   <si>
     <t xml:space="preserve">44.2232284545898</t>
@@ -3971,13 +3971,13 @@
     <t xml:space="preserve">48.1708793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3432998657227</t>
+    <t xml:space="preserve">47.3433036804199</t>
   </si>
   <si>
     <t xml:space="preserve">46.8581657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">47.248176574707</t>
+    <t xml:space="preserve">47.2481727600098</t>
   </si>
   <si>
     <t xml:space="preserve">47.324275970459</t>
@@ -3989,16 +3989,16 @@
     <t xml:space="preserve">48.2660064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2469825744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0353164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3967895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0186805725098</t>
+    <t xml:space="preserve">48.2469787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0353088378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.396785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.018684387207</t>
   </si>
   <si>
     <t xml:space="preserve">47.0293922424316</t>
@@ -4013,13 +4013,13 @@
     <t xml:space="preserve">47.067440032959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5050086975098</t>
+    <t xml:space="preserve">47.505012512207</t>
   </si>
   <si>
     <t xml:space="preserve">48.094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2291526794434</t>
+    <t xml:space="preserve">47.2291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">48.66552734375</t>
@@ -4028,25 +4028,25 @@
     <t xml:space="preserve">47.581111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3552055358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8225135803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4586448669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3147621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8284339904785</t>
+    <t xml:space="preserve">45.3552093505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.822509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4586486816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3147659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8284301757812</t>
   </si>
   <si>
     <t xml:space="preserve">46.6013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6215553283691</t>
+    <t xml:space="preserve">45.6215515136719</t>
   </si>
   <si>
     <t xml:space="preserve">44.955680847168</t>
@@ -4055,13 +4055,13 @@
     <t xml:space="preserve">42.4253807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6370468139648</t>
+    <t xml:space="preserve">40.6370429992676</t>
   </si>
   <si>
     <t xml:space="preserve">39.7904434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7702217102051</t>
+    <t xml:space="preserve">40.7702178955078</t>
   </si>
   <si>
     <t xml:space="preserve">42.5585556030273</t>
@@ -4070,10 +4070,10 @@
     <t xml:space="preserve">41.7309722900391</t>
   </si>
   <si>
-    <t xml:space="preserve">43.148323059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2161102294922</t>
+    <t xml:space="preserve">43.1483268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2161064147949</t>
   </si>
   <si>
     <t xml:space="preserve">43.0627136230469</t>
@@ -5778,9 +5778,6 @@
   </si>
   <si>
     <t xml:space="preserve">54.2799987792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8199996948242</t>
   </si>
 </sst>
 </file>
@@ -64414,25 +64411,25 @@
     </row>
     <row r="2243">
       <c r="A2243" s="1" t="n">
-        <v>45587.6501967593</v>
+        <v>45588.6494328704</v>
       </c>
       <c r="B2243" t="n">
-        <v>577647</v>
+        <v>751589</v>
       </c>
       <c r="C2243" t="n">
-        <v>55.2000007629395</v>
+        <v>54.2799987792969</v>
       </c>
       <c r="D2243" t="n">
-        <v>53.7799987792969</v>
+        <v>53.2799987792969</v>
       </c>
       <c r="E2243" t="n">
-        <v>54.439998626709</v>
+        <v>53.2799987792969</v>
       </c>
       <c r="F2243" t="n">
-        <v>53.8199996948242</v>
+        <v>53.7999992370605</v>
       </c>
       <c r="G2243" t="s">
-        <v>1922</v>
+        <v>1911</v>
       </c>
       <c r="H2243" t="s">
         <v>9</v>

--- a/data/MONC.MI.xlsx
+++ b/data/MONC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1923">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2278308868408</t>
+    <t xml:space="preserve">11.2278327941895</t>
   </si>
   <si>
     <t xml:space="preserve">MONC.MI</t>
@@ -47,46 +47,46 @@
     <t xml:space="preserve">11.1196098327637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.993353843689</t>
+    <t xml:space="preserve">10.9933528900146</t>
   </si>
   <si>
     <t xml:space="preserve">11.0474634170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1376476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3270320892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1206455230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7869672775269</t>
+    <t xml:space="preserve">11.1376457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3270311355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.120644569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7869663238525</t>
   </si>
   <si>
     <t xml:space="preserve">11.6336555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3089952468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7058019638062</t>
+    <t xml:space="preserve">11.3089942932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7058029174805</t>
   </si>
   <si>
     <t xml:space="preserve">11.8951873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5615091323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.985369682312</t>
+    <t xml:space="preserve">11.5615081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.985372543335</t>
   </si>
   <si>
     <t xml:space="preserve">12.2829751968384</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1657381057739</t>
+    <t xml:space="preserve">12.1657371520996</t>
   </si>
   <si>
     <t xml:space="preserve">12.2919931411743</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">12.2649412155151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8861694335938</t>
+    <t xml:space="preserve">11.8861684799194</t>
   </si>
   <si>
     <t xml:space="preserve">12.2559213638306</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1116285324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0575180053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9222440719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0755558013916</t>
+    <t xml:space="preserve">12.1116275787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0575160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9222431182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.075553894043</t>
   </si>
   <si>
     <t xml:space="preserve">11.5705280303955</t>
@@ -131,25 +131,25 @@
     <t xml:space="preserve">11.4532890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8320579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0394821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5805807113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418251991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4362888336182</t>
+    <t xml:space="preserve">11.8320598602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0394802093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5805826187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4182510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4362869262695</t>
   </si>
   <si>
     <t xml:space="preserve">12.5715618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9583158493042</t>
+    <t xml:space="preserve">11.9583168029785</t>
   </si>
   <si>
     <t xml:space="preserve">12.3641405105591</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">12.9142599105835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1397171020508</t>
+    <t xml:space="preserve">13.1397190093994</t>
   </si>
   <si>
     <t xml:space="preserve">12.9413156509399</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3922328948975</t>
+    <t xml:space="preserve">13.3922319412231</t>
   </si>
   <si>
     <t xml:space="preserve">13.5906352996826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6627798080444</t>
+    <t xml:space="preserve">13.6627817153931</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587905883789</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">13.8070755004883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8972587585449</t>
+    <t xml:space="preserve">13.8972578048706</t>
   </si>
   <si>
     <t xml:space="preserve">13.5184879302979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2208824157715</t>
+    <t xml:space="preserve">13.2208833694458</t>
   </si>
   <si>
     <t xml:space="preserve">13.2389192581177</t>
@@ -197,40 +197,40 @@
     <t xml:space="preserve">13.1667728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0765905380249</t>
+    <t xml:space="preserve">13.0765886306763</t>
   </si>
   <si>
     <t xml:space="preserve">13.1938285827637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1216821670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2749938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6988544464111</t>
+    <t xml:space="preserve">13.1216812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2749919891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6988554000854</t>
   </si>
   <si>
     <t xml:space="preserve">13.3020477294922</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1577548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.103645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.760947227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9683704376221</t>
+    <t xml:space="preserve">13.1577558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1036443710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7609462738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9683694839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.0044431686401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2118654251099</t>
+    <t xml:space="preserve">13.2118644714355</t>
   </si>
   <si>
     <t xml:space="preserve">13.0495347976685</t>
@@ -239,40 +239,40 @@
     <t xml:space="preserve">13.3291034698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3832139968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5725994110107</t>
+    <t xml:space="preserve">13.3832159042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5725965499878</t>
   </si>
   <si>
     <t xml:space="preserve">13.3471403121948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8601493835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.679783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7699680328369</t>
+    <t xml:space="preserve">12.8601512908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6797828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7699670791626</t>
   </si>
   <si>
     <t xml:space="preserve">13.1487369537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1757926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1227178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2489748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1858444213867</t>
+    <t xml:space="preserve">13.1757907867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.500452041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1227169036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2489728927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.185845375061</t>
   </si>
   <si>
     <t xml:space="preserve">14.140754699707</t>
@@ -281,31 +281,31 @@
     <t xml:space="preserve">13.8251123428345</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7529668807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5455436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5275068283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4091634750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7459869384766</t>
+    <t xml:space="preserve">13.7529649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5455446243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5275058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4091625213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7459859848022</t>
   </si>
   <si>
     <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4546804428101</t>
+    <t xml:space="preserve">13.4546794891357</t>
   </si>
   <si>
     <t xml:space="preserve">13.6549530029297</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7823991775513</t>
+    <t xml:space="preserve">13.782398223877</t>
   </si>
   <si>
     <t xml:space="preserve">13.645848274231</t>
@@ -314,52 +314,52 @@
     <t xml:space="preserve">13.6822624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5457134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5001955032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8552255630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9189491271973</t>
+    <t xml:space="preserve">13.5457124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5001964569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.855224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9189472198486</t>
   </si>
   <si>
     <t xml:space="preserve">13.9280519485474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4819898605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3363370895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8993797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3909578323364</t>
+    <t xml:space="preserve">13.481990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3363380432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.899377822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3909559249878</t>
   </si>
   <si>
     <t xml:space="preserve">13.035927772522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0008764266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8643264770508</t>
+    <t xml:space="preserve">14.0008773803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8643283843994</t>
   </si>
   <si>
     <t xml:space="preserve">14.0463953018188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4196300506592</t>
+    <t xml:space="preserve">14.4196290969849</t>
   </si>
   <si>
     <t xml:space="preserve">13.10875415802</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4715223312378</t>
+    <t xml:space="preserve">12.4715232849121</t>
   </si>
   <si>
     <t xml:space="preserve">12.8720693588257</t>
@@ -368,13 +368,13 @@
     <t xml:space="preserve">13.3272342681885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.172477722168</t>
+    <t xml:space="preserve">13.1724786758423</t>
   </si>
   <si>
     <t xml:space="preserve">12.7901401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0268259048462</t>
+    <t xml:space="preserve">13.0268249511719</t>
   </si>
   <si>
     <t xml:space="preserve">13.0541343688965</t>
@@ -383,22 +383,22 @@
     <t xml:space="preserve">13.1451683044434</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0996522903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545446395874</t>
+    <t xml:space="preserve">13.0996532440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545427322388</t>
   </si>
   <si>
     <t xml:space="preserve">13.1360635757446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1269607543945</t>
+    <t xml:space="preserve">13.1269598007202</t>
   </si>
   <si>
     <t xml:space="preserve">12.9448957443237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5275058746338</t>
+    <t xml:space="preserve">13.5275049209595</t>
   </si>
   <si>
     <t xml:space="preserve">14.0190849304199</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">14.3650102615356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2557716369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5652828216553</t>
+    <t xml:space="preserve">14.2557697296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5652837753296</t>
   </si>
   <si>
     <t xml:space="preserve">14.2739782333374</t>
@@ -419,28 +419,28 @@
     <t xml:space="preserve">14.1465301513672</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6913652420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7915000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1192207336426</t>
+    <t xml:space="preserve">13.6913661956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7915019989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1192216873169</t>
   </si>
   <si>
     <t xml:space="preserve">14.2193565368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2102537155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0372924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2375640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1829433441162</t>
+    <t xml:space="preserve">14.2102546691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0372915267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2375621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1829442977905</t>
   </si>
   <si>
     <t xml:space="preserve">14.1101179122925</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">13.9553623199463</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1920480728149</t>
+    <t xml:space="preserve">14.1920490264893</t>
   </si>
   <si>
     <t xml:space="preserve">13.9462585449219</t>
@@ -458,25 +458,25 @@
     <t xml:space="preserve">13.8825368881226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7732954025269</t>
+    <t xml:space="preserve">13.7732963562012</t>
   </si>
   <si>
     <t xml:space="preserve">13.7095727920532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5366086959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6003341674805</t>
+    <t xml:space="preserve">13.5366096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6003332138062</t>
   </si>
   <si>
     <t xml:space="preserve">13.7004699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9098453521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7186756134033</t>
+    <t xml:space="preserve">13.9098443984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.718674659729</t>
   </si>
   <si>
     <t xml:space="preserve">13.8916387557983</t>
@@ -485,22 +485,22 @@
     <t xml:space="preserve">14.1010141372681</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8006057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.201150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.264874458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6367454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8370180130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8279151916504</t>
+    <t xml:space="preserve">13.8006048202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2011518478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2648735046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6367444992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8370189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8279142379761</t>
   </si>
   <si>
     <t xml:space="preserve">13.9735689163208</t>
@@ -509,16 +509,16 @@
     <t xml:space="preserve">13.6640558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0281887054443</t>
+    <t xml:space="preserve">14.02818775177</t>
   </si>
   <si>
     <t xml:space="preserve">14.2921838760376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0828084945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1556348800659</t>
+    <t xml:space="preserve">14.0828065872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1556329727173</t>
   </si>
   <si>
     <t xml:space="preserve">14.064600944519</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">13.8097085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.582127571106</t>
+    <t xml:space="preserve">13.5821256637573</t>
   </si>
   <si>
     <t xml:space="preserve">13.5730228424072</t>
@@ -548,52 +548,52 @@
     <t xml:space="preserve">13.5092992782593</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9644641876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0554981231689</t>
+    <t xml:space="preserve">13.9644651412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0555000305176</t>
   </si>
   <si>
     <t xml:space="preserve">14.2466669082642</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474836349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8383808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.120584487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3026504516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2480306625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1023769378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7473487854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9385194778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9749307632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0750694274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9931364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8565883636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8838987350464</t>
+    <t xml:space="preserve">14.847484588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8383817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1205825805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3026514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.248028755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1023778915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7473497390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9385175704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9749317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0750684738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9931373596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8565864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8838996887207</t>
   </si>
   <si>
     <t xml:space="preserve">14.9021062850952</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">15.0477590560913</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2935485839844</t>
+    <t xml:space="preserve">15.2935457229614</t>
   </si>
   <si>
     <t xml:space="preserve">15.1752042770386</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">14.9112071990967</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8747959136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1569976806641</t>
+    <t xml:space="preserve">14.8747940063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1569967269897</t>
   </si>
   <si>
     <t xml:space="preserve">15.6485757827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.684986114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.903468132019</t>
+    <t xml:space="preserve">15.6849880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9034700393677</t>
   </si>
   <si>
     <t xml:space="preserve">15.9398813247681</t>
@@ -632,22 +632,22 @@
     <t xml:space="preserve">15.6940927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9945011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3131160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3859443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4223556518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4132537841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4678764343262</t>
+    <t xml:space="preserve">15.994499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.313117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3859424591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4223594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4132556915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4678726196289</t>
   </si>
   <si>
     <t xml:space="preserve">16.3313236236572</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">16.2038745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1310501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8488454818726</t>
+    <t xml:space="preserve">16.1310520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8488483428955</t>
   </si>
   <si>
     <t xml:space="preserve">16.1492576599121</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">16.1947746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765670776367</t>
+    <t xml:space="preserve">16.1765689849854</t>
   </si>
   <si>
     <t xml:space="preserve">16.1583595275879</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">16.1037406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3950462341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3222217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2676029205322</t>
+    <t xml:space="preserve">16.3950481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3222198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.267599105835</t>
   </si>
   <si>
     <t xml:space="preserve">16.1128444671631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1856708526611</t>
+    <t xml:space="preserve">16.1856689453125</t>
   </si>
   <si>
     <t xml:space="preserve">16.4041500091553</t>
@@ -704,28 +704,28 @@
     <t xml:space="preserve">17.496545791626</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3964099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.532958984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.569372177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7514400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8060550689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8970909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.842472076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0973644256592</t>
+    <t xml:space="preserve">17.396411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5329608917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5693702697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7514362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8060569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8970890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8424701690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0973625183105</t>
   </si>
   <si>
     <t xml:space="preserve">18.2521209716797</t>
@@ -734,34 +734,34 @@
     <t xml:space="preserve">18.425085067749</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1246719360352</t>
+    <t xml:space="preserve">18.1246738433838</t>
   </si>
   <si>
     <t xml:space="preserve">18.3067417144775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3340473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5707359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5161170959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6617698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4159774780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5252208709717</t>
+    <t xml:space="preserve">18.3340511322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5707378387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5161151885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6617679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.415979385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.525218963623</t>
   </si>
   <si>
     <t xml:space="preserve">18.689079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8711452484131</t>
+    <t xml:space="preserve">18.8711433410645</t>
   </si>
   <si>
     <t xml:space="preserve">19.1897602081299</t>
@@ -776,25 +776,25 @@
     <t xml:space="preserve">19.4628582000732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.745059967041</t>
+    <t xml:space="preserve">19.7450618743896</t>
   </si>
   <si>
     <t xml:space="preserve">19.8269920349121</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3718280792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4719581604004</t>
+    <t xml:space="preserve">19.3718242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.471960067749</t>
   </si>
   <si>
     <t xml:space="preserve">19.5812034606934</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7996826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9635391235352</t>
+    <t xml:space="preserve">19.7996788024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9635429382324</t>
   </si>
   <si>
     <t xml:space="preserve">19.7268543243408</t>
@@ -803,46 +803,46 @@
     <t xml:space="preserve">19.8451957702637</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7814712524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4642219543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7100105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6280822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9466972351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1196613311768</t>
+    <t xml:space="preserve">19.78147315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4642238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7100143432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6280841827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9466934204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1196594238281</t>
   </si>
   <si>
     <t xml:space="preserve">21.4018630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7555294036865</t>
+    <t xml:space="preserve">20.7555274963379</t>
   </si>
   <si>
     <t xml:space="preserve">20.0545749664307</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2730541229248</t>
+    <t xml:space="preserve">20.2730522155762</t>
   </si>
   <si>
     <t xml:space="preserve">20.1638126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2548484802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1456069946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2639484405518</t>
+    <t xml:space="preserve">20.254846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1456050872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2639503479004</t>
   </si>
   <si>
     <t xml:space="preserve">19.6540279388428</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">19.8178882598877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9188594818115</t>
+    <t xml:space="preserve">19.9188613891602</t>
   </si>
   <si>
     <t xml:space="preserve">19.9922924041748</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">19.8729648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7536315917969</t>
+    <t xml:space="preserve">19.7536354064941</t>
   </si>
   <si>
     <t xml:space="preserve">20.2860279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4966163635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9004974365234</t>
+    <t xml:space="preserve">19.4966144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9004993438721</t>
   </si>
   <si>
     <t xml:space="preserve">19.973934173584</t>
@@ -893,31 +893,31 @@
     <t xml:space="preserve">18.83571434021</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0927276611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3864650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3038558959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6067657470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.487434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8821411132812</t>
+    <t xml:space="preserve">19.0927314758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3864669799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3038539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6067695617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4874362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8821430206299</t>
   </si>
   <si>
     <t xml:space="preserve">19.4782562255859</t>
   </si>
   <si>
-    <t xml:space="preserve">19.414005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4048233032227</t>
+    <t xml:space="preserve">19.4140033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4048252105713</t>
   </si>
   <si>
     <t xml:space="preserve">19.5884075164795</t>
@@ -926,28 +926,28 @@
     <t xml:space="preserve">19.202880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6245918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8173522949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8907871246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8540706634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0651931762695</t>
+    <t xml:space="preserve">18.6245937347412</t>
+  </si>
+  <si>
+    <t 